--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="List main task" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="93">
   <si>
     <t>Week</t>
   </si>
@@ -275,6 +275,33 @@
   </si>
   <si>
     <t>Present work that team completed in this week</t>
+  </si>
+  <si>
+    <t>2:05PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team meeting </t>
+  </si>
+  <si>
+    <t>Present about Scrum model, Risk management, Huy presnet spring framework</t>
+  </si>
+  <si>
+    <t>9:00PM</t>
+  </si>
+  <si>
+    <t>Document intergarted beetween Scrum and ACDM</t>
+  </si>
+  <si>
+    <t>Update Measurement Template</t>
+  </si>
+  <si>
+    <t>11:00PM</t>
+  </si>
+  <si>
+    <t>Create Requirement Plan initial</t>
+  </si>
+  <si>
+    <t>AS_RE_RequirementPlan.docx</t>
   </si>
 </sst>
 </file>
@@ -284,7 +311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,8 +386,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +409,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -628,6 +667,45 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -673,24 +751,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -736,27 +796,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1029,7 +1089,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1152,13 +1212,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1226,7 @@
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="60" style="1" bestFit="1" customWidth="1"/>
@@ -1179,77 +1239,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="36" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
@@ -1287,10 +1347,10 @@
       <c r="I6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1316,32 +1376,32 @@
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="57"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="9">
-        <f>SUM(L8:L41)</f>
-        <v>15.25</v>
+        <f>SUM(L8:L43)</f>
+        <v>19.75</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="59">
+      <c r="A8" s="66">
         <v>2</v>
       </c>
       <c r="B8" s="10">
         <v>41589</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="31">
         <v>2.5</v>
       </c>
       <c r="F8" s="18" t="s">
@@ -1365,17 +1425,17 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="10">
         <v>41589</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="31">
         <v>2.5</v>
       </c>
       <c r="F9" s="18" t="s">
@@ -1394,17 +1454,17 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="10">
         <v>41590</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="31">
         <v>2</v>
       </c>
       <c r="F10" s="18" t="s">
@@ -1421,24 +1481,24 @@
       <c r="K10" s="2"/>
       <c r="L10" s="4">
         <f>SUM(E8:E16)</f>
-        <v>14.25</v>
+        <v>15.75</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="10">
         <v>41590</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="31">
         <v>1.5</v>
       </c>
       <c r="F11" s="18" t="s">
@@ -1457,17 +1517,17 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="10">
         <v>41591</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="31">
         <v>2</v>
       </c>
       <c r="F12" s="18" t="s">
@@ -1484,17 +1544,17 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="10">
         <v>41591</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="31">
         <v>2</v>
       </c>
       <c r="F13" s="18" t="s">
@@ -1511,17 +1571,17 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="10">
         <v>41591</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="31">
         <v>0.5</v>
       </c>
       <c r="F14" s="18" t="s">
@@ -1537,31 +1597,31 @@
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="23">
-        <f>SUM(E17:E21)</f>
-        <v>0</v>
+        <f>SUM(E18:E23)</f>
+        <v>3</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="10">
         <v>41592</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="31">
         <v>1.25</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="32" t="s">
         <v>83</v>
       </c>
       <c r="H15" s="2"/>
@@ -1571,57 +1631,68 @@
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="23">
-        <f>SUM(E22:E26)</f>
+        <f>SUM(E24:E28)</f>
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+    <row r="16" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
       <c r="B16" s="10">
         <v>41593</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="C16" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>86</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="68"/>
+      <c r="B17" s="73">
+        <v>41594</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="75">
+        <v>1</v>
+      </c>
+      <c r="F17" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="23">
-        <f>SUM(E27:E31)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="62">
-        <v>3</v>
-      </c>
-      <c r="B17" s="19">
-        <v>41596</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="23">
-        <f>SUM(E32:E36)</f>
+        <f>SUM(E29:E33)</f>
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -1629,81 +1700,98 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
+      <c r="A18" s="69">
+        <v>3</v>
+      </c>
       <c r="B18" s="19">
-        <v>41597</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+        <v>41596</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="79" t="s">
+        <v>89</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="23">
-        <f>SUM(E37:E41)</f>
+        <f>SUM(E34:E38)</f>
         <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="69"/>
       <c r="B19" s="19">
-        <v>41598</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+        <v>41596</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="81" t="s">
+        <v>92</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="23">
-        <f>SUM(E42:E46)</f>
+        <f>SUM(E39:E43)</f>
         <v>0</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="69"/>
       <c r="B20" s="19">
-        <v>41599</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+        <v>41597</v>
+      </c>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="81"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="J20" s="15"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="23">
-        <f>SUM(E47:E51)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="L20" s="23"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="19">
-        <v>41600</v>
+        <v>41598</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1713,11 +1801,11 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="23">
-        <f>SUM(E52:E56)</f>
+        <f>SUM(E44:E48)</f>
         <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -1725,25 +1813,23 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="45">
-        <v>4</v>
-      </c>
-      <c r="B22" s="10">
-        <v>41603</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="19">
+        <v>41599</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="15" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="23">
-        <f>SUM(E57:E61)</f>
+        <f>SUM(E49:E53)</f>
         <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -1751,23 +1837,23 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="10">
-        <v>41604</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="19">
+        <v>41600</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="15" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="23">
-        <f>SUM(E62:E66)</f>
+        <f>SUM(E54:E58)</f>
         <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -1775,9 +1861,11 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="37">
+        <v>4</v>
+      </c>
       <c r="B24" s="10">
-        <v>41605</v>
+        <v>41603</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1787,11 +1875,11 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="23">
-        <f>SUM(E67:E71)</f>
+        <f>SUM(E59:E63)</f>
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -1799,9 +1887,9 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="10">
-        <v>41606</v>
+        <v>41604</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1811,11 +1899,11 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="23">
-        <f>SUM(E72:E76)</f>
+        <f>SUM(E64:E68)</f>
         <v>0</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -1823,9 +1911,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="10">
-        <v>41607</v>
+        <v>41605</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1835,11 +1923,11 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="23">
-        <f>SUM(E77:E81)</f>
+        <f>SUM(E69:E73)</f>
         <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -1847,25 +1935,23 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="48">
-        <v>5</v>
-      </c>
-      <c r="B27" s="19">
-        <v>41610</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="10">
+        <v>41606</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="23">
-        <f>SUM(E82:E86)</f>
+        <f>SUM(E74:E78)</f>
         <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
@@ -1873,23 +1959,23 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="19">
-        <v>41611</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="10">
+        <v>41607</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="23">
-        <f>SUM(E87:E91)</f>
+        <f>SUM(E79:E83)</f>
         <v>0</v>
       </c>
       <c r="M28" s="3" t="s">
@@ -1897,9 +1983,11 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="34">
+        <v>5</v>
+      </c>
       <c r="B29" s="19">
-        <v>41612</v>
+        <v>41610</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1909,11 +1997,11 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="23">
-        <f>SUM(E92:E96)</f>
+        <f>SUM(E84:E88)</f>
         <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
@@ -1921,9 +2009,9 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="19">
-        <v>41613</v>
+        <v>41611</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1933,11 +2021,11 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="23">
-        <f>SUM(E97:E101)</f>
+        <f>SUM(E89:E93)</f>
         <v>0</v>
       </c>
       <c r="M30" s="3" t="s">
@@ -1945,9 +2033,9 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="19">
-        <v>41614</v>
+        <v>41612</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1957,11 +2045,11 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="23">
-        <f>SUM(E102:E106)</f>
+        <f>SUM(E94:E98)</f>
         <v>0</v>
       </c>
       <c r="M31" s="3" t="s">
@@ -1969,25 +2057,23 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="45">
-        <v>6</v>
-      </c>
-      <c r="B32" s="10">
-        <v>41617</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="19">
+        <v>41613</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="23">
-        <f>SUM(E107:E111)</f>
+        <f>SUM(E99:E103)</f>
         <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
@@ -1995,23 +2081,23 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="10">
-        <v>41618</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="19">
+        <v>41614</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="23">
-        <f>SUM(E112:E116)</f>
+        <f>SUM(E104:E108)</f>
         <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
@@ -2019,9 +2105,11 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
+      <c r="A34" s="37">
+        <v>6</v>
+      </c>
       <c r="B34" s="10">
-        <v>41619</v>
+        <v>41617</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -2031,11 +2119,11 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="23">
-        <f>SUM(E117:E121)</f>
+        <f>SUM(E109:E113)</f>
         <v>0</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -2043,9 +2131,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="10">
-        <v>41620</v>
+        <v>41618</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2055,11 +2143,11 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="23">
-        <f>SUM(E122:E126)</f>
+        <f>SUM(E114:E118)</f>
         <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -2067,9 +2155,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="10">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -2079,11 +2167,11 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="23">
-        <f>SUM(E127:E131)</f>
+        <f>SUM(E119:E123)</f>
         <v>0</v>
       </c>
       <c r="M36" s="3" t="s">
@@ -2091,25 +2179,23 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="48">
-        <v>7</v>
-      </c>
-      <c r="B37" s="19">
-        <v>41624</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="10">
+        <v>41620</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
       <c r="J37" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="23">
-        <f>SUM(E132:E136)</f>
+        <f>SUM(E124:E128)</f>
         <v>0</v>
       </c>
       <c r="M37" s="3" t="s">
@@ -2117,23 +2203,23 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="19">
-        <v>41625</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="10">
+        <v>41621</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
       <c r="J38" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="23">
-        <f>SUM(E137:E141)</f>
+        <f>SUM(E129:E133)</f>
         <v>0</v>
       </c>
       <c r="M38" s="3" t="s">
@@ -2141,9 +2227,11 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="34">
+        <v>7</v>
+      </c>
       <c r="B39" s="19">
-        <v>41626</v>
+        <v>41624</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2153,11 +2241,11 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="23">
-        <f>SUM(E142:E146)</f>
+        <f>SUM(E134:E138)</f>
         <v>0</v>
       </c>
       <c r="M39" s="3" t="s">
@@ -2165,9 +2253,9 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="19">
-        <v>41627</v>
+        <v>41625</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2177,11 +2265,11 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="23">
-        <f>SUM(E147:E151)</f>
+        <f>SUM(E139:E143)</f>
         <v>0</v>
       </c>
       <c r="M40" s="3" t="s">
@@ -2189,9 +2277,9 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="19">
-        <v>41628</v>
+        <v>41626</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2201,11 +2289,11 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="23">
-        <f>SUM(E152:E156)</f>
+        <f>SUM(E144:E148)</f>
         <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
@@ -2213,37 +2301,59 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="45">
+      <c r="A42" s="35"/>
+      <c r="B42" s="19">
+        <v>41627</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="6"/>
+      <c r="L42" s="23">
+        <f>SUM(E149:E153)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="B43" s="19">
+        <v>41628</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="L43" s="23">
+        <f>SUM(E154:E158)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="37">
         <v>8</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B44" s="10">
         <v>41631</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="10">
-        <v>41632</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="10">
-        <v>41633</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2254,9 +2364,9 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="10">
-        <v>41634</v>
+        <v>41632</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -2267,9 +2377,9 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="10">
-        <v>41635</v>
+        <v>41633</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2280,37 +2390,37 @@
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="48">
+      <c r="A47" s="38"/>
+      <c r="B47" s="10">
+        <v>41634</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="10">
+        <v>41635</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="34">
         <v>9</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B49" s="19">
         <v>41638</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="19">
-        <v>41639</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="19">
-        <v>41640</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -2321,9 +2431,9 @@
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="19">
-        <v>41641</v>
+        <v>41639</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -2334,9 +2444,9 @@
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="19">
-        <v>41642</v>
+        <v>41640</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2347,37 +2457,37 @@
       <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="45">
+      <c r="A52" s="35"/>
+      <c r="B52" s="19">
+        <v>41641</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="36"/>
+      <c r="B53" s="19">
+        <v>41642</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="37">
         <v>10</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B54" s="10">
         <v>41645</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
-      <c r="B53" s="10">
-        <v>41646</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
-      <c r="B54" s="10">
-        <v>41647</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2388,9 +2498,9 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
+      <c r="A55" s="38"/>
       <c r="B55" s="10">
-        <v>41648</v>
+        <v>41646</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2401,9 +2511,9 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="10">
-        <v>41649</v>
+        <v>41647</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -2414,37 +2524,37 @@
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="48">
+      <c r="A57" s="38"/>
+      <c r="B57" s="10">
+        <v>41648</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
+      <c r="B58" s="10">
+        <v>41649</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="34">
         <v>11</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B59" s="19">
         <v>41652</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="19">
-        <v>41653</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="19">
-        <v>41654</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2455,9 +2565,9 @@
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="19">
-        <v>41655</v>
+        <v>41653</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2468,9 +2578,9 @@
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="19">
-        <v>41656</v>
+        <v>41654</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -2481,37 +2591,37 @@
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="45">
+      <c r="A62" s="35"/>
+      <c r="B62" s="19">
+        <v>41655</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="36"/>
+      <c r="B63" s="19">
+        <v>41656</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="37">
         <v>12</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B64" s="10">
         <v>41659</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
-      <c r="B63" s="10">
-        <v>41660</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
-      <c r="B64" s="10">
-        <v>41661</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2522,9 +2632,9 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="46"/>
+      <c r="A65" s="38"/>
       <c r="B65" s="10">
-        <v>41662</v>
+        <v>41660</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2535,9 +2645,9 @@
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
+      <c r="A66" s="38"/>
       <c r="B66" s="10">
-        <v>41663</v>
+        <v>41661</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -2548,41 +2658,37 @@
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="48">
+      <c r="A67" s="38"/>
+      <c r="B67" s="10">
+        <v>41662</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
+      <c r="B68" s="10">
+        <v>41663</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="34">
         <v>13</v>
       </c>
-      <c r="B67" s="19">
+      <c r="B69" s="19">
         <v>41666</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-    </row>
-    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="19">
-        <v>41667</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="19">
-        <v>41668</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2595,9 +2701,9 @@
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="19">
-        <v>41669</v>
+        <v>41667</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -2610,9 +2716,9 @@
       <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
+      <c r="A71" s="35"/>
       <c r="B71" s="19">
-        <v>41670</v>
+        <v>41668</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -2625,41 +2731,41 @@
       <c r="I71" s="5"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="45">
+      <c r="A72" s="35"/>
+      <c r="B72" s="19">
+        <v>41669</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="36"/>
+      <c r="B73" s="19">
+        <v>41670</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="37">
         <v>14</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B74" s="10">
         <v>41673</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-    </row>
-    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="46"/>
-      <c r="B73" s="10">
-        <v>41674</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="46"/>
-      <c r="B74" s="10">
-        <v>41675</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -2672,9 +2778,9 @@
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="46"/>
+      <c r="A75" s="38"/>
       <c r="B75" s="10">
-        <v>41676</v>
+        <v>41674</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2687,9 +2793,9 @@
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
+      <c r="A76" s="38"/>
       <c r="B76" s="10">
-        <v>41677</v>
+        <v>41675</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2702,37 +2808,41 @@
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="48">
+      <c r="A77" s="38"/>
+      <c r="B77" s="10">
+        <v>41676</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="39"/>
+      <c r="B78" s="10">
+        <v>41677</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="34">
         <v>15</v>
       </c>
-      <c r="B77" s="19">
+      <c r="B79" s="19">
         <v>41680</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="19">
-        <v>41681</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-    </row>
-    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="19">
-        <v>41682</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -2743,9 +2853,9 @@
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
+      <c r="A80" s="35"/>
       <c r="B80" s="19">
-        <v>41683</v>
+        <v>41681</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -2756,9 +2866,9 @@
       <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="50"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="19">
-        <v>41684</v>
+        <v>41682</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -2769,37 +2879,37 @@
       <c r="I81" s="5"/>
     </row>
     <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="45">
+      <c r="A82" s="35"/>
+      <c r="B82" s="19">
+        <v>41683</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="36"/>
+      <c r="B83" s="19">
+        <v>41684</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="37">
         <v>16</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B84" s="10">
         <v>41687</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-    </row>
-    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="46"/>
-      <c r="B83" s="10">
-        <v>41688</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="46"/>
-      <c r="B84" s="10">
-        <v>41689</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -2810,9 +2920,9 @@
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="46"/>
+      <c r="A85" s="38"/>
       <c r="B85" s="10">
-        <v>41690</v>
+        <v>41688</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2823,9 +2933,9 @@
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="47"/>
+      <c r="A86" s="38"/>
       <c r="B86" s="10">
-        <v>41691</v>
+        <v>41689</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -2836,37 +2946,37 @@
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="48">
+      <c r="A87" s="38"/>
+      <c r="B87" s="10">
+        <v>41690</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="39"/>
+      <c r="B88" s="10">
+        <v>41691</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="34">
         <v>17</v>
       </c>
-      <c r="B87" s="19">
+      <c r="B89" s="19">
         <v>41694</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-    </row>
-    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-      <c r="B88" s="19">
-        <v>41695</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-    </row>
-    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
-      <c r="B89" s="19">
-        <v>41696</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -2877,9 +2987,9 @@
       <c r="I89" s="5"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
+      <c r="A90" s="35"/>
       <c r="B90" s="19">
-        <v>41697</v>
+        <v>41695</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -2890,9 +3000,9 @@
       <c r="I90" s="5"/>
     </row>
     <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="50"/>
+      <c r="A91" s="35"/>
       <c r="B91" s="19">
-        <v>41698</v>
+        <v>41696</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -2903,37 +3013,37 @@
       <c r="I91" s="5"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="45">
+      <c r="A92" s="35"/>
+      <c r="B92" s="19">
+        <v>41697</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="36"/>
+      <c r="B93" s="19">
+        <v>41698</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="37">
         <v>18</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B94" s="10">
         <v>41701</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-    </row>
-    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="46"/>
-      <c r="B93" s="10">
-        <v>41702</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-    </row>
-    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="46"/>
-      <c r="B94" s="10">
-        <v>41703</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -2944,9 +3054,9 @@
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="46"/>
+      <c r="A95" s="38"/>
       <c r="B95" s="10">
-        <v>41704</v>
+        <v>41702</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2957,9 +3067,9 @@
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="47"/>
+      <c r="A96" s="38"/>
       <c r="B96" s="10">
-        <v>41705</v>
+        <v>41703</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -2970,37 +3080,37 @@
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="48">
+      <c r="A97" s="38"/>
+      <c r="B97" s="10">
+        <v>41704</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="39"/>
+      <c r="B98" s="10">
+        <v>41705</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="34">
         <v>19</v>
       </c>
-      <c r="B97" s="19">
+      <c r="B99" s="19">
         <v>41708</v>
-      </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-    </row>
-    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="49"/>
-      <c r="B98" s="19">
-        <v>41709</v>
-      </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="49"/>
-      <c r="B99" s="19">
-        <v>41710</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -3011,9 +3121,9 @@
       <c r="I99" s="5"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="49"/>
+      <c r="A100" s="35"/>
       <c r="B100" s="19">
-        <v>41711</v>
+        <v>41709</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -3024,9 +3134,9 @@
       <c r="I100" s="5"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="50"/>
+      <c r="A101" s="35"/>
       <c r="B101" s="19">
-        <v>41712</v>
+        <v>41710</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -3037,37 +3147,37 @@
       <c r="I101" s="5"/>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="45">
+      <c r="A102" s="35"/>
+      <c r="B102" s="19">
+        <v>41711</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="36"/>
+      <c r="B103" s="19">
+        <v>41712</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="37">
         <v>20</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B104" s="10">
         <v>41715</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-    </row>
-    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="46"/>
-      <c r="B103" s="10">
-        <v>41716</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-    </row>
-    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="46"/>
-      <c r="B104" s="10">
-        <v>41717</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3078,9 +3188,9 @@
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="46"/>
+      <c r="A105" s="38"/>
       <c r="B105" s="10">
-        <v>41718</v>
+        <v>41716</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3091,9 +3201,9 @@
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="47"/>
+      <c r="A106" s="38"/>
       <c r="B106" s="10">
-        <v>41719</v>
+        <v>41717</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3104,37 +3214,37 @@
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="48">
+      <c r="A107" s="38"/>
+      <c r="B107" s="10">
+        <v>41718</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="39"/>
+      <c r="B108" s="10">
+        <v>41719</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="34">
         <v>21</v>
       </c>
-      <c r="B107" s="19">
+      <c r="B109" s="19">
         <v>41722</v>
-      </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-    </row>
-    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="49"/>
-      <c r="B108" s="19">
-        <v>41723</v>
-      </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-    </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="49"/>
-      <c r="B109" s="19">
-        <v>41724</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -3145,9 +3255,9 @@
       <c r="I109" s="5"/>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="49"/>
+      <c r="A110" s="35"/>
       <c r="B110" s="19">
-        <v>41725</v>
+        <v>41723</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -3158,9 +3268,9 @@
       <c r="I110" s="5"/>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="50"/>
+      <c r="A111" s="35"/>
       <c r="B111" s="19">
-        <v>41726</v>
+        <v>41724</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -3171,37 +3281,37 @@
       <c r="I111" s="5"/>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="45">
+      <c r="A112" s="35"/>
+      <c r="B112" s="19">
+        <v>41725</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="36"/>
+      <c r="B113" s="19">
+        <v>41726</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="37">
         <v>22</v>
       </c>
-      <c r="B112" s="10">
+      <c r="B114" s="10">
         <v>41729</v>
-      </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-    </row>
-    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="46"/>
-      <c r="B113" s="10">
-        <v>41730</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-    </row>
-    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="46"/>
-      <c r="B114" s="10">
-        <v>41731</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -3212,9 +3322,9 @@
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="46"/>
+      <c r="A115" s="38"/>
       <c r="B115" s="10">
-        <v>41732</v>
+        <v>41730</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3225,9 +3335,9 @@
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="47"/>
+      <c r="A116" s="38"/>
       <c r="B116" s="10">
-        <v>41733</v>
+        <v>41731</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -3238,37 +3348,37 @@
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="48">
+      <c r="A117" s="38"/>
+      <c r="B117" s="10">
+        <v>41732</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="39"/>
+      <c r="B118" s="10">
+        <v>41733</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="34">
         <v>23</v>
       </c>
-      <c r="B117" s="19">
+      <c r="B119" s="19">
         <v>41736</v>
-      </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-    </row>
-    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="49"/>
-      <c r="B118" s="19">
-        <v>41737</v>
-      </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-    </row>
-    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="49"/>
-      <c r="B119" s="19">
-        <v>41738</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -3279,9 +3389,9 @@
       <c r="I119" s="5"/>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="49"/>
+      <c r="A120" s="35"/>
       <c r="B120" s="19">
-        <v>41739</v>
+        <v>41737</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -3292,9 +3402,9 @@
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="50"/>
+      <c r="A121" s="35"/>
       <c r="B121" s="19">
-        <v>41740</v>
+        <v>41738</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -3305,37 +3415,37 @@
       <c r="I121" s="5"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="45">
+      <c r="A122" s="35"/>
+      <c r="B122" s="19">
+        <v>41739</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="36"/>
+      <c r="B123" s="19">
+        <v>41740</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="37">
         <v>24</v>
       </c>
-      <c r="B122" s="10">
+      <c r="B124" s="10">
         <v>41743</v>
-      </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-    </row>
-    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="46"/>
-      <c r="B123" s="10">
-        <v>41744</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-    </row>
-    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="46"/>
-      <c r="B124" s="10">
-        <v>41745</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3346,9 +3456,9 @@
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="46"/>
+      <c r="A125" s="38"/>
       <c r="B125" s="10">
-        <v>41746</v>
+        <v>41744</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3359,9 +3469,9 @@
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="47"/>
+      <c r="A126" s="38"/>
       <c r="B126" s="10">
-        <v>41747</v>
+        <v>41745</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -3372,37 +3482,37 @@
       <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="48">
+      <c r="A127" s="38"/>
+      <c r="B127" s="10">
+        <v>41746</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="39"/>
+      <c r="B128" s="10">
+        <v>41747</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="34">
         <v>25</v>
       </c>
-      <c r="B127" s="19">
+      <c r="B129" s="19">
         <v>41750</v>
-      </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-    </row>
-    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="49"/>
-      <c r="B128" s="19">
-        <v>41751</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-    </row>
-    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="49"/>
-      <c r="B129" s="19">
-        <v>41752</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -3413,9 +3523,9 @@
       <c r="I129" s="5"/>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="49"/>
+      <c r="A130" s="35"/>
       <c r="B130" s="19">
-        <v>41753</v>
+        <v>41751</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -3426,9 +3536,9 @@
       <c r="I130" s="5"/>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="50"/>
+      <c r="A131" s="35"/>
       <c r="B131" s="19">
-        <v>41754</v>
+        <v>41752</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -3439,37 +3549,37 @@
       <c r="I131" s="5"/>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="45">
+      <c r="A132" s="35"/>
+      <c r="B132" s="19">
+        <v>41753</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="36"/>
+      <c r="B133" s="19">
+        <v>41754</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="37">
         <v>26</v>
       </c>
-      <c r="B132" s="10">
+      <c r="B134" s="10">
         <v>41757</v>
-      </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-    </row>
-    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="46"/>
-      <c r="B133" s="10">
-        <v>41758</v>
-      </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-    </row>
-    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="46"/>
-      <c r="B134" s="10">
-        <v>41759</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -3480,9 +3590,9 @@
       <c r="I134" s="6"/>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="46"/>
+      <c r="A135" s="38"/>
       <c r="B135" s="10">
-        <v>41760</v>
+        <v>41758</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3493,9 +3603,9 @@
       <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="47"/>
+      <c r="A136" s="38"/>
       <c r="B136" s="10">
-        <v>41761</v>
+        <v>41759</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -3506,37 +3616,37 @@
       <c r="I136" s="6"/>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="48">
+      <c r="A137" s="38"/>
+      <c r="B137" s="10">
+        <v>41760</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+    </row>
+    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="39"/>
+      <c r="B138" s="10">
+        <v>41761</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+    </row>
+    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="34">
         <v>27</v>
       </c>
-      <c r="B137" s="19">
+      <c r="B139" s="19">
         <v>41764</v>
-      </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-    </row>
-    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="49"/>
-      <c r="B138" s="19">
-        <v>41765</v>
-      </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-    </row>
-    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="49"/>
-      <c r="B139" s="19">
-        <v>41766</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -3547,9 +3657,9 @@
       <c r="I139" s="5"/>
     </row>
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="49"/>
+      <c r="A140" s="35"/>
       <c r="B140" s="19">
-        <v>41767</v>
+        <v>41765</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -3560,9 +3670,9 @@
       <c r="I140" s="5"/>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="50"/>
+      <c r="A141" s="35"/>
       <c r="B141" s="19">
-        <v>41768</v>
+        <v>41766</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -3573,37 +3683,37 @@
       <c r="I141" s="5"/>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="45">
+      <c r="A142" s="35"/>
+      <c r="B142" s="19">
+        <v>41767</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+    </row>
+    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="36"/>
+      <c r="B143" s="19">
+        <v>41768</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="37">
         <v>28</v>
       </c>
-      <c r="B142" s="10">
+      <c r="B144" s="10">
         <v>41771</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
-    </row>
-    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="46"/>
-      <c r="B143" s="10">
-        <v>41772</v>
-      </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-    </row>
-    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="46"/>
-      <c r="B144" s="10">
-        <v>41773</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -3614,9 +3724,9 @@
       <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="46"/>
+      <c r="A145" s="38"/>
       <c r="B145" s="10">
-        <v>41774</v>
+        <v>41772</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -3627,9 +3737,9 @@
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="47"/>
+      <c r="A146" s="38"/>
       <c r="B146" s="10">
-        <v>41775</v>
+        <v>41773</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -3640,37 +3750,37 @@
       <c r="I146" s="6"/>
     </row>
     <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="48">
+      <c r="A147" s="38"/>
+      <c r="B147" s="10">
+        <v>41774</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+    </row>
+    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="39"/>
+      <c r="B148" s="10">
+        <v>41775</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+    </row>
+    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="34">
         <v>29</v>
       </c>
-      <c r="B147" s="19">
+      <c r="B149" s="19">
         <v>41778</v>
-      </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-    </row>
-    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="49"/>
-      <c r="B148" s="19">
-        <v>41779</v>
-      </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-    </row>
-    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="49"/>
-      <c r="B149" s="19">
-        <v>41780</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -3681,9 +3791,9 @@
       <c r="I149" s="5"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="49"/>
+      <c r="A150" s="35"/>
       <c r="B150" s="19">
-        <v>41781</v>
+        <v>41779</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -3694,9 +3804,9 @@
       <c r="I150" s="5"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="50"/>
+      <c r="A151" s="35"/>
       <c r="B151" s="19">
-        <v>41782</v>
+        <v>41780</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -3707,37 +3817,37 @@
       <c r="I151" s="5"/>
     </row>
     <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="66">
+      <c r="A152" s="35"/>
+      <c r="B152" s="19">
+        <v>41781</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+    </row>
+    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="36"/>
+      <c r="B153" s="19">
+        <v>41782</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+    </row>
+    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="40">
         <v>30</v>
       </c>
-      <c r="B152" s="10">
+      <c r="B154" s="10">
         <v>41785</v>
-      </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-    </row>
-    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="67"/>
-      <c r="B153" s="10">
-        <v>41786</v>
-      </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-    </row>
-    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="67"/>
-      <c r="B154" s="10">
-        <v>41787</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -3748,9 +3858,9 @@
       <c r="I154" s="2"/>
     </row>
     <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="67"/>
+      <c r="A155" s="41"/>
       <c r="B155" s="10">
-        <v>41788</v>
+        <v>41786</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -3761,9 +3871,9 @@
       <c r="I155" s="2"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="68"/>
+      <c r="A156" s="41"/>
       <c r="B156" s="10">
-        <v>41789</v>
+        <v>41787</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -3774,218 +3884,244 @@
       <c r="I156" s="2"/>
     </row>
     <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B157" s="20">
+      <c r="A157" s="41"/>
+      <c r="B157" s="10">
+        <v>41788</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="42"/>
+      <c r="B158" s="10">
+        <v>41789</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B159" s="20">
         <v>41790</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B158" s="10">
-        <v>41791</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B159" s="10">
-        <v>41792</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B160" s="10">
-        <v>41793</v>
+        <v>41791</v>
       </c>
     </row>
     <row r="161" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B161" s="10">
-        <v>41794</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="162" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B162" s="10">
-        <v>41795</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="163" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B163" s="10">
-        <v>41796</v>
+        <v>41794</v>
       </c>
     </row>
     <row r="164" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B164" s="10">
-        <v>41797</v>
+        <v>41795</v>
       </c>
     </row>
     <row r="165" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B165" s="10">
-        <v>41798</v>
+        <v>41796</v>
       </c>
     </row>
     <row r="166" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B166" s="10">
-        <v>41799</v>
+        <v>41797</v>
       </c>
     </row>
     <row r="167" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B167" s="10">
-        <v>41800</v>
+        <v>41798</v>
       </c>
     </row>
     <row r="168" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B168" s="10">
-        <v>41801</v>
+        <v>41799</v>
       </c>
     </row>
     <row r="169" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B169" s="10">
-        <v>41802</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="170" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B170" s="10">
-        <v>41803</v>
+        <v>41801</v>
       </c>
     </row>
     <row r="171" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B171" s="10">
-        <v>41804</v>
+        <v>41802</v>
       </c>
     </row>
     <row r="172" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B172" s="10">
-        <v>41805</v>
+        <v>41803</v>
       </c>
     </row>
     <row r="173" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B173" s="10">
-        <v>41806</v>
+        <v>41804</v>
       </c>
     </row>
     <row r="174" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B174" s="10">
-        <v>41807</v>
+        <v>41805</v>
       </c>
     </row>
     <row r="175" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B175" s="10">
-        <v>41808</v>
+        <v>41806</v>
       </c>
     </row>
     <row r="176" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B176" s="10">
-        <v>41809</v>
+        <v>41807</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B177" s="10">
-        <v>41810</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="178" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B178" s="10">
-        <v>41811</v>
+        <v>41809</v>
       </c>
     </row>
     <row r="179" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B179" s="10">
-        <v>41812</v>
+        <v>41810</v>
       </c>
     </row>
     <row r="180" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B180" s="10">
-        <v>41813</v>
+        <v>41811</v>
       </c>
     </row>
     <row r="181" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B181" s="10">
-        <v>41814</v>
+        <v>41812</v>
       </c>
     </row>
     <row r="182" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B182" s="10">
-        <v>41815</v>
+        <v>41813</v>
       </c>
     </row>
     <row r="183" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B183" s="10">
-        <v>41816</v>
+        <v>41814</v>
       </c>
     </row>
     <row r="184" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B184" s="10">
-        <v>41817</v>
+        <v>41815</v>
       </c>
     </row>
     <row r="185" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B185" s="10">
-        <v>41818</v>
+        <v>41816</v>
       </c>
     </row>
     <row r="186" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B186" s="10">
-        <v>41819</v>
+        <v>41817</v>
       </c>
     </row>
     <row r="187" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B187" s="10">
-        <v>41820</v>
+        <v>41818</v>
       </c>
     </row>
     <row r="188" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B188" s="10">
-        <v>41821</v>
+        <v>41819</v>
       </c>
     </row>
     <row r="189" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B189" s="10">
-        <v>41822</v>
+        <v>41820</v>
       </c>
     </row>
     <row r="190" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B190" s="10">
-        <v>41823</v>
+        <v>41821</v>
       </c>
     </row>
     <row r="191" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B191" s="10">
+        <v>41822</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B192" s="10">
+        <v>41823</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B193" s="10">
         <v>41824</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A77:A81"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="F2:M4"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J6:M6"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>Week</t>
   </si>
@@ -277,9 +277,6 @@
     <t>Present work that team completed in this week</t>
   </si>
   <si>
-    <t>2:05PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Team meeting </t>
   </si>
   <si>
@@ -295,13 +292,13 @@
     <t>Update Measurement Template</t>
   </si>
   <si>
-    <t>11:00PM</t>
-  </si>
-  <si>
     <t>Create Requirement Plan initial</t>
   </si>
   <si>
     <t>AS_RE_RequirementPlan.docx</t>
+  </si>
+  <si>
+    <t>2:30PM</t>
   </si>
 </sst>
 </file>
@@ -679,123 +676,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -817,6 +697,123 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1089,7 +1086,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1215,10 +1212,10 @@
   <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1273,13 +1270,13 @@
       <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="52"/>
       <c r="G3" s="53"/>
       <c r="H3" s="53"/>
@@ -1290,11 +1287,11 @@
       <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="55"/>
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
@@ -1305,11 +1302,11 @@
       <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
@@ -1347,10 +1344,10 @@
       <c r="I6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1376,20 +1373,20 @@
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="64"/>
+      <c r="K7" s="70"/>
       <c r="L7" s="9">
         <f>SUM(L8:L43)</f>
-        <v>19.75</v>
+        <v>20.25</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="66">
+      <c r="A8" s="72">
         <v>2</v>
       </c>
       <c r="B8" s="10">
@@ -1425,7 +1422,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="10">
         <v>41589</v>
       </c>
@@ -1454,7 +1451,7 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="10">
         <v>41590</v>
       </c>
@@ -1488,7 +1485,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="10">
         <v>41590</v>
       </c>
@@ -1517,7 +1514,7 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="10">
         <v>41591</v>
       </c>
@@ -1544,7 +1541,7 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="10">
         <v>41591</v>
       </c>
@@ -1571,7 +1568,7 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="10">
         <v>41591</v>
       </c>
@@ -1598,14 +1595,14 @@
       <c r="K14" s="6"/>
       <c r="L14" s="23">
         <f>SUM(E18:E23)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="10">
         <v>41592</v>
       </c>
@@ -1639,7 +1636,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="10">
         <v>41593</v>
       </c>
@@ -1647,16 +1644,16 @@
         <v>10</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E16" s="31">
         <v>1.5</v>
       </c>
-      <c r="F16" s="76" t="s">
+      <c r="F16" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="32" t="s">
         <v>85</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>86</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1666,24 +1663,24 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="73">
+      <c r="A17" s="74"/>
+      <c r="B17" s="34">
         <v>41594</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="36">
+        <v>1</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="39" t="s">
         <v>87</v>
-      </c>
-      <c r="E17" s="75">
-        <v>1</v>
-      </c>
-      <c r="F17" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="78" t="s">
-        <v>88</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1700,26 +1697,26 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="69">
+      <c r="A18" s="75">
         <v>3</v>
       </c>
       <c r="B18" s="19">
         <v>41596</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="41" t="s">
         <v>75</v>
       </c>
       <c r="E18" s="13">
         <v>0.5</v>
       </c>
-      <c r="F18" s="79" t="s">
+      <c r="F18" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="79" t="s">
-        <v>89</v>
+      <c r="G18" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1736,27 +1733,27 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="19">
         <v>41596</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="13">
+        <v>3</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="42" t="s">
         <v>90</v>
-      </c>
-      <c r="E19" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="F19" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="81" t="s">
-        <v>92</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="15" t="s">
@@ -1772,16 +1769,16 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="19">
         <v>41597</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="81"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="5"/>
       <c r="J20" s="15"/>
       <c r="K20" s="6"/>
@@ -1789,7 +1786,7 @@
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
+      <c r="A21" s="75"/>
       <c r="B21" s="19">
         <v>41598</v>
       </c>
@@ -1813,7 +1810,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="19">
         <v>41599</v>
       </c>
@@ -1837,7 +1834,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="19">
         <v>41600</v>
       </c>
@@ -1861,7 +1858,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="37">
+      <c r="A24" s="58">
         <v>4</v>
       </c>
       <c r="B24" s="10">
@@ -1887,7 +1884,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="10">
         <v>41604</v>
       </c>
@@ -1911,7 +1908,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="10">
         <v>41605</v>
       </c>
@@ -1935,7 +1932,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="10">
         <v>41606</v>
       </c>
@@ -1959,7 +1956,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="10">
         <v>41607</v>
       </c>
@@ -1983,7 +1980,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="61">
         <v>5</v>
       </c>
       <c r="B29" s="19">
@@ -2009,7 +2006,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="19">
         <v>41611</v>
       </c>
@@ -2033,7 +2030,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="19">
         <v>41612</v>
       </c>
@@ -2057,7 +2054,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="19">
         <v>41613</v>
       </c>
@@ -2081,7 +2078,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="19">
         <v>41614</v>
       </c>
@@ -2105,7 +2102,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="37">
+      <c r="A34" s="58">
         <v>6</v>
       </c>
       <c r="B34" s="10">
@@ -2131,7 +2128,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="10">
         <v>41618</v>
       </c>
@@ -2155,7 +2152,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="10">
         <v>41619</v>
       </c>
@@ -2179,7 +2176,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="10">
         <v>41620</v>
       </c>
@@ -2203,7 +2200,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="10">
         <v>41621</v>
       </c>
@@ -2227,7 +2224,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
+      <c r="A39" s="61">
         <v>7</v>
       </c>
       <c r="B39" s="19">
@@ -2253,7 +2250,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="19">
         <v>41625</v>
       </c>
@@ -2277,7 +2274,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="19">
         <v>41626</v>
       </c>
@@ -2301,7 +2298,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="19">
         <v>41627</v>
       </c>
@@ -2325,7 +2322,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="19">
         <v>41628</v>
       </c>
@@ -2349,7 +2346,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="37">
+      <c r="A44" s="58">
         <v>8</v>
       </c>
       <c r="B44" s="10">
@@ -2364,7 +2361,7 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="10">
         <v>41632</v>
       </c>
@@ -2377,7 +2374,7 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="10">
         <v>41633</v>
       </c>
@@ -2390,7 +2387,7 @@
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="10">
         <v>41634</v>
       </c>
@@ -2403,7 +2400,7 @@
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="10">
         <v>41635</v>
       </c>
@@ -2416,7 +2413,7 @@
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="34">
+      <c r="A49" s="61">
         <v>9</v>
       </c>
       <c r="B49" s="19">
@@ -2431,7 +2428,7 @@
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="19">
         <v>41639</v>
       </c>
@@ -2444,7 +2441,7 @@
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="19">
         <v>41640</v>
       </c>
@@ -2457,7 +2454,7 @@
       <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
+      <c r="A52" s="62"/>
       <c r="B52" s="19">
         <v>41641</v>
       </c>
@@ -2470,7 +2467,7 @@
       <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="19">
         <v>41642</v>
       </c>
@@ -2483,7 +2480,7 @@
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="37">
+      <c r="A54" s="58">
         <v>10</v>
       </c>
       <c r="B54" s="10">
@@ -2498,7 +2495,7 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="10">
         <v>41646</v>
       </c>
@@ -2511,7 +2508,7 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="10">
         <v>41647</v>
       </c>
@@ -2524,7 +2521,7 @@
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="10">
         <v>41648</v>
       </c>
@@ -2537,7 +2534,7 @@
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="10">
         <v>41649</v>
       </c>
@@ -2550,7 +2547,7 @@
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="34">
+      <c r="A59" s="61">
         <v>11</v>
       </c>
       <c r="B59" s="19">
@@ -2565,7 +2562,7 @@
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
+      <c r="A60" s="62"/>
       <c r="B60" s="19">
         <v>41653</v>
       </c>
@@ -2578,7 +2575,7 @@
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
+      <c r="A61" s="62"/>
       <c r="B61" s="19">
         <v>41654</v>
       </c>
@@ -2591,7 +2588,7 @@
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
+      <c r="A62" s="62"/>
       <c r="B62" s="19">
         <v>41655</v>
       </c>
@@ -2604,7 +2601,7 @@
       <c r="I62" s="5"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="19">
         <v>41656</v>
       </c>
@@ -2617,7 +2614,7 @@
       <c r="I63" s="5"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="37">
+      <c r="A64" s="58">
         <v>12</v>
       </c>
       <c r="B64" s="10">
@@ -2632,7 +2629,7 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="10">
         <v>41660</v>
       </c>
@@ -2645,7 +2642,7 @@
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="10">
         <v>41661</v>
       </c>
@@ -2658,7 +2655,7 @@
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
+      <c r="A67" s="59"/>
       <c r="B67" s="10">
         <v>41662</v>
       </c>
@@ -2671,7 +2668,7 @@
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="10">
         <v>41663</v>
       </c>
@@ -2684,7 +2681,7 @@
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="34">
+      <c r="A69" s="61">
         <v>13</v>
       </c>
       <c r="B69" s="19">
@@ -2701,7 +2698,7 @@
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="19">
         <v>41667</v>
       </c>
@@ -2716,7 +2713,7 @@
       <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="19">
         <v>41668</v>
       </c>
@@ -2731,7 +2728,7 @@
       <c r="I71" s="5"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="19">
         <v>41669</v>
       </c>
@@ -2746,7 +2743,7 @@
       <c r="I72" s="5"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
+      <c r="A73" s="63"/>
       <c r="B73" s="19">
         <v>41670</v>
       </c>
@@ -2761,7 +2758,7 @@
       <c r="I73" s="5"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="37">
+      <c r="A74" s="58">
         <v>14</v>
       </c>
       <c r="B74" s="10">
@@ -2778,7 +2775,7 @@
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
+      <c r="A75" s="59"/>
       <c r="B75" s="10">
         <v>41674</v>
       </c>
@@ -2793,7 +2790,7 @@
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
+      <c r="A76" s="59"/>
       <c r="B76" s="10">
         <v>41675</v>
       </c>
@@ -2808,7 +2805,7 @@
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
+      <c r="A77" s="59"/>
       <c r="B77" s="10">
         <v>41676</v>
       </c>
@@ -2823,7 +2820,7 @@
       <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="10">
         <v>41677</v>
       </c>
@@ -2838,7 +2835,7 @@
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="34">
+      <c r="A79" s="61">
         <v>15</v>
       </c>
       <c r="B79" s="19">
@@ -2853,7 +2850,7 @@
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
+      <c r="A80" s="62"/>
       <c r="B80" s="19">
         <v>41681</v>
       </c>
@@ -2866,7 +2863,7 @@
       <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="35"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="19">
         <v>41682</v>
       </c>
@@ -2879,7 +2876,7 @@
       <c r="I81" s="5"/>
     </row>
     <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
+      <c r="A82" s="62"/>
       <c r="B82" s="19">
         <v>41683</v>
       </c>
@@ -2892,7 +2889,7 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="36"/>
+      <c r="A83" s="63"/>
       <c r="B83" s="19">
         <v>41684</v>
       </c>
@@ -2905,7 +2902,7 @@
       <c r="I83" s="5"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="37">
+      <c r="A84" s="58">
         <v>16</v>
       </c>
       <c r="B84" s="10">
@@ -2920,7 +2917,7 @@
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
+      <c r="A85" s="59"/>
       <c r="B85" s="10">
         <v>41688</v>
       </c>
@@ -2933,7 +2930,7 @@
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
+      <c r="A86" s="59"/>
       <c r="B86" s="10">
         <v>41689</v>
       </c>
@@ -2946,7 +2943,7 @@
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
+      <c r="A87" s="59"/>
       <c r="B87" s="10">
         <v>41690</v>
       </c>
@@ -2959,7 +2956,7 @@
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="39"/>
+      <c r="A88" s="60"/>
       <c r="B88" s="10">
         <v>41691</v>
       </c>
@@ -2972,7 +2969,7 @@
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="34">
+      <c r="A89" s="61">
         <v>17</v>
       </c>
       <c r="B89" s="19">
@@ -2987,7 +2984,7 @@
       <c r="I89" s="5"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="19">
         <v>41695</v>
       </c>
@@ -3000,7 +2997,7 @@
       <c r="I90" s="5"/>
     </row>
     <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="35"/>
+      <c r="A91" s="62"/>
       <c r="B91" s="19">
         <v>41696</v>
       </c>
@@ -3013,7 +3010,7 @@
       <c r="I91" s="5"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
+      <c r="A92" s="62"/>
       <c r="B92" s="19">
         <v>41697</v>
       </c>
@@ -3026,7 +3023,7 @@
       <c r="I92" s="5"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="36"/>
+      <c r="A93" s="63"/>
       <c r="B93" s="19">
         <v>41698</v>
       </c>
@@ -3039,7 +3036,7 @@
       <c r="I93" s="5"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="37">
+      <c r="A94" s="58">
         <v>18</v>
       </c>
       <c r="B94" s="10">
@@ -3054,7 +3051,7 @@
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="38"/>
+      <c r="A95" s="59"/>
       <c r="B95" s="10">
         <v>41702</v>
       </c>
@@ -3067,7 +3064,7 @@
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
+      <c r="A96" s="59"/>
       <c r="B96" s="10">
         <v>41703</v>
       </c>
@@ -3080,7 +3077,7 @@
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
+      <c r="A97" s="59"/>
       <c r="B97" s="10">
         <v>41704</v>
       </c>
@@ -3093,7 +3090,7 @@
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="39"/>
+      <c r="A98" s="60"/>
       <c r="B98" s="10">
         <v>41705</v>
       </c>
@@ -3106,7 +3103,7 @@
       <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="34">
+      <c r="A99" s="61">
         <v>19</v>
       </c>
       <c r="B99" s="19">
@@ -3121,7 +3118,7 @@
       <c r="I99" s="5"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="35"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="19">
         <v>41709</v>
       </c>
@@ -3134,7 +3131,7 @@
       <c r="I100" s="5"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="35"/>
+      <c r="A101" s="62"/>
       <c r="B101" s="19">
         <v>41710</v>
       </c>
@@ -3147,7 +3144,7 @@
       <c r="I101" s="5"/>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="35"/>
+      <c r="A102" s="62"/>
       <c r="B102" s="19">
         <v>41711</v>
       </c>
@@ -3160,7 +3157,7 @@
       <c r="I102" s="5"/>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="36"/>
+      <c r="A103" s="63"/>
       <c r="B103" s="19">
         <v>41712</v>
       </c>
@@ -3173,7 +3170,7 @@
       <c r="I103" s="5"/>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="37">
+      <c r="A104" s="58">
         <v>20</v>
       </c>
       <c r="B104" s="10">
@@ -3188,7 +3185,7 @@
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="38"/>
+      <c r="A105" s="59"/>
       <c r="B105" s="10">
         <v>41716</v>
       </c>
@@ -3201,7 +3198,7 @@
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="38"/>
+      <c r="A106" s="59"/>
       <c r="B106" s="10">
         <v>41717</v>
       </c>
@@ -3214,7 +3211,7 @@
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="38"/>
+      <c r="A107" s="59"/>
       <c r="B107" s="10">
         <v>41718</v>
       </c>
@@ -3227,7 +3224,7 @@
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="39"/>
+      <c r="A108" s="60"/>
       <c r="B108" s="10">
         <v>41719</v>
       </c>
@@ -3240,7 +3237,7 @@
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="34">
+      <c r="A109" s="61">
         <v>21</v>
       </c>
       <c r="B109" s="19">
@@ -3255,7 +3252,7 @@
       <c r="I109" s="5"/>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="35"/>
+      <c r="A110" s="62"/>
       <c r="B110" s="19">
         <v>41723</v>
       </c>
@@ -3268,7 +3265,7 @@
       <c r="I110" s="5"/>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="35"/>
+      <c r="A111" s="62"/>
       <c r="B111" s="19">
         <v>41724</v>
       </c>
@@ -3281,7 +3278,7 @@
       <c r="I111" s="5"/>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="35"/>
+      <c r="A112" s="62"/>
       <c r="B112" s="19">
         <v>41725</v>
       </c>
@@ -3294,7 +3291,7 @@
       <c r="I112" s="5"/>
     </row>
     <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="36"/>
+      <c r="A113" s="63"/>
       <c r="B113" s="19">
         <v>41726</v>
       </c>
@@ -3307,7 +3304,7 @@
       <c r="I113" s="5"/>
     </row>
     <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="37">
+      <c r="A114" s="58">
         <v>22</v>
       </c>
       <c r="B114" s="10">
@@ -3322,7 +3319,7 @@
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="38"/>
+      <c r="A115" s="59"/>
       <c r="B115" s="10">
         <v>41730</v>
       </c>
@@ -3335,7 +3332,7 @@
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="38"/>
+      <c r="A116" s="59"/>
       <c r="B116" s="10">
         <v>41731</v>
       </c>
@@ -3348,7 +3345,7 @@
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="38"/>
+      <c r="A117" s="59"/>
       <c r="B117" s="10">
         <v>41732</v>
       </c>
@@ -3361,7 +3358,7 @@
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
+      <c r="A118" s="60"/>
       <c r="B118" s="10">
         <v>41733</v>
       </c>
@@ -3374,7 +3371,7 @@
       <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="34">
+      <c r="A119" s="61">
         <v>23</v>
       </c>
       <c r="B119" s="19">
@@ -3389,7 +3386,7 @@
       <c r="I119" s="5"/>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="35"/>
+      <c r="A120" s="62"/>
       <c r="B120" s="19">
         <v>41737</v>
       </c>
@@ -3402,7 +3399,7 @@
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="35"/>
+      <c r="A121" s="62"/>
       <c r="B121" s="19">
         <v>41738</v>
       </c>
@@ -3415,7 +3412,7 @@
       <c r="I121" s="5"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="35"/>
+      <c r="A122" s="62"/>
       <c r="B122" s="19">
         <v>41739</v>
       </c>
@@ -3428,7 +3425,7 @@
       <c r="I122" s="5"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="36"/>
+      <c r="A123" s="63"/>
       <c r="B123" s="19">
         <v>41740</v>
       </c>
@@ -3441,7 +3438,7 @@
       <c r="I123" s="5"/>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="37">
+      <c r="A124" s="58">
         <v>24</v>
       </c>
       <c r="B124" s="10">
@@ -3456,7 +3453,7 @@
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="38"/>
+      <c r="A125" s="59"/>
       <c r="B125" s="10">
         <v>41744</v>
       </c>
@@ -3469,7 +3466,7 @@
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="38"/>
+      <c r="A126" s="59"/>
       <c r="B126" s="10">
         <v>41745</v>
       </c>
@@ -3482,7 +3479,7 @@
       <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="38"/>
+      <c r="A127" s="59"/>
       <c r="B127" s="10">
         <v>41746</v>
       </c>
@@ -3495,7 +3492,7 @@
       <c r="I127" s="6"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="39"/>
+      <c r="A128" s="60"/>
       <c r="B128" s="10">
         <v>41747</v>
       </c>
@@ -3508,7 +3505,7 @@
       <c r="I128" s="6"/>
     </row>
     <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="34">
+      <c r="A129" s="61">
         <v>25</v>
       </c>
       <c r="B129" s="19">
@@ -3523,7 +3520,7 @@
       <c r="I129" s="5"/>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="35"/>
+      <c r="A130" s="62"/>
       <c r="B130" s="19">
         <v>41751</v>
       </c>
@@ -3536,7 +3533,7 @@
       <c r="I130" s="5"/>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
+      <c r="A131" s="62"/>
       <c r="B131" s="19">
         <v>41752</v>
       </c>
@@ -3549,7 +3546,7 @@
       <c r="I131" s="5"/>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="35"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="19">
         <v>41753</v>
       </c>
@@ -3562,7 +3559,7 @@
       <c r="I132" s="5"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="36"/>
+      <c r="A133" s="63"/>
       <c r="B133" s="19">
         <v>41754</v>
       </c>
@@ -3575,7 +3572,7 @@
       <c r="I133" s="5"/>
     </row>
     <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="37">
+      <c r="A134" s="58">
         <v>26</v>
       </c>
       <c r="B134" s="10">
@@ -3590,7 +3587,7 @@
       <c r="I134" s="6"/>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="38"/>
+      <c r="A135" s="59"/>
       <c r="B135" s="10">
         <v>41758</v>
       </c>
@@ -3603,7 +3600,7 @@
       <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="38"/>
+      <c r="A136" s="59"/>
       <c r="B136" s="10">
         <v>41759</v>
       </c>
@@ -3616,7 +3613,7 @@
       <c r="I136" s="6"/>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="38"/>
+      <c r="A137" s="59"/>
       <c r="B137" s="10">
         <v>41760</v>
       </c>
@@ -3629,7 +3626,7 @@
       <c r="I137" s="6"/>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="39"/>
+      <c r="A138" s="60"/>
       <c r="B138" s="10">
         <v>41761</v>
       </c>
@@ -3642,7 +3639,7 @@
       <c r="I138" s="6"/>
     </row>
     <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="34">
+      <c r="A139" s="61">
         <v>27</v>
       </c>
       <c r="B139" s="19">
@@ -3657,7 +3654,7 @@
       <c r="I139" s="5"/>
     </row>
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="35"/>
+      <c r="A140" s="62"/>
       <c r="B140" s="19">
         <v>41765</v>
       </c>
@@ -3670,7 +3667,7 @@
       <c r="I140" s="5"/>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="35"/>
+      <c r="A141" s="62"/>
       <c r="B141" s="19">
         <v>41766</v>
       </c>
@@ -3683,7 +3680,7 @@
       <c r="I141" s="5"/>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="35"/>
+      <c r="A142" s="62"/>
       <c r="B142" s="19">
         <v>41767</v>
       </c>
@@ -3696,7 +3693,7 @@
       <c r="I142" s="5"/>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="36"/>
+      <c r="A143" s="63"/>
       <c r="B143" s="19">
         <v>41768</v>
       </c>
@@ -3709,7 +3706,7 @@
       <c r="I143" s="5"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="37">
+      <c r="A144" s="58">
         <v>28</v>
       </c>
       <c r="B144" s="10">
@@ -3724,7 +3721,7 @@
       <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="38"/>
+      <c r="A145" s="59"/>
       <c r="B145" s="10">
         <v>41772</v>
       </c>
@@ -3737,7 +3734,7 @@
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="38"/>
+      <c r="A146" s="59"/>
       <c r="B146" s="10">
         <v>41773</v>
       </c>
@@ -3750,7 +3747,7 @@
       <c r="I146" s="6"/>
     </row>
     <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="38"/>
+      <c r="A147" s="59"/>
       <c r="B147" s="10">
         <v>41774</v>
       </c>
@@ -3763,7 +3760,7 @@
       <c r="I147" s="6"/>
     </row>
     <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="39"/>
+      <c r="A148" s="60"/>
       <c r="B148" s="10">
         <v>41775</v>
       </c>
@@ -3776,7 +3773,7 @@
       <c r="I148" s="6"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="34">
+      <c r="A149" s="61">
         <v>29</v>
       </c>
       <c r="B149" s="19">
@@ -3791,7 +3788,7 @@
       <c r="I149" s="5"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="35"/>
+      <c r="A150" s="62"/>
       <c r="B150" s="19">
         <v>41779</v>
       </c>
@@ -3804,7 +3801,7 @@
       <c r="I150" s="5"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="35"/>
+      <c r="A151" s="62"/>
       <c r="B151" s="19">
         <v>41780</v>
       </c>
@@ -3817,7 +3814,7 @@
       <c r="I151" s="5"/>
     </row>
     <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="35"/>
+      <c r="A152" s="62"/>
       <c r="B152" s="19">
         <v>41781</v>
       </c>
@@ -3830,7 +3827,7 @@
       <c r="I152" s="5"/>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="36"/>
+      <c r="A153" s="63"/>
       <c r="B153" s="19">
         <v>41782</v>
       </c>
@@ -3843,7 +3840,7 @@
       <c r="I153" s="5"/>
     </row>
     <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="40">
+      <c r="A154" s="79">
         <v>30</v>
       </c>
       <c r="B154" s="10">
@@ -3858,7 +3855,7 @@
       <c r="I154" s="2"/>
     </row>
     <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="41"/>
+      <c r="A155" s="80"/>
       <c r="B155" s="10">
         <v>41786</v>
       </c>
@@ -3871,7 +3868,7 @@
       <c r="I155" s="2"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="41"/>
+      <c r="A156" s="80"/>
       <c r="B156" s="10">
         <v>41787</v>
       </c>
@@ -3884,7 +3881,7 @@
       <c r="I156" s="2"/>
     </row>
     <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="41"/>
+      <c r="A157" s="80"/>
       <c r="B157" s="10">
         <v>41788</v>
       </c>
@@ -3897,7 +3894,7 @@
       <c r="I157" s="2"/>
     </row>
     <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="42"/>
+      <c r="A158" s="81"/>
       <c r="B158" s="10">
         <v>41789</v>
       </c>
@@ -4086,6 +4083,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A83"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="F2:M4"/>
@@ -4102,26 +4119,6 @@
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\9. Timelog\individual time log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="List main task" sheetId="2" r:id="rId1"/>
     <sheet name="SEP-PROJECT" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
   <si>
     <t>Week</t>
   </si>
@@ -294,12 +299,6 @@
   </si>
   <si>
     <t>10:30AM</t>
-  </si>
-  <si>
-    <t>1:30PM</t>
-  </si>
-  <si>
-    <t>5:00PM</t>
   </si>
   <si>
     <t>Update Measurement Template</t>
@@ -338,7 +337,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -346,14 +345,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -366,7 +365,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -379,20 +378,20 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -405,7 +404,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -418,13 +417,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -642,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -771,6 +770,73 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,6 +846,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -789,6 +903,48 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,167 +954,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1270,7 +1279,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1284,13 +1293,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1306,7 +1315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1314,7 +1323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1322,7 +1331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1330,7 +1339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1338,7 +1347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1346,7 +1355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1354,7 +1363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1362,7 +1371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1370,7 +1379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1378,7 +1387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1396,105 +1405,105 @@
   <dimension ref="A1:O160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="72"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="73" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="78"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="81"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="16"/>
       <c r="H5" s="44" t="s">
         <v>64</v>
@@ -1508,7 +1517,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>0</v>
       </c>
@@ -1539,13 +1548,13 @@
       <c r="J6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="82">
+      <c r="A7" s="72">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1571,21 +1580,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="30"/>
-      <c r="K7" s="61" t="s">
+      <c r="K7" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="61"/>
+      <c r="L7" s="99"/>
       <c r="M7" s="33">
         <f>SUM(M8:M43)</f>
-        <v>26.74</v>
+        <v>27.24</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="96">
+    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="73"/>
+      <c r="B8" s="87">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1597,7 +1606,7 @@
       <c r="E8" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="98">
+      <c r="F8" s="89">
         <v>1.67</v>
       </c>
       <c r="G8" s="20" t="s">
@@ -1621,8 +1630,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="97"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1632,7 +1641,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="99"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="30" t="s">
         <v>23</v>
       </c>
@@ -1643,61 +1652,61 @@
       <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="94">
+      <c r="A10" s="108">
         <v>2</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="100">
         <v>41589</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="107">
+      <c r="E10" s="53">
         <v>2.5</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="102">
         <f>SUM(E10:E11)</f>
         <v>5</v>
       </c>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="109" t="s">
+      <c r="H10" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="110"/>
-      <c r="J10" s="108"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="54"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="106" t="s">
+      <c r="A11" s="109"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="107">
+      <c r="E11" s="53">
         <v>2.5</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="108" t="s">
+      <c r="F11" s="103"/>
+      <c r="G11" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="109" t="s">
+      <c r="H11" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="110" t="s">
+      <c r="I11" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="108"/>
-    </row>
-    <row r="12" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="62">
+      <c r="J11" s="54"/>
+    </row>
+    <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="109"/>
+      <c r="B12" s="100">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1709,7 +1718,7 @@
       <c r="E12" s="24">
         <v>2.25</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="102">
         <v>3.75</v>
       </c>
       <c r="G12" s="31" t="s">
@@ -1736,8 +1745,8 @@
       <c r="O12" s="35"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="23">
         <v>0.91666666666666663</v>
       </c>
@@ -1747,7 +1756,7 @@
       <c r="E13" s="24">
         <v>1.5</v>
       </c>
-      <c r="F13" s="65"/>
+      <c r="F13" s="103"/>
       <c r="G13" s="48" t="s">
         <v>28</v>
       </c>
@@ -1763,8 +1772,8 @@
       <c r="O13" s="35"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="62">
+      <c r="A14" s="109"/>
+      <c r="B14" s="100">
         <v>41591</v>
       </c>
       <c r="C14" s="23">
@@ -1776,7 +1785,7 @@
       <c r="E14" s="24">
         <v>2</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="105">
         <v>4.5</v>
       </c>
       <c r="G14" s="48" t="s">
@@ -1794,8 +1803,8 @@
       <c r="O14" s="35"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="26">
         <v>0.5625</v>
       </c>
@@ -1805,7 +1814,7 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="68"/>
+      <c r="F15" s="106"/>
       <c r="G15" s="31" t="s">
         <v>19</v>
       </c>
@@ -1822,8 +1831,8 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
-      <c r="B16" s="63"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -1833,7 +1842,7 @@
       <c r="E16" s="29">
         <v>0.5</v>
       </c>
-      <c r="F16" s="69"/>
+      <c r="F16" s="107"/>
       <c r="G16" s="48" t="s">
         <v>28</v>
       </c>
@@ -1850,14 +1859,14 @@
       <c r="L16" s="6"/>
       <c r="M16" s="10">
         <f>SUM(E19:E25)</f>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="50">
         <v>41592</v>
       </c>
@@ -1889,7 +1898,7 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="105"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="45">
         <v>41593</v>
       </c>
@@ -1928,33 +1937,33 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="104">
+      <c r="A19" s="98">
         <v>3</v>
       </c>
       <c r="B19" s="27">
         <v>41596</v>
       </c>
-      <c r="C19" s="111" t="s">
+      <c r="C19" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="112" t="s">
+      <c r="D19" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="113">
+      <c r="E19" s="58">
         <v>0.5</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="117">
         <f t="shared" ref="F19:F52" si="0">E19</f>
         <v>0.5</v>
       </c>
-      <c r="G19" s="111" t="s">
+      <c r="G19" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="111" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="111" t="s">
-        <v>95</v>
+      <c r="H19" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>93</v>
       </c>
       <c r="J19" s="40"/>
       <c r="K19" s="8" t="s">
@@ -1970,31 +1979,31 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="27">
         <v>41596</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="111" t="s">
+      <c r="D20" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="113">
+      <c r="E20" s="58">
         <v>3</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="117">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G20" s="111" t="s">
+      <c r="G20" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="111" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="111" t="s">
-        <v>93</v>
+      <c r="H20" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="57" t="s">
+        <v>91</v>
       </c>
       <c r="J20" s="40"/>
       <c r="K20" s="8"/>
@@ -2003,31 +2012,31 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="27">
         <v>41597</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="111" t="s">
+      <c r="D21" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="113">
+      <c r="E21" s="58">
         <v>2</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="117">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G21" s="111" t="s">
+      <c r="G21" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="111" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="111" t="s">
-        <v>93</v>
+      <c r="H21" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>91</v>
       </c>
       <c r="J21" s="40"/>
       <c r="K21" s="8"/>
@@ -2036,31 +2045,31 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="27">
         <v>41597</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="111" t="s">
+      <c r="D22" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="113">
+      <c r="E22" s="58">
         <v>0.5</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="117">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G22" s="111" t="s">
+      <c r="G22" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="111" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="111" t="s">
-        <v>94</v>
+      <c r="H22" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="57" t="s">
+        <v>92</v>
       </c>
       <c r="J22" s="40"/>
       <c r="K22" s="8" t="s">
@@ -2076,31 +2085,31 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="104"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="27">
         <v>41598</v>
       </c>
-      <c r="C23" s="114" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="115">
-        <v>3.5</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="C23" s="114">
+        <v>0.5625</v>
+      </c>
+      <c r="D23" s="114">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E23" s="58">
+        <v>4</v>
+      </c>
+      <c r="F23" s="117">
         <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="G23" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="114" t="s">
-        <v>93</v>
+      <c r="H23" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="118" t="s">
+        <v>91</v>
       </c>
       <c r="J23" s="40"/>
       <c r="K23" s="8" t="s">
@@ -2116,7 +2125,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="27">
         <v>41599</v>
       </c>
@@ -2144,7 +2153,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="104"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="27">
         <v>41600</v>
       </c>
@@ -2172,7 +2181,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
+      <c r="A26" s="75">
         <v>4</v>
       </c>
       <c r="B26" s="28">
@@ -2202,7 +2211,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="28">
         <v>41604</v>
       </c>
@@ -2230,7 +2239,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="28">
         <v>41605</v>
       </c>
@@ -2258,7 +2267,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="28">
         <v>41606</v>
       </c>
@@ -2286,7 +2295,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="28">
         <v>41607</v>
       </c>
@@ -2314,7 +2323,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="55">
+      <c r="A31" s="94">
         <v>5</v>
       </c>
       <c r="B31" s="27">
@@ -2344,7 +2353,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="27">
         <v>41611</v>
       </c>
@@ -2372,7 +2381,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="27">
         <v>41612</v>
       </c>
@@ -2400,7 +2409,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="95"/>
       <c r="B34" s="27">
         <v>41613</v>
       </c>
@@ -2428,7 +2437,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+      <c r="A35" s="96"/>
       <c r="B35" s="27">
         <v>41614</v>
       </c>
@@ -2456,7 +2465,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="52">
+      <c r="A36" s="75">
         <v>6</v>
       </c>
       <c r="B36" s="28">
@@ -2486,7 +2495,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="28">
         <v>41618</v>
       </c>
@@ -2514,7 +2523,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="28">
         <v>41619</v>
       </c>
@@ -2542,7 +2551,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="28">
         <v>41620</v>
       </c>
@@ -2570,7 +2579,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="28">
         <v>41621</v>
       </c>
@@ -2598,7 +2607,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="55">
+      <c r="A41" s="94">
         <v>7</v>
       </c>
       <c r="B41" s="27">
@@ -2628,7 +2637,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="95"/>
       <c r="B42" s="27">
         <v>41625</v>
       </c>
@@ -2656,7 +2665,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="27">
         <v>41626</v>
       </c>
@@ -2684,7 +2693,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="95"/>
       <c r="B44" s="27">
         <v>41627</v>
       </c>
@@ -2701,7 +2710,7 @@
       <c r="J44" s="40"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
+      <c r="A45" s="96"/>
       <c r="B45" s="27">
         <v>41628</v>
       </c>
@@ -2718,7 +2727,7 @@
       <c r="J45" s="40"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="52">
+      <c r="A46" s="75">
         <v>8</v>
       </c>
       <c r="B46" s="28">
@@ -2737,7 +2746,7 @@
       <c r="J46" s="41"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="76"/>
       <c r="B47" s="28">
         <v>41632</v>
       </c>
@@ -2754,7 +2763,7 @@
       <c r="J47" s="41"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
+      <c r="A48" s="76"/>
       <c r="B48" s="28">
         <v>41633</v>
       </c>
@@ -2771,7 +2780,7 @@
       <c r="J48" s="41"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
+      <c r="A49" s="76"/>
       <c r="B49" s="28">
         <v>41634</v>
       </c>
@@ -2788,7 +2797,7 @@
       <c r="J49" s="41"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
+      <c r="A50" s="77"/>
       <c r="B50" s="28">
         <v>41635</v>
       </c>
@@ -2805,7 +2814,7 @@
       <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="55">
+      <c r="A51" s="94">
         <v>9</v>
       </c>
       <c r="B51" s="27">
@@ -2824,7 +2833,7 @@
       <c r="J51" s="40"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
+      <c r="A52" s="95"/>
       <c r="B52" s="27">
         <v>41639</v>
       </c>
@@ -2841,7 +2850,7 @@
       <c r="J52" s="40"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
+      <c r="A53" s="95"/>
       <c r="B53" s="27">
         <v>41640</v>
       </c>
@@ -2858,7 +2867,7 @@
       <c r="J53" s="40"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
+      <c r="A54" s="95"/>
       <c r="B54" s="27">
         <v>41641</v>
       </c>
@@ -2875,7 +2884,7 @@
       <c r="J54" s="40"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
+      <c r="A55" s="96"/>
       <c r="B55" s="27">
         <v>41642</v>
       </c>
@@ -2892,7 +2901,7 @@
       <c r="J55" s="40"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="52">
+      <c r="A56" s="75">
         <v>10</v>
       </c>
       <c r="B56" s="28">
@@ -2911,7 +2920,7 @@
       <c r="J56" s="41"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
+      <c r="A57" s="76"/>
       <c r="B57" s="28">
         <v>41646</v>
       </c>
@@ -2928,7 +2937,7 @@
       <c r="J57" s="41"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
+      <c r="A58" s="76"/>
       <c r="B58" s="28">
         <v>41647</v>
       </c>
@@ -2945,7 +2954,7 @@
       <c r="J58" s="41"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
+      <c r="A59" s="76"/>
       <c r="B59" s="28">
         <v>41648</v>
       </c>
@@ -2962,7 +2971,7 @@
       <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
+      <c r="A60" s="77"/>
       <c r="B60" s="28">
         <v>41649</v>
       </c>
@@ -2979,7 +2988,7 @@
       <c r="J60" s="41"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="55">
+      <c r="A61" s="94">
         <v>11</v>
       </c>
       <c r="B61" s="27">
@@ -2998,7 +3007,7 @@
       <c r="J61" s="40"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="95"/>
       <c r="B62" s="27">
         <v>41653</v>
       </c>
@@ -3015,7 +3024,7 @@
       <c r="J62" s="40"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
+      <c r="A63" s="95"/>
       <c r="B63" s="27">
         <v>41654</v>
       </c>
@@ -3032,7 +3041,7 @@
       <c r="J63" s="40"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
+      <c r="A64" s="95"/>
       <c r="B64" s="27">
         <v>41655</v>
       </c>
@@ -3049,7 +3058,7 @@
       <c r="J64" s="40"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
+      <c r="A65" s="96"/>
       <c r="B65" s="27">
         <v>41656</v>
       </c>
@@ -3066,7 +3075,7 @@
       <c r="J65" s="40"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="52">
+      <c r="A66" s="75">
         <v>12</v>
       </c>
       <c r="B66" s="28">
@@ -3085,7 +3094,7 @@
       <c r="J66" s="41"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
+      <c r="A67" s="76"/>
       <c r="B67" s="28">
         <v>41660</v>
       </c>
@@ -3102,7 +3111,7 @@
       <c r="J67" s="41"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="53"/>
+      <c r="A68" s="76"/>
       <c r="B68" s="28">
         <v>41661</v>
       </c>
@@ -3119,7 +3128,7 @@
       <c r="J68" s="41"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="53"/>
+      <c r="A69" s="76"/>
       <c r="B69" s="28">
         <v>41662</v>
       </c>
@@ -3136,7 +3145,7 @@
       <c r="J69" s="41"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
+      <c r="A70" s="77"/>
       <c r="B70" s="28">
         <v>41663</v>
       </c>
@@ -3153,7 +3162,7 @@
       <c r="J70" s="41"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="55">
+      <c r="A71" s="94">
         <v>13</v>
       </c>
       <c r="B71" s="27">
@@ -3174,7 +3183,7 @@
       <c r="J71" s="40"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
+      <c r="A72" s="95"/>
       <c r="B72" s="27">
         <v>41667</v>
       </c>
@@ -3193,7 +3202,7 @@
       <c r="J72" s="40"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
+      <c r="A73" s="95"/>
       <c r="B73" s="27">
         <v>41668</v>
       </c>
@@ -3212,7 +3221,7 @@
       <c r="J73" s="40"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
+      <c r="A74" s="95"/>
       <c r="B74" s="27">
         <v>41669</v>
       </c>
@@ -3231,7 +3240,7 @@
       <c r="J74" s="40"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
+      <c r="A75" s="96"/>
       <c r="B75" s="27">
         <v>41670</v>
       </c>
@@ -3250,7 +3259,7 @@
       <c r="J75" s="40"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="52">
+      <c r="A76" s="75">
         <v>14</v>
       </c>
       <c r="B76" s="28">
@@ -3271,7 +3280,7 @@
       <c r="J76" s="41"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="53"/>
+      <c r="A77" s="76"/>
       <c r="B77" s="28">
         <v>41674</v>
       </c>
@@ -3290,7 +3299,7 @@
       <c r="J77" s="41"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="53"/>
+      <c r="A78" s="76"/>
       <c r="B78" s="28">
         <v>41675</v>
       </c>
@@ -3309,7 +3318,7 @@
       <c r="J78" s="41"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="53"/>
+      <c r="A79" s="76"/>
       <c r="B79" s="28">
         <v>41676</v>
       </c>
@@ -3328,7 +3337,7 @@
       <c r="J79" s="41"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
+      <c r="A80" s="77"/>
       <c r="B80" s="28">
         <v>41677</v>
       </c>
@@ -3347,7 +3356,7 @@
       <c r="J80" s="41"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="55">
+      <c r="A81" s="94">
         <v>15</v>
       </c>
       <c r="B81" s="27">
@@ -3366,7 +3375,7 @@
       <c r="J81" s="40"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
+      <c r="A82" s="95"/>
       <c r="B82" s="27">
         <v>41681</v>
       </c>
@@ -3383,7 +3392,7 @@
       <c r="J82" s="40"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
+      <c r="A83" s="95"/>
       <c r="B83" s="27">
         <v>41682</v>
       </c>
@@ -3400,7 +3409,7 @@
       <c r="J83" s="40"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
+      <c r="A84" s="95"/>
       <c r="B84" s="27">
         <v>41683</v>
       </c>
@@ -3417,7 +3426,7 @@
       <c r="J84" s="40"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
+      <c r="A85" s="96"/>
       <c r="B85" s="27">
         <v>41684</v>
       </c>
@@ -3434,7 +3443,7 @@
       <c r="J85" s="40"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="52">
+      <c r="A86" s="75">
         <v>16</v>
       </c>
       <c r="B86" s="28">
@@ -3453,7 +3462,7 @@
       <c r="J86" s="41"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="53"/>
+      <c r="A87" s="76"/>
       <c r="B87" s="28">
         <v>41688</v>
       </c>
@@ -3470,7 +3479,7 @@
       <c r="J87" s="41"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="53"/>
+      <c r="A88" s="76"/>
       <c r="B88" s="28">
         <v>41689</v>
       </c>
@@ -3487,7 +3496,7 @@
       <c r="J88" s="41"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="53"/>
+      <c r="A89" s="76"/>
       <c r="B89" s="28">
         <v>41690</v>
       </c>
@@ -3504,7 +3513,7 @@
       <c r="J89" s="41"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="54"/>
+      <c r="A90" s="77"/>
       <c r="B90" s="28">
         <v>41691</v>
       </c>
@@ -3521,7 +3530,7 @@
       <c r="J90" s="41"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="55">
+      <c r="A91" s="94">
         <v>17</v>
       </c>
       <c r="B91" s="27">
@@ -3540,7 +3549,7 @@
       <c r="J91" s="40"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
+      <c r="A92" s="95"/>
       <c r="B92" s="27">
         <v>41695</v>
       </c>
@@ -3557,7 +3566,7 @@
       <c r="J92" s="40"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
+      <c r="A93" s="95"/>
       <c r="B93" s="27">
         <v>41696</v>
       </c>
@@ -3574,7 +3583,7 @@
       <c r="J93" s="40"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
+      <c r="A94" s="95"/>
       <c r="B94" s="27">
         <v>41697</v>
       </c>
@@ -3591,7 +3600,7 @@
       <c r="J94" s="40"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="57"/>
+      <c r="A95" s="96"/>
       <c r="B95" s="27">
         <v>41698</v>
       </c>
@@ -3608,7 +3617,7 @@
       <c r="J95" s="40"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="52">
+      <c r="A96" s="75">
         <v>18</v>
       </c>
       <c r="B96" s="28">
@@ -3627,7 +3636,7 @@
       <c r="J96" s="41"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="53"/>
+      <c r="A97" s="76"/>
       <c r="B97" s="28">
         <v>41702</v>
       </c>
@@ -3644,7 +3653,7 @@
       <c r="J97" s="41"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="53"/>
+      <c r="A98" s="76"/>
       <c r="B98" s="28">
         <v>41703</v>
       </c>
@@ -3661,7 +3670,7 @@
       <c r="J98" s="41"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="53"/>
+      <c r="A99" s="76"/>
       <c r="B99" s="28">
         <v>41704</v>
       </c>
@@ -3678,7 +3687,7 @@
       <c r="J99" s="41"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="54"/>
+      <c r="A100" s="77"/>
       <c r="B100" s="28">
         <v>41705</v>
       </c>
@@ -3695,7 +3704,7 @@
       <c r="J100" s="41"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="55">
+      <c r="A101" s="94">
         <v>19</v>
       </c>
       <c r="B101" s="27">
@@ -3714,7 +3723,7 @@
       <c r="J101" s="40"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="56"/>
+      <c r="A102" s="95"/>
       <c r="B102" s="27">
         <v>41709</v>
       </c>
@@ -3731,7 +3740,7 @@
       <c r="J102" s="40"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="56"/>
+      <c r="A103" s="95"/>
       <c r="B103" s="27">
         <v>41710</v>
       </c>
@@ -3748,7 +3757,7 @@
       <c r="J103" s="40"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
+      <c r="A104" s="95"/>
       <c r="B104" s="27">
         <v>41711</v>
       </c>
@@ -3765,7 +3774,7 @@
       <c r="J104" s="40"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="57"/>
+      <c r="A105" s="96"/>
       <c r="B105" s="27">
         <v>41712</v>
       </c>
@@ -3782,7 +3791,7 @@
       <c r="J105" s="40"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="52">
+      <c r="A106" s="75">
         <v>20</v>
       </c>
       <c r="B106" s="28">
@@ -3801,7 +3810,7 @@
       <c r="J106" s="41"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="53"/>
+      <c r="A107" s="76"/>
       <c r="B107" s="28">
         <v>41716</v>
       </c>
@@ -3818,7 +3827,7 @@
       <c r="J107" s="41"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="53"/>
+      <c r="A108" s="76"/>
       <c r="B108" s="28">
         <v>41717</v>
       </c>
@@ -3835,7 +3844,7 @@
       <c r="J108" s="41"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
+      <c r="A109" s="76"/>
       <c r="B109" s="28">
         <v>41718</v>
       </c>
@@ -3852,7 +3861,7 @@
       <c r="J109" s="41"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="54"/>
+      <c r="A110" s="77"/>
       <c r="B110" s="28">
         <v>41719</v>
       </c>
@@ -3869,7 +3878,7 @@
       <c r="J110" s="41"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="55">
+      <c r="A111" s="94">
         <v>21</v>
       </c>
       <c r="B111" s="27">
@@ -3888,7 +3897,7 @@
       <c r="J111" s="40"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="56"/>
+      <c r="A112" s="95"/>
       <c r="B112" s="27">
         <v>41723</v>
       </c>
@@ -3905,7 +3914,7 @@
       <c r="J112" s="40"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="56"/>
+      <c r="A113" s="95"/>
       <c r="B113" s="27">
         <v>41724</v>
       </c>
@@ -3922,7 +3931,7 @@
       <c r="J113" s="40"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="56"/>
+      <c r="A114" s="95"/>
       <c r="B114" s="27">
         <v>41725</v>
       </c>
@@ -3939,7 +3948,7 @@
       <c r="J114" s="40"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="57"/>
+      <c r="A115" s="96"/>
       <c r="B115" s="27">
         <v>41726</v>
       </c>
@@ -3956,7 +3965,7 @@
       <c r="J115" s="40"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="52">
+      <c r="A116" s="75">
         <v>22</v>
       </c>
       <c r="B116" s="28">
@@ -3975,7 +3984,7 @@
       <c r="J116" s="41"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="53"/>
+      <c r="A117" s="76"/>
       <c r="B117" s="28">
         <v>41730</v>
       </c>
@@ -3992,7 +4001,7 @@
       <c r="J117" s="41"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="53"/>
+      <c r="A118" s="76"/>
       <c r="B118" s="28">
         <v>41731</v>
       </c>
@@ -4009,7 +4018,7 @@
       <c r="J118" s="41"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="53"/>
+      <c r="A119" s="76"/>
       <c r="B119" s="28">
         <v>41732</v>
       </c>
@@ -4026,7 +4035,7 @@
       <c r="J119" s="41"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="54"/>
+      <c r="A120" s="77"/>
       <c r="B120" s="28">
         <v>41733</v>
       </c>
@@ -4043,7 +4052,7 @@
       <c r="J120" s="41"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="55">
+      <c r="A121" s="94">
         <v>23</v>
       </c>
       <c r="B121" s="27">
@@ -4062,7 +4071,7 @@
       <c r="J121" s="40"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="56"/>
+      <c r="A122" s="95"/>
       <c r="B122" s="27">
         <v>41737</v>
       </c>
@@ -4079,7 +4088,7 @@
       <c r="J122" s="40"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="56"/>
+      <c r="A123" s="95"/>
       <c r="B123" s="27">
         <v>41738</v>
       </c>
@@ -4096,7 +4105,7 @@
       <c r="J123" s="40"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="56"/>
+      <c r="A124" s="95"/>
       <c r="B124" s="27">
         <v>41739</v>
       </c>
@@ -4113,7 +4122,7 @@
       <c r="J124" s="40"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="57"/>
+      <c r="A125" s="96"/>
       <c r="B125" s="27">
         <v>41740</v>
       </c>
@@ -4130,7 +4139,7 @@
       <c r="J125" s="40"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="52">
+      <c r="A126" s="75">
         <v>24</v>
       </c>
       <c r="B126" s="28">
@@ -4149,7 +4158,7 @@
       <c r="J126" s="41"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="53"/>
+      <c r="A127" s="76"/>
       <c r="B127" s="28">
         <v>41744</v>
       </c>
@@ -4166,7 +4175,7 @@
       <c r="J127" s="41"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="53"/>
+      <c r="A128" s="76"/>
       <c r="B128" s="28">
         <v>41745</v>
       </c>
@@ -4183,7 +4192,7 @@
       <c r="J128" s="41"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="53"/>
+      <c r="A129" s="76"/>
       <c r="B129" s="28">
         <v>41746</v>
       </c>
@@ -4200,7 +4209,7 @@
       <c r="J129" s="41"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="54"/>
+      <c r="A130" s="77"/>
       <c r="B130" s="28">
         <v>41747</v>
       </c>
@@ -4217,7 +4226,7 @@
       <c r="J130" s="41"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="55">
+      <c r="A131" s="94">
         <v>25</v>
       </c>
       <c r="B131" s="27">
@@ -4236,7 +4245,7 @@
       <c r="J131" s="40"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="56"/>
+      <c r="A132" s="95"/>
       <c r="B132" s="27">
         <v>41751</v>
       </c>
@@ -4253,7 +4262,7 @@
       <c r="J132" s="40"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="56"/>
+      <c r="A133" s="95"/>
       <c r="B133" s="27">
         <v>41752</v>
       </c>
@@ -4270,7 +4279,7 @@
       <c r="J133" s="40"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="56"/>
+      <c r="A134" s="95"/>
       <c r="B134" s="27">
         <v>41753</v>
       </c>
@@ -4287,7 +4296,7 @@
       <c r="J134" s="40"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="57"/>
+      <c r="A135" s="96"/>
       <c r="B135" s="27">
         <v>41754</v>
       </c>
@@ -4304,7 +4313,7 @@
       <c r="J135" s="40"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="52">
+      <c r="A136" s="75">
         <v>26</v>
       </c>
       <c r="B136" s="28">
@@ -4323,7 +4332,7 @@
       <c r="J136" s="41"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="53"/>
+      <c r="A137" s="76"/>
       <c r="B137" s="28">
         <v>41758</v>
       </c>
@@ -4340,7 +4349,7 @@
       <c r="J137" s="41"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="53"/>
+      <c r="A138" s="76"/>
       <c r="B138" s="28">
         <v>41759</v>
       </c>
@@ -4357,7 +4366,7 @@
       <c r="J138" s="41"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="53"/>
+      <c r="A139" s="76"/>
       <c r="B139" s="28">
         <v>41760</v>
       </c>
@@ -4374,7 +4383,7 @@
       <c r="J139" s="41"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="54"/>
+      <c r="A140" s="77"/>
       <c r="B140" s="28">
         <v>41761</v>
       </c>
@@ -4391,7 +4400,7 @@
       <c r="J140" s="41"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="55">
+      <c r="A141" s="94">
         <v>27</v>
       </c>
       <c r="B141" s="27">
@@ -4410,7 +4419,7 @@
       <c r="J141" s="40"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="56"/>
+      <c r="A142" s="95"/>
       <c r="B142" s="27">
         <v>41765</v>
       </c>
@@ -4427,7 +4436,7 @@
       <c r="J142" s="40"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="56"/>
+      <c r="A143" s="95"/>
       <c r="B143" s="27">
         <v>41766</v>
       </c>
@@ -4444,7 +4453,7 @@
       <c r="J143" s="40"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="56"/>
+      <c r="A144" s="95"/>
       <c r="B144" s="27">
         <v>41767</v>
       </c>
@@ -4461,7 +4470,7 @@
       <c r="J144" s="40"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="57"/>
+      <c r="A145" s="96"/>
       <c r="B145" s="27">
         <v>41768</v>
       </c>
@@ -4478,7 +4487,7 @@
       <c r="J145" s="40"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="52">
+      <c r="A146" s="75">
         <v>28</v>
       </c>
       <c r="B146" s="28">
@@ -4497,7 +4506,7 @@
       <c r="J146" s="41"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="53"/>
+      <c r="A147" s="76"/>
       <c r="B147" s="28">
         <v>41772</v>
       </c>
@@ -4514,7 +4523,7 @@
       <c r="J147" s="41"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="53"/>
+      <c r="A148" s="76"/>
       <c r="B148" s="28">
         <v>41773</v>
       </c>
@@ -4531,7 +4540,7 @@
       <c r="J148" s="41"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="53"/>
+      <c r="A149" s="76"/>
       <c r="B149" s="28">
         <v>41774</v>
       </c>
@@ -4548,7 +4557,7 @@
       <c r="J149" s="41"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="54"/>
+      <c r="A150" s="77"/>
       <c r="B150" s="28">
         <v>41775</v>
       </c>
@@ -4565,7 +4574,7 @@
       <c r="J150" s="41"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="55">
+      <c r="A151" s="94">
         <v>29</v>
       </c>
       <c r="B151" s="27">
@@ -4584,7 +4593,7 @@
       <c r="J151" s="40"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="56"/>
+      <c r="A152" s="95"/>
       <c r="B152" s="27">
         <v>41779</v>
       </c>
@@ -4601,7 +4610,7 @@
       <c r="J152" s="40"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="56"/>
+      <c r="A153" s="95"/>
       <c r="B153" s="27">
         <v>41780</v>
       </c>
@@ -4618,7 +4627,7 @@
       <c r="J153" s="40"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="56"/>
+      <c r="A154" s="95"/>
       <c r="B154" s="27">
         <v>41781</v>
       </c>
@@ -4635,7 +4644,7 @@
       <c r="J154" s="40"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="57"/>
+      <c r="A155" s="96"/>
       <c r="B155" s="27">
         <v>41782</v>
       </c>
@@ -4652,7 +4661,7 @@
       <c r="J155" s="40"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="58">
+      <c r="A156" s="111">
         <v>30</v>
       </c>
       <c r="B156" s="28">
@@ -4671,7 +4680,7 @@
       <c r="J156" s="42"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="59"/>
+      <c r="A157" s="112"/>
       <c r="B157" s="28">
         <v>41786</v>
       </c>
@@ -4688,7 +4697,7 @@
       <c r="J157" s="42"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="59"/>
+      <c r="A158" s="112"/>
       <c r="B158" s="28">
         <v>41787</v>
       </c>
@@ -4705,7 +4714,7 @@
       <c r="J158" s="42"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="59"/>
+      <c r="A159" s="112"/>
       <c r="B159" s="28">
         <v>41788</v>
       </c>
@@ -4722,7 +4731,7 @@
       <c r="J159" s="42"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="60"/>
+      <c r="A160" s="113"/>
       <c r="B160" s="28">
         <v>41789</v>
       </c>
@@ -4740,6 +4749,36 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
@@ -4755,36 +4794,6 @@
     <mergeCell ref="A19:A25"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A136:A140"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
@@ -333,7 +333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +425,20 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -641,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -770,21 +784,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -792,6 +791,99 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,15 +929,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,80 +977,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,7 +1332,7 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1405,10 +1447,10 @@
   <dimension ref="A1:O160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1429,81 +1471,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="62"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="88"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="63" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="91"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="94"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="71"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="97"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="93"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="16"/>
       <c r="H5" s="44" t="s">
         <v>64</v>
@@ -1548,13 +1590,13 @@
       <c r="J6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="72">
+      <c r="A7" s="98">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1580,10 +1622,10 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="30"/>
-      <c r="K7" s="99" t="s">
+      <c r="K7" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="99"/>
+      <c r="L7" s="70"/>
       <c r="M7" s="33">
         <f>SUM(M8:M43)</f>
         <v>27.24</v>
@@ -1593,8 +1635,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="87">
+      <c r="A8" s="99"/>
+      <c r="B8" s="110">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1606,7 +1648,7 @@
       <c r="E8" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="89">
+      <c r="F8" s="112">
         <v>1.67</v>
       </c>
       <c r="G8" s="20" t="s">
@@ -1630,8 +1672,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1641,7 +1683,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="30" t="s">
         <v>23</v>
       </c>
@@ -1651,62 +1693,62 @@
       <c r="I9" s="43"/>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="108">
+    <row r="10" spans="1:15" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="79">
         <v>2</v>
       </c>
-      <c r="B10" s="100">
+      <c r="B10" s="119">
         <v>41589</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="121">
         <v>2.5</v>
       </c>
-      <c r="F10" s="102">
+      <c r="F10" s="122">
         <f>SUM(E10:E11)</f>
         <v>5</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="H10" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="54"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="52" t="s">
+      <c r="I10" s="125"/>
+      <c r="J10" s="123"/>
+    </row>
+    <row r="11" spans="1:15" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="80"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="121">
         <v>2.5</v>
       </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="54" t="s">
+      <c r="F11" s="128"/>
+      <c r="G11" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I11" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="54"/>
+      <c r="J11" s="123"/>
     </row>
     <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
-      <c r="B12" s="100">
+      <c r="A12" s="80"/>
+      <c r="B12" s="71">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1718,7 +1760,7 @@
       <c r="E12" s="24">
         <v>2.25</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="73">
         <v>3.75</v>
       </c>
       <c r="G12" s="31" t="s">
@@ -1745,8 +1787,8 @@
       <c r="O12" s="35"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
-      <c r="B13" s="101"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="23">
         <v>0.91666666666666663</v>
       </c>
@@ -1756,7 +1798,7 @@
       <c r="E13" s="24">
         <v>1.5</v>
       </c>
-      <c r="F13" s="103"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="48" t="s">
         <v>28</v>
       </c>
@@ -1772,8 +1814,8 @@
       <c r="O13" s="35"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
-      <c r="B14" s="100">
+      <c r="A14" s="80"/>
+      <c r="B14" s="71">
         <v>41591</v>
       </c>
       <c r="C14" s="23">
@@ -1785,7 +1827,7 @@
       <c r="E14" s="24">
         <v>2</v>
       </c>
-      <c r="F14" s="105">
+      <c r="F14" s="76">
         <v>4.5</v>
       </c>
       <c r="G14" s="48" t="s">
@@ -1803,8 +1845,8 @@
       <c r="O14" s="35"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
-      <c r="B15" s="104"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="26">
         <v>0.5625</v>
       </c>
@@ -1814,7 +1856,7 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="106"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="31" t="s">
         <v>19</v>
       </c>
@@ -1831,8 +1873,8 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
-      <c r="B16" s="101"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -1842,7 +1884,7 @@
       <c r="E16" s="29">
         <v>0.5</v>
       </c>
-      <c r="F16" s="107"/>
+      <c r="F16" s="78"/>
       <c r="G16" s="48" t="s">
         <v>28</v>
       </c>
@@ -1866,7 +1908,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
+      <c r="A17" s="80"/>
       <c r="B17" s="50">
         <v>41592</v>
       </c>
@@ -1898,7 +1940,7 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
+      <c r="A18" s="81"/>
       <c r="B18" s="45">
         <v>41593</v>
       </c>
@@ -1937,32 +1979,32 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="98">
+      <c r="A19" s="118">
         <v>3</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="82">
         <v>41596</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="116" t="s">
+      <c r="D19" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="53">
         <v>0.5</v>
       </c>
-      <c r="F19" s="117">
-        <f t="shared" ref="F19:F52" si="0">E19</f>
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="57" t="s">
+      <c r="F19" s="84">
+        <f>SUM(E19:E20)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G19" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="57" t="s">
+      <c r="H19" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="52" t="s">
         <v>93</v>
       </c>
       <c r="J19" s="40"/>
@@ -1979,30 +2021,25 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
-      <c r="B20" s="27">
-        <v>41596</v>
-      </c>
-      <c r="C20" s="115" t="s">
+      <c r="A20" s="118"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="115" t="s">
+      <c r="D20" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="53">
         <v>3</v>
       </c>
-      <c r="F20" s="117">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G20" s="57" t="s">
+      <c r="F20" s="85"/>
+      <c r="G20" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="57" t="s">
+      <c r="H20" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="52" t="s">
         <v>91</v>
       </c>
       <c r="J20" s="40"/>
@@ -2012,30 +2049,30 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
-      <c r="B21" s="27">
+      <c r="A21" s="118"/>
+      <c r="B21" s="82">
         <v>41597</v>
       </c>
-      <c r="C21" s="115" t="s">
+      <c r="C21" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="115" t="s">
+      <c r="D21" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="53">
         <v>2</v>
       </c>
-      <c r="F21" s="117">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G21" s="57" t="s">
+      <c r="F21" s="84">
+        <f>SUM(E21:E22)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G21" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="57" t="s">
+      <c r="I21" s="52" t="s">
         <v>91</v>
       </c>
       <c r="J21" s="40"/>
@@ -2045,30 +2082,25 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
-      <c r="B22" s="27">
-        <v>41597</v>
-      </c>
-      <c r="C22" s="115" t="s">
+      <c r="A22" s="118"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="53">
         <v>0.5</v>
       </c>
-      <c r="F22" s="117">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="57" t="s">
+      <c r="F22" s="85"/>
+      <c r="G22" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="57" t="s">
+      <c r="I22" s="52" t="s">
         <v>92</v>
       </c>
       <c r="J22" s="40"/>
@@ -2085,30 +2117,30 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="27">
         <v>41598</v>
       </c>
-      <c r="C23" s="114">
+      <c r="C23" s="55">
         <v>0.5625</v>
       </c>
-      <c r="D23" s="114">
+      <c r="D23" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="53">
         <v>4</v>
       </c>
-      <c r="F23" s="117">
-        <f t="shared" si="0"/>
+      <c r="F23" s="58">
+        <f t="shared" ref="F23:F52" si="0">E23</f>
         <v>4</v>
       </c>
-      <c r="G23" s="118" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="59" t="s">
+      <c r="G23" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="118" t="s">
+      <c r="I23" s="59" t="s">
         <v>91</v>
       </c>
       <c r="J23" s="40"/>
@@ -2125,7 +2157,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
+      <c r="A24" s="118"/>
       <c r="B24" s="27">
         <v>41599</v>
       </c>
@@ -2153,7 +2185,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="27">
         <v>41600</v>
       </c>
@@ -2181,7 +2213,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="75">
+      <c r="A26" s="61">
         <v>4</v>
       </c>
       <c r="B26" s="28">
@@ -2211,7 +2243,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="28">
         <v>41604</v>
       </c>
@@ -2239,7 +2271,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="28">
         <v>41605</v>
       </c>
@@ -2267,7 +2299,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="76"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="28">
         <v>41606</v>
       </c>
@@ -2295,7 +2327,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="28">
         <v>41607</v>
       </c>
@@ -2323,7 +2355,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="94">
+      <c r="A31" s="64">
         <v>5</v>
       </c>
       <c r="B31" s="27">
@@ -2353,7 +2385,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="27">
         <v>41611</v>
       </c>
@@ -2381,7 +2413,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="27">
         <v>41612</v>
       </c>
@@ -2409,7 +2441,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="27">
         <v>41613</v>
       </c>
@@ -2437,7 +2469,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="96"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="27">
         <v>41614</v>
       </c>
@@ -2465,7 +2497,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="75">
+      <c r="A36" s="61">
         <v>6</v>
       </c>
       <c r="B36" s="28">
@@ -2495,7 +2527,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="28">
         <v>41618</v>
       </c>
@@ -2523,7 +2555,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="76"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="28">
         <v>41619</v>
       </c>
@@ -2551,7 +2583,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="76"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="28">
         <v>41620</v>
       </c>
@@ -2579,7 +2611,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="77"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="28">
         <v>41621</v>
       </c>
@@ -2607,7 +2639,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="94">
+      <c r="A41" s="64">
         <v>7</v>
       </c>
       <c r="B41" s="27">
@@ -2637,7 +2669,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="95"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="27">
         <v>41625</v>
       </c>
@@ -2665,7 +2697,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="95"/>
+      <c r="A43" s="65"/>
       <c r="B43" s="27">
         <v>41626</v>
       </c>
@@ -2693,7 +2725,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="95"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="27">
         <v>41627</v>
       </c>
@@ -2710,7 +2742,7 @@
       <c r="J44" s="40"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="96"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="27">
         <v>41628</v>
       </c>
@@ -2727,7 +2759,7 @@
       <c r="J45" s="40"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="75">
+      <c r="A46" s="61">
         <v>8</v>
       </c>
       <c r="B46" s="28">
@@ -2746,7 +2778,7 @@
       <c r="J46" s="41"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="76"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="28">
         <v>41632</v>
       </c>
@@ -2763,7 +2795,7 @@
       <c r="J47" s="41"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="76"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="28">
         <v>41633</v>
       </c>
@@ -2780,7 +2812,7 @@
       <c r="J48" s="41"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="76"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="28">
         <v>41634</v>
       </c>
@@ -2797,7 +2829,7 @@
       <c r="J49" s="41"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="77"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="28">
         <v>41635</v>
       </c>
@@ -2814,7 +2846,7 @@
       <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="94">
+      <c r="A51" s="64">
         <v>9</v>
       </c>
       <c r="B51" s="27">
@@ -2833,7 +2865,7 @@
       <c r="J51" s="40"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="95"/>
+      <c r="A52" s="65"/>
       <c r="B52" s="27">
         <v>41639</v>
       </c>
@@ -2850,7 +2882,7 @@
       <c r="J52" s="40"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="95"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="27">
         <v>41640</v>
       </c>
@@ -2867,7 +2899,7 @@
       <c r="J53" s="40"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="95"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="27">
         <v>41641</v>
       </c>
@@ -2884,7 +2916,7 @@
       <c r="J54" s="40"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="96"/>
+      <c r="A55" s="66"/>
       <c r="B55" s="27">
         <v>41642</v>
       </c>
@@ -2901,7 +2933,7 @@
       <c r="J55" s="40"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="75">
+      <c r="A56" s="61">
         <v>10</v>
       </c>
       <c r="B56" s="28">
@@ -2920,7 +2952,7 @@
       <c r="J56" s="41"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="76"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="28">
         <v>41646</v>
       </c>
@@ -2937,7 +2969,7 @@
       <c r="J57" s="41"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="76"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="28">
         <v>41647</v>
       </c>
@@ -2954,7 +2986,7 @@
       <c r="J58" s="41"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="76"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="28">
         <v>41648</v>
       </c>
@@ -2971,7 +3003,7 @@
       <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="77"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="28">
         <v>41649</v>
       </c>
@@ -2988,7 +3020,7 @@
       <c r="J60" s="41"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="94">
+      <c r="A61" s="64">
         <v>11</v>
       </c>
       <c r="B61" s="27">
@@ -3007,7 +3039,7 @@
       <c r="J61" s="40"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="95"/>
+      <c r="A62" s="65"/>
       <c r="B62" s="27">
         <v>41653</v>
       </c>
@@ -3024,7 +3056,7 @@
       <c r="J62" s="40"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="95"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="27">
         <v>41654</v>
       </c>
@@ -3041,7 +3073,7 @@
       <c r="J63" s="40"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="95"/>
+      <c r="A64" s="65"/>
       <c r="B64" s="27">
         <v>41655</v>
       </c>
@@ -3058,7 +3090,7 @@
       <c r="J64" s="40"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="96"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="27">
         <v>41656</v>
       </c>
@@ -3075,7 +3107,7 @@
       <c r="J65" s="40"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="75">
+      <c r="A66" s="61">
         <v>12</v>
       </c>
       <c r="B66" s="28">
@@ -3094,7 +3126,7 @@
       <c r="J66" s="41"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="76"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="28">
         <v>41660</v>
       </c>
@@ -3111,7 +3143,7 @@
       <c r="J67" s="41"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="76"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="28">
         <v>41661</v>
       </c>
@@ -3128,7 +3160,7 @@
       <c r="J68" s="41"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="76"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="28">
         <v>41662</v>
       </c>
@@ -3145,7 +3177,7 @@
       <c r="J69" s="41"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="77"/>
+      <c r="A70" s="63"/>
       <c r="B70" s="28">
         <v>41663</v>
       </c>
@@ -3162,7 +3194,7 @@
       <c r="J70" s="41"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="94">
+      <c r="A71" s="64">
         <v>13</v>
       </c>
       <c r="B71" s="27">
@@ -3183,7 +3215,7 @@
       <c r="J71" s="40"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="95"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="27">
         <v>41667</v>
       </c>
@@ -3202,7 +3234,7 @@
       <c r="J72" s="40"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="95"/>
+      <c r="A73" s="65"/>
       <c r="B73" s="27">
         <v>41668</v>
       </c>
@@ -3221,7 +3253,7 @@
       <c r="J73" s="40"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="95"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="27">
         <v>41669</v>
       </c>
@@ -3240,7 +3272,7 @@
       <c r="J74" s="40"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="96"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="27">
         <v>41670</v>
       </c>
@@ -3259,7 +3291,7 @@
       <c r="J75" s="40"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="75">
+      <c r="A76" s="61">
         <v>14</v>
       </c>
       <c r="B76" s="28">
@@ -3280,7 +3312,7 @@
       <c r="J76" s="41"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="76"/>
+      <c r="A77" s="62"/>
       <c r="B77" s="28">
         <v>41674</v>
       </c>
@@ -3299,7 +3331,7 @@
       <c r="J77" s="41"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="76"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="28">
         <v>41675</v>
       </c>
@@ -3318,7 +3350,7 @@
       <c r="J78" s="41"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="76"/>
+      <c r="A79" s="62"/>
       <c r="B79" s="28">
         <v>41676</v>
       </c>
@@ -3337,7 +3369,7 @@
       <c r="J79" s="41"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="77"/>
+      <c r="A80" s="63"/>
       <c r="B80" s="28">
         <v>41677</v>
       </c>
@@ -3356,7 +3388,7 @@
       <c r="J80" s="41"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="94">
+      <c r="A81" s="64">
         <v>15</v>
       </c>
       <c r="B81" s="27">
@@ -3375,7 +3407,7 @@
       <c r="J81" s="40"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="95"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="27">
         <v>41681</v>
       </c>
@@ -3392,7 +3424,7 @@
       <c r="J82" s="40"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="95"/>
+      <c r="A83" s="65"/>
       <c r="B83" s="27">
         <v>41682</v>
       </c>
@@ -3409,7 +3441,7 @@
       <c r="J83" s="40"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="95"/>
+      <c r="A84" s="65"/>
       <c r="B84" s="27">
         <v>41683</v>
       </c>
@@ -3426,7 +3458,7 @@
       <c r="J84" s="40"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="96"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="27">
         <v>41684</v>
       </c>
@@ -3443,7 +3475,7 @@
       <c r="J85" s="40"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="75">
+      <c r="A86" s="61">
         <v>16</v>
       </c>
       <c r="B86" s="28">
@@ -3462,7 +3494,7 @@
       <c r="J86" s="41"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="76"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="28">
         <v>41688</v>
       </c>
@@ -3479,7 +3511,7 @@
       <c r="J87" s="41"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="76"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="28">
         <v>41689</v>
       </c>
@@ -3496,7 +3528,7 @@
       <c r="J88" s="41"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="76"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="28">
         <v>41690</v>
       </c>
@@ -3513,7 +3545,7 @@
       <c r="J89" s="41"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="77"/>
+      <c r="A90" s="63"/>
       <c r="B90" s="28">
         <v>41691</v>
       </c>
@@ -3530,7 +3562,7 @@
       <c r="J90" s="41"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="94">
+      <c r="A91" s="64">
         <v>17</v>
       </c>
       <c r="B91" s="27">
@@ -3549,7 +3581,7 @@
       <c r="J91" s="40"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="95"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="27">
         <v>41695</v>
       </c>
@@ -3566,7 +3598,7 @@
       <c r="J92" s="40"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="95"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="27">
         <v>41696</v>
       </c>
@@ -3583,7 +3615,7 @@
       <c r="J93" s="40"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="95"/>
+      <c r="A94" s="65"/>
       <c r="B94" s="27">
         <v>41697</v>
       </c>
@@ -3600,7 +3632,7 @@
       <c r="J94" s="40"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="96"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="27">
         <v>41698</v>
       </c>
@@ -3617,7 +3649,7 @@
       <c r="J95" s="40"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="75">
+      <c r="A96" s="61">
         <v>18</v>
       </c>
       <c r="B96" s="28">
@@ -3636,7 +3668,7 @@
       <c r="J96" s="41"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="76"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="28">
         <v>41702</v>
       </c>
@@ -3653,7 +3685,7 @@
       <c r="J97" s="41"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="76"/>
+      <c r="A98" s="62"/>
       <c r="B98" s="28">
         <v>41703</v>
       </c>
@@ -3670,7 +3702,7 @@
       <c r="J98" s="41"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="76"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="28">
         <v>41704</v>
       </c>
@@ -3687,7 +3719,7 @@
       <c r="J99" s="41"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="77"/>
+      <c r="A100" s="63"/>
       <c r="B100" s="28">
         <v>41705</v>
       </c>
@@ -3704,7 +3736,7 @@
       <c r="J100" s="41"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="94">
+      <c r="A101" s="64">
         <v>19</v>
       </c>
       <c r="B101" s="27">
@@ -3723,7 +3755,7 @@
       <c r="J101" s="40"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="95"/>
+      <c r="A102" s="65"/>
       <c r="B102" s="27">
         <v>41709</v>
       </c>
@@ -3740,7 +3772,7 @@
       <c r="J102" s="40"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="95"/>
+      <c r="A103" s="65"/>
       <c r="B103" s="27">
         <v>41710</v>
       </c>
@@ -3757,7 +3789,7 @@
       <c r="J103" s="40"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="95"/>
+      <c r="A104" s="65"/>
       <c r="B104" s="27">
         <v>41711</v>
       </c>
@@ -3774,7 +3806,7 @@
       <c r="J104" s="40"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="96"/>
+      <c r="A105" s="66"/>
       <c r="B105" s="27">
         <v>41712</v>
       </c>
@@ -3791,7 +3823,7 @@
       <c r="J105" s="40"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="75">
+      <c r="A106" s="61">
         <v>20</v>
       </c>
       <c r="B106" s="28">
@@ -3810,7 +3842,7 @@
       <c r="J106" s="41"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="76"/>
+      <c r="A107" s="62"/>
       <c r="B107" s="28">
         <v>41716</v>
       </c>
@@ -3827,7 +3859,7 @@
       <c r="J107" s="41"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="76"/>
+      <c r="A108" s="62"/>
       <c r="B108" s="28">
         <v>41717</v>
       </c>
@@ -3844,7 +3876,7 @@
       <c r="J108" s="41"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="76"/>
+      <c r="A109" s="62"/>
       <c r="B109" s="28">
         <v>41718</v>
       </c>
@@ -3861,7 +3893,7 @@
       <c r="J109" s="41"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="77"/>
+      <c r="A110" s="63"/>
       <c r="B110" s="28">
         <v>41719</v>
       </c>
@@ -3878,7 +3910,7 @@
       <c r="J110" s="41"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="94">
+      <c r="A111" s="64">
         <v>21</v>
       </c>
       <c r="B111" s="27">
@@ -3897,7 +3929,7 @@
       <c r="J111" s="40"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="95"/>
+      <c r="A112" s="65"/>
       <c r="B112" s="27">
         <v>41723</v>
       </c>
@@ -3914,7 +3946,7 @@
       <c r="J112" s="40"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="95"/>
+      <c r="A113" s="65"/>
       <c r="B113" s="27">
         <v>41724</v>
       </c>
@@ -3931,7 +3963,7 @@
       <c r="J113" s="40"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="95"/>
+      <c r="A114" s="65"/>
       <c r="B114" s="27">
         <v>41725</v>
       </c>
@@ -3948,7 +3980,7 @@
       <c r="J114" s="40"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="96"/>
+      <c r="A115" s="66"/>
       <c r="B115" s="27">
         <v>41726</v>
       </c>
@@ -3965,7 +3997,7 @@
       <c r="J115" s="40"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="75">
+      <c r="A116" s="61">
         <v>22</v>
       </c>
       <c r="B116" s="28">
@@ -3984,7 +4016,7 @@
       <c r="J116" s="41"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="76"/>
+      <c r="A117" s="62"/>
       <c r="B117" s="28">
         <v>41730</v>
       </c>
@@ -4001,7 +4033,7 @@
       <c r="J117" s="41"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="76"/>
+      <c r="A118" s="62"/>
       <c r="B118" s="28">
         <v>41731</v>
       </c>
@@ -4018,7 +4050,7 @@
       <c r="J118" s="41"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="76"/>
+      <c r="A119" s="62"/>
       <c r="B119" s="28">
         <v>41732</v>
       </c>
@@ -4035,7 +4067,7 @@
       <c r="J119" s="41"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="77"/>
+      <c r="A120" s="63"/>
       <c r="B120" s="28">
         <v>41733</v>
       </c>
@@ -4052,7 +4084,7 @@
       <c r="J120" s="41"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="94">
+      <c r="A121" s="64">
         <v>23</v>
       </c>
       <c r="B121" s="27">
@@ -4071,7 +4103,7 @@
       <c r="J121" s="40"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="95"/>
+      <c r="A122" s="65"/>
       <c r="B122" s="27">
         <v>41737</v>
       </c>
@@ -4088,7 +4120,7 @@
       <c r="J122" s="40"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="95"/>
+      <c r="A123" s="65"/>
       <c r="B123" s="27">
         <v>41738</v>
       </c>
@@ -4105,7 +4137,7 @@
       <c r="J123" s="40"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="95"/>
+      <c r="A124" s="65"/>
       <c r="B124" s="27">
         <v>41739</v>
       </c>
@@ -4122,7 +4154,7 @@
       <c r="J124" s="40"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="96"/>
+      <c r="A125" s="66"/>
       <c r="B125" s="27">
         <v>41740</v>
       </c>
@@ -4139,7 +4171,7 @@
       <c r="J125" s="40"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="75">
+      <c r="A126" s="61">
         <v>24</v>
       </c>
       <c r="B126" s="28">
@@ -4158,7 +4190,7 @@
       <c r="J126" s="41"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="76"/>
+      <c r="A127" s="62"/>
       <c r="B127" s="28">
         <v>41744</v>
       </c>
@@ -4175,7 +4207,7 @@
       <c r="J127" s="41"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="76"/>
+      <c r="A128" s="62"/>
       <c r="B128" s="28">
         <v>41745</v>
       </c>
@@ -4192,7 +4224,7 @@
       <c r="J128" s="41"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="76"/>
+      <c r="A129" s="62"/>
       <c r="B129" s="28">
         <v>41746</v>
       </c>
@@ -4209,7 +4241,7 @@
       <c r="J129" s="41"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="77"/>
+      <c r="A130" s="63"/>
       <c r="B130" s="28">
         <v>41747</v>
       </c>
@@ -4226,7 +4258,7 @@
       <c r="J130" s="41"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="94">
+      <c r="A131" s="64">
         <v>25</v>
       </c>
       <c r="B131" s="27">
@@ -4245,7 +4277,7 @@
       <c r="J131" s="40"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="95"/>
+      <c r="A132" s="65"/>
       <c r="B132" s="27">
         <v>41751</v>
       </c>
@@ -4262,7 +4294,7 @@
       <c r="J132" s="40"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="95"/>
+      <c r="A133" s="65"/>
       <c r="B133" s="27">
         <v>41752</v>
       </c>
@@ -4279,7 +4311,7 @@
       <c r="J133" s="40"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="95"/>
+      <c r="A134" s="65"/>
       <c r="B134" s="27">
         <v>41753</v>
       </c>
@@ -4296,7 +4328,7 @@
       <c r="J134" s="40"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="96"/>
+      <c r="A135" s="66"/>
       <c r="B135" s="27">
         <v>41754</v>
       </c>
@@ -4313,7 +4345,7 @@
       <c r="J135" s="40"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="75">
+      <c r="A136" s="61">
         <v>26</v>
       </c>
       <c r="B136" s="28">
@@ -4332,7 +4364,7 @@
       <c r="J136" s="41"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="76"/>
+      <c r="A137" s="62"/>
       <c r="B137" s="28">
         <v>41758</v>
       </c>
@@ -4349,7 +4381,7 @@
       <c r="J137" s="41"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="76"/>
+      <c r="A138" s="62"/>
       <c r="B138" s="28">
         <v>41759</v>
       </c>
@@ -4366,7 +4398,7 @@
       <c r="J138" s="41"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="76"/>
+      <c r="A139" s="62"/>
       <c r="B139" s="28">
         <v>41760</v>
       </c>
@@ -4383,7 +4415,7 @@
       <c r="J139" s="41"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="77"/>
+      <c r="A140" s="63"/>
       <c r="B140" s="28">
         <v>41761</v>
       </c>
@@ -4400,7 +4432,7 @@
       <c r="J140" s="41"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="94">
+      <c r="A141" s="64">
         <v>27</v>
       </c>
       <c r="B141" s="27">
@@ -4419,7 +4451,7 @@
       <c r="J141" s="40"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="95"/>
+      <c r="A142" s="65"/>
       <c r="B142" s="27">
         <v>41765</v>
       </c>
@@ -4436,7 +4468,7 @@
       <c r="J142" s="40"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="95"/>
+      <c r="A143" s="65"/>
       <c r="B143" s="27">
         <v>41766</v>
       </c>
@@ -4453,7 +4485,7 @@
       <c r="J143" s="40"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="95"/>
+      <c r="A144" s="65"/>
       <c r="B144" s="27">
         <v>41767</v>
       </c>
@@ -4470,7 +4502,7 @@
       <c r="J144" s="40"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="96"/>
+      <c r="A145" s="66"/>
       <c r="B145" s="27">
         <v>41768</v>
       </c>
@@ -4487,7 +4519,7 @@
       <c r="J145" s="40"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="75">
+      <c r="A146" s="61">
         <v>28</v>
       </c>
       <c r="B146" s="28">
@@ -4506,7 +4538,7 @@
       <c r="J146" s="41"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="76"/>
+      <c r="A147" s="62"/>
       <c r="B147" s="28">
         <v>41772</v>
       </c>
@@ -4523,7 +4555,7 @@
       <c r="J147" s="41"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="76"/>
+      <c r="A148" s="62"/>
       <c r="B148" s="28">
         <v>41773</v>
       </c>
@@ -4540,7 +4572,7 @@
       <c r="J148" s="41"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="76"/>
+      <c r="A149" s="62"/>
       <c r="B149" s="28">
         <v>41774</v>
       </c>
@@ -4557,7 +4589,7 @@
       <c r="J149" s="41"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="77"/>
+      <c r="A150" s="63"/>
       <c r="B150" s="28">
         <v>41775</v>
       </c>
@@ -4574,7 +4606,7 @@
       <c r="J150" s="41"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="94">
+      <c r="A151" s="64">
         <v>29</v>
       </c>
       <c r="B151" s="27">
@@ -4593,7 +4625,7 @@
       <c r="J151" s="40"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="95"/>
+      <c r="A152" s="65"/>
       <c r="B152" s="27">
         <v>41779</v>
       </c>
@@ -4610,7 +4642,7 @@
       <c r="J152" s="40"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="95"/>
+      <c r="A153" s="65"/>
       <c r="B153" s="27">
         <v>41780</v>
       </c>
@@ -4627,7 +4659,7 @@
       <c r="J153" s="40"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="95"/>
+      <c r="A154" s="65"/>
       <c r="B154" s="27">
         <v>41781</v>
       </c>
@@ -4644,7 +4676,7 @@
       <c r="J154" s="40"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="96"/>
+      <c r="A155" s="66"/>
       <c r="B155" s="27">
         <v>41782</v>
       </c>
@@ -4661,7 +4693,7 @@
       <c r="J155" s="40"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="111">
+      <c r="A156" s="67">
         <v>30</v>
       </c>
       <c r="B156" s="28">
@@ -4680,7 +4712,7 @@
       <c r="J156" s="42"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="112"/>
+      <c r="A157" s="68"/>
       <c r="B157" s="28">
         <v>41786</v>
       </c>
@@ -4697,7 +4729,7 @@
       <c r="J157" s="42"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="112"/>
+      <c r="A158" s="68"/>
       <c r="B158" s="28">
         <v>41787</v>
       </c>
@@ -4714,7 +4746,7 @@
       <c r="J158" s="42"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="112"/>
+      <c r="A159" s="68"/>
       <c r="B159" s="28">
         <v>41788</v>
       </c>
@@ -4731,7 +4763,7 @@
       <c r="J159" s="42"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="113"/>
+      <c r="A160" s="69"/>
       <c r="B160" s="28">
         <v>41789</v>
       </c>
@@ -4748,37 +4780,7 @@
       <c r="J160" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
+  <mergeCells count="49">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
     <mergeCell ref="A7:A9"/>
@@ -4794,6 +4796,40 @@
     <mergeCell ref="A19:A25"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="A31:A35"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A136:A140"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
@@ -4813,7 +4849,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M15 M8" formulaRange="1"/>
+    <ignoredError sqref="M15 M8 F19 F21" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5348,7 +5384,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F14 F7:F8 F12 F18:F160</xm:sqref>
+          <xm:sqref>F14 F7:F8 F12 F18:F19 F21 F23:F160</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="41" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\9. Timelog\individual time log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="List main task" sheetId="2" r:id="rId1"/>
     <sheet name="SEP-PROJECT" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="105">
   <si>
     <t>Week</t>
   </si>
@@ -324,6 +319,39 @@
   </si>
   <si>
     <t>AS_PM_MeasurementPlan</t>
+  </si>
+  <si>
+    <t>9:10AM</t>
+  </si>
+  <si>
+    <t>10:10AM</t>
+  </si>
+  <si>
+    <t>11:30AM</t>
+  </si>
+  <si>
+    <t>1:30PM</t>
+  </si>
+  <si>
+    <t>3:00PM</t>
+  </si>
+  <si>
+    <t>5:10PM</t>
+  </si>
+  <si>
+    <t>Review Requirement Plan, Architert Plan, Master Plan, Mapping with Scrum and ACDM</t>
+  </si>
+  <si>
+    <t>Devide work task about ACDM</t>
+  </si>
+  <si>
+    <t>Conduct work assign</t>
+  </si>
+  <si>
+    <t>Review ACDM Stages, Roles, Atifacts, Input, Output</t>
+  </si>
+  <si>
+    <t>Stage 1 - Stage 2 - RE</t>
   </si>
 </sst>
 </file>
@@ -337,7 +365,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -345,14 +373,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -365,7 +393,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -378,20 +406,20 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -404,7 +432,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -417,27 +445,27 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -655,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -809,6 +837,67 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="18" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,6 +907,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,6 +964,72 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,180 +1039,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1321,7 +1353,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1335,13 +1367,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
@@ -1349,7 +1381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1357,7 +1389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1365,7 +1397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1373,7 +1405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1381,7 +1413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -1389,7 +1421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1397,7 +1429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1405,7 +1437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1413,7 +1445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1421,7 +1453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1429,7 +1461,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1444,108 +1476,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O160"/>
+  <dimension ref="A1:O163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="47.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="86"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="69"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="89" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="94"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="97"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="78"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="16"/>
       <c r="H5" s="44" t="s">
         <v>64</v>
@@ -1559,7 +1591,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>0</v>
       </c>
@@ -1590,13 +1622,13 @@
       <c r="J6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="98">
+      <c r="A7" s="79">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1622,21 +1654,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="30"/>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="70"/>
+      <c r="L7" s="108"/>
       <c r="M7" s="33">
-        <f>SUM(M8:M43)</f>
-        <v>27.24</v>
+        <f>SUM(M8:M46)</f>
+        <v>33.14</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="99"/>
-      <c r="B8" s="110">
+    <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="80"/>
+      <c r="B8" s="94">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1648,7 +1680,7 @@
       <c r="E8" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="112">
+      <c r="F8" s="96">
         <v>1.67</v>
       </c>
       <c r="G8" s="20" t="s">
@@ -1672,8 +1704,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
-      <c r="B9" s="111"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1683,7 +1715,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="113"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="30" t="s">
         <v>23</v>
       </c>
@@ -1693,62 +1725,62 @@
       <c r="I9" s="43"/>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:15" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79">
+    <row r="10" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="117">
         <v>2</v>
       </c>
-      <c r="B10" s="119">
+      <c r="B10" s="120">
         <v>41589</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="121">
+      <c r="E10" s="62">
         <v>2.5</v>
       </c>
       <c r="F10" s="122">
         <f>SUM(E10:E11)</f>
         <v>5</v>
       </c>
-      <c r="G10" s="123" t="s">
+      <c r="G10" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="124" t="s">
+      <c r="H10" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="125"/>
-      <c r="J10" s="123"/>
-    </row>
-    <row r="11" spans="1:15" s="126" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="120" t="s">
+      <c r="I10" s="65"/>
+      <c r="J10" s="63"/>
+    </row>
+    <row r="11" spans="1:15" s="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="118"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="121">
+      <c r="E11" s="62">
         <v>2.5</v>
       </c>
-      <c r="F11" s="128"/>
-      <c r="G11" s="123" t="s">
+      <c r="F11" s="123"/>
+      <c r="G11" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="124" t="s">
+      <c r="H11" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="125" t="s">
+      <c r="I11" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="123"/>
-    </row>
-    <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
-      <c r="B12" s="71">
+      <c r="J11" s="63"/>
+    </row>
+    <row r="12" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="118"/>
+      <c r="B12" s="109">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1760,7 +1792,7 @@
       <c r="E12" s="24">
         <v>2.25</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="111">
         <v>3.75</v>
       </c>
       <c r="G12" s="31" t="s">
@@ -1787,8 +1819,8 @@
       <c r="O12" s="35"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="23">
         <v>0.91666666666666663</v>
       </c>
@@ -1798,7 +1830,7 @@
       <c r="E13" s="24">
         <v>1.5</v>
       </c>
-      <c r="F13" s="74"/>
+      <c r="F13" s="112"/>
       <c r="G13" s="48" t="s">
         <v>28</v>
       </c>
@@ -1814,8 +1846,8 @@
       <c r="O13" s="35"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="80"/>
-      <c r="B14" s="71">
+      <c r="A14" s="118"/>
+      <c r="B14" s="109">
         <v>41591</v>
       </c>
       <c r="C14" s="23">
@@ -1827,7 +1859,7 @@
       <c r="E14" s="24">
         <v>2</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="114">
         <v>4.5</v>
       </c>
       <c r="G14" s="48" t="s">
@@ -1845,8 +1877,8 @@
       <c r="O14" s="35"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
-      <c r="B15" s="75"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="26">
         <v>0.5625</v>
       </c>
@@ -1856,7 +1888,7 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="77"/>
+      <c r="F15" s="115"/>
       <c r="G15" s="31" t="s">
         <v>19</v>
       </c>
@@ -1873,8 +1905,8 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
-      <c r="B16" s="72"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -1884,7 +1916,7 @@
       <c r="E16" s="29">
         <v>0.5</v>
       </c>
-      <c r="F16" s="78"/>
+      <c r="F16" s="116"/>
       <c r="G16" s="48" t="s">
         <v>28</v>
       </c>
@@ -1900,15 +1932,15 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E19:E25)</f>
-        <v>10</v>
+        <f>SUM(E19:E28)</f>
+        <v>15.9</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="50">
         <v>41592</v>
       </c>
@@ -1940,7 +1972,7 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="45">
         <v>41593</v>
       </c>
@@ -1971,7 +2003,7 @@
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="10">
-        <f>SUM(E31:E35)</f>
+        <f>SUM(E34:E38)</f>
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
@@ -1979,10 +2011,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="118">
+      <c r="A19" s="105">
         <v>3</v>
       </c>
-      <c r="B19" s="82">
+      <c r="B19" s="124">
         <v>41596</v>
       </c>
       <c r="C19" s="56" t="s">
@@ -1994,7 +2026,7 @@
       <c r="E19" s="53">
         <v>0.5</v>
       </c>
-      <c r="F19" s="84">
+      <c r="F19" s="106">
         <f>SUM(E19:E20)</f>
         <v>3.5</v>
       </c>
@@ -2013,7 +2045,7 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E46:E50)</f>
+        <f>SUM(E49:E53)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -2021,8 +2053,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="118"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="56" t="s">
         <v>81</v>
       </c>
@@ -2032,7 +2064,7 @@
       <c r="E20" s="53">
         <v>3</v>
       </c>
-      <c r="F20" s="85"/>
+      <c r="F20" s="107"/>
       <c r="G20" s="52" t="s">
         <v>22</v>
       </c>
@@ -2049,8 +2081,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="118"/>
-      <c r="B21" s="82">
+      <c r="A21" s="105"/>
+      <c r="B21" s="124">
         <v>41597</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -2062,7 +2094,7 @@
       <c r="E21" s="53">
         <v>2</v>
       </c>
-      <c r="F21" s="84">
+      <c r="F21" s="106">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2082,8 +2114,8 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="118"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="56" t="s">
         <v>84</v>
       </c>
@@ -2093,7 +2125,7 @@
       <c r="E22" s="53">
         <v>0.5</v>
       </c>
-      <c r="F22" s="85"/>
+      <c r="F22" s="107"/>
       <c r="G22" s="52" t="s">
         <v>22</v>
       </c>
@@ -2109,7 +2141,7 @@
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="10">
-        <f>SUM(E51:E55)</f>
+        <f>SUM(E54:E58)</f>
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -2117,7 +2149,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="118"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="27">
         <v>41598</v>
       </c>
@@ -2131,7 +2163,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="58">
-        <f t="shared" ref="F23:F52" si="0">E23</f>
+        <f t="shared" ref="F23:F55" si="0">E23</f>
         <v>4</v>
       </c>
       <c r="G23" s="60" t="s">
@@ -2149,121 +2181,131 @@
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E56:E60)</f>
+        <f>SUM(E59:E63)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="118"/>
+    <row r="24" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="105"/>
       <c r="B24" s="27">
         <v>41599</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
+      <c r="C24" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="53">
+        <v>1</v>
+      </c>
+      <c r="F24" s="106">
+        <f>SUM(E24:E27)</f>
+        <v>5.9</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="59"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="8"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="105"/>
+      <c r="B25" s="27">
+        <v>41599</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="53">
+        <v>1.3</v>
+      </c>
+      <c r="F25" s="130"/>
+      <c r="G25" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="59"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="105"/>
+      <c r="B26" s="27">
+        <v>41599</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="130"/>
+      <c r="G26" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="40"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="105"/>
+      <c r="B27" s="27">
+        <v>41599</v>
+      </c>
+      <c r="C27" s="129" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="53">
+        <v>2.1</v>
+      </c>
+      <c r="F27" s="107"/>
+      <c r="G27" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="10">
-        <f>SUM(E61:E65)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="118"/>
-      <c r="B25" s="27">
-        <v>41600</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="10">
-        <f>SUM(E66:E70)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="61">
-        <v>4</v>
-      </c>
-      <c r="B26" s="28">
-        <v>41603</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="10">
-        <f>SUM(E71:E75)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
-      <c r="B27" s="28">
-        <v>41604</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="10">
-        <f>SUM(E76:E80)</f>
+        <f>SUM(E64:E68)</f>
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -2271,27 +2313,27 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
-      <c r="B28" s="28">
-        <v>41605</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6">
+      <c r="A28" s="105"/>
+      <c r="B28" s="27">
+        <v>41600</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="10">
-        <f>SUM(E81:E85)</f>
+        <f>SUM(E69:E73)</f>
         <v>0</v>
       </c>
       <c r="N28" s="3" t="s">
@@ -2299,9 +2341,11 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+      <c r="A29" s="82">
+        <v>4</v>
+      </c>
       <c r="B29" s="28">
-        <v>41606</v>
+        <v>41603</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -2315,11 +2359,11 @@
       <c r="I29" s="41"/>
       <c r="J29" s="41"/>
       <c r="K29" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="10">
-        <f>SUM(E86:E90)</f>
+        <f>SUM(E74:E78)</f>
         <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
@@ -2327,9 +2371,9 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
+      <c r="A30" s="83"/>
       <c r="B30" s="28">
-        <v>41607</v>
+        <v>41604</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -2343,11 +2387,11 @@
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
       <c r="K30" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="10">
-        <f>SUM(E91:E95)</f>
+        <f>SUM(E79:E83)</f>
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -2355,29 +2399,27 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="64">
-        <v>5</v>
-      </c>
-      <c r="B31" s="27">
-        <v>41610</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5">
+      <c r="A31" s="83"/>
+      <c r="B31" s="28">
+        <v>41605</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
       <c r="K31" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="10">
-        <f>SUM(E96:E100)</f>
+        <f>SUM(E84:E88)</f>
         <v>0</v>
       </c>
       <c r="N31" s="3" t="s">
@@ -2385,27 +2427,27 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="27">
-        <v>41611</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5">
+      <c r="A32" s="83"/>
+      <c r="B32" s="28">
+        <v>41606</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
       <c r="K32" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="10">
-        <f>SUM(E101:E105)</f>
+        <f>SUM(E89:E93)</f>
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
@@ -2413,27 +2455,27 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="27">
-        <v>41612</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5">
+      <c r="A33" s="84"/>
+      <c r="B33" s="28">
+        <v>41607</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
       <c r="K33" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="10">
-        <f>SUM(E106:E110)</f>
+        <f>SUM(E94:E98)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -2441,9 +2483,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+      <c r="A34" s="101">
+        <v>5</v>
+      </c>
       <c r="B34" s="27">
-        <v>41613</v>
+        <v>41610</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2457,11 +2501,11 @@
       <c r="I34" s="40"/>
       <c r="J34" s="40"/>
       <c r="K34" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="10">
-        <f>SUM(E111:E115)</f>
+        <f>SUM(E99:E103)</f>
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
@@ -2469,9 +2513,9 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
+      <c r="A35" s="102"/>
       <c r="B35" s="27">
-        <v>41614</v>
+        <v>41611</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2485,11 +2529,11 @@
       <c r="I35" s="40"/>
       <c r="J35" s="40"/>
       <c r="K35" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E116:E120)</f>
+        <f>SUM(E104:E108)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2497,29 +2541,27 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="61">
-        <v>6</v>
-      </c>
-      <c r="B36" s="28">
-        <v>41617</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6">
+      <c r="A36" s="102"/>
+      <c r="B36" s="27">
+        <v>41612</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
       <c r="K36" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="10">
-        <f>SUM(E121:E125)</f>
+        <f>SUM(E109:E113)</f>
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
@@ -2527,27 +2569,27 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
-      <c r="B37" s="28">
-        <v>41618</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6">
+      <c r="A37" s="102"/>
+      <c r="B37" s="27">
+        <v>41613</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
       <c r="K37" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E126:E130)</f>
+        <f>SUM(E114:E118)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2555,27 +2597,27 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
-      <c r="B38" s="28">
-        <v>41619</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6">
+      <c r="A38" s="103"/>
+      <c r="B38" s="27">
+        <v>41614</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
       <c r="K38" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="10">
-        <f>SUM(E131:E135)</f>
+        <f>SUM(E119:E123)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2583,9 +2625,11 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
+      <c r="A39" s="82">
+        <v>6</v>
+      </c>
       <c r="B39" s="28">
-        <v>41620</v>
+        <v>41617</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -2599,11 +2643,11 @@
       <c r="I39" s="41"/>
       <c r="J39" s="41"/>
       <c r="K39" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10">
-        <f>SUM(E136:E140)</f>
+        <f>SUM(E124:E128)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2611,9 +2655,9 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
+      <c r="A40" s="83"/>
       <c r="B40" s="28">
-        <v>41621</v>
+        <v>41618</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2627,11 +2671,11 @@
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
       <c r="K40" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10">
-        <f>SUM(E141:E145)</f>
+        <f>SUM(E129:E133)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2639,29 +2683,27 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="64">
-        <v>7</v>
-      </c>
-      <c r="B41" s="27">
-        <v>41624</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5">
+      <c r="A41" s="83"/>
+      <c r="B41" s="28">
+        <v>41619</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
       <c r="K41" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E146:E150)</f>
+        <f>SUM(E134:E138)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -2669,27 +2711,27 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="27">
-        <v>41625</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5">
+      <c r="A42" s="83"/>
+      <c r="B42" s="28">
+        <v>41620</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
       <c r="K42" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="10">
-        <f>SUM(E151:E155)</f>
+        <f>SUM(E139:E143)</f>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -2697,27 +2739,27 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="27">
-        <v>41626</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5">
+      <c r="A43" s="84"/>
+      <c r="B43" s="28">
+        <v>41621</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
       <c r="K43" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="10">
-        <f>SUM(E156:E160)</f>
+        <f>SUM(E144:E148)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
@@ -2725,9 +2767,11 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
+      <c r="A44" s="101">
+        <v>7</v>
+      </c>
       <c r="B44" s="27">
-        <v>41627</v>
+        <v>41624</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2740,11 +2784,22 @@
       <c r="H44" s="40"/>
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
+      <c r="K44" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="M44" s="10">
+        <f>SUM(E149:E153)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
+      <c r="A45" s="102"/>
       <c r="B45" s="27">
-        <v>41628</v>
+        <v>41625</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2757,64 +2812,86 @@
       <c r="H45" s="40"/>
       <c r="I45" s="40"/>
       <c r="J45" s="40"/>
+      <c r="K45" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="10">
+        <f>SUM(E154:E158)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="61">
+      <c r="A46" s="102"/>
+      <c r="B46" s="27">
+        <v>41626</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L46" s="6"/>
+      <c r="M46" s="10">
+        <f>SUM(E159:E163)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="102"/>
+      <c r="B47" s="27">
+        <v>41627</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="103"/>
+      <c r="B48" s="27">
+        <v>41628</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="82">
         <v>8</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B49" s="28">
         <v>41631</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
-      <c r="B47" s="28">
-        <v>41632</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
-      <c r="B48" s="28">
-        <v>41633</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
-      <c r="B49" s="28">
-        <v>41634</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -2829,9 +2906,9 @@
       <c r="J49" s="41"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="63"/>
+      <c r="A50" s="83"/>
       <c r="B50" s="28">
-        <v>41635</v>
+        <v>41632</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -2846,68 +2923,68 @@
       <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="64">
+      <c r="A51" s="83"/>
+      <c r="B51" s="28">
+        <v>41633</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="83"/>
+      <c r="B52" s="28">
+        <v>41634</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="84"/>
+      <c r="B53" s="28">
+        <v>41635</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="101">
         <v>9</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B54" s="27">
         <v>41638</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
-      <c r="B52" s="27">
-        <v>41639</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
-      <c r="B53" s="27">
-        <v>41640</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5">
-        <f t="shared" ref="F53:F84" si="1">E53</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
-      <c r="B54" s="27">
-        <v>41641</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G54" s="40"/>
@@ -2916,15 +2993,15 @@
       <c r="J54" s="40"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="66"/>
+      <c r="A55" s="102"/>
       <c r="B55" s="27">
-        <v>41642</v>
+        <v>41639</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G55" s="40"/>
@@ -2933,62 +3010,62 @@
       <c r="J55" s="40"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="61">
+      <c r="A56" s="102"/>
+      <c r="B56" s="27">
+        <v>41640</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5">
+        <f t="shared" ref="F56:F87" si="1">E56</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="102"/>
+      <c r="B57" s="27">
+        <v>41641</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="103"/>
+      <c r="B58" s="27">
+        <v>41642</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="82">
         <v>10</v>
       </c>
-      <c r="B56" s="28">
+      <c r="B59" s="28">
         <v>41645</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="62"/>
-      <c r="B57" s="28">
-        <v>41646</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="62"/>
-      <c r="B58" s="28">
-        <v>41647</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="62"/>
-      <c r="B59" s="28">
-        <v>41648</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -3003,9 +3080,9 @@
       <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="63"/>
+      <c r="A60" s="83"/>
       <c r="B60" s="28">
-        <v>41649</v>
+        <v>41646</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -3020,62 +3097,62 @@
       <c r="J60" s="41"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="64">
+      <c r="A61" s="83"/>
+      <c r="B61" s="28">
+        <v>41647</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="83"/>
+      <c r="B62" s="28">
+        <v>41648</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="84"/>
+      <c r="B63" s="28">
+        <v>41649</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="101">
         <v>11</v>
       </c>
-      <c r="B61" s="27">
+      <c r="B64" s="27">
         <v>41652</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="65"/>
-      <c r="B62" s="27">
-        <v>41653</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
-      <c r="B63" s="27">
-        <v>41654</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="65"/>
-      <c r="B64" s="27">
-        <v>41655</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -3090,9 +3167,9 @@
       <c r="J64" s="40"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="66"/>
+      <c r="A65" s="102"/>
       <c r="B65" s="27">
-        <v>41656</v>
+        <v>41653</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -3107,62 +3184,62 @@
       <c r="J65" s="40"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="61">
+      <c r="A66" s="102"/>
+      <c r="B66" s="27">
+        <v>41654</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="102"/>
+      <c r="B67" s="27">
+        <v>41655</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="103"/>
+      <c r="B68" s="27">
+        <v>41656</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="82">
         <v>12</v>
       </c>
-      <c r="B66" s="28">
+      <c r="B69" s="28">
         <v>41659</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
-      <c r="B67" s="28">
-        <v>41660</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="62"/>
-      <c r="B68" s="28">
-        <v>41661</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="62"/>
-      <c r="B69" s="28">
-        <v>41662</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -3177,9 +3254,9 @@
       <c r="J69" s="41"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="63"/>
+      <c r="A70" s="83"/>
       <c r="B70" s="28">
-        <v>41663</v>
+        <v>41660</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -3194,68 +3271,62 @@
       <c r="J70" s="41"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="64">
+      <c r="A71" s="83"/>
+      <c r="B71" s="28">
+        <v>41661</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="83"/>
+      <c r="B72" s="28">
+        <v>41662</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="84"/>
+      <c r="B73" s="28">
+        <v>41663</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="101">
         <v>13</v>
       </c>
-      <c r="B71" s="27">
+      <c r="B74" s="27">
         <v>41666</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="65"/>
-      <c r="B72" s="27">
-        <v>41667</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="65"/>
-      <c r="B73" s="27">
-        <v>41668</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="65"/>
-      <c r="B74" s="27">
-        <v>41669</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -3272,9 +3343,9 @@
       <c r="J74" s="40"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="66"/>
+      <c r="A75" s="102"/>
       <c r="B75" s="27">
-        <v>41670</v>
+        <v>41667</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -3291,68 +3362,68 @@
       <c r="J75" s="40"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="61">
+      <c r="A76" s="102"/>
+      <c r="B76" s="27">
+        <v>41668</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="102"/>
+      <c r="B77" s="27">
+        <v>41669</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="103"/>
+      <c r="B78" s="27">
+        <v>41670</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="82">
         <v>14</v>
       </c>
-      <c r="B76" s="28">
+      <c r="B79" s="28">
         <v>41673</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
-      <c r="B77" s="28">
-        <v>41674</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="62"/>
-      <c r="B78" s="28">
-        <v>41675</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="62"/>
-      <c r="B79" s="28">
-        <v>41676</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -3369,9 +3440,9 @@
       <c r="J79" s="41"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="63"/>
+      <c r="A80" s="83"/>
       <c r="B80" s="28">
-        <v>41677</v>
+        <v>41674</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -3388,62 +3459,68 @@
       <c r="J80" s="41"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="64">
+      <c r="A81" s="83"/>
+      <c r="B81" s="28">
+        <v>41675</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="83"/>
+      <c r="B82" s="28">
+        <v>41676</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="84"/>
+      <c r="B83" s="28">
+        <v>41677</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="41"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="101">
         <v>15</v>
       </c>
-      <c r="B81" s="27">
+      <c r="B84" s="27">
         <v>41680</v>
-      </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="40"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="40"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="65"/>
-      <c r="B82" s="27">
-        <v>41681</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="40"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="40"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="65"/>
-      <c r="B83" s="27">
-        <v>41682</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="40"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="65"/>
-      <c r="B84" s="27">
-        <v>41683</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -3458,15 +3535,15 @@
       <c r="J84" s="40"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="66"/>
+      <c r="A85" s="102"/>
       <c r="B85" s="27">
-        <v>41684</v>
+        <v>41681</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5">
-        <f t="shared" ref="F85:F116" si="2">E85</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G85" s="40"/>
@@ -3475,62 +3552,62 @@
       <c r="J85" s="40"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="61">
+      <c r="A86" s="102"/>
+      <c r="B86" s="27">
+        <v>41682</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="102"/>
+      <c r="B87" s="27">
+        <v>41683</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="103"/>
+      <c r="B88" s="27">
+        <v>41684</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5">
+        <f t="shared" ref="F88:F119" si="2">E88</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="82">
         <v>16</v>
       </c>
-      <c r="B86" s="28">
+      <c r="B89" s="28">
         <v>41687</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="41"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="62"/>
-      <c r="B87" s="28">
-        <v>41688</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="62"/>
-      <c r="B88" s="28">
-        <v>41689</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="41"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="62"/>
-      <c r="B89" s="28">
-        <v>41690</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -3545,9 +3622,9 @@
       <c r="J89" s="41"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="63"/>
+      <c r="A90" s="83"/>
       <c r="B90" s="28">
-        <v>41691</v>
+        <v>41688</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3562,62 +3639,62 @@
       <c r="J90" s="41"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="64">
+      <c r="A91" s="83"/>
+      <c r="B91" s="28">
+        <v>41689</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="83"/>
+      <c r="B92" s="28">
+        <v>41690</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="84"/>
+      <c r="B93" s="28">
+        <v>41691</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="41"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="101">
         <v>17</v>
       </c>
-      <c r="B91" s="27">
+      <c r="B94" s="27">
         <v>41694</v>
-      </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="40"/>
-      <c r="H91" s="40"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="40"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="65"/>
-      <c r="B92" s="27">
-        <v>41695</v>
-      </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="40"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="40"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="65"/>
-      <c r="B93" s="27">
-        <v>41696</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="40"/>
-      <c r="H93" s="40"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="40"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="65"/>
-      <c r="B94" s="27">
-        <v>41697</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -3632,9 +3709,9 @@
       <c r="J94" s="40"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="66"/>
+      <c r="A95" s="102"/>
       <c r="B95" s="27">
-        <v>41698</v>
+        <v>41695</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -3649,62 +3726,62 @@
       <c r="J95" s="40"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="61">
+      <c r="A96" s="102"/>
+      <c r="B96" s="27">
+        <v>41696</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="40"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="102"/>
+      <c r="B97" s="27">
+        <v>41697</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="40"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="103"/>
+      <c r="B98" s="27">
+        <v>41698</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="40"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="82">
         <v>18</v>
       </c>
-      <c r="B96" s="28">
+      <c r="B99" s="28">
         <v>41701</v>
-      </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="62"/>
-      <c r="B97" s="28">
-        <v>41702</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="62"/>
-      <c r="B98" s="28">
-        <v>41703</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="62"/>
-      <c r="B99" s="28">
-        <v>41704</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -3719,9 +3796,9 @@
       <c r="J99" s="41"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="63"/>
+      <c r="A100" s="83"/>
       <c r="B100" s="28">
-        <v>41705</v>
+        <v>41702</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3736,62 +3813,62 @@
       <c r="J100" s="41"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="64">
+      <c r="A101" s="83"/>
+      <c r="B101" s="28">
+        <v>41703</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="83"/>
+      <c r="B102" s="28">
+        <v>41704</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="84"/>
+      <c r="B103" s="28">
+        <v>41705</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="101">
         <v>19</v>
       </c>
-      <c r="B101" s="27">
+      <c r="B104" s="27">
         <v>41708</v>
-      </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="40"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="40"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="65"/>
-      <c r="B102" s="27">
-        <v>41709</v>
-      </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="40"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="40"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="65"/>
-      <c r="B103" s="27">
-        <v>41710</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="40"/>
-      <c r="H103" s="40"/>
-      <c r="I103" s="40"/>
-      <c r="J103" s="40"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="65"/>
-      <c r="B104" s="27">
-        <v>41711</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -3806,9 +3883,9 @@
       <c r="J104" s="40"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="66"/>
+      <c r="A105" s="102"/>
       <c r="B105" s="27">
-        <v>41712</v>
+        <v>41709</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -3823,62 +3900,62 @@
       <c r="J105" s="40"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="61">
+      <c r="A106" s="102"/>
+      <c r="B106" s="27">
+        <v>41710</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="40"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="102"/>
+      <c r="B107" s="27">
+        <v>41711</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="40"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="103"/>
+      <c r="B108" s="27">
+        <v>41712</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="40"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="82">
         <v>20</v>
       </c>
-      <c r="B106" s="28">
+      <c r="B109" s="28">
         <v>41715</v>
-      </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="41"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="62"/>
-      <c r="B107" s="28">
-        <v>41716</v>
-      </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="62"/>
-      <c r="B108" s="28">
-        <v>41717</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="62"/>
-      <c r="B109" s="28">
-        <v>41718</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -3893,9 +3970,9 @@
       <c r="J109" s="41"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="63"/>
+      <c r="A110" s="83"/>
       <c r="B110" s="28">
-        <v>41719</v>
+        <v>41716</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -3910,62 +3987,62 @@
       <c r="J110" s="41"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="64">
+      <c r="A111" s="83"/>
+      <c r="B111" s="28">
+        <v>41717</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="41"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="41"/>
+      <c r="J111" s="41"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="83"/>
+      <c r="B112" s="28">
+        <v>41718</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="41"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="41"/>
+      <c r="J112" s="41"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="84"/>
+      <c r="B113" s="28">
+        <v>41719</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="41"/>
+      <c r="H113" s="41"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="41"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="101">
         <v>21</v>
       </c>
-      <c r="B111" s="27">
+      <c r="B114" s="27">
         <v>41722</v>
-      </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G111" s="40"/>
-      <c r="H111" s="40"/>
-      <c r="I111" s="40"/>
-      <c r="J111" s="40"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="65"/>
-      <c r="B112" s="27">
-        <v>41723</v>
-      </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="40"/>
-      <c r="H112" s="40"/>
-      <c r="I112" s="40"/>
-      <c r="J112" s="40"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="65"/>
-      <c r="B113" s="27">
-        <v>41724</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G113" s="40"/>
-      <c r="H113" s="40"/>
-      <c r="I113" s="40"/>
-      <c r="J113" s="40"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="65"/>
-      <c r="B114" s="27">
-        <v>41725</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -3980,9 +4057,9 @@
       <c r="J114" s="40"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="66"/>
+      <c r="A115" s="102"/>
       <c r="B115" s="27">
-        <v>41726</v>
+        <v>41723</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -3997,68 +4074,68 @@
       <c r="J115" s="40"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="61">
+      <c r="A116" s="102"/>
+      <c r="B116" s="27">
+        <v>41724</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="40"/>
+      <c r="H116" s="40"/>
+      <c r="I116" s="40"/>
+      <c r="J116" s="40"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="102"/>
+      <c r="B117" s="27">
+        <v>41725</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="40"/>
+      <c r="H117" s="40"/>
+      <c r="I117" s="40"/>
+      <c r="J117" s="40"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="103"/>
+      <c r="B118" s="27">
+        <v>41726</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="40"/>
+      <c r="H118" s="40"/>
+      <c r="I118" s="40"/>
+      <c r="J118" s="40"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="82">
         <v>22</v>
       </c>
-      <c r="B116" s="28">
+      <c r="B119" s="28">
         <v>41729</v>
-      </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G116" s="41"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
-      <c r="J116" s="41"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="62"/>
-      <c r="B117" s="28">
-        <v>41730</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6">
-        <f t="shared" ref="F117:F148" si="3">E117</f>
-        <v>0</v>
-      </c>
-      <c r="G117" s="41"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="41"/>
-      <c r="J117" s="41"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="62"/>
-      <c r="B118" s="28">
-        <v>41731</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" s="41"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="62"/>
-      <c r="B119" s="28">
-        <v>41732</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G119" s="41"/>
@@ -4067,15 +4144,15 @@
       <c r="J119" s="41"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="63"/>
+      <c r="A120" s="83"/>
       <c r="B120" s="28">
-        <v>41733</v>
+        <v>41730</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F120:F151" si="3">E120</f>
         <v>0</v>
       </c>
       <c r="G120" s="41"/>
@@ -4084,62 +4161,62 @@
       <c r="J120" s="41"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="64">
+      <c r="A121" s="83"/>
+      <c r="B121" s="28">
+        <v>41731</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
+      <c r="J121" s="41"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="83"/>
+      <c r="B122" s="28">
+        <v>41732</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="41"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="41"/>
+      <c r="J122" s="41"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="84"/>
+      <c r="B123" s="28">
+        <v>41733</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="41"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="41"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="101">
         <v>23</v>
       </c>
-      <c r="B121" s="27">
+      <c r="B124" s="27">
         <v>41736</v>
-      </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G121" s="40"/>
-      <c r="H121" s="40"/>
-      <c r="I121" s="40"/>
-      <c r="J121" s="40"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="65"/>
-      <c r="B122" s="27">
-        <v>41737</v>
-      </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="40"/>
-      <c r="H122" s="40"/>
-      <c r="I122" s="40"/>
-      <c r="J122" s="40"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="65"/>
-      <c r="B123" s="27">
-        <v>41738</v>
-      </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G123" s="40"/>
-      <c r="H123" s="40"/>
-      <c r="I123" s="40"/>
-      <c r="J123" s="40"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="65"/>
-      <c r="B124" s="27">
-        <v>41739</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -4154,9 +4231,9 @@
       <c r="J124" s="40"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="66"/>
+      <c r="A125" s="102"/>
       <c r="B125" s="27">
-        <v>41740</v>
+        <v>41737</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -4171,62 +4248,62 @@
       <c r="J125" s="40"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="61">
+      <c r="A126" s="102"/>
+      <c r="B126" s="27">
+        <v>41738</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="40"/>
+      <c r="H126" s="40"/>
+      <c r="I126" s="40"/>
+      <c r="J126" s="40"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="102"/>
+      <c r="B127" s="27">
+        <v>41739</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="40"/>
+      <c r="H127" s="40"/>
+      <c r="I127" s="40"/>
+      <c r="J127" s="40"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="103"/>
+      <c r="B128" s="27">
+        <v>41740</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="40"/>
+      <c r="H128" s="40"/>
+      <c r="I128" s="40"/>
+      <c r="J128" s="40"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="82">
         <v>24</v>
       </c>
-      <c r="B126" s="28">
+      <c r="B129" s="28">
         <v>41743</v>
-      </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G126" s="41"/>
-      <c r="H126" s="41"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="41"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="62"/>
-      <c r="B127" s="28">
-        <v>41744</v>
-      </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G127" s="41"/>
-      <c r="H127" s="41"/>
-      <c r="I127" s="41"/>
-      <c r="J127" s="41"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="62"/>
-      <c r="B128" s="28">
-        <v>41745</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G128" s="41"/>
-      <c r="H128" s="41"/>
-      <c r="I128" s="41"/>
-      <c r="J128" s="41"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="62"/>
-      <c r="B129" s="28">
-        <v>41746</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -4241,9 +4318,9 @@
       <c r="J129" s="41"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="63"/>
+      <c r="A130" s="83"/>
       <c r="B130" s="28">
-        <v>41747</v>
+        <v>41744</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -4258,62 +4335,62 @@
       <c r="J130" s="41"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="64">
+      <c r="A131" s="83"/>
+      <c r="B131" s="28">
+        <v>41745</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="41"/>
+      <c r="H131" s="41"/>
+      <c r="I131" s="41"/>
+      <c r="J131" s="41"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="83"/>
+      <c r="B132" s="28">
+        <v>41746</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G132" s="41"/>
+      <c r="H132" s="41"/>
+      <c r="I132" s="41"/>
+      <c r="J132" s="41"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="84"/>
+      <c r="B133" s="28">
+        <v>41747</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="41"/>
+      <c r="H133" s="41"/>
+      <c r="I133" s="41"/>
+      <c r="J133" s="41"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="101">
         <v>25</v>
       </c>
-      <c r="B131" s="27">
+      <c r="B134" s="27">
         <v>41750</v>
-      </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G131" s="40"/>
-      <c r="H131" s="40"/>
-      <c r="I131" s="40"/>
-      <c r="J131" s="40"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="65"/>
-      <c r="B132" s="27">
-        <v>41751</v>
-      </c>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G132" s="40"/>
-      <c r="H132" s="40"/>
-      <c r="I132" s="40"/>
-      <c r="J132" s="40"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="65"/>
-      <c r="B133" s="27">
-        <v>41752</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G133" s="40"/>
-      <c r="H133" s="40"/>
-      <c r="I133" s="40"/>
-      <c r="J133" s="40"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="65"/>
-      <c r="B134" s="27">
-        <v>41753</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -4328,9 +4405,9 @@
       <c r="J134" s="40"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="66"/>
+      <c r="A135" s="102"/>
       <c r="B135" s="27">
-        <v>41754</v>
+        <v>41751</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -4345,62 +4422,62 @@
       <c r="J135" s="40"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="61">
+      <c r="A136" s="102"/>
+      <c r="B136" s="27">
+        <v>41752</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="40"/>
+      <c r="H136" s="40"/>
+      <c r="I136" s="40"/>
+      <c r="J136" s="40"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="102"/>
+      <c r="B137" s="27">
+        <v>41753</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G137" s="40"/>
+      <c r="H137" s="40"/>
+      <c r="I137" s="40"/>
+      <c r="J137" s="40"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="103"/>
+      <c r="B138" s="27">
+        <v>41754</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="40"/>
+      <c r="H138" s="40"/>
+      <c r="I138" s="40"/>
+      <c r="J138" s="40"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="82">
         <v>26</v>
       </c>
-      <c r="B136" s="28">
+      <c r="B139" s="28">
         <v>41757</v>
-      </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G136" s="41"/>
-      <c r="H136" s="41"/>
-      <c r="I136" s="41"/>
-      <c r="J136" s="41"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="62"/>
-      <c r="B137" s="28">
-        <v>41758</v>
-      </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G137" s="41"/>
-      <c r="H137" s="41"/>
-      <c r="I137" s="41"/>
-      <c r="J137" s="41"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="62"/>
-      <c r="B138" s="28">
-        <v>41759</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G138" s="41"/>
-      <c r="H138" s="41"/>
-      <c r="I138" s="41"/>
-      <c r="J138" s="41"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="62"/>
-      <c r="B139" s="28">
-        <v>41760</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -4415,9 +4492,9 @@
       <c r="J139" s="41"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="63"/>
+      <c r="A140" s="83"/>
       <c r="B140" s="28">
-        <v>41761</v>
+        <v>41758</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -4432,62 +4509,62 @@
       <c r="J140" s="41"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="64">
+      <c r="A141" s="83"/>
+      <c r="B141" s="28">
+        <v>41759</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G141" s="41"/>
+      <c r="H141" s="41"/>
+      <c r="I141" s="41"/>
+      <c r="J141" s="41"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="83"/>
+      <c r="B142" s="28">
+        <v>41760</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G142" s="41"/>
+      <c r="H142" s="41"/>
+      <c r="I142" s="41"/>
+      <c r="J142" s="41"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="84"/>
+      <c r="B143" s="28">
+        <v>41761</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="41"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="41"/>
+      <c r="J143" s="41"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="101">
         <v>27</v>
       </c>
-      <c r="B141" s="27">
+      <c r="B144" s="27">
         <v>41764</v>
-      </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G141" s="40"/>
-      <c r="H141" s="40"/>
-      <c r="I141" s="40"/>
-      <c r="J141" s="40"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="65"/>
-      <c r="B142" s="27">
-        <v>41765</v>
-      </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G142" s="40"/>
-      <c r="H142" s="40"/>
-      <c r="I142" s="40"/>
-      <c r="J142" s="40"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="65"/>
-      <c r="B143" s="27">
-        <v>41766</v>
-      </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G143" s="40"/>
-      <c r="H143" s="40"/>
-      <c r="I143" s="40"/>
-      <c r="J143" s="40"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="65"/>
-      <c r="B144" s="27">
-        <v>41767</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -4502,9 +4579,9 @@
       <c r="J144" s="40"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="66"/>
+      <c r="A145" s="102"/>
       <c r="B145" s="27">
-        <v>41768</v>
+        <v>41765</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -4519,68 +4596,68 @@
       <c r="J145" s="40"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="61">
+      <c r="A146" s="102"/>
+      <c r="B146" s="27">
+        <v>41766</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G146" s="40"/>
+      <c r="H146" s="40"/>
+      <c r="I146" s="40"/>
+      <c r="J146" s="40"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="102"/>
+      <c r="B147" s="27">
+        <v>41767</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G147" s="40"/>
+      <c r="H147" s="40"/>
+      <c r="I147" s="40"/>
+      <c r="J147" s="40"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="103"/>
+      <c r="B148" s="27">
+        <v>41768</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G148" s="40"/>
+      <c r="H148" s="40"/>
+      <c r="I148" s="40"/>
+      <c r="J148" s="40"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="82">
         <v>28</v>
       </c>
-      <c r="B146" s="28">
+      <c r="B149" s="28">
         <v>41771</v>
-      </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G146" s="41"/>
-      <c r="H146" s="41"/>
-      <c r="I146" s="41"/>
-      <c r="J146" s="41"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="62"/>
-      <c r="B147" s="28">
-        <v>41772</v>
-      </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G147" s="41"/>
-      <c r="H147" s="41"/>
-      <c r="I147" s="41"/>
-      <c r="J147" s="41"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="62"/>
-      <c r="B148" s="28">
-        <v>41773</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G148" s="41"/>
-      <c r="H148" s="41"/>
-      <c r="I148" s="41"/>
-      <c r="J148" s="41"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="62"/>
-      <c r="B149" s="28">
-        <v>41774</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6">
-        <f t="shared" ref="F149:F160" si="4">E149</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G149" s="41"/>
@@ -4589,15 +4666,15 @@
       <c r="J149" s="41"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="63"/>
+      <c r="A150" s="83"/>
       <c r="B150" s="28">
-        <v>41775</v>
+        <v>41772</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G150" s="41"/>
@@ -4606,62 +4683,62 @@
       <c r="J150" s="41"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="64">
+      <c r="A151" s="83"/>
+      <c r="B151" s="28">
+        <v>41773</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G151" s="41"/>
+      <c r="H151" s="41"/>
+      <c r="I151" s="41"/>
+      <c r="J151" s="41"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="83"/>
+      <c r="B152" s="28">
+        <v>41774</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6">
+        <f t="shared" ref="F152:F163" si="4">E152</f>
+        <v>0</v>
+      </c>
+      <c r="G152" s="41"/>
+      <c r="H152" s="41"/>
+      <c r="I152" s="41"/>
+      <c r="J152" s="41"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="84"/>
+      <c r="B153" s="28">
+        <v>41775</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G153" s="41"/>
+      <c r="H153" s="41"/>
+      <c r="I153" s="41"/>
+      <c r="J153" s="41"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="101">
         <v>29</v>
       </c>
-      <c r="B151" s="27">
+      <c r="B154" s="27">
         <v>41778</v>
-      </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G151" s="40"/>
-      <c r="H151" s="40"/>
-      <c r="I151" s="40"/>
-      <c r="J151" s="40"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="65"/>
-      <c r="B152" s="27">
-        <v>41779</v>
-      </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G152" s="40"/>
-      <c r="H152" s="40"/>
-      <c r="I152" s="40"/>
-      <c r="J152" s="40"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="65"/>
-      <c r="B153" s="27">
-        <v>41780</v>
-      </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G153" s="40"/>
-      <c r="H153" s="40"/>
-      <c r="I153" s="40"/>
-      <c r="J153" s="40"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="65"/>
-      <c r="B154" s="27">
-        <v>41781</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -4676,9 +4753,9 @@
       <c r="J154" s="40"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="66"/>
+      <c r="A155" s="102"/>
       <c r="B155" s="27">
-        <v>41782</v>
+        <v>41779</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -4693,62 +4770,62 @@
       <c r="J155" s="40"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="67">
+      <c r="A156" s="102"/>
+      <c r="B156" s="27">
+        <v>41780</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="40"/>
+      <c r="H156" s="40"/>
+      <c r="I156" s="40"/>
+      <c r="J156" s="40"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="102"/>
+      <c r="B157" s="27">
+        <v>41781</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="40"/>
+      <c r="H157" s="40"/>
+      <c r="I157" s="40"/>
+      <c r="J157" s="40"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="103"/>
+      <c r="B158" s="27">
+        <v>41782</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="40"/>
+      <c r="H158" s="40"/>
+      <c r="I158" s="40"/>
+      <c r="J158" s="40"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="126">
         <v>30</v>
       </c>
-      <c r="B156" s="28">
+      <c r="B159" s="28">
         <v>41785</v>
-      </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G156" s="42"/>
-      <c r="H156" s="42"/>
-      <c r="I156" s="42"/>
-      <c r="J156" s="42"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="68"/>
-      <c r="B157" s="28">
-        <v>41786</v>
-      </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G157" s="42"/>
-      <c r="H157" s="42"/>
-      <c r="I157" s="42"/>
-      <c r="J157" s="42"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="68"/>
-      <c r="B158" s="28">
-        <v>41787</v>
-      </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G158" s="42"/>
-      <c r="H158" s="42"/>
-      <c r="I158" s="42"/>
-      <c r="J158" s="42"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="68"/>
-      <c r="B159" s="28">
-        <v>41788</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -4763,9 +4840,9 @@
       <c r="J159" s="42"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="69"/>
+      <c r="A160" s="127"/>
       <c r="B160" s="28">
-        <v>41789</v>
+        <v>41786</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -4779,28 +4856,81 @@
       <c r="I160" s="42"/>
       <c r="J160" s="42"/>
     </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="127"/>
+      <c r="B161" s="28">
+        <v>41787</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G161" s="42"/>
+      <c r="H161" s="42"/>
+      <c r="I161" s="42"/>
+      <c r="J161" s="42"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="127"/>
+      <c r="B162" s="28">
+        <v>41788</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G162" s="42"/>
+      <c r="H162" s="42"/>
+      <c r="I162" s="42"/>
+      <c r="J162" s="42"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="128"/>
+      <c r="B163" s="28">
+        <v>41789</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="42"/>
+      <c r="H163" s="42"/>
+      <c r="I163" s="42"/>
+      <c r="J163" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A61:A65"/>
+  <mergeCells count="50">
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A64:A68"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="F12:F13"/>
@@ -4812,24 +4942,23 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
@@ -4966,67 +5095,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M23</xm:sqref>
+          <xm:sqref>M23:M26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="31" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5045,7 +5117,7 @@
           <xm:sqref>M27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
+          <x14:cfRule type="iconSet" priority="30" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5064,7 +5136,7 @@
           <xm:sqref>M28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
+          <x14:cfRule type="iconSet" priority="29" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5083,7 +5155,7 @@
           <xm:sqref>M29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="28" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5102,7 +5174,7 @@
           <xm:sqref>M30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="27" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5121,7 +5193,7 @@
           <xm:sqref>M31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="26" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5140,7 +5212,7 @@
           <xm:sqref>M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="25" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5159,7 +5231,7 @@
           <xm:sqref>M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="24" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5178,7 +5250,7 @@
           <xm:sqref>M34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="23" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5197,7 +5269,7 @@
           <xm:sqref>M35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="22" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5216,7 +5288,7 @@
           <xm:sqref>M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="21" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5235,7 +5307,7 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="20" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5254,7 +5326,7 @@
           <xm:sqref>M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="19" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5273,7 +5345,7 @@
           <xm:sqref>M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="18" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5292,7 +5364,7 @@
           <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="17" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5311,7 +5383,7 @@
           <xm:sqref>M41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="16" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5330,7 +5402,7 @@
           <xm:sqref>M42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="15" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5347,6 +5419,63 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="11" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -5384,7 +5513,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F14 F7:F8 F12 F18:F19 F21 F23:F160</xm:sqref>
+          <xm:sqref>F14 F7:F8 F12 F18:F19 F21 F23:F24 F28:F163</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="41" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="117">
   <si>
     <t>Week</t>
   </si>
@@ -352,6 +352,45 @@
   </si>
   <si>
     <t>Stage 1 - Stage 2 - RE</t>
+  </si>
+  <si>
+    <t>9:00PM</t>
+  </si>
+  <si>
+    <t>Research roles on Scrum</t>
+  </si>
+  <si>
+    <t>1.30PM</t>
+  </si>
+  <si>
+    <t>2.45PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Requirement Plan
+Create Product backlog template
+Create Spring backlog template
+</t>
+  </si>
+  <si>
+    <t>4.45PM</t>
+  </si>
+  <si>
+    <t>2.00PM</t>
+  </si>
+  <si>
+    <t>5.30PM</t>
+  </si>
+  <si>
+    <t>Create Requirement Process follow ACDM Stage 1 &amp; Stage 2</t>
+  </si>
+  <si>
+    <t>9.30PM</t>
+  </si>
+  <si>
+    <t>10.20PM</t>
+  </si>
+  <si>
+    <t>Update process description, roles and responsibility</t>
   </si>
 </sst>
 </file>
@@ -683,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -853,6 +892,151 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -898,150 +1082,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,7 +1395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1476,13 +1518,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O163"/>
+  <dimension ref="A1:O167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1503,81 +1545,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="69"/>
+      <c r="A1" s="116"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="118"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="70" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="72"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="121"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="75"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="124"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="78"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="127"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="16"/>
       <c r="H5" s="44" t="s">
         <v>64</v>
@@ -1622,13 +1664,13 @@
       <c r="J6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="79">
+      <c r="A7" s="128">
         <v>1</v>
       </c>
       <c r="B7" s="17">
@@ -1654,21 +1696,21 @@
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="30"/>
-      <c r="K7" s="108" t="s">
+      <c r="K7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="108"/>
+      <c r="L7" s="78"/>
       <c r="M7" s="33">
-        <f>SUM(M8:M46)</f>
-        <v>33.14</v>
+        <f>SUM(M8:M50)</f>
+        <v>41.739999999999995</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
-      <c r="B8" s="94">
+      <c r="A8" s="129"/>
+      <c r="B8" s="107">
         <v>41586</v>
       </c>
       <c r="C8" s="18">
@@ -1680,7 +1722,7 @@
       <c r="E8" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="109">
         <v>1.67</v>
       </c>
       <c r="G8" s="20" t="s">
@@ -1704,8 +1746,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="18">
         <v>0.63194444444444442</v>
       </c>
@@ -1715,7 +1757,7 @@
       <c r="E9" s="19">
         <v>0.5</v>
       </c>
-      <c r="F9" s="97"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="30" t="s">
         <v>23</v>
       </c>
@@ -1726,10 +1768,10 @@
       <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="117">
+      <c r="A10" s="87">
         <v>2</v>
       </c>
-      <c r="B10" s="120">
+      <c r="B10" s="90">
         <v>41589</v>
       </c>
       <c r="C10" s="61" t="s">
@@ -1741,7 +1783,7 @@
       <c r="E10" s="62">
         <v>2.5</v>
       </c>
-      <c r="F10" s="122">
+      <c r="F10" s="92">
         <f>SUM(E10:E11)</f>
         <v>5</v>
       </c>
@@ -1755,8 +1797,8 @@
       <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:15" s="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118"/>
-      <c r="B11" s="121"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="61" t="s">
         <v>76</v>
       </c>
@@ -1766,7 +1808,7 @@
       <c r="E11" s="62">
         <v>2.5</v>
       </c>
-      <c r="F11" s="123"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="63" t="s">
         <v>22</v>
       </c>
@@ -1779,8 +1821,8 @@
       <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="118"/>
-      <c r="B12" s="109">
+      <c r="A12" s="88"/>
+      <c r="B12" s="79">
         <v>41590</v>
       </c>
       <c r="C12" s="23">
@@ -1792,7 +1834,7 @@
       <c r="E12" s="24">
         <v>2.25</v>
       </c>
-      <c r="F12" s="111">
+      <c r="F12" s="81">
         <v>3.75</v>
       </c>
       <c r="G12" s="31" t="s">
@@ -1819,8 +1861,8 @@
       <c r="O12" s="35"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="118"/>
-      <c r="B13" s="110"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="23">
         <v>0.91666666666666663</v>
       </c>
@@ -1830,7 +1872,7 @@
       <c r="E13" s="24">
         <v>1.5</v>
       </c>
-      <c r="F13" s="112"/>
+      <c r="F13" s="82"/>
       <c r="G13" s="48" t="s">
         <v>28</v>
       </c>
@@ -1846,8 +1888,8 @@
       <c r="O13" s="35"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="118"/>
-      <c r="B14" s="109">
+      <c r="A14" s="88"/>
+      <c r="B14" s="79">
         <v>41591</v>
       </c>
       <c r="C14" s="23">
@@ -1859,7 +1901,7 @@
       <c r="E14" s="24">
         <v>2</v>
       </c>
-      <c r="F14" s="114">
+      <c r="F14" s="84">
         <v>4.5</v>
       </c>
       <c r="G14" s="48" t="s">
@@ -1877,8 +1919,8 @@
       <c r="O14" s="35"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
-      <c r="B15" s="113"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="26">
         <v>0.5625</v>
       </c>
@@ -1888,7 +1930,7 @@
       <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="115"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="31" t="s">
         <v>19</v>
       </c>
@@ -1905,8 +1947,8 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="118"/>
-      <c r="B16" s="110"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="26">
         <v>0.83333333333333337</v>
       </c>
@@ -1916,7 +1958,7 @@
       <c r="E16" s="29">
         <v>0.5</v>
       </c>
-      <c r="F16" s="116"/>
+      <c r="F16" s="86"/>
       <c r="G16" s="48" t="s">
         <v>28</v>
       </c>
@@ -1932,15 +1974,15 @@
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="10">
-        <f>SUM(E19:E28)</f>
-        <v>15.9</v>
+        <f>SUM(E19:E32)</f>
+        <v>24.499999999999996</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="118"/>
+      <c r="A17" s="88"/>
       <c r="B17" s="50">
         <v>41592</v>
       </c>
@@ -1972,7 +2014,7 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="119"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="45">
         <v>41593</v>
       </c>
@@ -2003,7 +2045,7 @@
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="10">
-        <f>SUM(E34:E38)</f>
+        <f>SUM(E38:E42)</f>
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
@@ -2011,10 +2053,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="105">
+      <c r="A19" s="72">
         <v>3</v>
       </c>
-      <c r="B19" s="124">
+      <c r="B19" s="94">
         <v>41596</v>
       </c>
       <c r="C19" s="56" t="s">
@@ -2026,7 +2068,7 @@
       <c r="E19" s="53">
         <v>0.5</v>
       </c>
-      <c r="F19" s="106">
+      <c r="F19" s="96">
         <f>SUM(E19:E20)</f>
         <v>3.5</v>
       </c>
@@ -2045,7 +2087,7 @@
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="10">
-        <f>SUM(E49:E53)</f>
+        <f>SUM(E53:E57)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -2053,8 +2095,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="105"/>
-      <c r="B20" s="125"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="56" t="s">
         <v>81</v>
       </c>
@@ -2064,7 +2106,7 @@
       <c r="E20" s="53">
         <v>3</v>
       </c>
-      <c r="F20" s="107"/>
+      <c r="F20" s="97"/>
       <c r="G20" s="52" t="s">
         <v>22</v>
       </c>
@@ -2081,8 +2123,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
-      <c r="B21" s="124">
+      <c r="A21" s="73"/>
+      <c r="B21" s="94">
         <v>41597</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -2094,7 +2136,7 @@
       <c r="E21" s="53">
         <v>2</v>
       </c>
-      <c r="F21" s="106">
+      <c r="F21" s="96">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2114,8 +2156,8 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
-      <c r="B22" s="125"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="95"/>
       <c r="C22" s="56" t="s">
         <v>84</v>
       </c>
@@ -2125,7 +2167,7 @@
       <c r="E22" s="53">
         <v>0.5</v>
       </c>
-      <c r="F22" s="107"/>
+      <c r="F22" s="97"/>
       <c r="G22" s="52" t="s">
         <v>22</v>
       </c>
@@ -2141,7 +2183,7 @@
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="10">
-        <f>SUM(E54:E58)</f>
+        <f>SUM(E58:E62)</f>
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -2149,7 +2191,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="105"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="27">
         <v>41598</v>
       </c>
@@ -2163,7 +2205,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="58">
-        <f t="shared" ref="F23:F55" si="0">E23</f>
+        <f t="shared" ref="F23:F59" si="0">E23</f>
         <v>4</v>
       </c>
       <c r="G23" s="60" t="s">
@@ -2181,7 +2223,7 @@
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10">
-        <f>SUM(E59:E63)</f>
+        <f>SUM(E63:E67)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2189,7 +2231,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="105"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="27">
         <v>41599</v>
       </c>
@@ -2202,9 +2244,9 @@
       <c r="E24" s="53">
         <v>1</v>
       </c>
-      <c r="F24" s="106">
-        <f>SUM(E24:E27)</f>
-        <v>5.9</v>
+      <c r="F24" s="96">
+        <f>SUM(E24:E28)</f>
+        <v>6.9</v>
       </c>
       <c r="G24" s="60" t="s">
         <v>23</v>
@@ -2220,7 +2262,7 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="105"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="27">
         <v>41599</v>
       </c>
@@ -2233,7 +2275,7 @@
       <c r="E25" s="53">
         <v>1.3</v>
       </c>
-      <c r="F25" s="130"/>
+      <c r="F25" s="114"/>
       <c r="G25" s="60" t="s">
         <v>19</v>
       </c>
@@ -2248,7 +2290,7 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="105"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="27">
         <v>41599</v>
       </c>
@@ -2261,7 +2303,7 @@
       <c r="E26" s="53">
         <v>1.5</v>
       </c>
-      <c r="F26" s="130"/>
+      <c r="F26" s="114"/>
       <c r="G26" s="60" t="s">
         <v>22</v>
       </c>
@@ -2278,20 +2320,20 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="105"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="27">
         <v>41599</v>
       </c>
-      <c r="C27" s="129" t="s">
+      <c r="C27" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="129" t="s">
+      <c r="D27" s="67" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="53">
         <v>2.1</v>
       </c>
-      <c r="F27" s="107"/>
+      <c r="F27" s="114"/>
       <c r="G27" s="30" t="s">
         <v>19</v>
       </c>
@@ -2305,7 +2347,7 @@
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="10">
-        <f>SUM(E64:E68)</f>
+        <f>SUM(E68:E72)</f>
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -2313,151 +2355,166 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="105"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="27">
+        <v>41599</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="53">
+        <v>1</v>
+      </c>
+      <c r="F28" s="115"/>
+      <c r="G28" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="73"/>
+      <c r="B29" s="27">
         <v>41600</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="8" t="s">
+      <c r="C29" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="53">
+        <v>1.2</v>
+      </c>
+      <c r="F29" s="96">
+        <f>SUM(E29:E30)</f>
+        <v>3.2</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+      <c r="A30" s="73"/>
+      <c r="B30" s="27">
+        <v>41600</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="53">
+        <v>2</v>
+      </c>
+      <c r="F30" s="97"/>
+      <c r="G30" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="10">
-        <f>SUM(E69:E73)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="82">
-        <v>4</v>
-      </c>
-      <c r="B29" s="28">
-        <v>41603</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="10">
-        <f>SUM(E74:E78)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="28">
-        <v>41604</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="10">
-        <f>SUM(E79:E83)</f>
+        <f>SUM(E73:E77)</f>
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="28">
-        <v>41605</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="8" t="s">
-        <v>38</v>
-      </c>
+    <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="73"/>
+      <c r="B31" s="27">
+        <v>41601</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="53">
+        <v>3.5</v>
+      </c>
+      <c r="F31" s="96">
+        <f>SUM(E31:E32)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G31" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" s="40"/>
+      <c r="K31" s="8"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="10">
-        <f>SUM(E84:E88)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M31" s="10"/>
+      <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="28">
-        <v>41606</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A32" s="74"/>
+      <c r="B32" s="27">
+        <v>41601</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="F32" s="97"/>
+      <c r="G32" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="40"/>
+      <c r="K32" s="8"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="10">
-        <f>SUM(E89:E93)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M32" s="10"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
+      <c r="A33" s="69">
+        <v>4</v>
+      </c>
       <c r="B33" s="28">
-        <v>41607</v>
+        <v>41603</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -2471,11 +2528,11 @@
       <c r="I33" s="41"/>
       <c r="J33" s="41"/>
       <c r="K33" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="10">
-        <f>SUM(E94:E98)</f>
+        <f>SUM(E78:E82)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -2483,29 +2540,27 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="101">
-        <v>5</v>
-      </c>
-      <c r="B34" s="27">
-        <v>41610</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5">
+      <c r="A34" s="70"/>
+      <c r="B34" s="28">
+        <v>41604</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
       <c r="K34" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="10">
-        <f>SUM(E99:E103)</f>
+        <f>SUM(E83:E87)</f>
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
@@ -2513,27 +2568,27 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="102"/>
-      <c r="B35" s="27">
-        <v>41611</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5">
+      <c r="A35" s="70"/>
+      <c r="B35" s="28">
+        <v>41605</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
       <c r="K35" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10">
-        <f>SUM(E104:E108)</f>
+        <f>SUM(E88:E92)</f>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
@@ -2541,27 +2596,27 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="102"/>
-      <c r="B36" s="27">
-        <v>41612</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5">
+      <c r="A36" s="70"/>
+      <c r="B36" s="28">
+        <v>41606</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
       <c r="K36" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="10">
-        <f>SUM(E109:E113)</f>
+        <f>SUM(E93:E97)</f>
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
@@ -2569,27 +2624,27 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="102"/>
-      <c r="B37" s="27">
-        <v>41613</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5">
+      <c r="A37" s="71"/>
+      <c r="B37" s="28">
+        <v>41607</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
       <c r="K37" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10">
-        <f>SUM(E114:E118)</f>
+        <f>SUM(E98:E102)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2597,9 +2652,11 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="103"/>
+      <c r="A38" s="72">
+        <v>5</v>
+      </c>
       <c r="B38" s="27">
-        <v>41614</v>
+        <v>41610</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2613,11 +2670,11 @@
       <c r="I38" s="40"/>
       <c r="J38" s="40"/>
       <c r="K38" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="10">
-        <f>SUM(E119:E123)</f>
+        <f>SUM(E103:E107)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2625,29 +2682,27 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="82">
-        <v>6</v>
-      </c>
-      <c r="B39" s="28">
-        <v>41617</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6">
+      <c r="A39" s="73"/>
+      <c r="B39" s="27">
+        <v>41611</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
       <c r="K39" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10">
-        <f>SUM(E124:E128)</f>
+        <f>SUM(E108:E112)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2655,27 +2710,27 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
-      <c r="B40" s="28">
-        <v>41618</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6">
+      <c r="A40" s="73"/>
+      <c r="B40" s="27">
+        <v>41612</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
       <c r="K40" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10">
-        <f>SUM(E129:E133)</f>
+        <f>SUM(E113:E117)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2683,27 +2738,27 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="28">
-        <v>41619</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6">
+      <c r="A41" s="73"/>
+      <c r="B41" s="27">
+        <v>41613</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
       <c r="K41" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10">
-        <f>SUM(E134:E138)</f>
+        <f>SUM(E118:E122)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -2711,27 +2766,27 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="28">
-        <v>41620</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6">
+      <c r="A42" s="74"/>
+      <c r="B42" s="27">
+        <v>41614</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
       <c r="K42" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="10">
-        <f>SUM(E139:E143)</f>
+        <f>SUM(E123:E127)</f>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -2739,9 +2794,11 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
+      <c r="A43" s="69">
+        <v>6</v>
+      </c>
       <c r="B43" s="28">
-        <v>41621</v>
+        <v>41617</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -2755,11 +2812,11 @@
       <c r="I43" s="41"/>
       <c r="J43" s="41"/>
       <c r="K43" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="10">
-        <f>SUM(E144:E148)</f>
+        <f>SUM(E128:E132)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
@@ -2767,29 +2824,27 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="101">
-        <v>7</v>
-      </c>
-      <c r="B44" s="27">
-        <v>41624</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5">
+      <c r="A44" s="70"/>
+      <c r="B44" s="28">
+        <v>41618</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
       <c r="K44" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="10">
-        <f>SUM(E149:E153)</f>
+        <f>SUM(E133:E137)</f>
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -2797,27 +2852,27 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="102"/>
-      <c r="B45" s="27">
-        <v>41625</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5">
+      <c r="A45" s="70"/>
+      <c r="B45" s="28">
+        <v>41619</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
       <c r="K45" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="10">
-        <f>SUM(E154:E158)</f>
+        <f>SUM(E138:E142)</f>
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
@@ -2825,27 +2880,27 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="102"/>
-      <c r="B46" s="27">
-        <v>41626</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5">
+      <c r="A46" s="70"/>
+      <c r="B46" s="28">
+        <v>41620</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
       <c r="K46" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="10">
-        <f>SUM(E159:E163)</f>
+        <f>SUM(E143:E147)</f>
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
@@ -2853,26 +2908,39 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="102"/>
-      <c r="B47" s="27">
-        <v>41627</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5">
+      <c r="A47" s="71"/>
+      <c r="B47" s="28">
+        <v>41621</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L47" s="6"/>
+      <c r="M47" s="10">
+        <f>SUM(E148:E152)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="103"/>
+      <c r="A48" s="72">
+        <v>7</v>
+      </c>
       <c r="B48" s="27">
-        <v>41628</v>
+        <v>41624</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2885,81 +2953,114 @@
       <c r="H48" s="40"/>
       <c r="I48" s="40"/>
       <c r="J48" s="40"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="82">
+      <c r="K48" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L48" s="6"/>
+      <c r="M48" s="10">
+        <f>SUM(E153:E157)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="73"/>
+      <c r="B49" s="27">
+        <v>41625</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L49" s="6"/>
+      <c r="M49" s="10">
+        <f>SUM(E158:E162)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="73"/>
+      <c r="B50" s="27">
+        <v>41626</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L50" s="6"/>
+      <c r="M50" s="10">
+        <f>SUM(E163:E167)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="73"/>
+      <c r="B51" s="27">
+        <v>41627</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="74"/>
+      <c r="B52" s="27">
+        <v>41628</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="69">
         <v>8</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B53" s="28">
         <v>41631</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="83"/>
-      <c r="B50" s="28">
-        <v>41632</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="83"/>
-      <c r="B51" s="28">
-        <v>41633</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="83"/>
-      <c r="B52" s="28">
-        <v>41634</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="84"/>
-      <c r="B53" s="28">
-        <v>41635</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2973,86 +3074,86 @@
       <c r="I53" s="41"/>
       <c r="J53" s="41"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="101">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="70"/>
+      <c r="B54" s="28">
+        <v>41632</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="70"/>
+      <c r="B55" s="28">
+        <v>41633</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="70"/>
+      <c r="B56" s="28">
+        <v>41634</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="71"/>
+      <c r="B57" s="28">
+        <v>41635</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="72">
         <v>9</v>
       </c>
-      <c r="B54" s="27">
+      <c r="B58" s="27">
         <v>41638</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="102"/>
-      <c r="B55" s="27">
-        <v>41639</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="102"/>
-      <c r="B56" s="27">
-        <v>41640</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5">
-        <f t="shared" ref="F56:F87" si="1">E56</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="102"/>
-      <c r="B57" s="27">
-        <v>41641</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="103"/>
-      <c r="B58" s="27">
-        <v>41642</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G58" s="40"/>
@@ -3060,80 +3161,80 @@
       <c r="I58" s="40"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="82">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="73"/>
+      <c r="B59" s="27">
+        <v>41639</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="73"/>
+      <c r="B60" s="27">
+        <v>41640</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5">
+        <f t="shared" ref="F60:F91" si="1">E60</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="73"/>
+      <c r="B61" s="27">
+        <v>41641</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="74"/>
+      <c r="B62" s="27">
+        <v>41642</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="69">
         <v>10</v>
       </c>
-      <c r="B59" s="28">
+      <c r="B63" s="28">
         <v>41645</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="83"/>
-      <c r="B60" s="28">
-        <v>41646</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="83"/>
-      <c r="B61" s="28">
-        <v>41647</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="83"/>
-      <c r="B62" s="28">
-        <v>41648</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="84"/>
-      <c r="B63" s="28">
-        <v>41649</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -3147,80 +3248,80 @@
       <c r="I63" s="41"/>
       <c r="J63" s="41"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="101">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="70"/>
+      <c r="B64" s="28">
+        <v>41646</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="70"/>
+      <c r="B65" s="28">
+        <v>41647</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="70"/>
+      <c r="B66" s="28">
+        <v>41648</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="71"/>
+      <c r="B67" s="28">
+        <v>41649</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="72">
         <v>11</v>
       </c>
-      <c r="B64" s="27">
+      <c r="B68" s="27">
         <v>41652</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="40"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="102"/>
-      <c r="B65" s="27">
-        <v>41653</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="40"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="102"/>
-      <c r="B66" s="27">
-        <v>41654</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="102"/>
-      <c r="B67" s="27">
-        <v>41655</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="40"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="103"/>
-      <c r="B68" s="27">
-        <v>41656</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -3235,79 +3336,79 @@
       <c r="J68" s="40"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="82">
+      <c r="A69" s="73"/>
+      <c r="B69" s="27">
+        <v>41653</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="73"/>
+      <c r="B70" s="27">
+        <v>41654</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="73"/>
+      <c r="B71" s="27">
+        <v>41655</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="74"/>
+      <c r="B72" s="27">
+        <v>41656</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="69">
         <v>12</v>
       </c>
-      <c r="B69" s="28">
+      <c r="B73" s="28">
         <v>41659</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="83"/>
-      <c r="B70" s="28">
-        <v>41660</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="83"/>
-      <c r="B71" s="28">
-        <v>41661</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="83"/>
-      <c r="B72" s="28">
-        <v>41662</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="84"/>
-      <c r="B73" s="28">
-        <v>41663</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -3322,87 +3423,79 @@
       <c r="J73" s="41"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="101">
+      <c r="A74" s="70"/>
+      <c r="B74" s="28">
+        <v>41660</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="70"/>
+      <c r="B75" s="28">
+        <v>41661</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="70"/>
+      <c r="B76" s="28">
+        <v>41662</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="71"/>
+      <c r="B77" s="28">
+        <v>41663</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="72">
         <v>13</v>
       </c>
-      <c r="B74" s="27">
+      <c r="B78" s="27">
         <v>41666</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="102"/>
-      <c r="B75" s="27">
-        <v>41667</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="102"/>
-      <c r="B76" s="27">
-        <v>41668</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="102"/>
-      <c r="B77" s="27">
-        <v>41669</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="103"/>
-      <c r="B78" s="27">
-        <v>41670</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -3419,87 +3512,87 @@
       <c r="J78" s="40"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="82">
+      <c r="A79" s="73"/>
+      <c r="B79" s="27">
+        <v>41667</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="73"/>
+      <c r="B80" s="27">
+        <v>41668</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="73"/>
+      <c r="B81" s="27">
+        <v>41669</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="74"/>
+      <c r="B82" s="27">
+        <v>41670</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="69">
         <v>14</v>
       </c>
-      <c r="B79" s="28">
+      <c r="B83" s="28">
         <v>41673</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="83"/>
-      <c r="B80" s="28">
-        <v>41674</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="83"/>
-      <c r="B81" s="28">
-        <v>41675</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="83"/>
-      <c r="B82" s="28">
-        <v>41676</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="84"/>
-      <c r="B83" s="28">
-        <v>41677</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -3516,85 +3609,93 @@
       <c r="J83" s="41"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="101">
+      <c r="A84" s="70"/>
+      <c r="B84" s="28">
+        <v>41674</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="70"/>
+      <c r="B85" s="28">
+        <v>41675</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="70"/>
+      <c r="B86" s="28">
+        <v>41676</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="71"/>
+      <c r="B87" s="28">
+        <v>41677</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="72">
         <v>15</v>
       </c>
-      <c r="B84" s="27">
+      <c r="B88" s="27">
         <v>41680</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="40"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="102"/>
-      <c r="B85" s="27">
-        <v>41681</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="40"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="102"/>
-      <c r="B86" s="27">
-        <v>41682</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="40"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="102"/>
-      <c r="B87" s="27">
-        <v>41683</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="40"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="103"/>
-      <c r="B88" s="27">
-        <v>41684</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5">
-        <f t="shared" ref="F88:F119" si="2">E88</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G88" s="40"/>
@@ -3603,79 +3704,79 @@
       <c r="J88" s="40"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="82">
+      <c r="A89" s="73"/>
+      <c r="B89" s="27">
+        <v>41681</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="73"/>
+      <c r="B90" s="27">
+        <v>41682</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="73"/>
+      <c r="B91" s="27">
+        <v>41683</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="40"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="74"/>
+      <c r="B92" s="27">
+        <v>41684</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5">
+        <f t="shared" ref="F92:F123" si="2">E92</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="40"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="69">
         <v>16</v>
       </c>
-      <c r="B89" s="28">
+      <c r="B93" s="28">
         <v>41687</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="83"/>
-      <c r="B90" s="28">
-        <v>41688</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="41"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="83"/>
-      <c r="B91" s="28">
-        <v>41689</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="83"/>
-      <c r="B92" s="28">
-        <v>41690</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="41"/>
-      <c r="J92" s="41"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="84"/>
-      <c r="B93" s="28">
-        <v>41691</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -3690,79 +3791,79 @@
       <c r="J93" s="41"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="101">
+      <c r="A94" s="70"/>
+      <c r="B94" s="28">
+        <v>41688</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="70"/>
+      <c r="B95" s="28">
+        <v>41689</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="70"/>
+      <c r="B96" s="28">
+        <v>41690</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="71"/>
+      <c r="B97" s="28">
+        <v>41691</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="72">
         <v>17</v>
       </c>
-      <c r="B94" s="27">
+      <c r="B98" s="27">
         <v>41694</v>
-      </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="40"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="40"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="102"/>
-      <c r="B95" s="27">
-        <v>41695</v>
-      </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="40"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="102"/>
-      <c r="B96" s="27">
-        <v>41696</v>
-      </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="40"/>
-      <c r="H96" s="40"/>
-      <c r="I96" s="40"/>
-      <c r="J96" s="40"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="102"/>
-      <c r="B97" s="27">
-        <v>41697</v>
-      </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="40"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="40"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="103"/>
-      <c r="B98" s="27">
-        <v>41698</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -3777,79 +3878,79 @@
       <c r="J98" s="40"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="82">
+      <c r="A99" s="73"/>
+      <c r="B99" s="27">
+        <v>41695</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="40"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="73"/>
+      <c r="B100" s="27">
+        <v>41696</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="40"/>
+      <c r="H100" s="40"/>
+      <c r="I100" s="40"/>
+      <c r="J100" s="40"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="73"/>
+      <c r="B101" s="27">
+        <v>41697</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
+      <c r="I101" s="40"/>
+      <c r="J101" s="40"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="74"/>
+      <c r="B102" s="27">
+        <v>41698</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="40"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="69">
         <v>18</v>
       </c>
-      <c r="B99" s="28">
+      <c r="B103" s="28">
         <v>41701</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="83"/>
-      <c r="B100" s="28">
-        <v>41702</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="83"/>
-      <c r="B101" s="28">
-        <v>41703</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="83"/>
-      <c r="B102" s="28">
-        <v>41704</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="84"/>
-      <c r="B103" s="28">
-        <v>41705</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -3864,79 +3965,79 @@
       <c r="J103" s="41"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="101">
+      <c r="A104" s="70"/>
+      <c r="B104" s="28">
+        <v>41702</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="41"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="70"/>
+      <c r="B105" s="28">
+        <v>41703</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="70"/>
+      <c r="B106" s="28">
+        <v>41704</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="71"/>
+      <c r="B107" s="28">
+        <v>41705</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="72">
         <v>19</v>
       </c>
-      <c r="B104" s="27">
+      <c r="B108" s="27">
         <v>41708</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="40"/>
-      <c r="H104" s="40"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="40"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="102"/>
-      <c r="B105" s="27">
-        <v>41709</v>
-      </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="40"/>
-      <c r="H105" s="40"/>
-      <c r="I105" s="40"/>
-      <c r="J105" s="40"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="102"/>
-      <c r="B106" s="27">
-        <v>41710</v>
-      </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="40"/>
-      <c r="H106" s="40"/>
-      <c r="I106" s="40"/>
-      <c r="J106" s="40"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="102"/>
-      <c r="B107" s="27">
-        <v>41711</v>
-      </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G107" s="40"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="40"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="103"/>
-      <c r="B108" s="27">
-        <v>41712</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -3951,79 +4052,79 @@
       <c r="J108" s="40"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="82">
+      <c r="A109" s="73"/>
+      <c r="B109" s="27">
+        <v>41709</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="40"/>
+      <c r="H109" s="40"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="40"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="73"/>
+      <c r="B110" s="27">
+        <v>41710</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="40"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="73"/>
+      <c r="B111" s="27">
+        <v>41711</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="40"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="74"/>
+      <c r="B112" s="27">
+        <v>41712</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="40"/>
+      <c r="H112" s="40"/>
+      <c r="I112" s="40"/>
+      <c r="J112" s="40"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="69">
         <v>20</v>
       </c>
-      <c r="B109" s="28">
+      <c r="B113" s="28">
         <v>41715</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="83"/>
-      <c r="B110" s="28">
-        <v>41716</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="41"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="83"/>
-      <c r="B111" s="28">
-        <v>41717</v>
-      </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="41"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="83"/>
-      <c r="B112" s="28">
-        <v>41718</v>
-      </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="41"/>
-      <c r="H112" s="41"/>
-      <c r="I112" s="41"/>
-      <c r="J112" s="41"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="84"/>
-      <c r="B113" s="28">
-        <v>41719</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -4038,79 +4139,79 @@
       <c r="J113" s="41"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="101">
+      <c r="A114" s="70"/>
+      <c r="B114" s="28">
+        <v>41716</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="41"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="70"/>
+      <c r="B115" s="28">
+        <v>41717</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="41"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="41"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="70"/>
+      <c r="B116" s="28">
+        <v>41718</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="41"/>
+      <c r="H116" s="41"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="41"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="71"/>
+      <c r="B117" s="28">
+        <v>41719</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="41"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="41"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="72">
         <v>21</v>
       </c>
-      <c r="B114" s="27">
+      <c r="B118" s="27">
         <v>41722</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G114" s="40"/>
-      <c r="H114" s="40"/>
-      <c r="I114" s="40"/>
-      <c r="J114" s="40"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="102"/>
-      <c r="B115" s="27">
-        <v>41723</v>
-      </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G115" s="40"/>
-      <c r="H115" s="40"/>
-      <c r="I115" s="40"/>
-      <c r="J115" s="40"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="102"/>
-      <c r="B116" s="27">
-        <v>41724</v>
-      </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G116" s="40"/>
-      <c r="H116" s="40"/>
-      <c r="I116" s="40"/>
-      <c r="J116" s="40"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="102"/>
-      <c r="B117" s="27">
-        <v>41725</v>
-      </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="40"/>
-      <c r="H117" s="40"/>
-      <c r="I117" s="40"/>
-      <c r="J117" s="40"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="103"/>
-      <c r="B118" s="27">
-        <v>41726</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -4125,85 +4226,85 @@
       <c r="J118" s="40"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="82">
+      <c r="A119" s="73"/>
+      <c r="B119" s="27">
+        <v>41723</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="40"/>
+      <c r="H119" s="40"/>
+      <c r="I119" s="40"/>
+      <c r="J119" s="40"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="73"/>
+      <c r="B120" s="27">
+        <v>41724</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="40"/>
+      <c r="H120" s="40"/>
+      <c r="I120" s="40"/>
+      <c r="J120" s="40"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="73"/>
+      <c r="B121" s="27">
+        <v>41725</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="40"/>
+      <c r="H121" s="40"/>
+      <c r="I121" s="40"/>
+      <c r="J121" s="40"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="74"/>
+      <c r="B122" s="27">
+        <v>41726</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="40"/>
+      <c r="H122" s="40"/>
+      <c r="I122" s="40"/>
+      <c r="J122" s="40"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="69">
         <v>22</v>
       </c>
-      <c r="B119" s="28">
+      <c r="B123" s="28">
         <v>41729</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="41"/>
-      <c r="J119" s="41"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="83"/>
-      <c r="B120" s="28">
-        <v>41730</v>
-      </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6">
-        <f t="shared" ref="F120:F151" si="3">E120</f>
-        <v>0</v>
-      </c>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="41"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="83"/>
-      <c r="B121" s="28">
-        <v>41731</v>
-      </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="41"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="83"/>
-      <c r="B122" s="28">
-        <v>41732</v>
-      </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="84"/>
-      <c r="B123" s="28">
-        <v>41733</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G123" s="41"/>
@@ -4212,79 +4313,79 @@
       <c r="J123" s="41"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="101">
+      <c r="A124" s="70"/>
+      <c r="B124" s="28">
+        <v>41730</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6">
+        <f t="shared" ref="F124:F155" si="3">E124</f>
+        <v>0</v>
+      </c>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="70"/>
+      <c r="B125" s="28">
+        <v>41731</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="41"/>
+      <c r="J125" s="41"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="70"/>
+      <c r="B126" s="28">
+        <v>41732</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="41"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="41"/>
+      <c r="J126" s="41"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="71"/>
+      <c r="B127" s="28">
+        <v>41733</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="41"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="41"/>
+      <c r="J127" s="41"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="72">
         <v>23</v>
       </c>
-      <c r="B124" s="27">
+      <c r="B128" s="27">
         <v>41736</v>
-      </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G124" s="40"/>
-      <c r="H124" s="40"/>
-      <c r="I124" s="40"/>
-      <c r="J124" s="40"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="102"/>
-      <c r="B125" s="27">
-        <v>41737</v>
-      </c>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="40"/>
-      <c r="H125" s="40"/>
-      <c r="I125" s="40"/>
-      <c r="J125" s="40"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="102"/>
-      <c r="B126" s="27">
-        <v>41738</v>
-      </c>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G126" s="40"/>
-      <c r="H126" s="40"/>
-      <c r="I126" s="40"/>
-      <c r="J126" s="40"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="102"/>
-      <c r="B127" s="27">
-        <v>41739</v>
-      </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G127" s="40"/>
-      <c r="H127" s="40"/>
-      <c r="I127" s="40"/>
-      <c r="J127" s="40"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="103"/>
-      <c r="B128" s="27">
-        <v>41740</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -4299,79 +4400,79 @@
       <c r="J128" s="40"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="82">
+      <c r="A129" s="73"/>
+      <c r="B129" s="27">
+        <v>41737</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="40"/>
+      <c r="H129" s="40"/>
+      <c r="I129" s="40"/>
+      <c r="J129" s="40"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="73"/>
+      <c r="B130" s="27">
+        <v>41738</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="40"/>
+      <c r="H130" s="40"/>
+      <c r="I130" s="40"/>
+      <c r="J130" s="40"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="73"/>
+      <c r="B131" s="27">
+        <v>41739</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="40"/>
+      <c r="H131" s="40"/>
+      <c r="I131" s="40"/>
+      <c r="J131" s="40"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="74"/>
+      <c r="B132" s="27">
+        <v>41740</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G132" s="40"/>
+      <c r="H132" s="40"/>
+      <c r="I132" s="40"/>
+      <c r="J132" s="40"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="69">
         <v>24</v>
       </c>
-      <c r="B129" s="28">
+      <c r="B133" s="28">
         <v>41743</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G129" s="41"/>
-      <c r="H129" s="41"/>
-      <c r="I129" s="41"/>
-      <c r="J129" s="41"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="83"/>
-      <c r="B130" s="28">
-        <v>41744</v>
-      </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G130" s="41"/>
-      <c r="H130" s="41"/>
-      <c r="I130" s="41"/>
-      <c r="J130" s="41"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="83"/>
-      <c r="B131" s="28">
-        <v>41745</v>
-      </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G131" s="41"/>
-      <c r="H131" s="41"/>
-      <c r="I131" s="41"/>
-      <c r="J131" s="41"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="83"/>
-      <c r="B132" s="28">
-        <v>41746</v>
-      </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G132" s="41"/>
-      <c r="H132" s="41"/>
-      <c r="I132" s="41"/>
-      <c r="J132" s="41"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="84"/>
-      <c r="B133" s="28">
-        <v>41747</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -4386,79 +4487,79 @@
       <c r="J133" s="41"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="101">
+      <c r="A134" s="70"/>
+      <c r="B134" s="28">
+        <v>41744</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="70"/>
+      <c r="B135" s="28">
+        <v>41745</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="41"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="70"/>
+      <c r="B136" s="28">
+        <v>41746</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="41"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="41"/>
+      <c r="J136" s="41"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="71"/>
+      <c r="B137" s="28">
+        <v>41747</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G137" s="41"/>
+      <c r="H137" s="41"/>
+      <c r="I137" s="41"/>
+      <c r="J137" s="41"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="72">
         <v>25</v>
       </c>
-      <c r="B134" s="27">
+      <c r="B138" s="27">
         <v>41750</v>
-      </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G134" s="40"/>
-      <c r="H134" s="40"/>
-      <c r="I134" s="40"/>
-      <c r="J134" s="40"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="102"/>
-      <c r="B135" s="27">
-        <v>41751</v>
-      </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G135" s="40"/>
-      <c r="H135" s="40"/>
-      <c r="I135" s="40"/>
-      <c r="J135" s="40"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="102"/>
-      <c r="B136" s="27">
-        <v>41752</v>
-      </c>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G136" s="40"/>
-      <c r="H136" s="40"/>
-      <c r="I136" s="40"/>
-      <c r="J136" s="40"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="102"/>
-      <c r="B137" s="27">
-        <v>41753</v>
-      </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G137" s="40"/>
-      <c r="H137" s="40"/>
-      <c r="I137" s="40"/>
-      <c r="J137" s="40"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="103"/>
-      <c r="B138" s="27">
-        <v>41754</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -4473,79 +4574,79 @@
       <c r="J138" s="40"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="82">
+      <c r="A139" s="73"/>
+      <c r="B139" s="27">
+        <v>41751</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G139" s="40"/>
+      <c r="H139" s="40"/>
+      <c r="I139" s="40"/>
+      <c r="J139" s="40"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="73"/>
+      <c r="B140" s="27">
+        <v>41752</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G140" s="40"/>
+      <c r="H140" s="40"/>
+      <c r="I140" s="40"/>
+      <c r="J140" s="40"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="73"/>
+      <c r="B141" s="27">
+        <v>41753</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G141" s="40"/>
+      <c r="H141" s="40"/>
+      <c r="I141" s="40"/>
+      <c r="J141" s="40"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="74"/>
+      <c r="B142" s="27">
+        <v>41754</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G142" s="40"/>
+      <c r="H142" s="40"/>
+      <c r="I142" s="40"/>
+      <c r="J142" s="40"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="69">
         <v>26</v>
       </c>
-      <c r="B139" s="28">
+      <c r="B143" s="28">
         <v>41757</v>
-      </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G139" s="41"/>
-      <c r="H139" s="41"/>
-      <c r="I139" s="41"/>
-      <c r="J139" s="41"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="83"/>
-      <c r="B140" s="28">
-        <v>41758</v>
-      </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G140" s="41"/>
-      <c r="H140" s="41"/>
-      <c r="I140" s="41"/>
-      <c r="J140" s="41"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="83"/>
-      <c r="B141" s="28">
-        <v>41759</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G141" s="41"/>
-      <c r="H141" s="41"/>
-      <c r="I141" s="41"/>
-      <c r="J141" s="41"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="83"/>
-      <c r="B142" s="28">
-        <v>41760</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G142" s="41"/>
-      <c r="H142" s="41"/>
-      <c r="I142" s="41"/>
-      <c r="J142" s="41"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="84"/>
-      <c r="B143" s="28">
-        <v>41761</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -4560,79 +4661,79 @@
       <c r="J143" s="41"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="101">
+      <c r="A144" s="70"/>
+      <c r="B144" s="28">
+        <v>41758</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="41"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="41"/>
+      <c r="J144" s="41"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="70"/>
+      <c r="B145" s="28">
+        <v>41759</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G145" s="41"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="41"/>
+      <c r="J145" s="41"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="70"/>
+      <c r="B146" s="28">
+        <v>41760</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G146" s="41"/>
+      <c r="H146" s="41"/>
+      <c r="I146" s="41"/>
+      <c r="J146" s="41"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="71"/>
+      <c r="B147" s="28">
+        <v>41761</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G147" s="41"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="41"/>
+      <c r="J147" s="41"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="72">
         <v>27</v>
       </c>
-      <c r="B144" s="27">
+      <c r="B148" s="27">
         <v>41764</v>
-      </c>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G144" s="40"/>
-      <c r="H144" s="40"/>
-      <c r="I144" s="40"/>
-      <c r="J144" s="40"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="102"/>
-      <c r="B145" s="27">
-        <v>41765</v>
-      </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G145" s="40"/>
-      <c r="H145" s="40"/>
-      <c r="I145" s="40"/>
-      <c r="J145" s="40"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="102"/>
-      <c r="B146" s="27">
-        <v>41766</v>
-      </c>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G146" s="40"/>
-      <c r="H146" s="40"/>
-      <c r="I146" s="40"/>
-      <c r="J146" s="40"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="102"/>
-      <c r="B147" s="27">
-        <v>41767</v>
-      </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G147" s="40"/>
-      <c r="H147" s="40"/>
-      <c r="I147" s="40"/>
-      <c r="J147" s="40"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="103"/>
-      <c r="B148" s="27">
-        <v>41768</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -4647,85 +4748,85 @@
       <c r="J148" s="40"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="82">
+      <c r="A149" s="73"/>
+      <c r="B149" s="27">
+        <v>41765</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G149" s="40"/>
+      <c r="H149" s="40"/>
+      <c r="I149" s="40"/>
+      <c r="J149" s="40"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="73"/>
+      <c r="B150" s="27">
+        <v>41766</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G150" s="40"/>
+      <c r="H150" s="40"/>
+      <c r="I150" s="40"/>
+      <c r="J150" s="40"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="73"/>
+      <c r="B151" s="27">
+        <v>41767</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G151" s="40"/>
+      <c r="H151" s="40"/>
+      <c r="I151" s="40"/>
+      <c r="J151" s="40"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="74"/>
+      <c r="B152" s="27">
+        <v>41768</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G152" s="40"/>
+      <c r="H152" s="40"/>
+      <c r="I152" s="40"/>
+      <c r="J152" s="40"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="69">
         <v>28</v>
       </c>
-      <c r="B149" s="28">
+      <c r="B153" s="28">
         <v>41771</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G149" s="41"/>
-      <c r="H149" s="41"/>
-      <c r="I149" s="41"/>
-      <c r="J149" s="41"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="83"/>
-      <c r="B150" s="28">
-        <v>41772</v>
-      </c>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G150" s="41"/>
-      <c r="H150" s="41"/>
-      <c r="I150" s="41"/>
-      <c r="J150" s="41"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="83"/>
-      <c r="B151" s="28">
-        <v>41773</v>
-      </c>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G151" s="41"/>
-      <c r="H151" s="41"/>
-      <c r="I151" s="41"/>
-      <c r="J151" s="41"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="83"/>
-      <c r="B152" s="28">
-        <v>41774</v>
-      </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6">
-        <f t="shared" ref="F152:F163" si="4">E152</f>
-        <v>0</v>
-      </c>
-      <c r="G152" s="41"/>
-      <c r="H152" s="41"/>
-      <c r="I152" s="41"/>
-      <c r="J152" s="41"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="84"/>
-      <c r="B153" s="28">
-        <v>41775</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G153" s="41"/>
@@ -4734,79 +4835,79 @@
       <c r="J153" s="41"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="101">
+      <c r="A154" s="70"/>
+      <c r="B154" s="28">
+        <v>41772</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G154" s="41"/>
+      <c r="H154" s="41"/>
+      <c r="I154" s="41"/>
+      <c r="J154" s="41"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="70"/>
+      <c r="B155" s="28">
+        <v>41773</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G155" s="41"/>
+      <c r="H155" s="41"/>
+      <c r="I155" s="41"/>
+      <c r="J155" s="41"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="70"/>
+      <c r="B156" s="28">
+        <v>41774</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6">
+        <f t="shared" ref="F156:F167" si="4">E156</f>
+        <v>0</v>
+      </c>
+      <c r="G156" s="41"/>
+      <c r="H156" s="41"/>
+      <c r="I156" s="41"/>
+      <c r="J156" s="41"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="71"/>
+      <c r="B157" s="28">
+        <v>41775</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="41"/>
+      <c r="H157" s="41"/>
+      <c r="I157" s="41"/>
+      <c r="J157" s="41"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="72">
         <v>29</v>
       </c>
-      <c r="B154" s="27">
+      <c r="B158" s="27">
         <v>41778</v>
-      </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G154" s="40"/>
-      <c r="H154" s="40"/>
-      <c r="I154" s="40"/>
-      <c r="J154" s="40"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="102"/>
-      <c r="B155" s="27">
-        <v>41779</v>
-      </c>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G155" s="40"/>
-      <c r="H155" s="40"/>
-      <c r="I155" s="40"/>
-      <c r="J155" s="40"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="102"/>
-      <c r="B156" s="27">
-        <v>41780</v>
-      </c>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G156" s="40"/>
-      <c r="H156" s="40"/>
-      <c r="I156" s="40"/>
-      <c r="J156" s="40"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="102"/>
-      <c r="B157" s="27">
-        <v>41781</v>
-      </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G157" s="40"/>
-      <c r="H157" s="40"/>
-      <c r="I157" s="40"/>
-      <c r="J157" s="40"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="103"/>
-      <c r="B158" s="27">
-        <v>41782</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -4821,79 +4922,79 @@
       <c r="J158" s="40"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="126">
+      <c r="A159" s="73"/>
+      <c r="B159" s="27">
+        <v>41779</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="40"/>
+      <c r="H159" s="40"/>
+      <c r="I159" s="40"/>
+      <c r="J159" s="40"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="73"/>
+      <c r="B160" s="27">
+        <v>41780</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G160" s="40"/>
+      <c r="H160" s="40"/>
+      <c r="I160" s="40"/>
+      <c r="J160" s="40"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="73"/>
+      <c r="B161" s="27">
+        <v>41781</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G161" s="40"/>
+      <c r="H161" s="40"/>
+      <c r="I161" s="40"/>
+      <c r="J161" s="40"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="74"/>
+      <c r="B162" s="27">
+        <v>41782</v>
+      </c>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G162" s="40"/>
+      <c r="H162" s="40"/>
+      <c r="I162" s="40"/>
+      <c r="J162" s="40"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="75">
         <v>30</v>
       </c>
-      <c r="B159" s="28">
+      <c r="B163" s="28">
         <v>41785</v>
-      </c>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G159" s="42"/>
-      <c r="H159" s="42"/>
-      <c r="I159" s="42"/>
-      <c r="J159" s="42"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="127"/>
-      <c r="B160" s="28">
-        <v>41786</v>
-      </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G160" s="42"/>
-      <c r="H160" s="42"/>
-      <c r="I160" s="42"/>
-      <c r="J160" s="42"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="127"/>
-      <c r="B161" s="28">
-        <v>41787</v>
-      </c>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G161" s="42"/>
-      <c r="H161" s="42"/>
-      <c r="I161" s="42"/>
-      <c r="J161" s="42"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="127"/>
-      <c r="B162" s="28">
-        <v>41788</v>
-      </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G162" s="42"/>
-      <c r="H162" s="42"/>
-      <c r="I162" s="42"/>
-      <c r="J162" s="42"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="128"/>
-      <c r="B163" s="28">
-        <v>41789</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -4907,30 +5008,98 @@
       <c r="I163" s="42"/>
       <c r="J163" s="42"/>
     </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="76"/>
+      <c r="B164" s="28">
+        <v>41786</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G164" s="42"/>
+      <c r="H164" s="42"/>
+      <c r="I164" s="42"/>
+      <c r="J164" s="42"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="76"/>
+      <c r="B165" s="28">
+        <v>41787</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G165" s="42"/>
+      <c r="H165" s="42"/>
+      <c r="I165" s="42"/>
+      <c r="J165" s="42"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="76"/>
+      <c r="B166" s="28">
+        <v>41788</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G166" s="42"/>
+      <c r="H166" s="42"/>
+      <c r="I166" s="42"/>
+      <c r="J166" s="42"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="77"/>
+      <c r="B167" s="28">
+        <v>41789</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G167" s="42"/>
+      <c r="H167" s="42"/>
+      <c r="I167" s="42"/>
+      <c r="J167" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A64:A68"/>
+  <mergeCells count="52">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A68:A72"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="F12:F13"/>
@@ -4942,35 +5111,37 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A19:A32"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
       <formula>700</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
       <formula>4704</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="between">
       <formula>700</formula>
       <formula>4704</formula>
     </cfRule>
@@ -4984,7 +5155,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="40" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
+          <x14:cfRule type="iconSet" priority="42" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5003,7 +5174,7 @@
           <xm:sqref>M12:M14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="39" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
+          <x14:cfRule type="iconSet" priority="41" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5022,7 +5193,7 @@
           <xm:sqref>M16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="37" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
+          <x14:cfRule type="iconSet" priority="39" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5041,7 +5212,7 @@
           <xm:sqref>M18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="34" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
+          <x14:cfRule type="iconSet" priority="36" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5060,7 +5231,7 @@
           <xm:sqref>M19:M21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
+          <x14:cfRule type="iconSet" priority="35" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5079,7 +5250,7 @@
           <xm:sqref>M22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
+          <x14:cfRule type="iconSet" priority="34" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5098,7 +5269,7 @@
           <xm:sqref>M23:M26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
+          <x14:cfRule type="iconSet" priority="33" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5114,10 +5285,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M27</xm:sqref>
+          <xm:sqref>M27:M29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
+          <x14:cfRule type="iconSet" priority="32" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5133,86 +5304,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M28</xm:sqref>
+          <xm:sqref>M30:M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="31" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5231,7 +5326,7 @@
           <xm:sqref>M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="30" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5250,7 +5345,7 @@
           <xm:sqref>M34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="29" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5269,7 +5364,7 @@
           <xm:sqref>M35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="28" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5288,7 +5383,7 @@
           <xm:sqref>M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="27" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5307,7 +5402,7 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="26" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5326,7 +5421,7 @@
           <xm:sqref>M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="25" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5345,7 +5440,7 @@
           <xm:sqref>M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="24" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5364,7 +5459,7 @@
           <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="23" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5383,7 +5478,7 @@
           <xm:sqref>M41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="22" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5402,7 +5497,7 @@
           <xm:sqref>M42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="21" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5421,7 +5516,7 @@
           <xm:sqref>M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="20" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5440,7 +5535,7 @@
           <xm:sqref>M44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="19" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5459,7 +5554,7 @@
           <xm:sqref>M45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="18" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5478,7 +5573,83 @@
           <xm:sqref>M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
+          <x14:cfRule type="iconSet" priority="17" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="16" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="15" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5497,26 +5668,7 @@
           <xm:sqref>M8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>5</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>24</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F14 F7:F8 F12 F18:F19 F21 F23:F24 F28:F163</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="41" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
+          <x14:cfRule type="iconSet" priority="43" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5535,7 +5687,7 @@
           <xm:sqref>M17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{6C49D5EC-FFC3-40B5-BEF3-C08FEAABBFA7}">
+          <x14:cfRule type="iconSet" priority="5" id="{6C49D5EC-FFC3-40B5-BEF3-C08FEAABBFA7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5554,7 +5706,7 @@
           <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{13950B4A-31F8-40DD-922D-DC2CA60F3002}">
+          <x14:cfRule type="iconSet" priority="3" id="{13950B4A-31F8-40DD-922D-DC2CA60F3002}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5572,6 +5724,44 @@
           </x14:cfRule>
           <xm:sqref>F10</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="44" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F14 F7:F8 F12 F18:F19 F21 F23:F24 F33:F167 F29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{35213755-788E-43C8-B75E-72DA17285D4A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F31</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
   <si>
     <t>Week</t>
   </si>
@@ -391,6 +391,20 @@
   </si>
   <si>
     <t>Update process description, roles and responsibility</t>
+  </si>
+  <si>
+    <t>7:30PM</t>
+  </si>
+  <si>
+    <t>Review works for report to mentor tomorrow
+Update Templates Product + Sprint Backlog
+Research how to estimates user point with Poker Planning</t>
+  </si>
+  <si>
+    <t>Time for doing week 4</t>
+  </si>
+  <si>
+    <t>Product Backlog Templates.xlsx</t>
   </si>
 </sst>
 </file>
@@ -722,13 +736,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -820,12 +833,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -896,14 +903,110 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,13 +1017,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,113 +1077,42 @@
     <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,7 +1212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1218,7 +1247,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1395,7 +1424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1416,98 +1445,98 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>11</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1518,13 +1547,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O167"/>
+  <dimension ref="A1:O176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1545,199 +1574,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="116"/>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="118"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="69"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="119" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="121"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="124"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="127"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="78"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="16"/>
-      <c r="H5" s="44" t="s">
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="15"/>
+      <c r="H5" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="128">
+      <c r="A7" s="79">
         <v>1</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>41585</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>0.55555555555555558</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="78" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="78"/>
-      <c r="M7" s="33">
+      <c r="L7" s="106"/>
+      <c r="M7" s="32">
         <f>SUM(M8:M50)</f>
-        <v>41.739999999999995</v>
+        <v>44.739999999999995</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
-      <c r="B8" s="107">
+      <c r="A8" s="80"/>
+      <c r="B8" s="94">
         <v>41586</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="109">
+      <c r="F8" s="96">
         <v>1.67</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="8" t="s">
+      <c r="I8" s="40"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="34">
+      <c r="L8" s="8"/>
+      <c r="M8" s="33">
         <f>SUM(E7:E9)</f>
         <v>1.66</v>
       </c>
@@ -1746,108 +1775,108 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="18">
+      <c r="A9" s="81"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="17">
         <v>0.63194444444444442</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>0.65277777777777779</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>0.5</v>
       </c>
-      <c r="F9" s="110"/>
-      <c r="G9" s="30" t="s">
+      <c r="F9" s="97"/>
+      <c r="G9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87">
+      <c r="I9" s="40"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="115">
         <v>2</v>
       </c>
-      <c r="B10" s="90">
+      <c r="B10" s="118">
         <v>41589</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="59">
         <v>2.5</v>
       </c>
-      <c r="F10" s="92">
+      <c r="F10" s="120">
         <f>SUM(E10:E11)</f>
         <v>5</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="65"/>
-      <c r="J10" s="63"/>
-    </row>
-    <row r="11" spans="1:15" s="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="61" t="s">
+      <c r="I10" s="62"/>
+      <c r="J10" s="60"/>
+    </row>
+    <row r="11" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="116"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="59">
         <v>2.5</v>
       </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="63" t="s">
+      <c r="F11" s="121"/>
+      <c r="G11" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="65" t="s">
+      <c r="I11" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="63"/>
+      <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="79">
+      <c r="A12" s="116"/>
+      <c r="B12" s="107">
         <v>41590</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>0.625</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>2.25</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="109">
         <v>3.75</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="8" t="s">
+      <c r="J12" s="37"/>
+      <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="2"/>
@@ -1858,122 +1887,122 @@
       <c r="N12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="35"/>
+      <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="23">
+      <c r="A13" s="116"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="22">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>1.5</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="48" t="s">
+      <c r="F13" s="110"/>
+      <c r="G13" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="8"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="2"/>
       <c r="M13" s="4"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="35"/>
+      <c r="O13" s="34"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="79">
+      <c r="A14" s="116"/>
+      <c r="B14" s="107">
         <v>41591</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>0.375</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>2</v>
       </c>
-      <c r="F14" s="84">
+      <c r="F14" s="112">
         <v>4.5</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="8"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="2"/>
       <c r="M14" s="4"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="35"/>
+      <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="26">
+      <c r="A15" s="116"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="25">
         <v>0.5625</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="25">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <v>2</v>
       </c>
-      <c r="F15" s="85"/>
-      <c r="G15" s="31" t="s">
+      <c r="F15" s="113"/>
+      <c r="G15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="8"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="2"/>
       <c r="M15" s="4"/>
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="26">
+      <c r="A16" s="116"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="25">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="25">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="28">
         <v>0.5</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="48" t="s">
+      <c r="F16" s="114"/>
+      <c r="G16" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="8" t="s">
+      <c r="J16" s="37"/>
+      <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="10">
+      <c r="L16" s="5"/>
+      <c r="M16" s="9">
         <f>SUM(E19:E32)</f>
         <v>24.499999999999996</v>
       </c>
@@ -1982,69 +2011,76 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="50">
+      <c r="A17" s="116"/>
+      <c r="B17" s="47">
         <v>41592</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>0.875</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>0.92708333333333337</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>1.25</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="43">
         <v>1.25</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="51" t="s">
+      <c r="H17" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="3"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="9">
+        <f>SUM(F33:F37)</f>
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="45">
+      <c r="A18" s="117"/>
+      <c r="B18" s="42">
         <v>41593</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="25">
         <v>0.58680555555555558</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="28">
         <v>1.08</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="43">
         <v>1.08</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="8" t="s">
+      <c r="J18" s="37"/>
+      <c r="K18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="10">
+      <c r="L18" s="5"/>
+      <c r="M18" s="9">
         <f>SUM(E38:E42)</f>
         <v>0</v>
       </c>
@@ -2053,40 +2089,40 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="72">
+      <c r="A19" s="101">
         <v>3</v>
       </c>
-      <c r="B19" s="94">
+      <c r="B19" s="122">
         <v>41596</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="50">
         <v>0.5</v>
       </c>
-      <c r="F19" s="96">
+      <c r="F19" s="83">
         <f>SUM(E19:E20)</f>
         <v>3.5</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="8" t="s">
+      <c r="J19" s="39"/>
+      <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="10">
+      <c r="L19" s="5"/>
+      <c r="M19" s="9">
         <f>SUM(E53:E57)</f>
         <v>0</v>
       </c>
@@ -2095,94 +2131,94 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="56" t="s">
+      <c r="A20" s="102"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="50">
         <v>3</v>
       </c>
-      <c r="F20" s="97"/>
-      <c r="G20" s="52" t="s">
+      <c r="F20" s="84"/>
+      <c r="G20" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="H20" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="52" t="s">
+      <c r="I20" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="10"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="9"/>
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="94">
+      <c r="A21" s="102"/>
+      <c r="B21" s="122">
         <v>41597</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="50">
         <v>2</v>
       </c>
-      <c r="F21" s="96">
+      <c r="F21" s="83">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="10"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="9"/>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="56" t="s">
+      <c r="A22" s="102"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="50">
         <v>0.5</v>
       </c>
-      <c r="F22" s="97"/>
-      <c r="G22" s="52" t="s">
+      <c r="F22" s="84"/>
+      <c r="G22" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="J22" s="40"/>
-      <c r="K22" s="8" t="s">
+      <c r="J22" s="39"/>
+      <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="10">
+      <c r="L22" s="5"/>
+      <c r="M22" s="9">
         <f>SUM(E58:E62)</f>
         <v>0</v>
       </c>
@@ -2191,38 +2227,38 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="27">
+      <c r="A23" s="102"/>
+      <c r="B23" s="26">
         <v>41598</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="52">
         <v>0.5625</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="52">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="50">
         <v>4</v>
       </c>
-      <c r="F23" s="58">
+      <c r="F23" s="55">
         <f t="shared" ref="F23:F59" si="0">E23</f>
         <v>4</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="54" t="s">
+      <c r="H23" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="8" t="s">
+      <c r="J23" s="39"/>
+      <c r="K23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="10">
+      <c r="L23" s="5"/>
+      <c r="M23" s="9">
         <f>SUM(E63:E67)</f>
         <v>0</v>
       </c>
@@ -2231,122 +2267,122 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="27">
+      <c r="A24" s="102"/>
+      <c r="B24" s="26">
         <v>41599</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="50">
         <v>1</v>
       </c>
-      <c r="F24" s="96">
+      <c r="F24" s="83">
         <f>SUM(E24:E28)</f>
         <v>6.9</v>
       </c>
-      <c r="G24" s="60" t="s">
+      <c r="G24" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="54" t="s">
+      <c r="H24" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="59"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="10"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="9"/>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="27">
+      <c r="A25" s="102"/>
+      <c r="B25" s="26">
         <v>41599</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="50">
         <v>1.3</v>
       </c>
-      <c r="F25" s="114"/>
-      <c r="G25" s="60" t="s">
+      <c r="F25" s="104"/>
+      <c r="G25" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H25" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="I25" s="59"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="10"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="9"/>
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="27">
+      <c r="A26" s="102"/>
+      <c r="B26" s="26">
         <v>41599</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="50">
         <v>1.5</v>
       </c>
-      <c r="F26" s="114"/>
-      <c r="G26" s="60" t="s">
+      <c r="F26" s="104"/>
+      <c r="G26" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="I26" s="59" t="s">
+      <c r="I26" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="10"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="9"/>
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="27">
+      <c r="A27" s="102"/>
+      <c r="B27" s="26">
         <v>41599</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="50">
         <v>2.1</v>
       </c>
-      <c r="F27" s="114"/>
-      <c r="G27" s="30" t="s">
+      <c r="F27" s="104"/>
+      <c r="G27" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="8" t="s">
+      <c r="I27" s="29"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="10">
+      <c r="L27" s="5"/>
+      <c r="M27" s="9">
         <f>SUM(E68:E72)</f>
         <v>0</v>
       </c>
@@ -2355,90 +2391,90 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="27">
+      <c r="A28" s="102"/>
+      <c r="B28" s="26">
         <v>41599</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="53">
+      <c r="E28" s="50">
         <v>1</v>
       </c>
-      <c r="F28" s="115"/>
-      <c r="G28" s="30" t="s">
+      <c r="F28" s="105"/>
+      <c r="G28" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="10"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="9"/>
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="27">
+      <c r="A29" s="102"/>
+      <c r="B29" s="26">
         <v>41600</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="50">
         <v>1.2</v>
       </c>
-      <c r="F29" s="96">
+      <c r="F29" s="83">
         <f>SUM(E29:E30)</f>
         <v>3.2</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="10"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="9"/>
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="27">
+      <c r="A30" s="102"/>
+      <c r="B30" s="26">
         <v>41600</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="50">
         <v>2</v>
       </c>
-      <c r="F30" s="97"/>
-      <c r="G30" s="60" t="s">
+      <c r="F30" s="84"/>
+      <c r="G30" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="68" t="s">
+      <c r="H30" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="8" t="s">
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="10">
+      <c r="L30" s="5"/>
+      <c r="M30" s="9">
         <f>SUM(E73:E77)</f>
         <v>0</v>
       </c>
@@ -2447,91 +2483,103 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="27">
+      <c r="A31" s="102"/>
+      <c r="B31" s="26">
         <v>41601</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="50">
         <v>3.5</v>
       </c>
-      <c r="F31" s="96">
+      <c r="F31" s="83">
         <f>SUM(E31:E32)</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="68" t="s">
+      <c r="H31" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="I31" s="59" t="s">
+      <c r="I31" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="J31" s="40"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="10"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="9"/>
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="B32" s="27">
+      <c r="A32" s="103"/>
+      <c r="B32" s="26">
         <v>41601</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="E32" s="53">
+      <c r="E32" s="50">
         <v>0.9</v>
       </c>
-      <c r="F32" s="97"/>
-      <c r="G32" s="60" t="s">
+      <c r="F32" s="84"/>
+      <c r="G32" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="68" t="s">
+      <c r="H32" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="I32" s="59" t="s">
+      <c r="I32" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="J32" s="40"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="10"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="9"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="69">
+    <row r="33" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="124">
         <v>4</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="27">
         <v>41603</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="8" t="s">
+      <c r="C33" s="134" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="134" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="28">
+        <v>3</v>
+      </c>
+      <c r="F33" s="66">
+        <f>E33</f>
+        <v>3</v>
+      </c>
+      <c r="G33" s="125" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="136" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="125" t="s">
+        <v>120</v>
+      </c>
+      <c r="J33" s="125"/>
+      <c r="K33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="10">
+      <c r="L33" s="5"/>
+      <c r="M33" s="9">
         <f>SUM(E78:E82)</f>
         <v>0</v>
       </c>
@@ -2540,26 +2588,26 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
-      <c r="B34" s="28">
+      <c r="A34" s="126"/>
+      <c r="B34" s="27">
         <v>41604</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6">
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="8" t="s">
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="10">
+      <c r="L34" s="5"/>
+      <c r="M34" s="9">
         <f>SUM(E83:E87)</f>
         <v>0</v>
       </c>
@@ -2568,26 +2616,26 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="28">
+      <c r="A35" s="126"/>
+      <c r="B35" s="27">
         <v>41605</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6">
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="8" t="s">
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="10">
+      <c r="L35" s="5"/>
+      <c r="M35" s="9">
         <f>SUM(E88:E92)</f>
         <v>0</v>
       </c>
@@ -2596,26 +2644,26 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
-      <c r="B36" s="28">
+      <c r="A36" s="126"/>
+      <c r="B36" s="27">
         <v>41606</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6">
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="8" t="s">
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="10">
+      <c r="L36" s="5"/>
+      <c r="M36" s="9">
         <f>SUM(E93:E97)</f>
         <v>0</v>
       </c>
@@ -2624,26 +2672,26 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="28">
+      <c r="A37" s="127"/>
+      <c r="B37" s="27">
         <v>41607</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6">
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="8" t="s">
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="10">
+      <c r="L37" s="5"/>
+      <c r="M37" s="9">
         <f>SUM(E98:E102)</f>
         <v>0</v>
       </c>
@@ -2652,28 +2700,28 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="72">
+      <c r="A38" s="128">
         <v>5</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="26">
         <v>41610</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5">
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="8" t="s">
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="10">
+      <c r="L38" s="5"/>
+      <c r="M38" s="9">
         <f>SUM(E103:E107)</f>
         <v>0</v>
       </c>
@@ -2682,26 +2730,26 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
-      <c r="B39" s="27">
+      <c r="A39" s="129"/>
+      <c r="B39" s="26">
         <v>41611</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5">
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="8" t="s">
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="10">
+      <c r="L39" s="5"/>
+      <c r="M39" s="9">
         <f>SUM(E108:E112)</f>
         <v>0</v>
       </c>
@@ -2710,26 +2758,26 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
-      <c r="B40" s="27">
+      <c r="A40" s="129"/>
+      <c r="B40" s="26">
         <v>41612</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5">
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="8" t="s">
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="10">
+      <c r="L40" s="5"/>
+      <c r="M40" s="9">
         <f>SUM(E113:E117)</f>
         <v>0</v>
       </c>
@@ -2738,26 +2786,26 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="B41" s="27">
+      <c r="A41" s="129"/>
+      <c r="B41" s="26">
         <v>41613</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5">
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="8" t="s">
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="10">
+      <c r="L41" s="5"/>
+      <c r="M41" s="9">
         <f>SUM(E118:E122)</f>
         <v>0</v>
       </c>
@@ -2766,26 +2814,26 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="74"/>
-      <c r="B42" s="27">
+      <c r="A42" s="84"/>
+      <c r="B42" s="26">
         <v>41614</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5">
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="8" t="s">
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="10">
+      <c r="L42" s="5"/>
+      <c r="M42" s="9">
         <f>SUM(E123:E127)</f>
         <v>0</v>
       </c>
@@ -2794,28 +2842,28 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="69">
+      <c r="A43" s="124">
         <v>6</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="27">
         <v>41617</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6">
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="8" t="s">
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="10">
+      <c r="L43" s="5"/>
+      <c r="M43" s="9">
         <f>SUM(E128:E132)</f>
         <v>0</v>
       </c>
@@ -2824,26 +2872,26 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
-      <c r="B44" s="28">
+      <c r="A44" s="126"/>
+      <c r="B44" s="27">
         <v>41618</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6">
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="8" t="s">
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="10">
+      <c r="L44" s="5"/>
+      <c r="M44" s="9">
         <f>SUM(E133:E137)</f>
         <v>0</v>
       </c>
@@ -2852,26 +2900,26 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
-      <c r="B45" s="28">
+      <c r="A45" s="126"/>
+      <c r="B45" s="27">
         <v>41619</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6">
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="8" t="s">
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="125"/>
+      <c r="K45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="10">
+      <c r="L45" s="5"/>
+      <c r="M45" s="9">
         <f>SUM(E138:E142)</f>
         <v>0</v>
       </c>
@@ -2880,26 +2928,26 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="28">
+      <c r="A46" s="126"/>
+      <c r="B46" s="27">
         <v>41620</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6">
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="8" t="s">
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="10">
+      <c r="L46" s="5"/>
+      <c r="M46" s="9">
         <f>SUM(E143:E147)</f>
         <v>0</v>
       </c>
@@ -2908,26 +2956,26 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
-      <c r="B47" s="28">
+      <c r="A47" s="127"/>
+      <c r="B47" s="27">
         <v>41621</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6">
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="8" t="s">
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L47" s="6"/>
-      <c r="M47" s="10">
+      <c r="L47" s="5"/>
+      <c r="M47" s="9">
         <f>SUM(E148:E152)</f>
         <v>0</v>
       </c>
@@ -2936,28 +2984,28 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="72">
+      <c r="A48" s="128">
         <v>7</v>
       </c>
-      <c r="B48" s="27">
+      <c r="B48" s="26">
         <v>41624</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5">
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="8" t="s">
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L48" s="6"/>
-      <c r="M48" s="10">
+      <c r="L48" s="5"/>
+      <c r="M48" s="9">
         <f>SUM(E153:E157)</f>
         <v>0</v>
       </c>
@@ -2966,26 +3014,26 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="73"/>
-      <c r="B49" s="27">
+      <c r="A49" s="129"/>
+      <c r="B49" s="26">
         <v>41625</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5">
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="8" t="s">
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="10">
+      <c r="L49" s="5"/>
+      <c r="M49" s="9">
         <f>SUM(E158:E162)</f>
         <v>0</v>
       </c>
@@ -2994,26 +3042,26 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="73"/>
-      <c r="B50" s="27">
+      <c r="A50" s="129"/>
+      <c r="B50" s="26">
         <v>41626</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5">
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="8" t="s">
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L50" s="6"/>
-      <c r="M50" s="10">
+      <c r="L50" s="5"/>
+      <c r="M50" s="9">
         <f>SUM(E163:E167)</f>
         <v>0</v>
       </c>
@@ -3022,2080 +3070,2188 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="73"/>
-      <c r="B51" s="27">
+      <c r="A51" s="129"/>
+      <c r="B51" s="26">
         <v>41627</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5">
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="74"/>
-      <c r="B52" s="27">
+      <c r="A52" s="84"/>
+      <c r="B52" s="26">
         <v>41628</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5">
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="69">
+      <c r="A53" s="124">
         <v>8</v>
       </c>
-      <c r="B53" s="28">
+      <c r="B53" s="27">
         <v>41631</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6">
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="125"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="70"/>
-      <c r="B54" s="28">
+      <c r="A54" s="126"/>
+      <c r="B54" s="27">
         <v>41632</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6">
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="125"/>
+      <c r="J54" s="125"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="70"/>
-      <c r="B55" s="28">
+      <c r="A55" s="126"/>
+      <c r="B55" s="27">
         <v>41633</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6">
+      <c r="C55" s="134"/>
+      <c r="D55" s="134"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="125"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="70"/>
-      <c r="B56" s="28">
+      <c r="A56" s="126"/>
+      <c r="B56" s="27">
         <v>41634</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6">
+      <c r="C56" s="134"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="125"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="28">
+      <c r="A57" s="127"/>
+      <c r="B57" s="27">
         <v>41635</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6">
+      <c r="C57" s="134"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
+      <c r="J57" s="125"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="72">
+      <c r="A58" s="128">
         <v>9</v>
       </c>
-      <c r="B58" s="27">
+      <c r="B58" s="26">
         <v>41638</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5">
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="73"/>
-      <c r="B59" s="27">
+      <c r="A59" s="129"/>
+      <c r="B59" s="26">
         <v>41639</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5">
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="73"/>
-      <c r="B60" s="27">
+      <c r="A60" s="129"/>
+      <c r="B60" s="26">
         <v>41640</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5">
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55">
         <f t="shared" ref="F60:F91" si="1">E60</f>
         <v>0</v>
       </c>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="73"/>
-      <c r="B61" s="27">
+      <c r="A61" s="129"/>
+      <c r="B61" s="26">
         <v>41641</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5">
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="74"/>
-      <c r="B62" s="27">
+      <c r="A62" s="84"/>
+      <c r="B62" s="26">
         <v>41642</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5">
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="69">
+      <c r="A63" s="124">
         <v>10</v>
       </c>
-      <c r="B63" s="28">
+      <c r="B63" s="27">
         <v>41645</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6">
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="125"/>
+      <c r="J63" s="125"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="70"/>
-      <c r="B64" s="28">
+      <c r="A64" s="126"/>
+      <c r="B64" s="27">
         <v>41646</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6">
+      <c r="C64" s="134"/>
+      <c r="D64" s="134"/>
+      <c r="E64" s="134"/>
+      <c r="F64" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
+      <c r="G64" s="125"/>
+      <c r="H64" s="125"/>
+      <c r="I64" s="125"/>
+      <c r="J64" s="125"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="70"/>
-      <c r="B65" s="28">
+      <c r="A65" s="126"/>
+      <c r="B65" s="27">
         <v>41647</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6">
+      <c r="C65" s="134"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="134"/>
+      <c r="F65" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="125"/>
+      <c r="I65" s="125"/>
+      <c r="J65" s="125"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="70"/>
-      <c r="B66" s="28">
+      <c r="A66" s="126"/>
+      <c r="B66" s="27">
         <v>41648</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6">
+      <c r="C66" s="134"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="134"/>
+      <c r="F66" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="125"/>
+      <c r="I66" s="125"/>
+      <c r="J66" s="125"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="28">
+      <c r="A67" s="127"/>
+      <c r="B67" s="27">
         <v>41649</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6">
+      <c r="C67" s="134"/>
+      <c r="D67" s="134"/>
+      <c r="E67" s="134"/>
+      <c r="F67" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
+      <c r="G67" s="125"/>
+      <c r="H67" s="125"/>
+      <c r="I67" s="125"/>
+      <c r="J67" s="125"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="72">
+      <c r="A68" s="128">
         <v>11</v>
       </c>
-      <c r="B68" s="27">
+      <c r="B68" s="26">
         <v>41652</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5">
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="73"/>
-      <c r="B69" s="27">
+      <c r="A69" s="129"/>
+      <c r="B69" s="26">
         <v>41653</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5">
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="40"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="73"/>
-      <c r="B70" s="27">
+      <c r="A70" s="129"/>
+      <c r="B70" s="26">
         <v>41654</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5">
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="73"/>
-      <c r="B71" s="27">
+      <c r="A71" s="129"/>
+      <c r="B71" s="26">
         <v>41655</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5">
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="74"/>
-      <c r="B72" s="27">
+      <c r="A72" s="84"/>
+      <c r="B72" s="26">
         <v>41656</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5">
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="69">
+      <c r="A73" s="124">
         <v>12</v>
       </c>
-      <c r="B73" s="28">
+      <c r="B73" s="27">
         <v>41659</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6">
+      <c r="C73" s="134"/>
+      <c r="D73" s="134"/>
+      <c r="E73" s="134"/>
+      <c r="F73" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
+      <c r="G73" s="125"/>
+      <c r="H73" s="125"/>
+      <c r="I73" s="125"/>
+      <c r="J73" s="125"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="70"/>
-      <c r="B74" s="28">
+      <c r="A74" s="126"/>
+      <c r="B74" s="27">
         <v>41660</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6">
+      <c r="C74" s="134"/>
+      <c r="D74" s="134"/>
+      <c r="E74" s="134"/>
+      <c r="F74" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
+      <c r="G74" s="125"/>
+      <c r="H74" s="125"/>
+      <c r="I74" s="125"/>
+      <c r="J74" s="125"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="70"/>
-      <c r="B75" s="28">
+      <c r="A75" s="126"/>
+      <c r="B75" s="27">
         <v>41661</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6">
+      <c r="C75" s="134"/>
+      <c r="D75" s="134"/>
+      <c r="E75" s="134"/>
+      <c r="F75" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
+      <c r="G75" s="125"/>
+      <c r="H75" s="125"/>
+      <c r="I75" s="125"/>
+      <c r="J75" s="125"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="70"/>
-      <c r="B76" s="28">
+      <c r="A76" s="126"/>
+      <c r="B76" s="27">
         <v>41662</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6">
+      <c r="C76" s="134"/>
+      <c r="D76" s="134"/>
+      <c r="E76" s="134"/>
+      <c r="F76" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
+      <c r="G76" s="125"/>
+      <c r="H76" s="125"/>
+      <c r="I76" s="125"/>
+      <c r="J76" s="125"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
-      <c r="B77" s="28">
+      <c r="A77" s="127"/>
+      <c r="B77" s="27">
         <v>41663</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6">
+      <c r="C77" s="134"/>
+      <c r="D77" s="134"/>
+      <c r="E77" s="134"/>
+      <c r="F77" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
+      <c r="G77" s="125"/>
+      <c r="H77" s="125"/>
+      <c r="I77" s="125"/>
+      <c r="J77" s="125"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="72">
+      <c r="A78" s="128">
         <v>13</v>
       </c>
-      <c r="B78" s="27">
+      <c r="B78" s="26">
         <v>41666</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5">
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G78" s="40" t="s">
+      <c r="G78" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="73"/>
-      <c r="B79" s="27">
+      <c r="A79" s="129"/>
+      <c r="B79" s="26">
         <v>41667</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5">
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G79" s="40" t="s">
+      <c r="G79" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="73"/>
-      <c r="B80" s="27">
+      <c r="A80" s="129"/>
+      <c r="B80" s="26">
         <v>41668</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5">
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G80" s="40" t="s">
+      <c r="G80" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="40"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="73"/>
-      <c r="B81" s="27">
+      <c r="A81" s="129"/>
+      <c r="B81" s="26">
         <v>41669</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5">
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G81" s="40" t="s">
+      <c r="G81" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H81" s="40"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="40"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="74"/>
-      <c r="B82" s="27">
+      <c r="A82" s="84"/>
+      <c r="B82" s="26">
         <v>41670</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5">
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G82" s="40" t="s">
+      <c r="G82" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H82" s="40"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="40"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="69">
+      <c r="A83" s="124">
         <v>14</v>
       </c>
-      <c r="B83" s="28">
+      <c r="B83" s="27">
         <v>41673</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6">
+      <c r="C83" s="134"/>
+      <c r="D83" s="134"/>
+      <c r="E83" s="134"/>
+      <c r="F83" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G83" s="42" t="s">
+      <c r="G83" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
+      <c r="H83" s="125"/>
+      <c r="I83" s="125"/>
+      <c r="J83" s="125"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="70"/>
-      <c r="B84" s="28">
+      <c r="A84" s="126"/>
+      <c r="B84" s="27">
         <v>41674</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6">
+      <c r="C84" s="134"/>
+      <c r="D84" s="134"/>
+      <c r="E84" s="134"/>
+      <c r="F84" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G84" s="42" t="s">
+      <c r="G84" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
+      <c r="H84" s="125"/>
+      <c r="I84" s="125"/>
+      <c r="J84" s="125"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="70"/>
-      <c r="B85" s="28">
+      <c r="A85" s="126"/>
+      <c r="B85" s="27">
         <v>41675</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6">
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
+      <c r="F85" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G85" s="42" t="s">
+      <c r="G85" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
+      <c r="H85" s="125"/>
+      <c r="I85" s="125"/>
+      <c r="J85" s="125"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="70"/>
-      <c r="B86" s="28">
+      <c r="A86" s="126"/>
+      <c r="B86" s="27">
         <v>41676</v>
       </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6">
+      <c r="C86" s="134"/>
+      <c r="D86" s="134"/>
+      <c r="E86" s="134"/>
+      <c r="F86" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G86" s="42" t="s">
+      <c r="G86" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H86" s="41"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="41"/>
+      <c r="H86" s="125"/>
+      <c r="I86" s="125"/>
+      <c r="J86" s="125"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="71"/>
-      <c r="B87" s="28">
+      <c r="A87" s="127"/>
+      <c r="B87" s="27">
         <v>41677</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6">
+      <c r="C87" s="134"/>
+      <c r="D87" s="134"/>
+      <c r="E87" s="134"/>
+      <c r="F87" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G87" s="42" t="s">
+      <c r="G87" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H87" s="41"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
+      <c r="H87" s="125"/>
+      <c r="I87" s="125"/>
+      <c r="J87" s="125"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="72">
+      <c r="A88" s="128">
         <v>15</v>
       </c>
-      <c r="B88" s="27">
+      <c r="B88" s="26">
         <v>41680</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5">
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G88" s="40"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="40"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="73"/>
-      <c r="B89" s="27">
+      <c r="A89" s="129"/>
+      <c r="B89" s="26">
         <v>41681</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5">
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="40"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="73"/>
-      <c r="B90" s="27">
+      <c r="A90" s="129"/>
+      <c r="B90" s="26">
         <v>41682</v>
       </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5">
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="73"/>
-      <c r="B91" s="27">
+      <c r="A91" s="129"/>
+      <c r="B91" s="26">
         <v>41683</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5">
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G91" s="40"/>
-      <c r="H91" s="40"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="40"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="74"/>
-      <c r="B92" s="27">
+      <c r="A92" s="84"/>
+      <c r="B92" s="26">
         <v>41684</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5">
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="55">
         <f t="shared" ref="F92:F123" si="2">E92</f>
         <v>0</v>
       </c>
-      <c r="G92" s="40"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="40"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="69">
+      <c r="A93" s="124">
         <v>16</v>
       </c>
-      <c r="B93" s="28">
+      <c r="B93" s="27">
         <v>41687</v>
       </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6">
+      <c r="C93" s="134"/>
+      <c r="D93" s="134"/>
+      <c r="E93" s="134"/>
+      <c r="F93" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
+      <c r="G93" s="125"/>
+      <c r="H93" s="125"/>
+      <c r="I93" s="125"/>
+      <c r="J93" s="125"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="70"/>
-      <c r="B94" s="28">
+      <c r="A94" s="126"/>
+      <c r="B94" s="27">
         <v>41688</v>
       </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6">
+      <c r="C94" s="134"/>
+      <c r="D94" s="134"/>
+      <c r="E94" s="134"/>
+      <c r="F94" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="41"/>
+      <c r="G94" s="125"/>
+      <c r="H94" s="125"/>
+      <c r="I94" s="125"/>
+      <c r="J94" s="125"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="70"/>
-      <c r="B95" s="28">
+      <c r="A95" s="126"/>
+      <c r="B95" s="27">
         <v>41689</v>
       </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6">
+      <c r="C95" s="134"/>
+      <c r="D95" s="134"/>
+      <c r="E95" s="134"/>
+      <c r="F95" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
+      <c r="G95" s="125"/>
+      <c r="H95" s="125"/>
+      <c r="I95" s="125"/>
+      <c r="J95" s="125"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="70"/>
-      <c r="B96" s="28">
+      <c r="A96" s="126"/>
+      <c r="B96" s="27">
         <v>41690</v>
       </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6">
+      <c r="C96" s="134"/>
+      <c r="D96" s="134"/>
+      <c r="E96" s="134"/>
+      <c r="F96" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
+      <c r="G96" s="125"/>
+      <c r="H96" s="125"/>
+      <c r="I96" s="125"/>
+      <c r="J96" s="125"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="71"/>
-      <c r="B97" s="28">
+      <c r="A97" s="127"/>
+      <c r="B97" s="27">
         <v>41691</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6">
+      <c r="C97" s="134"/>
+      <c r="D97" s="134"/>
+      <c r="E97" s="134"/>
+      <c r="F97" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
+      <c r="G97" s="125"/>
+      <c r="H97" s="125"/>
+      <c r="I97" s="125"/>
+      <c r="J97" s="125"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="72">
+      <c r="A98" s="128">
         <v>17</v>
       </c>
-      <c r="B98" s="27">
+      <c r="B98" s="26">
         <v>41694</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5">
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G98" s="40"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="40"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="73"/>
-      <c r="B99" s="27">
+      <c r="A99" s="129"/>
+      <c r="B99" s="26">
         <v>41695</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5">
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G99" s="40"/>
-      <c r="H99" s="40"/>
-      <c r="I99" s="40"/>
-      <c r="J99" s="40"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="73"/>
-      <c r="B100" s="27">
+      <c r="A100" s="129"/>
+      <c r="B100" s="26">
         <v>41696</v>
       </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5">
+      <c r="C100" s="55"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G100" s="40"/>
-      <c r="H100" s="40"/>
-      <c r="I100" s="40"/>
-      <c r="J100" s="40"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="73"/>
-      <c r="B101" s="27">
+      <c r="A101" s="129"/>
+      <c r="B101" s="26">
         <v>41697</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5">
+      <c r="C101" s="55"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G101" s="40"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="40"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="74"/>
-      <c r="B102" s="27">
+      <c r="A102" s="84"/>
+      <c r="B102" s="26">
         <v>41698</v>
       </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5">
+      <c r="C102" s="55"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G102" s="40"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="40"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="69">
+      <c r="A103" s="124">
         <v>18</v>
       </c>
-      <c r="B103" s="28">
+      <c r="B103" s="27">
         <v>41701</v>
       </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6">
+      <c r="C103" s="134"/>
+      <c r="D103" s="134"/>
+      <c r="E103" s="134"/>
+      <c r="F103" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
+      <c r="G103" s="125"/>
+      <c r="H103" s="125"/>
+      <c r="I103" s="125"/>
+      <c r="J103" s="125"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="70"/>
-      <c r="B104" s="28">
+      <c r="A104" s="126"/>
+      <c r="B104" s="27">
         <v>41702</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6">
+      <c r="C104" s="134"/>
+      <c r="D104" s="134"/>
+      <c r="E104" s="134"/>
+      <c r="F104" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
+      <c r="G104" s="125"/>
+      <c r="H104" s="125"/>
+      <c r="I104" s="125"/>
+      <c r="J104" s="125"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="70"/>
-      <c r="B105" s="28">
+      <c r="A105" s="126"/>
+      <c r="B105" s="27">
         <v>41703</v>
       </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6">
+      <c r="C105" s="134"/>
+      <c r="D105" s="134"/>
+      <c r="E105" s="134"/>
+      <c r="F105" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
+      <c r="G105" s="125"/>
+      <c r="H105" s="125"/>
+      <c r="I105" s="125"/>
+      <c r="J105" s="125"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="70"/>
-      <c r="B106" s="28">
+      <c r="A106" s="126"/>
+      <c r="B106" s="27">
         <v>41704</v>
       </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6">
+      <c r="C106" s="134"/>
+      <c r="D106" s="134"/>
+      <c r="E106" s="134"/>
+      <c r="F106" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="41"/>
+      <c r="G106" s="125"/>
+      <c r="H106" s="125"/>
+      <c r="I106" s="125"/>
+      <c r="J106" s="125"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="71"/>
-      <c r="B107" s="28">
+      <c r="A107" s="127"/>
+      <c r="B107" s="27">
         <v>41705</v>
       </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6">
+      <c r="C107" s="134"/>
+      <c r="D107" s="134"/>
+      <c r="E107" s="134"/>
+      <c r="F107" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
+      <c r="G107" s="125"/>
+      <c r="H107" s="125"/>
+      <c r="I107" s="125"/>
+      <c r="J107" s="125"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="72">
+      <c r="A108" s="128">
         <v>19</v>
       </c>
-      <c r="B108" s="27">
+      <c r="B108" s="26">
         <v>41708</v>
       </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5">
+      <c r="C108" s="55"/>
+      <c r="D108" s="55"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G108" s="40"/>
-      <c r="H108" s="40"/>
-      <c r="I108" s="40"/>
-      <c r="J108" s="40"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="73"/>
-      <c r="B109" s="27">
+      <c r="A109" s="129"/>
+      <c r="B109" s="26">
         <v>41709</v>
       </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5">
+      <c r="C109" s="55"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G109" s="40"/>
-      <c r="H109" s="40"/>
-      <c r="I109" s="40"/>
-      <c r="J109" s="40"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="73"/>
-      <c r="B110" s="27">
+      <c r="A110" s="129"/>
+      <c r="B110" s="26">
         <v>41710</v>
       </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5">
+      <c r="C110" s="55"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G110" s="40"/>
-      <c r="H110" s="40"/>
-      <c r="I110" s="40"/>
-      <c r="J110" s="40"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="73"/>
-      <c r="B111" s="27">
+      <c r="A111" s="129"/>
+      <c r="B111" s="26">
         <v>41711</v>
       </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5">
+      <c r="C111" s="55"/>
+      <c r="D111" s="55"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G111" s="40"/>
-      <c r="H111" s="40"/>
-      <c r="I111" s="40"/>
-      <c r="J111" s="40"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="74"/>
-      <c r="B112" s="27">
+      <c r="A112" s="84"/>
+      <c r="B112" s="26">
         <v>41712</v>
       </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5">
+      <c r="C112" s="55"/>
+      <c r="D112" s="55"/>
+      <c r="E112" s="55"/>
+      <c r="F112" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G112" s="40"/>
-      <c r="H112" s="40"/>
-      <c r="I112" s="40"/>
-      <c r="J112" s="40"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="69">
+      <c r="A113" s="124">
         <v>20</v>
       </c>
-      <c r="B113" s="28">
+      <c r="B113" s="27">
         <v>41715</v>
       </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6">
+      <c r="C113" s="134"/>
+      <c r="D113" s="134"/>
+      <c r="E113" s="134"/>
+      <c r="F113" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41"/>
-      <c r="I113" s="41"/>
-      <c r="J113" s="41"/>
+      <c r="G113" s="125"/>
+      <c r="H113" s="125"/>
+      <c r="I113" s="125"/>
+      <c r="J113" s="125"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="70"/>
-      <c r="B114" s="28">
+      <c r="A114" s="126"/>
+      <c r="B114" s="27">
         <v>41716</v>
       </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6">
+      <c r="C114" s="134"/>
+      <c r="D114" s="134"/>
+      <c r="E114" s="134"/>
+      <c r="F114" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="41"/>
+      <c r="G114" s="125"/>
+      <c r="H114" s="125"/>
+      <c r="I114" s="125"/>
+      <c r="J114" s="125"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="70"/>
-      <c r="B115" s="28">
+      <c r="A115" s="126"/>
+      <c r="B115" s="27">
         <v>41717</v>
       </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6">
+      <c r="C115" s="134"/>
+      <c r="D115" s="134"/>
+      <c r="E115" s="134"/>
+      <c r="F115" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G115" s="41"/>
-      <c r="H115" s="41"/>
-      <c r="I115" s="41"/>
-      <c r="J115" s="41"/>
+      <c r="G115" s="125"/>
+      <c r="H115" s="125"/>
+      <c r="I115" s="125"/>
+      <c r="J115" s="125"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="70"/>
-      <c r="B116" s="28">
+      <c r="A116" s="126"/>
+      <c r="B116" s="27">
         <v>41718</v>
       </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6">
+      <c r="C116" s="134"/>
+      <c r="D116" s="134"/>
+      <c r="E116" s="134"/>
+      <c r="F116" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G116" s="41"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
-      <c r="J116" s="41"/>
+      <c r="G116" s="125"/>
+      <c r="H116" s="125"/>
+      <c r="I116" s="125"/>
+      <c r="J116" s="125"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="71"/>
-      <c r="B117" s="28">
+      <c r="A117" s="127"/>
+      <c r="B117" s="27">
         <v>41719</v>
       </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6">
+      <c r="C117" s="134"/>
+      <c r="D117" s="134"/>
+      <c r="E117" s="134"/>
+      <c r="F117" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G117" s="41"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="41"/>
-      <c r="J117" s="41"/>
+      <c r="G117" s="125"/>
+      <c r="H117" s="125"/>
+      <c r="I117" s="125"/>
+      <c r="J117" s="125"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="72">
+      <c r="A118" s="128">
         <v>21</v>
       </c>
-      <c r="B118" s="27">
+      <c r="B118" s="26">
         <v>41722</v>
       </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5">
+      <c r="C118" s="55"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G118" s="40"/>
-      <c r="H118" s="40"/>
-      <c r="I118" s="40"/>
-      <c r="J118" s="40"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="29"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="73"/>
-      <c r="B119" s="27">
+      <c r="A119" s="129"/>
+      <c r="B119" s="26">
         <v>41723</v>
       </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5">
+      <c r="C119" s="55"/>
+      <c r="D119" s="55"/>
+      <c r="E119" s="55"/>
+      <c r="F119" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G119" s="40"/>
-      <c r="H119" s="40"/>
-      <c r="I119" s="40"/>
-      <c r="J119" s="40"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="29"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="73"/>
-      <c r="B120" s="27">
+      <c r="A120" s="129"/>
+      <c r="B120" s="26">
         <v>41724</v>
       </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5">
+      <c r="C120" s="55"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="55"/>
+      <c r="F120" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G120" s="40"/>
-      <c r="H120" s="40"/>
-      <c r="I120" s="40"/>
-      <c r="J120" s="40"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="73"/>
-      <c r="B121" s="27">
+      <c r="A121" s="129"/>
+      <c r="B121" s="26">
         <v>41725</v>
       </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5">
+      <c r="C121" s="55"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="55"/>
+      <c r="F121" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G121" s="40"/>
-      <c r="H121" s="40"/>
-      <c r="I121" s="40"/>
-      <c r="J121" s="40"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="74"/>
-      <c r="B122" s="27">
+      <c r="A122" s="84"/>
+      <c r="B122" s="26">
         <v>41726</v>
       </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5">
+      <c r="C122" s="55"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="55"/>
+      <c r="F122" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G122" s="40"/>
-      <c r="H122" s="40"/>
-      <c r="I122" s="40"/>
-      <c r="J122" s="40"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="29"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="69">
+      <c r="A123" s="124">
         <v>22</v>
       </c>
-      <c r="B123" s="28">
+      <c r="B123" s="27">
         <v>41729</v>
       </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6">
+      <c r="C123" s="134"/>
+      <c r="D123" s="134"/>
+      <c r="E123" s="134"/>
+      <c r="F123" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G123" s="41"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41"/>
+      <c r="G123" s="125"/>
+      <c r="H123" s="125"/>
+      <c r="I123" s="125"/>
+      <c r="J123" s="125"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="70"/>
-      <c r="B124" s="28">
+      <c r="A124" s="126"/>
+      <c r="B124" s="27">
         <v>41730</v>
       </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6">
+      <c r="C124" s="134"/>
+      <c r="D124" s="134"/>
+      <c r="E124" s="134"/>
+      <c r="F124" s="134">
         <f t="shared" ref="F124:F155" si="3">E124</f>
         <v>0</v>
       </c>
-      <c r="G124" s="41"/>
-      <c r="H124" s="41"/>
-      <c r="I124" s="41"/>
-      <c r="J124" s="41"/>
+      <c r="G124" s="125"/>
+      <c r="H124" s="125"/>
+      <c r="I124" s="125"/>
+      <c r="J124" s="125"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="70"/>
-      <c r="B125" s="28">
+      <c r="A125" s="126"/>
+      <c r="B125" s="27">
         <v>41731</v>
       </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6">
+      <c r="C125" s="134"/>
+      <c r="D125" s="134"/>
+      <c r="E125" s="134"/>
+      <c r="F125" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G125" s="41"/>
-      <c r="H125" s="41"/>
-      <c r="I125" s="41"/>
-      <c r="J125" s="41"/>
+      <c r="G125" s="125"/>
+      <c r="H125" s="125"/>
+      <c r="I125" s="125"/>
+      <c r="J125" s="125"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="70"/>
-      <c r="B126" s="28">
+      <c r="A126" s="126"/>
+      <c r="B126" s="27">
         <v>41732</v>
       </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6">
+      <c r="C126" s="134"/>
+      <c r="D126" s="134"/>
+      <c r="E126" s="134"/>
+      <c r="F126" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G126" s="41"/>
-      <c r="H126" s="41"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="41"/>
+      <c r="G126" s="125"/>
+      <c r="H126" s="125"/>
+      <c r="I126" s="125"/>
+      <c r="J126" s="125"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="71"/>
-      <c r="B127" s="28">
+      <c r="A127" s="127"/>
+      <c r="B127" s="27">
         <v>41733</v>
       </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6">
+      <c r="C127" s="134"/>
+      <c r="D127" s="134"/>
+      <c r="E127" s="134"/>
+      <c r="F127" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G127" s="41"/>
-      <c r="H127" s="41"/>
-      <c r="I127" s="41"/>
-      <c r="J127" s="41"/>
+      <c r="G127" s="125"/>
+      <c r="H127" s="125"/>
+      <c r="I127" s="125"/>
+      <c r="J127" s="125"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="72">
+      <c r="A128" s="128">
         <v>23</v>
       </c>
-      <c r="B128" s="27">
+      <c r="B128" s="26">
         <v>41736</v>
       </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5">
+      <c r="C128" s="55"/>
+      <c r="D128" s="55"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G128" s="40"/>
-      <c r="H128" s="40"/>
-      <c r="I128" s="40"/>
-      <c r="J128" s="40"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="29"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="73"/>
-      <c r="B129" s="27">
+      <c r="A129" s="129"/>
+      <c r="B129" s="26">
         <v>41737</v>
       </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5">
+      <c r="C129" s="55"/>
+      <c r="D129" s="55"/>
+      <c r="E129" s="55"/>
+      <c r="F129" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G129" s="40"/>
-      <c r="H129" s="40"/>
-      <c r="I129" s="40"/>
-      <c r="J129" s="40"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="29"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="73"/>
-      <c r="B130" s="27">
+      <c r="A130" s="129"/>
+      <c r="B130" s="26">
         <v>41738</v>
       </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5">
+      <c r="C130" s="55"/>
+      <c r="D130" s="55"/>
+      <c r="E130" s="55"/>
+      <c r="F130" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G130" s="40"/>
-      <c r="H130" s="40"/>
-      <c r="I130" s="40"/>
-      <c r="J130" s="40"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="29"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="73"/>
-      <c r="B131" s="27">
+      <c r="A131" s="129"/>
+      <c r="B131" s="26">
         <v>41739</v>
       </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5">
+      <c r="C131" s="55"/>
+      <c r="D131" s="55"/>
+      <c r="E131" s="55"/>
+      <c r="F131" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G131" s="40"/>
-      <c r="H131" s="40"/>
-      <c r="I131" s="40"/>
-      <c r="J131" s="40"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
+      <c r="J131" s="29"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="74"/>
-      <c r="B132" s="27">
+      <c r="A132" s="84"/>
+      <c r="B132" s="26">
         <v>41740</v>
       </c>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5">
+      <c r="C132" s="55"/>
+      <c r="D132" s="55"/>
+      <c r="E132" s="55"/>
+      <c r="F132" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G132" s="40"/>
-      <c r="H132" s="40"/>
-      <c r="I132" s="40"/>
-      <c r="J132" s="40"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="29"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="69">
+      <c r="A133" s="124">
         <v>24</v>
       </c>
-      <c r="B133" s="28">
+      <c r="B133" s="27">
         <v>41743</v>
       </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6">
+      <c r="C133" s="134"/>
+      <c r="D133" s="134"/>
+      <c r="E133" s="134"/>
+      <c r="F133" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G133" s="41"/>
-      <c r="H133" s="41"/>
-      <c r="I133" s="41"/>
-      <c r="J133" s="41"/>
+      <c r="G133" s="125"/>
+      <c r="H133" s="125"/>
+      <c r="I133" s="125"/>
+      <c r="J133" s="125"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="70"/>
-      <c r="B134" s="28">
+      <c r="A134" s="126"/>
+      <c r="B134" s="27">
         <v>41744</v>
       </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6">
+      <c r="C134" s="134"/>
+      <c r="D134" s="134"/>
+      <c r="E134" s="134"/>
+      <c r="F134" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G134" s="41"/>
-      <c r="H134" s="41"/>
-      <c r="I134" s="41"/>
-      <c r="J134" s="41"/>
+      <c r="G134" s="125"/>
+      <c r="H134" s="125"/>
+      <c r="I134" s="125"/>
+      <c r="J134" s="125"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="70"/>
-      <c r="B135" s="28">
+      <c r="A135" s="126"/>
+      <c r="B135" s="27">
         <v>41745</v>
       </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6">
+      <c r="C135" s="134"/>
+      <c r="D135" s="134"/>
+      <c r="E135" s="134"/>
+      <c r="F135" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G135" s="41"/>
-      <c r="H135" s="41"/>
-      <c r="I135" s="41"/>
-      <c r="J135" s="41"/>
+      <c r="G135" s="125"/>
+      <c r="H135" s="125"/>
+      <c r="I135" s="125"/>
+      <c r="J135" s="125"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="70"/>
-      <c r="B136" s="28">
+      <c r="A136" s="126"/>
+      <c r="B136" s="27">
         <v>41746</v>
       </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6">
+      <c r="C136" s="134"/>
+      <c r="D136" s="134"/>
+      <c r="E136" s="134"/>
+      <c r="F136" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G136" s="41"/>
-      <c r="H136" s="41"/>
-      <c r="I136" s="41"/>
-      <c r="J136" s="41"/>
+      <c r="G136" s="125"/>
+      <c r="H136" s="125"/>
+      <c r="I136" s="125"/>
+      <c r="J136" s="125"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="71"/>
-      <c r="B137" s="28">
+      <c r="A137" s="127"/>
+      <c r="B137" s="27">
         <v>41747</v>
       </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6">
+      <c r="C137" s="134"/>
+      <c r="D137" s="134"/>
+      <c r="E137" s="134"/>
+      <c r="F137" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G137" s="41"/>
-      <c r="H137" s="41"/>
-      <c r="I137" s="41"/>
-      <c r="J137" s="41"/>
+      <c r="G137" s="125"/>
+      <c r="H137" s="125"/>
+      <c r="I137" s="125"/>
+      <c r="J137" s="125"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="72">
+      <c r="A138" s="128">
         <v>25</v>
       </c>
-      <c r="B138" s="27">
+      <c r="B138" s="26">
         <v>41750</v>
       </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5">
+      <c r="C138" s="55"/>
+      <c r="D138" s="55"/>
+      <c r="E138" s="55"/>
+      <c r="F138" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G138" s="40"/>
-      <c r="H138" s="40"/>
-      <c r="I138" s="40"/>
-      <c r="J138" s="40"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29"/>
+      <c r="J138" s="29"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="73"/>
-      <c r="B139" s="27">
+      <c r="A139" s="129"/>
+      <c r="B139" s="26">
         <v>41751</v>
       </c>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5">
+      <c r="C139" s="55"/>
+      <c r="D139" s="55"/>
+      <c r="E139" s="55"/>
+      <c r="F139" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G139" s="40"/>
-      <c r="H139" s="40"/>
-      <c r="I139" s="40"/>
-      <c r="J139" s="40"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
+      <c r="I139" s="29"/>
+      <c r="J139" s="29"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="73"/>
-      <c r="B140" s="27">
+      <c r="A140" s="129"/>
+      <c r="B140" s="26">
         <v>41752</v>
       </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5">
+      <c r="C140" s="55"/>
+      <c r="D140" s="55"/>
+      <c r="E140" s="55"/>
+      <c r="F140" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G140" s="40"/>
-      <c r="H140" s="40"/>
-      <c r="I140" s="40"/>
-      <c r="J140" s="40"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="29"/>
+      <c r="I140" s="29"/>
+      <c r="J140" s="29"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="73"/>
-      <c r="B141" s="27">
+      <c r="A141" s="129"/>
+      <c r="B141" s="26">
         <v>41753</v>
       </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5">
+      <c r="C141" s="55"/>
+      <c r="D141" s="55"/>
+      <c r="E141" s="55"/>
+      <c r="F141" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G141" s="40"/>
-      <c r="H141" s="40"/>
-      <c r="I141" s="40"/>
-      <c r="J141" s="40"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="29"/>
+      <c r="J141" s="29"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="74"/>
-      <c r="B142" s="27">
+      <c r="A142" s="84"/>
+      <c r="B142" s="26">
         <v>41754</v>
       </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5">
+      <c r="C142" s="55"/>
+      <c r="D142" s="55"/>
+      <c r="E142" s="55"/>
+      <c r="F142" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G142" s="40"/>
-      <c r="H142" s="40"/>
-      <c r="I142" s="40"/>
-      <c r="J142" s="40"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="29"/>
+      <c r="I142" s="29"/>
+      <c r="J142" s="29"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="69">
+      <c r="A143" s="124">
         <v>26</v>
       </c>
-      <c r="B143" s="28">
+      <c r="B143" s="27">
         <v>41757</v>
       </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6">
+      <c r="C143" s="134"/>
+      <c r="D143" s="134"/>
+      <c r="E143" s="134"/>
+      <c r="F143" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G143" s="41"/>
-      <c r="H143" s="41"/>
-      <c r="I143" s="41"/>
-      <c r="J143" s="41"/>
+      <c r="G143" s="125"/>
+      <c r="H143" s="125"/>
+      <c r="I143" s="125"/>
+      <c r="J143" s="125"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="70"/>
-      <c r="B144" s="28">
+      <c r="A144" s="126"/>
+      <c r="B144" s="27">
         <v>41758</v>
       </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6">
+      <c r="C144" s="134"/>
+      <c r="D144" s="134"/>
+      <c r="E144" s="134"/>
+      <c r="F144" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G144" s="41"/>
-      <c r="H144" s="41"/>
-      <c r="I144" s="41"/>
-      <c r="J144" s="41"/>
+      <c r="G144" s="125"/>
+      <c r="H144" s="125"/>
+      <c r="I144" s="125"/>
+      <c r="J144" s="125"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="70"/>
-      <c r="B145" s="28">
+      <c r="A145" s="126"/>
+      <c r="B145" s="27">
         <v>41759</v>
       </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6">
+      <c r="C145" s="134"/>
+      <c r="D145" s="134"/>
+      <c r="E145" s="134"/>
+      <c r="F145" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G145" s="41"/>
-      <c r="H145" s="41"/>
-      <c r="I145" s="41"/>
-      <c r="J145" s="41"/>
+      <c r="G145" s="125"/>
+      <c r="H145" s="125"/>
+      <c r="I145" s="125"/>
+      <c r="J145" s="125"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="70"/>
-      <c r="B146" s="28">
+      <c r="A146" s="126"/>
+      <c r="B146" s="27">
         <v>41760</v>
       </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6">
+      <c r="C146" s="134"/>
+      <c r="D146" s="134"/>
+      <c r="E146" s="134"/>
+      <c r="F146" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G146" s="41"/>
-      <c r="H146" s="41"/>
-      <c r="I146" s="41"/>
-      <c r="J146" s="41"/>
+      <c r="G146" s="125"/>
+      <c r="H146" s="125"/>
+      <c r="I146" s="125"/>
+      <c r="J146" s="125"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="71"/>
-      <c r="B147" s="28">
+      <c r="A147" s="127"/>
+      <c r="B147" s="27">
         <v>41761</v>
       </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6">
+      <c r="C147" s="134"/>
+      <c r="D147" s="134"/>
+      <c r="E147" s="134"/>
+      <c r="F147" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G147" s="41"/>
-      <c r="H147" s="41"/>
-      <c r="I147" s="41"/>
-      <c r="J147" s="41"/>
+      <c r="G147" s="125"/>
+      <c r="H147" s="125"/>
+      <c r="I147" s="125"/>
+      <c r="J147" s="125"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="72">
+      <c r="A148" s="128">
         <v>27</v>
       </c>
-      <c r="B148" s="27">
+      <c r="B148" s="26">
         <v>41764</v>
       </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5">
+      <c r="C148" s="55"/>
+      <c r="D148" s="55"/>
+      <c r="E148" s="55"/>
+      <c r="F148" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G148" s="40"/>
-      <c r="H148" s="40"/>
-      <c r="I148" s="40"/>
-      <c r="J148" s="40"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="29"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="73"/>
-      <c r="B149" s="27">
+      <c r="A149" s="129"/>
+      <c r="B149" s="26">
         <v>41765</v>
       </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5">
+      <c r="C149" s="55"/>
+      <c r="D149" s="55"/>
+      <c r="E149" s="55"/>
+      <c r="F149" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G149" s="40"/>
-      <c r="H149" s="40"/>
-      <c r="I149" s="40"/>
-      <c r="J149" s="40"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="29"/>
+      <c r="J149" s="29"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="73"/>
-      <c r="B150" s="27">
+      <c r="A150" s="129"/>
+      <c r="B150" s="26">
         <v>41766</v>
       </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5">
+      <c r="C150" s="55"/>
+      <c r="D150" s="55"/>
+      <c r="E150" s="55"/>
+      <c r="F150" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G150" s="40"/>
-      <c r="H150" s="40"/>
-      <c r="I150" s="40"/>
-      <c r="J150" s="40"/>
+      <c r="G150" s="29"/>
+      <c r="H150" s="29"/>
+      <c r="I150" s="29"/>
+      <c r="J150" s="29"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="73"/>
-      <c r="B151" s="27">
+      <c r="A151" s="129"/>
+      <c r="B151" s="26">
         <v>41767</v>
       </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5">
+      <c r="C151" s="55"/>
+      <c r="D151" s="55"/>
+      <c r="E151" s="55"/>
+      <c r="F151" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G151" s="40"/>
-      <c r="H151" s="40"/>
-      <c r="I151" s="40"/>
-      <c r="J151" s="40"/>
+      <c r="G151" s="29"/>
+      <c r="H151" s="29"/>
+      <c r="I151" s="29"/>
+      <c r="J151" s="29"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="74"/>
-      <c r="B152" s="27">
+      <c r="A152" s="84"/>
+      <c r="B152" s="26">
         <v>41768</v>
       </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5">
+      <c r="C152" s="55"/>
+      <c r="D152" s="55"/>
+      <c r="E152" s="55"/>
+      <c r="F152" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G152" s="40"/>
-      <c r="H152" s="40"/>
-      <c r="I152" s="40"/>
-      <c r="J152" s="40"/>
+      <c r="G152" s="29"/>
+      <c r="H152" s="29"/>
+      <c r="I152" s="29"/>
+      <c r="J152" s="29"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="69">
+      <c r="A153" s="124">
         <v>28</v>
       </c>
-      <c r="B153" s="28">
+      <c r="B153" s="27">
         <v>41771</v>
       </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6">
+      <c r="C153" s="134"/>
+      <c r="D153" s="134"/>
+      <c r="E153" s="134"/>
+      <c r="F153" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G153" s="41"/>
-      <c r="H153" s="41"/>
-      <c r="I153" s="41"/>
-      <c r="J153" s="41"/>
+      <c r="G153" s="125"/>
+      <c r="H153" s="125"/>
+      <c r="I153" s="125"/>
+      <c r="J153" s="125"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="70"/>
-      <c r="B154" s="28">
+      <c r="A154" s="126"/>
+      <c r="B154" s="27">
         <v>41772</v>
       </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6">
+      <c r="C154" s="134"/>
+      <c r="D154" s="134"/>
+      <c r="E154" s="134"/>
+      <c r="F154" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G154" s="41"/>
-      <c r="H154" s="41"/>
-      <c r="I154" s="41"/>
-      <c r="J154" s="41"/>
+      <c r="G154" s="125"/>
+      <c r="H154" s="125"/>
+      <c r="I154" s="125"/>
+      <c r="J154" s="125"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="70"/>
-      <c r="B155" s="28">
+      <c r="A155" s="126"/>
+      <c r="B155" s="27">
         <v>41773</v>
       </c>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6">
+      <c r="C155" s="134"/>
+      <c r="D155" s="134"/>
+      <c r="E155" s="134"/>
+      <c r="F155" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G155" s="41"/>
-      <c r="H155" s="41"/>
-      <c r="I155" s="41"/>
-      <c r="J155" s="41"/>
+      <c r="G155" s="125"/>
+      <c r="H155" s="125"/>
+      <c r="I155" s="125"/>
+      <c r="J155" s="125"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="70"/>
-      <c r="B156" s="28">
+      <c r="A156" s="126"/>
+      <c r="B156" s="27">
         <v>41774</v>
       </c>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6">
+      <c r="C156" s="134"/>
+      <c r="D156" s="134"/>
+      <c r="E156" s="134"/>
+      <c r="F156" s="134">
         <f t="shared" ref="F156:F167" si="4">E156</f>
         <v>0</v>
       </c>
-      <c r="G156" s="41"/>
-      <c r="H156" s="41"/>
-      <c r="I156" s="41"/>
-      <c r="J156" s="41"/>
+      <c r="G156" s="125"/>
+      <c r="H156" s="125"/>
+      <c r="I156" s="125"/>
+      <c r="J156" s="125"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="71"/>
-      <c r="B157" s="28">
+      <c r="A157" s="127"/>
+      <c r="B157" s="27">
         <v>41775</v>
       </c>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6">
+      <c r="C157" s="134"/>
+      <c r="D157" s="134"/>
+      <c r="E157" s="134"/>
+      <c r="F157" s="134">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G157" s="41"/>
-      <c r="H157" s="41"/>
-      <c r="I157" s="41"/>
-      <c r="J157" s="41"/>
+      <c r="G157" s="125"/>
+      <c r="H157" s="125"/>
+      <c r="I157" s="125"/>
+      <c r="J157" s="125"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="72">
+      <c r="A158" s="128">
         <v>29</v>
       </c>
-      <c r="B158" s="27">
+      <c r="B158" s="26">
         <v>41778</v>
       </c>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5">
+      <c r="C158" s="55"/>
+      <c r="D158" s="55"/>
+      <c r="E158" s="55"/>
+      <c r="F158" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G158" s="40"/>
-      <c r="H158" s="40"/>
-      <c r="I158" s="40"/>
-      <c r="J158" s="40"/>
+      <c r="G158" s="29"/>
+      <c r="H158" s="29"/>
+      <c r="I158" s="29"/>
+      <c r="J158" s="29"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="73"/>
-      <c r="B159" s="27">
+      <c r="A159" s="129"/>
+      <c r="B159" s="26">
         <v>41779</v>
       </c>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5">
+      <c r="C159" s="55"/>
+      <c r="D159" s="55"/>
+      <c r="E159" s="55"/>
+      <c r="F159" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G159" s="40"/>
-      <c r="H159" s="40"/>
-      <c r="I159" s="40"/>
-      <c r="J159" s="40"/>
+      <c r="G159" s="29"/>
+      <c r="H159" s="29"/>
+      <c r="I159" s="29"/>
+      <c r="J159" s="29"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="73"/>
-      <c r="B160" s="27">
+      <c r="A160" s="129"/>
+      <c r="B160" s="26">
         <v>41780</v>
       </c>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5">
+      <c r="C160" s="55"/>
+      <c r="D160" s="55"/>
+      <c r="E160" s="55"/>
+      <c r="F160" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G160" s="40"/>
-      <c r="H160" s="40"/>
-      <c r="I160" s="40"/>
-      <c r="J160" s="40"/>
+      <c r="G160" s="29"/>
+      <c r="H160" s="29"/>
+      <c r="I160" s="29"/>
+      <c r="J160" s="29"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="73"/>
-      <c r="B161" s="27">
+      <c r="A161" s="129"/>
+      <c r="B161" s="26">
         <v>41781</v>
       </c>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5">
+      <c r="C161" s="55"/>
+      <c r="D161" s="55"/>
+      <c r="E161" s="55"/>
+      <c r="F161" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G161" s="40"/>
-      <c r="H161" s="40"/>
-      <c r="I161" s="40"/>
-      <c r="J161" s="40"/>
+      <c r="G161" s="29"/>
+      <c r="H161" s="29"/>
+      <c r="I161" s="29"/>
+      <c r="J161" s="29"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="74"/>
-      <c r="B162" s="27">
+      <c r="A162" s="84"/>
+      <c r="B162" s="26">
         <v>41782</v>
       </c>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5">
+      <c r="C162" s="55"/>
+      <c r="D162" s="55"/>
+      <c r="E162" s="55"/>
+      <c r="F162" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G162" s="40"/>
-      <c r="H162" s="40"/>
-      <c r="I162" s="40"/>
-      <c r="J162" s="40"/>
+      <c r="G162" s="29"/>
+      <c r="H162" s="29"/>
+      <c r="I162" s="29"/>
+      <c r="J162" s="29"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="75">
+      <c r="A163" s="130">
         <v>30</v>
       </c>
-      <c r="B163" s="28">
+      <c r="B163" s="27">
         <v>41785</v>
       </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2">
+      <c r="C163" s="135"/>
+      <c r="D163" s="135"/>
+      <c r="E163" s="135"/>
+      <c r="F163" s="135">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G163" s="42"/>
-      <c r="H163" s="42"/>
-      <c r="I163" s="42"/>
-      <c r="J163" s="42"/>
+      <c r="G163" s="37"/>
+      <c r="H163" s="37"/>
+      <c r="I163" s="37"/>
+      <c r="J163" s="37"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="76"/>
-      <c r="B164" s="28">
+      <c r="A164" s="131"/>
+      <c r="B164" s="27">
         <v>41786</v>
       </c>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2">
+      <c r="C164" s="135"/>
+      <c r="D164" s="135"/>
+      <c r="E164" s="135"/>
+      <c r="F164" s="135">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G164" s="42"/>
-      <c r="H164" s="42"/>
-      <c r="I164" s="42"/>
-      <c r="J164" s="42"/>
+      <c r="G164" s="37"/>
+      <c r="H164" s="37"/>
+      <c r="I164" s="37"/>
+      <c r="J164" s="37"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="76"/>
-      <c r="B165" s="28">
+      <c r="A165" s="131"/>
+      <c r="B165" s="27">
         <v>41787</v>
       </c>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2">
+      <c r="C165" s="135"/>
+      <c r="D165" s="135"/>
+      <c r="E165" s="135"/>
+      <c r="F165" s="135">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G165" s="42"/>
-      <c r="H165" s="42"/>
-      <c r="I165" s="42"/>
-      <c r="J165" s="42"/>
+      <c r="G165" s="37"/>
+      <c r="H165" s="37"/>
+      <c r="I165" s="37"/>
+      <c r="J165" s="37"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="76"/>
-      <c r="B166" s="28">
+      <c r="A166" s="131"/>
+      <c r="B166" s="27">
         <v>41788</v>
       </c>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2">
+      <c r="C166" s="135"/>
+      <c r="D166" s="135"/>
+      <c r="E166" s="135"/>
+      <c r="F166" s="135">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G166" s="42"/>
-      <c r="H166" s="42"/>
-      <c r="I166" s="42"/>
-      <c r="J166" s="42"/>
+      <c r="G166" s="37"/>
+      <c r="H166" s="37"/>
+      <c r="I166" s="37"/>
+      <c r="J166" s="37"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="77"/>
-      <c r="B167" s="28">
+      <c r="A167" s="132"/>
+      <c r="B167" s="27">
         <v>41789</v>
       </c>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2">
+      <c r="C167" s="135"/>
+      <c r="D167" s="135"/>
+      <c r="E167" s="135"/>
+      <c r="F167" s="135">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G167" s="42"/>
-      <c r="H167" s="42"/>
-      <c r="I167" s="42"/>
-      <c r="J167" s="42"/>
+      <c r="G167" s="37"/>
+      <c r="H167" s="37"/>
+      <c r="I167" s="37"/>
+      <c r="J167" s="37"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="133"/>
+      <c r="B168" s="133"/>
+      <c r="C168" s="133"/>
+      <c r="D168" s="133"/>
+      <c r="E168" s="133"/>
+      <c r="F168" s="133"/>
+      <c r="G168" s="133"/>
+      <c r="H168" s="133"/>
+      <c r="I168" s="133"/>
+      <c r="J168" s="133"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="133"/>
+      <c r="B169" s="133"/>
+      <c r="C169" s="133"/>
+      <c r="D169" s="133"/>
+      <c r="E169" s="133"/>
+      <c r="F169" s="133"/>
+      <c r="G169" s="133"/>
+      <c r="H169" s="133"/>
+      <c r="I169" s="133"/>
+      <c r="J169" s="133"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="133"/>
+      <c r="B170" s="133"/>
+      <c r="C170" s="133"/>
+      <c r="D170" s="133"/>
+      <c r="E170" s="133"/>
+      <c r="F170" s="133"/>
+      <c r="G170" s="133"/>
+      <c r="H170" s="133"/>
+      <c r="I170" s="133"/>
+      <c r="J170" s="133"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="133"/>
+      <c r="B171" s="133"/>
+      <c r="C171" s="133"/>
+      <c r="D171" s="133"/>
+      <c r="E171" s="133"/>
+      <c r="F171" s="133"/>
+      <c r="G171" s="133"/>
+      <c r="H171" s="133"/>
+      <c r="I171" s="133"/>
+      <c r="J171" s="133"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="133"/>
+      <c r="B172" s="133"/>
+      <c r="C172" s="133"/>
+      <c r="D172" s="133"/>
+      <c r="E172" s="133"/>
+      <c r="F172" s="133"/>
+      <c r="G172" s="133"/>
+      <c r="H172" s="133"/>
+      <c r="I172" s="133"/>
+      <c r="J172" s="133"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="133"/>
+      <c r="B173" s="133"/>
+      <c r="C173" s="133"/>
+      <c r="D173" s="133"/>
+      <c r="E173" s="133"/>
+      <c r="F173" s="133"/>
+      <c r="G173" s="133"/>
+      <c r="H173" s="133"/>
+      <c r="I173" s="133"/>
+      <c r="J173" s="133"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="133"/>
+      <c r="B174" s="133"/>
+      <c r="C174" s="133"/>
+      <c r="D174" s="133"/>
+      <c r="E174" s="133"/>
+      <c r="F174" s="133"/>
+      <c r="G174" s="133"/>
+      <c r="H174" s="133"/>
+      <c r="I174" s="133"/>
+      <c r="J174" s="133"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="133"/>
+      <c r="B175" s="133"/>
+      <c r="C175" s="133"/>
+      <c r="D175" s="133"/>
+      <c r="E175" s="133"/>
+      <c r="F175" s="133"/>
+      <c r="G175" s="133"/>
+      <c r="H175" s="133"/>
+      <c r="I175" s="133"/>
+      <c r="J175" s="133"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="133"/>
+      <c r="B176" s="133"/>
+      <c r="C176" s="133"/>
+      <c r="D176" s="133"/>
+      <c r="E176" s="133"/>
+      <c r="F176" s="133"/>
+      <c r="G176" s="133"/>
+      <c r="H176" s="133"/>
+      <c r="I176" s="133"/>
+      <c r="J176" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A102"/>
     <mergeCell ref="A73:A77"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="A58:A62"/>
@@ -5112,36 +5268,36 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="A19:A32"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F31:F32"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="lessThan">
       <formula>700</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
       <formula>4704</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="between">
       <formula>700</formula>
       <formula>4704</formula>
     </cfRule>
@@ -5155,7 +5311,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="42" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
+          <x14:cfRule type="iconSet" priority="43" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5174,7 +5330,7 @@
           <xm:sqref>M12:M14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="41" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
+          <x14:cfRule type="iconSet" priority="42" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5193,7 +5349,7 @@
           <xm:sqref>M16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="39" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
+          <x14:cfRule type="iconSet" priority="40" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5212,7 +5368,7 @@
           <xm:sqref>M18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
+          <x14:cfRule type="iconSet" priority="37" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5231,7 +5387,7 @@
           <xm:sqref>M19:M21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="35" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
+          <x14:cfRule type="iconSet" priority="36" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5250,7 +5406,7 @@
           <xm:sqref>M22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="34" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
+          <x14:cfRule type="iconSet" priority="35" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5269,7 +5425,7 @@
           <xm:sqref>M23:M26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
+          <x14:cfRule type="iconSet" priority="34" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5288,7 +5444,7 @@
           <xm:sqref>M27:M29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
+          <x14:cfRule type="iconSet" priority="33" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5307,7 +5463,7 @@
           <xm:sqref>M30:M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
+          <x14:cfRule type="iconSet" priority="32" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5326,7 +5482,7 @@
           <xm:sqref>M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
+          <x14:cfRule type="iconSet" priority="31" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5345,7 +5501,7 @@
           <xm:sqref>M34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
+          <x14:cfRule type="iconSet" priority="30" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5364,7 +5520,7 @@
           <xm:sqref>M35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
+          <x14:cfRule type="iconSet" priority="29" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5383,7 +5539,7 @@
           <xm:sqref>M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
+          <x14:cfRule type="iconSet" priority="28" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5402,7 +5558,7 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="27" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5421,7 +5577,7 @@
           <xm:sqref>M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="26" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5440,7 +5596,7 @@
           <xm:sqref>M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="25" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5459,7 +5615,7 @@
           <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="24" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5478,7 +5634,7 @@
           <xm:sqref>M41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="23" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5497,7 +5653,7 @@
           <xm:sqref>M42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="22" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5516,7 +5672,7 @@
           <xm:sqref>M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="21" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5535,7 +5691,7 @@
           <xm:sqref>M44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="20" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5554,7 +5710,7 @@
           <xm:sqref>M45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="19" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5573,7 +5729,7 @@
           <xm:sqref>M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="18" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5592,7 +5748,7 @@
           <xm:sqref>M47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="17" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5611,7 +5767,7 @@
           <xm:sqref>M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="16" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5630,7 +5786,7 @@
           <xm:sqref>M49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="15" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5649,7 +5805,7 @@
           <xm:sqref>M50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
+          <x14:cfRule type="iconSet" priority="14" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5668,26 +5824,7 @@
           <xm:sqref>M8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="43" id="{64BAD167-7C90-4434-9494-BC007D5CA8F5}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{6C49D5EC-FFC3-40B5-BEF3-C08FEAABBFA7}">
+          <x14:cfRule type="iconSet" priority="6" id="{6C49D5EC-FFC3-40B5-BEF3-C08FEAABBFA7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5706,7 +5843,7 @@
           <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{13950B4A-31F8-40DD-922D-DC2CA60F3002}">
+          <x14:cfRule type="iconSet" priority="4" id="{13950B4A-31F8-40DD-922D-DC2CA60F3002}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5725,7 +5862,7 @@
           <xm:sqref>F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="44" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+          <x14:cfRule type="iconSet" priority="45" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5741,10 +5878,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F14 F7:F8 F12 F18:F19 F21 F23:F24 F33:F167 F29</xm:sqref>
+          <xm:sqref>F14 F7:F8 F12 F18:F19 F21 F23:F24 F29 F33:F167</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{35213755-788E-43C8-B75E-72DA17285D4A}">
+          <x14:cfRule type="iconSet" priority="2" id="{35213755-788E-43C8-B75E-72DA17285D4A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5762,6 +5899,25 @@
           </x14:cfRule>
           <xm:sqref>F31</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{D436B0D1-9C41-4290-A1C3-9BA213613E2C}">
+            <x14:iconSet iconSet="3Symbols" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M17</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="133">
   <si>
     <t>Week</t>
   </si>
@@ -405,6 +405,44 @@
   </si>
   <si>
     <t>Product Backlog Templates.xlsx</t>
+  </si>
+  <si>
+    <t>8.00AM</t>
+  </si>
+  <si>
+    <t>9:00AM</t>
+  </si>
+  <si>
+    <t>2:45PM</t>
+  </si>
+  <si>
+    <t>4:45PM</t>
+  </si>
+  <si>
+    <t>Teamsefl Review task works Pre-week (week 3)</t>
+  </si>
+  <si>
+    <t>Review task works Pre-week (week 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devide work task about Stage 1 elicite </t>
+  </si>
+  <si>
+    <t>DevideTeamWork_2611.docx</t>
+  </si>
+  <si>
+    <t>Meeting_Minutes_261113</t>
+  </si>
+  <si>
+    <t>AS_PM_MeasurementPlan.docx
+AS_RE_RequirementPlan.docx</t>
+  </si>
+  <si>
+    <t>Update Measurement Plan - orientiton for GQM technical, frequencly measurement
+Update Requirement Plan - detail roles for Stage 1,2 and Requirement Schedule</t>
+  </si>
+  <si>
+    <t>Miss file Measurement Template</t>
   </si>
 </sst>
 </file>
@@ -736,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -906,203 +944,8 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1113,6 +956,207 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1424,7 +1468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1547,13 +1591,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O176"/>
+  <dimension ref="A1:O179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1610,7 @@
     <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="46.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
     <col min="13" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1574,81 +1618,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="69"/>
+      <c r="A1" s="121"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="70" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="72"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="126"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="75"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="129"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="78"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="132"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="118"/>
       <c r="F5" s="15"/>
       <c r="H5" s="41" t="s">
         <v>64</v>
@@ -1693,13 +1737,13 @@
       <c r="J6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="79">
+      <c r="A7" s="133">
         <v>1</v>
       </c>
       <c r="B7" s="16">
@@ -1725,21 +1769,21 @@
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="106" t="s">
+      <c r="K7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="106"/>
+      <c r="L7" s="81"/>
       <c r="M7" s="32">
-        <f>SUM(M8:M50)</f>
-        <v>44.739999999999995</v>
+        <f>SUM(M8:M53)</f>
+        <v>50.489999999999995</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
-      <c r="B8" s="94">
+      <c r="A8" s="134"/>
+      <c r="B8" s="112">
         <v>41586</v>
       </c>
       <c r="C8" s="17">
@@ -1751,7 +1795,7 @@
       <c r="E8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="114">
         <v>1.67</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -1775,8 +1819,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1786,7 +1830,7 @@
       <c r="E9" s="18">
         <v>0.5</v>
       </c>
-      <c r="F9" s="97"/>
+      <c r="F9" s="115"/>
       <c r="G9" s="29" t="s">
         <v>23</v>
       </c>
@@ -1797,10 +1841,10 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115">
+      <c r="A10" s="90">
         <v>2</v>
       </c>
-      <c r="B10" s="118">
+      <c r="B10" s="93">
         <v>41589</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -1812,7 +1856,7 @@
       <c r="E10" s="59">
         <v>2.5</v>
       </c>
-      <c r="F10" s="120">
+      <c r="F10" s="95">
         <f>SUM(E10:E11)</f>
         <v>5</v>
       </c>
@@ -1826,8 +1870,8 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
-      <c r="B11" s="119"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="58" t="s">
         <v>76</v>
       </c>
@@ -1837,7 +1881,7 @@
       <c r="E11" s="59">
         <v>2.5</v>
       </c>
-      <c r="F11" s="121"/>
+      <c r="F11" s="96"/>
       <c r="G11" s="60" t="s">
         <v>22</v>
       </c>
@@ -1850,8 +1894,8 @@
       <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
-      <c r="B12" s="107">
+      <c r="A12" s="91"/>
+      <c r="B12" s="82">
         <v>41590</v>
       </c>
       <c r="C12" s="22">
@@ -1863,7 +1907,7 @@
       <c r="E12" s="23">
         <v>2.25</v>
       </c>
-      <c r="F12" s="109">
+      <c r="F12" s="84">
         <v>3.75</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -1890,8 +1934,8 @@
       <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
-      <c r="B13" s="108"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="22">
         <v>0.91666666666666663</v>
       </c>
@@ -1901,7 +1945,7 @@
       <c r="E13" s="23">
         <v>1.5</v>
       </c>
-      <c r="F13" s="110"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="45" t="s">
         <v>28</v>
       </c>
@@ -1917,8 +1961,8 @@
       <c r="O13" s="34"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
-      <c r="B14" s="107">
+      <c r="A14" s="91"/>
+      <c r="B14" s="82">
         <v>41591</v>
       </c>
       <c r="C14" s="22">
@@ -1930,7 +1974,7 @@
       <c r="E14" s="23">
         <v>2</v>
       </c>
-      <c r="F14" s="112">
+      <c r="F14" s="87">
         <v>4.5</v>
       </c>
       <c r="G14" s="45" t="s">
@@ -1948,8 +1992,8 @@
       <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="111"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="25">
         <v>0.5625</v>
       </c>
@@ -1959,7 +2003,7 @@
       <c r="E15" s="28">
         <v>2</v>
       </c>
-      <c r="F15" s="113"/>
+      <c r="F15" s="88"/>
       <c r="G15" s="30" t="s">
         <v>19</v>
       </c>
@@ -1976,8 +2020,8 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
-      <c r="B16" s="108"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="25">
         <v>0.83333333333333337</v>
       </c>
@@ -1987,7 +2031,7 @@
       <c r="E16" s="28">
         <v>0.5</v>
       </c>
-      <c r="F16" s="114"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="45" t="s">
         <v>28</v>
       </c>
@@ -2011,7 +2055,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="116"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="47">
         <v>41592</v>
       </c>
@@ -2042,15 +2086,15 @@
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="9">
-        <f>SUM(F33:F37)</f>
-        <v>3</v>
+        <f>SUM(F33:F40)</f>
+        <v>8.75</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="42">
         <v>41593</v>
       </c>
@@ -2081,7 +2125,7 @@
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="9">
-        <f>SUM(E38:E42)</f>
+        <f>SUM(E41:E45)</f>
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
@@ -2089,10 +2133,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="101">
+      <c r="A19" s="100">
         <v>3</v>
       </c>
-      <c r="B19" s="122">
+      <c r="B19" s="97">
         <v>41596</v>
       </c>
       <c r="C19" s="53" t="s">
@@ -2104,7 +2148,7 @@
       <c r="E19" s="50">
         <v>0.5</v>
       </c>
-      <c r="F19" s="83">
+      <c r="F19" s="99">
         <f>SUM(E19:E20)</f>
         <v>3.5</v>
       </c>
@@ -2123,7 +2167,7 @@
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="9">
-        <f>SUM(E53:E57)</f>
+        <f>SUM(E56:E60)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -2131,8 +2175,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="102"/>
-      <c r="B20" s="123"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="53" t="s">
         <v>81</v>
       </c>
@@ -2142,7 +2186,7 @@
       <c r="E20" s="50">
         <v>3</v>
       </c>
-      <c r="F20" s="84"/>
+      <c r="F20" s="77"/>
       <c r="G20" s="49" t="s">
         <v>22</v>
       </c>
@@ -2159,8 +2203,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="102"/>
-      <c r="B21" s="122">
+      <c r="A21" s="101"/>
+      <c r="B21" s="97">
         <v>41597</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -2172,7 +2216,7 @@
       <c r="E21" s="50">
         <v>2</v>
       </c>
-      <c r="F21" s="83">
+      <c r="F21" s="99">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2192,8 +2236,8 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="102"/>
-      <c r="B22" s="123"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="53" t="s">
         <v>84</v>
       </c>
@@ -2203,7 +2247,7 @@
       <c r="E22" s="50">
         <v>0.5</v>
       </c>
-      <c r="F22" s="84"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="49" t="s">
         <v>22</v>
       </c>
@@ -2219,7 +2263,7 @@
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="9">
-        <f>SUM(E58:E62)</f>
+        <f>SUM(E61:E65)</f>
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -2227,7 +2271,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="102"/>
+      <c r="A23" s="101"/>
       <c r="B23" s="26">
         <v>41598</v>
       </c>
@@ -2241,7 +2285,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="55">
-        <f t="shared" ref="F23:F59" si="0">E23</f>
+        <f t="shared" ref="F23:F62" si="0">E23</f>
         <v>4</v>
       </c>
       <c r="G23" s="57" t="s">
@@ -2259,7 +2303,7 @@
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="9">
-        <f>SUM(E63:E67)</f>
+        <f>SUM(E66:E70)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2267,7 +2311,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="102"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="26">
         <v>41599</v>
       </c>
@@ -2280,7 +2324,7 @@
       <c r="E24" s="50">
         <v>1</v>
       </c>
-      <c r="F24" s="83">
+      <c r="F24" s="99">
         <f>SUM(E24:E28)</f>
         <v>6.9</v>
       </c>
@@ -2298,7 +2342,7 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="102"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="26">
         <v>41599</v>
       </c>
@@ -2311,7 +2355,7 @@
       <c r="E25" s="50">
         <v>1.3</v>
       </c>
-      <c r="F25" s="104"/>
+      <c r="F25" s="119"/>
       <c r="G25" s="57" t="s">
         <v>19</v>
       </c>
@@ -2326,7 +2370,7 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="102"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="26">
         <v>41599</v>
       </c>
@@ -2339,7 +2383,7 @@
       <c r="E26" s="50">
         <v>1.5</v>
       </c>
-      <c r="F26" s="104"/>
+      <c r="F26" s="119"/>
       <c r="G26" s="57" t="s">
         <v>22</v>
       </c>
@@ -2356,7 +2400,7 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="102"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="26">
         <v>41599</v>
       </c>
@@ -2369,7 +2413,7 @@
       <c r="E27" s="50">
         <v>2.1</v>
       </c>
-      <c r="F27" s="104"/>
+      <c r="F27" s="119"/>
       <c r="G27" s="29" t="s">
         <v>19</v>
       </c>
@@ -2383,7 +2427,7 @@
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="9">
-        <f>SUM(E68:E72)</f>
+        <f>SUM(E71:E75)</f>
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -2391,7 +2435,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="102"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="26">
         <v>41599</v>
       </c>
@@ -2404,7 +2448,7 @@
       <c r="E28" s="50">
         <v>1</v>
       </c>
-      <c r="F28" s="105"/>
+      <c r="F28" s="120"/>
       <c r="G28" s="29" t="s">
         <v>22</v>
       </c>
@@ -2419,7 +2463,7 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="102"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="26">
         <v>41600</v>
       </c>
@@ -2432,7 +2476,7 @@
       <c r="E29" s="50">
         <v>1.2</v>
       </c>
-      <c r="F29" s="83">
+      <c r="F29" s="99">
         <f>SUM(E29:E30)</f>
         <v>3.2</v>
       </c>
@@ -2448,7 +2492,7 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A30" s="102"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="26">
         <v>41600</v>
       </c>
@@ -2461,7 +2505,7 @@
       <c r="E30" s="50">
         <v>2</v>
       </c>
-      <c r="F30" s="84"/>
+      <c r="F30" s="77"/>
       <c r="G30" s="57" t="s">
         <v>22</v>
       </c>
@@ -2475,7 +2519,7 @@
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="9">
-        <f>SUM(E73:E77)</f>
+        <f>SUM(E76:E80)</f>
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -2483,7 +2527,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="102"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="26">
         <v>41601</v>
       </c>
@@ -2496,7 +2540,7 @@
       <c r="E31" s="50">
         <v>3.5</v>
       </c>
-      <c r="F31" s="83">
+      <c r="F31" s="99">
         <f>SUM(E31:E32)</f>
         <v>4.4000000000000004</v>
       </c>
@@ -2516,7 +2560,7 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="103"/>
+      <c r="A32" s="102"/>
       <c r="B32" s="26">
         <v>41601</v>
       </c>
@@ -2529,7 +2573,7 @@
       <c r="E32" s="50">
         <v>0.9</v>
       </c>
-      <c r="F32" s="84"/>
+      <c r="F32" s="77"/>
       <c r="G32" s="57" t="s">
         <v>22</v>
       </c>
@@ -2546,16 +2590,16 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="124">
+      <c r="A33" s="72">
         <v>4</v>
       </c>
       <c r="B33" s="27">
         <v>41603</v>
       </c>
-      <c r="C33" s="134" t="s">
+      <c r="C33" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="134" t="s">
+      <c r="D33" s="69" t="s">
         <v>82</v>
       </c>
       <c r="E33" s="28">
@@ -2565,22 +2609,22 @@
         <f>E33</f>
         <v>3</v>
       </c>
-      <c r="G33" s="125" t="s">
+      <c r="G33" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="136" t="s">
+      <c r="H33" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="I33" s="125" t="s">
+      <c r="I33" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="125"/>
+      <c r="J33" s="67"/>
       <c r="K33" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="9">
-        <f>SUM(E78:E82)</f>
+        <f>SUM(E81:E85)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -2588,111 +2632,129 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="126"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="27">
         <v>41604</v>
       </c>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="7" t="s">
+      <c r="C34" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="28">
+        <v>1</v>
+      </c>
+      <c r="F34" s="138">
+        <f>SUM(E34:E37)</f>
+        <v>5.75</v>
+      </c>
+      <c r="G34" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="73"/>
+      <c r="B35" s="27">
+        <v>41604</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="137" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="F35" s="73"/>
+      <c r="G35" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="J35" s="67"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="73"/>
+      <c r="B36" s="27">
+        <v>41604</v>
+      </c>
+      <c r="C36" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="28">
+        <v>1.25</v>
+      </c>
+      <c r="F36" s="73"/>
+      <c r="G36" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="I36" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="J36" s="67"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+      <c r="A37" s="73"/>
+      <c r="B37" s="27">
+        <v>41604</v>
+      </c>
+      <c r="C37" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="69">
+        <v>2</v>
+      </c>
+      <c r="F37" s="74"/>
+      <c r="G37" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="J37" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="9">
-        <f>SUM(E83:E87)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="126"/>
-      <c r="B35" s="27">
-        <v>41605</v>
-      </c>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="9">
-        <f>SUM(E88:E92)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="126"/>
-      <c r="B36" s="27">
-        <v>41606</v>
-      </c>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="9">
-        <f>SUM(E93:E97)</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="127"/>
-      <c r="B37" s="27">
-        <v>41607</v>
-      </c>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="9">
-        <f>SUM(E98:E102)</f>
+        <f>SUM(E86:E90)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2700,29 +2762,27 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="128">
-        <v>5</v>
-      </c>
-      <c r="B38" s="26">
-        <v>41610</v>
-      </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55">
+      <c r="A38" s="73"/>
+      <c r="B38" s="27">
+        <v>41605</v>
+      </c>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
       <c r="K38" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="9">
-        <f>SUM(E103:E107)</f>
+        <f>SUM(E91:E95)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2730,27 +2790,27 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="129"/>
-      <c r="B39" s="26">
-        <v>41611</v>
-      </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55">
+      <c r="A39" s="73"/>
+      <c r="B39" s="27">
+        <v>41606</v>
+      </c>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
       <c r="K39" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="9">
-        <f>SUM(E108:E112)</f>
+        <f>SUM(E96:E100)</f>
         <v>0</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -2758,27 +2818,27 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="129"/>
-      <c r="B40" s="26">
-        <v>41612</v>
-      </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55">
+      <c r="A40" s="74"/>
+      <c r="B40" s="27">
+        <v>41607</v>
+      </c>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
       <c r="K40" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="9">
-        <f>SUM(E113:E117)</f>
+        <f>SUM(E101:E105)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2786,9 +2846,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="129"/>
+      <c r="A41" s="75">
+        <v>5</v>
+      </c>
       <c r="B41" s="26">
-        <v>41613</v>
+        <v>41610</v>
       </c>
       <c r="C41" s="55"/>
       <c r="D41" s="55"/>
@@ -2802,11 +2864,11 @@
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
       <c r="K41" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="9">
-        <f>SUM(E118:E122)</f>
+        <f>SUM(E106:E110)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -2814,9 +2876,9 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="26">
-        <v>41614</v>
+        <v>41611</v>
       </c>
       <c r="C42" s="55"/>
       <c r="D42" s="55"/>
@@ -2830,11 +2892,11 @@
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
       <c r="K42" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="9">
-        <f>SUM(E123:E127)</f>
+        <f>SUM(E111:E115)</f>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -2842,29 +2904,27 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="124">
-        <v>6</v>
-      </c>
-      <c r="B43" s="27">
-        <v>41617</v>
-      </c>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134">
+      <c r="A43" s="76"/>
+      <c r="B43" s="26">
+        <v>41612</v>
+      </c>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="125"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="125"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="9">
-        <f>SUM(E128:E132)</f>
+        <f>SUM(E116:E120)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
@@ -2872,27 +2932,27 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="126"/>
-      <c r="B44" s="27">
-        <v>41618</v>
-      </c>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134">
+      <c r="A44" s="76"/>
+      <c r="B44" s="26">
+        <v>41613</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
       <c r="K44" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="9">
-        <f>SUM(E133:E137)</f>
+        <f>SUM(E121:E125)</f>
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -2900,27 +2960,27 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="126"/>
-      <c r="B45" s="27">
-        <v>41619</v>
-      </c>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134">
+      <c r="A45" s="77"/>
+      <c r="B45" s="26">
+        <v>41614</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
       <c r="K45" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="9">
-        <f>SUM(E138:E142)</f>
+        <f>SUM(E126:E130)</f>
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
@@ -2928,27 +2988,29 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="126"/>
+      <c r="A46" s="72">
+        <v>6</v>
+      </c>
       <c r="B46" s="27">
-        <v>41620</v>
-      </c>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134">
+        <v>41617</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="125"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
       <c r="K46" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="9">
-        <f>SUM(E143:E147)</f>
+        <f>SUM(E131:E135)</f>
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
@@ -2956,27 +3018,27 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="127"/>
+      <c r="A47" s="73"/>
       <c r="B47" s="27">
-        <v>41621</v>
-      </c>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134">
+        <v>41618</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="125"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="125"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
       <c r="K47" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="9">
-        <f>SUM(E148:E152)</f>
+        <f>SUM(E136:E140)</f>
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
@@ -2984,29 +3046,27 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="128">
-        <v>7</v>
-      </c>
-      <c r="B48" s="26">
-        <v>41624</v>
-      </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55">
+      <c r="A48" s="73"/>
+      <c r="B48" s="27">
+        <v>41619</v>
+      </c>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
       <c r="K48" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="9">
-        <f>SUM(E153:E157)</f>
+        <f>SUM(E141:E145)</f>
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
@@ -3014,27 +3074,27 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="129"/>
-      <c r="B49" s="26">
-        <v>41625</v>
-      </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55">
+      <c r="A49" s="73"/>
+      <c r="B49" s="27">
+        <v>41620</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
       <c r="K49" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="9">
-        <f>SUM(E158:E162)</f>
+        <f>SUM(E146:E150)</f>
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
@@ -3042,27 +3102,27 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="129"/>
-      <c r="B50" s="26">
-        <v>41626</v>
-      </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55">
+      <c r="A50" s="74"/>
+      <c r="B50" s="27">
+        <v>41621</v>
+      </c>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
       <c r="K50" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="9">
-        <f>SUM(E163:E167)</f>
+        <f>SUM(E151:E155)</f>
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
@@ -3070,9 +3130,11 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="129"/>
+      <c r="A51" s="75">
+        <v>7</v>
+      </c>
       <c r="B51" s="26">
-        <v>41627</v>
+        <v>41624</v>
       </c>
       <c r="C51" s="55"/>
       <c r="D51" s="55"/>
@@ -3085,11 +3147,22 @@
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
       <c r="J51" s="29"/>
+      <c r="K51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L51" s="5"/>
+      <c r="M51" s="9">
+        <f>SUM(E156:E160)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="84"/>
+      <c r="A52" s="76"/>
       <c r="B52" s="26">
-        <v>41628</v>
+        <v>41625</v>
       </c>
       <c r="C52" s="55"/>
       <c r="D52" s="55"/>
@@ -3102,157 +3175,179 @@
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
+      <c r="K52" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52" s="5"/>
+      <c r="M52" s="9">
+        <f>SUM(E161:E165)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="124">
+      <c r="A53" s="76"/>
+      <c r="B53" s="26">
+        <v>41626</v>
+      </c>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L53" s="5"/>
+      <c r="M53" s="9">
+        <f>SUM(E166:E170)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="76"/>
+      <c r="B54" s="26">
+        <v>41627</v>
+      </c>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="77"/>
+      <c r="B55" s="26">
+        <v>41628</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="72">
         <v>8</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B56" s="27">
         <v>41631</v>
       </c>
-      <c r="C53" s="134"/>
-      <c r="D53" s="134"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134">
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="125"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="125"/>
-      <c r="J53" s="125"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="126"/>
-      <c r="B54" s="27">
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="73"/>
+      <c r="B57" s="27">
         <v>41632</v>
       </c>
-      <c r="C54" s="134"/>
-      <c r="D54" s="134"/>
-      <c r="E54" s="134"/>
-      <c r="F54" s="134">
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G54" s="125"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
-      <c r="J54" s="125"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="126"/>
-      <c r="B55" s="27">
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="73"/>
+      <c r="B58" s="27">
         <v>41633</v>
       </c>
-      <c r="C55" s="134"/>
-      <c r="D55" s="134"/>
-      <c r="E55" s="134"/>
-      <c r="F55" s="134">
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G55" s="125"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="125"/>
-      <c r="J55" s="125"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="126"/>
-      <c r="B56" s="27">
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="73"/>
+      <c r="B59" s="27">
         <v>41634</v>
       </c>
-      <c r="C56" s="134"/>
-      <c r="D56" s="134"/>
-      <c r="E56" s="134"/>
-      <c r="F56" s="134">
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G56" s="125"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="125"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="127"/>
-      <c r="B57" s="27">
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="74"/>
+      <c r="B60" s="27">
         <v>41635</v>
       </c>
-      <c r="C57" s="134"/>
-      <c r="D57" s="134"/>
-      <c r="E57" s="134"/>
-      <c r="F57" s="134">
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G57" s="125"/>
-      <c r="H57" s="125"/>
-      <c r="I57" s="125"/>
-      <c r="J57" s="125"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="128">
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="75">
         <v>9</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B61" s="26">
         <v>41638</v>
-      </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="129"/>
-      <c r="B59" s="26">
-        <v>41639</v>
-      </c>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="129"/>
-      <c r="B60" s="26">
-        <v>41640</v>
-      </c>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55">
-        <f t="shared" ref="F60:F91" si="1">E60</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="129"/>
-      <c r="B61" s="26">
-        <v>41641</v>
       </c>
       <c r="C61" s="55"/>
       <c r="D61" s="55"/>
       <c r="E61" s="55"/>
       <c r="F61" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G61" s="29"/>
@@ -3261,15 +3356,15 @@
       <c r="J61" s="29"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="84"/>
+      <c r="A62" s="76"/>
       <c r="B62" s="26">
-        <v>41642</v>
+        <v>41639</v>
       </c>
       <c r="C62" s="55"/>
       <c r="D62" s="55"/>
       <c r="E62" s="55"/>
       <c r="F62" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G62" s="29"/>
@@ -3278,149 +3373,149 @@
       <c r="J62" s="29"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="124">
+      <c r="A63" s="76"/>
+      <c r="B63" s="26">
+        <v>41640</v>
+      </c>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55">
+        <f t="shared" ref="F63:F94" si="1">E63</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="76"/>
+      <c r="B64" s="26">
+        <v>41641</v>
+      </c>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="77"/>
+      <c r="B65" s="26">
+        <v>41642</v>
+      </c>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="72">
         <v>10</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B66" s="27">
         <v>41645</v>
       </c>
-      <c r="C63" s="134"/>
-      <c r="D63" s="134"/>
-      <c r="E63" s="134"/>
-      <c r="F63" s="134">
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G63" s="125"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="125"/>
-      <c r="J63" s="125"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="126"/>
-      <c r="B64" s="27">
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="67"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="73"/>
+      <c r="B67" s="27">
         <v>41646</v>
       </c>
-      <c r="C64" s="134"/>
-      <c r="D64" s="134"/>
-      <c r="E64" s="134"/>
-      <c r="F64" s="134">
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G64" s="125"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="125"/>
-      <c r="J64" s="125"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="126"/>
-      <c r="B65" s="27">
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="73"/>
+      <c r="B68" s="27">
         <v>41647</v>
       </c>
-      <c r="C65" s="134"/>
-      <c r="D65" s="134"/>
-      <c r="E65" s="134"/>
-      <c r="F65" s="134">
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G65" s="125"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="125"/>
-      <c r="J65" s="125"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="126"/>
-      <c r="B66" s="27">
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="73"/>
+      <c r="B69" s="27">
         <v>41648</v>
       </c>
-      <c r="C66" s="134"/>
-      <c r="D66" s="134"/>
-      <c r="E66" s="134"/>
-      <c r="F66" s="134">
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G66" s="125"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="125"/>
-      <c r="J66" s="125"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="127"/>
-      <c r="B67" s="27">
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="74"/>
+      <c r="B70" s="27">
         <v>41649</v>
       </c>
-      <c r="C67" s="134"/>
-      <c r="D67" s="134"/>
-      <c r="E67" s="134"/>
-      <c r="F67" s="134">
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G67" s="125"/>
-      <c r="H67" s="125"/>
-      <c r="I67" s="125"/>
-      <c r="J67" s="125"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="128">
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="75">
         <v>11</v>
       </c>
-      <c r="B68" s="26">
+      <c r="B71" s="26">
         <v>41652</v>
-      </c>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="129"/>
-      <c r="B69" s="26">
-        <v>41653</v>
-      </c>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="129"/>
-      <c r="B70" s="26">
-        <v>41654</v>
-      </c>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="129"/>
-      <c r="B71" s="26">
-        <v>41655</v>
       </c>
       <c r="C71" s="55"/>
       <c r="D71" s="55"/>
@@ -3435,9 +3530,9 @@
       <c r="J71" s="29"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="84"/>
+      <c r="A72" s="76"/>
       <c r="B72" s="26">
-        <v>41656</v>
+        <v>41653</v>
       </c>
       <c r="C72" s="55"/>
       <c r="D72" s="55"/>
@@ -3452,155 +3547,149 @@
       <c r="J72" s="29"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="124">
+      <c r="A73" s="76"/>
+      <c r="B73" s="26">
+        <v>41654</v>
+      </c>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="76"/>
+      <c r="B74" s="26">
+        <v>41655</v>
+      </c>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="77"/>
+      <c r="B75" s="26">
+        <v>41656</v>
+      </c>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="72">
         <v>12</v>
       </c>
-      <c r="B73" s="27">
+      <c r="B76" s="27">
         <v>41659</v>
       </c>
-      <c r="C73" s="134"/>
-      <c r="D73" s="134"/>
-      <c r="E73" s="134"/>
-      <c r="F73" s="134">
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G73" s="125"/>
-      <c r="H73" s="125"/>
-      <c r="I73" s="125"/>
-      <c r="J73" s="125"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="126"/>
-      <c r="B74" s="27">
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="67"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="73"/>
+      <c r="B77" s="27">
         <v>41660</v>
       </c>
-      <c r="C74" s="134"/>
-      <c r="D74" s="134"/>
-      <c r="E74" s="134"/>
-      <c r="F74" s="134">
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G74" s="125"/>
-      <c r="H74" s="125"/>
-      <c r="I74" s="125"/>
-      <c r="J74" s="125"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="126"/>
-      <c r="B75" s="27">
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="67"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="73"/>
+      <c r="B78" s="27">
         <v>41661</v>
       </c>
-      <c r="C75" s="134"/>
-      <c r="D75" s="134"/>
-      <c r="E75" s="134"/>
-      <c r="F75" s="134">
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G75" s="125"/>
-      <c r="H75" s="125"/>
-      <c r="I75" s="125"/>
-      <c r="J75" s="125"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="126"/>
-      <c r="B76" s="27">
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67"/>
+      <c r="J78" s="67"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="73"/>
+      <c r="B79" s="27">
         <v>41662</v>
       </c>
-      <c r="C76" s="134"/>
-      <c r="D76" s="134"/>
-      <c r="E76" s="134"/>
-      <c r="F76" s="134">
+      <c r="C79" s="69"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G76" s="125"/>
-      <c r="H76" s="125"/>
-      <c r="I76" s="125"/>
-      <c r="J76" s="125"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="127"/>
-      <c r="B77" s="27">
+      <c r="G79" s="67"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="67"/>
+      <c r="J79" s="67"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="74"/>
+      <c r="B80" s="27">
         <v>41663</v>
       </c>
-      <c r="C77" s="134"/>
-      <c r="D77" s="134"/>
-      <c r="E77" s="134"/>
-      <c r="F77" s="134">
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G77" s="125"/>
-      <c r="H77" s="125"/>
-      <c r="I77" s="125"/>
-      <c r="J77" s="125"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="128">
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="67"/>
+      <c r="J80" s="67"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="75">
         <v>13</v>
       </c>
-      <c r="B78" s="26">
+      <c r="B81" s="26">
         <v>41666</v>
-      </c>
-      <c r="C78" s="55"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="129"/>
-      <c r="B79" s="26">
-        <v>41667</v>
-      </c>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="129"/>
-      <c r="B80" s="26">
-        <v>41668</v>
-      </c>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="129"/>
-      <c r="B81" s="26">
-        <v>41669</v>
       </c>
       <c r="C81" s="55"/>
       <c r="D81" s="55"/>
@@ -3617,9 +3706,9 @@
       <c r="J81" s="29"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="84"/>
+      <c r="A82" s="76"/>
       <c r="B82" s="26">
-        <v>41670</v>
+        <v>41667</v>
       </c>
       <c r="C82" s="55"/>
       <c r="D82" s="55"/>
@@ -3636,159 +3725,165 @@
       <c r="J82" s="29"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="124">
+      <c r="A83" s="76"/>
+      <c r="B83" s="26">
+        <v>41668</v>
+      </c>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="76"/>
+      <c r="B84" s="26">
+        <v>41669</v>
+      </c>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="77"/>
+      <c r="B85" s="26">
+        <v>41670</v>
+      </c>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="72">
         <v>14</v>
       </c>
-      <c r="B83" s="27">
+      <c r="B86" s="27">
         <v>41673</v>
       </c>
-      <c r="C83" s="134"/>
-      <c r="D83" s="134"/>
-      <c r="E83" s="134"/>
-      <c r="F83" s="134">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H83" s="125"/>
-      <c r="I83" s="125"/>
-      <c r="J83" s="125"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="126"/>
-      <c r="B84" s="27">
-        <v>41674</v>
-      </c>
-      <c r="C84" s="134"/>
-      <c r="D84" s="134"/>
-      <c r="E84" s="134"/>
-      <c r="F84" s="134">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H84" s="125"/>
-      <c r="I84" s="125"/>
-      <c r="J84" s="125"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="126"/>
-      <c r="B85" s="27">
-        <v>41675</v>
-      </c>
-      <c r="C85" s="134"/>
-      <c r="D85" s="134"/>
-      <c r="E85" s="134"/>
-      <c r="F85" s="134">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H85" s="125"/>
-      <c r="I85" s="125"/>
-      <c r="J85" s="125"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="126"/>
-      <c r="B86" s="27">
-        <v>41676</v>
-      </c>
-      <c r="C86" s="134"/>
-      <c r="D86" s="134"/>
-      <c r="E86" s="134"/>
-      <c r="F86" s="134">
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="69"/>
+      <c r="F86" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G86" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H86" s="125"/>
-      <c r="I86" s="125"/>
-      <c r="J86" s="125"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="67"/>
+      <c r="J86" s="67"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="127"/>
+      <c r="A87" s="73"/>
       <c r="B87" s="27">
-        <v>41677</v>
-      </c>
-      <c r="C87" s="134"/>
-      <c r="D87" s="134"/>
-      <c r="E87" s="134"/>
-      <c r="F87" s="134">
+        <v>41674</v>
+      </c>
+      <c r="C87" s="69"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G87" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H87" s="125"/>
-      <c r="I87" s="125"/>
-      <c r="J87" s="125"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="67"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="128">
+      <c r="A88" s="73"/>
+      <c r="B88" s="27">
+        <v>41675</v>
+      </c>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" s="67"/>
+      <c r="I88" s="67"/>
+      <c r="J88" s="67"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="73"/>
+      <c r="B89" s="27">
+        <v>41676</v>
+      </c>
+      <c r="C89" s="69"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H89" s="67"/>
+      <c r="I89" s="67"/>
+      <c r="J89" s="67"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="74"/>
+      <c r="B90" s="27">
+        <v>41677</v>
+      </c>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H90" s="67"/>
+      <c r="I90" s="67"/>
+      <c r="J90" s="67"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="75">
         <v>15</v>
       </c>
-      <c r="B88" s="26">
+      <c r="B91" s="26">
         <v>41680</v>
-      </c>
-      <c r="C88" s="55"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="29"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="129"/>
-      <c r="B89" s="26">
-        <v>41681</v>
-      </c>
-      <c r="C89" s="55"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="29"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="129"/>
-      <c r="B90" s="26">
-        <v>41682</v>
-      </c>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="129"/>
-      <c r="B91" s="26">
-        <v>41683</v>
       </c>
       <c r="C91" s="55"/>
       <c r="D91" s="55"/>
@@ -3803,15 +3898,15 @@
       <c r="J91" s="29"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="84"/>
+      <c r="A92" s="76"/>
       <c r="B92" s="26">
-        <v>41684</v>
+        <v>41681</v>
       </c>
       <c r="C92" s="55"/>
       <c r="D92" s="55"/>
       <c r="E92" s="55"/>
       <c r="F92" s="55">
-        <f t="shared" ref="F92:F123" si="2">E92</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G92" s="29"/>
@@ -3820,149 +3915,149 @@
       <c r="J92" s="29"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="124">
+      <c r="A93" s="76"/>
+      <c r="B93" s="26">
+        <v>41682</v>
+      </c>
+      <c r="C93" s="55"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="76"/>
+      <c r="B94" s="26">
+        <v>41683</v>
+      </c>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="77"/>
+      <c r="B95" s="26">
+        <v>41684</v>
+      </c>
+      <c r="C95" s="55"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55">
+        <f t="shared" ref="F95:F126" si="2">E95</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="72">
         <v>16</v>
       </c>
-      <c r="B93" s="27">
+      <c r="B96" s="27">
         <v>41687</v>
       </c>
-      <c r="C93" s="134"/>
-      <c r="D93" s="134"/>
-      <c r="E93" s="134"/>
-      <c r="F93" s="134">
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G93" s="125"/>
-      <c r="H93" s="125"/>
-      <c r="I93" s="125"/>
-      <c r="J93" s="125"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="126"/>
-      <c r="B94" s="27">
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
+      <c r="J96" s="67"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="73"/>
+      <c r="B97" s="27">
         <v>41688</v>
       </c>
-      <c r="C94" s="134"/>
-      <c r="D94" s="134"/>
-      <c r="E94" s="134"/>
-      <c r="F94" s="134">
+      <c r="C97" s="69"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="69"/>
+      <c r="F97" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G94" s="125"/>
-      <c r="H94" s="125"/>
-      <c r="I94" s="125"/>
-      <c r="J94" s="125"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="126"/>
-      <c r="B95" s="27">
+      <c r="G97" s="67"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="67"/>
+      <c r="J97" s="67"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="73"/>
+      <c r="B98" s="27">
         <v>41689</v>
       </c>
-      <c r="C95" s="134"/>
-      <c r="D95" s="134"/>
-      <c r="E95" s="134"/>
-      <c r="F95" s="134">
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G95" s="125"/>
-      <c r="H95" s="125"/>
-      <c r="I95" s="125"/>
-      <c r="J95" s="125"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="126"/>
-      <c r="B96" s="27">
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="73"/>
+      <c r="B99" s="27">
         <v>41690</v>
       </c>
-      <c r="C96" s="134"/>
-      <c r="D96" s="134"/>
-      <c r="E96" s="134"/>
-      <c r="F96" s="134">
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G96" s="125"/>
-      <c r="H96" s="125"/>
-      <c r="I96" s="125"/>
-      <c r="J96" s="125"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="127"/>
-      <c r="B97" s="27">
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
+      <c r="J99" s="67"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="74"/>
+      <c r="B100" s="27">
         <v>41691</v>
       </c>
-      <c r="C97" s="134"/>
-      <c r="D97" s="134"/>
-      <c r="E97" s="134"/>
-      <c r="F97" s="134">
+      <c r="C100" s="69"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="69"/>
+      <c r="F100" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G97" s="125"/>
-      <c r="H97" s="125"/>
-      <c r="I97" s="125"/>
-      <c r="J97" s="125"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="128">
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="67"/>
+      <c r="J100" s="67"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="75">
         <v>17</v>
       </c>
-      <c r="B98" s="26">
+      <c r="B101" s="26">
         <v>41694</v>
-      </c>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="29"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="129"/>
-      <c r="B99" s="26">
-        <v>41695</v>
-      </c>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="129"/>
-      <c r="B100" s="26">
-        <v>41696</v>
-      </c>
-      <c r="C100" s="55"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="129"/>
-      <c r="B101" s="26">
-        <v>41697</v>
       </c>
       <c r="C101" s="55"/>
       <c r="D101" s="55"/>
@@ -3977,9 +4072,9 @@
       <c r="J101" s="29"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="84"/>
+      <c r="A102" s="76"/>
       <c r="B102" s="26">
-        <v>41698</v>
+        <v>41695</v>
       </c>
       <c r="C102" s="55"/>
       <c r="D102" s="55"/>
@@ -3994,149 +4089,149 @@
       <c r="J102" s="29"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="124">
+      <c r="A103" s="76"/>
+      <c r="B103" s="26">
+        <v>41696</v>
+      </c>
+      <c r="C103" s="55"/>
+      <c r="D103" s="55"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="76"/>
+      <c r="B104" s="26">
+        <v>41697</v>
+      </c>
+      <c r="C104" s="55"/>
+      <c r="D104" s="55"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="77"/>
+      <c r="B105" s="26">
+        <v>41698</v>
+      </c>
+      <c r="C105" s="55"/>
+      <c r="D105" s="55"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="72">
         <v>18</v>
       </c>
-      <c r="B103" s="27">
+      <c r="B106" s="27">
         <v>41701</v>
       </c>
-      <c r="C103" s="134"/>
-      <c r="D103" s="134"/>
-      <c r="E103" s="134"/>
-      <c r="F103" s="134">
+      <c r="C106" s="69"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="69"/>
+      <c r="F106" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G103" s="125"/>
-      <c r="H103" s="125"/>
-      <c r="I103" s="125"/>
-      <c r="J103" s="125"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="126"/>
-      <c r="B104" s="27">
+      <c r="G106" s="67"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="67"/>
+      <c r="J106" s="67"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="73"/>
+      <c r="B107" s="27">
         <v>41702</v>
       </c>
-      <c r="C104" s="134"/>
-      <c r="D104" s="134"/>
-      <c r="E104" s="134"/>
-      <c r="F104" s="134">
+      <c r="C107" s="69"/>
+      <c r="D107" s="69"/>
+      <c r="E107" s="69"/>
+      <c r="F107" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G104" s="125"/>
-      <c r="H104" s="125"/>
-      <c r="I104" s="125"/>
-      <c r="J104" s="125"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="126"/>
-      <c r="B105" s="27">
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="67"/>
+      <c r="J107" s="67"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="73"/>
+      <c r="B108" s="27">
         <v>41703</v>
       </c>
-      <c r="C105" s="134"/>
-      <c r="D105" s="134"/>
-      <c r="E105" s="134"/>
-      <c r="F105" s="134">
+      <c r="C108" s="69"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="69"/>
+      <c r="F108" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G105" s="125"/>
-      <c r="H105" s="125"/>
-      <c r="I105" s="125"/>
-      <c r="J105" s="125"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="126"/>
-      <c r="B106" s="27">
+      <c r="G108" s="67"/>
+      <c r="H108" s="67"/>
+      <c r="I108" s="67"/>
+      <c r="J108" s="67"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="73"/>
+      <c r="B109" s="27">
         <v>41704</v>
       </c>
-      <c r="C106" s="134"/>
-      <c r="D106" s="134"/>
-      <c r="E106" s="134"/>
-      <c r="F106" s="134">
+      <c r="C109" s="69"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="69"/>
+      <c r="F109" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G106" s="125"/>
-      <c r="H106" s="125"/>
-      <c r="I106" s="125"/>
-      <c r="J106" s="125"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="127"/>
-      <c r="B107" s="27">
+      <c r="G109" s="67"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="67"/>
+      <c r="J109" s="67"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="74"/>
+      <c r="B110" s="27">
         <v>41705</v>
       </c>
-      <c r="C107" s="134"/>
-      <c r="D107" s="134"/>
-      <c r="E107" s="134"/>
-      <c r="F107" s="134">
+      <c r="C110" s="69"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="69"/>
+      <c r="F110" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G107" s="125"/>
-      <c r="H107" s="125"/>
-      <c r="I107" s="125"/>
-      <c r="J107" s="125"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="128">
+      <c r="G110" s="67"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="67"/>
+      <c r="J110" s="67"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="75">
         <v>19</v>
       </c>
-      <c r="B108" s="26">
+      <c r="B111" s="26">
         <v>41708</v>
-      </c>
-      <c r="C108" s="55"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="55"/>
-      <c r="F108" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="29"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="129"/>
-      <c r="B109" s="26">
-        <v>41709</v>
-      </c>
-      <c r="C109" s="55"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="29"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="129"/>
-      <c r="B110" s="26">
-        <v>41710</v>
-      </c>
-      <c r="C110" s="55"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="55"/>
-      <c r="F110" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G110" s="29"/>
-      <c r="H110" s="29"/>
-      <c r="I110" s="29"/>
-      <c r="J110" s="29"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="129"/>
-      <c r="B111" s="26">
-        <v>41711</v>
       </c>
       <c r="C111" s="55"/>
       <c r="D111" s="55"/>
@@ -4151,9 +4246,9 @@
       <c r="J111" s="29"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="84"/>
+      <c r="A112" s="76"/>
       <c r="B112" s="26">
-        <v>41712</v>
+        <v>41709</v>
       </c>
       <c r="C112" s="55"/>
       <c r="D112" s="55"/>
@@ -4168,149 +4263,149 @@
       <c r="J112" s="29"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="124">
+      <c r="A113" s="76"/>
+      <c r="B113" s="26">
+        <v>41710</v>
+      </c>
+      <c r="C113" s="55"/>
+      <c r="D113" s="55"/>
+      <c r="E113" s="55"/>
+      <c r="F113" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="76"/>
+      <c r="B114" s="26">
+        <v>41711</v>
+      </c>
+      <c r="C114" s="55"/>
+      <c r="D114" s="55"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="29"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="77"/>
+      <c r="B115" s="26">
+        <v>41712</v>
+      </c>
+      <c r="C115" s="55"/>
+      <c r="D115" s="55"/>
+      <c r="E115" s="55"/>
+      <c r="F115" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="29"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="72">
         <v>20</v>
       </c>
-      <c r="B113" s="27">
+      <c r="B116" s="27">
         <v>41715</v>
       </c>
-      <c r="C113" s="134"/>
-      <c r="D113" s="134"/>
-      <c r="E113" s="134"/>
-      <c r="F113" s="134">
+      <c r="C116" s="69"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="69"/>
+      <c r="F116" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G113" s="125"/>
-      <c r="H113" s="125"/>
-      <c r="I113" s="125"/>
-      <c r="J113" s="125"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="126"/>
-      <c r="B114" s="27">
+      <c r="G116" s="67"/>
+      <c r="H116" s="67"/>
+      <c r="I116" s="67"/>
+      <c r="J116" s="67"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="73"/>
+      <c r="B117" s="27">
         <v>41716</v>
       </c>
-      <c r="C114" s="134"/>
-      <c r="D114" s="134"/>
-      <c r="E114" s="134"/>
-      <c r="F114" s="134">
+      <c r="C117" s="69"/>
+      <c r="D117" s="69"/>
+      <c r="E117" s="69"/>
+      <c r="F117" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G114" s="125"/>
-      <c r="H114" s="125"/>
-      <c r="I114" s="125"/>
-      <c r="J114" s="125"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="126"/>
-      <c r="B115" s="27">
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="67"/>
+      <c r="J117" s="67"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="73"/>
+      <c r="B118" s="27">
         <v>41717</v>
       </c>
-      <c r="C115" s="134"/>
-      <c r="D115" s="134"/>
-      <c r="E115" s="134"/>
-      <c r="F115" s="134">
+      <c r="C118" s="69"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="69"/>
+      <c r="F118" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G115" s="125"/>
-      <c r="H115" s="125"/>
-      <c r="I115" s="125"/>
-      <c r="J115" s="125"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="126"/>
-      <c r="B116" s="27">
+      <c r="G118" s="67"/>
+      <c r="H118" s="67"/>
+      <c r="I118" s="67"/>
+      <c r="J118" s="67"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="73"/>
+      <c r="B119" s="27">
         <v>41718</v>
       </c>
-      <c r="C116" s="134"/>
-      <c r="D116" s="134"/>
-      <c r="E116" s="134"/>
-      <c r="F116" s="134">
+      <c r="C119" s="69"/>
+      <c r="D119" s="69"/>
+      <c r="E119" s="69"/>
+      <c r="F119" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G116" s="125"/>
-      <c r="H116" s="125"/>
-      <c r="I116" s="125"/>
-      <c r="J116" s="125"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="127"/>
-      <c r="B117" s="27">
+      <c r="G119" s="67"/>
+      <c r="H119" s="67"/>
+      <c r="I119" s="67"/>
+      <c r="J119" s="67"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="74"/>
+      <c r="B120" s="27">
         <v>41719</v>
       </c>
-      <c r="C117" s="134"/>
-      <c r="D117" s="134"/>
-      <c r="E117" s="134"/>
-      <c r="F117" s="134">
+      <c r="C120" s="69"/>
+      <c r="D120" s="69"/>
+      <c r="E120" s="69"/>
+      <c r="F120" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G117" s="125"/>
-      <c r="H117" s="125"/>
-      <c r="I117" s="125"/>
-      <c r="J117" s="125"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="128">
+      <c r="G120" s="67"/>
+      <c r="H120" s="67"/>
+      <c r="I120" s="67"/>
+      <c r="J120" s="67"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="75">
         <v>21</v>
       </c>
-      <c r="B118" s="26">
+      <c r="B121" s="26">
         <v>41722</v>
-      </c>
-      <c r="C118" s="55"/>
-      <c r="D118" s="55"/>
-      <c r="E118" s="55"/>
-      <c r="F118" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="29"/>
-      <c r="H118" s="29"/>
-      <c r="I118" s="29"/>
-      <c r="J118" s="29"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="129"/>
-      <c r="B119" s="26">
-        <v>41723</v>
-      </c>
-      <c r="C119" s="55"/>
-      <c r="D119" s="55"/>
-      <c r="E119" s="55"/>
-      <c r="F119" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="29"/>
-      <c r="H119" s="29"/>
-      <c r="I119" s="29"/>
-      <c r="J119" s="29"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="129"/>
-      <c r="B120" s="26">
-        <v>41724</v>
-      </c>
-      <c r="C120" s="55"/>
-      <c r="D120" s="55"/>
-      <c r="E120" s="55"/>
-      <c r="F120" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G120" s="29"/>
-      <c r="H120" s="29"/>
-      <c r="I120" s="29"/>
-      <c r="J120" s="29"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="129"/>
-      <c r="B121" s="26">
-        <v>41725</v>
       </c>
       <c r="C121" s="55"/>
       <c r="D121" s="55"/>
@@ -4325,9 +4420,9 @@
       <c r="J121" s="29"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="84"/>
+      <c r="A122" s="76"/>
       <c r="B122" s="26">
-        <v>41726</v>
+        <v>41723</v>
       </c>
       <c r="C122" s="55"/>
       <c r="D122" s="55"/>
@@ -4342,149 +4437,149 @@
       <c r="J122" s="29"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="124">
+      <c r="A123" s="76"/>
+      <c r="B123" s="26">
+        <v>41724</v>
+      </c>
+      <c r="C123" s="55"/>
+      <c r="D123" s="55"/>
+      <c r="E123" s="55"/>
+      <c r="F123" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
+      <c r="J123" s="29"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="76"/>
+      <c r="B124" s="26">
+        <v>41725</v>
+      </c>
+      <c r="C124" s="55"/>
+      <c r="D124" s="55"/>
+      <c r="E124" s="55"/>
+      <c r="F124" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="29"/>
+      <c r="J124" s="29"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="77"/>
+      <c r="B125" s="26">
+        <v>41726</v>
+      </c>
+      <c r="C125" s="55"/>
+      <c r="D125" s="55"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="29"/>
+      <c r="J125" s="29"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="72">
         <v>22</v>
       </c>
-      <c r="B123" s="27">
+      <c r="B126" s="27">
         <v>41729</v>
       </c>
-      <c r="C123" s="134"/>
-      <c r="D123" s="134"/>
-      <c r="E123" s="134"/>
-      <c r="F123" s="134">
+      <c r="C126" s="69"/>
+      <c r="D126" s="69"/>
+      <c r="E126" s="69"/>
+      <c r="F126" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G123" s="125"/>
-      <c r="H123" s="125"/>
-      <c r="I123" s="125"/>
-      <c r="J123" s="125"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="126"/>
-      <c r="B124" s="27">
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="67"/>
+      <c r="J126" s="67"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="73"/>
+      <c r="B127" s="27">
         <v>41730</v>
       </c>
-      <c r="C124" s="134"/>
-      <c r="D124" s="134"/>
-      <c r="E124" s="134"/>
-      <c r="F124" s="134">
-        <f t="shared" ref="F124:F155" si="3">E124</f>
-        <v>0</v>
-      </c>
-      <c r="G124" s="125"/>
-      <c r="H124" s="125"/>
-      <c r="I124" s="125"/>
-      <c r="J124" s="125"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="126"/>
-      <c r="B125" s="27">
+      <c r="C127" s="69"/>
+      <c r="D127" s="69"/>
+      <c r="E127" s="69"/>
+      <c r="F127" s="69">
+        <f t="shared" ref="F127:F158" si="3">E127</f>
+        <v>0</v>
+      </c>
+      <c r="G127" s="67"/>
+      <c r="H127" s="67"/>
+      <c r="I127" s="67"/>
+      <c r="J127" s="67"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="73"/>
+      <c r="B128" s="27">
         <v>41731</v>
       </c>
-      <c r="C125" s="134"/>
-      <c r="D125" s="134"/>
-      <c r="E125" s="134"/>
-      <c r="F125" s="134">
+      <c r="C128" s="69"/>
+      <c r="D128" s="69"/>
+      <c r="E128" s="69"/>
+      <c r="F128" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G125" s="125"/>
-      <c r="H125" s="125"/>
-      <c r="I125" s="125"/>
-      <c r="J125" s="125"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="126"/>
-      <c r="B126" s="27">
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="67"/>
+      <c r="J128" s="67"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="73"/>
+      <c r="B129" s="27">
         <v>41732</v>
       </c>
-      <c r="C126" s="134"/>
-      <c r="D126" s="134"/>
-      <c r="E126" s="134"/>
-      <c r="F126" s="134">
+      <c r="C129" s="69"/>
+      <c r="D129" s="69"/>
+      <c r="E129" s="69"/>
+      <c r="F129" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G126" s="125"/>
-      <c r="H126" s="125"/>
-      <c r="I126" s="125"/>
-      <c r="J126" s="125"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="127"/>
-      <c r="B127" s="27">
+      <c r="G129" s="67"/>
+      <c r="H129" s="67"/>
+      <c r="I129" s="67"/>
+      <c r="J129" s="67"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="74"/>
+      <c r="B130" s="27">
         <v>41733</v>
       </c>
-      <c r="C127" s="134"/>
-      <c r="D127" s="134"/>
-      <c r="E127" s="134"/>
-      <c r="F127" s="134">
+      <c r="C130" s="69"/>
+      <c r="D130" s="69"/>
+      <c r="E130" s="69"/>
+      <c r="F130" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G127" s="125"/>
-      <c r="H127" s="125"/>
-      <c r="I127" s="125"/>
-      <c r="J127" s="125"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="128">
+      <c r="G130" s="67"/>
+      <c r="H130" s="67"/>
+      <c r="I130" s="67"/>
+      <c r="J130" s="67"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="75">
         <v>23</v>
       </c>
-      <c r="B128" s="26">
+      <c r="B131" s="26">
         <v>41736</v>
-      </c>
-      <c r="C128" s="55"/>
-      <c r="D128" s="55"/>
-      <c r="E128" s="55"/>
-      <c r="F128" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G128" s="29"/>
-      <c r="H128" s="29"/>
-      <c r="I128" s="29"/>
-      <c r="J128" s="29"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="129"/>
-      <c r="B129" s="26">
-        <v>41737</v>
-      </c>
-      <c r="C129" s="55"/>
-      <c r="D129" s="55"/>
-      <c r="E129" s="55"/>
-      <c r="F129" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G129" s="29"/>
-      <c r="H129" s="29"/>
-      <c r="I129" s="29"/>
-      <c r="J129" s="29"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="129"/>
-      <c r="B130" s="26">
-        <v>41738</v>
-      </c>
-      <c r="C130" s="55"/>
-      <c r="D130" s="55"/>
-      <c r="E130" s="55"/>
-      <c r="F130" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G130" s="29"/>
-      <c r="H130" s="29"/>
-      <c r="I130" s="29"/>
-      <c r="J130" s="29"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="129"/>
-      <c r="B131" s="26">
-        <v>41739</v>
       </c>
       <c r="C131" s="55"/>
       <c r="D131" s="55"/>
@@ -4499,9 +4594,9 @@
       <c r="J131" s="29"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="84"/>
+      <c r="A132" s="76"/>
       <c r="B132" s="26">
-        <v>41740</v>
+        <v>41737</v>
       </c>
       <c r="C132" s="55"/>
       <c r="D132" s="55"/>
@@ -4516,149 +4611,149 @@
       <c r="J132" s="29"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="124">
+      <c r="A133" s="76"/>
+      <c r="B133" s="26">
+        <v>41738</v>
+      </c>
+      <c r="C133" s="55"/>
+      <c r="D133" s="55"/>
+      <c r="E133" s="55"/>
+      <c r="F133" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
+      <c r="J133" s="29"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="76"/>
+      <c r="B134" s="26">
+        <v>41739</v>
+      </c>
+      <c r="C134" s="55"/>
+      <c r="D134" s="55"/>
+      <c r="E134" s="55"/>
+      <c r="F134" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="29"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="77"/>
+      <c r="B135" s="26">
+        <v>41740</v>
+      </c>
+      <c r="C135" s="55"/>
+      <c r="D135" s="55"/>
+      <c r="E135" s="55"/>
+      <c r="F135" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
+      <c r="J135" s="29"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="72">
         <v>24</v>
       </c>
-      <c r="B133" s="27">
+      <c r="B136" s="27">
         <v>41743</v>
       </c>
-      <c r="C133" s="134"/>
-      <c r="D133" s="134"/>
-      <c r="E133" s="134"/>
-      <c r="F133" s="134">
+      <c r="C136" s="69"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="69"/>
+      <c r="F136" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G133" s="125"/>
-      <c r="H133" s="125"/>
-      <c r="I133" s="125"/>
-      <c r="J133" s="125"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="126"/>
-      <c r="B134" s="27">
+      <c r="G136" s="67"/>
+      <c r="H136" s="67"/>
+      <c r="I136" s="67"/>
+      <c r="J136" s="67"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="73"/>
+      <c r="B137" s="27">
         <v>41744</v>
       </c>
-      <c r="C134" s="134"/>
-      <c r="D134" s="134"/>
-      <c r="E134" s="134"/>
-      <c r="F134" s="134">
+      <c r="C137" s="69"/>
+      <c r="D137" s="69"/>
+      <c r="E137" s="69"/>
+      <c r="F137" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G134" s="125"/>
-      <c r="H134" s="125"/>
-      <c r="I134" s="125"/>
-      <c r="J134" s="125"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="126"/>
-      <c r="B135" s="27">
+      <c r="G137" s="67"/>
+      <c r="H137" s="67"/>
+      <c r="I137" s="67"/>
+      <c r="J137" s="67"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="73"/>
+      <c r="B138" s="27">
         <v>41745</v>
       </c>
-      <c r="C135" s="134"/>
-      <c r="D135" s="134"/>
-      <c r="E135" s="134"/>
-      <c r="F135" s="134">
+      <c r="C138" s="69"/>
+      <c r="D138" s="69"/>
+      <c r="E138" s="69"/>
+      <c r="F138" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G135" s="125"/>
-      <c r="H135" s="125"/>
-      <c r="I135" s="125"/>
-      <c r="J135" s="125"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="126"/>
-      <c r="B136" s="27">
+      <c r="G138" s="67"/>
+      <c r="H138" s="67"/>
+      <c r="I138" s="67"/>
+      <c r="J138" s="67"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="73"/>
+      <c r="B139" s="27">
         <v>41746</v>
       </c>
-      <c r="C136" s="134"/>
-      <c r="D136" s="134"/>
-      <c r="E136" s="134"/>
-      <c r="F136" s="134">
+      <c r="C139" s="69"/>
+      <c r="D139" s="69"/>
+      <c r="E139" s="69"/>
+      <c r="F139" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G136" s="125"/>
-      <c r="H136" s="125"/>
-      <c r="I136" s="125"/>
-      <c r="J136" s="125"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="127"/>
-      <c r="B137" s="27">
+      <c r="G139" s="67"/>
+      <c r="H139" s="67"/>
+      <c r="I139" s="67"/>
+      <c r="J139" s="67"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="74"/>
+      <c r="B140" s="27">
         <v>41747</v>
       </c>
-      <c r="C137" s="134"/>
-      <c r="D137" s="134"/>
-      <c r="E137" s="134"/>
-      <c r="F137" s="134">
+      <c r="C140" s="69"/>
+      <c r="D140" s="69"/>
+      <c r="E140" s="69"/>
+      <c r="F140" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G137" s="125"/>
-      <c r="H137" s="125"/>
-      <c r="I137" s="125"/>
-      <c r="J137" s="125"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="128">
+      <c r="G140" s="67"/>
+      <c r="H140" s="67"/>
+      <c r="I140" s="67"/>
+      <c r="J140" s="67"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="75">
         <v>25</v>
       </c>
-      <c r="B138" s="26">
+      <c r="B141" s="26">
         <v>41750</v>
-      </c>
-      <c r="C138" s="55"/>
-      <c r="D138" s="55"/>
-      <c r="E138" s="55"/>
-      <c r="F138" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G138" s="29"/>
-      <c r="H138" s="29"/>
-      <c r="I138" s="29"/>
-      <c r="J138" s="29"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="129"/>
-      <c r="B139" s="26">
-        <v>41751</v>
-      </c>
-      <c r="C139" s="55"/>
-      <c r="D139" s="55"/>
-      <c r="E139" s="55"/>
-      <c r="F139" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G139" s="29"/>
-      <c r="H139" s="29"/>
-      <c r="I139" s="29"/>
-      <c r="J139" s="29"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="129"/>
-      <c r="B140" s="26">
-        <v>41752</v>
-      </c>
-      <c r="C140" s="55"/>
-      <c r="D140" s="55"/>
-      <c r="E140" s="55"/>
-      <c r="F140" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G140" s="29"/>
-      <c r="H140" s="29"/>
-      <c r="I140" s="29"/>
-      <c r="J140" s="29"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="129"/>
-      <c r="B141" s="26">
-        <v>41753</v>
       </c>
       <c r="C141" s="55"/>
       <c r="D141" s="55"/>
@@ -4673,9 +4768,9 @@
       <c r="J141" s="29"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="84"/>
+      <c r="A142" s="76"/>
       <c r="B142" s="26">
-        <v>41754</v>
+        <v>41751</v>
       </c>
       <c r="C142" s="55"/>
       <c r="D142" s="55"/>
@@ -4690,149 +4785,149 @@
       <c r="J142" s="29"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="124">
+      <c r="A143" s="76"/>
+      <c r="B143" s="26">
+        <v>41752</v>
+      </c>
+      <c r="C143" s="55"/>
+      <c r="D143" s="55"/>
+      <c r="E143" s="55"/>
+      <c r="F143" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="29"/>
+      <c r="H143" s="29"/>
+      <c r="I143" s="29"/>
+      <c r="J143" s="29"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="76"/>
+      <c r="B144" s="26">
+        <v>41753</v>
+      </c>
+      <c r="C144" s="55"/>
+      <c r="D144" s="55"/>
+      <c r="E144" s="55"/>
+      <c r="F144" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="29"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="29"/>
+      <c r="J144" s="29"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="77"/>
+      <c r="B145" s="26">
+        <v>41754</v>
+      </c>
+      <c r="C145" s="55"/>
+      <c r="D145" s="55"/>
+      <c r="E145" s="55"/>
+      <c r="F145" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G145" s="29"/>
+      <c r="H145" s="29"/>
+      <c r="I145" s="29"/>
+      <c r="J145" s="29"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="72">
         <v>26</v>
       </c>
-      <c r="B143" s="27">
+      <c r="B146" s="27">
         <v>41757</v>
       </c>
-      <c r="C143" s="134"/>
-      <c r="D143" s="134"/>
-      <c r="E143" s="134"/>
-      <c r="F143" s="134">
+      <c r="C146" s="69"/>
+      <c r="D146" s="69"/>
+      <c r="E146" s="69"/>
+      <c r="F146" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G143" s="125"/>
-      <c r="H143" s="125"/>
-      <c r="I143" s="125"/>
-      <c r="J143" s="125"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="126"/>
-      <c r="B144" s="27">
+      <c r="G146" s="67"/>
+      <c r="H146" s="67"/>
+      <c r="I146" s="67"/>
+      <c r="J146" s="67"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="73"/>
+      <c r="B147" s="27">
         <v>41758</v>
       </c>
-      <c r="C144" s="134"/>
-      <c r="D144" s="134"/>
-      <c r="E144" s="134"/>
-      <c r="F144" s="134">
+      <c r="C147" s="69"/>
+      <c r="D147" s="69"/>
+      <c r="E147" s="69"/>
+      <c r="F147" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G144" s="125"/>
-      <c r="H144" s="125"/>
-      <c r="I144" s="125"/>
-      <c r="J144" s="125"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="126"/>
-      <c r="B145" s="27">
+      <c r="G147" s="67"/>
+      <c r="H147" s="67"/>
+      <c r="I147" s="67"/>
+      <c r="J147" s="67"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="73"/>
+      <c r="B148" s="27">
         <v>41759</v>
       </c>
-      <c r="C145" s="134"/>
-      <c r="D145" s="134"/>
-      <c r="E145" s="134"/>
-      <c r="F145" s="134">
+      <c r="C148" s="69"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="69"/>
+      <c r="F148" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G145" s="125"/>
-      <c r="H145" s="125"/>
-      <c r="I145" s="125"/>
-      <c r="J145" s="125"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="126"/>
-      <c r="B146" s="27">
+      <c r="G148" s="67"/>
+      <c r="H148" s="67"/>
+      <c r="I148" s="67"/>
+      <c r="J148" s="67"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="73"/>
+      <c r="B149" s="27">
         <v>41760</v>
       </c>
-      <c r="C146" s="134"/>
-      <c r="D146" s="134"/>
-      <c r="E146" s="134"/>
-      <c r="F146" s="134">
+      <c r="C149" s="69"/>
+      <c r="D149" s="69"/>
+      <c r="E149" s="69"/>
+      <c r="F149" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G146" s="125"/>
-      <c r="H146" s="125"/>
-      <c r="I146" s="125"/>
-      <c r="J146" s="125"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="127"/>
-      <c r="B147" s="27">
+      <c r="G149" s="67"/>
+      <c r="H149" s="67"/>
+      <c r="I149" s="67"/>
+      <c r="J149" s="67"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="74"/>
+      <c r="B150" s="27">
         <v>41761</v>
       </c>
-      <c r="C147" s="134"/>
-      <c r="D147" s="134"/>
-      <c r="E147" s="134"/>
-      <c r="F147" s="134">
+      <c r="C150" s="69"/>
+      <c r="D150" s="69"/>
+      <c r="E150" s="69"/>
+      <c r="F150" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G147" s="125"/>
-      <c r="H147" s="125"/>
-      <c r="I147" s="125"/>
-      <c r="J147" s="125"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="128">
+      <c r="G150" s="67"/>
+      <c r="H150" s="67"/>
+      <c r="I150" s="67"/>
+      <c r="J150" s="67"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="75">
         <v>27</v>
       </c>
-      <c r="B148" s="26">
+      <c r="B151" s="26">
         <v>41764</v>
-      </c>
-      <c r="C148" s="55"/>
-      <c r="D148" s="55"/>
-      <c r="E148" s="55"/>
-      <c r="F148" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G148" s="29"/>
-      <c r="H148" s="29"/>
-      <c r="I148" s="29"/>
-      <c r="J148" s="29"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="129"/>
-      <c r="B149" s="26">
-        <v>41765</v>
-      </c>
-      <c r="C149" s="55"/>
-      <c r="D149" s="55"/>
-      <c r="E149" s="55"/>
-      <c r="F149" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G149" s="29"/>
-      <c r="H149" s="29"/>
-      <c r="I149" s="29"/>
-      <c r="J149" s="29"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="129"/>
-      <c r="B150" s="26">
-        <v>41766</v>
-      </c>
-      <c r="C150" s="55"/>
-      <c r="D150" s="55"/>
-      <c r="E150" s="55"/>
-      <c r="F150" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G150" s="29"/>
-      <c r="H150" s="29"/>
-      <c r="I150" s="29"/>
-      <c r="J150" s="29"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="129"/>
-      <c r="B151" s="26">
-        <v>41767</v>
       </c>
       <c r="C151" s="55"/>
       <c r="D151" s="55"/>
@@ -4847,9 +4942,9 @@
       <c r="J151" s="29"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="84"/>
+      <c r="A152" s="76"/>
       <c r="B152" s="26">
-        <v>41768</v>
+        <v>41765</v>
       </c>
       <c r="C152" s="55"/>
       <c r="D152" s="55"/>
@@ -4864,149 +4959,149 @@
       <c r="J152" s="29"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="124">
+      <c r="A153" s="76"/>
+      <c r="B153" s="26">
+        <v>41766</v>
+      </c>
+      <c r="C153" s="55"/>
+      <c r="D153" s="55"/>
+      <c r="E153" s="55"/>
+      <c r="F153" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G153" s="29"/>
+      <c r="H153" s="29"/>
+      <c r="I153" s="29"/>
+      <c r="J153" s="29"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="76"/>
+      <c r="B154" s="26">
+        <v>41767</v>
+      </c>
+      <c r="C154" s="55"/>
+      <c r="D154" s="55"/>
+      <c r="E154" s="55"/>
+      <c r="F154" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G154" s="29"/>
+      <c r="H154" s="29"/>
+      <c r="I154" s="29"/>
+      <c r="J154" s="29"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="77"/>
+      <c r="B155" s="26">
+        <v>41768</v>
+      </c>
+      <c r="C155" s="55"/>
+      <c r="D155" s="55"/>
+      <c r="E155" s="55"/>
+      <c r="F155" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G155" s="29"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="29"/>
+      <c r="J155" s="29"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="72">
         <v>28</v>
       </c>
-      <c r="B153" s="27">
+      <c r="B156" s="27">
         <v>41771</v>
       </c>
-      <c r="C153" s="134"/>
-      <c r="D153" s="134"/>
-      <c r="E153" s="134"/>
-      <c r="F153" s="134">
+      <c r="C156" s="69"/>
+      <c r="D156" s="69"/>
+      <c r="E156" s="69"/>
+      <c r="F156" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G153" s="125"/>
-      <c r="H153" s="125"/>
-      <c r="I153" s="125"/>
-      <c r="J153" s="125"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="126"/>
-      <c r="B154" s="27">
+      <c r="G156" s="67"/>
+      <c r="H156" s="67"/>
+      <c r="I156" s="67"/>
+      <c r="J156" s="67"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="73"/>
+      <c r="B157" s="27">
         <v>41772</v>
       </c>
-      <c r="C154" s="134"/>
-      <c r="D154" s="134"/>
-      <c r="E154" s="134"/>
-      <c r="F154" s="134">
+      <c r="C157" s="69"/>
+      <c r="D157" s="69"/>
+      <c r="E157" s="69"/>
+      <c r="F157" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G154" s="125"/>
-      <c r="H154" s="125"/>
-      <c r="I154" s="125"/>
-      <c r="J154" s="125"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="126"/>
-      <c r="B155" s="27">
+      <c r="G157" s="67"/>
+      <c r="H157" s="67"/>
+      <c r="I157" s="67"/>
+      <c r="J157" s="67"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="73"/>
+      <c r="B158" s="27">
         <v>41773</v>
       </c>
-      <c r="C155" s="134"/>
-      <c r="D155" s="134"/>
-      <c r="E155" s="134"/>
-      <c r="F155" s="134">
+      <c r="C158" s="69"/>
+      <c r="D158" s="69"/>
+      <c r="E158" s="69"/>
+      <c r="F158" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G155" s="125"/>
-      <c r="H155" s="125"/>
-      <c r="I155" s="125"/>
-      <c r="J155" s="125"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="126"/>
-      <c r="B156" s="27">
+      <c r="G158" s="67"/>
+      <c r="H158" s="67"/>
+      <c r="I158" s="67"/>
+      <c r="J158" s="67"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="73"/>
+      <c r="B159" s="27">
         <v>41774</v>
       </c>
-      <c r="C156" s="134"/>
-      <c r="D156" s="134"/>
-      <c r="E156" s="134"/>
-      <c r="F156" s="134">
-        <f t="shared" ref="F156:F167" si="4">E156</f>
-        <v>0</v>
-      </c>
-      <c r="G156" s="125"/>
-      <c r="H156" s="125"/>
-      <c r="I156" s="125"/>
-      <c r="J156" s="125"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="127"/>
-      <c r="B157" s="27">
+      <c r="C159" s="69"/>
+      <c r="D159" s="69"/>
+      <c r="E159" s="69"/>
+      <c r="F159" s="69">
+        <f t="shared" ref="F159:F170" si="4">E159</f>
+        <v>0</v>
+      </c>
+      <c r="G159" s="67"/>
+      <c r="H159" s="67"/>
+      <c r="I159" s="67"/>
+      <c r="J159" s="67"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="74"/>
+      <c r="B160" s="27">
         <v>41775</v>
       </c>
-      <c r="C157" s="134"/>
-      <c r="D157" s="134"/>
-      <c r="E157" s="134"/>
-      <c r="F157" s="134">
+      <c r="C160" s="69"/>
+      <c r="D160" s="69"/>
+      <c r="E160" s="69"/>
+      <c r="F160" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G157" s="125"/>
-      <c r="H157" s="125"/>
-      <c r="I157" s="125"/>
-      <c r="J157" s="125"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="128">
+      <c r="G160" s="67"/>
+      <c r="H160" s="67"/>
+      <c r="I160" s="67"/>
+      <c r="J160" s="67"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="75">
         <v>29</v>
       </c>
-      <c r="B158" s="26">
+      <c r="B161" s="26">
         <v>41778</v>
-      </c>
-      <c r="C158" s="55"/>
-      <c r="D158" s="55"/>
-      <c r="E158" s="55"/>
-      <c r="F158" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G158" s="29"/>
-      <c r="H158" s="29"/>
-      <c r="I158" s="29"/>
-      <c r="J158" s="29"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="129"/>
-      <c r="B159" s="26">
-        <v>41779</v>
-      </c>
-      <c r="C159" s="55"/>
-      <c r="D159" s="55"/>
-      <c r="E159" s="55"/>
-      <c r="F159" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G159" s="29"/>
-      <c r="H159" s="29"/>
-      <c r="I159" s="29"/>
-      <c r="J159" s="29"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="129"/>
-      <c r="B160" s="26">
-        <v>41780</v>
-      </c>
-      <c r="C160" s="55"/>
-      <c r="D160" s="55"/>
-      <c r="E160" s="55"/>
-      <c r="F160" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G160" s="29"/>
-      <c r="H160" s="29"/>
-      <c r="I160" s="29"/>
-      <c r="J160" s="29"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="129"/>
-      <c r="B161" s="26">
-        <v>41781</v>
       </c>
       <c r="C161" s="55"/>
       <c r="D161" s="55"/>
@@ -5021,9 +5116,9 @@
       <c r="J161" s="29"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="84"/>
+      <c r="A162" s="76"/>
       <c r="B162" s="26">
-        <v>41782</v>
+        <v>41779</v>
       </c>
       <c r="C162" s="55"/>
       <c r="D162" s="55"/>
@@ -5038,67 +5133,67 @@
       <c r="J162" s="29"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="130">
+      <c r="A163" s="76"/>
+      <c r="B163" s="26">
+        <v>41780</v>
+      </c>
+      <c r="C163" s="55"/>
+      <c r="D163" s="55"/>
+      <c r="E163" s="55"/>
+      <c r="F163" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="29"/>
+      <c r="H163" s="29"/>
+      <c r="I163" s="29"/>
+      <c r="J163" s="29"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="76"/>
+      <c r="B164" s="26">
+        <v>41781</v>
+      </c>
+      <c r="C164" s="55"/>
+      <c r="D164" s="55"/>
+      <c r="E164" s="55"/>
+      <c r="F164" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G164" s="29"/>
+      <c r="H164" s="29"/>
+      <c r="I164" s="29"/>
+      <c r="J164" s="29"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="77"/>
+      <c r="B165" s="26">
+        <v>41782</v>
+      </c>
+      <c r="C165" s="55"/>
+      <c r="D165" s="55"/>
+      <c r="E165" s="55"/>
+      <c r="F165" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G165" s="29"/>
+      <c r="H165" s="29"/>
+      <c r="I165" s="29"/>
+      <c r="J165" s="29"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="78">
         <v>30</v>
       </c>
-      <c r="B163" s="27">
+      <c r="B166" s="27">
         <v>41785</v>
       </c>
-      <c r="C163" s="135"/>
-      <c r="D163" s="135"/>
-      <c r="E163" s="135"/>
-      <c r="F163" s="135">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G163" s="37"/>
-      <c r="H163" s="37"/>
-      <c r="I163" s="37"/>
-      <c r="J163" s="37"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="131"/>
-      <c r="B164" s="27">
-        <v>41786</v>
-      </c>
-      <c r="C164" s="135"/>
-      <c r="D164" s="135"/>
-      <c r="E164" s="135"/>
-      <c r="F164" s="135">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G164" s="37"/>
-      <c r="H164" s="37"/>
-      <c r="I164" s="37"/>
-      <c r="J164" s="37"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="131"/>
-      <c r="B165" s="27">
-        <v>41787</v>
-      </c>
-      <c r="C165" s="135"/>
-      <c r="D165" s="135"/>
-      <c r="E165" s="135"/>
-      <c r="F165" s="135">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G165" s="37"/>
-      <c r="H165" s="37"/>
-      <c r="I165" s="37"/>
-      <c r="J165" s="37"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="131"/>
-      <c r="B166" s="27">
-        <v>41788</v>
-      </c>
-      <c r="C166" s="135"/>
-      <c r="D166" s="135"/>
-      <c r="E166" s="135"/>
-      <c r="F166" s="135">
+      <c r="C166" s="70"/>
+      <c r="D166" s="70"/>
+      <c r="E166" s="70"/>
+      <c r="F166" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5108,14 +5203,14 @@
       <c r="J166" s="37"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="132"/>
+      <c r="A167" s="79"/>
       <c r="B167" s="27">
-        <v>41789</v>
-      </c>
-      <c r="C167" s="135"/>
-      <c r="D167" s="135"/>
-      <c r="E167" s="135"/>
-      <c r="F167" s="135">
+        <v>41786</v>
+      </c>
+      <c r="C167" s="70"/>
+      <c r="D167" s="70"/>
+      <c r="E167" s="70"/>
+      <c r="F167" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5125,137 +5220,189 @@
       <c r="J167" s="37"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="133"/>
-      <c r="B168" s="133"/>
-      <c r="C168" s="133"/>
-      <c r="D168" s="133"/>
-      <c r="E168" s="133"/>
-      <c r="F168" s="133"/>
-      <c r="G168" s="133"/>
-      <c r="H168" s="133"/>
-      <c r="I168" s="133"/>
-      <c r="J168" s="133"/>
+      <c r="A168" s="79"/>
+      <c r="B168" s="27">
+        <v>41787</v>
+      </c>
+      <c r="C168" s="70"/>
+      <c r="D168" s="70"/>
+      <c r="E168" s="70"/>
+      <c r="F168" s="70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G168" s="37"/>
+      <c r="H168" s="37"/>
+      <c r="I168" s="37"/>
+      <c r="J168" s="37"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="133"/>
-      <c r="B169" s="133"/>
-      <c r="C169" s="133"/>
-      <c r="D169" s="133"/>
-      <c r="E169" s="133"/>
-      <c r="F169" s="133"/>
-      <c r="G169" s="133"/>
-      <c r="H169" s="133"/>
-      <c r="I169" s="133"/>
-      <c r="J169" s="133"/>
+      <c r="A169" s="79"/>
+      <c r="B169" s="27">
+        <v>41788</v>
+      </c>
+      <c r="C169" s="70"/>
+      <c r="D169" s="70"/>
+      <c r="E169" s="70"/>
+      <c r="F169" s="70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G169" s="37"/>
+      <c r="H169" s="37"/>
+      <c r="I169" s="37"/>
+      <c r="J169" s="37"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="133"/>
-      <c r="B170" s="133"/>
-      <c r="C170" s="133"/>
-      <c r="D170" s="133"/>
-      <c r="E170" s="133"/>
-      <c r="F170" s="133"/>
-      <c r="G170" s="133"/>
-      <c r="H170" s="133"/>
-      <c r="I170" s="133"/>
-      <c r="J170" s="133"/>
+      <c r="A170" s="80"/>
+      <c r="B170" s="27">
+        <v>41789</v>
+      </c>
+      <c r="C170" s="70"/>
+      <c r="D170" s="70"/>
+      <c r="E170" s="70"/>
+      <c r="F170" s="70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G170" s="37"/>
+      <c r="H170" s="37"/>
+      <c r="I170" s="37"/>
+      <c r="J170" s="37"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="133"/>
-      <c r="B171" s="133"/>
-      <c r="C171" s="133"/>
-      <c r="D171" s="133"/>
-      <c r="E171" s="133"/>
-      <c r="F171" s="133"/>
-      <c r="G171" s="133"/>
-      <c r="H171" s="133"/>
-      <c r="I171" s="133"/>
-      <c r="J171" s="133"/>
+      <c r="A171" s="68"/>
+      <c r="B171" s="68"/>
+      <c r="C171" s="68"/>
+      <c r="D171" s="68"/>
+      <c r="E171" s="68"/>
+      <c r="F171" s="68"/>
+      <c r="G171" s="68"/>
+      <c r="H171" s="68"/>
+      <c r="I171" s="68"/>
+      <c r="J171" s="68"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="133"/>
-      <c r="B172" s="133"/>
-      <c r="C172" s="133"/>
-      <c r="D172" s="133"/>
-      <c r="E172" s="133"/>
-      <c r="F172" s="133"/>
-      <c r="G172" s="133"/>
-      <c r="H172" s="133"/>
-      <c r="I172" s="133"/>
-      <c r="J172" s="133"/>
+      <c r="A172" s="68"/>
+      <c r="B172" s="68"/>
+      <c r="C172" s="68"/>
+      <c r="D172" s="68"/>
+      <c r="E172" s="68"/>
+      <c r="F172" s="68"/>
+      <c r="G172" s="68"/>
+      <c r="H172" s="68"/>
+      <c r="I172" s="68"/>
+      <c r="J172" s="68"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="133"/>
-      <c r="B173" s="133"/>
-      <c r="C173" s="133"/>
-      <c r="D173" s="133"/>
-      <c r="E173" s="133"/>
-      <c r="F173" s="133"/>
-      <c r="G173" s="133"/>
-      <c r="H173" s="133"/>
-      <c r="I173" s="133"/>
-      <c r="J173" s="133"/>
+      <c r="A173" s="68"/>
+      <c r="B173" s="68"/>
+      <c r="C173" s="68"/>
+      <c r="D173" s="68"/>
+      <c r="E173" s="68"/>
+      <c r="F173" s="68"/>
+      <c r="G173" s="68"/>
+      <c r="H173" s="68"/>
+      <c r="I173" s="68"/>
+      <c r="J173" s="68"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="133"/>
-      <c r="B174" s="133"/>
-      <c r="C174" s="133"/>
-      <c r="D174" s="133"/>
-      <c r="E174" s="133"/>
-      <c r="F174" s="133"/>
-      <c r="G174" s="133"/>
-      <c r="H174" s="133"/>
-      <c r="I174" s="133"/>
-      <c r="J174" s="133"/>
+      <c r="A174" s="68"/>
+      <c r="B174" s="68"/>
+      <c r="C174" s="68"/>
+      <c r="D174" s="68"/>
+      <c r="E174" s="68"/>
+      <c r="F174" s="68"/>
+      <c r="G174" s="68"/>
+      <c r="H174" s="68"/>
+      <c r="I174" s="68"/>
+      <c r="J174" s="68"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="133"/>
-      <c r="B175" s="133"/>
-      <c r="C175" s="133"/>
-      <c r="D175" s="133"/>
-      <c r="E175" s="133"/>
-      <c r="F175" s="133"/>
-      <c r="G175" s="133"/>
-      <c r="H175" s="133"/>
-      <c r="I175" s="133"/>
-      <c r="J175" s="133"/>
+      <c r="A175" s="68"/>
+      <c r="B175" s="68"/>
+      <c r="C175" s="68"/>
+      <c r="D175" s="68"/>
+      <c r="E175" s="68"/>
+      <c r="F175" s="68"/>
+      <c r="G175" s="68"/>
+      <c r="H175" s="68"/>
+      <c r="I175" s="68"/>
+      <c r="J175" s="68"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="133"/>
-      <c r="B176" s="133"/>
-      <c r="C176" s="133"/>
-      <c r="D176" s="133"/>
-      <c r="E176" s="133"/>
-      <c r="F176" s="133"/>
-      <c r="G176" s="133"/>
-      <c r="H176" s="133"/>
-      <c r="I176" s="133"/>
-      <c r="J176" s="133"/>
+      <c r="A176" s="68"/>
+      <c r="B176" s="68"/>
+      <c r="C176" s="68"/>
+      <c r="D176" s="68"/>
+      <c r="E176" s="68"/>
+      <c r="F176" s="68"/>
+      <c r="G176" s="68"/>
+      <c r="H176" s="68"/>
+      <c r="I176" s="68"/>
+      <c r="J176" s="68"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="68"/>
+      <c r="B177" s="68"/>
+      <c r="C177" s="68"/>
+      <c r="D177" s="68"/>
+      <c r="E177" s="68"/>
+      <c r="F177" s="68"/>
+      <c r="G177" s="68"/>
+      <c r="H177" s="68"/>
+      <c r="I177" s="68"/>
+      <c r="J177" s="68"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="68"/>
+      <c r="B178" s="68"/>
+      <c r="C178" s="68"/>
+      <c r="D178" s="68"/>
+      <c r="E178" s="68"/>
+      <c r="F178" s="68"/>
+      <c r="G178" s="68"/>
+      <c r="H178" s="68"/>
+      <c r="I178" s="68"/>
+      <c r="J178" s="68"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="68"/>
+      <c r="B179" s="68"/>
+      <c r="C179" s="68"/>
+      <c r="D179" s="68"/>
+      <c r="E179" s="68"/>
+      <c r="F179" s="68"/>
+      <c r="G179" s="68"/>
+      <c r="H179" s="68"/>
+      <c r="I179" s="68"/>
+      <c r="J179" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A68:A72"/>
+  <mergeCells count="53">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A71:A75"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="F12:F13"/>
@@ -5268,24 +5415,24 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="A19:A32"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A150"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
@@ -5479,67 +5626,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M33</xm:sqref>
+          <xm:sqref>M33:M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="31" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5558,7 +5648,7 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="30" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5577,7 +5667,7 @@
           <xm:sqref>M38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="29" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5596,7 +5686,7 @@
           <xm:sqref>M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="28" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5615,7 +5705,7 @@
           <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="27" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5634,7 +5724,7 @@
           <xm:sqref>M41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="26" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5653,7 +5743,7 @@
           <xm:sqref>M42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="25" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5672,7 +5762,7 @@
           <xm:sqref>M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="24" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5691,7 +5781,7 @@
           <xm:sqref>M44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="23" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5710,7 +5800,7 @@
           <xm:sqref>M45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="22" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5729,7 +5819,7 @@
           <xm:sqref>M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="21" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5748,7 +5838,7 @@
           <xm:sqref>M47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="20" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5767,7 +5857,7 @@
           <xm:sqref>M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="19" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5786,7 +5876,7 @@
           <xm:sqref>M49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="18" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5803,6 +5893,63 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="17" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="16" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="15" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="14" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -5878,7 +6025,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F14 F7:F8 F12 F18:F19 F21 F23:F24 F29 F33:F167</xm:sqref>
+          <xm:sqref>F14 F7:F8 F12 F18:F19 F21 F23:F24 F29 F33:F34 F38:F170</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{35213755-788E-43C8-B75E-72DA17285D4A}">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="List main task" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="137">
   <si>
     <t>Week</t>
   </si>
@@ -342,9 +342,6 @@
     <t>Review Requirement Plan, Architert Plan, Master Plan, Mapping with Scrum and ACDM</t>
   </si>
   <si>
-    <t>Devide work task about ACDM</t>
-  </si>
-  <si>
     <t>Conduct work assign</t>
   </si>
   <si>
@@ -443,6 +440,22 @@
   </si>
   <si>
     <t>Miss file Measurement Template</t>
+  </si>
+  <si>
+    <t>3:50PM</t>
+  </si>
+  <si>
+    <t>Raise some question for future system</t>
+  </si>
+  <si>
+    <t>4:20PM</t>
+  </si>
+  <si>
+    <t>Collect questions from members
+Establish meeting with customer</t>
+  </si>
+  <si>
+    <t>Question - Tong hop</t>
   </si>
 </sst>
 </file>
@@ -957,6 +970,63 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,13 +1036,130 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,180 +1169,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1468,7 +1481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1591,13 +1604,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O179"/>
+  <dimension ref="A1:O180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1618,81 +1631,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="121"/>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="124" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="126"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="78"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="81"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="132"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="118"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="15"/>
       <c r="H5" s="41" t="s">
         <v>64</v>
@@ -1737,13 +1750,13 @@
       <c r="J6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="133">
+      <c r="A7" s="85">
         <v>1</v>
       </c>
       <c r="B7" s="16">
@@ -1769,21 +1782,21 @@
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="81" t="s">
+      <c r="K7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="81"/>
+      <c r="L7" s="115"/>
       <c r="M7" s="32">
-        <f>SUM(M8:M53)</f>
-        <v>50.489999999999995</v>
+        <f>SUM(M8:M54)</f>
+        <v>53.319999999999993</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="134"/>
-      <c r="B8" s="112">
+      <c r="A8" s="86"/>
+      <c r="B8" s="103">
         <v>41586</v>
       </c>
       <c r="C8" s="17">
@@ -1795,7 +1808,7 @@
       <c r="E8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="114">
+      <c r="F8" s="105">
         <v>1.67</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -1819,8 +1832,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="135"/>
-      <c r="B9" s="113"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1830,7 +1843,7 @@
       <c r="E9" s="18">
         <v>0.5</v>
       </c>
-      <c r="F9" s="115"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="29" t="s">
         <v>23</v>
       </c>
@@ -1841,10 +1854,10 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="90">
+      <c r="A10" s="124">
         <v>2</v>
       </c>
-      <c r="B10" s="93">
+      <c r="B10" s="127">
         <v>41589</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -1856,7 +1869,7 @@
       <c r="E10" s="59">
         <v>2.5</v>
       </c>
-      <c r="F10" s="95">
+      <c r="F10" s="129">
         <f>SUM(E10:E11)</f>
         <v>5</v>
       </c>
@@ -1870,8 +1883,8 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="125"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="58" t="s">
         <v>76</v>
       </c>
@@ -1881,7 +1894,7 @@
       <c r="E11" s="59">
         <v>2.5</v>
       </c>
-      <c r="F11" s="96"/>
+      <c r="F11" s="130"/>
       <c r="G11" s="60" t="s">
         <v>22</v>
       </c>
@@ -1894,8 +1907,8 @@
       <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
-      <c r="B12" s="82">
+      <c r="A12" s="125"/>
+      <c r="B12" s="116">
         <v>41590</v>
       </c>
       <c r="C12" s="22">
@@ -1907,7 +1920,7 @@
       <c r="E12" s="23">
         <v>2.25</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F12" s="118">
         <v>3.75</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -1934,8 +1947,8 @@
       <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
-      <c r="B13" s="83"/>
+      <c r="A13" s="125"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="22">
         <v>0.91666666666666663</v>
       </c>
@@ -1945,7 +1958,7 @@
       <c r="E13" s="23">
         <v>1.5</v>
       </c>
-      <c r="F13" s="85"/>
+      <c r="F13" s="119"/>
       <c r="G13" s="45" t="s">
         <v>28</v>
       </c>
@@ -1961,8 +1974,8 @@
       <c r="O13" s="34"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
-      <c r="B14" s="82">
+      <c r="A14" s="125"/>
+      <c r="B14" s="116">
         <v>41591</v>
       </c>
       <c r="C14" s="22">
@@ -1974,7 +1987,7 @@
       <c r="E14" s="23">
         <v>2</v>
       </c>
-      <c r="F14" s="87">
+      <c r="F14" s="121">
         <v>4.5</v>
       </c>
       <c r="G14" s="45" t="s">
@@ -1992,8 +2005,8 @@
       <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
-      <c r="B15" s="86"/>
+      <c r="A15" s="125"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="25">
         <v>0.5625</v>
       </c>
@@ -2003,7 +2016,7 @@
       <c r="E15" s="28">
         <v>2</v>
       </c>
-      <c r="F15" s="88"/>
+      <c r="F15" s="122"/>
       <c r="G15" s="30" t="s">
         <v>19</v>
       </c>
@@ -2020,8 +2033,8 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="25">
         <v>0.83333333333333337</v>
       </c>
@@ -2031,7 +2044,7 @@
       <c r="E16" s="28">
         <v>0.5</v>
       </c>
-      <c r="F16" s="89"/>
+      <c r="F16" s="123"/>
       <c r="G16" s="45" t="s">
         <v>28</v>
       </c>
@@ -2055,7 +2068,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
+      <c r="A17" s="125"/>
       <c r="B17" s="47">
         <v>41592</v>
       </c>
@@ -2082,19 +2095,19 @@
       </c>
       <c r="J17" s="37"/>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="9">
-        <f>SUM(F33:F40)</f>
-        <v>8.75</v>
+        <f>SUM(F33:F41)</f>
+        <v>11.58</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
+      <c r="A18" s="126"/>
       <c r="B18" s="42">
         <v>41593</v>
       </c>
@@ -2125,7 +2138,7 @@
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="9">
-        <f>SUM(E41:E45)</f>
+        <f>SUM(E42:E46)</f>
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
@@ -2133,10 +2146,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="100">
+      <c r="A19" s="133">
         <v>3</v>
       </c>
-      <c r="B19" s="97">
+      <c r="B19" s="131">
         <v>41596</v>
       </c>
       <c r="C19" s="53" t="s">
@@ -2148,7 +2161,7 @@
       <c r="E19" s="50">
         <v>0.5</v>
       </c>
-      <c r="F19" s="99">
+      <c r="F19" s="89">
         <f>SUM(E19:E20)</f>
         <v>3.5</v>
       </c>
@@ -2167,7 +2180,7 @@
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="9">
-        <f>SUM(E56:E60)</f>
+        <f>SUM(E57:E61)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -2175,8 +2188,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
-      <c r="B20" s="98"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="53" t="s">
         <v>81</v>
       </c>
@@ -2186,7 +2199,7 @@
       <c r="E20" s="50">
         <v>3</v>
       </c>
-      <c r="F20" s="77"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="49" t="s">
         <v>22</v>
       </c>
@@ -2203,8 +2216,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="101"/>
-      <c r="B21" s="97">
+      <c r="A21" s="134"/>
+      <c r="B21" s="131">
         <v>41597</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -2216,7 +2229,7 @@
       <c r="E21" s="50">
         <v>2</v>
       </c>
-      <c r="F21" s="99">
+      <c r="F21" s="89">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2236,8 +2249,8 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="101"/>
-      <c r="B22" s="98"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="53" t="s">
         <v>84</v>
       </c>
@@ -2247,7 +2260,7 @@
       <c r="E22" s="50">
         <v>0.5</v>
       </c>
-      <c r="F22" s="77"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="49" t="s">
         <v>22</v>
       </c>
@@ -2263,7 +2276,7 @@
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="9">
-        <f>SUM(E61:E65)</f>
+        <f>SUM(E62:E66)</f>
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -2271,7 +2284,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="101"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="26">
         <v>41598</v>
       </c>
@@ -2285,7 +2298,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="55">
-        <f t="shared" ref="F23:F62" si="0">E23</f>
+        <f t="shared" ref="F23:F63" si="0">E23</f>
         <v>4</v>
       </c>
       <c r="G23" s="57" t="s">
@@ -2303,7 +2316,7 @@
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="9">
-        <f>SUM(E66:E70)</f>
+        <f>SUM(E67:E71)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2311,7 +2324,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="101"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="26">
         <v>41599</v>
       </c>
@@ -2324,7 +2337,7 @@
       <c r="E24" s="50">
         <v>1</v>
       </c>
-      <c r="F24" s="99">
+      <c r="F24" s="89">
         <f>SUM(E24:E28)</f>
         <v>6.9</v>
       </c>
@@ -2342,7 +2355,7 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="101"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="26">
         <v>41599</v>
       </c>
@@ -2355,12 +2368,12 @@
       <c r="E25" s="50">
         <v>1.3</v>
       </c>
-      <c r="F25" s="119"/>
+      <c r="F25" s="112"/>
       <c r="G25" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="51" t="s">
-        <v>101</v>
+      <c r="H25" s="51">
+        <v>1</v>
       </c>
       <c r="I25" s="56"/>
       <c r="J25" s="39"/>
@@ -2370,7 +2383,7 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="101"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="26">
         <v>41599</v>
       </c>
@@ -2383,15 +2396,15 @@
       <c r="E26" s="50">
         <v>1.5</v>
       </c>
-      <c r="F26" s="119"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="57" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I26" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J26" s="39"/>
       <c r="K26" s="7"/>
@@ -2400,7 +2413,7 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="101"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="26">
         <v>41599</v>
       </c>
@@ -2413,12 +2426,12 @@
       <c r="E27" s="50">
         <v>2.1</v>
       </c>
-      <c r="F27" s="119"/>
+      <c r="F27" s="112"/>
       <c r="G27" s="29" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I27" s="29"/>
       <c r="J27" s="39"/>
@@ -2427,7 +2440,7 @@
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="9">
-        <f>SUM(E71:E75)</f>
+        <f>SUM(E72:E76)</f>
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -2435,7 +2448,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="101"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="26">
         <v>41599</v>
       </c>
@@ -2443,17 +2456,17 @@
         <v>76</v>
       </c>
       <c r="D28" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="50">
         <v>1</v>
       </c>
-      <c r="F28" s="120"/>
+      <c r="F28" s="113"/>
       <c r="G28" s="29" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I28" s="29"/>
       <c r="J28" s="39"/>
@@ -2463,20 +2476,20 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="101"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="26">
         <v>41600</v>
       </c>
       <c r="C29" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="64" t="s">
         <v>107</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>108</v>
       </c>
       <c r="E29" s="50">
         <v>1.2</v>
       </c>
-      <c r="F29" s="99">
+      <c r="F29" s="89">
         <f>SUM(E29:E30)</f>
         <v>3.2</v>
       </c>
@@ -2492,25 +2505,25 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A30" s="101"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="26">
         <v>41600</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E30" s="50">
         <v>2</v>
       </c>
-      <c r="F30" s="77"/>
+      <c r="F30" s="90"/>
       <c r="G30" s="57" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I30" s="39"/>
       <c r="J30" s="39"/>
@@ -2519,7 +2532,7 @@
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="9">
-        <f>SUM(E76:E80)</f>
+        <f>SUM(E77:E81)</f>
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -2527,20 +2540,20 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="101"/>
+      <c r="A31" s="134"/>
       <c r="B31" s="26">
         <v>41601</v>
       </c>
       <c r="C31" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="55" t="s">
         <v>111</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>112</v>
       </c>
       <c r="E31" s="50">
         <v>3.5</v>
       </c>
-      <c r="F31" s="99">
+      <c r="F31" s="89">
         <f>SUM(E31:E32)</f>
         <v>4.4000000000000004</v>
       </c>
@@ -2548,7 +2561,7 @@
         <v>22</v>
       </c>
       <c r="H31" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I31" s="56" t="s">
         <v>91</v>
@@ -2560,25 +2573,25 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="102"/>
+      <c r="A32" s="135"/>
       <c r="B32" s="26">
         <v>41601</v>
       </c>
       <c r="C32" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="55" t="s">
         <v>114</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>115</v>
       </c>
       <c r="E32" s="50">
         <v>0.9</v>
       </c>
-      <c r="F32" s="77"/>
+      <c r="F32" s="90"/>
       <c r="G32" s="57" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I32" s="56" t="s">
         <v>91</v>
@@ -2590,14 +2603,14 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="72">
+      <c r="A33" s="91">
         <v>4</v>
       </c>
       <c r="B33" s="27">
         <v>41603</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" s="69" t="s">
         <v>82</v>
@@ -2613,10 +2626,10 @@
         <v>22</v>
       </c>
       <c r="H33" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I33" s="67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J33" s="67"/>
       <c r="K33" s="7" t="s">
@@ -2624,7 +2637,7 @@
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="9">
-        <f>SUM(E81:E85)</f>
+        <f>SUM(E82:E86)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -2632,20 +2645,20 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="27">
         <v>41604</v>
       </c>
       <c r="C34" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="69" t="s">
         <v>121</v>
-      </c>
-      <c r="D34" s="69" t="s">
-        <v>122</v>
       </c>
       <c r="E34" s="28">
         <v>1</v>
       </c>
-      <c r="F34" s="138">
+      <c r="F34" s="114">
         <f>SUM(E34:E37)</f>
         <v>5.75</v>
       </c>
@@ -2653,7 +2666,7 @@
         <v>22</v>
       </c>
       <c r="H34" s="71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I34" s="67"/>
       <c r="J34" s="67"/>
@@ -2663,28 +2676,28 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
+      <c r="A35" s="92"/>
       <c r="B35" s="27">
         <v>41604</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="137" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="72" t="s">
         <v>77</v>
       </c>
       <c r="E35" s="28">
         <v>1.5</v>
       </c>
-      <c r="F35" s="73"/>
+      <c r="F35" s="92"/>
       <c r="G35" s="67" t="s">
         <v>23</v>
       </c>
       <c r="H35" s="71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I35" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J35" s="67"/>
       <c r="K35" s="7"/>
@@ -2693,28 +2706,28 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
+      <c r="A36" s="92"/>
       <c r="B36" s="27">
         <v>41604</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="137" t="s">
-        <v>123</v>
+        <v>106</v>
+      </c>
+      <c r="D36" s="72" t="s">
+        <v>122</v>
       </c>
       <c r="E36" s="28">
         <v>1.25</v>
       </c>
-      <c r="F36" s="73"/>
+      <c r="F36" s="92"/>
       <c r="G36" s="67" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" s="67" t="s">
         <v>127</v>
-      </c>
-      <c r="I36" s="67" t="s">
-        <v>128</v>
       </c>
       <c r="J36" s="67"/>
       <c r="K36" s="7"/>
@@ -2723,38 +2736,38 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="27">
         <v>41604</v>
       </c>
       <c r="C37" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="69" t="s">
         <v>123</v>
-      </c>
-      <c r="D37" s="69" t="s">
-        <v>124</v>
       </c>
       <c r="E37" s="69">
         <v>2</v>
       </c>
-      <c r="F37" s="74"/>
+      <c r="F37" s="93"/>
       <c r="G37" s="67" t="s">
         <v>22</v>
       </c>
       <c r="H37" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="J37" s="67" t="s">
         <v>131</v>
-      </c>
-      <c r="I37" s="71" t="s">
-        <v>130</v>
-      </c>
-      <c r="J37" s="67" t="s">
-        <v>132</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="9">
-        <f>SUM(E86:E90)</f>
+        <f>SUM(E87:E91)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2762,19 +2775,29 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
+      <c r="A38" s="92"/>
       <c r="B38" s="27">
         <v>41605</v>
       </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
+      <c r="C38" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="69">
+        <v>2.33</v>
+      </c>
+      <c r="F38" s="91">
+        <f>SUM(E38:E39)</f>
+        <v>2.83</v>
+      </c>
+      <c r="G38" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="67" t="s">
+        <v>133</v>
+      </c>
       <c r="I38" s="67"/>
       <c r="J38" s="67"/>
       <c r="K38" s="7" t="s">
@@ -2782,45 +2805,47 @@
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="9">
-        <f>SUM(E91:E95)</f>
+        <f>SUM(E92:E96)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
+    <row r="39" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="92"/>
       <c r="B39" s="27">
+        <v>41605</v>
+      </c>
+      <c r="C39" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="93"/>
+      <c r="G39" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="J39" s="67"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="92"/>
+      <c r="B40" s="27">
         <v>41606</v>
-      </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="9">
-        <f>SUM(E96:E100)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
-      <c r="B40" s="27">
-        <v>41607</v>
       </c>
       <c r="C40" s="69"/>
       <c r="D40" s="69"/>
@@ -2834,11 +2859,11 @@
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
       <c r="K40" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="9">
-        <f>SUM(E101:E105)</f>
+        <f>SUM(E97:E101)</f>
         <v>0</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -2846,29 +2871,27 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="75">
-        <v>5</v>
-      </c>
-      <c r="B41" s="26">
-        <v>41610</v>
-      </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55">
+      <c r="A41" s="93"/>
+      <c r="B41" s="27">
+        <v>41607</v>
+      </c>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
       <c r="K41" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="9">
-        <f>SUM(E106:E110)</f>
+        <f>SUM(E102:E106)</f>
         <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -2876,9 +2899,11 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="76"/>
+      <c r="A42" s="110">
+        <v>5</v>
+      </c>
       <c r="B42" s="26">
-        <v>41611</v>
+        <v>41610</v>
       </c>
       <c r="C42" s="55"/>
       <c r="D42" s="55"/>
@@ -2892,11 +2917,11 @@
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
       <c r="K42" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="9">
-        <f>SUM(E111:E115)</f>
+        <f>SUM(E107:E111)</f>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -2904,9 +2929,9 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="76"/>
+      <c r="A43" s="111"/>
       <c r="B43" s="26">
-        <v>41612</v>
+        <v>41611</v>
       </c>
       <c r="C43" s="55"/>
       <c r="D43" s="55"/>
@@ -2920,11 +2945,11 @@
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
       <c r="K43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="9">
-        <f>SUM(E116:E120)</f>
+        <f>SUM(E112:E116)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
@@ -2932,9 +2957,9 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="76"/>
+      <c r="A44" s="111"/>
       <c r="B44" s="26">
-        <v>41613</v>
+        <v>41612</v>
       </c>
       <c r="C44" s="55"/>
       <c r="D44" s="55"/>
@@ -2948,11 +2973,11 @@
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
       <c r="K44" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="9">
-        <f>SUM(E121:E125)</f>
+        <f>SUM(E117:E121)</f>
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -2960,9 +2985,9 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
+      <c r="A45" s="111"/>
       <c r="B45" s="26">
-        <v>41614</v>
+        <v>41613</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="55"/>
@@ -2976,11 +3001,11 @@
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
       <c r="K45" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="9">
-        <f>SUM(E126:E130)</f>
+        <f>SUM(E122:E126)</f>
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
@@ -2988,29 +3013,27 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="72">
-        <v>6</v>
-      </c>
-      <c r="B46" s="27">
-        <v>41617</v>
-      </c>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69">
+      <c r="A46" s="90"/>
+      <c r="B46" s="26">
+        <v>41614</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
       <c r="K46" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="9">
-        <f>SUM(E131:E135)</f>
+        <f>SUM(E127:E131)</f>
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
@@ -3018,9 +3041,11 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="73"/>
+      <c r="A47" s="91">
+        <v>6</v>
+      </c>
       <c r="B47" s="27">
-        <v>41618</v>
+        <v>41617</v>
       </c>
       <c r="C47" s="69"/>
       <c r="D47" s="69"/>
@@ -3034,11 +3059,11 @@
       <c r="I47" s="67"/>
       <c r="J47" s="67"/>
       <c r="K47" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="9">
-        <f>SUM(E136:E140)</f>
+        <f>SUM(E132:E136)</f>
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
@@ -3046,9 +3071,9 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="73"/>
+      <c r="A48" s="92"/>
       <c r="B48" s="27">
-        <v>41619</v>
+        <v>41618</v>
       </c>
       <c r="C48" s="69"/>
       <c r="D48" s="69"/>
@@ -3062,11 +3087,11 @@
       <c r="I48" s="67"/>
       <c r="J48" s="67"/>
       <c r="K48" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="9">
-        <f>SUM(E141:E145)</f>
+        <f>SUM(E137:E141)</f>
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
@@ -3074,9 +3099,9 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="73"/>
+      <c r="A49" s="92"/>
       <c r="B49" s="27">
-        <v>41620</v>
+        <v>41619</v>
       </c>
       <c r="C49" s="69"/>
       <c r="D49" s="69"/>
@@ -3090,11 +3115,11 @@
       <c r="I49" s="67"/>
       <c r="J49" s="67"/>
       <c r="K49" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="9">
-        <f>SUM(E146:E150)</f>
+        <f>SUM(E142:E146)</f>
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
@@ -3102,9 +3127,9 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="74"/>
+      <c r="A50" s="92"/>
       <c r="B50" s="27">
-        <v>41621</v>
+        <v>41620</v>
       </c>
       <c r="C50" s="69"/>
       <c r="D50" s="69"/>
@@ -3118,11 +3143,11 @@
       <c r="I50" s="67"/>
       <c r="J50" s="67"/>
       <c r="K50" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="9">
-        <f>SUM(E151:E155)</f>
+        <f>SUM(E147:E151)</f>
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
@@ -3130,29 +3155,27 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="75">
-        <v>7</v>
-      </c>
-      <c r="B51" s="26">
-        <v>41624</v>
-      </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55">
+      <c r="A51" s="93"/>
+      <c r="B51" s="27">
+        <v>41621</v>
+      </c>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
       <c r="K51" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="9">
-        <f>SUM(E156:E160)</f>
+        <f>SUM(E152:E156)</f>
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
@@ -3160,9 +3183,11 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="76"/>
+      <c r="A52" s="110">
+        <v>7</v>
+      </c>
       <c r="B52" s="26">
-        <v>41625</v>
+        <v>41624</v>
       </c>
       <c r="C52" s="55"/>
       <c r="D52" s="55"/>
@@ -3176,11 +3201,11 @@
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
       <c r="K52" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="9">
-        <f>SUM(E161:E165)</f>
+        <f>SUM(E157:E161)</f>
         <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
@@ -3188,9 +3213,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="76"/>
+      <c r="A53" s="111"/>
       <c r="B53" s="26">
-        <v>41626</v>
+        <v>41625</v>
       </c>
       <c r="C53" s="55"/>
       <c r="D53" s="55"/>
@@ -3204,11 +3229,11 @@
       <c r="I53" s="29"/>
       <c r="J53" s="29"/>
       <c r="K53" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="9">
-        <f>SUM(E166:E170)</f>
+        <f>SUM(E162:E166)</f>
         <v>0</v>
       </c>
       <c r="N53" s="3" t="s">
@@ -3216,9 +3241,9 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="76"/>
+      <c r="A54" s="111"/>
       <c r="B54" s="26">
-        <v>41627</v>
+        <v>41626</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
@@ -3231,11 +3256,22 @@
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
       <c r="J54" s="29"/>
+      <c r="K54" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L54" s="5"/>
+      <c r="M54" s="9">
+        <f>SUM(E167:E171)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="77"/>
+      <c r="A55" s="111"/>
       <c r="B55" s="26">
-        <v>41628</v>
+        <v>41627</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
@@ -3250,28 +3286,28 @@
       <c r="J55" s="29"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="72">
+      <c r="A56" s="90"/>
+      <c r="B56" s="26">
+        <v>41628</v>
+      </c>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="91">
         <v>8</v>
       </c>
-      <c r="B56" s="27">
+      <c r="B57" s="27">
         <v>41631</v>
-      </c>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="73"/>
-      <c r="B57" s="27">
-        <v>41632</v>
       </c>
       <c r="C57" s="69"/>
       <c r="D57" s="69"/>
@@ -3286,9 +3322,9 @@
       <c r="J57" s="67"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="73"/>
+      <c r="A58" s="92"/>
       <c r="B58" s="27">
-        <v>41633</v>
+        <v>41632</v>
       </c>
       <c r="C58" s="69"/>
       <c r="D58" s="69"/>
@@ -3303,9 +3339,9 @@
       <c r="J58" s="67"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="73"/>
+      <c r="A59" s="92"/>
       <c r="B59" s="27">
-        <v>41634</v>
+        <v>41633</v>
       </c>
       <c r="C59" s="69"/>
       <c r="D59" s="69"/>
@@ -3320,9 +3356,9 @@
       <c r="J59" s="67"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="74"/>
+      <c r="A60" s="92"/>
       <c r="B60" s="27">
-        <v>41635</v>
+        <v>41634</v>
       </c>
       <c r="C60" s="69"/>
       <c r="D60" s="69"/>
@@ -3337,28 +3373,28 @@
       <c r="J60" s="67"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="75">
+      <c r="A61" s="93"/>
+      <c r="B61" s="27">
+        <v>41635</v>
+      </c>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="110">
         <v>9</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B62" s="26">
         <v>41638</v>
-      </c>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="76"/>
-      <c r="B62" s="26">
-        <v>41639</v>
       </c>
       <c r="C62" s="55"/>
       <c r="D62" s="55"/>
@@ -3373,15 +3409,15 @@
       <c r="J62" s="29"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="76"/>
+      <c r="A63" s="111"/>
       <c r="B63" s="26">
-        <v>41640</v>
+        <v>41639</v>
       </c>
       <c r="C63" s="55"/>
       <c r="D63" s="55"/>
       <c r="E63" s="55"/>
       <c r="F63" s="55">
-        <f t="shared" ref="F63:F94" si="1">E63</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G63" s="29"/>
@@ -3390,15 +3426,15 @@
       <c r="J63" s="29"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="76"/>
+      <c r="A64" s="111"/>
       <c r="B64" s="26">
-        <v>41641</v>
+        <v>41640</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
       <c r="E64" s="55"/>
       <c r="F64" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F64:F95" si="1">E64</f>
         <v>0</v>
       </c>
       <c r="G64" s="29"/>
@@ -3407,9 +3443,9 @@
       <c r="J64" s="29"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="77"/>
+      <c r="A65" s="111"/>
       <c r="B65" s="26">
-        <v>41642</v>
+        <v>41641</v>
       </c>
       <c r="C65" s="55"/>
       <c r="D65" s="55"/>
@@ -3424,28 +3460,28 @@
       <c r="J65" s="29"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="72">
+      <c r="A66" s="90"/>
+      <c r="B66" s="26">
+        <v>41642</v>
+      </c>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="91">
         <v>10</v>
       </c>
-      <c r="B66" s="27">
+      <c r="B67" s="27">
         <v>41645</v>
-      </c>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="73"/>
-      <c r="B67" s="27">
-        <v>41646</v>
       </c>
       <c r="C67" s="69"/>
       <c r="D67" s="69"/>
@@ -3460,9 +3496,9 @@
       <c r="J67" s="67"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="73"/>
+      <c r="A68" s="92"/>
       <c r="B68" s="27">
-        <v>41647</v>
+        <v>41646</v>
       </c>
       <c r="C68" s="69"/>
       <c r="D68" s="69"/>
@@ -3477,9 +3513,9 @@
       <c r="J68" s="67"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="73"/>
+      <c r="A69" s="92"/>
       <c r="B69" s="27">
-        <v>41648</v>
+        <v>41647</v>
       </c>
       <c r="C69" s="69"/>
       <c r="D69" s="69"/>
@@ -3494,9 +3530,9 @@
       <c r="J69" s="67"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="74"/>
+      <c r="A70" s="92"/>
       <c r="B70" s="27">
-        <v>41649</v>
+        <v>41648</v>
       </c>
       <c r="C70" s="69"/>
       <c r="D70" s="69"/>
@@ -3511,28 +3547,28 @@
       <c r="J70" s="67"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="75">
+      <c r="A71" s="93"/>
+      <c r="B71" s="27">
+        <v>41649</v>
+      </c>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="67"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="110">
         <v>11</v>
       </c>
-      <c r="B71" s="26">
+      <c r="B72" s="26">
         <v>41652</v>
-      </c>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="76"/>
-      <c r="B72" s="26">
-        <v>41653</v>
       </c>
       <c r="C72" s="55"/>
       <c r="D72" s="55"/>
@@ -3547,9 +3583,9 @@
       <c r="J72" s="29"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="76"/>
+      <c r="A73" s="111"/>
       <c r="B73" s="26">
-        <v>41654</v>
+        <v>41653</v>
       </c>
       <c r="C73" s="55"/>
       <c r="D73" s="55"/>
@@ -3564,9 +3600,9 @@
       <c r="J73" s="29"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="76"/>
+      <c r="A74" s="111"/>
       <c r="B74" s="26">
-        <v>41655</v>
+        <v>41654</v>
       </c>
       <c r="C74" s="55"/>
       <c r="D74" s="55"/>
@@ -3581,9 +3617,9 @@
       <c r="J74" s="29"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="77"/>
+      <c r="A75" s="111"/>
       <c r="B75" s="26">
-        <v>41656</v>
+        <v>41655</v>
       </c>
       <c r="C75" s="55"/>
       <c r="D75" s="55"/>
@@ -3598,28 +3634,28 @@
       <c r="J75" s="29"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="72">
+      <c r="A76" s="90"/>
+      <c r="B76" s="26">
+        <v>41656</v>
+      </c>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="91">
         <v>12</v>
       </c>
-      <c r="B76" s="27">
+      <c r="B77" s="27">
         <v>41659</v>
-      </c>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="73"/>
-      <c r="B77" s="27">
-        <v>41660</v>
       </c>
       <c r="C77" s="69"/>
       <c r="D77" s="69"/>
@@ -3634,9 +3670,9 @@
       <c r="J77" s="67"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="73"/>
+      <c r="A78" s="92"/>
       <c r="B78" s="27">
-        <v>41661</v>
+        <v>41660</v>
       </c>
       <c r="C78" s="69"/>
       <c r="D78" s="69"/>
@@ -3651,9 +3687,9 @@
       <c r="J78" s="67"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="73"/>
+      <c r="A79" s="92"/>
       <c r="B79" s="27">
-        <v>41662</v>
+        <v>41661</v>
       </c>
       <c r="C79" s="69"/>
       <c r="D79" s="69"/>
@@ -3668,9 +3704,9 @@
       <c r="J79" s="67"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="74"/>
+      <c r="A80" s="92"/>
       <c r="B80" s="27">
-        <v>41663</v>
+        <v>41662</v>
       </c>
       <c r="C80" s="69"/>
       <c r="D80" s="69"/>
@@ -3685,30 +3721,28 @@
       <c r="J80" s="67"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="75">
+      <c r="A81" s="93"/>
+      <c r="B81" s="27">
+        <v>41663</v>
+      </c>
+      <c r="C81" s="69"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="67"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="67"/>
+      <c r="J81" s="67"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="110">
         <v>13</v>
       </c>
-      <c r="B81" s="26">
+      <c r="B82" s="26">
         <v>41666</v>
-      </c>
-      <c r="C81" s="55"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="76"/>
-      <c r="B82" s="26">
-        <v>41667</v>
       </c>
       <c r="C82" s="55"/>
       <c r="D82" s="55"/>
@@ -3725,9 +3759,9 @@
       <c r="J82" s="29"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="76"/>
+      <c r="A83" s="111"/>
       <c r="B83" s="26">
-        <v>41668</v>
+        <v>41667</v>
       </c>
       <c r="C83" s="55"/>
       <c r="D83" s="55"/>
@@ -3744,9 +3778,9 @@
       <c r="J83" s="29"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="76"/>
+      <c r="A84" s="111"/>
       <c r="B84" s="26">
-        <v>41669</v>
+        <v>41668</v>
       </c>
       <c r="C84" s="55"/>
       <c r="D84" s="55"/>
@@ -3763,9 +3797,9 @@
       <c r="J84" s="29"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="77"/>
+      <c r="A85" s="111"/>
       <c r="B85" s="26">
-        <v>41670</v>
+        <v>41669</v>
       </c>
       <c r="C85" s="55"/>
       <c r="D85" s="55"/>
@@ -3782,30 +3816,30 @@
       <c r="J85" s="29"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="72">
+      <c r="A86" s="90"/>
+      <c r="B86" s="26">
+        <v>41670</v>
+      </c>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="91">
         <v>14</v>
       </c>
-      <c r="B86" s="27">
+      <c r="B87" s="27">
         <v>41673</v>
-      </c>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="69"/>
-      <c r="F86" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H86" s="67"/>
-      <c r="I86" s="67"/>
-      <c r="J86" s="67"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="73"/>
-      <c r="B87" s="27">
-        <v>41674</v>
       </c>
       <c r="C87" s="69"/>
       <c r="D87" s="69"/>
@@ -3822,9 +3856,9 @@
       <c r="J87" s="67"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="73"/>
+      <c r="A88" s="92"/>
       <c r="B88" s="27">
-        <v>41675</v>
+        <v>41674</v>
       </c>
       <c r="C88" s="69"/>
       <c r="D88" s="69"/>
@@ -3841,9 +3875,9 @@
       <c r="J88" s="67"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="73"/>
+      <c r="A89" s="92"/>
       <c r="B89" s="27">
-        <v>41676</v>
+        <v>41675</v>
       </c>
       <c r="C89" s="69"/>
       <c r="D89" s="69"/>
@@ -3860,9 +3894,9 @@
       <c r="J89" s="67"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="74"/>
+      <c r="A90" s="92"/>
       <c r="B90" s="27">
-        <v>41677</v>
+        <v>41676</v>
       </c>
       <c r="C90" s="69"/>
       <c r="D90" s="69"/>
@@ -3879,28 +3913,30 @@
       <c r="J90" s="67"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="75">
+      <c r="A91" s="93"/>
+      <c r="B91" s="27">
+        <v>41677</v>
+      </c>
+      <c r="C91" s="69"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="69"/>
+      <c r="F91" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H91" s="67"/>
+      <c r="I91" s="67"/>
+      <c r="J91" s="67"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="110">
         <v>15</v>
       </c>
-      <c r="B91" s="26">
+      <c r="B92" s="26">
         <v>41680</v>
-      </c>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="29"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="76"/>
-      <c r="B92" s="26">
-        <v>41681</v>
       </c>
       <c r="C92" s="55"/>
       <c r="D92" s="55"/>
@@ -3915,9 +3951,9 @@
       <c r="J92" s="29"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="76"/>
+      <c r="A93" s="111"/>
       <c r="B93" s="26">
-        <v>41682</v>
+        <v>41681</v>
       </c>
       <c r="C93" s="55"/>
       <c r="D93" s="55"/>
@@ -3932,9 +3968,9 @@
       <c r="J93" s="29"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="76"/>
+      <c r="A94" s="111"/>
       <c r="B94" s="26">
-        <v>41683</v>
+        <v>41682</v>
       </c>
       <c r="C94" s="55"/>
       <c r="D94" s="55"/>
@@ -3949,15 +3985,15 @@
       <c r="J94" s="29"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
+      <c r="A95" s="111"/>
       <c r="B95" s="26">
-        <v>41684</v>
+        <v>41683</v>
       </c>
       <c r="C95" s="55"/>
       <c r="D95" s="55"/>
       <c r="E95" s="55"/>
       <c r="F95" s="55">
-        <f t="shared" ref="F95:F126" si="2">E95</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G95" s="29"/>
@@ -3966,28 +4002,28 @@
       <c r="J95" s="29"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="72">
+      <c r="A96" s="90"/>
+      <c r="B96" s="26">
+        <v>41684</v>
+      </c>
+      <c r="C96" s="55"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55">
+        <f t="shared" ref="F96:F127" si="2">E96</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="91">
         <v>16</v>
       </c>
-      <c r="B96" s="27">
+      <c r="B97" s="27">
         <v>41687</v>
-      </c>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="67"/>
-      <c r="J96" s="67"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="73"/>
-      <c r="B97" s="27">
-        <v>41688</v>
       </c>
       <c r="C97" s="69"/>
       <c r="D97" s="69"/>
@@ -4002,9 +4038,9 @@
       <c r="J97" s="67"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="73"/>
+      <c r="A98" s="92"/>
       <c r="B98" s="27">
-        <v>41689</v>
+        <v>41688</v>
       </c>
       <c r="C98" s="69"/>
       <c r="D98" s="69"/>
@@ -4019,9 +4055,9 @@
       <c r="J98" s="67"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="73"/>
+      <c r="A99" s="92"/>
       <c r="B99" s="27">
-        <v>41690</v>
+        <v>41689</v>
       </c>
       <c r="C99" s="69"/>
       <c r="D99" s="69"/>
@@ -4036,9 +4072,9 @@
       <c r="J99" s="67"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="74"/>
+      <c r="A100" s="92"/>
       <c r="B100" s="27">
-        <v>41691</v>
+        <v>41690</v>
       </c>
       <c r="C100" s="69"/>
       <c r="D100" s="69"/>
@@ -4053,28 +4089,28 @@
       <c r="J100" s="67"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="75">
+      <c r="A101" s="93"/>
+      <c r="B101" s="27">
+        <v>41691</v>
+      </c>
+      <c r="C101" s="69"/>
+      <c r="D101" s="69"/>
+      <c r="E101" s="69"/>
+      <c r="F101" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="67"/>
+      <c r="J101" s="67"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="110">
         <v>17</v>
       </c>
-      <c r="B101" s="26">
+      <c r="B102" s="26">
         <v>41694</v>
-      </c>
-      <c r="C101" s="55"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="76"/>
-      <c r="B102" s="26">
-        <v>41695</v>
       </c>
       <c r="C102" s="55"/>
       <c r="D102" s="55"/>
@@ -4089,9 +4125,9 @@
       <c r="J102" s="29"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="76"/>
+      <c r="A103" s="111"/>
       <c r="B103" s="26">
-        <v>41696</v>
+        <v>41695</v>
       </c>
       <c r="C103" s="55"/>
       <c r="D103" s="55"/>
@@ -4106,9 +4142,9 @@
       <c r="J103" s="29"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="76"/>
+      <c r="A104" s="111"/>
       <c r="B104" s="26">
-        <v>41697</v>
+        <v>41696</v>
       </c>
       <c r="C104" s="55"/>
       <c r="D104" s="55"/>
@@ -4123,9 +4159,9 @@
       <c r="J104" s="29"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="77"/>
+      <c r="A105" s="111"/>
       <c r="B105" s="26">
-        <v>41698</v>
+        <v>41697</v>
       </c>
       <c r="C105" s="55"/>
       <c r="D105" s="55"/>
@@ -4140,28 +4176,28 @@
       <c r="J105" s="29"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="72">
+      <c r="A106" s="90"/>
+      <c r="B106" s="26">
+        <v>41698</v>
+      </c>
+      <c r="C106" s="55"/>
+      <c r="D106" s="55"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="91">
         <v>18</v>
       </c>
-      <c r="B106" s="27">
+      <c r="B107" s="27">
         <v>41701</v>
-      </c>
-      <c r="C106" s="69"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="69"/>
-      <c r="F106" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="67"/>
-      <c r="H106" s="67"/>
-      <c r="I106" s="67"/>
-      <c r="J106" s="67"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="73"/>
-      <c r="B107" s="27">
-        <v>41702</v>
       </c>
       <c r="C107" s="69"/>
       <c r="D107" s="69"/>
@@ -4176,9 +4212,9 @@
       <c r="J107" s="67"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="73"/>
+      <c r="A108" s="92"/>
       <c r="B108" s="27">
-        <v>41703</v>
+        <v>41702</v>
       </c>
       <c r="C108" s="69"/>
       <c r="D108" s="69"/>
@@ -4193,9 +4229,9 @@
       <c r="J108" s="67"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="73"/>
+      <c r="A109" s="92"/>
       <c r="B109" s="27">
-        <v>41704</v>
+        <v>41703</v>
       </c>
       <c r="C109" s="69"/>
       <c r="D109" s="69"/>
@@ -4210,9 +4246,9 @@
       <c r="J109" s="67"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="74"/>
+      <c r="A110" s="92"/>
       <c r="B110" s="27">
-        <v>41705</v>
+        <v>41704</v>
       </c>
       <c r="C110" s="69"/>
       <c r="D110" s="69"/>
@@ -4227,28 +4263,28 @@
       <c r="J110" s="67"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="75">
+      <c r="A111" s="93"/>
+      <c r="B111" s="27">
+        <v>41705</v>
+      </c>
+      <c r="C111" s="69"/>
+      <c r="D111" s="69"/>
+      <c r="E111" s="69"/>
+      <c r="F111" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="67"/>
+      <c r="H111" s="67"/>
+      <c r="I111" s="67"/>
+      <c r="J111" s="67"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="110">
         <v>19</v>
       </c>
-      <c r="B111" s="26">
+      <c r="B112" s="26">
         <v>41708</v>
-      </c>
-      <c r="C111" s="55"/>
-      <c r="D111" s="55"/>
-      <c r="E111" s="55"/>
-      <c r="F111" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G111" s="29"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="29"/>
-      <c r="J111" s="29"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="76"/>
-      <c r="B112" s="26">
-        <v>41709</v>
       </c>
       <c r="C112" s="55"/>
       <c r="D112" s="55"/>
@@ -4263,9 +4299,9 @@
       <c r="J112" s="29"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="76"/>
+      <c r="A113" s="111"/>
       <c r="B113" s="26">
-        <v>41710</v>
+        <v>41709</v>
       </c>
       <c r="C113" s="55"/>
       <c r="D113" s="55"/>
@@ -4280,9 +4316,9 @@
       <c r="J113" s="29"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="76"/>
+      <c r="A114" s="111"/>
       <c r="B114" s="26">
-        <v>41711</v>
+        <v>41710</v>
       </c>
       <c r="C114" s="55"/>
       <c r="D114" s="55"/>
@@ -4297,9 +4333,9 @@
       <c r="J114" s="29"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="77"/>
+      <c r="A115" s="111"/>
       <c r="B115" s="26">
-        <v>41712</v>
+        <v>41711</v>
       </c>
       <c r="C115" s="55"/>
       <c r="D115" s="55"/>
@@ -4314,28 +4350,28 @@
       <c r="J115" s="29"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="72">
+      <c r="A116" s="90"/>
+      <c r="B116" s="26">
+        <v>41712</v>
+      </c>
+      <c r="C116" s="55"/>
+      <c r="D116" s="55"/>
+      <c r="E116" s="55"/>
+      <c r="F116" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="91">
         <v>20</v>
       </c>
-      <c r="B116" s="27">
+      <c r="B117" s="27">
         <v>41715</v>
-      </c>
-      <c r="C116" s="69"/>
-      <c r="D116" s="69"/>
-      <c r="E116" s="69"/>
-      <c r="F116" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G116" s="67"/>
-      <c r="H116" s="67"/>
-      <c r="I116" s="67"/>
-      <c r="J116" s="67"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="73"/>
-      <c r="B117" s="27">
-        <v>41716</v>
       </c>
       <c r="C117" s="69"/>
       <c r="D117" s="69"/>
@@ -4350,9 +4386,9 @@
       <c r="J117" s="67"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="73"/>
+      <c r="A118" s="92"/>
       <c r="B118" s="27">
-        <v>41717</v>
+        <v>41716</v>
       </c>
       <c r="C118" s="69"/>
       <c r="D118" s="69"/>
@@ -4367,9 +4403,9 @@
       <c r="J118" s="67"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="73"/>
+      <c r="A119" s="92"/>
       <c r="B119" s="27">
-        <v>41718</v>
+        <v>41717</v>
       </c>
       <c r="C119" s="69"/>
       <c r="D119" s="69"/>
@@ -4384,9 +4420,9 @@
       <c r="J119" s="67"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="74"/>
+      <c r="A120" s="92"/>
       <c r="B120" s="27">
-        <v>41719</v>
+        <v>41718</v>
       </c>
       <c r="C120" s="69"/>
       <c r="D120" s="69"/>
@@ -4401,28 +4437,28 @@
       <c r="J120" s="67"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="75">
+      <c r="A121" s="93"/>
+      <c r="B121" s="27">
+        <v>41719</v>
+      </c>
+      <c r="C121" s="69"/>
+      <c r="D121" s="69"/>
+      <c r="E121" s="69"/>
+      <c r="F121" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="67"/>
+      <c r="H121" s="67"/>
+      <c r="I121" s="67"/>
+      <c r="J121" s="67"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="110">
         <v>21</v>
       </c>
-      <c r="B121" s="26">
+      <c r="B122" s="26">
         <v>41722</v>
-      </c>
-      <c r="C121" s="55"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="55"/>
-      <c r="F121" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G121" s="29"/>
-      <c r="H121" s="29"/>
-      <c r="I121" s="29"/>
-      <c r="J121" s="29"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="76"/>
-      <c r="B122" s="26">
-        <v>41723</v>
       </c>
       <c r="C122" s="55"/>
       <c r="D122" s="55"/>
@@ -4437,9 +4473,9 @@
       <c r="J122" s="29"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="76"/>
+      <c r="A123" s="111"/>
       <c r="B123" s="26">
-        <v>41724</v>
+        <v>41723</v>
       </c>
       <c r="C123" s="55"/>
       <c r="D123" s="55"/>
@@ -4454,9 +4490,9 @@
       <c r="J123" s="29"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="76"/>
+      <c r="A124" s="111"/>
       <c r="B124" s="26">
-        <v>41725</v>
+        <v>41724</v>
       </c>
       <c r="C124" s="55"/>
       <c r="D124" s="55"/>
@@ -4471,9 +4507,9 @@
       <c r="J124" s="29"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="77"/>
+      <c r="A125" s="111"/>
       <c r="B125" s="26">
-        <v>41726</v>
+        <v>41725</v>
       </c>
       <c r="C125" s="55"/>
       <c r="D125" s="55"/>
@@ -4488,34 +4524,34 @@
       <c r="J125" s="29"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="72">
+      <c r="A126" s="90"/>
+      <c r="B126" s="26">
+        <v>41726</v>
+      </c>
+      <c r="C126" s="55"/>
+      <c r="D126" s="55"/>
+      <c r="E126" s="55"/>
+      <c r="F126" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
+      <c r="I126" s="29"/>
+      <c r="J126" s="29"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="91">
         <v>22</v>
       </c>
-      <c r="B126" s="27">
+      <c r="B127" s="27">
         <v>41729</v>
-      </c>
-      <c r="C126" s="69"/>
-      <c r="D126" s="69"/>
-      <c r="E126" s="69"/>
-      <c r="F126" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G126" s="67"/>
-      <c r="H126" s="67"/>
-      <c r="I126" s="67"/>
-      <c r="J126" s="67"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="73"/>
-      <c r="B127" s="27">
-        <v>41730</v>
       </c>
       <c r="C127" s="69"/>
       <c r="D127" s="69"/>
       <c r="E127" s="69"/>
       <c r="F127" s="69">
-        <f t="shared" ref="F127:F158" si="3">E127</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G127" s="67"/>
@@ -4524,15 +4560,15 @@
       <c r="J127" s="67"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="73"/>
+      <c r="A128" s="92"/>
       <c r="B128" s="27">
-        <v>41731</v>
+        <v>41730</v>
       </c>
       <c r="C128" s="69"/>
       <c r="D128" s="69"/>
       <c r="E128" s="69"/>
       <c r="F128" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F128:F159" si="3">E128</f>
         <v>0</v>
       </c>
       <c r="G128" s="67"/>
@@ -4541,9 +4577,9 @@
       <c r="J128" s="67"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="73"/>
+      <c r="A129" s="92"/>
       <c r="B129" s="27">
-        <v>41732</v>
+        <v>41731</v>
       </c>
       <c r="C129" s="69"/>
       <c r="D129" s="69"/>
@@ -4558,9 +4594,9 @@
       <c r="J129" s="67"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="74"/>
+      <c r="A130" s="92"/>
       <c r="B130" s="27">
-        <v>41733</v>
+        <v>41732</v>
       </c>
       <c r="C130" s="69"/>
       <c r="D130" s="69"/>
@@ -4575,28 +4611,28 @@
       <c r="J130" s="67"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="75">
+      <c r="A131" s="93"/>
+      <c r="B131" s="27">
+        <v>41733</v>
+      </c>
+      <c r="C131" s="69"/>
+      <c r="D131" s="69"/>
+      <c r="E131" s="69"/>
+      <c r="F131" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="67"/>
+      <c r="H131" s="67"/>
+      <c r="I131" s="67"/>
+      <c r="J131" s="67"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="110">
         <v>23</v>
       </c>
-      <c r="B131" s="26">
+      <c r="B132" s="26">
         <v>41736</v>
-      </c>
-      <c r="C131" s="55"/>
-      <c r="D131" s="55"/>
-      <c r="E131" s="55"/>
-      <c r="F131" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G131" s="29"/>
-      <c r="H131" s="29"/>
-      <c r="I131" s="29"/>
-      <c r="J131" s="29"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="76"/>
-      <c r="B132" s="26">
-        <v>41737</v>
       </c>
       <c r="C132" s="55"/>
       <c r="D132" s="55"/>
@@ -4611,9 +4647,9 @@
       <c r="J132" s="29"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="76"/>
+      <c r="A133" s="111"/>
       <c r="B133" s="26">
-        <v>41738</v>
+        <v>41737</v>
       </c>
       <c r="C133" s="55"/>
       <c r="D133" s="55"/>
@@ -4628,9 +4664,9 @@
       <c r="J133" s="29"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="76"/>
+      <c r="A134" s="111"/>
       <c r="B134" s="26">
-        <v>41739</v>
+        <v>41738</v>
       </c>
       <c r="C134" s="55"/>
       <c r="D134" s="55"/>
@@ -4645,9 +4681,9 @@
       <c r="J134" s="29"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="77"/>
+      <c r="A135" s="111"/>
       <c r="B135" s="26">
-        <v>41740</v>
+        <v>41739</v>
       </c>
       <c r="C135" s="55"/>
       <c r="D135" s="55"/>
@@ -4662,28 +4698,28 @@
       <c r="J135" s="29"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="72">
+      <c r="A136" s="90"/>
+      <c r="B136" s="26">
+        <v>41740</v>
+      </c>
+      <c r="C136" s="55"/>
+      <c r="D136" s="55"/>
+      <c r="E136" s="55"/>
+      <c r="F136" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="29"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="91">
         <v>24</v>
       </c>
-      <c r="B136" s="27">
+      <c r="B137" s="27">
         <v>41743</v>
-      </c>
-      <c r="C136" s="69"/>
-      <c r="D136" s="69"/>
-      <c r="E136" s="69"/>
-      <c r="F136" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G136" s="67"/>
-      <c r="H136" s="67"/>
-      <c r="I136" s="67"/>
-      <c r="J136" s="67"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="73"/>
-      <c r="B137" s="27">
-        <v>41744</v>
       </c>
       <c r="C137" s="69"/>
       <c r="D137" s="69"/>
@@ -4698,9 +4734,9 @@
       <c r="J137" s="67"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="73"/>
+      <c r="A138" s="92"/>
       <c r="B138" s="27">
-        <v>41745</v>
+        <v>41744</v>
       </c>
       <c r="C138" s="69"/>
       <c r="D138" s="69"/>
@@ -4715,9 +4751,9 @@
       <c r="J138" s="67"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="73"/>
+      <c r="A139" s="92"/>
       <c r="B139" s="27">
-        <v>41746</v>
+        <v>41745</v>
       </c>
       <c r="C139" s="69"/>
       <c r="D139" s="69"/>
@@ -4732,9 +4768,9 @@
       <c r="J139" s="67"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="74"/>
+      <c r="A140" s="92"/>
       <c r="B140" s="27">
-        <v>41747</v>
+        <v>41746</v>
       </c>
       <c r="C140" s="69"/>
       <c r="D140" s="69"/>
@@ -4749,28 +4785,28 @@
       <c r="J140" s="67"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="75">
+      <c r="A141" s="93"/>
+      <c r="B141" s="27">
+        <v>41747</v>
+      </c>
+      <c r="C141" s="69"/>
+      <c r="D141" s="69"/>
+      <c r="E141" s="69"/>
+      <c r="F141" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G141" s="67"/>
+      <c r="H141" s="67"/>
+      <c r="I141" s="67"/>
+      <c r="J141" s="67"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="110">
         <v>25</v>
       </c>
-      <c r="B141" s="26">
+      <c r="B142" s="26">
         <v>41750</v>
-      </c>
-      <c r="C141" s="55"/>
-      <c r="D141" s="55"/>
-      <c r="E141" s="55"/>
-      <c r="F141" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G141" s="29"/>
-      <c r="H141" s="29"/>
-      <c r="I141" s="29"/>
-      <c r="J141" s="29"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="76"/>
-      <c r="B142" s="26">
-        <v>41751</v>
       </c>
       <c r="C142" s="55"/>
       <c r="D142" s="55"/>
@@ -4785,9 +4821,9 @@
       <c r="J142" s="29"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="76"/>
+      <c r="A143" s="111"/>
       <c r="B143" s="26">
-        <v>41752</v>
+        <v>41751</v>
       </c>
       <c r="C143" s="55"/>
       <c r="D143" s="55"/>
@@ -4802,9 +4838,9 @@
       <c r="J143" s="29"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="76"/>
+      <c r="A144" s="111"/>
       <c r="B144" s="26">
-        <v>41753</v>
+        <v>41752</v>
       </c>
       <c r="C144" s="55"/>
       <c r="D144" s="55"/>
@@ -4819,9 +4855,9 @@
       <c r="J144" s="29"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="77"/>
+      <c r="A145" s="111"/>
       <c r="B145" s="26">
-        <v>41754</v>
+        <v>41753</v>
       </c>
       <c r="C145" s="55"/>
       <c r="D145" s="55"/>
@@ -4836,28 +4872,28 @@
       <c r="J145" s="29"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="72">
+      <c r="A146" s="90"/>
+      <c r="B146" s="26">
+        <v>41754</v>
+      </c>
+      <c r="C146" s="55"/>
+      <c r="D146" s="55"/>
+      <c r="E146" s="55"/>
+      <c r="F146" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="29"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="91">
         <v>26</v>
       </c>
-      <c r="B146" s="27">
+      <c r="B147" s="27">
         <v>41757</v>
-      </c>
-      <c r="C146" s="69"/>
-      <c r="D146" s="69"/>
-      <c r="E146" s="69"/>
-      <c r="F146" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G146" s="67"/>
-      <c r="H146" s="67"/>
-      <c r="I146" s="67"/>
-      <c r="J146" s="67"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="73"/>
-      <c r="B147" s="27">
-        <v>41758</v>
       </c>
       <c r="C147" s="69"/>
       <c r="D147" s="69"/>
@@ -4872,9 +4908,9 @@
       <c r="J147" s="67"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="73"/>
+      <c r="A148" s="92"/>
       <c r="B148" s="27">
-        <v>41759</v>
+        <v>41758</v>
       </c>
       <c r="C148" s="69"/>
       <c r="D148" s="69"/>
@@ -4889,9 +4925,9 @@
       <c r="J148" s="67"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="73"/>
+      <c r="A149" s="92"/>
       <c r="B149" s="27">
-        <v>41760</v>
+        <v>41759</v>
       </c>
       <c r="C149" s="69"/>
       <c r="D149" s="69"/>
@@ -4906,9 +4942,9 @@
       <c r="J149" s="67"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="74"/>
+      <c r="A150" s="92"/>
       <c r="B150" s="27">
-        <v>41761</v>
+        <v>41760</v>
       </c>
       <c r="C150" s="69"/>
       <c r="D150" s="69"/>
@@ -4923,28 +4959,28 @@
       <c r="J150" s="67"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="75">
+      <c r="A151" s="93"/>
+      <c r="B151" s="27">
+        <v>41761</v>
+      </c>
+      <c r="C151" s="69"/>
+      <c r="D151" s="69"/>
+      <c r="E151" s="69"/>
+      <c r="F151" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G151" s="67"/>
+      <c r="H151" s="67"/>
+      <c r="I151" s="67"/>
+      <c r="J151" s="67"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="110">
         <v>27</v>
       </c>
-      <c r="B151" s="26">
+      <c r="B152" s="26">
         <v>41764</v>
-      </c>
-      <c r="C151" s="55"/>
-      <c r="D151" s="55"/>
-      <c r="E151" s="55"/>
-      <c r="F151" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G151" s="29"/>
-      <c r="H151" s="29"/>
-      <c r="I151" s="29"/>
-      <c r="J151" s="29"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="76"/>
-      <c r="B152" s="26">
-        <v>41765</v>
       </c>
       <c r="C152" s="55"/>
       <c r="D152" s="55"/>
@@ -4959,9 +4995,9 @@
       <c r="J152" s="29"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="76"/>
+      <c r="A153" s="111"/>
       <c r="B153" s="26">
-        <v>41766</v>
+        <v>41765</v>
       </c>
       <c r="C153" s="55"/>
       <c r="D153" s="55"/>
@@ -4976,9 +5012,9 @@
       <c r="J153" s="29"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="76"/>
+      <c r="A154" s="111"/>
       <c r="B154" s="26">
-        <v>41767</v>
+        <v>41766</v>
       </c>
       <c r="C154" s="55"/>
       <c r="D154" s="55"/>
@@ -4993,9 +5029,9 @@
       <c r="J154" s="29"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="77"/>
+      <c r="A155" s="111"/>
       <c r="B155" s="26">
-        <v>41768</v>
+        <v>41767</v>
       </c>
       <c r="C155" s="55"/>
       <c r="D155" s="55"/>
@@ -5010,28 +5046,28 @@
       <c r="J155" s="29"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="72">
+      <c r="A156" s="90"/>
+      <c r="B156" s="26">
+        <v>41768</v>
+      </c>
+      <c r="C156" s="55"/>
+      <c r="D156" s="55"/>
+      <c r="E156" s="55"/>
+      <c r="F156" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="29"/>
+      <c r="H156" s="29"/>
+      <c r="I156" s="29"/>
+      <c r="J156" s="29"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="91">
         <v>28</v>
       </c>
-      <c r="B156" s="27">
+      <c r="B157" s="27">
         <v>41771</v>
-      </c>
-      <c r="C156" s="69"/>
-      <c r="D156" s="69"/>
-      <c r="E156" s="69"/>
-      <c r="F156" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G156" s="67"/>
-      <c r="H156" s="67"/>
-      <c r="I156" s="67"/>
-      <c r="J156" s="67"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="73"/>
-      <c r="B157" s="27">
-        <v>41772</v>
       </c>
       <c r="C157" s="69"/>
       <c r="D157" s="69"/>
@@ -5046,9 +5082,9 @@
       <c r="J157" s="67"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="73"/>
+      <c r="A158" s="92"/>
       <c r="B158" s="27">
-        <v>41773</v>
+        <v>41772</v>
       </c>
       <c r="C158" s="69"/>
       <c r="D158" s="69"/>
@@ -5063,15 +5099,15 @@
       <c r="J158" s="67"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="73"/>
+      <c r="A159" s="92"/>
       <c r="B159" s="27">
-        <v>41774</v>
+        <v>41773</v>
       </c>
       <c r="C159" s="69"/>
       <c r="D159" s="69"/>
       <c r="E159" s="69"/>
       <c r="F159" s="69">
-        <f t="shared" ref="F159:F170" si="4">E159</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G159" s="67"/>
@@ -5080,15 +5116,15 @@
       <c r="J159" s="67"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="74"/>
+      <c r="A160" s="92"/>
       <c r="B160" s="27">
-        <v>41775</v>
+        <v>41774</v>
       </c>
       <c r="C160" s="69"/>
       <c r="D160" s="69"/>
       <c r="E160" s="69"/>
       <c r="F160" s="69">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F160:F171" si="4">E160</f>
         <v>0</v>
       </c>
       <c r="G160" s="67"/>
@@ -5097,28 +5133,28 @@
       <c r="J160" s="67"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="75">
+      <c r="A161" s="93"/>
+      <c r="B161" s="27">
+        <v>41775</v>
+      </c>
+      <c r="C161" s="69"/>
+      <c r="D161" s="69"/>
+      <c r="E161" s="69"/>
+      <c r="F161" s="69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G161" s="67"/>
+      <c r="H161" s="67"/>
+      <c r="I161" s="67"/>
+      <c r="J161" s="67"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="110">
         <v>29</v>
       </c>
-      <c r="B161" s="26">
+      <c r="B162" s="26">
         <v>41778</v>
-      </c>
-      <c r="C161" s="55"/>
-      <c r="D161" s="55"/>
-      <c r="E161" s="55"/>
-      <c r="F161" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G161" s="29"/>
-      <c r="H161" s="29"/>
-      <c r="I161" s="29"/>
-      <c r="J161" s="29"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="76"/>
-      <c r="B162" s="26">
-        <v>41779</v>
       </c>
       <c r="C162" s="55"/>
       <c r="D162" s="55"/>
@@ -5133,9 +5169,9 @@
       <c r="J162" s="29"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="76"/>
+      <c r="A163" s="111"/>
       <c r="B163" s="26">
-        <v>41780</v>
+        <v>41779</v>
       </c>
       <c r="C163" s="55"/>
       <c r="D163" s="55"/>
@@ -5150,9 +5186,9 @@
       <c r="J163" s="29"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="76"/>
+      <c r="A164" s="111"/>
       <c r="B164" s="26">
-        <v>41781</v>
+        <v>41780</v>
       </c>
       <c r="C164" s="55"/>
       <c r="D164" s="55"/>
@@ -5167,9 +5203,9 @@
       <c r="J164" s="29"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="77"/>
+      <c r="A165" s="111"/>
       <c r="B165" s="26">
-        <v>41782</v>
+        <v>41781</v>
       </c>
       <c r="C165" s="55"/>
       <c r="D165" s="55"/>
@@ -5184,28 +5220,28 @@
       <c r="J165" s="29"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="78">
+      <c r="A166" s="90"/>
+      <c r="B166" s="26">
+        <v>41782</v>
+      </c>
+      <c r="C166" s="55"/>
+      <c r="D166" s="55"/>
+      <c r="E166" s="55"/>
+      <c r="F166" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G166" s="29"/>
+      <c r="H166" s="29"/>
+      <c r="I166" s="29"/>
+      <c r="J166" s="29"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="136">
         <v>30</v>
       </c>
-      <c r="B166" s="27">
+      <c r="B167" s="27">
         <v>41785</v>
-      </c>
-      <c r="C166" s="70"/>
-      <c r="D166" s="70"/>
-      <c r="E166" s="70"/>
-      <c r="F166" s="70">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G166" s="37"/>
-      <c r="H166" s="37"/>
-      <c r="I166" s="37"/>
-      <c r="J166" s="37"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="79"/>
-      <c r="B167" s="27">
-        <v>41786</v>
       </c>
       <c r="C167" s="70"/>
       <c r="D167" s="70"/>
@@ -5220,9 +5256,9 @@
       <c r="J167" s="37"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="79"/>
+      <c r="A168" s="137"/>
       <c r="B168" s="27">
-        <v>41787</v>
+        <v>41786</v>
       </c>
       <c r="C168" s="70"/>
       <c r="D168" s="70"/>
@@ -5237,9 +5273,9 @@
       <c r="J168" s="37"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="79"/>
+      <c r="A169" s="137"/>
       <c r="B169" s="27">
-        <v>41788</v>
+        <v>41787</v>
       </c>
       <c r="C169" s="70"/>
       <c r="D169" s="70"/>
@@ -5254,9 +5290,9 @@
       <c r="J169" s="37"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="80"/>
+      <c r="A170" s="137"/>
       <c r="B170" s="27">
-        <v>41789</v>
+        <v>41788</v>
       </c>
       <c r="C170" s="70"/>
       <c r="D170" s="70"/>
@@ -5271,16 +5307,21 @@
       <c r="J170" s="37"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="68"/>
-      <c r="B171" s="68"/>
-      <c r="C171" s="68"/>
-      <c r="D171" s="68"/>
-      <c r="E171" s="68"/>
-      <c r="F171" s="68"/>
-      <c r="G171" s="68"/>
-      <c r="H171" s="68"/>
-      <c r="I171" s="68"/>
-      <c r="J171" s="68"/>
+      <c r="A171" s="138"/>
+      <c r="B171" s="27">
+        <v>41789</v>
+      </c>
+      <c r="C171" s="70"/>
+      <c r="D171" s="70"/>
+      <c r="E171" s="70"/>
+      <c r="F171" s="70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G171" s="37"/>
+      <c r="H171" s="37"/>
+      <c r="I171" s="37"/>
+      <c r="J171" s="37"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="68"/>
@@ -5378,31 +5419,42 @@
       <c r="I179" s="68"/>
       <c r="J179" s="68"/>
     </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="68"/>
+      <c r="B180" s="68"/>
+      <c r="C180" s="68"/>
+      <c r="D180" s="68"/>
+      <c r="E180" s="68"/>
+      <c r="F180" s="68"/>
+      <c r="G180" s="68"/>
+      <c r="H180" s="68"/>
+      <c r="I180" s="68"/>
+      <c r="J180" s="68"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="A71:A75"/>
+  <mergeCells count="54">
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A72:A76"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="F12:F13"/>
@@ -5415,24 +5467,26 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="A19:A32"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A161:A165"/>
-    <mergeCell ref="A166:A170"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F31:F32"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
@@ -5664,29 +5718,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M38</xm:sqref>
+          <xm:sqref>M38:M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="29" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5705,7 +5740,7 @@
           <xm:sqref>M40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="28" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5724,7 +5759,7 @@
           <xm:sqref>M41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="27" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5743,7 +5778,7 @@
           <xm:sqref>M42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="26" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5762,7 +5797,7 @@
           <xm:sqref>M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="25" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5781,7 +5816,7 @@
           <xm:sqref>M44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="24" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5800,7 +5835,7 @@
           <xm:sqref>M45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="23" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5819,7 +5854,7 @@
           <xm:sqref>M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="22" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5838,7 +5873,7 @@
           <xm:sqref>M47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="21" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5857,7 +5892,7 @@
           <xm:sqref>M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="20" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5876,7 +5911,7 @@
           <xm:sqref>M49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="19" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5895,7 +5930,7 @@
           <xm:sqref>M50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="18" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5914,7 +5949,7 @@
           <xm:sqref>M51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="17" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5933,7 +5968,7 @@
           <xm:sqref>M52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="16" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5950,6 +5985,25 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="15" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="14" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -6025,7 +6079,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F14 F7:F8 F12 F18:F19 F21 F23:F24 F29 F33:F34 F38:F170</xm:sqref>
+          <xm:sqref>F14 F7:F8 F12 F18:F19 F21 F23:F24 F29 F33:F34 F38 F40:F171</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{35213755-788E-43C8-B75E-72DA17285D4A}">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="144">
   <si>
     <t>Week</t>
   </si>
@@ -456,6 +456,28 @@
   </si>
   <si>
     <t>Question - Tong hop</t>
+  </si>
+  <si>
+    <t>9:15AM</t>
+  </si>
+  <si>
+    <t>11:00AM</t>
+  </si>
+  <si>
+    <t>4:15PM</t>
+  </si>
+  <si>
+    <t>Review question have prepared for system</t>
+  </si>
+  <si>
+    <t>Collect architect drivers raw and develop user stories</t>
+  </si>
+  <si>
+    <t>Đã thực hiện file phân công ngày 28/11</t>
+  </si>
+  <si>
+    <t>Analyse architect drivers raw "Bảng tin" and "Danh mục"
+Draw activity diagrams business process</t>
   </si>
 </sst>
 </file>
@@ -973,6 +995,156 @@
     <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,156 +1192,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1481,7 +1503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1492,7 +1514,7 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,13 +1626,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O180"/>
+  <dimension ref="A1:O182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1623,7 +1645,7 @@
     <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="46.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="47.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
     <col min="13" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1631,81 +1653,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="75"/>
+      <c r="A1" s="123"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="76" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="78"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="81"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="84"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="134"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="109"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119"/>
       <c r="F5" s="15"/>
       <c r="H5" s="41" t="s">
         <v>64</v>
@@ -1750,13 +1772,13 @@
       <c r="J6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="85">
+      <c r="A7" s="135">
         <v>1</v>
       </c>
       <c r="B7" s="16">
@@ -1782,21 +1804,21 @@
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="115" t="s">
+      <c r="K7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="115"/>
+      <c r="L7" s="82"/>
       <c r="M7" s="32">
-        <f>SUM(M8:M54)</f>
-        <v>53.319999999999993</v>
+        <f>SUM(M8:M56)</f>
+        <v>59.149999999999991</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="103">
+      <c r="A8" s="136"/>
+      <c r="B8" s="113">
         <v>41586</v>
       </c>
       <c r="C8" s="17">
@@ -1808,7 +1830,7 @@
       <c r="E8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="105">
+      <c r="F8" s="115">
         <v>1.67</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -1832,8 +1854,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="104"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1843,7 +1865,7 @@
       <c r="E9" s="18">
         <v>0.5</v>
       </c>
-      <c r="F9" s="106"/>
+      <c r="F9" s="116"/>
       <c r="G9" s="29" t="s">
         <v>23</v>
       </c>
@@ -1854,10 +1876,10 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="124">
+      <c r="A10" s="91">
         <v>2</v>
       </c>
-      <c r="B10" s="127">
+      <c r="B10" s="94">
         <v>41589</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -1869,7 +1891,7 @@
       <c r="E10" s="59">
         <v>2.5</v>
       </c>
-      <c r="F10" s="129">
+      <c r="F10" s="96">
         <f>SUM(E10:E11)</f>
         <v>5</v>
       </c>
@@ -1883,8 +1905,8 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="125"/>
-      <c r="B11" s="128"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="58" t="s">
         <v>76</v>
       </c>
@@ -1894,7 +1916,7 @@
       <c r="E11" s="59">
         <v>2.5</v>
       </c>
-      <c r="F11" s="130"/>
+      <c r="F11" s="97"/>
       <c r="G11" s="60" t="s">
         <v>22</v>
       </c>
@@ -1907,8 +1929,8 @@
       <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="125"/>
-      <c r="B12" s="116">
+      <c r="A12" s="92"/>
+      <c r="B12" s="83">
         <v>41590</v>
       </c>
       <c r="C12" s="22">
@@ -1920,7 +1942,7 @@
       <c r="E12" s="23">
         <v>2.25</v>
       </c>
-      <c r="F12" s="118">
+      <c r="F12" s="85">
         <v>3.75</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -1947,8 +1969,8 @@
       <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="125"/>
-      <c r="B13" s="117"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="22">
         <v>0.91666666666666663</v>
       </c>
@@ -1958,7 +1980,7 @@
       <c r="E13" s="23">
         <v>1.5</v>
       </c>
-      <c r="F13" s="119"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="45" t="s">
         <v>28</v>
       </c>
@@ -1974,8 +1996,8 @@
       <c r="O13" s="34"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="125"/>
-      <c r="B14" s="116">
+      <c r="A14" s="92"/>
+      <c r="B14" s="83">
         <v>41591</v>
       </c>
       <c r="C14" s="22">
@@ -1987,7 +2009,7 @@
       <c r="E14" s="23">
         <v>2</v>
       </c>
-      <c r="F14" s="121">
+      <c r="F14" s="88">
         <v>4.5</v>
       </c>
       <c r="G14" s="45" t="s">
@@ -2005,8 +2027,8 @@
       <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="125"/>
-      <c r="B15" s="120"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="25">
         <v>0.5625</v>
       </c>
@@ -2016,7 +2038,7 @@
       <c r="E15" s="28">
         <v>2</v>
       </c>
-      <c r="F15" s="122"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="30" t="s">
         <v>19</v>
       </c>
@@ -2033,8 +2055,8 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="125"/>
-      <c r="B16" s="117"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="25">
         <v>0.83333333333333337</v>
       </c>
@@ -2044,7 +2066,7 @@
       <c r="E16" s="28">
         <v>0.5</v>
       </c>
-      <c r="F16" s="123"/>
+      <c r="F16" s="90"/>
       <c r="G16" s="45" t="s">
         <v>28</v>
       </c>
@@ -2068,7 +2090,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="125"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="47">
         <v>41592</v>
       </c>
@@ -2099,15 +2121,15 @@
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="9">
-        <f>SUM(F33:F41)</f>
-        <v>11.58</v>
+        <f>SUM(F33:F43)</f>
+        <v>17.41</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="126"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="42">
         <v>41593</v>
       </c>
@@ -2138,7 +2160,7 @@
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="9">
-        <f>SUM(E42:E46)</f>
+        <f>SUM(E44:E48)</f>
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
@@ -2146,10 +2168,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="133">
+      <c r="A19" s="101">
         <v>3</v>
       </c>
-      <c r="B19" s="131">
+      <c r="B19" s="98">
         <v>41596</v>
       </c>
       <c r="C19" s="53" t="s">
@@ -2161,7 +2183,7 @@
       <c r="E19" s="50">
         <v>0.5</v>
       </c>
-      <c r="F19" s="89">
+      <c r="F19" s="100">
         <f>SUM(E19:E20)</f>
         <v>3.5</v>
       </c>
@@ -2180,7 +2202,7 @@
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="9">
-        <f>SUM(E57:E61)</f>
+        <f>SUM(E59:E63)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -2188,8 +2210,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="134"/>
-      <c r="B20" s="132"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="53" t="s">
         <v>81</v>
       </c>
@@ -2199,7 +2221,7 @@
       <c r="E20" s="50">
         <v>3</v>
       </c>
-      <c r="F20" s="90"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="49" t="s">
         <v>22</v>
       </c>
@@ -2216,8 +2238,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="134"/>
-      <c r="B21" s="131">
+      <c r="A21" s="102"/>
+      <c r="B21" s="98">
         <v>41597</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -2229,7 +2251,7 @@
       <c r="E21" s="50">
         <v>2</v>
       </c>
-      <c r="F21" s="89">
+      <c r="F21" s="100">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2249,8 +2271,8 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="134"/>
-      <c r="B22" s="132"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="53" t="s">
         <v>84</v>
       </c>
@@ -2260,7 +2282,7 @@
       <c r="E22" s="50">
         <v>0.5</v>
       </c>
-      <c r="F22" s="90"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="49" t="s">
         <v>22</v>
       </c>
@@ -2276,7 +2298,7 @@
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="9">
-        <f>SUM(E62:E66)</f>
+        <f>SUM(E64:E68)</f>
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -2284,7 +2306,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="134"/>
+      <c r="A23" s="102"/>
       <c r="B23" s="26">
         <v>41598</v>
       </c>
@@ -2298,7 +2320,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="55">
-        <f t="shared" ref="F23:F63" si="0">E23</f>
+        <f t="shared" ref="F23:F65" si="0">E23</f>
         <v>4</v>
       </c>
       <c r="G23" s="57" t="s">
@@ -2316,7 +2338,7 @@
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="9">
-        <f>SUM(E67:E71)</f>
+        <f>SUM(E69:E73)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2324,7 +2346,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="134"/>
+      <c r="A24" s="102"/>
       <c r="B24" s="26">
         <v>41599</v>
       </c>
@@ -2337,7 +2359,7 @@
       <c r="E24" s="50">
         <v>1</v>
       </c>
-      <c r="F24" s="89">
+      <c r="F24" s="100">
         <f>SUM(E24:E28)</f>
         <v>6.9</v>
       </c>
@@ -2355,7 +2377,7 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="134"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="26">
         <v>41599</v>
       </c>
@@ -2368,7 +2390,7 @@
       <c r="E25" s="50">
         <v>1.3</v>
       </c>
-      <c r="F25" s="112"/>
+      <c r="F25" s="120"/>
       <c r="G25" s="57" t="s">
         <v>19</v>
       </c>
@@ -2383,7 +2405,7 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="134"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="26">
         <v>41599</v>
       </c>
@@ -2396,7 +2418,7 @@
       <c r="E26" s="50">
         <v>1.5</v>
       </c>
-      <c r="F26" s="112"/>
+      <c r="F26" s="120"/>
       <c r="G26" s="57" t="s">
         <v>22</v>
       </c>
@@ -2413,7 +2435,7 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="134"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="26">
         <v>41599</v>
       </c>
@@ -2426,7 +2448,7 @@
       <c r="E27" s="50">
         <v>2.1</v>
       </c>
-      <c r="F27" s="112"/>
+      <c r="F27" s="120"/>
       <c r="G27" s="29" t="s">
         <v>19</v>
       </c>
@@ -2440,7 +2462,7 @@
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="9">
-        <f>SUM(E72:E76)</f>
+        <f>SUM(E74:E78)</f>
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -2448,7 +2470,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="134"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="26">
         <v>41599</v>
       </c>
@@ -2461,7 +2483,7 @@
       <c r="E28" s="50">
         <v>1</v>
       </c>
-      <c r="F28" s="113"/>
+      <c r="F28" s="121"/>
       <c r="G28" s="29" t="s">
         <v>22</v>
       </c>
@@ -2476,7 +2498,7 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="134"/>
+      <c r="A29" s="102"/>
       <c r="B29" s="26">
         <v>41600</v>
       </c>
@@ -2489,7 +2511,7 @@
       <c r="E29" s="50">
         <v>1.2</v>
       </c>
-      <c r="F29" s="89">
+      <c r="F29" s="100">
         <f>SUM(E29:E30)</f>
         <v>3.2</v>
       </c>
@@ -2505,7 +2527,7 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A30" s="134"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="26">
         <v>41600</v>
       </c>
@@ -2518,7 +2540,7 @@
       <c r="E30" s="50">
         <v>2</v>
       </c>
-      <c r="F30" s="90"/>
+      <c r="F30" s="78"/>
       <c r="G30" s="57" t="s">
         <v>22</v>
       </c>
@@ -2532,7 +2554,7 @@
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="9">
-        <f>SUM(E77:E81)</f>
+        <f>SUM(E79:E83)</f>
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -2540,7 +2562,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="134"/>
+      <c r="A31" s="102"/>
       <c r="B31" s="26">
         <v>41601</v>
       </c>
@@ -2553,7 +2575,7 @@
       <c r="E31" s="50">
         <v>3.5</v>
       </c>
-      <c r="F31" s="89">
+      <c r="F31" s="100">
         <f>SUM(E31:E32)</f>
         <v>4.4000000000000004</v>
       </c>
@@ -2573,7 +2595,7 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="135"/>
+      <c r="A32" s="103"/>
       <c r="B32" s="26">
         <v>41601</v>
       </c>
@@ -2586,7 +2608,7 @@
       <c r="E32" s="50">
         <v>0.9</v>
       </c>
-      <c r="F32" s="90"/>
+      <c r="F32" s="78"/>
       <c r="G32" s="57" t="s">
         <v>22</v>
       </c>
@@ -2603,7 +2625,7 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="91">
+      <c r="A33" s="73">
         <v>4</v>
       </c>
       <c r="B33" s="27">
@@ -2637,7 +2659,7 @@
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="9">
-        <f>SUM(E82:E86)</f>
+        <f>SUM(E84:E88)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -2645,7 +2667,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="92"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="27">
         <v>41604</v>
       </c>
@@ -2658,7 +2680,7 @@
       <c r="E34" s="28">
         <v>1</v>
       </c>
-      <c r="F34" s="114">
+      <c r="F34" s="122">
         <f>SUM(E34:E37)</f>
         <v>5.75</v>
       </c>
@@ -2676,7 +2698,7 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="92"/>
+      <c r="A35" s="74"/>
       <c r="B35" s="27">
         <v>41604</v>
       </c>
@@ -2689,7 +2711,7 @@
       <c r="E35" s="28">
         <v>1.5</v>
       </c>
-      <c r="F35" s="92"/>
+      <c r="F35" s="74"/>
       <c r="G35" s="67" t="s">
         <v>23</v>
       </c>
@@ -2706,7 +2728,7 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="92"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="27">
         <v>41604</v>
       </c>
@@ -2719,7 +2741,7 @@
       <c r="E36" s="28">
         <v>1.25</v>
       </c>
-      <c r="F36" s="92"/>
+      <c r="F36" s="74"/>
       <c r="G36" s="67" t="s">
         <v>19</v>
       </c>
@@ -2736,7 +2758,7 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A37" s="92"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="27">
         <v>41604</v>
       </c>
@@ -2749,7 +2771,7 @@
       <c r="E37" s="69">
         <v>2</v>
       </c>
-      <c r="F37" s="93"/>
+      <c r="F37" s="75"/>
       <c r="G37" s="67" t="s">
         <v>22</v>
       </c>
@@ -2767,7 +2789,7 @@
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="9">
-        <f>SUM(E87:E91)</f>
+        <f>SUM(E89:E93)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2775,7 +2797,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="92"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="27">
         <v>41605</v>
       </c>
@@ -2788,7 +2810,7 @@
       <c r="E38" s="69">
         <v>2.33</v>
       </c>
-      <c r="F38" s="91">
+      <c r="F38" s="73">
         <f>SUM(E38:E39)</f>
         <v>2.83</v>
       </c>
@@ -2805,7 +2827,7 @@
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="9">
-        <f>SUM(E92:E96)</f>
+        <f>SUM(E94:E98)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2813,7 +2835,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="92"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="27">
         <v>41605</v>
       </c>
@@ -2826,7 +2848,7 @@
       <c r="E39" s="69">
         <v>0.5</v>
       </c>
-      <c r="F39" s="93"/>
+      <c r="F39" s="75"/>
       <c r="G39" s="67" t="s">
         <v>22</v>
       </c>
@@ -2843,85 +2865,95 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="92"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="27">
         <v>41606</v>
       </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
+      <c r="C40" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="69">
+        <v>1.33</v>
+      </c>
+      <c r="F40" s="73">
+        <f>SUM(E40:E42)</f>
+        <v>5.83</v>
+      </c>
+      <c r="G40" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="71" t="s">
+        <v>140</v>
+      </c>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
-      <c r="K40" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="K40" s="7"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="9">
-        <f>SUM(E97:E101)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="93"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="27">
-        <v>41607</v>
-      </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
+        <v>41606</v>
+      </c>
+      <c r="C41" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="69">
+        <v>1.75</v>
+      </c>
+      <c r="F41" s="74"/>
+      <c r="G41" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="71" t="s">
+        <v>141</v>
+      </c>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
-      <c r="K41" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="K41" s="7"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="9">
-        <f>SUM(E102:E106)</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="110">
-        <v>5</v>
-      </c>
-      <c r="B42" s="26">
-        <v>41610</v>
-      </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="74"/>
+      <c r="B42" s="27">
+        <v>41606</v>
+      </c>
+      <c r="C42" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="69">
+        <v>2.75</v>
+      </c>
+      <c r="F42" s="75"/>
+      <c r="G42" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67" t="s">
+        <v>142</v>
+      </c>
       <c r="K42" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="9">
-        <f>SUM(E107:E111)</f>
+        <f>SUM(E99:E103)</f>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -2929,27 +2961,27 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="111"/>
-      <c r="B43" s="26">
-        <v>41611</v>
-      </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55">
+      <c r="A43" s="75"/>
+      <c r="B43" s="27">
+        <v>41607</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
       <c r="K43" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="9">
-        <f>SUM(E112:E116)</f>
+        <f>SUM(E104:E108)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
@@ -2957,9 +2989,11 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="111"/>
+      <c r="A44" s="76">
+        <v>5</v>
+      </c>
       <c r="B44" s="26">
-        <v>41612</v>
+        <v>41610</v>
       </c>
       <c r="C44" s="55"/>
       <c r="D44" s="55"/>
@@ -2973,11 +3007,11 @@
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
       <c r="K44" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="9">
-        <f>SUM(E117:E121)</f>
+        <f>SUM(E109:E113)</f>
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -2985,9 +3019,9 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="111"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="26">
-        <v>41613</v>
+        <v>41611</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="55"/>
@@ -3001,11 +3035,11 @@
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
       <c r="K45" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="9">
-        <f>SUM(E122:E126)</f>
+        <f>SUM(E114:E118)</f>
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
@@ -3013,9 +3047,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="90"/>
+      <c r="A46" s="77"/>
       <c r="B46" s="26">
-        <v>41614</v>
+        <v>41612</v>
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
@@ -3029,11 +3063,11 @@
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
       <c r="K46" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="9">
-        <f>SUM(E127:E131)</f>
+        <f>SUM(E119:E123)</f>
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
@@ -3041,29 +3075,27 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="91">
-        <v>6</v>
-      </c>
-      <c r="B47" s="27">
-        <v>41617</v>
-      </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69">
+      <c r="A47" s="77"/>
+      <c r="B47" s="26">
+        <v>41613</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
       <c r="K47" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="9">
-        <f>SUM(E132:E136)</f>
+        <f>SUM(E124:E128)</f>
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
@@ -3071,27 +3103,27 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="92"/>
-      <c r="B48" s="27">
-        <v>41618</v>
-      </c>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69">
+      <c r="A48" s="78"/>
+      <c r="B48" s="26">
+        <v>41614</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
       <c r="K48" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="9">
-        <f>SUM(E137:E141)</f>
+        <f>SUM(E129:E133)</f>
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
@@ -3099,9 +3131,11 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="92"/>
+      <c r="A49" s="73">
+        <v>6</v>
+      </c>
       <c r="B49" s="27">
-        <v>41619</v>
+        <v>41617</v>
       </c>
       <c r="C49" s="69"/>
       <c r="D49" s="69"/>
@@ -3115,11 +3149,11 @@
       <c r="I49" s="67"/>
       <c r="J49" s="67"/>
       <c r="K49" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="9">
-        <f>SUM(E142:E146)</f>
+        <f>SUM(E134:E138)</f>
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
@@ -3127,9 +3161,9 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="92"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="27">
-        <v>41620</v>
+        <v>41618</v>
       </c>
       <c r="C50" s="69"/>
       <c r="D50" s="69"/>
@@ -3143,11 +3177,11 @@
       <c r="I50" s="67"/>
       <c r="J50" s="67"/>
       <c r="K50" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="9">
-        <f>SUM(E147:E151)</f>
+        <f>SUM(E139:E143)</f>
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
@@ -3155,9 +3189,9 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="93"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="27">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="C51" s="69"/>
       <c r="D51" s="69"/>
@@ -3171,11 +3205,11 @@
       <c r="I51" s="67"/>
       <c r="J51" s="67"/>
       <c r="K51" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="9">
-        <f>SUM(E152:E156)</f>
+        <f>SUM(E144:E148)</f>
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
@@ -3183,29 +3217,27 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="110">
-        <v>7</v>
-      </c>
-      <c r="B52" s="26">
-        <v>41624</v>
-      </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55">
+      <c r="A52" s="74"/>
+      <c r="B52" s="27">
+        <v>41620</v>
+      </c>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
       <c r="K52" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="9">
-        <f>SUM(E157:E161)</f>
+        <f>SUM(E149:E153)</f>
         <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
@@ -3213,27 +3245,27 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="111"/>
-      <c r="B53" s="26">
-        <v>41625</v>
-      </c>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55">
+      <c r="A53" s="75"/>
+      <c r="B53" s="27">
+        <v>41621</v>
+      </c>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
       <c r="K53" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="9">
-        <f>SUM(E162:E166)</f>
+        <f>SUM(E154:E158)</f>
         <v>0</v>
       </c>
       <c r="N53" s="3" t="s">
@@ -3241,9 +3273,11 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="111"/>
+      <c r="A54" s="76">
+        <v>7</v>
+      </c>
       <c r="B54" s="26">
-        <v>41626</v>
+        <v>41624</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
@@ -3257,11 +3291,11 @@
       <c r="I54" s="29"/>
       <c r="J54" s="29"/>
       <c r="K54" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="9">
-        <f>SUM(E167:E171)</f>
+        <f>SUM(E159:E163)</f>
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
@@ -3269,9 +3303,9 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="111"/>
+      <c r="A55" s="77"/>
       <c r="B55" s="26">
-        <v>41627</v>
+        <v>41625</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
@@ -3284,11 +3318,22 @@
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
+      <c r="K55" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L55" s="5"/>
+      <c r="M55" s="9">
+        <f>SUM(E164:E168)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="90"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="26">
-        <v>41628</v>
+        <v>41626</v>
       </c>
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
@@ -3301,47 +3346,58 @@
       <c r="H56" s="29"/>
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
+      <c r="K56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L56" s="5"/>
+      <c r="M56" s="9">
+        <f>SUM(E169:E173)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="91">
+      <c r="A57" s="77"/>
+      <c r="B57" s="26">
+        <v>41627</v>
+      </c>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="78"/>
+      <c r="B58" s="26">
+        <v>41628</v>
+      </c>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="73">
         <v>8</v>
       </c>
-      <c r="B57" s="27">
+      <c r="B59" s="27">
         <v>41631</v>
-      </c>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="92"/>
-      <c r="B58" s="27">
-        <v>41632</v>
-      </c>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="92"/>
-      <c r="B59" s="27">
-        <v>41633</v>
       </c>
       <c r="C59" s="69"/>
       <c r="D59" s="69"/>
@@ -3356,9 +3412,9 @@
       <c r="J59" s="67"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="92"/>
+      <c r="A60" s="74"/>
       <c r="B60" s="27">
-        <v>41634</v>
+        <v>41632</v>
       </c>
       <c r="C60" s="69"/>
       <c r="D60" s="69"/>
@@ -3373,9 +3429,9 @@
       <c r="J60" s="67"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="93"/>
+      <c r="A61" s="74"/>
       <c r="B61" s="27">
-        <v>41635</v>
+        <v>41633</v>
       </c>
       <c r="C61" s="69"/>
       <c r="D61" s="69"/>
@@ -3390,51 +3446,51 @@
       <c r="J61" s="67"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="110">
+      <c r="A62" s="74"/>
+      <c r="B62" s="27">
+        <v>41634</v>
+      </c>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="75"/>
+      <c r="B63" s="27">
+        <v>41635</v>
+      </c>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="76">
         <v>9</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B64" s="26">
         <v>41638</v>
-      </c>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="111"/>
-      <c r="B63" s="26">
-        <v>41639</v>
-      </c>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="111"/>
-      <c r="B64" s="26">
-        <v>41640</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
       <c r="E64" s="55"/>
       <c r="F64" s="55">
-        <f t="shared" ref="F64:F95" si="1">E64</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G64" s="29"/>
@@ -3443,15 +3499,15 @@
       <c r="J64" s="29"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="111"/>
+      <c r="A65" s="77"/>
       <c r="B65" s="26">
-        <v>41641</v>
+        <v>41639</v>
       </c>
       <c r="C65" s="55"/>
       <c r="D65" s="55"/>
       <c r="E65" s="55"/>
       <c r="F65" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G65" s="29"/>
@@ -3460,15 +3516,15 @@
       <c r="J65" s="29"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="90"/>
+      <c r="A66" s="77"/>
       <c r="B66" s="26">
-        <v>41642</v>
+        <v>41640</v>
       </c>
       <c r="C66" s="55"/>
       <c r="D66" s="55"/>
       <c r="E66" s="55"/>
       <c r="F66" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F66:F97" si="1">E66</f>
         <v>0</v>
       </c>
       <c r="G66" s="29"/>
@@ -3477,45 +3533,45 @@
       <c r="J66" s="29"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="91">
+      <c r="A67" s="77"/>
+      <c r="B67" s="26">
+        <v>41641</v>
+      </c>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="78"/>
+      <c r="B68" s="26">
+        <v>41642</v>
+      </c>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="73">
         <v>10</v>
       </c>
-      <c r="B67" s="27">
+      <c r="B69" s="27">
         <v>41645</v>
-      </c>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="92"/>
-      <c r="B68" s="27">
-        <v>41646</v>
-      </c>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="67"/>
-      <c r="J68" s="67"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="92"/>
-      <c r="B69" s="27">
-        <v>41647</v>
       </c>
       <c r="C69" s="69"/>
       <c r="D69" s="69"/>
@@ -3530,9 +3586,9 @@
       <c r="J69" s="67"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="92"/>
+      <c r="A70" s="74"/>
       <c r="B70" s="27">
-        <v>41648</v>
+        <v>41646</v>
       </c>
       <c r="C70" s="69"/>
       <c r="D70" s="69"/>
@@ -3547,9 +3603,9 @@
       <c r="J70" s="67"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="93"/>
+      <c r="A71" s="74"/>
       <c r="B71" s="27">
-        <v>41649</v>
+        <v>41647</v>
       </c>
       <c r="C71" s="69"/>
       <c r="D71" s="69"/>
@@ -3564,45 +3620,45 @@
       <c r="J71" s="67"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="110">
+      <c r="A72" s="74"/>
+      <c r="B72" s="27">
+        <v>41648</v>
+      </c>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="67"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="75"/>
+      <c r="B73" s="27">
+        <v>41649</v>
+      </c>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="76">
         <v>11</v>
       </c>
-      <c r="B72" s="26">
+      <c r="B74" s="26">
         <v>41652</v>
-      </c>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="111"/>
-      <c r="B73" s="26">
-        <v>41653</v>
-      </c>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="111"/>
-      <c r="B74" s="26">
-        <v>41654</v>
       </c>
       <c r="C74" s="55"/>
       <c r="D74" s="55"/>
@@ -3617,9 +3673,9 @@
       <c r="J74" s="29"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="111"/>
+      <c r="A75" s="77"/>
       <c r="B75" s="26">
-        <v>41655</v>
+        <v>41653</v>
       </c>
       <c r="C75" s="55"/>
       <c r="D75" s="55"/>
@@ -3634,9 +3690,9 @@
       <c r="J75" s="29"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="90"/>
+      <c r="A76" s="77"/>
       <c r="B76" s="26">
-        <v>41656</v>
+        <v>41654</v>
       </c>
       <c r="C76" s="55"/>
       <c r="D76" s="55"/>
@@ -3651,45 +3707,45 @@
       <c r="J76" s="29"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="91">
+      <c r="A77" s="77"/>
+      <c r="B77" s="26">
+        <v>41655</v>
+      </c>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="78"/>
+      <c r="B78" s="26">
+        <v>41656</v>
+      </c>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="73">
         <v>12</v>
       </c>
-      <c r="B77" s="27">
+      <c r="B79" s="27">
         <v>41659</v>
-      </c>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="67"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="67"/>
-      <c r="J77" s="67"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="92"/>
-      <c r="B78" s="27">
-        <v>41660</v>
-      </c>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="92"/>
-      <c r="B79" s="27">
-        <v>41661</v>
       </c>
       <c r="C79" s="69"/>
       <c r="D79" s="69"/>
@@ -3704,9 +3760,9 @@
       <c r="J79" s="67"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="92"/>
+      <c r="A80" s="74"/>
       <c r="B80" s="27">
-        <v>41662</v>
+        <v>41660</v>
       </c>
       <c r="C80" s="69"/>
       <c r="D80" s="69"/>
@@ -3721,9 +3777,9 @@
       <c r="J80" s="67"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="93"/>
+      <c r="A81" s="74"/>
       <c r="B81" s="27">
-        <v>41663</v>
+        <v>41661</v>
       </c>
       <c r="C81" s="69"/>
       <c r="D81" s="69"/>
@@ -3738,49 +3794,45 @@
       <c r="J81" s="67"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="110">
+      <c r="A82" s="74"/>
+      <c r="B82" s="27">
+        <v>41662</v>
+      </c>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="67"/>
+      <c r="J82" s="67"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="75"/>
+      <c r="B83" s="27">
+        <v>41663</v>
+      </c>
+      <c r="C83" s="69"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="76">
         <v>13</v>
       </c>
-      <c r="B82" s="26">
+      <c r="B84" s="26">
         <v>41666</v>
-      </c>
-      <c r="C82" s="55"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="111"/>
-      <c r="B83" s="26">
-        <v>41667</v>
-      </c>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="111"/>
-      <c r="B84" s="26">
-        <v>41668</v>
       </c>
       <c r="C84" s="55"/>
       <c r="D84" s="55"/>
@@ -3797,9 +3849,9 @@
       <c r="J84" s="29"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="111"/>
+      <c r="A85" s="77"/>
       <c r="B85" s="26">
-        <v>41669</v>
+        <v>41667</v>
       </c>
       <c r="C85" s="55"/>
       <c r="D85" s="55"/>
@@ -3816,9 +3868,9 @@
       <c r="J85" s="29"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="90"/>
+      <c r="A86" s="77"/>
       <c r="B86" s="26">
-        <v>41670</v>
+        <v>41668</v>
       </c>
       <c r="C86" s="55"/>
       <c r="D86" s="55"/>
@@ -3835,49 +3887,49 @@
       <c r="J86" s="29"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="91">
+      <c r="A87" s="77"/>
+      <c r="B87" s="26">
+        <v>41669</v>
+      </c>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="78"/>
+      <c r="B88" s="26">
+        <v>41670</v>
+      </c>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="73">
         <v>14</v>
       </c>
-      <c r="B87" s="27">
+      <c r="B89" s="27">
         <v>41673</v>
-      </c>
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H87" s="67"/>
-      <c r="I87" s="67"/>
-      <c r="J87" s="67"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="92"/>
-      <c r="B88" s="27">
-        <v>41674</v>
-      </c>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="69"/>
-      <c r="F88" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H88" s="67"/>
-      <c r="I88" s="67"/>
-      <c r="J88" s="67"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="92"/>
-      <c r="B89" s="27">
-        <v>41675</v>
       </c>
       <c r="C89" s="69"/>
       <c r="D89" s="69"/>
@@ -3894,9 +3946,9 @@
       <c r="J89" s="67"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="92"/>
+      <c r="A90" s="74"/>
       <c r="B90" s="27">
-        <v>41676</v>
+        <v>41674</v>
       </c>
       <c r="C90" s="69"/>
       <c r="D90" s="69"/>
@@ -3913,9 +3965,9 @@
       <c r="J90" s="67"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="93"/>
+      <c r="A91" s="74"/>
       <c r="B91" s="27">
-        <v>41677</v>
+        <v>41675</v>
       </c>
       <c r="C91" s="69"/>
       <c r="D91" s="69"/>
@@ -3932,45 +3984,49 @@
       <c r="J91" s="67"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="110">
+      <c r="A92" s="74"/>
+      <c r="B92" s="27">
+        <v>41676</v>
+      </c>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="67"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="75"/>
+      <c r="B93" s="27">
+        <v>41677</v>
+      </c>
+      <c r="C93" s="69"/>
+      <c r="D93" s="69"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H93" s="67"/>
+      <c r="I93" s="67"/>
+      <c r="J93" s="67"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="76">
         <v>15</v>
       </c>
-      <c r="B92" s="26">
+      <c r="B94" s="26">
         <v>41680</v>
-      </c>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="29"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="111"/>
-      <c r="B93" s="26">
-        <v>41681</v>
-      </c>
-      <c r="C93" s="55"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="29"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="111"/>
-      <c r="B94" s="26">
-        <v>41682</v>
       </c>
       <c r="C94" s="55"/>
       <c r="D94" s="55"/>
@@ -3985,9 +4041,9 @@
       <c r="J94" s="29"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="111"/>
+      <c r="A95" s="77"/>
       <c r="B95" s="26">
-        <v>41683</v>
+        <v>41681</v>
       </c>
       <c r="C95" s="55"/>
       <c r="D95" s="55"/>
@@ -4002,15 +4058,15 @@
       <c r="J95" s="29"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="90"/>
+      <c r="A96" s="77"/>
       <c r="B96" s="26">
-        <v>41684</v>
+        <v>41682</v>
       </c>
       <c r="C96" s="55"/>
       <c r="D96" s="55"/>
       <c r="E96" s="55"/>
       <c r="F96" s="55">
-        <f t="shared" ref="F96:F127" si="2">E96</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G96" s="29"/>
@@ -4019,45 +4075,45 @@
       <c r="J96" s="29"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="91">
+      <c r="A97" s="77"/>
+      <c r="B97" s="26">
+        <v>41683</v>
+      </c>
+      <c r="C97" s="55"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="78"/>
+      <c r="B98" s="26">
+        <v>41684</v>
+      </c>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55">
+        <f t="shared" ref="F98:F129" si="2">E98</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="73">
         <v>16</v>
       </c>
-      <c r="B97" s="27">
+      <c r="B99" s="27">
         <v>41687</v>
-      </c>
-      <c r="C97" s="69"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="69"/>
-      <c r="F97" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="67"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="67"/>
-      <c r="J97" s="67"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="92"/>
-      <c r="B98" s="27">
-        <v>41688</v>
-      </c>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="67"/>
-      <c r="J98" s="67"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="92"/>
-      <c r="B99" s="27">
-        <v>41689</v>
       </c>
       <c r="C99" s="69"/>
       <c r="D99" s="69"/>
@@ -4072,9 +4128,9 @@
       <c r="J99" s="67"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="92"/>
+      <c r="A100" s="74"/>
       <c r="B100" s="27">
-        <v>41690</v>
+        <v>41688</v>
       </c>
       <c r="C100" s="69"/>
       <c r="D100" s="69"/>
@@ -4089,9 +4145,9 @@
       <c r="J100" s="67"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="93"/>
+      <c r="A101" s="74"/>
       <c r="B101" s="27">
-        <v>41691</v>
+        <v>41689</v>
       </c>
       <c r="C101" s="69"/>
       <c r="D101" s="69"/>
@@ -4106,45 +4162,45 @@
       <c r="J101" s="67"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="110">
+      <c r="A102" s="74"/>
+      <c r="B102" s="27">
+        <v>41690</v>
+      </c>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67"/>
+      <c r="J102" s="67"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="75"/>
+      <c r="B103" s="27">
+        <v>41691</v>
+      </c>
+      <c r="C103" s="69"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67"/>
+      <c r="J103" s="67"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="76">
         <v>17</v>
       </c>
-      <c r="B102" s="26">
+      <c r="B104" s="26">
         <v>41694</v>
-      </c>
-      <c r="C102" s="55"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="29"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="111"/>
-      <c r="B103" s="26">
-        <v>41695</v>
-      </c>
-      <c r="C103" s="55"/>
-      <c r="D103" s="55"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="29"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="111"/>
-      <c r="B104" s="26">
-        <v>41696</v>
       </c>
       <c r="C104" s="55"/>
       <c r="D104" s="55"/>
@@ -4159,9 +4215,9 @@
       <c r="J104" s="29"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="111"/>
+      <c r="A105" s="77"/>
       <c r="B105" s="26">
-        <v>41697</v>
+        <v>41695</v>
       </c>
       <c r="C105" s="55"/>
       <c r="D105" s="55"/>
@@ -4176,9 +4232,9 @@
       <c r="J105" s="29"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="90"/>
+      <c r="A106" s="77"/>
       <c r="B106" s="26">
-        <v>41698</v>
+        <v>41696</v>
       </c>
       <c r="C106" s="55"/>
       <c r="D106" s="55"/>
@@ -4193,45 +4249,45 @@
       <c r="J106" s="29"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="91">
+      <c r="A107" s="77"/>
+      <c r="B107" s="26">
+        <v>41697</v>
+      </c>
+      <c r="C107" s="55"/>
+      <c r="D107" s="55"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="78"/>
+      <c r="B108" s="26">
+        <v>41698</v>
+      </c>
+      <c r="C108" s="55"/>
+      <c r="D108" s="55"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="73">
         <v>18</v>
       </c>
-      <c r="B107" s="27">
+      <c r="B109" s="27">
         <v>41701</v>
-      </c>
-      <c r="C107" s="69"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="69"/>
-      <c r="F107" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G107" s="67"/>
-      <c r="H107" s="67"/>
-      <c r="I107" s="67"/>
-      <c r="J107" s="67"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="92"/>
-      <c r="B108" s="27">
-        <v>41702</v>
-      </c>
-      <c r="C108" s="69"/>
-      <c r="D108" s="69"/>
-      <c r="E108" s="69"/>
-      <c r="F108" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="67"/>
-      <c r="H108" s="67"/>
-      <c r="I108" s="67"/>
-      <c r="J108" s="67"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="92"/>
-      <c r="B109" s="27">
-        <v>41703</v>
       </c>
       <c r="C109" s="69"/>
       <c r="D109" s="69"/>
@@ -4246,9 +4302,9 @@
       <c r="J109" s="67"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="92"/>
+      <c r="A110" s="74"/>
       <c r="B110" s="27">
-        <v>41704</v>
+        <v>41702</v>
       </c>
       <c r="C110" s="69"/>
       <c r="D110" s="69"/>
@@ -4263,9 +4319,9 @@
       <c r="J110" s="67"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="93"/>
+      <c r="A111" s="74"/>
       <c r="B111" s="27">
-        <v>41705</v>
+        <v>41703</v>
       </c>
       <c r="C111" s="69"/>
       <c r="D111" s="69"/>
@@ -4280,45 +4336,45 @@
       <c r="J111" s="67"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="110">
+      <c r="A112" s="74"/>
+      <c r="B112" s="27">
+        <v>41704</v>
+      </c>
+      <c r="C112" s="69"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="69"/>
+      <c r="F112" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="67"/>
+      <c r="H112" s="67"/>
+      <c r="I112" s="67"/>
+      <c r="J112" s="67"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="75"/>
+      <c r="B113" s="27">
+        <v>41705</v>
+      </c>
+      <c r="C113" s="69"/>
+      <c r="D113" s="69"/>
+      <c r="E113" s="69"/>
+      <c r="F113" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="67"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="76">
         <v>19</v>
       </c>
-      <c r="B112" s="26">
+      <c r="B114" s="26">
         <v>41708</v>
-      </c>
-      <c r="C112" s="55"/>
-      <c r="D112" s="55"/>
-      <c r="E112" s="55"/>
-      <c r="F112" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="29"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="29"/>
-      <c r="J112" s="29"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="111"/>
-      <c r="B113" s="26">
-        <v>41709</v>
-      </c>
-      <c r="C113" s="55"/>
-      <c r="D113" s="55"/>
-      <c r="E113" s="55"/>
-      <c r="F113" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G113" s="29"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="29"/>
-      <c r="J113" s="29"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="111"/>
-      <c r="B114" s="26">
-        <v>41710</v>
       </c>
       <c r="C114" s="55"/>
       <c r="D114" s="55"/>
@@ -4333,9 +4389,9 @@
       <c r="J114" s="29"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="111"/>
+      <c r="A115" s="77"/>
       <c r="B115" s="26">
-        <v>41711</v>
+        <v>41709</v>
       </c>
       <c r="C115" s="55"/>
       <c r="D115" s="55"/>
@@ -4350,9 +4406,9 @@
       <c r="J115" s="29"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="90"/>
+      <c r="A116" s="77"/>
       <c r="B116" s="26">
-        <v>41712</v>
+        <v>41710</v>
       </c>
       <c r="C116" s="55"/>
       <c r="D116" s="55"/>
@@ -4367,45 +4423,45 @@
       <c r="J116" s="29"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="91">
+      <c r="A117" s="77"/>
+      <c r="B117" s="26">
+        <v>41711</v>
+      </c>
+      <c r="C117" s="55"/>
+      <c r="D117" s="55"/>
+      <c r="E117" s="55"/>
+      <c r="F117" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="29"/>
+      <c r="H117" s="29"/>
+      <c r="I117" s="29"/>
+      <c r="J117" s="29"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="78"/>
+      <c r="B118" s="26">
+        <v>41712</v>
+      </c>
+      <c r="C118" s="55"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="29"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="73">
         <v>20</v>
       </c>
-      <c r="B117" s="27">
+      <c r="B119" s="27">
         <v>41715</v>
-      </c>
-      <c r="C117" s="69"/>
-      <c r="D117" s="69"/>
-      <c r="E117" s="69"/>
-      <c r="F117" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="67"/>
-      <c r="H117" s="67"/>
-      <c r="I117" s="67"/>
-      <c r="J117" s="67"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="92"/>
-      <c r="B118" s="27">
-        <v>41716</v>
-      </c>
-      <c r="C118" s="69"/>
-      <c r="D118" s="69"/>
-      <c r="E118" s="69"/>
-      <c r="F118" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="67"/>
-      <c r="H118" s="67"/>
-      <c r="I118" s="67"/>
-      <c r="J118" s="67"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="92"/>
-      <c r="B119" s="27">
-        <v>41717</v>
       </c>
       <c r="C119" s="69"/>
       <c r="D119" s="69"/>
@@ -4420,9 +4476,9 @@
       <c r="J119" s="67"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="92"/>
+      <c r="A120" s="74"/>
       <c r="B120" s="27">
-        <v>41718</v>
+        <v>41716</v>
       </c>
       <c r="C120" s="69"/>
       <c r="D120" s="69"/>
@@ -4437,9 +4493,9 @@
       <c r="J120" s="67"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="93"/>
+      <c r="A121" s="74"/>
       <c r="B121" s="27">
-        <v>41719</v>
+        <v>41717</v>
       </c>
       <c r="C121" s="69"/>
       <c r="D121" s="69"/>
@@ -4454,45 +4510,45 @@
       <c r="J121" s="67"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="110">
+      <c r="A122" s="74"/>
+      <c r="B122" s="27">
+        <v>41718</v>
+      </c>
+      <c r="C122" s="69"/>
+      <c r="D122" s="69"/>
+      <c r="E122" s="69"/>
+      <c r="F122" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="67"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="67"/>
+      <c r="J122" s="67"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="75"/>
+      <c r="B123" s="27">
+        <v>41719</v>
+      </c>
+      <c r="C123" s="69"/>
+      <c r="D123" s="69"/>
+      <c r="E123" s="69"/>
+      <c r="F123" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="67"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="67"/>
+      <c r="J123" s="67"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="76">
         <v>21</v>
       </c>
-      <c r="B122" s="26">
+      <c r="B124" s="26">
         <v>41722</v>
-      </c>
-      <c r="C122" s="55"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="55"/>
-      <c r="F122" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="29"/>
-      <c r="H122" s="29"/>
-      <c r="I122" s="29"/>
-      <c r="J122" s="29"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="111"/>
-      <c r="B123" s="26">
-        <v>41723</v>
-      </c>
-      <c r="C123" s="55"/>
-      <c r="D123" s="55"/>
-      <c r="E123" s="55"/>
-      <c r="F123" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G123" s="29"/>
-      <c r="H123" s="29"/>
-      <c r="I123" s="29"/>
-      <c r="J123" s="29"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="111"/>
-      <c r="B124" s="26">
-        <v>41724</v>
       </c>
       <c r="C124" s="55"/>
       <c r="D124" s="55"/>
@@ -4507,9 +4563,9 @@
       <c r="J124" s="29"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="111"/>
+      <c r="A125" s="77"/>
       <c r="B125" s="26">
-        <v>41725</v>
+        <v>41723</v>
       </c>
       <c r="C125" s="55"/>
       <c r="D125" s="55"/>
@@ -4524,9 +4580,9 @@
       <c r="J125" s="29"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="90"/>
+      <c r="A126" s="77"/>
       <c r="B126" s="26">
-        <v>41726</v>
+        <v>41724</v>
       </c>
       <c r="C126" s="55"/>
       <c r="D126" s="55"/>
@@ -4541,51 +4597,51 @@
       <c r="J126" s="29"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="91">
+      <c r="A127" s="77"/>
+      <c r="B127" s="26">
+        <v>41725</v>
+      </c>
+      <c r="C127" s="55"/>
+      <c r="D127" s="55"/>
+      <c r="E127" s="55"/>
+      <c r="F127" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
+      <c r="J127" s="29"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="78"/>
+      <c r="B128" s="26">
+        <v>41726</v>
+      </c>
+      <c r="C128" s="55"/>
+      <c r="D128" s="55"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="29"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="73">
         <v>22</v>
       </c>
-      <c r="B127" s="27">
+      <c r="B129" s="27">
         <v>41729</v>
-      </c>
-      <c r="C127" s="69"/>
-      <c r="D127" s="69"/>
-      <c r="E127" s="69"/>
-      <c r="F127" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G127" s="67"/>
-      <c r="H127" s="67"/>
-      <c r="I127" s="67"/>
-      <c r="J127" s="67"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="92"/>
-      <c r="B128" s="27">
-        <v>41730</v>
-      </c>
-      <c r="C128" s="69"/>
-      <c r="D128" s="69"/>
-      <c r="E128" s="69"/>
-      <c r="F128" s="69">
-        <f t="shared" ref="F128:F159" si="3">E128</f>
-        <v>0</v>
-      </c>
-      <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
-      <c r="I128" s="67"/>
-      <c r="J128" s="67"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="92"/>
-      <c r="B129" s="27">
-        <v>41731</v>
       </c>
       <c r="C129" s="69"/>
       <c r="D129" s="69"/>
       <c r="E129" s="69"/>
       <c r="F129" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G129" s="67"/>
@@ -4594,15 +4650,15 @@
       <c r="J129" s="67"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="92"/>
+      <c r="A130" s="74"/>
       <c r="B130" s="27">
-        <v>41732</v>
+        <v>41730</v>
       </c>
       <c r="C130" s="69"/>
       <c r="D130" s="69"/>
       <c r="E130" s="69"/>
       <c r="F130" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F130:F161" si="3">E130</f>
         <v>0</v>
       </c>
       <c r="G130" s="67"/>
@@ -4611,9 +4667,9 @@
       <c r="J130" s="67"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="93"/>
+      <c r="A131" s="74"/>
       <c r="B131" s="27">
-        <v>41733</v>
+        <v>41731</v>
       </c>
       <c r="C131" s="69"/>
       <c r="D131" s="69"/>
@@ -4628,45 +4684,45 @@
       <c r="J131" s="67"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="110">
+      <c r="A132" s="74"/>
+      <c r="B132" s="27">
+        <v>41732</v>
+      </c>
+      <c r="C132" s="69"/>
+      <c r="D132" s="69"/>
+      <c r="E132" s="69"/>
+      <c r="F132" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G132" s="67"/>
+      <c r="H132" s="67"/>
+      <c r="I132" s="67"/>
+      <c r="J132" s="67"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="75"/>
+      <c r="B133" s="27">
+        <v>41733</v>
+      </c>
+      <c r="C133" s="69"/>
+      <c r="D133" s="69"/>
+      <c r="E133" s="69"/>
+      <c r="F133" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="67"/>
+      <c r="H133" s="67"/>
+      <c r="I133" s="67"/>
+      <c r="J133" s="67"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="76">
         <v>23</v>
       </c>
-      <c r="B132" s="26">
+      <c r="B134" s="26">
         <v>41736</v>
-      </c>
-      <c r="C132" s="55"/>
-      <c r="D132" s="55"/>
-      <c r="E132" s="55"/>
-      <c r="F132" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G132" s="29"/>
-      <c r="H132" s="29"/>
-      <c r="I132" s="29"/>
-      <c r="J132" s="29"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="111"/>
-      <c r="B133" s="26">
-        <v>41737</v>
-      </c>
-      <c r="C133" s="55"/>
-      <c r="D133" s="55"/>
-      <c r="E133" s="55"/>
-      <c r="F133" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G133" s="29"/>
-      <c r="H133" s="29"/>
-      <c r="I133" s="29"/>
-      <c r="J133" s="29"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="111"/>
-      <c r="B134" s="26">
-        <v>41738</v>
       </c>
       <c r="C134" s="55"/>
       <c r="D134" s="55"/>
@@ -4681,9 +4737,9 @@
       <c r="J134" s="29"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="111"/>
+      <c r="A135" s="77"/>
       <c r="B135" s="26">
-        <v>41739</v>
+        <v>41737</v>
       </c>
       <c r="C135" s="55"/>
       <c r="D135" s="55"/>
@@ -4698,9 +4754,9 @@
       <c r="J135" s="29"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="90"/>
+      <c r="A136" s="77"/>
       <c r="B136" s="26">
-        <v>41740</v>
+        <v>41738</v>
       </c>
       <c r="C136" s="55"/>
       <c r="D136" s="55"/>
@@ -4715,45 +4771,45 @@
       <c r="J136" s="29"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="91">
+      <c r="A137" s="77"/>
+      <c r="B137" s="26">
+        <v>41739</v>
+      </c>
+      <c r="C137" s="55"/>
+      <c r="D137" s="55"/>
+      <c r="E137" s="55"/>
+      <c r="F137" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="29"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="78"/>
+      <c r="B138" s="26">
+        <v>41740</v>
+      </c>
+      <c r="C138" s="55"/>
+      <c r="D138" s="55"/>
+      <c r="E138" s="55"/>
+      <c r="F138" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29"/>
+      <c r="J138" s="29"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="73">
         <v>24</v>
       </c>
-      <c r="B137" s="27">
+      <c r="B139" s="27">
         <v>41743</v>
-      </c>
-      <c r="C137" s="69"/>
-      <c r="D137" s="69"/>
-      <c r="E137" s="69"/>
-      <c r="F137" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G137" s="67"/>
-      <c r="H137" s="67"/>
-      <c r="I137" s="67"/>
-      <c r="J137" s="67"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="92"/>
-      <c r="B138" s="27">
-        <v>41744</v>
-      </c>
-      <c r="C138" s="69"/>
-      <c r="D138" s="69"/>
-      <c r="E138" s="69"/>
-      <c r="F138" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G138" s="67"/>
-      <c r="H138" s="67"/>
-      <c r="I138" s="67"/>
-      <c r="J138" s="67"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="92"/>
-      <c r="B139" s="27">
-        <v>41745</v>
       </c>
       <c r="C139" s="69"/>
       <c r="D139" s="69"/>
@@ -4768,9 +4824,9 @@
       <c r="J139" s="67"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="92"/>
+      <c r="A140" s="74"/>
       <c r="B140" s="27">
-        <v>41746</v>
+        <v>41744</v>
       </c>
       <c r="C140" s="69"/>
       <c r="D140" s="69"/>
@@ -4785,9 +4841,9 @@
       <c r="J140" s="67"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="93"/>
+      <c r="A141" s="74"/>
       <c r="B141" s="27">
-        <v>41747</v>
+        <v>41745</v>
       </c>
       <c r="C141" s="69"/>
       <c r="D141" s="69"/>
@@ -4802,45 +4858,45 @@
       <c r="J141" s="67"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="110">
+      <c r="A142" s="74"/>
+      <c r="B142" s="27">
+        <v>41746</v>
+      </c>
+      <c r="C142" s="69"/>
+      <c r="D142" s="69"/>
+      <c r="E142" s="69"/>
+      <c r="F142" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G142" s="67"/>
+      <c r="H142" s="67"/>
+      <c r="I142" s="67"/>
+      <c r="J142" s="67"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="75"/>
+      <c r="B143" s="27">
+        <v>41747</v>
+      </c>
+      <c r="C143" s="69"/>
+      <c r="D143" s="69"/>
+      <c r="E143" s="69"/>
+      <c r="F143" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="67"/>
+      <c r="H143" s="67"/>
+      <c r="I143" s="67"/>
+      <c r="J143" s="67"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="76">
         <v>25</v>
       </c>
-      <c r="B142" s="26">
+      <c r="B144" s="26">
         <v>41750</v>
-      </c>
-      <c r="C142" s="55"/>
-      <c r="D142" s="55"/>
-      <c r="E142" s="55"/>
-      <c r="F142" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G142" s="29"/>
-      <c r="H142" s="29"/>
-      <c r="I142" s="29"/>
-      <c r="J142" s="29"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="111"/>
-      <c r="B143" s="26">
-        <v>41751</v>
-      </c>
-      <c r="C143" s="55"/>
-      <c r="D143" s="55"/>
-      <c r="E143" s="55"/>
-      <c r="F143" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G143" s="29"/>
-      <c r="H143" s="29"/>
-      <c r="I143" s="29"/>
-      <c r="J143" s="29"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="111"/>
-      <c r="B144" s="26">
-        <v>41752</v>
       </c>
       <c r="C144" s="55"/>
       <c r="D144" s="55"/>
@@ -4855,9 +4911,9 @@
       <c r="J144" s="29"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="111"/>
+      <c r="A145" s="77"/>
       <c r="B145" s="26">
-        <v>41753</v>
+        <v>41751</v>
       </c>
       <c r="C145" s="55"/>
       <c r="D145" s="55"/>
@@ -4872,9 +4928,9 @@
       <c r="J145" s="29"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="90"/>
+      <c r="A146" s="77"/>
       <c r="B146" s="26">
-        <v>41754</v>
+        <v>41752</v>
       </c>
       <c r="C146" s="55"/>
       <c r="D146" s="55"/>
@@ -4889,45 +4945,45 @@
       <c r="J146" s="29"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="91">
+      <c r="A147" s="77"/>
+      <c r="B147" s="26">
+        <v>41753</v>
+      </c>
+      <c r="C147" s="55"/>
+      <c r="D147" s="55"/>
+      <c r="E147" s="55"/>
+      <c r="F147" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
+      <c r="I147" s="29"/>
+      <c r="J147" s="29"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="78"/>
+      <c r="B148" s="26">
+        <v>41754</v>
+      </c>
+      <c r="C148" s="55"/>
+      <c r="D148" s="55"/>
+      <c r="E148" s="55"/>
+      <c r="F148" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="29"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="73">
         <v>26</v>
       </c>
-      <c r="B147" s="27">
+      <c r="B149" s="27">
         <v>41757</v>
-      </c>
-      <c r="C147" s="69"/>
-      <c r="D147" s="69"/>
-      <c r="E147" s="69"/>
-      <c r="F147" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G147" s="67"/>
-      <c r="H147" s="67"/>
-      <c r="I147" s="67"/>
-      <c r="J147" s="67"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="92"/>
-      <c r="B148" s="27">
-        <v>41758</v>
-      </c>
-      <c r="C148" s="69"/>
-      <c r="D148" s="69"/>
-      <c r="E148" s="69"/>
-      <c r="F148" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G148" s="67"/>
-      <c r="H148" s="67"/>
-      <c r="I148" s="67"/>
-      <c r="J148" s="67"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="92"/>
-      <c r="B149" s="27">
-        <v>41759</v>
       </c>
       <c r="C149" s="69"/>
       <c r="D149" s="69"/>
@@ -4942,9 +4998,9 @@
       <c r="J149" s="67"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="92"/>
+      <c r="A150" s="74"/>
       <c r="B150" s="27">
-        <v>41760</v>
+        <v>41758</v>
       </c>
       <c r="C150" s="69"/>
       <c r="D150" s="69"/>
@@ -4959,9 +5015,9 @@
       <c r="J150" s="67"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="93"/>
+      <c r="A151" s="74"/>
       <c r="B151" s="27">
-        <v>41761</v>
+        <v>41759</v>
       </c>
       <c r="C151" s="69"/>
       <c r="D151" s="69"/>
@@ -4976,45 +5032,45 @@
       <c r="J151" s="67"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="110">
+      <c r="A152" s="74"/>
+      <c r="B152" s="27">
+        <v>41760</v>
+      </c>
+      <c r="C152" s="69"/>
+      <c r="D152" s="69"/>
+      <c r="E152" s="69"/>
+      <c r="F152" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G152" s="67"/>
+      <c r="H152" s="67"/>
+      <c r="I152" s="67"/>
+      <c r="J152" s="67"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="75"/>
+      <c r="B153" s="27">
+        <v>41761</v>
+      </c>
+      <c r="C153" s="69"/>
+      <c r="D153" s="69"/>
+      <c r="E153" s="69"/>
+      <c r="F153" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G153" s="67"/>
+      <c r="H153" s="67"/>
+      <c r="I153" s="67"/>
+      <c r="J153" s="67"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="76">
         <v>27</v>
       </c>
-      <c r="B152" s="26">
+      <c r="B154" s="26">
         <v>41764</v>
-      </c>
-      <c r="C152" s="55"/>
-      <c r="D152" s="55"/>
-      <c r="E152" s="55"/>
-      <c r="F152" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G152" s="29"/>
-      <c r="H152" s="29"/>
-      <c r="I152" s="29"/>
-      <c r="J152" s="29"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="111"/>
-      <c r="B153" s="26">
-        <v>41765</v>
-      </c>
-      <c r="C153" s="55"/>
-      <c r="D153" s="55"/>
-      <c r="E153" s="55"/>
-      <c r="F153" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G153" s="29"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="29"/>
-      <c r="J153" s="29"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="111"/>
-      <c r="B154" s="26">
-        <v>41766</v>
       </c>
       <c r="C154" s="55"/>
       <c r="D154" s="55"/>
@@ -5029,9 +5085,9 @@
       <c r="J154" s="29"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="111"/>
+      <c r="A155" s="77"/>
       <c r="B155" s="26">
-        <v>41767</v>
+        <v>41765</v>
       </c>
       <c r="C155" s="55"/>
       <c r="D155" s="55"/>
@@ -5046,9 +5102,9 @@
       <c r="J155" s="29"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="90"/>
+      <c r="A156" s="77"/>
       <c r="B156" s="26">
-        <v>41768</v>
+        <v>41766</v>
       </c>
       <c r="C156" s="55"/>
       <c r="D156" s="55"/>
@@ -5063,45 +5119,45 @@
       <c r="J156" s="29"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="91">
+      <c r="A157" s="77"/>
+      <c r="B157" s="26">
+        <v>41767</v>
+      </c>
+      <c r="C157" s="55"/>
+      <c r="D157" s="55"/>
+      <c r="E157" s="55"/>
+      <c r="F157" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="29"/>
+      <c r="H157" s="29"/>
+      <c r="I157" s="29"/>
+      <c r="J157" s="29"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="78"/>
+      <c r="B158" s="26">
+        <v>41768</v>
+      </c>
+      <c r="C158" s="55"/>
+      <c r="D158" s="55"/>
+      <c r="E158" s="55"/>
+      <c r="F158" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="29"/>
+      <c r="H158" s="29"/>
+      <c r="I158" s="29"/>
+      <c r="J158" s="29"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="73">
         <v>28</v>
       </c>
-      <c r="B157" s="27">
+      <c r="B159" s="27">
         <v>41771</v>
-      </c>
-      <c r="C157" s="69"/>
-      <c r="D157" s="69"/>
-      <c r="E157" s="69"/>
-      <c r="F157" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G157" s="67"/>
-      <c r="H157" s="67"/>
-      <c r="I157" s="67"/>
-      <c r="J157" s="67"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="92"/>
-      <c r="B158" s="27">
-        <v>41772</v>
-      </c>
-      <c r="C158" s="69"/>
-      <c r="D158" s="69"/>
-      <c r="E158" s="69"/>
-      <c r="F158" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G158" s="67"/>
-      <c r="H158" s="67"/>
-      <c r="I158" s="67"/>
-      <c r="J158" s="67"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="92"/>
-      <c r="B159" s="27">
-        <v>41773</v>
       </c>
       <c r="C159" s="69"/>
       <c r="D159" s="69"/>
@@ -5116,15 +5172,15 @@
       <c r="J159" s="67"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="92"/>
+      <c r="A160" s="74"/>
       <c r="B160" s="27">
-        <v>41774</v>
+        <v>41772</v>
       </c>
       <c r="C160" s="69"/>
       <c r="D160" s="69"/>
       <c r="E160" s="69"/>
       <c r="F160" s="69">
-        <f t="shared" ref="F160:F171" si="4">E160</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G160" s="67"/>
@@ -5133,15 +5189,15 @@
       <c r="J160" s="67"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="93"/>
+      <c r="A161" s="74"/>
       <c r="B161" s="27">
-        <v>41775</v>
+        <v>41773</v>
       </c>
       <c r="C161" s="69"/>
       <c r="D161" s="69"/>
       <c r="E161" s="69"/>
       <c r="F161" s="69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G161" s="67"/>
@@ -5150,45 +5206,45 @@
       <c r="J161" s="67"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="110">
+      <c r="A162" s="74"/>
+      <c r="B162" s="27">
+        <v>41774</v>
+      </c>
+      <c r="C162" s="69"/>
+      <c r="D162" s="69"/>
+      <c r="E162" s="69"/>
+      <c r="F162" s="69">
+        <f t="shared" ref="F162:F173" si="4">E162</f>
+        <v>0</v>
+      </c>
+      <c r="G162" s="67"/>
+      <c r="H162" s="67"/>
+      <c r="I162" s="67"/>
+      <c r="J162" s="67"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="75"/>
+      <c r="B163" s="27">
+        <v>41775</v>
+      </c>
+      <c r="C163" s="69"/>
+      <c r="D163" s="69"/>
+      <c r="E163" s="69"/>
+      <c r="F163" s="69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G163" s="67"/>
+      <c r="H163" s="67"/>
+      <c r="I163" s="67"/>
+      <c r="J163" s="67"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="76">
         <v>29</v>
       </c>
-      <c r="B162" s="26">
+      <c r="B164" s="26">
         <v>41778</v>
-      </c>
-      <c r="C162" s="55"/>
-      <c r="D162" s="55"/>
-      <c r="E162" s="55"/>
-      <c r="F162" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G162" s="29"/>
-      <c r="H162" s="29"/>
-      <c r="I162" s="29"/>
-      <c r="J162" s="29"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="111"/>
-      <c r="B163" s="26">
-        <v>41779</v>
-      </c>
-      <c r="C163" s="55"/>
-      <c r="D163" s="55"/>
-      <c r="E163" s="55"/>
-      <c r="F163" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G163" s="29"/>
-      <c r="H163" s="29"/>
-      <c r="I163" s="29"/>
-      <c r="J163" s="29"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="111"/>
-      <c r="B164" s="26">
-        <v>41780</v>
       </c>
       <c r="C164" s="55"/>
       <c r="D164" s="55"/>
@@ -5203,9 +5259,9 @@
       <c r="J164" s="29"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="111"/>
+      <c r="A165" s="77"/>
       <c r="B165" s="26">
-        <v>41781</v>
+        <v>41779</v>
       </c>
       <c r="C165" s="55"/>
       <c r="D165" s="55"/>
@@ -5220,9 +5276,9 @@
       <c r="J165" s="29"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="90"/>
+      <c r="A166" s="77"/>
       <c r="B166" s="26">
-        <v>41782</v>
+        <v>41780</v>
       </c>
       <c r="C166" s="55"/>
       <c r="D166" s="55"/>
@@ -5237,45 +5293,45 @@
       <c r="J166" s="29"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="136">
+      <c r="A167" s="77"/>
+      <c r="B167" s="26">
+        <v>41781</v>
+      </c>
+      <c r="C167" s="55"/>
+      <c r="D167" s="55"/>
+      <c r="E167" s="55"/>
+      <c r="F167" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G167" s="29"/>
+      <c r="H167" s="29"/>
+      <c r="I167" s="29"/>
+      <c r="J167" s="29"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="78"/>
+      <c r="B168" s="26">
+        <v>41782</v>
+      </c>
+      <c r="C168" s="55"/>
+      <c r="D168" s="55"/>
+      <c r="E168" s="55"/>
+      <c r="F168" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G168" s="29"/>
+      <c r="H168" s="29"/>
+      <c r="I168" s="29"/>
+      <c r="J168" s="29"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="79">
         <v>30</v>
       </c>
-      <c r="B167" s="27">
+      <c r="B169" s="27">
         <v>41785</v>
-      </c>
-      <c r="C167" s="70"/>
-      <c r="D167" s="70"/>
-      <c r="E167" s="70"/>
-      <c r="F167" s="70">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G167" s="37"/>
-      <c r="H167" s="37"/>
-      <c r="I167" s="37"/>
-      <c r="J167" s="37"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="137"/>
-      <c r="B168" s="27">
-        <v>41786</v>
-      </c>
-      <c r="C168" s="70"/>
-      <c r="D168" s="70"/>
-      <c r="E168" s="70"/>
-      <c r="F168" s="70">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G168" s="37"/>
-      <c r="H168" s="37"/>
-      <c r="I168" s="37"/>
-      <c r="J168" s="37"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="137"/>
-      <c r="B169" s="27">
-        <v>41787</v>
       </c>
       <c r="C169" s="70"/>
       <c r="D169" s="70"/>
@@ -5290,9 +5346,9 @@
       <c r="J169" s="37"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="137"/>
+      <c r="A170" s="80"/>
       <c r="B170" s="27">
-        <v>41788</v>
+        <v>41786</v>
       </c>
       <c r="C170" s="70"/>
       <c r="D170" s="70"/>
@@ -5307,9 +5363,9 @@
       <c r="J170" s="37"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="138"/>
+      <c r="A171" s="80"/>
       <c r="B171" s="27">
-        <v>41789</v>
+        <v>41787</v>
       </c>
       <c r="C171" s="70"/>
       <c r="D171" s="70"/>
@@ -5324,28 +5380,38 @@
       <c r="J171" s="37"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="68"/>
-      <c r="B172" s="68"/>
-      <c r="C172" s="68"/>
-      <c r="D172" s="68"/>
-      <c r="E172" s="68"/>
-      <c r="F172" s="68"/>
-      <c r="G172" s="68"/>
-      <c r="H172" s="68"/>
-      <c r="I172" s="68"/>
-      <c r="J172" s="68"/>
+      <c r="A172" s="80"/>
+      <c r="B172" s="27">
+        <v>41788</v>
+      </c>
+      <c r="C172" s="70"/>
+      <c r="D172" s="70"/>
+      <c r="E172" s="70"/>
+      <c r="F172" s="70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G172" s="37"/>
+      <c r="H172" s="37"/>
+      <c r="I172" s="37"/>
+      <c r="J172" s="37"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="68"/>
-      <c r="B173" s="68"/>
-      <c r="C173" s="68"/>
-      <c r="D173" s="68"/>
-      <c r="E173" s="68"/>
-      <c r="F173" s="68"/>
-      <c r="G173" s="68"/>
-      <c r="H173" s="68"/>
-      <c r="I173" s="68"/>
-      <c r="J173" s="68"/>
+      <c r="A173" s="81"/>
+      <c r="B173" s="27">
+        <v>41789</v>
+      </c>
+      <c r="C173" s="70"/>
+      <c r="D173" s="70"/>
+      <c r="E173" s="70"/>
+      <c r="F173" s="70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G173" s="37"/>
+      <c r="H173" s="37"/>
+      <c r="I173" s="37"/>
+      <c r="J173" s="37"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="68"/>
@@ -5431,30 +5497,57 @@
       <c r="I180" s="68"/>
       <c r="J180" s="68"/>
     </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="68"/>
+      <c r="B181" s="68"/>
+      <c r="C181" s="68"/>
+      <c r="D181" s="68"/>
+      <c r="E181" s="68"/>
+      <c r="F181" s="68"/>
+      <c r="G181" s="68"/>
+      <c r="H181" s="68"/>
+      <c r="I181" s="68"/>
+      <c r="J181" s="68"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="68"/>
+      <c r="B182" s="68"/>
+      <c r="C182" s="68"/>
+      <c r="D182" s="68"/>
+      <c r="E182" s="68"/>
+      <c r="F182" s="68"/>
+      <c r="G182" s="68"/>
+      <c r="H182" s="68"/>
+      <c r="I182" s="68"/>
+      <c r="J182" s="68"/>
+    </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A72:A76"/>
+  <mergeCells count="55">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A74:A78"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="F12:F13"/>
@@ -5467,38 +5560,36 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="A19:A32"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="lessThan">
       <formula>700</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="greaterThan">
       <formula>4704</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="between">
       <formula>700</formula>
       <formula>4704</formula>
     </cfRule>
@@ -5512,7 +5603,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="43" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
+          <x14:cfRule type="iconSet" priority="45" id="{0DBDD361-8DEA-4440-A822-84D52DAF7126}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5531,7 +5622,7 @@
           <xm:sqref>M12:M14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="42" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
+          <x14:cfRule type="iconSet" priority="44" id="{B559C907-CDCA-4CF9-AE11-AB3B902CAD1C}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5550,7 +5641,7 @@
           <xm:sqref>M16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="40" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
+          <x14:cfRule type="iconSet" priority="42" id="{71646626-2950-4450-989F-AF3A1BD8FAC2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5569,7 +5660,7 @@
           <xm:sqref>M18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="37" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
+          <x14:cfRule type="iconSet" priority="39" id="{F3D4927F-C508-4AEC-AE77-5B47D8246C97}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5588,7 +5679,7 @@
           <xm:sqref>M19:M21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
+          <x14:cfRule type="iconSet" priority="38" id="{6C6B1EFA-99FD-4C7D-9FDE-A1C62DFDC4A6}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5607,7 +5698,7 @@
           <xm:sqref>M22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="35" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
+          <x14:cfRule type="iconSet" priority="37" id="{728DDD0C-59C2-4EAA-A943-37D530A87696}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5626,7 +5717,7 @@
           <xm:sqref>M23:M26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="34" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
+          <x14:cfRule type="iconSet" priority="36" id="{9AF6B611-56EC-46E2-A851-4E09E28F0C39}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5645,7 +5736,7 @@
           <xm:sqref>M27:M29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
+          <x14:cfRule type="iconSet" priority="35" id="{7A1C8DB1-F7B5-44DF-B6AD-BD94518E2F59}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5664,7 +5755,7 @@
           <xm:sqref>M30:M32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
+          <x14:cfRule type="iconSet" priority="34" id="{798FB9D7-6FEF-4CEA-8CC2-45EE73486721}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5683,7 +5774,7 @@
           <xm:sqref>M33:M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
+          <x14:cfRule type="iconSet" priority="33" id="{9D5A3639-C9C5-40BD-82EE-496926295966}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5702,7 +5793,7 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
+          <x14:cfRule type="iconSet" priority="32" id="{042E6B91-B838-419B-9746-9D04172CBCE2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5718,48 +5809,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M38:M39</xm:sqref>
+          <xm:sqref>M38:M41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
+          <x14:cfRule type="iconSet" priority="31" id="{87212A6D-7255-4CD9-B0F3-3C906F80977E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5778,7 +5831,7 @@
           <xm:sqref>M42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
+          <x14:cfRule type="iconSet" priority="30" id="{BEBCA1A1-AA3F-4294-8922-9827332C0668}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5797,7 +5850,7 @@
           <xm:sqref>M43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="29" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5816,7 +5869,7 @@
           <xm:sqref>M44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="28" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5835,7 +5888,7 @@
           <xm:sqref>M45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="27" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5854,7 +5907,7 @@
           <xm:sqref>M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="26" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5873,7 +5926,7 @@
           <xm:sqref>M47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="25" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5892,7 +5945,7 @@
           <xm:sqref>M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="24" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5911,7 +5964,7 @@
           <xm:sqref>M49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="23" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5930,7 +5983,7 @@
           <xm:sqref>M50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="22" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5949,7 +6002,7 @@
           <xm:sqref>M51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="21" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5968,7 +6021,7 @@
           <xm:sqref>M52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="20" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5987,7 +6040,7 @@
           <xm:sqref>M53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="19" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6006,7 +6059,45 @@
           <xm:sqref>M54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
+          <x14:cfRule type="iconSet" priority="18" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="17" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="16" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6025,7 +6116,7 @@
           <xm:sqref>M8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{6C49D5EC-FFC3-40B5-BEF3-C08FEAABBFA7}">
+          <x14:cfRule type="iconSet" priority="8" id="{6C49D5EC-FFC3-40B5-BEF3-C08FEAABBFA7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6044,7 +6135,7 @@
           <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{13950B4A-31F8-40DD-922D-DC2CA60F3002}">
+          <x14:cfRule type="iconSet" priority="6" id="{13950B4A-31F8-40DD-922D-DC2CA60F3002}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6063,7 +6154,7 @@
           <xm:sqref>F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="45" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
+          <x14:cfRule type="iconSet" priority="47" id="{F4E0A23A-4149-4A2A-B8B1-3E1EE910632F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6079,10 +6170,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F14 F7:F8 F12 F18:F19 F21 F23:F24 F29 F33:F34 F38 F40:F171</xm:sqref>
+          <xm:sqref>F14 F7:F8 F12 F18:F19 F21 F23:F24 F29 F33:F34 F38 F43:F173</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{35213755-788E-43C8-B75E-72DA17285D4A}">
+          <x14:cfRule type="iconSet" priority="4" id="{35213755-788E-43C8-B75E-72DA17285D4A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6101,7 +6192,7 @@
           <xm:sqref>F31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{D436B0D1-9C41-4290-A1C3-9BA213613E2C}">
+          <x14:cfRule type="iconSet" priority="3" id="{D436B0D1-9C41-4290-A1C3-9BA213613E2C}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6119,6 +6210,25 @@
           </x14:cfRule>
           <xm:sqref>M17</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{814260D3-C9B5-4AD4-A23C-2BEE7D803396}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F40</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final Project\1. Project management\9. Timelog\individual time log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7695" activeTab="1"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="List main task" sheetId="2" r:id="rId1"/>
     <sheet name="SEP-PROJECT" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -995,6 +1000,60 @@
     <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1004,13 +1063,130 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1021,177 +1197,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1503,7 +1508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1629,10 +1634,10 @@
   <dimension ref="A1:O182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1653,81 +1658,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="123"/>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="126" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="78"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="81"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="134"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="15"/>
       <c r="H5" s="41" t="s">
         <v>64</v>
@@ -1772,13 +1777,13 @@
       <c r="J6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="135">
+      <c r="A7" s="85">
         <v>1</v>
       </c>
       <c r="B7" s="16">
@@ -1804,10 +1809,10 @@
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="82" t="s">
+      <c r="K7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="82"/>
+      <c r="L7" s="115"/>
       <c r="M7" s="32">
         <f>SUM(M8:M56)</f>
         <v>59.149999999999991</v>
@@ -1817,8 +1822,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="136"/>
-      <c r="B8" s="113">
+      <c r="A8" s="86"/>
+      <c r="B8" s="103">
         <v>41586</v>
       </c>
       <c r="C8" s="17">
@@ -1830,7 +1835,7 @@
       <c r="E8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="115">
+      <c r="F8" s="105">
         <v>1.67</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -1854,8 +1859,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
-      <c r="B9" s="114"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1865,7 +1870,7 @@
       <c r="E9" s="18">
         <v>0.5</v>
       </c>
-      <c r="F9" s="116"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="29" t="s">
         <v>23</v>
       </c>
@@ -1876,10 +1881,10 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91">
+      <c r="A10" s="124">
         <v>2</v>
       </c>
-      <c r="B10" s="94">
+      <c r="B10" s="127">
         <v>41589</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -1891,7 +1896,7 @@
       <c r="E10" s="59">
         <v>2.5</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="129">
         <f>SUM(E10:E11)</f>
         <v>5</v>
       </c>
@@ -1905,8 +1910,8 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="125"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="58" t="s">
         <v>76</v>
       </c>
@@ -1916,7 +1921,7 @@
       <c r="E11" s="59">
         <v>2.5</v>
       </c>
-      <c r="F11" s="97"/>
+      <c r="F11" s="130"/>
       <c r="G11" s="60" t="s">
         <v>22</v>
       </c>
@@ -1929,8 +1934,8 @@
       <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="83">
+      <c r="A12" s="125"/>
+      <c r="B12" s="116">
         <v>41590</v>
       </c>
       <c r="C12" s="22">
@@ -1942,7 +1947,7 @@
       <c r="E12" s="23">
         <v>2.25</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="118">
         <v>3.75</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -1969,8 +1974,8 @@
       <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="92"/>
-      <c r="B13" s="84"/>
+      <c r="A13" s="125"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="22">
         <v>0.91666666666666663</v>
       </c>
@@ -1980,7 +1985,7 @@
       <c r="E13" s="23">
         <v>1.5</v>
       </c>
-      <c r="F13" s="86"/>
+      <c r="F13" s="119"/>
       <c r="G13" s="45" t="s">
         <v>28</v>
       </c>
@@ -1996,8 +2001,8 @@
       <c r="O13" s="34"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="83">
+      <c r="A14" s="125"/>
+      <c r="B14" s="116">
         <v>41591</v>
       </c>
       <c r="C14" s="22">
@@ -2009,7 +2014,7 @@
       <c r="E14" s="23">
         <v>2</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="121">
         <v>4.5</v>
       </c>
       <c r="G14" s="45" t="s">
@@ -2027,8 +2032,8 @@
       <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
-      <c r="B15" s="87"/>
+      <c r="A15" s="125"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="25">
         <v>0.5625</v>
       </c>
@@ -2038,7 +2043,7 @@
       <c r="E15" s="28">
         <v>2</v>
       </c>
-      <c r="F15" s="89"/>
+      <c r="F15" s="122"/>
       <c r="G15" s="30" t="s">
         <v>19</v>
       </c>
@@ -2055,8 +2060,8 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="84"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="25">
         <v>0.83333333333333337</v>
       </c>
@@ -2066,7 +2071,7 @@
       <c r="E16" s="28">
         <v>0.5</v>
       </c>
-      <c r="F16" s="90"/>
+      <c r="F16" s="123"/>
       <c r="G16" s="45" t="s">
         <v>28</v>
       </c>
@@ -2090,7 +2095,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
+      <c r="A17" s="125"/>
       <c r="B17" s="47">
         <v>41592</v>
       </c>
@@ -2129,7 +2134,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
+      <c r="A18" s="126"/>
       <c r="B18" s="42">
         <v>41593</v>
       </c>
@@ -2168,10 +2173,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="101">
+      <c r="A19" s="133">
         <v>3</v>
       </c>
-      <c r="B19" s="98">
+      <c r="B19" s="131">
         <v>41596</v>
       </c>
       <c r="C19" s="53" t="s">
@@ -2183,7 +2188,7 @@
       <c r="E19" s="50">
         <v>0.5</v>
       </c>
-      <c r="F19" s="100">
+      <c r="F19" s="89">
         <f>SUM(E19:E20)</f>
         <v>3.5</v>
       </c>
@@ -2210,8 +2215,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="102"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="53" t="s">
         <v>81</v>
       </c>
@@ -2221,7 +2226,7 @@
       <c r="E20" s="50">
         <v>3</v>
       </c>
-      <c r="F20" s="78"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="49" t="s">
         <v>22</v>
       </c>
@@ -2238,8 +2243,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="102"/>
-      <c r="B21" s="98">
+      <c r="A21" s="134"/>
+      <c r="B21" s="131">
         <v>41597</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -2251,7 +2256,7 @@
       <c r="E21" s="50">
         <v>2</v>
       </c>
-      <c r="F21" s="100">
+      <c r="F21" s="89">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2271,8 +2276,8 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="102"/>
-      <c r="B22" s="99"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="53" t="s">
         <v>84</v>
       </c>
@@ -2282,7 +2287,7 @@
       <c r="E22" s="50">
         <v>0.5</v>
       </c>
-      <c r="F22" s="78"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="49" t="s">
         <v>22</v>
       </c>
@@ -2306,7 +2311,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="102"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="26">
         <v>41598</v>
       </c>
@@ -2346,7 +2351,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="102"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="26">
         <v>41599</v>
       </c>
@@ -2359,7 +2364,7 @@
       <c r="E24" s="50">
         <v>1</v>
       </c>
-      <c r="F24" s="100">
+      <c r="F24" s="89">
         <f>SUM(E24:E28)</f>
         <v>6.9</v>
       </c>
@@ -2377,7 +2382,7 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="102"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="26">
         <v>41599</v>
       </c>
@@ -2390,7 +2395,7 @@
       <c r="E25" s="50">
         <v>1.3</v>
       </c>
-      <c r="F25" s="120"/>
+      <c r="F25" s="112"/>
       <c r="G25" s="57" t="s">
         <v>19</v>
       </c>
@@ -2405,7 +2410,7 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="102"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="26">
         <v>41599</v>
       </c>
@@ -2418,7 +2423,7 @@
       <c r="E26" s="50">
         <v>1.5</v>
       </c>
-      <c r="F26" s="120"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="57" t="s">
         <v>22</v>
       </c>
@@ -2435,7 +2440,7 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="102"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="26">
         <v>41599</v>
       </c>
@@ -2448,7 +2453,7 @@
       <c r="E27" s="50">
         <v>2.1</v>
       </c>
-      <c r="F27" s="120"/>
+      <c r="F27" s="112"/>
       <c r="G27" s="29" t="s">
         <v>19</v>
       </c>
@@ -2470,7 +2475,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="102"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="26">
         <v>41599</v>
       </c>
@@ -2483,7 +2488,7 @@
       <c r="E28" s="50">
         <v>1</v>
       </c>
-      <c r="F28" s="121"/>
+      <c r="F28" s="113"/>
       <c r="G28" s="29" t="s">
         <v>22</v>
       </c>
@@ -2498,7 +2503,7 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="102"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="26">
         <v>41600</v>
       </c>
@@ -2511,7 +2516,7 @@
       <c r="E29" s="50">
         <v>1.2</v>
       </c>
-      <c r="F29" s="100">
+      <c r="F29" s="89">
         <f>SUM(E29:E30)</f>
         <v>3.2</v>
       </c>
@@ -2527,7 +2532,7 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A30" s="102"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="26">
         <v>41600</v>
       </c>
@@ -2540,7 +2545,7 @@
       <c r="E30" s="50">
         <v>2</v>
       </c>
-      <c r="F30" s="78"/>
+      <c r="F30" s="90"/>
       <c r="G30" s="57" t="s">
         <v>22</v>
       </c>
@@ -2562,7 +2567,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="102"/>
+      <c r="A31" s="134"/>
       <c r="B31" s="26">
         <v>41601</v>
       </c>
@@ -2575,7 +2580,7 @@
       <c r="E31" s="50">
         <v>3.5</v>
       </c>
-      <c r="F31" s="100">
+      <c r="F31" s="89">
         <f>SUM(E31:E32)</f>
         <v>4.4000000000000004</v>
       </c>
@@ -2595,7 +2600,7 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="103"/>
+      <c r="A32" s="135"/>
       <c r="B32" s="26">
         <v>41601</v>
       </c>
@@ -2608,7 +2613,7 @@
       <c r="E32" s="50">
         <v>0.9</v>
       </c>
-      <c r="F32" s="78"/>
+      <c r="F32" s="90"/>
       <c r="G32" s="57" t="s">
         <v>22</v>
       </c>
@@ -2625,7 +2630,7 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="73">
+      <c r="A33" s="91">
         <v>4</v>
       </c>
       <c r="B33" s="27">
@@ -2667,7 +2672,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="27">
         <v>41604</v>
       </c>
@@ -2680,7 +2685,7 @@
       <c r="E34" s="28">
         <v>1</v>
       </c>
-      <c r="F34" s="122">
+      <c r="F34" s="114">
         <f>SUM(E34:E37)</f>
         <v>5.75</v>
       </c>
@@ -2698,7 +2703,7 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="74"/>
+      <c r="A35" s="92"/>
       <c r="B35" s="27">
         <v>41604</v>
       </c>
@@ -2711,7 +2716,7 @@
       <c r="E35" s="28">
         <v>1.5</v>
       </c>
-      <c r="F35" s="74"/>
+      <c r="F35" s="92"/>
       <c r="G35" s="67" t="s">
         <v>23</v>
       </c>
@@ -2728,7 +2733,7 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
+      <c r="A36" s="92"/>
       <c r="B36" s="27">
         <v>41604</v>
       </c>
@@ -2741,7 +2746,7 @@
       <c r="E36" s="28">
         <v>1.25</v>
       </c>
-      <c r="F36" s="74"/>
+      <c r="F36" s="92"/>
       <c r="G36" s="67" t="s">
         <v>19</v>
       </c>
@@ -2758,7 +2763,7 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A37" s="74"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="27">
         <v>41604</v>
       </c>
@@ -2771,7 +2776,7 @@
       <c r="E37" s="69">
         <v>2</v>
       </c>
-      <c r="F37" s="75"/>
+      <c r="F37" s="93"/>
       <c r="G37" s="67" t="s">
         <v>22</v>
       </c>
@@ -2797,7 +2802,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
+      <c r="A38" s="92"/>
       <c r="B38" s="27">
         <v>41605</v>
       </c>
@@ -2810,7 +2815,7 @@
       <c r="E38" s="69">
         <v>2.33</v>
       </c>
-      <c r="F38" s="73">
+      <c r="F38" s="91">
         <f>SUM(E38:E39)</f>
         <v>2.83</v>
       </c>
@@ -2835,7 +2840,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="74"/>
+      <c r="A39" s="92"/>
       <c r="B39" s="27">
         <v>41605</v>
       </c>
@@ -2848,7 +2853,7 @@
       <c r="E39" s="69">
         <v>0.5</v>
       </c>
-      <c r="F39" s="75"/>
+      <c r="F39" s="93"/>
       <c r="G39" s="67" t="s">
         <v>22</v>
       </c>
@@ -2865,7 +2870,7 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="27">
         <v>41606</v>
       </c>
@@ -2878,7 +2883,7 @@
       <c r="E40" s="69">
         <v>1.33</v>
       </c>
-      <c r="F40" s="73">
+      <c r="F40" s="91">
         <f>SUM(E40:E42)</f>
         <v>5.83</v>
       </c>
@@ -2896,7 +2901,7 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="74"/>
+      <c r="A41" s="92"/>
       <c r="B41" s="27">
         <v>41606</v>
       </c>
@@ -2909,7 +2914,7 @@
       <c r="E41" s="69">
         <v>1.75</v>
       </c>
-      <c r="F41" s="74"/>
+      <c r="F41" s="92"/>
       <c r="G41" s="67" t="s">
         <v>25</v>
       </c>
@@ -2924,7 +2929,7 @@
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="74"/>
+      <c r="A42" s="92"/>
       <c r="B42" s="27">
         <v>41606</v>
       </c>
@@ -2937,7 +2942,7 @@
       <c r="E42" s="69">
         <v>2.75</v>
       </c>
-      <c r="F42" s="75"/>
+      <c r="F42" s="93"/>
       <c r="G42" s="67" t="s">
         <v>19</v>
       </c>
@@ -2961,7 +2966,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="75"/>
+      <c r="A43" s="93"/>
       <c r="B43" s="27">
         <v>41607</v>
       </c>
@@ -2989,7 +2994,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="76">
+      <c r="A44" s="110">
         <v>5</v>
       </c>
       <c r="B44" s="26">
@@ -3019,7 +3024,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
+      <c r="A45" s="111"/>
       <c r="B45" s="26">
         <v>41611</v>
       </c>
@@ -3047,7 +3052,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
+      <c r="A46" s="111"/>
       <c r="B46" s="26">
         <v>41612</v>
       </c>
@@ -3075,7 +3080,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="77"/>
+      <c r="A47" s="111"/>
       <c r="B47" s="26">
         <v>41613</v>
       </c>
@@ -3103,7 +3108,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="26">
         <v>41614</v>
       </c>
@@ -3131,7 +3136,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="73">
+      <c r="A49" s="91">
         <v>6</v>
       </c>
       <c r="B49" s="27">
@@ -3161,7 +3166,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="74"/>
+      <c r="A50" s="92"/>
       <c r="B50" s="27">
         <v>41618</v>
       </c>
@@ -3189,7 +3194,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="74"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="27">
         <v>41619</v>
       </c>
@@ -3217,7 +3222,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="74"/>
+      <c r="A52" s="92"/>
       <c r="B52" s="27">
         <v>41620</v>
       </c>
@@ -3245,7 +3250,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="75"/>
+      <c r="A53" s="93"/>
       <c r="B53" s="27">
         <v>41621</v>
       </c>
@@ -3273,7 +3278,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="76">
+      <c r="A54" s="110">
         <v>7</v>
       </c>
       <c r="B54" s="26">
@@ -3303,7 +3308,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="77"/>
+      <c r="A55" s="111"/>
       <c r="B55" s="26">
         <v>41625</v>
       </c>
@@ -3331,7 +3336,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="77"/>
+      <c r="A56" s="111"/>
       <c r="B56" s="26">
         <v>41626</v>
       </c>
@@ -3359,7 +3364,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="77"/>
+      <c r="A57" s="111"/>
       <c r="B57" s="26">
         <v>41627</v>
       </c>
@@ -3376,7 +3381,7 @@
       <c r="J57" s="29"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="26">
         <v>41628</v>
       </c>
@@ -3393,7 +3398,7 @@
       <c r="J58" s="29"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="73">
+      <c r="A59" s="91">
         <v>8</v>
       </c>
       <c r="B59" s="27">
@@ -3412,7 +3417,7 @@
       <c r="J59" s="67"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="74"/>
+      <c r="A60" s="92"/>
       <c r="B60" s="27">
         <v>41632</v>
       </c>
@@ -3429,7 +3434,7 @@
       <c r="J60" s="67"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="74"/>
+      <c r="A61" s="92"/>
       <c r="B61" s="27">
         <v>41633</v>
       </c>
@@ -3446,7 +3451,7 @@
       <c r="J61" s="67"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="74"/>
+      <c r="A62" s="92"/>
       <c r="B62" s="27">
         <v>41634</v>
       </c>
@@ -3463,7 +3468,7 @@
       <c r="J62" s="67"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="75"/>
+      <c r="A63" s="93"/>
       <c r="B63" s="27">
         <v>41635</v>
       </c>
@@ -3480,7 +3485,7 @@
       <c r="J63" s="67"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="76">
+      <c r="A64" s="110">
         <v>9</v>
       </c>
       <c r="B64" s="26">
@@ -3499,7 +3504,7 @@
       <c r="J64" s="29"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="77"/>
+      <c r="A65" s="111"/>
       <c r="B65" s="26">
         <v>41639</v>
       </c>
@@ -3516,7 +3521,7 @@
       <c r="J65" s="29"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="77"/>
+      <c r="A66" s="111"/>
       <c r="B66" s="26">
         <v>41640</v>
       </c>
@@ -3533,7 +3538,7 @@
       <c r="J66" s="29"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="77"/>
+      <c r="A67" s="111"/>
       <c r="B67" s="26">
         <v>41641</v>
       </c>
@@ -3550,7 +3555,7 @@
       <c r="J67" s="29"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="78"/>
+      <c r="A68" s="90"/>
       <c r="B68" s="26">
         <v>41642</v>
       </c>
@@ -3567,7 +3572,7 @@
       <c r="J68" s="29"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="73">
+      <c r="A69" s="91">
         <v>10</v>
       </c>
       <c r="B69" s="27">
@@ -3586,7 +3591,7 @@
       <c r="J69" s="67"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="74"/>
+      <c r="A70" s="92"/>
       <c r="B70" s="27">
         <v>41646</v>
       </c>
@@ -3603,7 +3608,7 @@
       <c r="J70" s="67"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="74"/>
+      <c r="A71" s="92"/>
       <c r="B71" s="27">
         <v>41647</v>
       </c>
@@ -3620,7 +3625,7 @@
       <c r="J71" s="67"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="74"/>
+      <c r="A72" s="92"/>
       <c r="B72" s="27">
         <v>41648</v>
       </c>
@@ -3637,7 +3642,7 @@
       <c r="J72" s="67"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="75"/>
+      <c r="A73" s="93"/>
       <c r="B73" s="27">
         <v>41649</v>
       </c>
@@ -3654,7 +3659,7 @@
       <c r="J73" s="67"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="76">
+      <c r="A74" s="110">
         <v>11</v>
       </c>
       <c r="B74" s="26">
@@ -3673,7 +3678,7 @@
       <c r="J74" s="29"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="77"/>
+      <c r="A75" s="111"/>
       <c r="B75" s="26">
         <v>41653</v>
       </c>
@@ -3690,7 +3695,7 @@
       <c r="J75" s="29"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="77"/>
+      <c r="A76" s="111"/>
       <c r="B76" s="26">
         <v>41654</v>
       </c>
@@ -3707,7 +3712,7 @@
       <c r="J76" s="29"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="77"/>
+      <c r="A77" s="111"/>
       <c r="B77" s="26">
         <v>41655</v>
       </c>
@@ -3724,7 +3729,7 @@
       <c r="J77" s="29"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="78"/>
+      <c r="A78" s="90"/>
       <c r="B78" s="26">
         <v>41656</v>
       </c>
@@ -3741,7 +3746,7 @@
       <c r="J78" s="29"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="73">
+      <c r="A79" s="91">
         <v>12</v>
       </c>
       <c r="B79" s="27">
@@ -3760,7 +3765,7 @@
       <c r="J79" s="67"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="74"/>
+      <c r="A80" s="92"/>
       <c r="B80" s="27">
         <v>41660</v>
       </c>
@@ -3777,7 +3782,7 @@
       <c r="J80" s="67"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="74"/>
+      <c r="A81" s="92"/>
       <c r="B81" s="27">
         <v>41661</v>
       </c>
@@ -3794,7 +3799,7 @@
       <c r="J81" s="67"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="74"/>
+      <c r="A82" s="92"/>
       <c r="B82" s="27">
         <v>41662</v>
       </c>
@@ -3811,7 +3816,7 @@
       <c r="J82" s="67"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="75"/>
+      <c r="A83" s="93"/>
       <c r="B83" s="27">
         <v>41663</v>
       </c>
@@ -3828,7 +3833,7 @@
       <c r="J83" s="67"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="76">
+      <c r="A84" s="110">
         <v>13</v>
       </c>
       <c r="B84" s="26">
@@ -3849,7 +3854,7 @@
       <c r="J84" s="29"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="77"/>
+      <c r="A85" s="111"/>
       <c r="B85" s="26">
         <v>41667</v>
       </c>
@@ -3868,7 +3873,7 @@
       <c r="J85" s="29"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="77"/>
+      <c r="A86" s="111"/>
       <c r="B86" s="26">
         <v>41668</v>
       </c>
@@ -3887,7 +3892,7 @@
       <c r="J86" s="29"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="77"/>
+      <c r="A87" s="111"/>
       <c r="B87" s="26">
         <v>41669</v>
       </c>
@@ -3906,7 +3911,7 @@
       <c r="J87" s="29"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="78"/>
+      <c r="A88" s="90"/>
       <c r="B88" s="26">
         <v>41670</v>
       </c>
@@ -3925,7 +3930,7 @@
       <c r="J88" s="29"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="73">
+      <c r="A89" s="91">
         <v>14</v>
       </c>
       <c r="B89" s="27">
@@ -3946,7 +3951,7 @@
       <c r="J89" s="67"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="74"/>
+      <c r="A90" s="92"/>
       <c r="B90" s="27">
         <v>41674</v>
       </c>
@@ -3965,7 +3970,7 @@
       <c r="J90" s="67"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="74"/>
+      <c r="A91" s="92"/>
       <c r="B91" s="27">
         <v>41675</v>
       </c>
@@ -3984,7 +3989,7 @@
       <c r="J91" s="67"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="74"/>
+      <c r="A92" s="92"/>
       <c r="B92" s="27">
         <v>41676</v>
       </c>
@@ -4003,7 +4008,7 @@
       <c r="J92" s="67"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="75"/>
+      <c r="A93" s="93"/>
       <c r="B93" s="27">
         <v>41677</v>
       </c>
@@ -4022,7 +4027,7 @@
       <c r="J93" s="67"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="76">
+      <c r="A94" s="110">
         <v>15</v>
       </c>
       <c r="B94" s="26">
@@ -4041,7 +4046,7 @@
       <c r="J94" s="29"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
+      <c r="A95" s="111"/>
       <c r="B95" s="26">
         <v>41681</v>
       </c>
@@ -4058,7 +4063,7 @@
       <c r="J95" s="29"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="77"/>
+      <c r="A96" s="111"/>
       <c r="B96" s="26">
         <v>41682</v>
       </c>
@@ -4075,7 +4080,7 @@
       <c r="J96" s="29"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="77"/>
+      <c r="A97" s="111"/>
       <c r="B97" s="26">
         <v>41683</v>
       </c>
@@ -4092,7 +4097,7 @@
       <c r="J97" s="29"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="78"/>
+      <c r="A98" s="90"/>
       <c r="B98" s="26">
         <v>41684</v>
       </c>
@@ -4109,7 +4114,7 @@
       <c r="J98" s="29"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="73">
+      <c r="A99" s="91">
         <v>16</v>
       </c>
       <c r="B99" s="27">
@@ -4128,7 +4133,7 @@
       <c r="J99" s="67"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="74"/>
+      <c r="A100" s="92"/>
       <c r="B100" s="27">
         <v>41688</v>
       </c>
@@ -4145,7 +4150,7 @@
       <c r="J100" s="67"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="74"/>
+      <c r="A101" s="92"/>
       <c r="B101" s="27">
         <v>41689</v>
       </c>
@@ -4162,7 +4167,7 @@
       <c r="J101" s="67"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="74"/>
+      <c r="A102" s="92"/>
       <c r="B102" s="27">
         <v>41690</v>
       </c>
@@ -4179,7 +4184,7 @@
       <c r="J102" s="67"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="75"/>
+      <c r="A103" s="93"/>
       <c r="B103" s="27">
         <v>41691</v>
       </c>
@@ -4196,7 +4201,7 @@
       <c r="J103" s="67"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="76">
+      <c r="A104" s="110">
         <v>17</v>
       </c>
       <c r="B104" s="26">
@@ -4215,7 +4220,7 @@
       <c r="J104" s="29"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="77"/>
+      <c r="A105" s="111"/>
       <c r="B105" s="26">
         <v>41695</v>
       </c>
@@ -4232,7 +4237,7 @@
       <c r="J105" s="29"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="77"/>
+      <c r="A106" s="111"/>
       <c r="B106" s="26">
         <v>41696</v>
       </c>
@@ -4249,7 +4254,7 @@
       <c r="J106" s="29"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="77"/>
+      <c r="A107" s="111"/>
       <c r="B107" s="26">
         <v>41697</v>
       </c>
@@ -4266,7 +4271,7 @@
       <c r="J107" s="29"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="78"/>
+      <c r="A108" s="90"/>
       <c r="B108" s="26">
         <v>41698</v>
       </c>
@@ -4283,7 +4288,7 @@
       <c r="J108" s="29"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="73">
+      <c r="A109" s="91">
         <v>18</v>
       </c>
       <c r="B109" s="27">
@@ -4302,7 +4307,7 @@
       <c r="J109" s="67"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="74"/>
+      <c r="A110" s="92"/>
       <c r="B110" s="27">
         <v>41702</v>
       </c>
@@ -4319,7 +4324,7 @@
       <c r="J110" s="67"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="74"/>
+      <c r="A111" s="92"/>
       <c r="B111" s="27">
         <v>41703</v>
       </c>
@@ -4336,7 +4341,7 @@
       <c r="J111" s="67"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="74"/>
+      <c r="A112" s="92"/>
       <c r="B112" s="27">
         <v>41704</v>
       </c>
@@ -4353,7 +4358,7 @@
       <c r="J112" s="67"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="75"/>
+      <c r="A113" s="93"/>
       <c r="B113" s="27">
         <v>41705</v>
       </c>
@@ -4370,7 +4375,7 @@
       <c r="J113" s="67"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="76">
+      <c r="A114" s="110">
         <v>19</v>
       </c>
       <c r="B114" s="26">
@@ -4389,7 +4394,7 @@
       <c r="J114" s="29"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="77"/>
+      <c r="A115" s="111"/>
       <c r="B115" s="26">
         <v>41709</v>
       </c>
@@ -4406,7 +4411,7 @@
       <c r="J115" s="29"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="77"/>
+      <c r="A116" s="111"/>
       <c r="B116" s="26">
         <v>41710</v>
       </c>
@@ -4423,7 +4428,7 @@
       <c r="J116" s="29"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="77"/>
+      <c r="A117" s="111"/>
       <c r="B117" s="26">
         <v>41711</v>
       </c>
@@ -4440,7 +4445,7 @@
       <c r="J117" s="29"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="78"/>
+      <c r="A118" s="90"/>
       <c r="B118" s="26">
         <v>41712</v>
       </c>
@@ -4457,7 +4462,7 @@
       <c r="J118" s="29"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="73">
+      <c r="A119" s="91">
         <v>20</v>
       </c>
       <c r="B119" s="27">
@@ -4476,7 +4481,7 @@
       <c r="J119" s="67"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="74"/>
+      <c r="A120" s="92"/>
       <c r="B120" s="27">
         <v>41716</v>
       </c>
@@ -4493,7 +4498,7 @@
       <c r="J120" s="67"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="74"/>
+      <c r="A121" s="92"/>
       <c r="B121" s="27">
         <v>41717</v>
       </c>
@@ -4510,7 +4515,7 @@
       <c r="J121" s="67"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="74"/>
+      <c r="A122" s="92"/>
       <c r="B122" s="27">
         <v>41718</v>
       </c>
@@ -4527,7 +4532,7 @@
       <c r="J122" s="67"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="75"/>
+      <c r="A123" s="93"/>
       <c r="B123" s="27">
         <v>41719</v>
       </c>
@@ -4544,7 +4549,7 @@
       <c r="J123" s="67"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="76">
+      <c r="A124" s="110">
         <v>21</v>
       </c>
       <c r="B124" s="26">
@@ -4563,7 +4568,7 @@
       <c r="J124" s="29"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="77"/>
+      <c r="A125" s="111"/>
       <c r="B125" s="26">
         <v>41723</v>
       </c>
@@ -4580,7 +4585,7 @@
       <c r="J125" s="29"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="77"/>
+      <c r="A126" s="111"/>
       <c r="B126" s="26">
         <v>41724</v>
       </c>
@@ -4597,7 +4602,7 @@
       <c r="J126" s="29"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="77"/>
+      <c r="A127" s="111"/>
       <c r="B127" s="26">
         <v>41725</v>
       </c>
@@ -4614,7 +4619,7 @@
       <c r="J127" s="29"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="78"/>
+      <c r="A128" s="90"/>
       <c r="B128" s="26">
         <v>41726</v>
       </c>
@@ -4631,7 +4636,7 @@
       <c r="J128" s="29"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="73">
+      <c r="A129" s="91">
         <v>22</v>
       </c>
       <c r="B129" s="27">
@@ -4650,7 +4655,7 @@
       <c r="J129" s="67"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="74"/>
+      <c r="A130" s="92"/>
       <c r="B130" s="27">
         <v>41730</v>
       </c>
@@ -4667,7 +4672,7 @@
       <c r="J130" s="67"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="74"/>
+      <c r="A131" s="92"/>
       <c r="B131" s="27">
         <v>41731</v>
       </c>
@@ -4684,7 +4689,7 @@
       <c r="J131" s="67"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="74"/>
+      <c r="A132" s="92"/>
       <c r="B132" s="27">
         <v>41732</v>
       </c>
@@ -4701,7 +4706,7 @@
       <c r="J132" s="67"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="75"/>
+      <c r="A133" s="93"/>
       <c r="B133" s="27">
         <v>41733</v>
       </c>
@@ -4718,7 +4723,7 @@
       <c r="J133" s="67"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="76">
+      <c r="A134" s="110">
         <v>23</v>
       </c>
       <c r="B134" s="26">
@@ -4737,7 +4742,7 @@
       <c r="J134" s="29"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="77"/>
+      <c r="A135" s="111"/>
       <c r="B135" s="26">
         <v>41737</v>
       </c>
@@ -4754,7 +4759,7 @@
       <c r="J135" s="29"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="77"/>
+      <c r="A136" s="111"/>
       <c r="B136" s="26">
         <v>41738</v>
       </c>
@@ -4771,7 +4776,7 @@
       <c r="J136" s="29"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="77"/>
+      <c r="A137" s="111"/>
       <c r="B137" s="26">
         <v>41739</v>
       </c>
@@ -4788,7 +4793,7 @@
       <c r="J137" s="29"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="78"/>
+      <c r="A138" s="90"/>
       <c r="B138" s="26">
         <v>41740</v>
       </c>
@@ -4805,7 +4810,7 @@
       <c r="J138" s="29"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="73">
+      <c r="A139" s="91">
         <v>24</v>
       </c>
       <c r="B139" s="27">
@@ -4824,7 +4829,7 @@
       <c r="J139" s="67"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="74"/>
+      <c r="A140" s="92"/>
       <c r="B140" s="27">
         <v>41744</v>
       </c>
@@ -4841,7 +4846,7 @@
       <c r="J140" s="67"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="74"/>
+      <c r="A141" s="92"/>
       <c r="B141" s="27">
         <v>41745</v>
       </c>
@@ -4858,7 +4863,7 @@
       <c r="J141" s="67"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="74"/>
+      <c r="A142" s="92"/>
       <c r="B142" s="27">
         <v>41746</v>
       </c>
@@ -4875,7 +4880,7 @@
       <c r="J142" s="67"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="75"/>
+      <c r="A143" s="93"/>
       <c r="B143" s="27">
         <v>41747</v>
       </c>
@@ -4892,7 +4897,7 @@
       <c r="J143" s="67"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="76">
+      <c r="A144" s="110">
         <v>25</v>
       </c>
       <c r="B144" s="26">
@@ -4911,7 +4916,7 @@
       <c r="J144" s="29"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="77"/>
+      <c r="A145" s="111"/>
       <c r="B145" s="26">
         <v>41751</v>
       </c>
@@ -4928,7 +4933,7 @@
       <c r="J145" s="29"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="77"/>
+      <c r="A146" s="111"/>
       <c r="B146" s="26">
         <v>41752</v>
       </c>
@@ -4945,7 +4950,7 @@
       <c r="J146" s="29"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="77"/>
+      <c r="A147" s="111"/>
       <c r="B147" s="26">
         <v>41753</v>
       </c>
@@ -4962,7 +4967,7 @@
       <c r="J147" s="29"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="78"/>
+      <c r="A148" s="90"/>
       <c r="B148" s="26">
         <v>41754</v>
       </c>
@@ -4979,7 +4984,7 @@
       <c r="J148" s="29"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="73">
+      <c r="A149" s="91">
         <v>26</v>
       </c>
       <c r="B149" s="27">
@@ -4998,7 +5003,7 @@
       <c r="J149" s="67"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="74"/>
+      <c r="A150" s="92"/>
       <c r="B150" s="27">
         <v>41758</v>
       </c>
@@ -5015,7 +5020,7 @@
       <c r="J150" s="67"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="74"/>
+      <c r="A151" s="92"/>
       <c r="B151" s="27">
         <v>41759</v>
       </c>
@@ -5032,7 +5037,7 @@
       <c r="J151" s="67"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="74"/>
+      <c r="A152" s="92"/>
       <c r="B152" s="27">
         <v>41760</v>
       </c>
@@ -5049,7 +5054,7 @@
       <c r="J152" s="67"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="75"/>
+      <c r="A153" s="93"/>
       <c r="B153" s="27">
         <v>41761</v>
       </c>
@@ -5066,7 +5071,7 @@
       <c r="J153" s="67"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="76">
+      <c r="A154" s="110">
         <v>27</v>
       </c>
       <c r="B154" s="26">
@@ -5085,7 +5090,7 @@
       <c r="J154" s="29"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="77"/>
+      <c r="A155" s="111"/>
       <c r="B155" s="26">
         <v>41765</v>
       </c>
@@ -5102,7 +5107,7 @@
       <c r="J155" s="29"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="77"/>
+      <c r="A156" s="111"/>
       <c r="B156" s="26">
         <v>41766</v>
       </c>
@@ -5119,7 +5124,7 @@
       <c r="J156" s="29"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="77"/>
+      <c r="A157" s="111"/>
       <c r="B157" s="26">
         <v>41767</v>
       </c>
@@ -5136,7 +5141,7 @@
       <c r="J157" s="29"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="78"/>
+      <c r="A158" s="90"/>
       <c r="B158" s="26">
         <v>41768</v>
       </c>
@@ -5153,7 +5158,7 @@
       <c r="J158" s="29"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="73">
+      <c r="A159" s="91">
         <v>28</v>
       </c>
       <c r="B159" s="27">
@@ -5172,7 +5177,7 @@
       <c r="J159" s="67"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="74"/>
+      <c r="A160" s="92"/>
       <c r="B160" s="27">
         <v>41772</v>
       </c>
@@ -5189,7 +5194,7 @@
       <c r="J160" s="67"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="74"/>
+      <c r="A161" s="92"/>
       <c r="B161" s="27">
         <v>41773</v>
       </c>
@@ -5206,7 +5211,7 @@
       <c r="J161" s="67"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="74"/>
+      <c r="A162" s="92"/>
       <c r="B162" s="27">
         <v>41774</v>
       </c>
@@ -5223,7 +5228,7 @@
       <c r="J162" s="67"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="75"/>
+      <c r="A163" s="93"/>
       <c r="B163" s="27">
         <v>41775</v>
       </c>
@@ -5240,7 +5245,7 @@
       <c r="J163" s="67"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="76">
+      <c r="A164" s="110">
         <v>29</v>
       </c>
       <c r="B164" s="26">
@@ -5259,7 +5264,7 @@
       <c r="J164" s="29"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="77"/>
+      <c r="A165" s="111"/>
       <c r="B165" s="26">
         <v>41779</v>
       </c>
@@ -5276,7 +5281,7 @@
       <c r="J165" s="29"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="77"/>
+      <c r="A166" s="111"/>
       <c r="B166" s="26">
         <v>41780</v>
       </c>
@@ -5293,7 +5298,7 @@
       <c r="J166" s="29"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="77"/>
+      <c r="A167" s="111"/>
       <c r="B167" s="26">
         <v>41781</v>
       </c>
@@ -5310,7 +5315,7 @@
       <c r="J167" s="29"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="78"/>
+      <c r="A168" s="90"/>
       <c r="B168" s="26">
         <v>41782</v>
       </c>
@@ -5327,7 +5332,7 @@
       <c r="J168" s="29"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="79">
+      <c r="A169" s="136">
         <v>30</v>
       </c>
       <c r="B169" s="27">
@@ -5346,7 +5351,7 @@
       <c r="J169" s="37"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="80"/>
+      <c r="A170" s="137"/>
       <c r="B170" s="27">
         <v>41786</v>
       </c>
@@ -5363,7 +5368,7 @@
       <c r="J170" s="37"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="80"/>
+      <c r="A171" s="137"/>
       <c r="B171" s="27">
         <v>41787</v>
       </c>
@@ -5380,7 +5385,7 @@
       <c r="J171" s="37"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="80"/>
+      <c r="A172" s="137"/>
       <c r="B172" s="27">
         <v>41788</v>
       </c>
@@ -5397,7 +5402,7 @@
       <c r="J172" s="37"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="81"/>
+      <c r="A173" s="138"/>
       <c r="B173" s="27">
         <v>41789</v>
       </c>
@@ -5523,11 +5528,40 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A19:A32"/>
     <mergeCell ref="A69:A73"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
@@ -5544,40 +5578,11 @@
     <mergeCell ref="F34:F37"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="F40:F42"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A19:A32"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="A169:A173"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F31:F32"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final Project\1. Project management\9. Timelog\individual time log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7695" activeTab="1"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="List main task" sheetId="2" r:id="rId1"/>
     <sheet name="SEP-PROJECT" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="147">
   <si>
     <t>Week</t>
   </si>
@@ -483,6 +478,18 @@
   <si>
     <t>Analyse architect drivers raw "Bảng tin" and "Danh mục"
 Draw activity diagrams business process</t>
+  </si>
+  <si>
+    <t>5:00P&lt;</t>
+  </si>
+  <si>
+    <t>Analyse architect drivers raw 
+Divide work task
+Design interface
+Draw activity diagram</t>
+  </si>
+  <si>
+    <t>3_DevideTeamWork_2911</t>
   </si>
 </sst>
 </file>
@@ -1000,6 +1007,156 @@
     <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1047,156 +1204,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1508,7 +1515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1634,10 +1641,10 @@
   <dimension ref="A1:O182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1658,81 +1665,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="75"/>
+      <c r="A1" s="123"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="76" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="78"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="81"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="84"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="134"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="109"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119"/>
       <c r="F5" s="15"/>
       <c r="H5" s="41" t="s">
         <v>64</v>
@@ -1777,13 +1784,13 @@
       <c r="J6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
     </row>
     <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="85">
+      <c r="A7" s="135">
         <v>1</v>
       </c>
       <c r="B7" s="16">
@@ -1809,21 +1816,21 @@
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="115" t="s">
+      <c r="K7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="115"/>
+      <c r="L7" s="82"/>
       <c r="M7" s="32">
         <f>SUM(M8:M56)</f>
-        <v>59.149999999999991</v>
+        <v>62.649999999999991</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="103">
+      <c r="A8" s="136"/>
+      <c r="B8" s="113">
         <v>41586</v>
       </c>
       <c r="C8" s="17">
@@ -1835,7 +1842,7 @@
       <c r="E8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="105">
+      <c r="F8" s="115">
         <v>1.67</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -1859,8 +1866,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="104"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1870,7 +1877,7 @@
       <c r="E9" s="18">
         <v>0.5</v>
       </c>
-      <c r="F9" s="106"/>
+      <c r="F9" s="116"/>
       <c r="G9" s="29" t="s">
         <v>23</v>
       </c>
@@ -1881,10 +1888,10 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="124">
+      <c r="A10" s="91">
         <v>2</v>
       </c>
-      <c r="B10" s="127">
+      <c r="B10" s="94">
         <v>41589</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -1896,7 +1903,7 @@
       <c r="E10" s="59">
         <v>2.5</v>
       </c>
-      <c r="F10" s="129">
+      <c r="F10" s="96">
         <f>SUM(E10:E11)</f>
         <v>5</v>
       </c>
@@ -1910,8 +1917,8 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="125"/>
-      <c r="B11" s="128"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="58" t="s">
         <v>76</v>
       </c>
@@ -1921,7 +1928,7 @@
       <c r="E11" s="59">
         <v>2.5</v>
       </c>
-      <c r="F11" s="130"/>
+      <c r="F11" s="97"/>
       <c r="G11" s="60" t="s">
         <v>22</v>
       </c>
@@ -1934,8 +1941,8 @@
       <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="125"/>
-      <c r="B12" s="116">
+      <c r="A12" s="92"/>
+      <c r="B12" s="83">
         <v>41590</v>
       </c>
       <c r="C12" s="22">
@@ -1947,7 +1954,7 @@
       <c r="E12" s="23">
         <v>2.25</v>
       </c>
-      <c r="F12" s="118">
+      <c r="F12" s="85">
         <v>3.75</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -1974,8 +1981,8 @@
       <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="125"/>
-      <c r="B13" s="117"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="22">
         <v>0.91666666666666663</v>
       </c>
@@ -1985,7 +1992,7 @@
       <c r="E13" s="23">
         <v>1.5</v>
       </c>
-      <c r="F13" s="119"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="45" t="s">
         <v>28</v>
       </c>
@@ -2001,8 +2008,8 @@
       <c r="O13" s="34"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="125"/>
-      <c r="B14" s="116">
+      <c r="A14" s="92"/>
+      <c r="B14" s="83">
         <v>41591</v>
       </c>
       <c r="C14" s="22">
@@ -2014,7 +2021,7 @@
       <c r="E14" s="23">
         <v>2</v>
       </c>
-      <c r="F14" s="121">
+      <c r="F14" s="88">
         <v>4.5</v>
       </c>
       <c r="G14" s="45" t="s">
@@ -2032,8 +2039,8 @@
       <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="125"/>
-      <c r="B15" s="120"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="25">
         <v>0.5625</v>
       </c>
@@ -2043,7 +2050,7 @@
       <c r="E15" s="28">
         <v>2</v>
       </c>
-      <c r="F15" s="122"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="30" t="s">
         <v>19</v>
       </c>
@@ -2060,8 +2067,8 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="125"/>
-      <c r="B16" s="117"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="25">
         <v>0.83333333333333337</v>
       </c>
@@ -2071,7 +2078,7 @@
       <c r="E16" s="28">
         <v>0.5</v>
       </c>
-      <c r="F16" s="123"/>
+      <c r="F16" s="90"/>
       <c r="G16" s="45" t="s">
         <v>28</v>
       </c>
@@ -2095,7 +2102,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="125"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="47">
         <v>41592</v>
       </c>
@@ -2127,14 +2134,14 @@
       <c r="L17" s="5"/>
       <c r="M17" s="9">
         <f>SUM(F33:F43)</f>
-        <v>17.41</v>
+        <v>20.91</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="126"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="42">
         <v>41593</v>
       </c>
@@ -2173,10 +2180,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="133">
+      <c r="A19" s="101">
         <v>3</v>
       </c>
-      <c r="B19" s="131">
+      <c r="B19" s="98">
         <v>41596</v>
       </c>
       <c r="C19" s="53" t="s">
@@ -2188,7 +2195,7 @@
       <c r="E19" s="50">
         <v>0.5</v>
       </c>
-      <c r="F19" s="89">
+      <c r="F19" s="100">
         <f>SUM(E19:E20)</f>
         <v>3.5</v>
       </c>
@@ -2215,8 +2222,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="134"/>
-      <c r="B20" s="132"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="53" t="s">
         <v>81</v>
       </c>
@@ -2226,7 +2233,7 @@
       <c r="E20" s="50">
         <v>3</v>
       </c>
-      <c r="F20" s="90"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="49" t="s">
         <v>22</v>
       </c>
@@ -2243,8 +2250,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="134"/>
-      <c r="B21" s="131">
+      <c r="A21" s="102"/>
+      <c r="B21" s="98">
         <v>41597</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -2256,7 +2263,7 @@
       <c r="E21" s="50">
         <v>2</v>
       </c>
-      <c r="F21" s="89">
+      <c r="F21" s="100">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2276,8 +2283,8 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="134"/>
-      <c r="B22" s="132"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="53" t="s">
         <v>84</v>
       </c>
@@ -2287,7 +2294,7 @@
       <c r="E22" s="50">
         <v>0.5</v>
       </c>
-      <c r="F22" s="90"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="49" t="s">
         <v>22</v>
       </c>
@@ -2311,7 +2318,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="134"/>
+      <c r="A23" s="102"/>
       <c r="B23" s="26">
         <v>41598</v>
       </c>
@@ -2351,7 +2358,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="134"/>
+      <c r="A24" s="102"/>
       <c r="B24" s="26">
         <v>41599</v>
       </c>
@@ -2364,7 +2371,7 @@
       <c r="E24" s="50">
         <v>1</v>
       </c>
-      <c r="F24" s="89">
+      <c r="F24" s="100">
         <f>SUM(E24:E28)</f>
         <v>6.9</v>
       </c>
@@ -2382,7 +2389,7 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="134"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="26">
         <v>41599</v>
       </c>
@@ -2395,7 +2402,7 @@
       <c r="E25" s="50">
         <v>1.3</v>
       </c>
-      <c r="F25" s="112"/>
+      <c r="F25" s="120"/>
       <c r="G25" s="57" t="s">
         <v>19</v>
       </c>
@@ -2410,7 +2417,7 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="134"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="26">
         <v>41599</v>
       </c>
@@ -2423,7 +2430,7 @@
       <c r="E26" s="50">
         <v>1.5</v>
       </c>
-      <c r="F26" s="112"/>
+      <c r="F26" s="120"/>
       <c r="G26" s="57" t="s">
         <v>22</v>
       </c>
@@ -2440,7 +2447,7 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="134"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="26">
         <v>41599</v>
       </c>
@@ -2453,7 +2460,7 @@
       <c r="E27" s="50">
         <v>2.1</v>
       </c>
-      <c r="F27" s="112"/>
+      <c r="F27" s="120"/>
       <c r="G27" s="29" t="s">
         <v>19</v>
       </c>
@@ -2475,7 +2482,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="134"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="26">
         <v>41599</v>
       </c>
@@ -2488,7 +2495,7 @@
       <c r="E28" s="50">
         <v>1</v>
       </c>
-      <c r="F28" s="113"/>
+      <c r="F28" s="121"/>
       <c r="G28" s="29" t="s">
         <v>22</v>
       </c>
@@ -2503,7 +2510,7 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="134"/>
+      <c r="A29" s="102"/>
       <c r="B29" s="26">
         <v>41600</v>
       </c>
@@ -2516,7 +2523,7 @@
       <c r="E29" s="50">
         <v>1.2</v>
       </c>
-      <c r="F29" s="89">
+      <c r="F29" s="100">
         <f>SUM(E29:E30)</f>
         <v>3.2</v>
       </c>
@@ -2532,7 +2539,7 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A30" s="134"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="26">
         <v>41600</v>
       </c>
@@ -2545,7 +2552,7 @@
       <c r="E30" s="50">
         <v>2</v>
       </c>
-      <c r="F30" s="90"/>
+      <c r="F30" s="78"/>
       <c r="G30" s="57" t="s">
         <v>22</v>
       </c>
@@ -2567,7 +2574,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="134"/>
+      <c r="A31" s="102"/>
       <c r="B31" s="26">
         <v>41601</v>
       </c>
@@ -2580,7 +2587,7 @@
       <c r="E31" s="50">
         <v>3.5</v>
       </c>
-      <c r="F31" s="89">
+      <c r="F31" s="100">
         <f>SUM(E31:E32)</f>
         <v>4.4000000000000004</v>
       </c>
@@ -2600,7 +2607,7 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="135"/>
+      <c r="A32" s="103"/>
       <c r="B32" s="26">
         <v>41601</v>
       </c>
@@ -2613,7 +2620,7 @@
       <c r="E32" s="50">
         <v>0.9</v>
       </c>
-      <c r="F32" s="90"/>
+      <c r="F32" s="78"/>
       <c r="G32" s="57" t="s">
         <v>22</v>
       </c>
@@ -2630,7 +2637,7 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="91">
+      <c r="A33" s="73">
         <v>4</v>
       </c>
       <c r="B33" s="27">
@@ -2672,7 +2679,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="92"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="27">
         <v>41604</v>
       </c>
@@ -2685,7 +2692,7 @@
       <c r="E34" s="28">
         <v>1</v>
       </c>
-      <c r="F34" s="114">
+      <c r="F34" s="122">
         <f>SUM(E34:E37)</f>
         <v>5.75</v>
       </c>
@@ -2703,7 +2710,7 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="92"/>
+      <c r="A35" s="74"/>
       <c r="B35" s="27">
         <v>41604</v>
       </c>
@@ -2716,7 +2723,7 @@
       <c r="E35" s="28">
         <v>1.5</v>
       </c>
-      <c r="F35" s="92"/>
+      <c r="F35" s="74"/>
       <c r="G35" s="67" t="s">
         <v>23</v>
       </c>
@@ -2733,7 +2740,7 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="92"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="27">
         <v>41604</v>
       </c>
@@ -2746,7 +2753,7 @@
       <c r="E36" s="28">
         <v>1.25</v>
       </c>
-      <c r="F36" s="92"/>
+      <c r="F36" s="74"/>
       <c r="G36" s="67" t="s">
         <v>19</v>
       </c>
@@ -2763,7 +2770,7 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A37" s="92"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="27">
         <v>41604</v>
       </c>
@@ -2776,7 +2783,7 @@
       <c r="E37" s="69">
         <v>2</v>
       </c>
-      <c r="F37" s="93"/>
+      <c r="F37" s="75"/>
       <c r="G37" s="67" t="s">
         <v>22</v>
       </c>
@@ -2802,7 +2809,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="92"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="27">
         <v>41605</v>
       </c>
@@ -2815,7 +2822,7 @@
       <c r="E38" s="69">
         <v>2.33</v>
       </c>
-      <c r="F38" s="91">
+      <c r="F38" s="73">
         <f>SUM(E38:E39)</f>
         <v>2.83</v>
       </c>
@@ -2840,7 +2847,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="92"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="27">
         <v>41605</v>
       </c>
@@ -2853,7 +2860,7 @@
       <c r="E39" s="69">
         <v>0.5</v>
       </c>
-      <c r="F39" s="93"/>
+      <c r="F39" s="75"/>
       <c r="G39" s="67" t="s">
         <v>22</v>
       </c>
@@ -2870,7 +2877,7 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="92"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="27">
         <v>41606</v>
       </c>
@@ -2883,12 +2890,12 @@
       <c r="E40" s="69">
         <v>1.33</v>
       </c>
-      <c r="F40" s="91">
+      <c r="F40" s="73">
         <f>SUM(E40:E42)</f>
         <v>5.83</v>
       </c>
       <c r="G40" s="67" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H40" s="71" t="s">
         <v>140</v>
@@ -2901,7 +2908,7 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="92"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="27">
         <v>41606</v>
       </c>
@@ -2914,7 +2921,7 @@
       <c r="E41" s="69">
         <v>1.75</v>
       </c>
-      <c r="F41" s="92"/>
+      <c r="F41" s="74"/>
       <c r="G41" s="67" t="s">
         <v>25</v>
       </c>
@@ -2929,7 +2936,7 @@
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="92"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="27">
         <v>41606</v>
       </c>
@@ -2942,7 +2949,7 @@
       <c r="E42" s="69">
         <v>2.75</v>
       </c>
-      <c r="F42" s="93"/>
+      <c r="F42" s="75"/>
       <c r="G42" s="67" t="s">
         <v>19</v>
       </c>
@@ -2965,21 +2972,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="93"/>
+    <row r="43" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+      <c r="A43" s="75"/>
       <c r="B43" s="27">
         <v>41607</v>
       </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
+      <c r="C43" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="69">
+        <v>3.5</v>
+      </c>
       <c r="F43" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
+        <v>3.5</v>
+      </c>
+      <c r="G43" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="I43" s="67" t="s">
+        <v>146</v>
+      </c>
       <c r="J43" s="67"/>
       <c r="K43" s="7" t="s">
         <v>40</v>
@@ -2994,7 +3013,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="110">
+      <c r="A44" s="76">
         <v>5</v>
       </c>
       <c r="B44" s="26">
@@ -3024,7 +3043,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="111"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="26">
         <v>41611</v>
       </c>
@@ -3052,7 +3071,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="111"/>
+      <c r="A46" s="77"/>
       <c r="B46" s="26">
         <v>41612</v>
       </c>
@@ -3080,7 +3099,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="111"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="26">
         <v>41613</v>
       </c>
@@ -3108,7 +3127,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="90"/>
+      <c r="A48" s="78"/>
       <c r="B48" s="26">
         <v>41614</v>
       </c>
@@ -3136,7 +3155,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="91">
+      <c r="A49" s="73">
         <v>6</v>
       </c>
       <c r="B49" s="27">
@@ -3166,7 +3185,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="92"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="27">
         <v>41618</v>
       </c>
@@ -3194,7 +3213,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="92"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="27">
         <v>41619</v>
       </c>
@@ -3222,7 +3241,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="92"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="27">
         <v>41620</v>
       </c>
@@ -3250,7 +3269,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="93"/>
+      <c r="A53" s="75"/>
       <c r="B53" s="27">
         <v>41621</v>
       </c>
@@ -3278,7 +3297,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="110">
+      <c r="A54" s="76">
         <v>7</v>
       </c>
       <c r="B54" s="26">
@@ -3308,7 +3327,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="111"/>
+      <c r="A55" s="77"/>
       <c r="B55" s="26">
         <v>41625</v>
       </c>
@@ -3336,7 +3355,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="111"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="26">
         <v>41626</v>
       </c>
@@ -3364,7 +3383,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="111"/>
+      <c r="A57" s="77"/>
       <c r="B57" s="26">
         <v>41627</v>
       </c>
@@ -3381,7 +3400,7 @@
       <c r="J57" s="29"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="90"/>
+      <c r="A58" s="78"/>
       <c r="B58" s="26">
         <v>41628</v>
       </c>
@@ -3398,7 +3417,7 @@
       <c r="J58" s="29"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="91">
+      <c r="A59" s="73">
         <v>8</v>
       </c>
       <c r="B59" s="27">
@@ -3417,7 +3436,7 @@
       <c r="J59" s="67"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="92"/>
+      <c r="A60" s="74"/>
       <c r="B60" s="27">
         <v>41632</v>
       </c>
@@ -3434,7 +3453,7 @@
       <c r="J60" s="67"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="92"/>
+      <c r="A61" s="74"/>
       <c r="B61" s="27">
         <v>41633</v>
       </c>
@@ -3451,7 +3470,7 @@
       <c r="J61" s="67"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="92"/>
+      <c r="A62" s="74"/>
       <c r="B62" s="27">
         <v>41634</v>
       </c>
@@ -3468,7 +3487,7 @@
       <c r="J62" s="67"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="93"/>
+      <c r="A63" s="75"/>
       <c r="B63" s="27">
         <v>41635</v>
       </c>
@@ -3485,7 +3504,7 @@
       <c r="J63" s="67"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="110">
+      <c r="A64" s="76">
         <v>9</v>
       </c>
       <c r="B64" s="26">
@@ -3504,7 +3523,7 @@
       <c r="J64" s="29"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="111"/>
+      <c r="A65" s="77"/>
       <c r="B65" s="26">
         <v>41639</v>
       </c>
@@ -3521,7 +3540,7 @@
       <c r="J65" s="29"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="111"/>
+      <c r="A66" s="77"/>
       <c r="B66" s="26">
         <v>41640</v>
       </c>
@@ -3538,7 +3557,7 @@
       <c r="J66" s="29"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="111"/>
+      <c r="A67" s="77"/>
       <c r="B67" s="26">
         <v>41641</v>
       </c>
@@ -3555,7 +3574,7 @@
       <c r="J67" s="29"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="90"/>
+      <c r="A68" s="78"/>
       <c r="B68" s="26">
         <v>41642</v>
       </c>
@@ -3572,7 +3591,7 @@
       <c r="J68" s="29"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="91">
+      <c r="A69" s="73">
         <v>10</v>
       </c>
       <c r="B69" s="27">
@@ -3591,7 +3610,7 @@
       <c r="J69" s="67"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="92"/>
+      <c r="A70" s="74"/>
       <c r="B70" s="27">
         <v>41646</v>
       </c>
@@ -3608,7 +3627,7 @@
       <c r="J70" s="67"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="92"/>
+      <c r="A71" s="74"/>
       <c r="B71" s="27">
         <v>41647</v>
       </c>
@@ -3625,7 +3644,7 @@
       <c r="J71" s="67"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="92"/>
+      <c r="A72" s="74"/>
       <c r="B72" s="27">
         <v>41648</v>
       </c>
@@ -3642,7 +3661,7 @@
       <c r="J72" s="67"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="93"/>
+      <c r="A73" s="75"/>
       <c r="B73" s="27">
         <v>41649</v>
       </c>
@@ -3659,7 +3678,7 @@
       <c r="J73" s="67"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="110">
+      <c r="A74" s="76">
         <v>11</v>
       </c>
       <c r="B74" s="26">
@@ -3678,7 +3697,7 @@
       <c r="J74" s="29"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="111"/>
+      <c r="A75" s="77"/>
       <c r="B75" s="26">
         <v>41653</v>
       </c>
@@ -3695,7 +3714,7 @@
       <c r="J75" s="29"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="111"/>
+      <c r="A76" s="77"/>
       <c r="B76" s="26">
         <v>41654</v>
       </c>
@@ -3712,7 +3731,7 @@
       <c r="J76" s="29"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="111"/>
+      <c r="A77" s="77"/>
       <c r="B77" s="26">
         <v>41655</v>
       </c>
@@ -3729,7 +3748,7 @@
       <c r="J77" s="29"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="90"/>
+      <c r="A78" s="78"/>
       <c r="B78" s="26">
         <v>41656</v>
       </c>
@@ -3746,7 +3765,7 @@
       <c r="J78" s="29"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="91">
+      <c r="A79" s="73">
         <v>12</v>
       </c>
       <c r="B79" s="27">
@@ -3765,7 +3784,7 @@
       <c r="J79" s="67"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="92"/>
+      <c r="A80" s="74"/>
       <c r="B80" s="27">
         <v>41660</v>
       </c>
@@ -3782,7 +3801,7 @@
       <c r="J80" s="67"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="92"/>
+      <c r="A81" s="74"/>
       <c r="B81" s="27">
         <v>41661</v>
       </c>
@@ -3799,7 +3818,7 @@
       <c r="J81" s="67"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="92"/>
+      <c r="A82" s="74"/>
       <c r="B82" s="27">
         <v>41662</v>
       </c>
@@ -3816,7 +3835,7 @@
       <c r="J82" s="67"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="93"/>
+      <c r="A83" s="75"/>
       <c r="B83" s="27">
         <v>41663</v>
       </c>
@@ -3833,7 +3852,7 @@
       <c r="J83" s="67"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="110">
+      <c r="A84" s="76">
         <v>13</v>
       </c>
       <c r="B84" s="26">
@@ -3854,7 +3873,7 @@
       <c r="J84" s="29"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="111"/>
+      <c r="A85" s="77"/>
       <c r="B85" s="26">
         <v>41667</v>
       </c>
@@ -3873,7 +3892,7 @@
       <c r="J85" s="29"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="111"/>
+      <c r="A86" s="77"/>
       <c r="B86" s="26">
         <v>41668</v>
       </c>
@@ -3892,7 +3911,7 @@
       <c r="J86" s="29"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="111"/>
+      <c r="A87" s="77"/>
       <c r="B87" s="26">
         <v>41669</v>
       </c>
@@ -3911,7 +3930,7 @@
       <c r="J87" s="29"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="90"/>
+      <c r="A88" s="78"/>
       <c r="B88" s="26">
         <v>41670</v>
       </c>
@@ -3930,7 +3949,7 @@
       <c r="J88" s="29"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="91">
+      <c r="A89" s="73">
         <v>14</v>
       </c>
       <c r="B89" s="27">
@@ -3951,7 +3970,7 @@
       <c r="J89" s="67"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="92"/>
+      <c r="A90" s="74"/>
       <c r="B90" s="27">
         <v>41674</v>
       </c>
@@ -3970,7 +3989,7 @@
       <c r="J90" s="67"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="92"/>
+      <c r="A91" s="74"/>
       <c r="B91" s="27">
         <v>41675</v>
       </c>
@@ -3989,7 +4008,7 @@
       <c r="J91" s="67"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="92"/>
+      <c r="A92" s="74"/>
       <c r="B92" s="27">
         <v>41676</v>
       </c>
@@ -4008,7 +4027,7 @@
       <c r="J92" s="67"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="93"/>
+      <c r="A93" s="75"/>
       <c r="B93" s="27">
         <v>41677</v>
       </c>
@@ -4027,7 +4046,7 @@
       <c r="J93" s="67"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="110">
+      <c r="A94" s="76">
         <v>15</v>
       </c>
       <c r="B94" s="26">
@@ -4046,7 +4065,7 @@
       <c r="J94" s="29"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="111"/>
+      <c r="A95" s="77"/>
       <c r="B95" s="26">
         <v>41681</v>
       </c>
@@ -4063,7 +4082,7 @@
       <c r="J95" s="29"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="111"/>
+      <c r="A96" s="77"/>
       <c r="B96" s="26">
         <v>41682</v>
       </c>
@@ -4080,7 +4099,7 @@
       <c r="J96" s="29"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="111"/>
+      <c r="A97" s="77"/>
       <c r="B97" s="26">
         <v>41683</v>
       </c>
@@ -4097,7 +4116,7 @@
       <c r="J97" s="29"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="90"/>
+      <c r="A98" s="78"/>
       <c r="B98" s="26">
         <v>41684</v>
       </c>
@@ -4114,7 +4133,7 @@
       <c r="J98" s="29"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="91">
+      <c r="A99" s="73">
         <v>16</v>
       </c>
       <c r="B99" s="27">
@@ -4133,7 +4152,7 @@
       <c r="J99" s="67"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="92"/>
+      <c r="A100" s="74"/>
       <c r="B100" s="27">
         <v>41688</v>
       </c>
@@ -4150,7 +4169,7 @@
       <c r="J100" s="67"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="92"/>
+      <c r="A101" s="74"/>
       <c r="B101" s="27">
         <v>41689</v>
       </c>
@@ -4167,7 +4186,7 @@
       <c r="J101" s="67"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="92"/>
+      <c r="A102" s="74"/>
       <c r="B102" s="27">
         <v>41690</v>
       </c>
@@ -4184,7 +4203,7 @@
       <c r="J102" s="67"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="93"/>
+      <c r="A103" s="75"/>
       <c r="B103" s="27">
         <v>41691</v>
       </c>
@@ -4201,7 +4220,7 @@
       <c r="J103" s="67"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="110">
+      <c r="A104" s="76">
         <v>17</v>
       </c>
       <c r="B104" s="26">
@@ -4220,7 +4239,7 @@
       <c r="J104" s="29"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="111"/>
+      <c r="A105" s="77"/>
       <c r="B105" s="26">
         <v>41695</v>
       </c>
@@ -4237,7 +4256,7 @@
       <c r="J105" s="29"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="111"/>
+      <c r="A106" s="77"/>
       <c r="B106" s="26">
         <v>41696</v>
       </c>
@@ -4254,7 +4273,7 @@
       <c r="J106" s="29"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="111"/>
+      <c r="A107" s="77"/>
       <c r="B107" s="26">
         <v>41697</v>
       </c>
@@ -4271,7 +4290,7 @@
       <c r="J107" s="29"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="90"/>
+      <c r="A108" s="78"/>
       <c r="B108" s="26">
         <v>41698</v>
       </c>
@@ -4288,7 +4307,7 @@
       <c r="J108" s="29"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="91">
+      <c r="A109" s="73">
         <v>18</v>
       </c>
       <c r="B109" s="27">
@@ -4307,7 +4326,7 @@
       <c r="J109" s="67"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="92"/>
+      <c r="A110" s="74"/>
       <c r="B110" s="27">
         <v>41702</v>
       </c>
@@ -4324,7 +4343,7 @@
       <c r="J110" s="67"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="92"/>
+      <c r="A111" s="74"/>
       <c r="B111" s="27">
         <v>41703</v>
       </c>
@@ -4341,7 +4360,7 @@
       <c r="J111" s="67"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="92"/>
+      <c r="A112" s="74"/>
       <c r="B112" s="27">
         <v>41704</v>
       </c>
@@ -4358,7 +4377,7 @@
       <c r="J112" s="67"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="93"/>
+      <c r="A113" s="75"/>
       <c r="B113" s="27">
         <v>41705</v>
       </c>
@@ -4375,7 +4394,7 @@
       <c r="J113" s="67"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="110">
+      <c r="A114" s="76">
         <v>19</v>
       </c>
       <c r="B114" s="26">
@@ -4394,7 +4413,7 @@
       <c r="J114" s="29"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="111"/>
+      <c r="A115" s="77"/>
       <c r="B115" s="26">
         <v>41709</v>
       </c>
@@ -4411,7 +4430,7 @@
       <c r="J115" s="29"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="111"/>
+      <c r="A116" s="77"/>
       <c r="B116" s="26">
         <v>41710</v>
       </c>
@@ -4428,7 +4447,7 @@
       <c r="J116" s="29"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="111"/>
+      <c r="A117" s="77"/>
       <c r="B117" s="26">
         <v>41711</v>
       </c>
@@ -4445,7 +4464,7 @@
       <c r="J117" s="29"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="90"/>
+      <c r="A118" s="78"/>
       <c r="B118" s="26">
         <v>41712</v>
       </c>
@@ -4462,7 +4481,7 @@
       <c r="J118" s="29"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="91">
+      <c r="A119" s="73">
         <v>20</v>
       </c>
       <c r="B119" s="27">
@@ -4481,7 +4500,7 @@
       <c r="J119" s="67"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="92"/>
+      <c r="A120" s="74"/>
       <c r="B120" s="27">
         <v>41716</v>
       </c>
@@ -4498,7 +4517,7 @@
       <c r="J120" s="67"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="92"/>
+      <c r="A121" s="74"/>
       <c r="B121" s="27">
         <v>41717</v>
       </c>
@@ -4515,7 +4534,7 @@
       <c r="J121" s="67"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="92"/>
+      <c r="A122" s="74"/>
       <c r="B122" s="27">
         <v>41718</v>
       </c>
@@ -4532,7 +4551,7 @@
       <c r="J122" s="67"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="93"/>
+      <c r="A123" s="75"/>
       <c r="B123" s="27">
         <v>41719</v>
       </c>
@@ -4549,7 +4568,7 @@
       <c r="J123" s="67"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="110">
+      <c r="A124" s="76">
         <v>21</v>
       </c>
       <c r="B124" s="26">
@@ -4568,7 +4587,7 @@
       <c r="J124" s="29"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="111"/>
+      <c r="A125" s="77"/>
       <c r="B125" s="26">
         <v>41723</v>
       </c>
@@ -4585,7 +4604,7 @@
       <c r="J125" s="29"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="111"/>
+      <c r="A126" s="77"/>
       <c r="B126" s="26">
         <v>41724</v>
       </c>
@@ -4602,7 +4621,7 @@
       <c r="J126" s="29"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="111"/>
+      <c r="A127" s="77"/>
       <c r="B127" s="26">
         <v>41725</v>
       </c>
@@ -4619,7 +4638,7 @@
       <c r="J127" s="29"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="90"/>
+      <c r="A128" s="78"/>
       <c r="B128" s="26">
         <v>41726</v>
       </c>
@@ -4636,7 +4655,7 @@
       <c r="J128" s="29"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="91">
+      <c r="A129" s="73">
         <v>22</v>
       </c>
       <c r="B129" s="27">
@@ -4655,7 +4674,7 @@
       <c r="J129" s="67"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="92"/>
+      <c r="A130" s="74"/>
       <c r="B130" s="27">
         <v>41730</v>
       </c>
@@ -4672,7 +4691,7 @@
       <c r="J130" s="67"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="92"/>
+      <c r="A131" s="74"/>
       <c r="B131" s="27">
         <v>41731</v>
       </c>
@@ -4689,7 +4708,7 @@
       <c r="J131" s="67"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="92"/>
+      <c r="A132" s="74"/>
       <c r="B132" s="27">
         <v>41732</v>
       </c>
@@ -4706,7 +4725,7 @@
       <c r="J132" s="67"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="93"/>
+      <c r="A133" s="75"/>
       <c r="B133" s="27">
         <v>41733</v>
       </c>
@@ -4723,7 +4742,7 @@
       <c r="J133" s="67"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="110">
+      <c r="A134" s="76">
         <v>23</v>
       </c>
       <c r="B134" s="26">
@@ -4742,7 +4761,7 @@
       <c r="J134" s="29"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="111"/>
+      <c r="A135" s="77"/>
       <c r="B135" s="26">
         <v>41737</v>
       </c>
@@ -4759,7 +4778,7 @@
       <c r="J135" s="29"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="111"/>
+      <c r="A136" s="77"/>
       <c r="B136" s="26">
         <v>41738</v>
       </c>
@@ -4776,7 +4795,7 @@
       <c r="J136" s="29"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="111"/>
+      <c r="A137" s="77"/>
       <c r="B137" s="26">
         <v>41739</v>
       </c>
@@ -4793,7 +4812,7 @@
       <c r="J137" s="29"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="90"/>
+      <c r="A138" s="78"/>
       <c r="B138" s="26">
         <v>41740</v>
       </c>
@@ -4810,7 +4829,7 @@
       <c r="J138" s="29"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="91">
+      <c r="A139" s="73">
         <v>24</v>
       </c>
       <c r="B139" s="27">
@@ -4829,7 +4848,7 @@
       <c r="J139" s="67"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="92"/>
+      <c r="A140" s="74"/>
       <c r="B140" s="27">
         <v>41744</v>
       </c>
@@ -4846,7 +4865,7 @@
       <c r="J140" s="67"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="92"/>
+      <c r="A141" s="74"/>
       <c r="B141" s="27">
         <v>41745</v>
       </c>
@@ -4863,7 +4882,7 @@
       <c r="J141" s="67"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="92"/>
+      <c r="A142" s="74"/>
       <c r="B142" s="27">
         <v>41746</v>
       </c>
@@ -4880,7 +4899,7 @@
       <c r="J142" s="67"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="93"/>
+      <c r="A143" s="75"/>
       <c r="B143" s="27">
         <v>41747</v>
       </c>
@@ -4897,7 +4916,7 @@
       <c r="J143" s="67"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="110">
+      <c r="A144" s="76">
         <v>25</v>
       </c>
       <c r="B144" s="26">
@@ -4916,7 +4935,7 @@
       <c r="J144" s="29"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="111"/>
+      <c r="A145" s="77"/>
       <c r="B145" s="26">
         <v>41751</v>
       </c>
@@ -4933,7 +4952,7 @@
       <c r="J145" s="29"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="111"/>
+      <c r="A146" s="77"/>
       <c r="B146" s="26">
         <v>41752</v>
       </c>
@@ -4950,7 +4969,7 @@
       <c r="J146" s="29"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="111"/>
+      <c r="A147" s="77"/>
       <c r="B147" s="26">
         <v>41753</v>
       </c>
@@ -4967,7 +4986,7 @@
       <c r="J147" s="29"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="90"/>
+      <c r="A148" s="78"/>
       <c r="B148" s="26">
         <v>41754</v>
       </c>
@@ -4984,7 +5003,7 @@
       <c r="J148" s="29"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="91">
+      <c r="A149" s="73">
         <v>26</v>
       </c>
       <c r="B149" s="27">
@@ -5003,7 +5022,7 @@
       <c r="J149" s="67"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="92"/>
+      <c r="A150" s="74"/>
       <c r="B150" s="27">
         <v>41758</v>
       </c>
@@ -5020,7 +5039,7 @@
       <c r="J150" s="67"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="92"/>
+      <c r="A151" s="74"/>
       <c r="B151" s="27">
         <v>41759</v>
       </c>
@@ -5037,7 +5056,7 @@
       <c r="J151" s="67"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="92"/>
+      <c r="A152" s="74"/>
       <c r="B152" s="27">
         <v>41760</v>
       </c>
@@ -5054,7 +5073,7 @@
       <c r="J152" s="67"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="93"/>
+      <c r="A153" s="75"/>
       <c r="B153" s="27">
         <v>41761</v>
       </c>
@@ -5071,7 +5090,7 @@
       <c r="J153" s="67"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="110">
+      <c r="A154" s="76">
         <v>27</v>
       </c>
       <c r="B154" s="26">
@@ -5090,7 +5109,7 @@
       <c r="J154" s="29"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="111"/>
+      <c r="A155" s="77"/>
       <c r="B155" s="26">
         <v>41765</v>
       </c>
@@ -5107,7 +5126,7 @@
       <c r="J155" s="29"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="111"/>
+      <c r="A156" s="77"/>
       <c r="B156" s="26">
         <v>41766</v>
       </c>
@@ -5124,7 +5143,7 @@
       <c r="J156" s="29"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="111"/>
+      <c r="A157" s="77"/>
       <c r="B157" s="26">
         <v>41767</v>
       </c>
@@ -5141,7 +5160,7 @@
       <c r="J157" s="29"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="90"/>
+      <c r="A158" s="78"/>
       <c r="B158" s="26">
         <v>41768</v>
       </c>
@@ -5158,7 +5177,7 @@
       <c r="J158" s="29"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="91">
+      <c r="A159" s="73">
         <v>28</v>
       </c>
       <c r="B159" s="27">
@@ -5177,7 +5196,7 @@
       <c r="J159" s="67"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="92"/>
+      <c r="A160" s="74"/>
       <c r="B160" s="27">
         <v>41772</v>
       </c>
@@ -5194,7 +5213,7 @@
       <c r="J160" s="67"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="92"/>
+      <c r="A161" s="74"/>
       <c r="B161" s="27">
         <v>41773</v>
       </c>
@@ -5211,7 +5230,7 @@
       <c r="J161" s="67"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="92"/>
+      <c r="A162" s="74"/>
       <c r="B162" s="27">
         <v>41774</v>
       </c>
@@ -5228,7 +5247,7 @@
       <c r="J162" s="67"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="93"/>
+      <c r="A163" s="75"/>
       <c r="B163" s="27">
         <v>41775</v>
       </c>
@@ -5245,7 +5264,7 @@
       <c r="J163" s="67"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="110">
+      <c r="A164" s="76">
         <v>29</v>
       </c>
       <c r="B164" s="26">
@@ -5264,7 +5283,7 @@
       <c r="J164" s="29"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="111"/>
+      <c r="A165" s="77"/>
       <c r="B165" s="26">
         <v>41779</v>
       </c>
@@ -5281,7 +5300,7 @@
       <c r="J165" s="29"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="111"/>
+      <c r="A166" s="77"/>
       <c r="B166" s="26">
         <v>41780</v>
       </c>
@@ -5298,7 +5317,7 @@
       <c r="J166" s="29"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="111"/>
+      <c r="A167" s="77"/>
       <c r="B167" s="26">
         <v>41781</v>
       </c>
@@ -5315,7 +5334,7 @@
       <c r="J167" s="29"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="90"/>
+      <c r="A168" s="78"/>
       <c r="B168" s="26">
         <v>41782</v>
       </c>
@@ -5332,7 +5351,7 @@
       <c r="J168" s="29"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="136">
+      <c r="A169" s="79">
         <v>30</v>
       </c>
       <c r="B169" s="27">
@@ -5351,7 +5370,7 @@
       <c r="J169" s="37"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="137"/>
+      <c r="A170" s="80"/>
       <c r="B170" s="27">
         <v>41786</v>
       </c>
@@ -5368,7 +5387,7 @@
       <c r="J170" s="37"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="137"/>
+      <c r="A171" s="80"/>
       <c r="B171" s="27">
         <v>41787</v>
       </c>
@@ -5385,7 +5404,7 @@
       <c r="J171" s="37"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="137"/>
+      <c r="A172" s="80"/>
       <c r="B172" s="27">
         <v>41788</v>
       </c>
@@ -5402,7 +5421,7 @@
       <c r="J172" s="37"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="138"/>
+      <c r="A173" s="81"/>
       <c r="B173" s="27">
         <v>41789</v>
       </c>
@@ -5528,24 +5547,27 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="A169:A173"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F42"/>
     <mergeCell ref="A79:A83"/>
     <mergeCell ref="A59:A63"/>
     <mergeCell ref="A64:A68"/>
@@ -5562,27 +5584,24 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="A19:A32"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7695" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="List main task" sheetId="2" r:id="rId1"/>
     <sheet name="SEP-PROJECT" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="151">
   <si>
     <t>Week</t>
   </si>
@@ -473,9 +473,6 @@
     <t>Collect architect drivers raw and develop user stories</t>
   </si>
   <si>
-    <t>Đã thực hiện file phân công ngày 28/11</t>
-  </si>
-  <si>
     <t>Analyse architect drivers raw "Bảng tin" and "Danh mục"
 Draw activity diagrams business process</t>
   </si>
@@ -490,6 +487,24 @@
   </si>
   <si>
     <t>3_DevideTeamWork_2911</t>
+  </si>
+  <si>
+    <t>12:00AM</t>
+  </si>
+  <si>
+    <t>2:00PM</t>
+  </si>
+  <si>
+    <t>Reseach and define entities for "Hỏi đáp" module
+Create architecture drivers specification
+Update requirement tracability matrix template</t>
+  </si>
+  <si>
+    <t>AS_RE_ArchitectureDriverSpecification.docx
+AS_RE_RequirementTraceabilityMatrix.xlsx</t>
+  </si>
+  <si>
+    <t>Done file devide for members 29/11</t>
   </si>
 </sst>
 </file>
@@ -499,7 +514,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,6 +1022,60 @@
     <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1016,13 +1085,130 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,177 +1219,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1515,7 +1530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1529,13 +1544,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
@@ -1543,7 +1558,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -1551,7 +1566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -1559,7 +1574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -1567,7 +1582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -1575,7 +1590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -1583,7 +1598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -1591,7 +1606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -1599,7 +1614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -1607,7 +1622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -1615,7 +1630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -1623,7 +1638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -1638,16 +1653,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O182"/>
+  <dimension ref="A1:O183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H41" sqref="H41"/>
+      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
@@ -1664,82 +1679,82 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="123"/>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A2" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="126" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="78"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A3" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="134"/>
-    </row>
-    <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="81"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
+    </row>
+    <row r="5" spans="1:15" ht="39" customHeight="1">
+      <c r="A5" s="107"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="15"/>
       <c r="H5" s="41" t="s">
         <v>64</v>
@@ -1753,7 +1768,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="63">
       <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
@@ -1784,13 +1799,13 @@
       <c r="J6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
-    </row>
-    <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="135">
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+    </row>
+    <row r="7" spans="1:15" ht="38.25">
+      <c r="A7" s="85">
         <v>1</v>
       </c>
       <c r="B7" s="16">
@@ -1816,21 +1831,21 @@
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="82" t="s">
+      <c r="K7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="82"/>
+      <c r="L7" s="115"/>
       <c r="M7" s="32">
-        <f>SUM(M8:M56)</f>
-        <v>62.649999999999991</v>
+        <f>SUM(M8:M57)</f>
+        <v>64.649999999999991</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="136"/>
-      <c r="B8" s="113">
+    <row r="8" spans="1:15" ht="38.25">
+      <c r="A8" s="86"/>
+      <c r="B8" s="103">
         <v>41586</v>
       </c>
       <c r="C8" s="17">
@@ -1842,7 +1857,7 @@
       <c r="E8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="115">
+      <c r="F8" s="105">
         <v>1.67</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -1865,9 +1880,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
-      <c r="B9" s="114"/>
+    <row r="9" spans="1:15">
+      <c r="A9" s="87"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1877,7 +1892,7 @@
       <c r="E9" s="18">
         <v>0.5</v>
       </c>
-      <c r="F9" s="116"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="29" t="s">
         <v>23</v>
       </c>
@@ -1887,11 +1902,11 @@
       <c r="I9" s="40"/>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91">
+    <row r="10" spans="1:15" s="63" customFormat="1">
+      <c r="A10" s="124">
         <v>2</v>
       </c>
-      <c r="B10" s="94">
+      <c r="B10" s="127">
         <v>41589</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -1903,7 +1918,7 @@
       <c r="E10" s="59">
         <v>2.5</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="129">
         <f>SUM(E10:E11)</f>
         <v>5</v>
       </c>
@@ -1916,9 +1931,9 @@
       <c r="I10" s="62"/>
       <c r="J10" s="60"/>
     </row>
-    <row r="11" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
-      <c r="B11" s="95"/>
+    <row r="11" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="125"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="58" t="s">
         <v>76</v>
       </c>
@@ -1928,7 +1943,7 @@
       <c r="E11" s="59">
         <v>2.5</v>
       </c>
-      <c r="F11" s="97"/>
+      <c r="F11" s="130"/>
       <c r="G11" s="60" t="s">
         <v>22</v>
       </c>
@@ -1940,9 +1955,9 @@
       </c>
       <c r="J11" s="60"/>
     </row>
-    <row r="12" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="83">
+    <row r="12" spans="1:15" ht="63.75">
+      <c r="A12" s="125"/>
+      <c r="B12" s="116">
         <v>41590</v>
       </c>
       <c r="C12" s="22">
@@ -1954,7 +1969,7 @@
       <c r="E12" s="23">
         <v>2.25</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="118">
         <v>3.75</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -1980,9 +1995,9 @@
       </c>
       <c r="O12" s="34"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="92"/>
-      <c r="B13" s="84"/>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A13" s="125"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="22">
         <v>0.91666666666666663</v>
       </c>
@@ -1992,7 +2007,7 @@
       <c r="E13" s="23">
         <v>1.5</v>
       </c>
-      <c r="F13" s="86"/>
+      <c r="F13" s="119"/>
       <c r="G13" s="45" t="s">
         <v>28</v>
       </c>
@@ -2007,9 +2022,9 @@
       <c r="N13" s="3"/>
       <c r="O13" s="34"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="83">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A14" s="125"/>
+      <c r="B14" s="116">
         <v>41591</v>
       </c>
       <c r="C14" s="22">
@@ -2021,7 +2036,7 @@
       <c r="E14" s="23">
         <v>2</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="121">
         <v>4.5</v>
       </c>
       <c r="G14" s="45" t="s">
@@ -2038,9 +2053,9 @@
       <c r="N14" s="3"/>
       <c r="O14" s="34"/>
     </row>
-    <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
-      <c r="B15" s="87"/>
+    <row r="15" spans="1:15" ht="25.5">
+      <c r="A15" s="125"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="25">
         <v>0.5625</v>
       </c>
@@ -2050,7 +2065,7 @@
       <c r="E15" s="28">
         <v>2</v>
       </c>
-      <c r="F15" s="89"/>
+      <c r="F15" s="122"/>
       <c r="G15" s="30" t="s">
         <v>19</v>
       </c>
@@ -2066,9 +2081,9 @@
       <c r="M15" s="4"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="84"/>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A16" s="125"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="25">
         <v>0.83333333333333337</v>
       </c>
@@ -2078,7 +2093,7 @@
       <c r="E16" s="28">
         <v>0.5</v>
       </c>
-      <c r="F16" s="90"/>
+      <c r="F16" s="123"/>
       <c r="G16" s="45" t="s">
         <v>28</v>
       </c>
@@ -2101,8 +2116,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A17" s="125"/>
       <c r="B17" s="47">
         <v>41592</v>
       </c>
@@ -2133,15 +2148,15 @@
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="9">
-        <f>SUM(F33:F43)</f>
-        <v>20.91</v>
+        <f>SUM(F33:F44)</f>
+        <v>22.91</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
+    <row r="18" spans="1:14" ht="25.5">
+      <c r="A18" s="126"/>
       <c r="B18" s="42">
         <v>41593</v>
       </c>
@@ -2172,18 +2187,18 @@
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="9">
-        <f>SUM(E44:E48)</f>
+        <f>SUM(E45:E49)</f>
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="101">
+    <row r="19" spans="1:14">
+      <c r="A19" s="133">
         <v>3</v>
       </c>
-      <c r="B19" s="98">
+      <c r="B19" s="131">
         <v>41596</v>
       </c>
       <c r="C19" s="53" t="s">
@@ -2195,7 +2210,7 @@
       <c r="E19" s="50">
         <v>0.5</v>
       </c>
-      <c r="F19" s="100">
+      <c r="F19" s="89">
         <f>SUM(E19:E20)</f>
         <v>3.5</v>
       </c>
@@ -2214,16 +2229,16 @@
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="9">
-        <f>SUM(E59:E63)</f>
+        <f>SUM(E60:E64)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="102"/>
-      <c r="B20" s="99"/>
+    <row r="20" spans="1:14">
+      <c r="A20" s="134"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="53" t="s">
         <v>81</v>
       </c>
@@ -2233,7 +2248,7 @@
       <c r="E20" s="50">
         <v>3</v>
       </c>
-      <c r="F20" s="78"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="49" t="s">
         <v>22</v>
       </c>
@@ -2249,9 +2264,9 @@
       <c r="M20" s="9"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="102"/>
-      <c r="B21" s="98">
+    <row r="21" spans="1:14">
+      <c r="A21" s="134"/>
+      <c r="B21" s="131">
         <v>41597</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -2263,7 +2278,7 @@
       <c r="E21" s="50">
         <v>2</v>
       </c>
-      <c r="F21" s="100">
+      <c r="F21" s="89">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2282,9 +2297,9 @@
       <c r="M21" s="9"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="102"/>
-      <c r="B22" s="99"/>
+    <row r="22" spans="1:14">
+      <c r="A22" s="134"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="53" t="s">
         <v>84</v>
       </c>
@@ -2294,7 +2309,7 @@
       <c r="E22" s="50">
         <v>0.5</v>
       </c>
-      <c r="F22" s="78"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="49" t="s">
         <v>22</v>
       </c>
@@ -2310,15 +2325,15 @@
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="9">
-        <f>SUM(E64:E68)</f>
+        <f>SUM(E65:E69)</f>
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="102"/>
+    <row r="23" spans="1:14" ht="39">
+      <c r="A23" s="134"/>
       <c r="B23" s="26">
         <v>41598</v>
       </c>
@@ -2332,7 +2347,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="55">
-        <f t="shared" ref="F23:F65" si="0">E23</f>
+        <f t="shared" ref="F23:F66" si="0">E23</f>
         <v>4</v>
       </c>
       <c r="G23" s="57" t="s">
@@ -2350,15 +2365,15 @@
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="9">
-        <f>SUM(E69:E73)</f>
+        <f>SUM(E70:E74)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="102"/>
+    <row r="24" spans="1:14" ht="26.25">
+      <c r="A24" s="134"/>
       <c r="B24" s="26">
         <v>41599</v>
       </c>
@@ -2371,7 +2386,7 @@
       <c r="E24" s="50">
         <v>1</v>
       </c>
-      <c r="F24" s="100">
+      <c r="F24" s="89">
         <f>SUM(E24:E28)</f>
         <v>6.9</v>
       </c>
@@ -2388,8 +2403,8 @@
       <c r="M24" s="9"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="102"/>
+    <row r="25" spans="1:14">
+      <c r="A25" s="134"/>
       <c r="B25" s="26">
         <v>41599</v>
       </c>
@@ -2402,7 +2417,7 @@
       <c r="E25" s="50">
         <v>1.3</v>
       </c>
-      <c r="F25" s="120"/>
+      <c r="F25" s="112"/>
       <c r="G25" s="57" t="s">
         <v>19</v>
       </c>
@@ -2416,8 +2431,8 @@
       <c r="M25" s="9"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="102"/>
+    <row r="26" spans="1:14">
+      <c r="A26" s="134"/>
       <c r="B26" s="26">
         <v>41599</v>
       </c>
@@ -2430,7 +2445,7 @@
       <c r="E26" s="50">
         <v>1.5</v>
       </c>
-      <c r="F26" s="120"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="57" t="s">
         <v>22</v>
       </c>
@@ -2446,8 +2461,8 @@
       <c r="M26" s="9"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="102"/>
+    <row r="27" spans="1:14">
+      <c r="A27" s="134"/>
       <c r="B27" s="26">
         <v>41599</v>
       </c>
@@ -2460,7 +2475,7 @@
       <c r="E27" s="50">
         <v>2.1</v>
       </c>
-      <c r="F27" s="120"/>
+      <c r="F27" s="112"/>
       <c r="G27" s="29" t="s">
         <v>19</v>
       </c>
@@ -2474,15 +2489,15 @@
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="9">
-        <f>SUM(E74:E78)</f>
+        <f>SUM(E75:E79)</f>
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="102"/>
+    <row r="28" spans="1:14">
+      <c r="A28" s="134"/>
       <c r="B28" s="26">
         <v>41599</v>
       </c>
@@ -2495,7 +2510,7 @@
       <c r="E28" s="50">
         <v>1</v>
       </c>
-      <c r="F28" s="121"/>
+      <c r="F28" s="113"/>
       <c r="G28" s="29" t="s">
         <v>22</v>
       </c>
@@ -2509,8 +2524,8 @@
       <c r="M28" s="9"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="102"/>
+    <row r="29" spans="1:14">
+      <c r="A29" s="134"/>
       <c r="B29" s="26">
         <v>41600</v>
       </c>
@@ -2523,7 +2538,7 @@
       <c r="E29" s="50">
         <v>1.2</v>
       </c>
-      <c r="F29" s="100">
+      <c r="F29" s="89">
         <f>SUM(E29:E30)</f>
         <v>3.2</v>
       </c>
@@ -2538,8 +2553,8 @@
       <c r="M29" s="9"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A30" s="102"/>
+    <row r="30" spans="1:14" ht="51">
+      <c r="A30" s="134"/>
       <c r="B30" s="26">
         <v>41600</v>
       </c>
@@ -2552,7 +2567,7 @@
       <c r="E30" s="50">
         <v>2</v>
       </c>
-      <c r="F30" s="78"/>
+      <c r="F30" s="90"/>
       <c r="G30" s="57" t="s">
         <v>22</v>
       </c>
@@ -2566,15 +2581,15 @@
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="9">
-        <f>SUM(E79:E83)</f>
+        <f>SUM(E80:E84)</f>
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="102"/>
+    <row r="31" spans="1:14" ht="25.5">
+      <c r="A31" s="134"/>
       <c r="B31" s="26">
         <v>41601</v>
       </c>
@@ -2587,7 +2602,7 @@
       <c r="E31" s="50">
         <v>3.5</v>
       </c>
-      <c r="F31" s="100">
+      <c r="F31" s="89">
         <f>SUM(E31:E32)</f>
         <v>4.4000000000000004</v>
       </c>
@@ -2606,8 +2621,8 @@
       <c r="M31" s="9"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="103"/>
+    <row r="32" spans="1:14">
+      <c r="A32" s="135"/>
       <c r="B32" s="26">
         <v>41601</v>
       </c>
@@ -2620,7 +2635,7 @@
       <c r="E32" s="50">
         <v>0.9</v>
       </c>
-      <c r="F32" s="78"/>
+      <c r="F32" s="90"/>
       <c r="G32" s="57" t="s">
         <v>22</v>
       </c>
@@ -2636,8 +2651,8 @@
       <c r="M32" s="9"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="73">
+    <row r="33" spans="1:14" ht="38.25">
+      <c r="A33" s="91">
         <v>4</v>
       </c>
       <c r="B33" s="27">
@@ -2671,15 +2686,15 @@
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="9">
-        <f>SUM(E84:E88)</f>
+        <f>SUM(E85:E89)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
+    <row r="34" spans="1:14">
+      <c r="A34" s="92"/>
       <c r="B34" s="27">
         <v>41604</v>
       </c>
@@ -2692,7 +2707,7 @@
       <c r="E34" s="28">
         <v>1</v>
       </c>
-      <c r="F34" s="122">
+      <c r="F34" s="114">
         <f>SUM(E34:E37)</f>
         <v>5.75</v>
       </c>
@@ -2709,8 +2724,8 @@
       <c r="M34" s="9"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="74"/>
+    <row r="35" spans="1:14">
+      <c r="A35" s="92"/>
       <c r="B35" s="27">
         <v>41604</v>
       </c>
@@ -2723,7 +2738,7 @@
       <c r="E35" s="28">
         <v>1.5</v>
       </c>
-      <c r="F35" s="74"/>
+      <c r="F35" s="92"/>
       <c r="G35" s="67" t="s">
         <v>23</v>
       </c>
@@ -2739,8 +2754,8 @@
       <c r="M35" s="9"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
+    <row r="36" spans="1:14">
+      <c r="A36" s="92"/>
       <c r="B36" s="27">
         <v>41604</v>
       </c>
@@ -2753,7 +2768,7 @@
       <c r="E36" s="28">
         <v>1.25</v>
       </c>
-      <c r="F36" s="74"/>
+      <c r="F36" s="92"/>
       <c r="G36" s="67" t="s">
         <v>19</v>
       </c>
@@ -2769,8 +2784,8 @@
       <c r="M36" s="9"/>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A37" s="74"/>
+    <row r="37" spans="1:14" ht="51">
+      <c r="A37" s="92"/>
       <c r="B37" s="27">
         <v>41604</v>
       </c>
@@ -2783,7 +2798,7 @@
       <c r="E37" s="69">
         <v>2</v>
       </c>
-      <c r="F37" s="75"/>
+      <c r="F37" s="93"/>
       <c r="G37" s="67" t="s">
         <v>22</v>
       </c>
@@ -2801,15 +2816,15 @@
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="9">
-        <f>SUM(E89:E93)</f>
+        <f>SUM(E90:E94)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
+    <row r="38" spans="1:14">
+      <c r="A38" s="92"/>
       <c r="B38" s="27">
         <v>41605</v>
       </c>
@@ -2822,7 +2837,7 @@
       <c r="E38" s="69">
         <v>2.33</v>
       </c>
-      <c r="F38" s="73">
+      <c r="F38" s="91">
         <f>SUM(E38:E39)</f>
         <v>2.83</v>
       </c>
@@ -2839,15 +2854,15 @@
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="9">
-        <f>SUM(E94:E98)</f>
+        <f>SUM(E95:E99)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="74"/>
+    <row r="39" spans="1:14" ht="25.5">
+      <c r="A39" s="92"/>
       <c r="B39" s="27">
         <v>41605</v>
       </c>
@@ -2860,7 +2875,7 @@
       <c r="E39" s="69">
         <v>0.5</v>
       </c>
-      <c r="F39" s="75"/>
+      <c r="F39" s="93"/>
       <c r="G39" s="67" t="s">
         <v>22</v>
       </c>
@@ -2876,8 +2891,8 @@
       <c r="M39" s="9"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
+    <row r="40" spans="1:14">
+      <c r="A40" s="92"/>
       <c r="B40" s="27">
         <v>41606</v>
       </c>
@@ -2890,7 +2905,7 @@
       <c r="E40" s="69">
         <v>1.33</v>
       </c>
-      <c r="F40" s="73">
+      <c r="F40" s="91">
         <f>SUM(E40:E42)</f>
         <v>5.83</v>
       </c>
@@ -2907,8 +2922,8 @@
       <c r="M40" s="9"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="74"/>
+    <row r="41" spans="1:14">
+      <c r="A41" s="92"/>
       <c r="B41" s="27">
         <v>41606</v>
       </c>
@@ -2921,7 +2936,7 @@
       <c r="E41" s="69">
         <v>1.75</v>
       </c>
-      <c r="F41" s="74"/>
+      <c r="F41" s="92"/>
       <c r="G41" s="67" t="s">
         <v>25</v>
       </c>
@@ -2935,8 +2950,8 @@
       <c r="M41" s="9"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="74"/>
+    <row r="42" spans="1:14" ht="25.5">
+      <c r="A42" s="92"/>
       <c r="B42" s="27">
         <v>41606</v>
       </c>
@@ -2949,31 +2964,31 @@
       <c r="E42" s="69">
         <v>2.75</v>
       </c>
-      <c r="F42" s="75"/>
+      <c r="F42" s="93"/>
       <c r="G42" s="67" t="s">
         <v>19</v>
       </c>
       <c r="H42" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I42" s="67"/>
       <c r="J42" s="67" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="9">
-        <f>SUM(E99:E103)</f>
+        <f>SUM(E100:E104)</f>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A43" s="75"/>
+    <row r="43" spans="1:14" ht="51">
+      <c r="A43" s="92"/>
       <c r="B43" s="27">
         <v>41607</v>
       </c>
@@ -2981,7 +2996,7 @@
         <v>97</v>
       </c>
       <c r="D43" s="69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E43" s="69">
         <v>3.5</v>
@@ -2994,10 +3009,10 @@
         <v>19</v>
       </c>
       <c r="H43" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="I43" s="67" t="s">
         <v>145</v>
-      </c>
-      <c r="I43" s="67" t="s">
-        <v>146</v>
       </c>
       <c r="J43" s="67"/>
       <c r="K43" s="7" t="s">
@@ -3005,47 +3020,52 @@
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="9">
-        <f>SUM(E104:E108)</f>
+        <f>SUM(E105:E109)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="76">
+    <row r="44" spans="1:14" ht="38.25">
+      <c r="A44" s="93"/>
+      <c r="B44" s="27">
+        <v>41609</v>
+      </c>
+      <c r="C44" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="69">
+        <v>2</v>
+      </c>
+      <c r="F44" s="69">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G44" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="I44" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="J44" s="67"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="110">
         <v>5</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B45" s="26">
         <v>41610</v>
-      </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="9">
-        <f>SUM(E109:E113)</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
-      <c r="B45" s="26">
-        <v>41611</v>
       </c>
       <c r="C45" s="55"/>
       <c r="D45" s="55"/>
@@ -3059,21 +3079,21 @@
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
       <c r="K45" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="9">
-        <f>SUM(E114:E118)</f>
+        <f>SUM(E110:E114)</f>
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
+    <row r="46" spans="1:14">
+      <c r="A46" s="111"/>
       <c r="B46" s="26">
-        <v>41612</v>
+        <v>41611</v>
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
@@ -3087,21 +3107,21 @@
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
       <c r="K46" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="9">
-        <f>SUM(E119:E123)</f>
+        <f>SUM(E115:E119)</f>
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="77"/>
+    <row r="47" spans="1:14">
+      <c r="A47" s="111"/>
       <c r="B47" s="26">
-        <v>41613</v>
+        <v>41612</v>
       </c>
       <c r="C47" s="55"/>
       <c r="D47" s="55"/>
@@ -3115,21 +3135,21 @@
       <c r="I47" s="29"/>
       <c r="J47" s="29"/>
       <c r="K47" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="9">
-        <f>SUM(E124:E128)</f>
+        <f>SUM(E120:E124)</f>
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
+    <row r="48" spans="1:14">
+      <c r="A48" s="111"/>
       <c r="B48" s="26">
-        <v>41614</v>
+        <v>41613</v>
       </c>
       <c r="C48" s="55"/>
       <c r="D48" s="55"/>
@@ -3143,51 +3163,51 @@
       <c r="I48" s="29"/>
       <c r="J48" s="29"/>
       <c r="K48" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="9">
-        <f>SUM(E129:E133)</f>
+        <f>SUM(E125:E129)</f>
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="73">
-        <v>6</v>
-      </c>
-      <c r="B49" s="27">
-        <v>41617</v>
-      </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69">
+    <row r="49" spans="1:14">
+      <c r="A49" s="90"/>
+      <c r="B49" s="26">
+        <v>41614</v>
+      </c>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
       <c r="K49" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="9">
-        <f>SUM(E134:E138)</f>
+        <f>SUM(E130:E134)</f>
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="74"/>
+    <row r="50" spans="1:14">
+      <c r="A50" s="91">
+        <v>6</v>
+      </c>
       <c r="B50" s="27">
-        <v>41618</v>
+        <v>41617</v>
       </c>
       <c r="C50" s="69"/>
       <c r="D50" s="69"/>
@@ -3201,21 +3221,21 @@
       <c r="I50" s="67"/>
       <c r="J50" s="67"/>
       <c r="K50" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="9">
-        <f>SUM(E139:E143)</f>
+        <f>SUM(E135:E139)</f>
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="74"/>
+    <row r="51" spans="1:14">
+      <c r="A51" s="92"/>
       <c r="B51" s="27">
-        <v>41619</v>
+        <v>41618</v>
       </c>
       <c r="C51" s="69"/>
       <c r="D51" s="69"/>
@@ -3229,21 +3249,21 @@
       <c r="I51" s="67"/>
       <c r="J51" s="67"/>
       <c r="K51" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="9">
-        <f>SUM(E144:E148)</f>
+        <f>SUM(E140:E144)</f>
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="74"/>
+    <row r="52" spans="1:14">
+      <c r="A52" s="92"/>
       <c r="B52" s="27">
-        <v>41620</v>
+        <v>41619</v>
       </c>
       <c r="C52" s="69"/>
       <c r="D52" s="69"/>
@@ -3257,21 +3277,21 @@
       <c r="I52" s="67"/>
       <c r="J52" s="67"/>
       <c r="K52" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="9">
-        <f>SUM(E149:E153)</f>
+        <f>SUM(E145:E149)</f>
         <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="75"/>
+    <row r="53" spans="1:14">
+      <c r="A53" s="92"/>
       <c r="B53" s="27">
-        <v>41621</v>
+        <v>41620</v>
       </c>
       <c r="C53" s="69"/>
       <c r="D53" s="69"/>
@@ -3285,51 +3305,51 @@
       <c r="I53" s="67"/>
       <c r="J53" s="67"/>
       <c r="K53" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="9">
-        <f>SUM(E154:E158)</f>
+        <f>SUM(E150:E154)</f>
         <v>0</v>
       </c>
       <c r="N53" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="76">
-        <v>7</v>
-      </c>
-      <c r="B54" s="26">
-        <v>41624</v>
-      </c>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55">
+    <row r="54" spans="1:14">
+      <c r="A54" s="93"/>
+      <c r="B54" s="27">
+        <v>41621</v>
+      </c>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
       <c r="K54" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="9">
-        <f>SUM(E159:E163)</f>
+        <f>SUM(E155:E159)</f>
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="77"/>
+    <row r="55" spans="1:14">
+      <c r="A55" s="110">
+        <v>7</v>
+      </c>
       <c r="B55" s="26">
-        <v>41625</v>
+        <v>41624</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
@@ -3343,21 +3363,21 @@
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
       <c r="K55" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="9">
-        <f>SUM(E164:E168)</f>
+        <f>SUM(E160:E164)</f>
         <v>0</v>
       </c>
       <c r="N55" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="77"/>
+    <row r="56" spans="1:14">
+      <c r="A56" s="111"/>
       <c r="B56" s="26">
-        <v>41626</v>
+        <v>41625</v>
       </c>
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
@@ -3371,21 +3391,21 @@
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
       <c r="K56" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="9">
-        <f>SUM(E169:E173)</f>
+        <f>SUM(E165:E169)</f>
         <v>0</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="77"/>
+    <row r="57" spans="1:14">
+      <c r="A57" s="111"/>
       <c r="B57" s="26">
-        <v>41627</v>
+        <v>41626</v>
       </c>
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
@@ -3398,11 +3418,22 @@
       <c r="H57" s="29"/>
       <c r="I57" s="29"/>
       <c r="J57" s="29"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
+      <c r="K57" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L57" s="5"/>
+      <c r="M57" s="9">
+        <f>SUM(E170:E174)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="111"/>
       <c r="B58" s="26">
-        <v>41628</v>
+        <v>41627</v>
       </c>
       <c r="C58" s="55"/>
       <c r="D58" s="55"/>
@@ -3416,29 +3447,29 @@
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="73">
+    <row r="59" spans="1:14">
+      <c r="A59" s="90"/>
+      <c r="B59" s="26">
+        <v>41628</v>
+      </c>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="91">
         <v>8</v>
       </c>
-      <c r="B59" s="27">
+      <c r="B60" s="27">
         <v>41631</v>
-      </c>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="74"/>
-      <c r="B60" s="27">
-        <v>41632</v>
       </c>
       <c r="C60" s="69"/>
       <c r="D60" s="69"/>
@@ -3452,10 +3483,10 @@
       <c r="I60" s="67"/>
       <c r="J60" s="67"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="74"/>
+    <row r="61" spans="1:14">
+      <c r="A61" s="92"/>
       <c r="B61" s="27">
-        <v>41633</v>
+        <v>41632</v>
       </c>
       <c r="C61" s="69"/>
       <c r="D61" s="69"/>
@@ -3469,10 +3500,10 @@
       <c r="I61" s="67"/>
       <c r="J61" s="67"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="74"/>
+    <row r="62" spans="1:14">
+      <c r="A62" s="92"/>
       <c r="B62" s="27">
-        <v>41634</v>
+        <v>41633</v>
       </c>
       <c r="C62" s="69"/>
       <c r="D62" s="69"/>
@@ -3486,10 +3517,10 @@
       <c r="I62" s="67"/>
       <c r="J62" s="67"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="75"/>
+    <row r="63" spans="1:14">
+      <c r="A63" s="92"/>
       <c r="B63" s="27">
-        <v>41635</v>
+        <v>41634</v>
       </c>
       <c r="C63" s="69"/>
       <c r="D63" s="69"/>
@@ -3503,29 +3534,29 @@
       <c r="I63" s="67"/>
       <c r="J63" s="67"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="76">
+    <row r="64" spans="1:14">
+      <c r="A64" s="93"/>
+      <c r="B64" s="27">
+        <v>41635</v>
+      </c>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="110">
         <v>9</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B65" s="26">
         <v>41638</v>
-      </c>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="77"/>
-      <c r="B65" s="26">
-        <v>41639</v>
       </c>
       <c r="C65" s="55"/>
       <c r="D65" s="55"/>
@@ -3539,16 +3570,16 @@
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="77"/>
+    <row r="66" spans="1:10">
+      <c r="A66" s="111"/>
       <c r="B66" s="26">
-        <v>41640</v>
+        <v>41639</v>
       </c>
       <c r="C66" s="55"/>
       <c r="D66" s="55"/>
       <c r="E66" s="55"/>
       <c r="F66" s="55">
-        <f t="shared" ref="F66:F97" si="1">E66</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G66" s="29"/>
@@ -3556,16 +3587,16 @@
       <c r="I66" s="29"/>
       <c r="J66" s="29"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="77"/>
+    <row r="67" spans="1:10">
+      <c r="A67" s="111"/>
       <c r="B67" s="26">
-        <v>41641</v>
+        <v>41640</v>
       </c>
       <c r="C67" s="55"/>
       <c r="D67" s="55"/>
       <c r="E67" s="55"/>
       <c r="F67" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F67:F98" si="1">E67</f>
         <v>0</v>
       </c>
       <c r="G67" s="29"/>
@@ -3573,10 +3604,10 @@
       <c r="I67" s="29"/>
       <c r="J67" s="29"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="78"/>
+    <row r="68" spans="1:10">
+      <c r="A68" s="111"/>
       <c r="B68" s="26">
-        <v>41642</v>
+        <v>41641</v>
       </c>
       <c r="C68" s="55"/>
       <c r="D68" s="55"/>
@@ -3590,29 +3621,29 @@
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="73">
+    <row r="69" spans="1:10">
+      <c r="A69" s="90"/>
+      <c r="B69" s="26">
+        <v>41642</v>
+      </c>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="91">
         <v>10</v>
       </c>
-      <c r="B69" s="27">
+      <c r="B70" s="27">
         <v>41645</v>
-      </c>
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="74"/>
-      <c r="B70" s="27">
-        <v>41646</v>
       </c>
       <c r="C70" s="69"/>
       <c r="D70" s="69"/>
@@ -3626,10 +3657,10 @@
       <c r="I70" s="67"/>
       <c r="J70" s="67"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="74"/>
+    <row r="71" spans="1:10">
+      <c r="A71" s="92"/>
       <c r="B71" s="27">
-        <v>41647</v>
+        <v>41646</v>
       </c>
       <c r="C71" s="69"/>
       <c r="D71" s="69"/>
@@ -3643,10 +3674,10 @@
       <c r="I71" s="67"/>
       <c r="J71" s="67"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="74"/>
+    <row r="72" spans="1:10">
+      <c r="A72" s="92"/>
       <c r="B72" s="27">
-        <v>41648</v>
+        <v>41647</v>
       </c>
       <c r="C72" s="69"/>
       <c r="D72" s="69"/>
@@ -3660,10 +3691,10 @@
       <c r="I72" s="67"/>
       <c r="J72" s="67"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="75"/>
+    <row r="73" spans="1:10">
+      <c r="A73" s="92"/>
       <c r="B73" s="27">
-        <v>41649</v>
+        <v>41648</v>
       </c>
       <c r="C73" s="69"/>
       <c r="D73" s="69"/>
@@ -3677,29 +3708,29 @@
       <c r="I73" s="67"/>
       <c r="J73" s="67"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="76">
+    <row r="74" spans="1:10">
+      <c r="A74" s="93"/>
+      <c r="B74" s="27">
+        <v>41649</v>
+      </c>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="110">
         <v>11</v>
       </c>
-      <c r="B74" s="26">
+      <c r="B75" s="26">
         <v>41652</v>
-      </c>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="77"/>
-      <c r="B75" s="26">
-        <v>41653</v>
       </c>
       <c r="C75" s="55"/>
       <c r="D75" s="55"/>
@@ -3713,10 +3744,10 @@
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="77"/>
+    <row r="76" spans="1:10">
+      <c r="A76" s="111"/>
       <c r="B76" s="26">
-        <v>41654</v>
+        <v>41653</v>
       </c>
       <c r="C76" s="55"/>
       <c r="D76" s="55"/>
@@ -3730,10 +3761,10 @@
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="77"/>
+    <row r="77" spans="1:10">
+      <c r="A77" s="111"/>
       <c r="B77" s="26">
-        <v>41655</v>
+        <v>41654</v>
       </c>
       <c r="C77" s="55"/>
       <c r="D77" s="55"/>
@@ -3747,10 +3778,10 @@
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="78"/>
+    <row r="78" spans="1:10">
+      <c r="A78" s="111"/>
       <c r="B78" s="26">
-        <v>41656</v>
+        <v>41655</v>
       </c>
       <c r="C78" s="55"/>
       <c r="D78" s="55"/>
@@ -3764,29 +3795,29 @@
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="73">
+    <row r="79" spans="1:10">
+      <c r="A79" s="90"/>
+      <c r="B79" s="26">
+        <v>41656</v>
+      </c>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="91">
         <v>12</v>
       </c>
-      <c r="B79" s="27">
+      <c r="B80" s="27">
         <v>41659</v>
-      </c>
-      <c r="C79" s="69"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="67"/>
-      <c r="J79" s="67"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="74"/>
-      <c r="B80" s="27">
-        <v>41660</v>
       </c>
       <c r="C80" s="69"/>
       <c r="D80" s="69"/>
@@ -3800,10 +3831,10 @@
       <c r="I80" s="67"/>
       <c r="J80" s="67"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="74"/>
+    <row r="81" spans="1:10">
+      <c r="A81" s="92"/>
       <c r="B81" s="27">
-        <v>41661</v>
+        <v>41660</v>
       </c>
       <c r="C81" s="69"/>
       <c r="D81" s="69"/>
@@ -3817,10 +3848,10 @@
       <c r="I81" s="67"/>
       <c r="J81" s="67"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="74"/>
+    <row r="82" spans="1:10">
+      <c r="A82" s="92"/>
       <c r="B82" s="27">
-        <v>41662</v>
+        <v>41661</v>
       </c>
       <c r="C82" s="69"/>
       <c r="D82" s="69"/>
@@ -3834,10 +3865,10 @@
       <c r="I82" s="67"/>
       <c r="J82" s="67"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="75"/>
+    <row r="83" spans="1:10">
+      <c r="A83" s="92"/>
       <c r="B83" s="27">
-        <v>41663</v>
+        <v>41662</v>
       </c>
       <c r="C83" s="69"/>
       <c r="D83" s="69"/>
@@ -3851,31 +3882,29 @@
       <c r="I83" s="67"/>
       <c r="J83" s="67"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="76">
+    <row r="84" spans="1:10">
+      <c r="A84" s="93"/>
+      <c r="B84" s="27">
+        <v>41663</v>
+      </c>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="67"/>
+      <c r="J84" s="67"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="110">
         <v>13</v>
       </c>
-      <c r="B84" s="26">
+      <c r="B85" s="26">
         <v>41666</v>
-      </c>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="77"/>
-      <c r="B85" s="26">
-        <v>41667</v>
       </c>
       <c r="C85" s="55"/>
       <c r="D85" s="55"/>
@@ -3891,10 +3920,10 @@
       <c r="I85" s="29"/>
       <c r="J85" s="29"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="77"/>
+    <row r="86" spans="1:10">
+      <c r="A86" s="111"/>
       <c r="B86" s="26">
-        <v>41668</v>
+        <v>41667</v>
       </c>
       <c r="C86" s="55"/>
       <c r="D86" s="55"/>
@@ -3910,10 +3939,10 @@
       <c r="I86" s="29"/>
       <c r="J86" s="29"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="77"/>
+    <row r="87" spans="1:10">
+      <c r="A87" s="111"/>
       <c r="B87" s="26">
-        <v>41669</v>
+        <v>41668</v>
       </c>
       <c r="C87" s="55"/>
       <c r="D87" s="55"/>
@@ -3929,10 +3958,10 @@
       <c r="I87" s="29"/>
       <c r="J87" s="29"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="78"/>
+    <row r="88" spans="1:10">
+      <c r="A88" s="111"/>
       <c r="B88" s="26">
-        <v>41670</v>
+        <v>41669</v>
       </c>
       <c r="C88" s="55"/>
       <c r="D88" s="55"/>
@@ -3948,31 +3977,31 @@
       <c r="I88" s="29"/>
       <c r="J88" s="29"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="73">
+    <row r="89" spans="1:10">
+      <c r="A89" s="90"/>
+      <c r="B89" s="26">
+        <v>41670</v>
+      </c>
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="91">
         <v>14</v>
       </c>
-      <c r="B89" s="27">
+      <c r="B90" s="27">
         <v>41673</v>
-      </c>
-      <c r="C89" s="69"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H89" s="67"/>
-      <c r="I89" s="67"/>
-      <c r="J89" s="67"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="74"/>
-      <c r="B90" s="27">
-        <v>41674</v>
       </c>
       <c r="C90" s="69"/>
       <c r="D90" s="69"/>
@@ -3988,10 +4017,10 @@
       <c r="I90" s="67"/>
       <c r="J90" s="67"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="74"/>
+    <row r="91" spans="1:10">
+      <c r="A91" s="92"/>
       <c r="B91" s="27">
-        <v>41675</v>
+        <v>41674</v>
       </c>
       <c r="C91" s="69"/>
       <c r="D91" s="69"/>
@@ -4007,10 +4036,10 @@
       <c r="I91" s="67"/>
       <c r="J91" s="67"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="74"/>
+    <row r="92" spans="1:10">
+      <c r="A92" s="92"/>
       <c r="B92" s="27">
-        <v>41676</v>
+        <v>41675</v>
       </c>
       <c r="C92" s="69"/>
       <c r="D92" s="69"/>
@@ -4026,10 +4055,10 @@
       <c r="I92" s="67"/>
       <c r="J92" s="67"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="75"/>
+    <row r="93" spans="1:10">
+      <c r="A93" s="92"/>
       <c r="B93" s="27">
-        <v>41677</v>
+        <v>41676</v>
       </c>
       <c r="C93" s="69"/>
       <c r="D93" s="69"/>
@@ -4045,29 +4074,31 @@
       <c r="I93" s="67"/>
       <c r="J93" s="67"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="76">
+    <row r="94" spans="1:10">
+      <c r="A94" s="93"/>
+      <c r="B94" s="27">
+        <v>41677</v>
+      </c>
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94" s="67"/>
+      <c r="I94" s="67"/>
+      <c r="J94" s="67"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="110">
         <v>15</v>
       </c>
-      <c r="B94" s="26">
+      <c r="B95" s="26">
         <v>41680</v>
-      </c>
-      <c r="C94" s="55"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="29"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
-      <c r="B95" s="26">
-        <v>41681</v>
       </c>
       <c r="C95" s="55"/>
       <c r="D95" s="55"/>
@@ -4081,10 +4112,10 @@
       <c r="I95" s="29"/>
       <c r="J95" s="29"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="77"/>
+    <row r="96" spans="1:10">
+      <c r="A96" s="111"/>
       <c r="B96" s="26">
-        <v>41682</v>
+        <v>41681</v>
       </c>
       <c r="C96" s="55"/>
       <c r="D96" s="55"/>
@@ -4098,10 +4129,10 @@
       <c r="I96" s="29"/>
       <c r="J96" s="29"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="77"/>
+    <row r="97" spans="1:10">
+      <c r="A97" s="111"/>
       <c r="B97" s="26">
-        <v>41683</v>
+        <v>41682</v>
       </c>
       <c r="C97" s="55"/>
       <c r="D97" s="55"/>
@@ -4115,16 +4146,16 @@
       <c r="I97" s="29"/>
       <c r="J97" s="29"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="78"/>
+    <row r="98" spans="1:10">
+      <c r="A98" s="111"/>
       <c r="B98" s="26">
-        <v>41684</v>
+        <v>41683</v>
       </c>
       <c r="C98" s="55"/>
       <c r="D98" s="55"/>
       <c r="E98" s="55"/>
       <c r="F98" s="55">
-        <f t="shared" ref="F98:F129" si="2">E98</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G98" s="29"/>
@@ -4132,29 +4163,29 @@
       <c r="I98" s="29"/>
       <c r="J98" s="29"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="73">
+    <row r="99" spans="1:10">
+      <c r="A99" s="90"/>
+      <c r="B99" s="26">
+        <v>41684</v>
+      </c>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55">
+        <f t="shared" ref="F99:F130" si="2">E99</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="91">
         <v>16</v>
       </c>
-      <c r="B99" s="27">
+      <c r="B100" s="27">
         <v>41687</v>
-      </c>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="67"/>
-      <c r="J99" s="67"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="74"/>
-      <c r="B100" s="27">
-        <v>41688</v>
       </c>
       <c r="C100" s="69"/>
       <c r="D100" s="69"/>
@@ -4168,10 +4199,10 @@
       <c r="I100" s="67"/>
       <c r="J100" s="67"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="74"/>
+    <row r="101" spans="1:10">
+      <c r="A101" s="92"/>
       <c r="B101" s="27">
-        <v>41689</v>
+        <v>41688</v>
       </c>
       <c r="C101" s="69"/>
       <c r="D101" s="69"/>
@@ -4185,10 +4216,10 @@
       <c r="I101" s="67"/>
       <c r="J101" s="67"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="74"/>
+    <row r="102" spans="1:10">
+      <c r="A102" s="92"/>
       <c r="B102" s="27">
-        <v>41690</v>
+        <v>41689</v>
       </c>
       <c r="C102" s="69"/>
       <c r="D102" s="69"/>
@@ -4202,10 +4233,10 @@
       <c r="I102" s="67"/>
       <c r="J102" s="67"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="75"/>
+    <row r="103" spans="1:10">
+      <c r="A103" s="92"/>
       <c r="B103" s="27">
-        <v>41691</v>
+        <v>41690</v>
       </c>
       <c r="C103" s="69"/>
       <c r="D103" s="69"/>
@@ -4219,29 +4250,29 @@
       <c r="I103" s="67"/>
       <c r="J103" s="67"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="76">
+    <row r="104" spans="1:10">
+      <c r="A104" s="93"/>
+      <c r="B104" s="27">
+        <v>41691</v>
+      </c>
+      <c r="C104" s="69"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="69"/>
+      <c r="F104" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="67"/>
+      <c r="J104" s="67"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="110">
         <v>17</v>
       </c>
-      <c r="B104" s="26">
+      <c r="B105" s="26">
         <v>41694</v>
-      </c>
-      <c r="C104" s="55"/>
-      <c r="D104" s="55"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="29"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="77"/>
-      <c r="B105" s="26">
-        <v>41695</v>
       </c>
       <c r="C105" s="55"/>
       <c r="D105" s="55"/>
@@ -4255,10 +4286,10 @@
       <c r="I105" s="29"/>
       <c r="J105" s="29"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="77"/>
+    <row r="106" spans="1:10">
+      <c r="A106" s="111"/>
       <c r="B106" s="26">
-        <v>41696</v>
+        <v>41695</v>
       </c>
       <c r="C106" s="55"/>
       <c r="D106" s="55"/>
@@ -4272,10 +4303,10 @@
       <c r="I106" s="29"/>
       <c r="J106" s="29"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="77"/>
+    <row r="107" spans="1:10">
+      <c r="A107" s="111"/>
       <c r="B107" s="26">
-        <v>41697</v>
+        <v>41696</v>
       </c>
       <c r="C107" s="55"/>
       <c r="D107" s="55"/>
@@ -4289,10 +4320,10 @@
       <c r="I107" s="29"/>
       <c r="J107" s="29"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="78"/>
+    <row r="108" spans="1:10">
+      <c r="A108" s="111"/>
       <c r="B108" s="26">
-        <v>41698</v>
+        <v>41697</v>
       </c>
       <c r="C108" s="55"/>
       <c r="D108" s="55"/>
@@ -4306,29 +4337,29 @@
       <c r="I108" s="29"/>
       <c r="J108" s="29"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="73">
+    <row r="109" spans="1:10">
+      <c r="A109" s="90"/>
+      <c r="B109" s="26">
+        <v>41698</v>
+      </c>
+      <c r="C109" s="55"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="91">
         <v>18</v>
       </c>
-      <c r="B109" s="27">
+      <c r="B110" s="27">
         <v>41701</v>
-      </c>
-      <c r="C109" s="69"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G109" s="67"/>
-      <c r="H109" s="67"/>
-      <c r="I109" s="67"/>
-      <c r="J109" s="67"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="74"/>
-      <c r="B110" s="27">
-        <v>41702</v>
       </c>
       <c r="C110" s="69"/>
       <c r="D110" s="69"/>
@@ -4342,10 +4373,10 @@
       <c r="I110" s="67"/>
       <c r="J110" s="67"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="74"/>
+    <row r="111" spans="1:10">
+      <c r="A111" s="92"/>
       <c r="B111" s="27">
-        <v>41703</v>
+        <v>41702</v>
       </c>
       <c r="C111" s="69"/>
       <c r="D111" s="69"/>
@@ -4359,10 +4390,10 @@
       <c r="I111" s="67"/>
       <c r="J111" s="67"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="74"/>
+    <row r="112" spans="1:10">
+      <c r="A112" s="92"/>
       <c r="B112" s="27">
-        <v>41704</v>
+        <v>41703</v>
       </c>
       <c r="C112" s="69"/>
       <c r="D112" s="69"/>
@@ -4376,10 +4407,10 @@
       <c r="I112" s="67"/>
       <c r="J112" s="67"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="75"/>
+    <row r="113" spans="1:10">
+      <c r="A113" s="92"/>
       <c r="B113" s="27">
-        <v>41705</v>
+        <v>41704</v>
       </c>
       <c r="C113" s="69"/>
       <c r="D113" s="69"/>
@@ -4393,29 +4424,29 @@
       <c r="I113" s="67"/>
       <c r="J113" s="67"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="76">
+    <row r="114" spans="1:10">
+      <c r="A114" s="93"/>
+      <c r="B114" s="27">
+        <v>41705</v>
+      </c>
+      <c r="C114" s="69"/>
+      <c r="D114" s="69"/>
+      <c r="E114" s="69"/>
+      <c r="F114" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="67"/>
+      <c r="H114" s="67"/>
+      <c r="I114" s="67"/>
+      <c r="J114" s="67"/>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="110">
         <v>19</v>
       </c>
-      <c r="B114" s="26">
+      <c r="B115" s="26">
         <v>41708</v>
-      </c>
-      <c r="C114" s="55"/>
-      <c r="D114" s="55"/>
-      <c r="E114" s="55"/>
-      <c r="F114" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G114" s="29"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="29"/>
-      <c r="J114" s="29"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="77"/>
-      <c r="B115" s="26">
-        <v>41709</v>
       </c>
       <c r="C115" s="55"/>
       <c r="D115" s="55"/>
@@ -4429,10 +4460,10 @@
       <c r="I115" s="29"/>
       <c r="J115" s="29"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="77"/>
+    <row r="116" spans="1:10">
+      <c r="A116" s="111"/>
       <c r="B116" s="26">
-        <v>41710</v>
+        <v>41709</v>
       </c>
       <c r="C116" s="55"/>
       <c r="D116" s="55"/>
@@ -4446,10 +4477,10 @@
       <c r="I116" s="29"/>
       <c r="J116" s="29"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="77"/>
+    <row r="117" spans="1:10">
+      <c r="A117" s="111"/>
       <c r="B117" s="26">
-        <v>41711</v>
+        <v>41710</v>
       </c>
       <c r="C117" s="55"/>
       <c r="D117" s="55"/>
@@ -4463,10 +4494,10 @@
       <c r="I117" s="29"/>
       <c r="J117" s="29"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="78"/>
+    <row r="118" spans="1:10">
+      <c r="A118" s="111"/>
       <c r="B118" s="26">
-        <v>41712</v>
+        <v>41711</v>
       </c>
       <c r="C118" s="55"/>
       <c r="D118" s="55"/>
@@ -4480,29 +4511,29 @@
       <c r="I118" s="29"/>
       <c r="J118" s="29"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="73">
+    <row r="119" spans="1:10">
+      <c r="A119" s="90"/>
+      <c r="B119" s="26">
+        <v>41712</v>
+      </c>
+      <c r="C119" s="55"/>
+      <c r="D119" s="55"/>
+      <c r="E119" s="55"/>
+      <c r="F119" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="29"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="91">
         <v>20</v>
       </c>
-      <c r="B119" s="27">
+      <c r="B120" s="27">
         <v>41715</v>
-      </c>
-      <c r="C119" s="69"/>
-      <c r="D119" s="69"/>
-      <c r="E119" s="69"/>
-      <c r="F119" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="67"/>
-      <c r="H119" s="67"/>
-      <c r="I119" s="67"/>
-      <c r="J119" s="67"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="74"/>
-      <c r="B120" s="27">
-        <v>41716</v>
       </c>
       <c r="C120" s="69"/>
       <c r="D120" s="69"/>
@@ -4516,10 +4547,10 @@
       <c r="I120" s="67"/>
       <c r="J120" s="67"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="74"/>
+    <row r="121" spans="1:10">
+      <c r="A121" s="92"/>
       <c r="B121" s="27">
-        <v>41717</v>
+        <v>41716</v>
       </c>
       <c r="C121" s="69"/>
       <c r="D121" s="69"/>
@@ -4533,10 +4564,10 @@
       <c r="I121" s="67"/>
       <c r="J121" s="67"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="74"/>
+    <row r="122" spans="1:10">
+      <c r="A122" s="92"/>
       <c r="B122" s="27">
-        <v>41718</v>
+        <v>41717</v>
       </c>
       <c r="C122" s="69"/>
       <c r="D122" s="69"/>
@@ -4550,10 +4581,10 @@
       <c r="I122" s="67"/>
       <c r="J122" s="67"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="75"/>
+    <row r="123" spans="1:10">
+      <c r="A123" s="92"/>
       <c r="B123" s="27">
-        <v>41719</v>
+        <v>41718</v>
       </c>
       <c r="C123" s="69"/>
       <c r="D123" s="69"/>
@@ -4567,29 +4598,29 @@
       <c r="I123" s="67"/>
       <c r="J123" s="67"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="76">
+    <row r="124" spans="1:10">
+      <c r="A124" s="93"/>
+      <c r="B124" s="27">
+        <v>41719</v>
+      </c>
+      <c r="C124" s="69"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="67"/>
+      <c r="H124" s="67"/>
+      <c r="I124" s="67"/>
+      <c r="J124" s="67"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="110">
         <v>21</v>
       </c>
-      <c r="B124" s="26">
+      <c r="B125" s="26">
         <v>41722</v>
-      </c>
-      <c r="C124" s="55"/>
-      <c r="D124" s="55"/>
-      <c r="E124" s="55"/>
-      <c r="F124" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G124" s="29"/>
-      <c r="H124" s="29"/>
-      <c r="I124" s="29"/>
-      <c r="J124" s="29"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="77"/>
-      <c r="B125" s="26">
-        <v>41723</v>
       </c>
       <c r="C125" s="55"/>
       <c r="D125" s="55"/>
@@ -4603,10 +4634,10 @@
       <c r="I125" s="29"/>
       <c r="J125" s="29"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="77"/>
+    <row r="126" spans="1:10">
+      <c r="A126" s="111"/>
       <c r="B126" s="26">
-        <v>41724</v>
+        <v>41723</v>
       </c>
       <c r="C126" s="55"/>
       <c r="D126" s="55"/>
@@ -4620,10 +4651,10 @@
       <c r="I126" s="29"/>
       <c r="J126" s="29"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="77"/>
+    <row r="127" spans="1:10">
+      <c r="A127" s="111"/>
       <c r="B127" s="26">
-        <v>41725</v>
+        <v>41724</v>
       </c>
       <c r="C127" s="55"/>
       <c r="D127" s="55"/>
@@ -4637,10 +4668,10 @@
       <c r="I127" s="29"/>
       <c r="J127" s="29"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="78"/>
+    <row r="128" spans="1:10">
+      <c r="A128" s="111"/>
       <c r="B128" s="26">
-        <v>41726</v>
+        <v>41725</v>
       </c>
       <c r="C128" s="55"/>
       <c r="D128" s="55"/>
@@ -4654,35 +4685,35 @@
       <c r="I128" s="29"/>
       <c r="J128" s="29"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="73">
+    <row r="129" spans="1:10">
+      <c r="A129" s="90"/>
+      <c r="B129" s="26">
+        <v>41726</v>
+      </c>
+      <c r="C129" s="55"/>
+      <c r="D129" s="55"/>
+      <c r="E129" s="55"/>
+      <c r="F129" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="29"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="91">
         <v>22</v>
       </c>
-      <c r="B129" s="27">
+      <c r="B130" s="27">
         <v>41729</v>
-      </c>
-      <c r="C129" s="69"/>
-      <c r="D129" s="69"/>
-      <c r="E129" s="69"/>
-      <c r="F129" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G129" s="67"/>
-      <c r="H129" s="67"/>
-      <c r="I129" s="67"/>
-      <c r="J129" s="67"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="74"/>
-      <c r="B130" s="27">
-        <v>41730</v>
       </c>
       <c r="C130" s="69"/>
       <c r="D130" s="69"/>
       <c r="E130" s="69"/>
       <c r="F130" s="69">
-        <f t="shared" ref="F130:F161" si="3">E130</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G130" s="67"/>
@@ -4690,16 +4721,16 @@
       <c r="I130" s="67"/>
       <c r="J130" s="67"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="74"/>
+    <row r="131" spans="1:10">
+      <c r="A131" s="92"/>
       <c r="B131" s="27">
-        <v>41731</v>
+        <v>41730</v>
       </c>
       <c r="C131" s="69"/>
       <c r="D131" s="69"/>
       <c r="E131" s="69"/>
       <c r="F131" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F131:F162" si="3">E131</f>
         <v>0</v>
       </c>
       <c r="G131" s="67"/>
@@ -4707,10 +4738,10 @@
       <c r="I131" s="67"/>
       <c r="J131" s="67"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="74"/>
+    <row r="132" spans="1:10">
+      <c r="A132" s="92"/>
       <c r="B132" s="27">
-        <v>41732</v>
+        <v>41731</v>
       </c>
       <c r="C132" s="69"/>
       <c r="D132" s="69"/>
@@ -4724,10 +4755,10 @@
       <c r="I132" s="67"/>
       <c r="J132" s="67"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="75"/>
+    <row r="133" spans="1:10">
+      <c r="A133" s="92"/>
       <c r="B133" s="27">
-        <v>41733</v>
+        <v>41732</v>
       </c>
       <c r="C133" s="69"/>
       <c r="D133" s="69"/>
@@ -4741,29 +4772,29 @@
       <c r="I133" s="67"/>
       <c r="J133" s="67"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="76">
+    <row r="134" spans="1:10">
+      <c r="A134" s="93"/>
+      <c r="B134" s="27">
+        <v>41733</v>
+      </c>
+      <c r="C134" s="69"/>
+      <c r="D134" s="69"/>
+      <c r="E134" s="69"/>
+      <c r="F134" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G134" s="67"/>
+      <c r="H134" s="67"/>
+      <c r="I134" s="67"/>
+      <c r="J134" s="67"/>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="110">
         <v>23</v>
       </c>
-      <c r="B134" s="26">
+      <c r="B135" s="26">
         <v>41736</v>
-      </c>
-      <c r="C134" s="55"/>
-      <c r="D134" s="55"/>
-      <c r="E134" s="55"/>
-      <c r="F134" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G134" s="29"/>
-      <c r="H134" s="29"/>
-      <c r="I134" s="29"/>
-      <c r="J134" s="29"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="77"/>
-      <c r="B135" s="26">
-        <v>41737</v>
       </c>
       <c r="C135" s="55"/>
       <c r="D135" s="55"/>
@@ -4777,10 +4808,10 @@
       <c r="I135" s="29"/>
       <c r="J135" s="29"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="77"/>
+    <row r="136" spans="1:10">
+      <c r="A136" s="111"/>
       <c r="B136" s="26">
-        <v>41738</v>
+        <v>41737</v>
       </c>
       <c r="C136" s="55"/>
       <c r="D136" s="55"/>
@@ -4794,10 +4825,10 @@
       <c r="I136" s="29"/>
       <c r="J136" s="29"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="77"/>
+    <row r="137" spans="1:10">
+      <c r="A137" s="111"/>
       <c r="B137" s="26">
-        <v>41739</v>
+        <v>41738</v>
       </c>
       <c r="C137" s="55"/>
       <c r="D137" s="55"/>
@@ -4811,10 +4842,10 @@
       <c r="I137" s="29"/>
       <c r="J137" s="29"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="78"/>
+    <row r="138" spans="1:10">
+      <c r="A138" s="111"/>
       <c r="B138" s="26">
-        <v>41740</v>
+        <v>41739</v>
       </c>
       <c r="C138" s="55"/>
       <c r="D138" s="55"/>
@@ -4828,29 +4859,29 @@
       <c r="I138" s="29"/>
       <c r="J138" s="29"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="73">
+    <row r="139" spans="1:10">
+      <c r="A139" s="90"/>
+      <c r="B139" s="26">
+        <v>41740</v>
+      </c>
+      <c r="C139" s="55"/>
+      <c r="D139" s="55"/>
+      <c r="E139" s="55"/>
+      <c r="F139" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
+      <c r="I139" s="29"/>
+      <c r="J139" s="29"/>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="91">
         <v>24</v>
       </c>
-      <c r="B139" s="27">
+      <c r="B140" s="27">
         <v>41743</v>
-      </c>
-      <c r="C139" s="69"/>
-      <c r="D139" s="69"/>
-      <c r="E139" s="69"/>
-      <c r="F139" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G139" s="67"/>
-      <c r="H139" s="67"/>
-      <c r="I139" s="67"/>
-      <c r="J139" s="67"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="74"/>
-      <c r="B140" s="27">
-        <v>41744</v>
       </c>
       <c r="C140" s="69"/>
       <c r="D140" s="69"/>
@@ -4864,10 +4895,10 @@
       <c r="I140" s="67"/>
       <c r="J140" s="67"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="74"/>
+    <row r="141" spans="1:10">
+      <c r="A141" s="92"/>
       <c r="B141" s="27">
-        <v>41745</v>
+        <v>41744</v>
       </c>
       <c r="C141" s="69"/>
       <c r="D141" s="69"/>
@@ -4881,10 +4912,10 @@
       <c r="I141" s="67"/>
       <c r="J141" s="67"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="74"/>
+    <row r="142" spans="1:10">
+      <c r="A142" s="92"/>
       <c r="B142" s="27">
-        <v>41746</v>
+        <v>41745</v>
       </c>
       <c r="C142" s="69"/>
       <c r="D142" s="69"/>
@@ -4898,10 +4929,10 @@
       <c r="I142" s="67"/>
       <c r="J142" s="67"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="75"/>
+    <row r="143" spans="1:10">
+      <c r="A143" s="92"/>
       <c r="B143" s="27">
-        <v>41747</v>
+        <v>41746</v>
       </c>
       <c r="C143" s="69"/>
       <c r="D143" s="69"/>
@@ -4915,29 +4946,29 @@
       <c r="I143" s="67"/>
       <c r="J143" s="67"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="76">
+    <row r="144" spans="1:10">
+      <c r="A144" s="93"/>
+      <c r="B144" s="27">
+        <v>41747</v>
+      </c>
+      <c r="C144" s="69"/>
+      <c r="D144" s="69"/>
+      <c r="E144" s="69"/>
+      <c r="F144" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="67"/>
+      <c r="H144" s="67"/>
+      <c r="I144" s="67"/>
+      <c r="J144" s="67"/>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="110">
         <v>25</v>
       </c>
-      <c r="B144" s="26">
+      <c r="B145" s="26">
         <v>41750</v>
-      </c>
-      <c r="C144" s="55"/>
-      <c r="D144" s="55"/>
-      <c r="E144" s="55"/>
-      <c r="F144" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G144" s="29"/>
-      <c r="H144" s="29"/>
-      <c r="I144" s="29"/>
-      <c r="J144" s="29"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="77"/>
-      <c r="B145" s="26">
-        <v>41751</v>
       </c>
       <c r="C145" s="55"/>
       <c r="D145" s="55"/>
@@ -4951,10 +4982,10 @@
       <c r="I145" s="29"/>
       <c r="J145" s="29"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="77"/>
+    <row r="146" spans="1:10">
+      <c r="A146" s="111"/>
       <c r="B146" s="26">
-        <v>41752</v>
+        <v>41751</v>
       </c>
       <c r="C146" s="55"/>
       <c r="D146" s="55"/>
@@ -4968,10 +4999,10 @@
       <c r="I146" s="29"/>
       <c r="J146" s="29"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="77"/>
+    <row r="147" spans="1:10">
+      <c r="A147" s="111"/>
       <c r="B147" s="26">
-        <v>41753</v>
+        <v>41752</v>
       </c>
       <c r="C147" s="55"/>
       <c r="D147" s="55"/>
@@ -4985,10 +5016,10 @@
       <c r="I147" s="29"/>
       <c r="J147" s="29"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="78"/>
+    <row r="148" spans="1:10">
+      <c r="A148" s="111"/>
       <c r="B148" s="26">
-        <v>41754</v>
+        <v>41753</v>
       </c>
       <c r="C148" s="55"/>
       <c r="D148" s="55"/>
@@ -5002,29 +5033,29 @@
       <c r="I148" s="29"/>
       <c r="J148" s="29"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="73">
+    <row r="149" spans="1:10">
+      <c r="A149" s="90"/>
+      <c r="B149" s="26">
+        <v>41754</v>
+      </c>
+      <c r="C149" s="55"/>
+      <c r="D149" s="55"/>
+      <c r="E149" s="55"/>
+      <c r="F149" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G149" s="29"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="29"/>
+      <c r="J149" s="29"/>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="91">
         <v>26</v>
       </c>
-      <c r="B149" s="27">
+      <c r="B150" s="27">
         <v>41757</v>
-      </c>
-      <c r="C149" s="69"/>
-      <c r="D149" s="69"/>
-      <c r="E149" s="69"/>
-      <c r="F149" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G149" s="67"/>
-      <c r="H149" s="67"/>
-      <c r="I149" s="67"/>
-      <c r="J149" s="67"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="74"/>
-      <c r="B150" s="27">
-        <v>41758</v>
       </c>
       <c r="C150" s="69"/>
       <c r="D150" s="69"/>
@@ -5038,10 +5069,10 @@
       <c r="I150" s="67"/>
       <c r="J150" s="67"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="74"/>
+    <row r="151" spans="1:10">
+      <c r="A151" s="92"/>
       <c r="B151" s="27">
-        <v>41759</v>
+        <v>41758</v>
       </c>
       <c r="C151" s="69"/>
       <c r="D151" s="69"/>
@@ -5055,10 +5086,10 @@
       <c r="I151" s="67"/>
       <c r="J151" s="67"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="74"/>
+    <row r="152" spans="1:10">
+      <c r="A152" s="92"/>
       <c r="B152" s="27">
-        <v>41760</v>
+        <v>41759</v>
       </c>
       <c r="C152" s="69"/>
       <c r="D152" s="69"/>
@@ -5072,10 +5103,10 @@
       <c r="I152" s="67"/>
       <c r="J152" s="67"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="75"/>
+    <row r="153" spans="1:10">
+      <c r="A153" s="92"/>
       <c r="B153" s="27">
-        <v>41761</v>
+        <v>41760</v>
       </c>
       <c r="C153" s="69"/>
       <c r="D153" s="69"/>
@@ -5089,29 +5120,29 @@
       <c r="I153" s="67"/>
       <c r="J153" s="67"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="76">
+    <row r="154" spans="1:10">
+      <c r="A154" s="93"/>
+      <c r="B154" s="27">
+        <v>41761</v>
+      </c>
+      <c r="C154" s="69"/>
+      <c r="D154" s="69"/>
+      <c r="E154" s="69"/>
+      <c r="F154" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G154" s="67"/>
+      <c r="H154" s="67"/>
+      <c r="I154" s="67"/>
+      <c r="J154" s="67"/>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="110">
         <v>27</v>
       </c>
-      <c r="B154" s="26">
+      <c r="B155" s="26">
         <v>41764</v>
-      </c>
-      <c r="C154" s="55"/>
-      <c r="D154" s="55"/>
-      <c r="E154" s="55"/>
-      <c r="F154" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G154" s="29"/>
-      <c r="H154" s="29"/>
-      <c r="I154" s="29"/>
-      <c r="J154" s="29"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="77"/>
-      <c r="B155" s="26">
-        <v>41765</v>
       </c>
       <c r="C155" s="55"/>
       <c r="D155" s="55"/>
@@ -5125,10 +5156,10 @@
       <c r="I155" s="29"/>
       <c r="J155" s="29"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="77"/>
+    <row r="156" spans="1:10">
+      <c r="A156" s="111"/>
       <c r="B156" s="26">
-        <v>41766</v>
+        <v>41765</v>
       </c>
       <c r="C156" s="55"/>
       <c r="D156" s="55"/>
@@ -5142,10 +5173,10 @@
       <c r="I156" s="29"/>
       <c r="J156" s="29"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="77"/>
+    <row r="157" spans="1:10">
+      <c r="A157" s="111"/>
       <c r="B157" s="26">
-        <v>41767</v>
+        <v>41766</v>
       </c>
       <c r="C157" s="55"/>
       <c r="D157" s="55"/>
@@ -5159,10 +5190,10 @@
       <c r="I157" s="29"/>
       <c r="J157" s="29"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="78"/>
+    <row r="158" spans="1:10">
+      <c r="A158" s="111"/>
       <c r="B158" s="26">
-        <v>41768</v>
+        <v>41767</v>
       </c>
       <c r="C158" s="55"/>
       <c r="D158" s="55"/>
@@ -5176,29 +5207,29 @@
       <c r="I158" s="29"/>
       <c r="J158" s="29"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="73">
+    <row r="159" spans="1:10">
+      <c r="A159" s="90"/>
+      <c r="B159" s="26">
+        <v>41768</v>
+      </c>
+      <c r="C159" s="55"/>
+      <c r="D159" s="55"/>
+      <c r="E159" s="55"/>
+      <c r="F159" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="29"/>
+      <c r="H159" s="29"/>
+      <c r="I159" s="29"/>
+      <c r="J159" s="29"/>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="91">
         <v>28</v>
       </c>
-      <c r="B159" s="27">
+      <c r="B160" s="27">
         <v>41771</v>
-      </c>
-      <c r="C159" s="69"/>
-      <c r="D159" s="69"/>
-      <c r="E159" s="69"/>
-      <c r="F159" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G159" s="67"/>
-      <c r="H159" s="67"/>
-      <c r="I159" s="67"/>
-      <c r="J159" s="67"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="74"/>
-      <c r="B160" s="27">
-        <v>41772</v>
       </c>
       <c r="C160" s="69"/>
       <c r="D160" s="69"/>
@@ -5212,10 +5243,10 @@
       <c r="I160" s="67"/>
       <c r="J160" s="67"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="74"/>
+    <row r="161" spans="1:10">
+      <c r="A161" s="92"/>
       <c r="B161" s="27">
-        <v>41773</v>
+        <v>41772</v>
       </c>
       <c r="C161" s="69"/>
       <c r="D161" s="69"/>
@@ -5229,16 +5260,16 @@
       <c r="I161" s="67"/>
       <c r="J161" s="67"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="74"/>
+    <row r="162" spans="1:10">
+      <c r="A162" s="92"/>
       <c r="B162" s="27">
-        <v>41774</v>
+        <v>41773</v>
       </c>
       <c r="C162" s="69"/>
       <c r="D162" s="69"/>
       <c r="E162" s="69"/>
       <c r="F162" s="69">
-        <f t="shared" ref="F162:F173" si="4">E162</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G162" s="67"/>
@@ -5246,16 +5277,16 @@
       <c r="I162" s="67"/>
       <c r="J162" s="67"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="75"/>
+    <row r="163" spans="1:10">
+      <c r="A163" s="92"/>
       <c r="B163" s="27">
-        <v>41775</v>
+        <v>41774</v>
       </c>
       <c r="C163" s="69"/>
       <c r="D163" s="69"/>
       <c r="E163" s="69"/>
       <c r="F163" s="69">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F163:F174" si="4">E163</f>
         <v>0</v>
       </c>
       <c r="G163" s="67"/>
@@ -5263,29 +5294,29 @@
       <c r="I163" s="67"/>
       <c r="J163" s="67"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="76">
+    <row r="164" spans="1:10">
+      <c r="A164" s="93"/>
+      <c r="B164" s="27">
+        <v>41775</v>
+      </c>
+      <c r="C164" s="69"/>
+      <c r="D164" s="69"/>
+      <c r="E164" s="69"/>
+      <c r="F164" s="69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G164" s="67"/>
+      <c r="H164" s="67"/>
+      <c r="I164" s="67"/>
+      <c r="J164" s="67"/>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="110">
         <v>29</v>
       </c>
-      <c r="B164" s="26">
+      <c r="B165" s="26">
         <v>41778</v>
-      </c>
-      <c r="C164" s="55"/>
-      <c r="D164" s="55"/>
-      <c r="E164" s="55"/>
-      <c r="F164" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G164" s="29"/>
-      <c r="H164" s="29"/>
-      <c r="I164" s="29"/>
-      <c r="J164" s="29"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="77"/>
-      <c r="B165" s="26">
-        <v>41779</v>
       </c>
       <c r="C165" s="55"/>
       <c r="D165" s="55"/>
@@ -5299,10 +5330,10 @@
       <c r="I165" s="29"/>
       <c r="J165" s="29"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="77"/>
+    <row r="166" spans="1:10">
+      <c r="A166" s="111"/>
       <c r="B166" s="26">
-        <v>41780</v>
+        <v>41779</v>
       </c>
       <c r="C166" s="55"/>
       <c r="D166" s="55"/>
@@ -5316,10 +5347,10 @@
       <c r="I166" s="29"/>
       <c r="J166" s="29"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="77"/>
+    <row r="167" spans="1:10">
+      <c r="A167" s="111"/>
       <c r="B167" s="26">
-        <v>41781</v>
+        <v>41780</v>
       </c>
       <c r="C167" s="55"/>
       <c r="D167" s="55"/>
@@ -5333,10 +5364,10 @@
       <c r="I167" s="29"/>
       <c r="J167" s="29"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="78"/>
+    <row r="168" spans="1:10">
+      <c r="A168" s="111"/>
       <c r="B168" s="26">
-        <v>41782</v>
+        <v>41781</v>
       </c>
       <c r="C168" s="55"/>
       <c r="D168" s="55"/>
@@ -5350,29 +5381,29 @@
       <c r="I168" s="29"/>
       <c r="J168" s="29"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="79">
+    <row r="169" spans="1:10">
+      <c r="A169" s="90"/>
+      <c r="B169" s="26">
+        <v>41782</v>
+      </c>
+      <c r="C169" s="55"/>
+      <c r="D169" s="55"/>
+      <c r="E169" s="55"/>
+      <c r="F169" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G169" s="29"/>
+      <c r="H169" s="29"/>
+      <c r="I169" s="29"/>
+      <c r="J169" s="29"/>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="136">
         <v>30</v>
       </c>
-      <c r="B169" s="27">
+      <c r="B170" s="27">
         <v>41785</v>
-      </c>
-      <c r="C169" s="70"/>
-      <c r="D169" s="70"/>
-      <c r="E169" s="70"/>
-      <c r="F169" s="70">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G169" s="37"/>
-      <c r="H169" s="37"/>
-      <c r="I169" s="37"/>
-      <c r="J169" s="37"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="80"/>
-      <c r="B170" s="27">
-        <v>41786</v>
       </c>
       <c r="C170" s="70"/>
       <c r="D170" s="70"/>
@@ -5386,10 +5417,10 @@
       <c r="I170" s="37"/>
       <c r="J170" s="37"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="80"/>
+    <row r="171" spans="1:10">
+      <c r="A171" s="137"/>
       <c r="B171" s="27">
-        <v>41787</v>
+        <v>41786</v>
       </c>
       <c r="C171" s="70"/>
       <c r="D171" s="70"/>
@@ -5403,10 +5434,10 @@
       <c r="I171" s="37"/>
       <c r="J171" s="37"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="80"/>
+    <row r="172" spans="1:10">
+      <c r="A172" s="137"/>
       <c r="B172" s="27">
-        <v>41788</v>
+        <v>41787</v>
       </c>
       <c r="C172" s="70"/>
       <c r="D172" s="70"/>
@@ -5420,10 +5451,10 @@
       <c r="I172" s="37"/>
       <c r="J172" s="37"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="81"/>
+    <row r="173" spans="1:10">
+      <c r="A173" s="137"/>
       <c r="B173" s="27">
-        <v>41789</v>
+        <v>41788</v>
       </c>
       <c r="C173" s="70"/>
       <c r="D173" s="70"/>
@@ -5437,19 +5468,24 @@
       <c r="I173" s="37"/>
       <c r="J173" s="37"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="68"/>
-      <c r="B174" s="68"/>
-      <c r="C174" s="68"/>
-      <c r="D174" s="68"/>
-      <c r="E174" s="68"/>
-      <c r="F174" s="68"/>
-      <c r="G174" s="68"/>
-      <c r="H174" s="68"/>
-      <c r="I174" s="68"/>
-      <c r="J174" s="68"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10">
+      <c r="A174" s="138"/>
+      <c r="B174" s="27">
+        <v>41789</v>
+      </c>
+      <c r="C174" s="70"/>
+      <c r="D174" s="70"/>
+      <c r="E174" s="70"/>
+      <c r="F174" s="70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G174" s="37"/>
+      <c r="H174" s="37"/>
+      <c r="I174" s="37"/>
+      <c r="J174" s="37"/>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="68"/>
       <c r="B175" s="68"/>
       <c r="C175" s="68"/>
@@ -5461,7 +5497,7 @@
       <c r="I175" s="68"/>
       <c r="J175" s="68"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10">
       <c r="A176" s="68"/>
       <c r="B176" s="68"/>
       <c r="C176" s="68"/>
@@ -5473,7 +5509,7 @@
       <c r="I176" s="68"/>
       <c r="J176" s="68"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10">
       <c r="A177" s="68"/>
       <c r="B177" s="68"/>
       <c r="C177" s="68"/>
@@ -5485,7 +5521,7 @@
       <c r="I177" s="68"/>
       <c r="J177" s="68"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10">
       <c r="A178" s="68"/>
       <c r="B178" s="68"/>
       <c r="C178" s="68"/>
@@ -5497,7 +5533,7 @@
       <c r="I178" s="68"/>
       <c r="J178" s="68"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10">
       <c r="A179" s="68"/>
       <c r="B179" s="68"/>
       <c r="C179" s="68"/>
@@ -5509,7 +5545,7 @@
       <c r="I179" s="68"/>
       <c r="J179" s="68"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10">
       <c r="A180" s="68"/>
       <c r="B180" s="68"/>
       <c r="C180" s="68"/>
@@ -5521,7 +5557,7 @@
       <c r="I180" s="68"/>
       <c r="J180" s="68"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10">
       <c r="A181" s="68"/>
       <c r="B181" s="68"/>
       <c r="C181" s="68"/>
@@ -5533,7 +5569,7 @@
       <c r="I181" s="68"/>
       <c r="J181" s="68"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10">
       <c r="A182" s="68"/>
       <c r="B182" s="68"/>
       <c r="C182" s="68"/>
@@ -5545,33 +5581,43 @@
       <c r="I182" s="68"/>
       <c r="J182" s="68"/>
     </row>
+    <row r="183" spans="1:10">
+      <c r="A183" s="68"/>
+      <c r="B183" s="68"/>
+      <c r="C183" s="68"/>
+      <c r="D183" s="68"/>
+      <c r="E183" s="68"/>
+      <c r="F183" s="68"/>
+      <c r="G183" s="68"/>
+      <c r="H183" s="68"/>
+      <c r="I183" s="68"/>
+      <c r="J183" s="68"/>
+    </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A170:A174"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A75:A79"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="F12:F13"/>
@@ -5584,24 +5630,26 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="A19:A32"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="A169:A173"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F31:F32"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
@@ -5871,29 +5919,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M43</xm:sqref>
+          <xm:sqref>M43:M44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="29" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5912,7 +5941,7 @@
           <xm:sqref>M45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="28" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5931,7 +5960,7 @@
           <xm:sqref>M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="27" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5950,7 +5979,7 @@
           <xm:sqref>M47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="26" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5969,7 +5998,7 @@
           <xm:sqref>M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="25" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5988,7 +6017,7 @@
           <xm:sqref>M49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="24" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6007,7 +6036,7 @@
           <xm:sqref>M50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="23" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6026,7 +6055,7 @@
           <xm:sqref>M51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="22" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6045,7 +6074,7 @@
           <xm:sqref>M52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="21" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6064,7 +6093,7 @@
           <xm:sqref>M53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="20" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6083,7 +6112,7 @@
           <xm:sqref>M54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="19" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6102,7 +6131,7 @@
           <xm:sqref>M55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="18" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6119,6 +6148,25 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="17" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="16" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -6194,7 +6242,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F14 F7:F8 F12 F18:F19 F21 F23:F24 F29 F33:F34 F38 F43:F173</xm:sqref>
+          <xm:sqref>F14 F7:F8 F12 F18:F19 F21 F23:F24 F29 F33:F34 F38 F43:F174</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{35213755-788E-43C8-B75E-72DA17285D4A}">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="153">
   <si>
     <t>Week</t>
   </si>
@@ -505,6 +505,12 @@
   </si>
   <si>
     <t>Done file devide for members 29/11</t>
+  </si>
+  <si>
+    <t>7:00PM</t>
+  </si>
+  <si>
+    <t>Define entities and functional, quality attribute for "Hoi dap" module</t>
   </si>
 </sst>
 </file>
@@ -1022,6 +1028,156 @@
     <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1069,156 +1225,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1530,7 +1536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1653,13 +1659,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O183"/>
+  <dimension ref="A1:O184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1680,81 +1686,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="75"/>
+      <c r="A1" s="123"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="76" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="78"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="81"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="84"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="134"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="109"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119"/>
       <c r="F5" s="15"/>
       <c r="H5" s="41" t="s">
         <v>64</v>
@@ -1799,13 +1805,13 @@
       <c r="J6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
     </row>
     <row r="7" spans="1:15" ht="38.25">
-      <c r="A7" s="85">
+      <c r="A7" s="135">
         <v>1</v>
       </c>
       <c r="B7" s="16">
@@ -1831,21 +1837,21 @@
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="115" t="s">
+      <c r="K7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="115"/>
+      <c r="L7" s="82"/>
       <c r="M7" s="32">
-        <f>SUM(M8:M57)</f>
-        <v>64.649999999999991</v>
+        <f>SUM(M8:M58)</f>
+        <v>66.649999999999991</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="103">
+      <c r="A8" s="136"/>
+      <c r="B8" s="113">
         <v>41586</v>
       </c>
       <c r="C8" s="17">
@@ -1857,7 +1863,7 @@
       <c r="E8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="105">
+      <c r="F8" s="115">
         <v>1.67</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -1881,8 +1887,8 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="87"/>
-      <c r="B9" s="104"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1892,7 +1898,7 @@
       <c r="E9" s="18">
         <v>0.5</v>
       </c>
-      <c r="F9" s="106"/>
+      <c r="F9" s="116"/>
       <c r="G9" s="29" t="s">
         <v>23</v>
       </c>
@@ -1903,10 +1909,10 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:15" s="63" customFormat="1">
-      <c r="A10" s="124">
+      <c r="A10" s="91">
         <v>2</v>
       </c>
-      <c r="B10" s="127">
+      <c r="B10" s="94">
         <v>41589</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -1918,7 +1924,7 @@
       <c r="E10" s="59">
         <v>2.5</v>
       </c>
-      <c r="F10" s="129">
+      <c r="F10" s="96">
         <f>SUM(E10:E11)</f>
         <v>5</v>
       </c>
@@ -1932,8 +1938,8 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="125"/>
-      <c r="B11" s="128"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="58" t="s">
         <v>76</v>
       </c>
@@ -1943,7 +1949,7 @@
       <c r="E11" s="59">
         <v>2.5</v>
       </c>
-      <c r="F11" s="130"/>
+      <c r="F11" s="97"/>
       <c r="G11" s="60" t="s">
         <v>22</v>
       </c>
@@ -1956,8 +1962,8 @@
       <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:15" ht="63.75">
-      <c r="A12" s="125"/>
-      <c r="B12" s="116">
+      <c r="A12" s="92"/>
+      <c r="B12" s="83">
         <v>41590</v>
       </c>
       <c r="C12" s="22">
@@ -1969,7 +1975,7 @@
       <c r="E12" s="23">
         <v>2.25</v>
       </c>
-      <c r="F12" s="118">
+      <c r="F12" s="85">
         <v>3.75</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -1996,8 +2002,8 @@
       <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A13" s="125"/>
-      <c r="B13" s="117"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="22">
         <v>0.91666666666666663</v>
       </c>
@@ -2007,7 +2013,7 @@
       <c r="E13" s="23">
         <v>1.5</v>
       </c>
-      <c r="F13" s="119"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="45" t="s">
         <v>28</v>
       </c>
@@ -2023,8 +2029,8 @@
       <c r="O13" s="34"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A14" s="125"/>
-      <c r="B14" s="116">
+      <c r="A14" s="92"/>
+      <c r="B14" s="83">
         <v>41591</v>
       </c>
       <c r="C14" s="22">
@@ -2036,7 +2042,7 @@
       <c r="E14" s="23">
         <v>2</v>
       </c>
-      <c r="F14" s="121">
+      <c r="F14" s="88">
         <v>4.5</v>
       </c>
       <c r="G14" s="45" t="s">
@@ -2054,8 +2060,8 @@
       <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:15" ht="25.5">
-      <c r="A15" s="125"/>
-      <c r="B15" s="120"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="25">
         <v>0.5625</v>
       </c>
@@ -2065,7 +2071,7 @@
       <c r="E15" s="28">
         <v>2</v>
       </c>
-      <c r="F15" s="122"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="30" t="s">
         <v>19</v>
       </c>
@@ -2082,8 +2088,8 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="125"/>
-      <c r="B16" s="117"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="25">
         <v>0.83333333333333337</v>
       </c>
@@ -2093,7 +2099,7 @@
       <c r="E16" s="28">
         <v>0.5</v>
       </c>
-      <c r="F16" s="123"/>
+      <c r="F16" s="90"/>
       <c r="G16" s="45" t="s">
         <v>28</v>
       </c>
@@ -2117,7 +2123,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A17" s="125"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="47">
         <v>41592</v>
       </c>
@@ -2149,14 +2155,14 @@
       <c r="L17" s="5"/>
       <c r="M17" s="9">
         <f>SUM(F33:F44)</f>
-        <v>22.91</v>
+        <v>24.91</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5">
-      <c r="A18" s="126"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="42">
         <v>41593</v>
       </c>
@@ -2187,7 +2193,7 @@
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="9">
-        <f>SUM(E45:E49)</f>
+        <f>SUM(E46:E50)</f>
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
@@ -2195,10 +2201,10 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="133">
+      <c r="A19" s="101">
         <v>3</v>
       </c>
-      <c r="B19" s="131">
+      <c r="B19" s="98">
         <v>41596</v>
       </c>
       <c r="C19" s="53" t="s">
@@ -2210,7 +2216,7 @@
       <c r="E19" s="50">
         <v>0.5</v>
       </c>
-      <c r="F19" s="89">
+      <c r="F19" s="100">
         <f>SUM(E19:E20)</f>
         <v>3.5</v>
       </c>
@@ -2229,7 +2235,7 @@
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="9">
-        <f>SUM(E60:E64)</f>
+        <f>SUM(E61:E65)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -2237,8 +2243,8 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="134"/>
-      <c r="B20" s="132"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="53" t="s">
         <v>81</v>
       </c>
@@ -2248,7 +2254,7 @@
       <c r="E20" s="50">
         <v>3</v>
       </c>
-      <c r="F20" s="90"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="49" t="s">
         <v>22</v>
       </c>
@@ -2265,8 +2271,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="134"/>
-      <c r="B21" s="131">
+      <c r="A21" s="102"/>
+      <c r="B21" s="98">
         <v>41597</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -2278,7 +2284,7 @@
       <c r="E21" s="50">
         <v>2</v>
       </c>
-      <c r="F21" s="89">
+      <c r="F21" s="100">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2298,8 +2304,8 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="134"/>
-      <c r="B22" s="132"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="53" t="s">
         <v>84</v>
       </c>
@@ -2309,7 +2315,7 @@
       <c r="E22" s="50">
         <v>0.5</v>
       </c>
-      <c r="F22" s="90"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="49" t="s">
         <v>22</v>
       </c>
@@ -2325,7 +2331,7 @@
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="9">
-        <f>SUM(E65:E69)</f>
+        <f>SUM(E66:E70)</f>
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -2333,7 +2339,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="39">
-      <c r="A23" s="134"/>
+      <c r="A23" s="102"/>
       <c r="B23" s="26">
         <v>41598</v>
       </c>
@@ -2347,7 +2353,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="55">
-        <f t="shared" ref="F23:F66" si="0">E23</f>
+        <f t="shared" ref="F23:F67" si="0">E23</f>
         <v>4</v>
       </c>
       <c r="G23" s="57" t="s">
@@ -2365,7 +2371,7 @@
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="9">
-        <f>SUM(E70:E74)</f>
+        <f>SUM(E71:E75)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2373,7 +2379,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="26.25">
-      <c r="A24" s="134"/>
+      <c r="A24" s="102"/>
       <c r="B24" s="26">
         <v>41599</v>
       </c>
@@ -2386,7 +2392,7 @@
       <c r="E24" s="50">
         <v>1</v>
       </c>
-      <c r="F24" s="89">
+      <c r="F24" s="100">
         <f>SUM(E24:E28)</f>
         <v>6.9</v>
       </c>
@@ -2404,7 +2410,7 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="134"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="26">
         <v>41599</v>
       </c>
@@ -2417,7 +2423,7 @@
       <c r="E25" s="50">
         <v>1.3</v>
       </c>
-      <c r="F25" s="112"/>
+      <c r="F25" s="120"/>
       <c r="G25" s="57" t="s">
         <v>19</v>
       </c>
@@ -2432,7 +2438,7 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="134"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="26">
         <v>41599</v>
       </c>
@@ -2445,7 +2451,7 @@
       <c r="E26" s="50">
         <v>1.5</v>
       </c>
-      <c r="F26" s="112"/>
+      <c r="F26" s="120"/>
       <c r="G26" s="57" t="s">
         <v>22</v>
       </c>
@@ -2462,7 +2468,7 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="134"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="26">
         <v>41599</v>
       </c>
@@ -2475,7 +2481,7 @@
       <c r="E27" s="50">
         <v>2.1</v>
       </c>
-      <c r="F27" s="112"/>
+      <c r="F27" s="120"/>
       <c r="G27" s="29" t="s">
         <v>19</v>
       </c>
@@ -2489,7 +2495,7 @@
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="9">
-        <f>SUM(E75:E79)</f>
+        <f>SUM(E76:E80)</f>
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -2497,7 +2503,7 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="134"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="26">
         <v>41599</v>
       </c>
@@ -2510,7 +2516,7 @@
       <c r="E28" s="50">
         <v>1</v>
       </c>
-      <c r="F28" s="113"/>
+      <c r="F28" s="121"/>
       <c r="G28" s="29" t="s">
         <v>22</v>
       </c>
@@ -2525,7 +2531,7 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="134"/>
+      <c r="A29" s="102"/>
       <c r="B29" s="26">
         <v>41600</v>
       </c>
@@ -2538,7 +2544,7 @@
       <c r="E29" s="50">
         <v>1.2</v>
       </c>
-      <c r="F29" s="89">
+      <c r="F29" s="100">
         <f>SUM(E29:E30)</f>
         <v>3.2</v>
       </c>
@@ -2554,7 +2560,7 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="51">
-      <c r="A30" s="134"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="26">
         <v>41600</v>
       </c>
@@ -2567,7 +2573,7 @@
       <c r="E30" s="50">
         <v>2</v>
       </c>
-      <c r="F30" s="90"/>
+      <c r="F30" s="78"/>
       <c r="G30" s="57" t="s">
         <v>22</v>
       </c>
@@ -2581,7 +2587,7 @@
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="9">
-        <f>SUM(E80:E84)</f>
+        <f>SUM(E81:E85)</f>
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -2589,7 +2595,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="25.5">
-      <c r="A31" s="134"/>
+      <c r="A31" s="102"/>
       <c r="B31" s="26">
         <v>41601</v>
       </c>
@@ -2602,7 +2608,7 @@
       <c r="E31" s="50">
         <v>3.5</v>
       </c>
-      <c r="F31" s="89">
+      <c r="F31" s="100">
         <f>SUM(E31:E32)</f>
         <v>4.4000000000000004</v>
       </c>
@@ -2622,7 +2628,7 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="135"/>
+      <c r="A32" s="103"/>
       <c r="B32" s="26">
         <v>41601</v>
       </c>
@@ -2635,7 +2641,7 @@
       <c r="E32" s="50">
         <v>0.9</v>
       </c>
-      <c r="F32" s="90"/>
+      <c r="F32" s="78"/>
       <c r="G32" s="57" t="s">
         <v>22</v>
       </c>
@@ -2652,7 +2658,7 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" ht="38.25">
-      <c r="A33" s="91">
+      <c r="A33" s="73">
         <v>4</v>
       </c>
       <c r="B33" s="27">
@@ -2686,7 +2692,7 @@
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="9">
-        <f>SUM(E85:E89)</f>
+        <f>SUM(E86:E90)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -2694,7 +2700,7 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="92"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="27">
         <v>41604</v>
       </c>
@@ -2707,7 +2713,7 @@
       <c r="E34" s="28">
         <v>1</v>
       </c>
-      <c r="F34" s="114">
+      <c r="F34" s="122">
         <f>SUM(E34:E37)</f>
         <v>5.75</v>
       </c>
@@ -2725,7 +2731,7 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="92"/>
+      <c r="A35" s="74"/>
       <c r="B35" s="27">
         <v>41604</v>
       </c>
@@ -2738,7 +2744,7 @@
       <c r="E35" s="28">
         <v>1.5</v>
       </c>
-      <c r="F35" s="92"/>
+      <c r="F35" s="74"/>
       <c r="G35" s="67" t="s">
         <v>23</v>
       </c>
@@ -2755,7 +2761,7 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="92"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="27">
         <v>41604</v>
       </c>
@@ -2768,7 +2774,7 @@
       <c r="E36" s="28">
         <v>1.25</v>
       </c>
-      <c r="F36" s="92"/>
+      <c r="F36" s="74"/>
       <c r="G36" s="67" t="s">
         <v>19</v>
       </c>
@@ -2785,7 +2791,7 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="51">
-      <c r="A37" s="92"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="27">
         <v>41604</v>
       </c>
@@ -2798,7 +2804,7 @@
       <c r="E37" s="69">
         <v>2</v>
       </c>
-      <c r="F37" s="93"/>
+      <c r="F37" s="75"/>
       <c r="G37" s="67" t="s">
         <v>22</v>
       </c>
@@ -2816,7 +2822,7 @@
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="9">
-        <f>SUM(E90:E94)</f>
+        <f>SUM(E91:E95)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2824,7 +2830,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="92"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="27">
         <v>41605</v>
       </c>
@@ -2837,7 +2843,7 @@
       <c r="E38" s="69">
         <v>2.33</v>
       </c>
-      <c r="F38" s="91">
+      <c r="F38" s="73">
         <f>SUM(E38:E39)</f>
         <v>2.83</v>
       </c>
@@ -2854,7 +2860,7 @@
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="9">
-        <f>SUM(E95:E99)</f>
+        <f>SUM(E96:E100)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2862,7 +2868,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="25.5">
-      <c r="A39" s="92"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="27">
         <v>41605</v>
       </c>
@@ -2875,7 +2881,7 @@
       <c r="E39" s="69">
         <v>0.5</v>
       </c>
-      <c r="F39" s="93"/>
+      <c r="F39" s="75"/>
       <c r="G39" s="67" t="s">
         <v>22</v>
       </c>
@@ -2892,7 +2898,7 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="92"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="27">
         <v>41606</v>
       </c>
@@ -2905,7 +2911,7 @@
       <c r="E40" s="69">
         <v>1.33</v>
       </c>
-      <c r="F40" s="91">
+      <c r="F40" s="73">
         <f>SUM(E40:E42)</f>
         <v>5.83</v>
       </c>
@@ -2923,7 +2929,7 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="92"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="27">
         <v>41606</v>
       </c>
@@ -2936,7 +2942,7 @@
       <c r="E41" s="69">
         <v>1.75</v>
       </c>
-      <c r="F41" s="92"/>
+      <c r="F41" s="74"/>
       <c r="G41" s="67" t="s">
         <v>25</v>
       </c>
@@ -2951,7 +2957,7 @@
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" ht="25.5">
-      <c r="A42" s="92"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="27">
         <v>41606</v>
       </c>
@@ -2964,7 +2970,7 @@
       <c r="E42" s="69">
         <v>2.75</v>
       </c>
-      <c r="F42" s="93"/>
+      <c r="F42" s="75"/>
       <c r="G42" s="67" t="s">
         <v>19</v>
       </c>
@@ -2980,7 +2986,7 @@
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="9">
-        <f>SUM(E100:E104)</f>
+        <f>SUM(E101:E105)</f>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -2988,7 +2994,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="51">
-      <c r="A43" s="92"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="27">
         <v>41607</v>
       </c>
@@ -3020,7 +3026,7 @@
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="9">
-        <f>SUM(E105:E109)</f>
+        <f>SUM(E106:E110)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
@@ -3028,7 +3034,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="38.25">
-      <c r="A44" s="93"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="27">
         <v>41609</v>
       </c>
@@ -3041,9 +3047,9 @@
       <c r="E44" s="69">
         <v>2</v>
       </c>
-      <c r="F44" s="69">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="F44" s="73">
+        <f>SUM(E44:E45)</f>
+        <v>4</v>
       </c>
       <c r="G44" s="67" t="s">
         <v>22</v>
@@ -3060,40 +3066,40 @@
       <c r="M44" s="9"/>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="110">
+    <row r="45" spans="1:14" ht="25.5">
+      <c r="A45" s="75"/>
+      <c r="B45" s="27">
+        <v>41609</v>
+      </c>
+      <c r="C45" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="69">
+        <v>2</v>
+      </c>
+      <c r="F45" s="75"/>
+      <c r="G45" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="I45" s="71"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="76">
         <v>5</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B46" s="26">
         <v>41610</v>
-      </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L45" s="5"/>
-      <c r="M45" s="9">
-        <f>SUM(E110:E114)</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="111"/>
-      <c r="B46" s="26">
-        <v>41611</v>
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
@@ -3107,11 +3113,11 @@
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
       <c r="K46" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="9">
-        <f>SUM(E115:E119)</f>
+        <f>SUM(E111:E115)</f>
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
@@ -3119,9 +3125,9 @@
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="111"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="26">
-        <v>41612</v>
+        <v>41611</v>
       </c>
       <c r="C47" s="55"/>
       <c r="D47" s="55"/>
@@ -3135,11 +3141,11 @@
       <c r="I47" s="29"/>
       <c r="J47" s="29"/>
       <c r="K47" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="9">
-        <f>SUM(E120:E124)</f>
+        <f>SUM(E116:E120)</f>
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
@@ -3147,9 +3153,9 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="111"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="26">
-        <v>41613</v>
+        <v>41612</v>
       </c>
       <c r="C48" s="55"/>
       <c r="D48" s="55"/>
@@ -3163,11 +3169,11 @@
       <c r="I48" s="29"/>
       <c r="J48" s="29"/>
       <c r="K48" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="9">
-        <f>SUM(E125:E129)</f>
+        <f>SUM(E121:E125)</f>
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
@@ -3175,9 +3181,9 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="90"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="26">
-        <v>41614</v>
+        <v>41613</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="55"/>
@@ -3191,11 +3197,11 @@
       <c r="I49" s="29"/>
       <c r="J49" s="29"/>
       <c r="K49" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="9">
-        <f>SUM(E130:E134)</f>
+        <f>SUM(E126:E130)</f>
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
@@ -3203,29 +3209,27 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="91">
-        <v>6</v>
-      </c>
-      <c r="B50" s="27">
-        <v>41617</v>
-      </c>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69">
+      <c r="A50" s="78"/>
+      <c r="B50" s="26">
+        <v>41614</v>
+      </c>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
       <c r="K50" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="9">
-        <f>SUM(E135:E139)</f>
+        <f>SUM(E131:E135)</f>
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
@@ -3233,9 +3237,11 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="92"/>
+      <c r="A51" s="73">
+        <v>6</v>
+      </c>
       <c r="B51" s="27">
-        <v>41618</v>
+        <v>41617</v>
       </c>
       <c r="C51" s="69"/>
       <c r="D51" s="69"/>
@@ -3249,11 +3255,11 @@
       <c r="I51" s="67"/>
       <c r="J51" s="67"/>
       <c r="K51" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="9">
-        <f>SUM(E140:E144)</f>
+        <f>SUM(E136:E140)</f>
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
@@ -3261,9 +3267,9 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="92"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="27">
-        <v>41619</v>
+        <v>41618</v>
       </c>
       <c r="C52" s="69"/>
       <c r="D52" s="69"/>
@@ -3277,11 +3283,11 @@
       <c r="I52" s="67"/>
       <c r="J52" s="67"/>
       <c r="K52" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="9">
-        <f>SUM(E145:E149)</f>
+        <f>SUM(E141:E145)</f>
         <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
@@ -3289,9 +3295,9 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="92"/>
+      <c r="A53" s="74"/>
       <c r="B53" s="27">
-        <v>41620</v>
+        <v>41619</v>
       </c>
       <c r="C53" s="69"/>
       <c r="D53" s="69"/>
@@ -3305,11 +3311,11 @@
       <c r="I53" s="67"/>
       <c r="J53" s="67"/>
       <c r="K53" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="9">
-        <f>SUM(E150:E154)</f>
+        <f>SUM(E146:E150)</f>
         <v>0</v>
       </c>
       <c r="N53" s="3" t="s">
@@ -3317,9 +3323,9 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="93"/>
+      <c r="A54" s="74"/>
       <c r="B54" s="27">
-        <v>41621</v>
+        <v>41620</v>
       </c>
       <c r="C54" s="69"/>
       <c r="D54" s="69"/>
@@ -3333,11 +3339,11 @@
       <c r="I54" s="67"/>
       <c r="J54" s="67"/>
       <c r="K54" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="9">
-        <f>SUM(E155:E159)</f>
+        <f>SUM(E151:E155)</f>
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
@@ -3345,29 +3351,27 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="110">
-        <v>7</v>
-      </c>
-      <c r="B55" s="26">
-        <v>41624</v>
-      </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55">
+      <c r="A55" s="75"/>
+      <c r="B55" s="27">
+        <v>41621</v>
+      </c>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
       <c r="K55" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="9">
-        <f>SUM(E160:E164)</f>
+        <f>SUM(E156:E160)</f>
         <v>0</v>
       </c>
       <c r="N55" s="3" t="s">
@@ -3375,9 +3379,11 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="111"/>
+      <c r="A56" s="76">
+        <v>7</v>
+      </c>
       <c r="B56" s="26">
-        <v>41625</v>
+        <v>41624</v>
       </c>
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
@@ -3391,11 +3397,11 @@
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
       <c r="K56" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="9">
-        <f>SUM(E165:E169)</f>
+        <f>SUM(E161:E165)</f>
         <v>0</v>
       </c>
       <c r="N56" s="3" t="s">
@@ -3403,9 +3409,9 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="111"/>
+      <c r="A57" s="77"/>
       <c r="B57" s="26">
-        <v>41626</v>
+        <v>41625</v>
       </c>
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
@@ -3419,11 +3425,11 @@
       <c r="I57" s="29"/>
       <c r="J57" s="29"/>
       <c r="K57" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L57" s="5"/>
       <c r="M57" s="9">
-        <f>SUM(E170:E174)</f>
+        <f>SUM(E166:E170)</f>
         <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
@@ -3431,9 +3437,9 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="111"/>
+      <c r="A58" s="77"/>
       <c r="B58" s="26">
-        <v>41627</v>
+        <v>41626</v>
       </c>
       <c r="C58" s="55"/>
       <c r="D58" s="55"/>
@@ -3446,11 +3452,22 @@
       <c r="H58" s="29"/>
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
+      <c r="K58" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L58" s="5"/>
+      <c r="M58" s="9">
+        <f>SUM(E171:E175)</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="90"/>
+      <c r="A59" s="77"/>
       <c r="B59" s="26">
-        <v>41628</v>
+        <v>41627</v>
       </c>
       <c r="C59" s="55"/>
       <c r="D59" s="55"/>
@@ -3465,28 +3482,28 @@
       <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="91">
+      <c r="A60" s="78"/>
+      <c r="B60" s="26">
+        <v>41628</v>
+      </c>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="73">
         <v>8</v>
       </c>
-      <c r="B60" s="27">
+      <c r="B61" s="27">
         <v>41631</v>
-      </c>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="92"/>
-      <c r="B61" s="27">
-        <v>41632</v>
       </c>
       <c r="C61" s="69"/>
       <c r="D61" s="69"/>
@@ -3500,10 +3517,10 @@
       <c r="I61" s="67"/>
       <c r="J61" s="67"/>
     </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="92"/>
+    <row r="62" spans="1:14" ht="409.6">
+      <c r="A62" s="74"/>
       <c r="B62" s="27">
-        <v>41633</v>
+        <v>41632</v>
       </c>
       <c r="C62" s="69"/>
       <c r="D62" s="69"/>
@@ -3518,9 +3535,9 @@
       <c r="J62" s="67"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="92"/>
+      <c r="A63" s="74"/>
       <c r="B63" s="27">
-        <v>41634</v>
+        <v>41633</v>
       </c>
       <c r="C63" s="69"/>
       <c r="D63" s="69"/>
@@ -3535,9 +3552,9 @@
       <c r="J63" s="67"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="93"/>
+      <c r="A64" s="74"/>
       <c r="B64" s="27">
-        <v>41635</v>
+        <v>41634</v>
       </c>
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
@@ -3552,28 +3569,28 @@
       <c r="J64" s="67"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="110">
+      <c r="A65" s="75"/>
+      <c r="B65" s="27">
+        <v>41635</v>
+      </c>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="67"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="76">
         <v>9</v>
       </c>
-      <c r="B65" s="26">
+      <c r="B66" s="26">
         <v>41638</v>
-      </c>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="111"/>
-      <c r="B66" s="26">
-        <v>41639</v>
       </c>
       <c r="C66" s="55"/>
       <c r="D66" s="55"/>
@@ -3588,15 +3605,15 @@
       <c r="J66" s="29"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="111"/>
+      <c r="A67" s="77"/>
       <c r="B67" s="26">
-        <v>41640</v>
+        <v>41639</v>
       </c>
       <c r="C67" s="55"/>
       <c r="D67" s="55"/>
       <c r="E67" s="55"/>
       <c r="F67" s="55">
-        <f t="shared" ref="F67:F98" si="1">E67</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G67" s="29"/>
@@ -3605,15 +3622,15 @@
       <c r="J67" s="29"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="111"/>
+      <c r="A68" s="77"/>
       <c r="B68" s="26">
-        <v>41641</v>
+        <v>41640</v>
       </c>
       <c r="C68" s="55"/>
       <c r="D68" s="55"/>
       <c r="E68" s="55"/>
       <c r="F68" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F68:F99" si="1">E68</f>
         <v>0</v>
       </c>
       <c r="G68" s="29"/>
@@ -3622,9 +3639,9 @@
       <c r="J68" s="29"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="90"/>
+      <c r="A69" s="77"/>
       <c r="B69" s="26">
-        <v>41642</v>
+        <v>41641</v>
       </c>
       <c r="C69" s="55"/>
       <c r="D69" s="55"/>
@@ -3639,28 +3656,28 @@
       <c r="J69" s="29"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="91">
+      <c r="A70" s="78"/>
+      <c r="B70" s="26">
+        <v>41642</v>
+      </c>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="73">
         <v>10</v>
       </c>
-      <c r="B70" s="27">
+      <c r="B71" s="27">
         <v>41645</v>
-      </c>
-      <c r="C70" s="69"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="92"/>
-      <c r="B71" s="27">
-        <v>41646</v>
       </c>
       <c r="C71" s="69"/>
       <c r="D71" s="69"/>
@@ -3675,9 +3692,9 @@
       <c r="J71" s="67"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="92"/>
+      <c r="A72" s="74"/>
       <c r="B72" s="27">
-        <v>41647</v>
+        <v>41646</v>
       </c>
       <c r="C72" s="69"/>
       <c r="D72" s="69"/>
@@ -3692,9 +3709,9 @@
       <c r="J72" s="67"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="92"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="27">
-        <v>41648</v>
+        <v>41647</v>
       </c>
       <c r="C73" s="69"/>
       <c r="D73" s="69"/>
@@ -3709,9 +3726,9 @@
       <c r="J73" s="67"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="93"/>
+      <c r="A74" s="74"/>
       <c r="B74" s="27">
-        <v>41649</v>
+        <v>41648</v>
       </c>
       <c r="C74" s="69"/>
       <c r="D74" s="69"/>
@@ -3726,28 +3743,28 @@
       <c r="J74" s="67"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="110">
+      <c r="A75" s="75"/>
+      <c r="B75" s="27">
+        <v>41649</v>
+      </c>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="76">
         <v>11</v>
       </c>
-      <c r="B75" s="26">
+      <c r="B76" s="26">
         <v>41652</v>
-      </c>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="111"/>
-      <c r="B76" s="26">
-        <v>41653</v>
       </c>
       <c r="C76" s="55"/>
       <c r="D76" s="55"/>
@@ -3762,9 +3779,9 @@
       <c r="J76" s="29"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="111"/>
+      <c r="A77" s="77"/>
       <c r="B77" s="26">
-        <v>41654</v>
+        <v>41653</v>
       </c>
       <c r="C77" s="55"/>
       <c r="D77" s="55"/>
@@ -3779,9 +3796,9 @@
       <c r="J77" s="29"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="111"/>
+      <c r="A78" s="77"/>
       <c r="B78" s="26">
-        <v>41655</v>
+        <v>41654</v>
       </c>
       <c r="C78" s="55"/>
       <c r="D78" s="55"/>
@@ -3796,9 +3813,9 @@
       <c r="J78" s="29"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="90"/>
+      <c r="A79" s="77"/>
       <c r="B79" s="26">
-        <v>41656</v>
+        <v>41655</v>
       </c>
       <c r="C79" s="55"/>
       <c r="D79" s="55"/>
@@ -3813,28 +3830,28 @@
       <c r="J79" s="29"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="91">
+      <c r="A80" s="78"/>
+      <c r="B80" s="26">
+        <v>41656</v>
+      </c>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="73">
         <v>12</v>
       </c>
-      <c r="B80" s="27">
+      <c r="B81" s="27">
         <v>41659</v>
-      </c>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="67"/>
-      <c r="J80" s="67"/>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="92"/>
-      <c r="B81" s="27">
-        <v>41660</v>
       </c>
       <c r="C81" s="69"/>
       <c r="D81" s="69"/>
@@ -3849,9 +3866,9 @@
       <c r="J81" s="67"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="92"/>
+      <c r="A82" s="74"/>
       <c r="B82" s="27">
-        <v>41661</v>
+        <v>41660</v>
       </c>
       <c r="C82" s="69"/>
       <c r="D82" s="69"/>
@@ -3866,9 +3883,9 @@
       <c r="J82" s="67"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="92"/>
+      <c r="A83" s="74"/>
       <c r="B83" s="27">
-        <v>41662</v>
+        <v>41661</v>
       </c>
       <c r="C83" s="69"/>
       <c r="D83" s="69"/>
@@ -3883,9 +3900,9 @@
       <c r="J83" s="67"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="93"/>
+      <c r="A84" s="74"/>
       <c r="B84" s="27">
-        <v>41663</v>
+        <v>41662</v>
       </c>
       <c r="C84" s="69"/>
       <c r="D84" s="69"/>
@@ -3900,30 +3917,28 @@
       <c r="J84" s="67"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="110">
+      <c r="A85" s="75"/>
+      <c r="B85" s="27">
+        <v>41663</v>
+      </c>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="67"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="67"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="76">
         <v>13</v>
       </c>
-      <c r="B85" s="26">
+      <c r="B86" s="26">
         <v>41666</v>
-      </c>
-      <c r="C85" s="55"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="111"/>
-      <c r="B86" s="26">
-        <v>41667</v>
       </c>
       <c r="C86" s="55"/>
       <c r="D86" s="55"/>
@@ -3940,9 +3955,9 @@
       <c r="J86" s="29"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="111"/>
+      <c r="A87" s="77"/>
       <c r="B87" s="26">
-        <v>41668</v>
+        <v>41667</v>
       </c>
       <c r="C87" s="55"/>
       <c r="D87" s="55"/>
@@ -3959,9 +3974,9 @@
       <c r="J87" s="29"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="111"/>
+      <c r="A88" s="77"/>
       <c r="B88" s="26">
-        <v>41669</v>
+        <v>41668</v>
       </c>
       <c r="C88" s="55"/>
       <c r="D88" s="55"/>
@@ -3978,9 +3993,9 @@
       <c r="J88" s="29"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="90"/>
+      <c r="A89" s="77"/>
       <c r="B89" s="26">
-        <v>41670</v>
+        <v>41669</v>
       </c>
       <c r="C89" s="55"/>
       <c r="D89" s="55"/>
@@ -3997,30 +4012,30 @@
       <c r="J89" s="29"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="91">
+      <c r="A90" s="78"/>
+      <c r="B90" s="26">
+        <v>41670</v>
+      </c>
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="73">
         <v>14</v>
       </c>
-      <c r="B90" s="27">
+      <c r="B91" s="27">
         <v>41673</v>
-      </c>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H90" s="67"/>
-      <c r="I90" s="67"/>
-      <c r="J90" s="67"/>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="92"/>
-      <c r="B91" s="27">
-        <v>41674</v>
       </c>
       <c r="C91" s="69"/>
       <c r="D91" s="69"/>
@@ -4037,9 +4052,9 @@
       <c r="J91" s="67"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="92"/>
+      <c r="A92" s="74"/>
       <c r="B92" s="27">
-        <v>41675</v>
+        <v>41674</v>
       </c>
       <c r="C92" s="69"/>
       <c r="D92" s="69"/>
@@ -4056,9 +4071,9 @@
       <c r="J92" s="67"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="92"/>
+      <c r="A93" s="74"/>
       <c r="B93" s="27">
-        <v>41676</v>
+        <v>41675</v>
       </c>
       <c r="C93" s="69"/>
       <c r="D93" s="69"/>
@@ -4075,9 +4090,9 @@
       <c r="J93" s="67"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="93"/>
+      <c r="A94" s="74"/>
       <c r="B94" s="27">
-        <v>41677</v>
+        <v>41676</v>
       </c>
       <c r="C94" s="69"/>
       <c r="D94" s="69"/>
@@ -4094,28 +4109,30 @@
       <c r="J94" s="67"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="110">
+      <c r="A95" s="75"/>
+      <c r="B95" s="27">
+        <v>41677</v>
+      </c>
+      <c r="C95" s="69"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
+      <c r="J95" s="67"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="76">
         <v>15</v>
       </c>
-      <c r="B95" s="26">
+      <c r="B96" s="26">
         <v>41680</v>
-      </c>
-      <c r="C95" s="55"/>
-      <c r="D95" s="55"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="29"/>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="111"/>
-      <c r="B96" s="26">
-        <v>41681</v>
       </c>
       <c r="C96" s="55"/>
       <c r="D96" s="55"/>
@@ -4130,9 +4147,9 @@
       <c r="J96" s="29"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="111"/>
+      <c r="A97" s="77"/>
       <c r="B97" s="26">
-        <v>41682</v>
+        <v>41681</v>
       </c>
       <c r="C97" s="55"/>
       <c r="D97" s="55"/>
@@ -4147,9 +4164,9 @@
       <c r="J97" s="29"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="111"/>
+      <c r="A98" s="77"/>
       <c r="B98" s="26">
-        <v>41683</v>
+        <v>41682</v>
       </c>
       <c r="C98" s="55"/>
       <c r="D98" s="55"/>
@@ -4164,15 +4181,15 @@
       <c r="J98" s="29"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="90"/>
+      <c r="A99" s="77"/>
       <c r="B99" s="26">
-        <v>41684</v>
+        <v>41683</v>
       </c>
       <c r="C99" s="55"/>
       <c r="D99" s="55"/>
       <c r="E99" s="55"/>
       <c r="F99" s="55">
-        <f t="shared" ref="F99:F130" si="2">E99</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G99" s="29"/>
@@ -4181,28 +4198,28 @@
       <c r="J99" s="29"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="91">
+      <c r="A100" s="78"/>
+      <c r="B100" s="26">
+        <v>41684</v>
+      </c>
+      <c r="C100" s="55"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55">
+        <f t="shared" ref="F100:F131" si="2">E100</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="73">
         <v>16</v>
       </c>
-      <c r="B100" s="27">
+      <c r="B101" s="27">
         <v>41687</v>
-      </c>
-      <c r="C100" s="69"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="69"/>
-      <c r="F100" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="67"/>
-      <c r="J100" s="67"/>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" s="92"/>
-      <c r="B101" s="27">
-        <v>41688</v>
       </c>
       <c r="C101" s="69"/>
       <c r="D101" s="69"/>
@@ -4217,9 +4234,9 @@
       <c r="J101" s="67"/>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="92"/>
+      <c r="A102" s="74"/>
       <c r="B102" s="27">
-        <v>41689</v>
+        <v>41688</v>
       </c>
       <c r="C102" s="69"/>
       <c r="D102" s="69"/>
@@ -4234,9 +4251,9 @@
       <c r="J102" s="67"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="92"/>
+      <c r="A103" s="74"/>
       <c r="B103" s="27">
-        <v>41690</v>
+        <v>41689</v>
       </c>
       <c r="C103" s="69"/>
       <c r="D103" s="69"/>
@@ -4251,9 +4268,9 @@
       <c r="J103" s="67"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="93"/>
+      <c r="A104" s="74"/>
       <c r="B104" s="27">
-        <v>41691</v>
+        <v>41690</v>
       </c>
       <c r="C104" s="69"/>
       <c r="D104" s="69"/>
@@ -4268,28 +4285,28 @@
       <c r="J104" s="67"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="110">
+      <c r="A105" s="75"/>
+      <c r="B105" s="27">
+        <v>41691</v>
+      </c>
+      <c r="C105" s="69"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
+      <c r="J105" s="67"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="76">
         <v>17</v>
       </c>
-      <c r="B105" s="26">
+      <c r="B106" s="26">
         <v>41694</v>
-      </c>
-      <c r="C105" s="55"/>
-      <c r="D105" s="55"/>
-      <c r="E105" s="55"/>
-      <c r="F105" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
-      <c r="I105" s="29"/>
-      <c r="J105" s="29"/>
-    </row>
-    <row r="106" spans="1:10">
-      <c r="A106" s="111"/>
-      <c r="B106" s="26">
-        <v>41695</v>
       </c>
       <c r="C106" s="55"/>
       <c r="D106" s="55"/>
@@ -4304,9 +4321,9 @@
       <c r="J106" s="29"/>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="111"/>
+      <c r="A107" s="77"/>
       <c r="B107" s="26">
-        <v>41696</v>
+        <v>41695</v>
       </c>
       <c r="C107" s="55"/>
       <c r="D107" s="55"/>
@@ -4321,9 +4338,9 @@
       <c r="J107" s="29"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="111"/>
+      <c r="A108" s="77"/>
       <c r="B108" s="26">
-        <v>41697</v>
+        <v>41696</v>
       </c>
       <c r="C108" s="55"/>
       <c r="D108" s="55"/>
@@ -4338,9 +4355,9 @@
       <c r="J108" s="29"/>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="90"/>
+      <c r="A109" s="77"/>
       <c r="B109" s="26">
-        <v>41698</v>
+        <v>41697</v>
       </c>
       <c r="C109" s="55"/>
       <c r="D109" s="55"/>
@@ -4355,28 +4372,28 @@
       <c r="J109" s="29"/>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="91">
+      <c r="A110" s="78"/>
+      <c r="B110" s="26">
+        <v>41698</v>
+      </c>
+      <c r="C110" s="55"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="73">
         <v>18</v>
       </c>
-      <c r="B110" s="27">
+      <c r="B111" s="27">
         <v>41701</v>
-      </c>
-      <c r="C110" s="69"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="69"/>
-      <c r="F110" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="67"/>
-      <c r="J110" s="67"/>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="A111" s="92"/>
-      <c r="B111" s="27">
-        <v>41702</v>
       </c>
       <c r="C111" s="69"/>
       <c r="D111" s="69"/>
@@ -4391,9 +4408,9 @@
       <c r="J111" s="67"/>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="92"/>
+      <c r="A112" s="74"/>
       <c r="B112" s="27">
-        <v>41703</v>
+        <v>41702</v>
       </c>
       <c r="C112" s="69"/>
       <c r="D112" s="69"/>
@@ -4408,9 +4425,9 @@
       <c r="J112" s="67"/>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="92"/>
+      <c r="A113" s="74"/>
       <c r="B113" s="27">
-        <v>41704</v>
+        <v>41703</v>
       </c>
       <c r="C113" s="69"/>
       <c r="D113" s="69"/>
@@ -4425,9 +4442,9 @@
       <c r="J113" s="67"/>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="93"/>
+      <c r="A114" s="74"/>
       <c r="B114" s="27">
-        <v>41705</v>
+        <v>41704</v>
       </c>
       <c r="C114" s="69"/>
       <c r="D114" s="69"/>
@@ -4442,28 +4459,28 @@
       <c r="J114" s="67"/>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="110">
+      <c r="A115" s="75"/>
+      <c r="B115" s="27">
+        <v>41705</v>
+      </c>
+      <c r="C115" s="69"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="69"/>
+      <c r="F115" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="67"/>
+      <c r="H115" s="67"/>
+      <c r="I115" s="67"/>
+      <c r="J115" s="67"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="76">
         <v>19</v>
       </c>
-      <c r="B115" s="26">
+      <c r="B116" s="26">
         <v>41708</v>
-      </c>
-      <c r="C115" s="55"/>
-      <c r="D115" s="55"/>
-      <c r="E115" s="55"/>
-      <c r="F115" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G115" s="29"/>
-      <c r="H115" s="29"/>
-      <c r="I115" s="29"/>
-      <c r="J115" s="29"/>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116" s="111"/>
-      <c r="B116" s="26">
-        <v>41709</v>
       </c>
       <c r="C116" s="55"/>
       <c r="D116" s="55"/>
@@ -4478,9 +4495,9 @@
       <c r="J116" s="29"/>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="111"/>
+      <c r="A117" s="77"/>
       <c r="B117" s="26">
-        <v>41710</v>
+        <v>41709</v>
       </c>
       <c r="C117" s="55"/>
       <c r="D117" s="55"/>
@@ -4495,9 +4512,9 @@
       <c r="J117" s="29"/>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="111"/>
+      <c r="A118" s="77"/>
       <c r="B118" s="26">
-        <v>41711</v>
+        <v>41710</v>
       </c>
       <c r="C118" s="55"/>
       <c r="D118" s="55"/>
@@ -4512,9 +4529,9 @@
       <c r="J118" s="29"/>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="90"/>
+      <c r="A119" s="77"/>
       <c r="B119" s="26">
-        <v>41712</v>
+        <v>41711</v>
       </c>
       <c r="C119" s="55"/>
       <c r="D119" s="55"/>
@@ -4529,28 +4546,28 @@
       <c r="J119" s="29"/>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="91">
+      <c r="A120" s="78"/>
+      <c r="B120" s="26">
+        <v>41712</v>
+      </c>
+      <c r="C120" s="55"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="55"/>
+      <c r="F120" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="73">
         <v>20</v>
       </c>
-      <c r="B120" s="27">
+      <c r="B121" s="27">
         <v>41715</v>
-      </c>
-      <c r="C120" s="69"/>
-      <c r="D120" s="69"/>
-      <c r="E120" s="69"/>
-      <c r="F120" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G120" s="67"/>
-      <c r="H120" s="67"/>
-      <c r="I120" s="67"/>
-      <c r="J120" s="67"/>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121" s="92"/>
-      <c r="B121" s="27">
-        <v>41716</v>
       </c>
       <c r="C121" s="69"/>
       <c r="D121" s="69"/>
@@ -4565,9 +4582,9 @@
       <c r="J121" s="67"/>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="92"/>
+      <c r="A122" s="74"/>
       <c r="B122" s="27">
-        <v>41717</v>
+        <v>41716</v>
       </c>
       <c r="C122" s="69"/>
       <c r="D122" s="69"/>
@@ -4582,9 +4599,9 @@
       <c r="J122" s="67"/>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="92"/>
+      <c r="A123" s="74"/>
       <c r="B123" s="27">
-        <v>41718</v>
+        <v>41717</v>
       </c>
       <c r="C123" s="69"/>
       <c r="D123" s="69"/>
@@ -4599,9 +4616,9 @@
       <c r="J123" s="67"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="93"/>
+      <c r="A124" s="74"/>
       <c r="B124" s="27">
-        <v>41719</v>
+        <v>41718</v>
       </c>
       <c r="C124" s="69"/>
       <c r="D124" s="69"/>
@@ -4616,28 +4633,28 @@
       <c r="J124" s="67"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="110">
+      <c r="A125" s="75"/>
+      <c r="B125" s="27">
+        <v>41719</v>
+      </c>
+      <c r="C125" s="69"/>
+      <c r="D125" s="69"/>
+      <c r="E125" s="69"/>
+      <c r="F125" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="67"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="67"/>
+      <c r="J125" s="67"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="76">
         <v>21</v>
       </c>
-      <c r="B125" s="26">
+      <c r="B126" s="26">
         <v>41722</v>
-      </c>
-      <c r="C125" s="55"/>
-      <c r="D125" s="55"/>
-      <c r="E125" s="55"/>
-      <c r="F125" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="29"/>
-      <c r="H125" s="29"/>
-      <c r="I125" s="29"/>
-      <c r="J125" s="29"/>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="A126" s="111"/>
-      <c r="B126" s="26">
-        <v>41723</v>
       </c>
       <c r="C126" s="55"/>
       <c r="D126" s="55"/>
@@ -4652,9 +4669,9 @@
       <c r="J126" s="29"/>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="111"/>
+      <c r="A127" s="77"/>
       <c r="B127" s="26">
-        <v>41724</v>
+        <v>41723</v>
       </c>
       <c r="C127" s="55"/>
       <c r="D127" s="55"/>
@@ -4669,9 +4686,9 @@
       <c r="J127" s="29"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="111"/>
+      <c r="A128" s="77"/>
       <c r="B128" s="26">
-        <v>41725</v>
+        <v>41724</v>
       </c>
       <c r="C128" s="55"/>
       <c r="D128" s="55"/>
@@ -4686,9 +4703,9 @@
       <c r="J128" s="29"/>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="90"/>
+      <c r="A129" s="77"/>
       <c r="B129" s="26">
-        <v>41726</v>
+        <v>41725</v>
       </c>
       <c r="C129" s="55"/>
       <c r="D129" s="55"/>
@@ -4703,34 +4720,34 @@
       <c r="J129" s="29"/>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="91">
+      <c r="A130" s="78"/>
+      <c r="B130" s="26">
+        <v>41726</v>
+      </c>
+      <c r="C130" s="55"/>
+      <c r="D130" s="55"/>
+      <c r="E130" s="55"/>
+      <c r="F130" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="29"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="73">
         <v>22</v>
       </c>
-      <c r="B130" s="27">
+      <c r="B131" s="27">
         <v>41729</v>
-      </c>
-      <c r="C130" s="69"/>
-      <c r="D130" s="69"/>
-      <c r="E130" s="69"/>
-      <c r="F130" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G130" s="67"/>
-      <c r="H130" s="67"/>
-      <c r="I130" s="67"/>
-      <c r="J130" s="67"/>
-    </row>
-    <row r="131" spans="1:10">
-      <c r="A131" s="92"/>
-      <c r="B131" s="27">
-        <v>41730</v>
       </c>
       <c r="C131" s="69"/>
       <c r="D131" s="69"/>
       <c r="E131" s="69"/>
       <c r="F131" s="69">
-        <f t="shared" ref="F131:F162" si="3">E131</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G131" s="67"/>
@@ -4739,15 +4756,15 @@
       <c r="J131" s="67"/>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="92"/>
+      <c r="A132" s="74"/>
       <c r="B132" s="27">
-        <v>41731</v>
+        <v>41730</v>
       </c>
       <c r="C132" s="69"/>
       <c r="D132" s="69"/>
       <c r="E132" s="69"/>
       <c r="F132" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F132:F163" si="3">E132</f>
         <v>0</v>
       </c>
       <c r="G132" s="67"/>
@@ -4756,9 +4773,9 @@
       <c r="J132" s="67"/>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="92"/>
+      <c r="A133" s="74"/>
       <c r="B133" s="27">
-        <v>41732</v>
+        <v>41731</v>
       </c>
       <c r="C133" s="69"/>
       <c r="D133" s="69"/>
@@ -4773,9 +4790,9 @@
       <c r="J133" s="67"/>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="93"/>
+      <c r="A134" s="74"/>
       <c r="B134" s="27">
-        <v>41733</v>
+        <v>41732</v>
       </c>
       <c r="C134" s="69"/>
       <c r="D134" s="69"/>
@@ -4790,28 +4807,28 @@
       <c r="J134" s="67"/>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="110">
+      <c r="A135" s="75"/>
+      <c r="B135" s="27">
+        <v>41733</v>
+      </c>
+      <c r="C135" s="69"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="69"/>
+      <c r="F135" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="67"/>
+      <c r="H135" s="67"/>
+      <c r="I135" s="67"/>
+      <c r="J135" s="67"/>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="76">
         <v>23</v>
       </c>
-      <c r="B135" s="26">
+      <c r="B136" s="26">
         <v>41736</v>
-      </c>
-      <c r="C135" s="55"/>
-      <c r="D135" s="55"/>
-      <c r="E135" s="55"/>
-      <c r="F135" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G135" s="29"/>
-      <c r="H135" s="29"/>
-      <c r="I135" s="29"/>
-      <c r="J135" s="29"/>
-    </row>
-    <row r="136" spans="1:10">
-      <c r="A136" s="111"/>
-      <c r="B136" s="26">
-        <v>41737</v>
       </c>
       <c r="C136" s="55"/>
       <c r="D136" s="55"/>
@@ -4826,9 +4843,9 @@
       <c r="J136" s="29"/>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="111"/>
+      <c r="A137" s="77"/>
       <c r="B137" s="26">
-        <v>41738</v>
+        <v>41737</v>
       </c>
       <c r="C137" s="55"/>
       <c r="D137" s="55"/>
@@ -4843,9 +4860,9 @@
       <c r="J137" s="29"/>
     </row>
     <row r="138" spans="1:10">
-      <c r="A138" s="111"/>
+      <c r="A138" s="77"/>
       <c r="B138" s="26">
-        <v>41739</v>
+        <v>41738</v>
       </c>
       <c r="C138" s="55"/>
       <c r="D138" s="55"/>
@@ -4860,9 +4877,9 @@
       <c r="J138" s="29"/>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="90"/>
+      <c r="A139" s="77"/>
       <c r="B139" s="26">
-        <v>41740</v>
+        <v>41739</v>
       </c>
       <c r="C139" s="55"/>
       <c r="D139" s="55"/>
@@ -4877,28 +4894,28 @@
       <c r="J139" s="29"/>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="91">
+      <c r="A140" s="78"/>
+      <c r="B140" s="26">
+        <v>41740</v>
+      </c>
+      <c r="C140" s="55"/>
+      <c r="D140" s="55"/>
+      <c r="E140" s="55"/>
+      <c r="F140" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G140" s="29"/>
+      <c r="H140" s="29"/>
+      <c r="I140" s="29"/>
+      <c r="J140" s="29"/>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="73">
         <v>24</v>
       </c>
-      <c r="B140" s="27">
+      <c r="B141" s="27">
         <v>41743</v>
-      </c>
-      <c r="C140" s="69"/>
-      <c r="D140" s="69"/>
-      <c r="E140" s="69"/>
-      <c r="F140" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G140" s="67"/>
-      <c r="H140" s="67"/>
-      <c r="I140" s="67"/>
-      <c r="J140" s="67"/>
-    </row>
-    <row r="141" spans="1:10">
-      <c r="A141" s="92"/>
-      <c r="B141" s="27">
-        <v>41744</v>
       </c>
       <c r="C141" s="69"/>
       <c r="D141" s="69"/>
@@ -4913,9 +4930,9 @@
       <c r="J141" s="67"/>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="92"/>
+      <c r="A142" s="74"/>
       <c r="B142" s="27">
-        <v>41745</v>
+        <v>41744</v>
       </c>
       <c r="C142" s="69"/>
       <c r="D142" s="69"/>
@@ -4930,9 +4947,9 @@
       <c r="J142" s="67"/>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="92"/>
+      <c r="A143" s="74"/>
       <c r="B143" s="27">
-        <v>41746</v>
+        <v>41745</v>
       </c>
       <c r="C143" s="69"/>
       <c r="D143" s="69"/>
@@ -4947,9 +4964,9 @@
       <c r="J143" s="67"/>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="93"/>
+      <c r="A144" s="74"/>
       <c r="B144" s="27">
-        <v>41747</v>
+        <v>41746</v>
       </c>
       <c r="C144" s="69"/>
       <c r="D144" s="69"/>
@@ -4964,28 +4981,28 @@
       <c r="J144" s="67"/>
     </row>
     <row r="145" spans="1:10">
-      <c r="A145" s="110">
+      <c r="A145" s="75"/>
+      <c r="B145" s="27">
+        <v>41747</v>
+      </c>
+      <c r="C145" s="69"/>
+      <c r="D145" s="69"/>
+      <c r="E145" s="69"/>
+      <c r="F145" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G145" s="67"/>
+      <c r="H145" s="67"/>
+      <c r="I145" s="67"/>
+      <c r="J145" s="67"/>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="76">
         <v>25</v>
       </c>
-      <c r="B145" s="26">
+      <c r="B146" s="26">
         <v>41750</v>
-      </c>
-      <c r="C145" s="55"/>
-      <c r="D145" s="55"/>
-      <c r="E145" s="55"/>
-      <c r="F145" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G145" s="29"/>
-      <c r="H145" s="29"/>
-      <c r="I145" s="29"/>
-      <c r="J145" s="29"/>
-    </row>
-    <row r="146" spans="1:10">
-      <c r="A146" s="111"/>
-      <c r="B146" s="26">
-        <v>41751</v>
       </c>
       <c r="C146" s="55"/>
       <c r="D146" s="55"/>
@@ -5000,9 +5017,9 @@
       <c r="J146" s="29"/>
     </row>
     <row r="147" spans="1:10">
-      <c r="A147" s="111"/>
+      <c r="A147" s="77"/>
       <c r="B147" s="26">
-        <v>41752</v>
+        <v>41751</v>
       </c>
       <c r="C147" s="55"/>
       <c r="D147" s="55"/>
@@ -5017,9 +5034,9 @@
       <c r="J147" s="29"/>
     </row>
     <row r="148" spans="1:10">
-      <c r="A148" s="111"/>
+      <c r="A148" s="77"/>
       <c r="B148" s="26">
-        <v>41753</v>
+        <v>41752</v>
       </c>
       <c r="C148" s="55"/>
       <c r="D148" s="55"/>
@@ -5034,9 +5051,9 @@
       <c r="J148" s="29"/>
     </row>
     <row r="149" spans="1:10">
-      <c r="A149" s="90"/>
+      <c r="A149" s="77"/>
       <c r="B149" s="26">
-        <v>41754</v>
+        <v>41753</v>
       </c>
       <c r="C149" s="55"/>
       <c r="D149" s="55"/>
@@ -5051,28 +5068,28 @@
       <c r="J149" s="29"/>
     </row>
     <row r="150" spans="1:10">
-      <c r="A150" s="91">
+      <c r="A150" s="78"/>
+      <c r="B150" s="26">
+        <v>41754</v>
+      </c>
+      <c r="C150" s="55"/>
+      <c r="D150" s="55"/>
+      <c r="E150" s="55"/>
+      <c r="F150" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G150" s="29"/>
+      <c r="H150" s="29"/>
+      <c r="I150" s="29"/>
+      <c r="J150" s="29"/>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="73">
         <v>26</v>
       </c>
-      <c r="B150" s="27">
+      <c r="B151" s="27">
         <v>41757</v>
-      </c>
-      <c r="C150" s="69"/>
-      <c r="D150" s="69"/>
-      <c r="E150" s="69"/>
-      <c r="F150" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G150" s="67"/>
-      <c r="H150" s="67"/>
-      <c r="I150" s="67"/>
-      <c r="J150" s="67"/>
-    </row>
-    <row r="151" spans="1:10">
-      <c r="A151" s="92"/>
-      <c r="B151" s="27">
-        <v>41758</v>
       </c>
       <c r="C151" s="69"/>
       <c r="D151" s="69"/>
@@ -5087,9 +5104,9 @@
       <c r="J151" s="67"/>
     </row>
     <row r="152" spans="1:10">
-      <c r="A152" s="92"/>
+      <c r="A152" s="74"/>
       <c r="B152" s="27">
-        <v>41759</v>
+        <v>41758</v>
       </c>
       <c r="C152" s="69"/>
       <c r="D152" s="69"/>
@@ -5104,9 +5121,9 @@
       <c r="J152" s="67"/>
     </row>
     <row r="153" spans="1:10">
-      <c r="A153" s="92"/>
+      <c r="A153" s="74"/>
       <c r="B153" s="27">
-        <v>41760</v>
+        <v>41759</v>
       </c>
       <c r="C153" s="69"/>
       <c r="D153" s="69"/>
@@ -5121,9 +5138,9 @@
       <c r="J153" s="67"/>
     </row>
     <row r="154" spans="1:10">
-      <c r="A154" s="93"/>
+      <c r="A154" s="74"/>
       <c r="B154" s="27">
-        <v>41761</v>
+        <v>41760</v>
       </c>
       <c r="C154" s="69"/>
       <c r="D154" s="69"/>
@@ -5138,28 +5155,28 @@
       <c r="J154" s="67"/>
     </row>
     <row r="155" spans="1:10">
-      <c r="A155" s="110">
+      <c r="A155" s="75"/>
+      <c r="B155" s="27">
+        <v>41761</v>
+      </c>
+      <c r="C155" s="69"/>
+      <c r="D155" s="69"/>
+      <c r="E155" s="69"/>
+      <c r="F155" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G155" s="67"/>
+      <c r="H155" s="67"/>
+      <c r="I155" s="67"/>
+      <c r="J155" s="67"/>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="76">
         <v>27</v>
       </c>
-      <c r="B155" s="26">
+      <c r="B156" s="26">
         <v>41764</v>
-      </c>
-      <c r="C155" s="55"/>
-      <c r="D155" s="55"/>
-      <c r="E155" s="55"/>
-      <c r="F155" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G155" s="29"/>
-      <c r="H155" s="29"/>
-      <c r="I155" s="29"/>
-      <c r="J155" s="29"/>
-    </row>
-    <row r="156" spans="1:10">
-      <c r="A156" s="111"/>
-      <c r="B156" s="26">
-        <v>41765</v>
       </c>
       <c r="C156" s="55"/>
       <c r="D156" s="55"/>
@@ -5174,9 +5191,9 @@
       <c r="J156" s="29"/>
     </row>
     <row r="157" spans="1:10">
-      <c r="A157" s="111"/>
+      <c r="A157" s="77"/>
       <c r="B157" s="26">
-        <v>41766</v>
+        <v>41765</v>
       </c>
       <c r="C157" s="55"/>
       <c r="D157" s="55"/>
@@ -5191,9 +5208,9 @@
       <c r="J157" s="29"/>
     </row>
     <row r="158" spans="1:10">
-      <c r="A158" s="111"/>
+      <c r="A158" s="77"/>
       <c r="B158" s="26">
-        <v>41767</v>
+        <v>41766</v>
       </c>
       <c r="C158" s="55"/>
       <c r="D158" s="55"/>
@@ -5208,9 +5225,9 @@
       <c r="J158" s="29"/>
     </row>
     <row r="159" spans="1:10">
-      <c r="A159" s="90"/>
+      <c r="A159" s="77"/>
       <c r="B159" s="26">
-        <v>41768</v>
+        <v>41767</v>
       </c>
       <c r="C159" s="55"/>
       <c r="D159" s="55"/>
@@ -5225,28 +5242,28 @@
       <c r="J159" s="29"/>
     </row>
     <row r="160" spans="1:10">
-      <c r="A160" s="91">
+      <c r="A160" s="78"/>
+      <c r="B160" s="26">
+        <v>41768</v>
+      </c>
+      <c r="C160" s="55"/>
+      <c r="D160" s="55"/>
+      <c r="E160" s="55"/>
+      <c r="F160" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G160" s="29"/>
+      <c r="H160" s="29"/>
+      <c r="I160" s="29"/>
+      <c r="J160" s="29"/>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="73">
         <v>28</v>
       </c>
-      <c r="B160" s="27">
+      <c r="B161" s="27">
         <v>41771</v>
-      </c>
-      <c r="C160" s="69"/>
-      <c r="D160" s="69"/>
-      <c r="E160" s="69"/>
-      <c r="F160" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G160" s="67"/>
-      <c r="H160" s="67"/>
-      <c r="I160" s="67"/>
-      <c r="J160" s="67"/>
-    </row>
-    <row r="161" spans="1:10">
-      <c r="A161" s="92"/>
-      <c r="B161" s="27">
-        <v>41772</v>
       </c>
       <c r="C161" s="69"/>
       <c r="D161" s="69"/>
@@ -5261,9 +5278,9 @@
       <c r="J161" s="67"/>
     </row>
     <row r="162" spans="1:10">
-      <c r="A162" s="92"/>
+      <c r="A162" s="74"/>
       <c r="B162" s="27">
-        <v>41773</v>
+        <v>41772</v>
       </c>
       <c r="C162" s="69"/>
       <c r="D162" s="69"/>
@@ -5278,15 +5295,15 @@
       <c r="J162" s="67"/>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="92"/>
+      <c r="A163" s="74"/>
       <c r="B163" s="27">
-        <v>41774</v>
+        <v>41773</v>
       </c>
       <c r="C163" s="69"/>
       <c r="D163" s="69"/>
       <c r="E163" s="69"/>
       <c r="F163" s="69">
-        <f t="shared" ref="F163:F174" si="4">E163</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G163" s="67"/>
@@ -5295,15 +5312,15 @@
       <c r="J163" s="67"/>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="93"/>
+      <c r="A164" s="74"/>
       <c r="B164" s="27">
-        <v>41775</v>
+        <v>41774</v>
       </c>
       <c r="C164" s="69"/>
       <c r="D164" s="69"/>
       <c r="E164" s="69"/>
       <c r="F164" s="69">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F164:F175" si="4">E164</f>
         <v>0</v>
       </c>
       <c r="G164" s="67"/>
@@ -5312,28 +5329,28 @@
       <c r="J164" s="67"/>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="110">
+      <c r="A165" s="75"/>
+      <c r="B165" s="27">
+        <v>41775</v>
+      </c>
+      <c r="C165" s="69"/>
+      <c r="D165" s="69"/>
+      <c r="E165" s="69"/>
+      <c r="F165" s="69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G165" s="67"/>
+      <c r="H165" s="67"/>
+      <c r="I165" s="67"/>
+      <c r="J165" s="67"/>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="76">
         <v>29</v>
       </c>
-      <c r="B165" s="26">
+      <c r="B166" s="26">
         <v>41778</v>
-      </c>
-      <c r="C165" s="55"/>
-      <c r="D165" s="55"/>
-      <c r="E165" s="55"/>
-      <c r="F165" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G165" s="29"/>
-      <c r="H165" s="29"/>
-      <c r="I165" s="29"/>
-      <c r="J165" s="29"/>
-    </row>
-    <row r="166" spans="1:10">
-      <c r="A166" s="111"/>
-      <c r="B166" s="26">
-        <v>41779</v>
       </c>
       <c r="C166" s="55"/>
       <c r="D166" s="55"/>
@@ -5348,9 +5365,9 @@
       <c r="J166" s="29"/>
     </row>
     <row r="167" spans="1:10">
-      <c r="A167" s="111"/>
+      <c r="A167" s="77"/>
       <c r="B167" s="26">
-        <v>41780</v>
+        <v>41779</v>
       </c>
       <c r="C167" s="55"/>
       <c r="D167" s="55"/>
@@ -5365,9 +5382,9 @@
       <c r="J167" s="29"/>
     </row>
     <row r="168" spans="1:10">
-      <c r="A168" s="111"/>
+      <c r="A168" s="77"/>
       <c r="B168" s="26">
-        <v>41781</v>
+        <v>41780</v>
       </c>
       <c r="C168" s="55"/>
       <c r="D168" s="55"/>
@@ -5382,9 +5399,9 @@
       <c r="J168" s="29"/>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="90"/>
+      <c r="A169" s="77"/>
       <c r="B169" s="26">
-        <v>41782</v>
+        <v>41781</v>
       </c>
       <c r="C169" s="55"/>
       <c r="D169" s="55"/>
@@ -5399,28 +5416,28 @@
       <c r="J169" s="29"/>
     </row>
     <row r="170" spans="1:10">
-      <c r="A170" s="136">
+      <c r="A170" s="78"/>
+      <c r="B170" s="26">
+        <v>41782</v>
+      </c>
+      <c r="C170" s="55"/>
+      <c r="D170" s="55"/>
+      <c r="E170" s="55"/>
+      <c r="F170" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G170" s="29"/>
+      <c r="H170" s="29"/>
+      <c r="I170" s="29"/>
+      <c r="J170" s="29"/>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="79">
         <v>30</v>
       </c>
-      <c r="B170" s="27">
+      <c r="B171" s="27">
         <v>41785</v>
-      </c>
-      <c r="C170" s="70"/>
-      <c r="D170" s="70"/>
-      <c r="E170" s="70"/>
-      <c r="F170" s="70">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G170" s="37"/>
-      <c r="H170" s="37"/>
-      <c r="I170" s="37"/>
-      <c r="J170" s="37"/>
-    </row>
-    <row r="171" spans="1:10">
-      <c r="A171" s="137"/>
-      <c r="B171" s="27">
-        <v>41786</v>
       </c>
       <c r="C171" s="70"/>
       <c r="D171" s="70"/>
@@ -5435,9 +5452,9 @@
       <c r="J171" s="37"/>
     </row>
     <row r="172" spans="1:10">
-      <c r="A172" s="137"/>
+      <c r="A172" s="80"/>
       <c r="B172" s="27">
-        <v>41787</v>
+        <v>41786</v>
       </c>
       <c r="C172" s="70"/>
       <c r="D172" s="70"/>
@@ -5452,9 +5469,9 @@
       <c r="J172" s="37"/>
     </row>
     <row r="173" spans="1:10">
-      <c r="A173" s="137"/>
+      <c r="A173" s="80"/>
       <c r="B173" s="27">
-        <v>41788</v>
+        <v>41787</v>
       </c>
       <c r="C173" s="70"/>
       <c r="D173" s="70"/>
@@ -5469,9 +5486,9 @@
       <c r="J173" s="37"/>
     </row>
     <row r="174" spans="1:10">
-      <c r="A174" s="138"/>
+      <c r="A174" s="80"/>
       <c r="B174" s="27">
-        <v>41789</v>
+        <v>41788</v>
       </c>
       <c r="C174" s="70"/>
       <c r="D174" s="70"/>
@@ -5486,16 +5503,21 @@
       <c r="J174" s="37"/>
     </row>
     <row r="175" spans="1:10">
-      <c r="A175" s="68"/>
-      <c r="B175" s="68"/>
-      <c r="C175" s="68"/>
-      <c r="D175" s="68"/>
-      <c r="E175" s="68"/>
-      <c r="F175" s="68"/>
-      <c r="G175" s="68"/>
-      <c r="H175" s="68"/>
-      <c r="I175" s="68"/>
-      <c r="J175" s="68"/>
+      <c r="A175" s="81"/>
+      <c r="B175" s="27">
+        <v>41789</v>
+      </c>
+      <c r="C175" s="70"/>
+      <c r="D175" s="70"/>
+      <c r="E175" s="70"/>
+      <c r="F175" s="70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G175" s="37"/>
+      <c r="H175" s="37"/>
+      <c r="I175" s="37"/>
+      <c r="J175" s="37"/>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="68"/>
@@ -5593,36 +5615,41 @@
       <c r="I183" s="68"/>
       <c r="J183" s="68"/>
     </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="68"/>
+      <c r="B184" s="68"/>
+      <c r="C184" s="68"/>
+      <c r="D184" s="68"/>
+      <c r="E184" s="68"/>
+      <c r="F184" s="68"/>
+      <c r="G184" s="68"/>
+      <c r="H184" s="68"/>
+      <c r="I184" s="68"/>
+      <c r="J184" s="68"/>
+    </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A33:A44"/>
-    <mergeCell ref="A160:A164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A170:A174"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="A110:A114"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="A155:A159"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="F14:F16"/>
+  <mergeCells count="56">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="A33:A45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A10:A18"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="F10:F11"/>
@@ -5630,26 +5657,34 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="A19:A32"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A95"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
@@ -5919,29 +5954,10 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>M43:M44</xm:sqref>
+          <xm:sqref>M43:M45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="29" id="{3793385C-190C-4A90-AF72-EEE9712F504F}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>25</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>168</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5960,7 +5976,7 @@
           <xm:sqref>M46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
+          <x14:cfRule type="iconSet" priority="28" id="{21C6FD3D-522C-4661-AE5D-284F6FC787D0}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5979,7 +5995,7 @@
           <xm:sqref>M47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
+          <x14:cfRule type="iconSet" priority="27" id="{09871DA7-81C7-4675-89F3-BE2EDB05B9C9}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5998,7 +6014,7 @@
           <xm:sqref>M48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
+          <x14:cfRule type="iconSet" priority="26" id="{50D35A91-6584-4A00-B008-2B93AA187052}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6017,7 +6033,7 @@
           <xm:sqref>M49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
+          <x14:cfRule type="iconSet" priority="25" id="{10AA0BAB-E7C1-450C-B7A5-276ADB69B0B2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6036,7 +6052,7 @@
           <xm:sqref>M50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
+          <x14:cfRule type="iconSet" priority="24" id="{0A1ADE65-D185-454C-92B2-B6FA367CBA04}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6055,7 +6071,7 @@
           <xm:sqref>M51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
+          <x14:cfRule type="iconSet" priority="23" id="{E0DFC09D-C053-4D3D-A1C1-C5AF640FB5CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6074,7 +6090,7 @@
           <xm:sqref>M52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
+          <x14:cfRule type="iconSet" priority="22" id="{F1B6F2BC-B2AE-42D9-8427-52A717AE39CD}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6093,7 +6109,7 @@
           <xm:sqref>M53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
+          <x14:cfRule type="iconSet" priority="21" id="{EEF8AB81-584A-4839-AEE8-98BCAAB29DD2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6112,7 +6128,7 @@
           <xm:sqref>M54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
+          <x14:cfRule type="iconSet" priority="20" id="{A1F90B4F-0784-43A3-A2A1-2A7C9438EE1A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6131,7 +6147,7 @@
           <xm:sqref>M55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
+          <x14:cfRule type="iconSet" priority="19" id="{CDF48798-0C78-453D-9E98-93D1BB3C878A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6150,7 +6166,7 @@
           <xm:sqref>M56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+          <x14:cfRule type="iconSet" priority="18" id="{524804E6-2BBA-4071-AB71-18BD193B4497}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6167,6 +6183,25 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>M57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="17" id="{F466D4E3-91DB-49AA-8E5A-7BD04BE8813F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>25</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>168</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>M58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="16" id="{C4227F9F-08CD-4A7C-B706-2C35F19616E7}">
@@ -6242,7 +6277,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F14 F7:F8 F12 F18:F19 F21 F23:F24 F29 F33:F34 F38 F43:F174</xm:sqref>
+          <xm:sqref>F14 F7:F8 F12 F18:F19 F21 F23:F24 F29 F33:F34 F38 F43:F44 F46:F175</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{35213755-788E-43C8-B75E-72DA17285D4A}">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="154">
   <si>
     <t>Week</t>
   </si>
@@ -510,7 +510,11 @@
     <t>7:00PM</t>
   </si>
   <si>
-    <t>Define entities and functional, quality attribute for "Hoi dap" module</t>
+    <t>Define entities and functional, quality attribute for "Hoi dap" module
+add functional list into Operation document</t>
+  </si>
+  <si>
+    <t>các thành viên chưa hoàn thành đầy đủ những yêu cầu đặt ra</t>
   </si>
 </sst>
 </file>
@@ -1028,6 +1032,60 @@
     <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1043,7 +1101,124 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,177 +1229,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1536,7 +1540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1662,10 +1666,10 @@
   <dimension ref="A1:O184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1686,81 +1690,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="123"/>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="126" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="128"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="78"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="81"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="134"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1">
-      <c r="A5" s="117"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="15"/>
       <c r="H5" s="41" t="s">
         <v>64</v>
@@ -1805,13 +1809,13 @@
       <c r="J6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
     </row>
     <row r="7" spans="1:15" ht="38.25">
-      <c r="A7" s="135">
+      <c r="A7" s="85">
         <v>1</v>
       </c>
       <c r="B7" s="16">
@@ -1837,10 +1841,10 @@
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="82" t="s">
+      <c r="K7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="82"/>
+      <c r="L7" s="127"/>
       <c r="M7" s="32">
         <f>SUM(M8:M58)</f>
         <v>66.649999999999991</v>
@@ -1850,8 +1854,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25">
-      <c r="A8" s="136"/>
-      <c r="B8" s="113">
+      <c r="A8" s="86"/>
+      <c r="B8" s="108">
         <v>41586</v>
       </c>
       <c r="C8" s="17">
@@ -1863,7 +1867,7 @@
       <c r="E8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="115">
+      <c r="F8" s="110">
         <v>1.67</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -1887,8 +1891,8 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="137"/>
-      <c r="B9" s="114"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1898,7 +1902,7 @@
       <c r="E9" s="18">
         <v>0.5</v>
       </c>
-      <c r="F9" s="116"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="29" t="s">
         <v>23</v>
       </c>
@@ -1909,10 +1913,10 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:15" s="63" customFormat="1">
-      <c r="A10" s="91">
+      <c r="A10" s="115">
         <v>2</v>
       </c>
-      <c r="B10" s="94">
+      <c r="B10" s="118">
         <v>41589</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -1924,7 +1928,7 @@
       <c r="E10" s="59">
         <v>2.5</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="120">
         <f>SUM(E10:E11)</f>
         <v>5</v>
       </c>
@@ -1938,8 +1942,8 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="58" t="s">
         <v>76</v>
       </c>
@@ -1949,7 +1953,7 @@
       <c r="E11" s="59">
         <v>2.5</v>
       </c>
-      <c r="F11" s="97"/>
+      <c r="F11" s="121"/>
       <c r="G11" s="60" t="s">
         <v>22</v>
       </c>
@@ -1962,8 +1966,8 @@
       <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:15" ht="63.75">
-      <c r="A12" s="92"/>
-      <c r="B12" s="83">
+      <c r="A12" s="116"/>
+      <c r="B12" s="128">
         <v>41590</v>
       </c>
       <c r="C12" s="22">
@@ -1975,7 +1979,7 @@
       <c r="E12" s="23">
         <v>2.25</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="130">
         <v>3.75</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -2002,8 +2006,8 @@
       <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A13" s="92"/>
-      <c r="B13" s="84"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="22">
         <v>0.91666666666666663</v>
       </c>
@@ -2013,7 +2017,7 @@
       <c r="E13" s="23">
         <v>1.5</v>
       </c>
-      <c r="F13" s="86"/>
+      <c r="F13" s="131"/>
       <c r="G13" s="45" t="s">
         <v>28</v>
       </c>
@@ -2029,8 +2033,8 @@
       <c r="O13" s="34"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="83">
+      <c r="A14" s="116"/>
+      <c r="B14" s="128">
         <v>41591</v>
       </c>
       <c r="C14" s="22">
@@ -2042,7 +2046,7 @@
       <c r="E14" s="23">
         <v>2</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="133">
         <v>4.5</v>
       </c>
       <c r="G14" s="45" t="s">
@@ -2060,8 +2064,8 @@
       <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:15" ht="25.5">
-      <c r="A15" s="92"/>
-      <c r="B15" s="87"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="25">
         <v>0.5625</v>
       </c>
@@ -2071,7 +2075,7 @@
       <c r="E15" s="28">
         <v>2</v>
       </c>
-      <c r="F15" s="89"/>
+      <c r="F15" s="134"/>
       <c r="G15" s="30" t="s">
         <v>19</v>
       </c>
@@ -2088,8 +2092,8 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="92"/>
-      <c r="B16" s="84"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="25">
         <v>0.83333333333333337</v>
       </c>
@@ -2099,7 +2103,7 @@
       <c r="E16" s="28">
         <v>0.5</v>
       </c>
-      <c r="F16" s="90"/>
+      <c r="F16" s="135"/>
       <c r="G16" s="45" t="s">
         <v>28</v>
       </c>
@@ -2123,7 +2127,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A17" s="92"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="47">
         <v>41592</v>
       </c>
@@ -2162,7 +2166,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5">
-      <c r="A18" s="93"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="42">
         <v>41593</v>
       </c>
@@ -2201,10 +2205,10 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="101">
+      <c r="A19" s="124">
         <v>3</v>
       </c>
-      <c r="B19" s="98">
+      <c r="B19" s="122">
         <v>41596</v>
       </c>
       <c r="C19" s="53" t="s">
@@ -2216,7 +2220,7 @@
       <c r="E19" s="50">
         <v>0.5</v>
       </c>
-      <c r="F19" s="100">
+      <c r="F19" s="89">
         <f>SUM(E19:E20)</f>
         <v>3.5</v>
       </c>
@@ -2243,8 +2247,8 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="102"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="125"/>
+      <c r="B20" s="123"/>
       <c r="C20" s="53" t="s">
         <v>81</v>
       </c>
@@ -2254,7 +2258,7 @@
       <c r="E20" s="50">
         <v>3</v>
       </c>
-      <c r="F20" s="78"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="49" t="s">
         <v>22</v>
       </c>
@@ -2271,8 +2275,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="102"/>
-      <c r="B21" s="98">
+      <c r="A21" s="125"/>
+      <c r="B21" s="122">
         <v>41597</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -2284,7 +2288,7 @@
       <c r="E21" s="50">
         <v>2</v>
       </c>
-      <c r="F21" s="100">
+      <c r="F21" s="89">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2304,8 +2308,8 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="102"/>
-      <c r="B22" s="99"/>
+      <c r="A22" s="125"/>
+      <c r="B22" s="123"/>
       <c r="C22" s="53" t="s">
         <v>84</v>
       </c>
@@ -2315,7 +2319,7 @@
       <c r="E22" s="50">
         <v>0.5</v>
       </c>
-      <c r="F22" s="78"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="49" t="s">
         <v>22</v>
       </c>
@@ -2339,7 +2343,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="39">
-      <c r="A23" s="102"/>
+      <c r="A23" s="125"/>
       <c r="B23" s="26">
         <v>41598</v>
       </c>
@@ -2379,7 +2383,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="26.25">
-      <c r="A24" s="102"/>
+      <c r="A24" s="125"/>
       <c r="B24" s="26">
         <v>41599</v>
       </c>
@@ -2392,7 +2396,7 @@
       <c r="E24" s="50">
         <v>1</v>
       </c>
-      <c r="F24" s="100">
+      <c r="F24" s="89">
         <f>SUM(E24:E28)</f>
         <v>6.9</v>
       </c>
@@ -2410,7 +2414,7 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="102"/>
+      <c r="A25" s="125"/>
       <c r="B25" s="26">
         <v>41599</v>
       </c>
@@ -2423,7 +2427,7 @@
       <c r="E25" s="50">
         <v>1.3</v>
       </c>
-      <c r="F25" s="120"/>
+      <c r="F25" s="96"/>
       <c r="G25" s="57" t="s">
         <v>19</v>
       </c>
@@ -2438,7 +2442,7 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="102"/>
+      <c r="A26" s="125"/>
       <c r="B26" s="26">
         <v>41599</v>
       </c>
@@ -2451,7 +2455,7 @@
       <c r="E26" s="50">
         <v>1.5</v>
       </c>
-      <c r="F26" s="120"/>
+      <c r="F26" s="96"/>
       <c r="G26" s="57" t="s">
         <v>22</v>
       </c>
@@ -2468,7 +2472,7 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="102"/>
+      <c r="A27" s="125"/>
       <c r="B27" s="26">
         <v>41599</v>
       </c>
@@ -2481,7 +2485,7 @@
       <c r="E27" s="50">
         <v>2.1</v>
       </c>
-      <c r="F27" s="120"/>
+      <c r="F27" s="96"/>
       <c r="G27" s="29" t="s">
         <v>19</v>
       </c>
@@ -2503,7 +2507,7 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="102"/>
+      <c r="A28" s="125"/>
       <c r="B28" s="26">
         <v>41599</v>
       </c>
@@ -2516,7 +2520,7 @@
       <c r="E28" s="50">
         <v>1</v>
       </c>
-      <c r="F28" s="121"/>
+      <c r="F28" s="97"/>
       <c r="G28" s="29" t="s">
         <v>22</v>
       </c>
@@ -2531,7 +2535,7 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="102"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="26">
         <v>41600</v>
       </c>
@@ -2544,7 +2548,7 @@
       <c r="E29" s="50">
         <v>1.2</v>
       </c>
-      <c r="F29" s="100">
+      <c r="F29" s="89">
         <f>SUM(E29:E30)</f>
         <v>3.2</v>
       </c>
@@ -2560,7 +2564,7 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="51">
-      <c r="A30" s="102"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="26">
         <v>41600</v>
       </c>
@@ -2573,7 +2577,7 @@
       <c r="E30" s="50">
         <v>2</v>
       </c>
-      <c r="F30" s="78"/>
+      <c r="F30" s="90"/>
       <c r="G30" s="57" t="s">
         <v>22</v>
       </c>
@@ -2595,7 +2599,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="25.5">
-      <c r="A31" s="102"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="26">
         <v>41601</v>
       </c>
@@ -2608,7 +2612,7 @@
       <c r="E31" s="50">
         <v>3.5</v>
       </c>
-      <c r="F31" s="100">
+      <c r="F31" s="89">
         <f>SUM(E31:E32)</f>
         <v>4.4000000000000004</v>
       </c>
@@ -2628,7 +2632,7 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="103"/>
+      <c r="A32" s="126"/>
       <c r="B32" s="26">
         <v>41601</v>
       </c>
@@ -2641,7 +2645,7 @@
       <c r="E32" s="50">
         <v>0.9</v>
       </c>
-      <c r="F32" s="78"/>
+      <c r="F32" s="90"/>
       <c r="G32" s="57" t="s">
         <v>22</v>
       </c>
@@ -2658,7 +2662,7 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" ht="38.25">
-      <c r="A33" s="73">
+      <c r="A33" s="91">
         <v>4</v>
       </c>
       <c r="B33" s="27">
@@ -2700,7 +2704,7 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="74"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="27">
         <v>41604</v>
       </c>
@@ -2713,7 +2717,7 @@
       <c r="E34" s="28">
         <v>1</v>
       </c>
-      <c r="F34" s="122">
+      <c r="F34" s="98">
         <f>SUM(E34:E37)</f>
         <v>5.75</v>
       </c>
@@ -2731,7 +2735,7 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="74"/>
+      <c r="A35" s="92"/>
       <c r="B35" s="27">
         <v>41604</v>
       </c>
@@ -2744,7 +2748,7 @@
       <c r="E35" s="28">
         <v>1.5</v>
       </c>
-      <c r="F35" s="74"/>
+      <c r="F35" s="92"/>
       <c r="G35" s="67" t="s">
         <v>23</v>
       </c>
@@ -2761,7 +2765,7 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="74"/>
+      <c r="A36" s="92"/>
       <c r="B36" s="27">
         <v>41604</v>
       </c>
@@ -2774,7 +2778,7 @@
       <c r="E36" s="28">
         <v>1.25</v>
       </c>
-      <c r="F36" s="74"/>
+      <c r="F36" s="92"/>
       <c r="G36" s="67" t="s">
         <v>19</v>
       </c>
@@ -2791,7 +2795,7 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="51">
-      <c r="A37" s="74"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="27">
         <v>41604</v>
       </c>
@@ -2804,7 +2808,7 @@
       <c r="E37" s="69">
         <v>2</v>
       </c>
-      <c r="F37" s="75"/>
+      <c r="F37" s="93"/>
       <c r="G37" s="67" t="s">
         <v>22</v>
       </c>
@@ -2830,7 +2834,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="74"/>
+      <c r="A38" s="92"/>
       <c r="B38" s="27">
         <v>41605</v>
       </c>
@@ -2843,7 +2847,7 @@
       <c r="E38" s="69">
         <v>2.33</v>
       </c>
-      <c r="F38" s="73">
+      <c r="F38" s="91">
         <f>SUM(E38:E39)</f>
         <v>2.83</v>
       </c>
@@ -2868,7 +2872,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="25.5">
-      <c r="A39" s="74"/>
+      <c r="A39" s="92"/>
       <c r="B39" s="27">
         <v>41605</v>
       </c>
@@ -2881,7 +2885,7 @@
       <c r="E39" s="69">
         <v>0.5</v>
       </c>
-      <c r="F39" s="75"/>
+      <c r="F39" s="93"/>
       <c r="G39" s="67" t="s">
         <v>22</v>
       </c>
@@ -2898,7 +2902,7 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="74"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="27">
         <v>41606</v>
       </c>
@@ -2911,7 +2915,7 @@
       <c r="E40" s="69">
         <v>1.33</v>
       </c>
-      <c r="F40" s="73">
+      <c r="F40" s="91">
         <f>SUM(E40:E42)</f>
         <v>5.83</v>
       </c>
@@ -2929,7 +2933,7 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="74"/>
+      <c r="A41" s="92"/>
       <c r="B41" s="27">
         <v>41606</v>
       </c>
@@ -2942,7 +2946,7 @@
       <c r="E41" s="69">
         <v>1.75</v>
       </c>
-      <c r="F41" s="74"/>
+      <c r="F41" s="92"/>
       <c r="G41" s="67" t="s">
         <v>25</v>
       </c>
@@ -2957,7 +2961,7 @@
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" ht="25.5">
-      <c r="A42" s="74"/>
+      <c r="A42" s="92"/>
       <c r="B42" s="27">
         <v>41606</v>
       </c>
@@ -2970,7 +2974,7 @@
       <c r="E42" s="69">
         <v>2.75</v>
       </c>
-      <c r="F42" s="75"/>
+      <c r="F42" s="93"/>
       <c r="G42" s="67" t="s">
         <v>19</v>
       </c>
@@ -2994,7 +2998,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="51">
-      <c r="A43" s="74"/>
+      <c r="A43" s="92"/>
       <c r="B43" s="27">
         <v>41607</v>
       </c>
@@ -3034,7 +3038,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="38.25">
-      <c r="A44" s="74"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="27">
         <v>41609</v>
       </c>
@@ -3047,7 +3051,7 @@
       <c r="E44" s="69">
         <v>2</v>
       </c>
-      <c r="F44" s="73">
+      <c r="F44" s="91">
         <f>SUM(E44:E45)</f>
         <v>4</v>
       </c>
@@ -3066,8 +3070,8 @@
       <c r="M44" s="9"/>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:14" ht="25.5">
-      <c r="A45" s="75"/>
+    <row r="45" spans="1:14" ht="38.25">
+      <c r="A45" s="93"/>
       <c r="B45" s="27">
         <v>41609</v>
       </c>
@@ -3080,22 +3084,26 @@
       <c r="E45" s="69">
         <v>2</v>
       </c>
-      <c r="F45" s="75"/>
+      <c r="F45" s="93"/>
       <c r="G45" s="67" t="s">
         <v>22</v>
       </c>
       <c r="H45" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="I45" s="71"/>
-      <c r="J45" s="67"/>
+      <c r="I45" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="J45" s="67" t="s">
+        <v>153</v>
+      </c>
       <c r="K45" s="7"/>
       <c r="L45" s="5"/>
       <c r="M45" s="9"/>
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="76">
+      <c r="A46" s="94">
         <v>5</v>
       </c>
       <c r="B46" s="26">
@@ -3125,7 +3133,7 @@
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="77"/>
+      <c r="A47" s="95"/>
       <c r="B47" s="26">
         <v>41611</v>
       </c>
@@ -3153,7 +3161,7 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="77"/>
+      <c r="A48" s="95"/>
       <c r="B48" s="26">
         <v>41612</v>
       </c>
@@ -3181,7 +3189,7 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="77"/>
+      <c r="A49" s="95"/>
       <c r="B49" s="26">
         <v>41613</v>
       </c>
@@ -3209,7 +3217,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="78"/>
+      <c r="A50" s="90"/>
       <c r="B50" s="26">
         <v>41614</v>
       </c>
@@ -3237,7 +3245,7 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="73">
+      <c r="A51" s="91">
         <v>6</v>
       </c>
       <c r="B51" s="27">
@@ -3267,7 +3275,7 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="74"/>
+      <c r="A52" s="92"/>
       <c r="B52" s="27">
         <v>41618</v>
       </c>
@@ -3295,7 +3303,7 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="74"/>
+      <c r="A53" s="92"/>
       <c r="B53" s="27">
         <v>41619</v>
       </c>
@@ -3323,7 +3331,7 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="74"/>
+      <c r="A54" s="92"/>
       <c r="B54" s="27">
         <v>41620</v>
       </c>
@@ -3351,7 +3359,7 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="75"/>
+      <c r="A55" s="93"/>
       <c r="B55" s="27">
         <v>41621</v>
       </c>
@@ -3379,7 +3387,7 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="76">
+      <c r="A56" s="94">
         <v>7</v>
       </c>
       <c r="B56" s="26">
@@ -3409,7 +3417,7 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="77"/>
+      <c r="A57" s="95"/>
       <c r="B57" s="26">
         <v>41625</v>
       </c>
@@ -3437,7 +3445,7 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="77"/>
+      <c r="A58" s="95"/>
       <c r="B58" s="26">
         <v>41626</v>
       </c>
@@ -3465,7 +3473,7 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="77"/>
+      <c r="A59" s="95"/>
       <c r="B59" s="26">
         <v>41627</v>
       </c>
@@ -3482,7 +3490,7 @@
       <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="78"/>
+      <c r="A60" s="90"/>
       <c r="B60" s="26">
         <v>41628</v>
       </c>
@@ -3499,7 +3507,7 @@
       <c r="J60" s="29"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="73">
+      <c r="A61" s="91">
         <v>8</v>
       </c>
       <c r="B61" s="27">
@@ -3517,8 +3525,8 @@
       <c r="I61" s="67"/>
       <c r="J61" s="67"/>
     </row>
-    <row r="62" spans="1:14" ht="409.6">
-      <c r="A62" s="74"/>
+    <row r="62" spans="1:14">
+      <c r="A62" s="92"/>
       <c r="B62" s="27">
         <v>41632</v>
       </c>
@@ -3535,7 +3543,7 @@
       <c r="J62" s="67"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="74"/>
+      <c r="A63" s="92"/>
       <c r="B63" s="27">
         <v>41633</v>
       </c>
@@ -3552,7 +3560,7 @@
       <c r="J63" s="67"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="74"/>
+      <c r="A64" s="92"/>
       <c r="B64" s="27">
         <v>41634</v>
       </c>
@@ -3569,7 +3577,7 @@
       <c r="J64" s="67"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="75"/>
+      <c r="A65" s="93"/>
       <c r="B65" s="27">
         <v>41635</v>
       </c>
@@ -3586,7 +3594,7 @@
       <c r="J65" s="67"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="76">
+      <c r="A66" s="94">
         <v>9</v>
       </c>
       <c r="B66" s="26">
@@ -3605,7 +3613,7 @@
       <c r="J66" s="29"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="77"/>
+      <c r="A67" s="95"/>
       <c r="B67" s="26">
         <v>41639</v>
       </c>
@@ -3622,7 +3630,7 @@
       <c r="J67" s="29"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="77"/>
+      <c r="A68" s="95"/>
       <c r="B68" s="26">
         <v>41640</v>
       </c>
@@ -3639,7 +3647,7 @@
       <c r="J68" s="29"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="77"/>
+      <c r="A69" s="95"/>
       <c r="B69" s="26">
         <v>41641</v>
       </c>
@@ -3656,7 +3664,7 @@
       <c r="J69" s="29"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="78"/>
+      <c r="A70" s="90"/>
       <c r="B70" s="26">
         <v>41642</v>
       </c>
@@ -3673,7 +3681,7 @@
       <c r="J70" s="29"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="73">
+      <c r="A71" s="91">
         <v>10</v>
       </c>
       <c r="B71" s="27">
@@ -3692,7 +3700,7 @@
       <c r="J71" s="67"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="74"/>
+      <c r="A72" s="92"/>
       <c r="B72" s="27">
         <v>41646</v>
       </c>
@@ -3709,7 +3717,7 @@
       <c r="J72" s="67"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="74"/>
+      <c r="A73" s="92"/>
       <c r="B73" s="27">
         <v>41647</v>
       </c>
@@ -3726,7 +3734,7 @@
       <c r="J73" s="67"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="74"/>
+      <c r="A74" s="92"/>
       <c r="B74" s="27">
         <v>41648</v>
       </c>
@@ -3743,7 +3751,7 @@
       <c r="J74" s="67"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="75"/>
+      <c r="A75" s="93"/>
       <c r="B75" s="27">
         <v>41649</v>
       </c>
@@ -3760,7 +3768,7 @@
       <c r="J75" s="67"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="76">
+      <c r="A76" s="94">
         <v>11</v>
       </c>
       <c r="B76" s="26">
@@ -3779,7 +3787,7 @@
       <c r="J76" s="29"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="77"/>
+      <c r="A77" s="95"/>
       <c r="B77" s="26">
         <v>41653</v>
       </c>
@@ -3796,7 +3804,7 @@
       <c r="J77" s="29"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="77"/>
+      <c r="A78" s="95"/>
       <c r="B78" s="26">
         <v>41654</v>
       </c>
@@ -3813,7 +3821,7 @@
       <c r="J78" s="29"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="77"/>
+      <c r="A79" s="95"/>
       <c r="B79" s="26">
         <v>41655</v>
       </c>
@@ -3830,7 +3838,7 @@
       <c r="J79" s="29"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="78"/>
+      <c r="A80" s="90"/>
       <c r="B80" s="26">
         <v>41656</v>
       </c>
@@ -3847,7 +3855,7 @@
       <c r="J80" s="29"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="73">
+      <c r="A81" s="91">
         <v>12</v>
       </c>
       <c r="B81" s="27">
@@ -3866,7 +3874,7 @@
       <c r="J81" s="67"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="74"/>
+      <c r="A82" s="92"/>
       <c r="B82" s="27">
         <v>41660</v>
       </c>
@@ -3883,7 +3891,7 @@
       <c r="J82" s="67"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="74"/>
+      <c r="A83" s="92"/>
       <c r="B83" s="27">
         <v>41661</v>
       </c>
@@ -3900,7 +3908,7 @@
       <c r="J83" s="67"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="74"/>
+      <c r="A84" s="92"/>
       <c r="B84" s="27">
         <v>41662</v>
       </c>
@@ -3917,7 +3925,7 @@
       <c r="J84" s="67"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="75"/>
+      <c r="A85" s="93"/>
       <c r="B85" s="27">
         <v>41663</v>
       </c>
@@ -3934,7 +3942,7 @@
       <c r="J85" s="67"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="76">
+      <c r="A86" s="94">
         <v>13</v>
       </c>
       <c r="B86" s="26">
@@ -3955,7 +3963,7 @@
       <c r="J86" s="29"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="77"/>
+      <c r="A87" s="95"/>
       <c r="B87" s="26">
         <v>41667</v>
       </c>
@@ -3974,7 +3982,7 @@
       <c r="J87" s="29"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="77"/>
+      <c r="A88" s="95"/>
       <c r="B88" s="26">
         <v>41668</v>
       </c>
@@ -3993,7 +4001,7 @@
       <c r="J88" s="29"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="77"/>
+      <c r="A89" s="95"/>
       <c r="B89" s="26">
         <v>41669</v>
       </c>
@@ -4012,7 +4020,7 @@
       <c r="J89" s="29"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="78"/>
+      <c r="A90" s="90"/>
       <c r="B90" s="26">
         <v>41670</v>
       </c>
@@ -4031,7 +4039,7 @@
       <c r="J90" s="29"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="73">
+      <c r="A91" s="91">
         <v>14</v>
       </c>
       <c r="B91" s="27">
@@ -4052,7 +4060,7 @@
       <c r="J91" s="67"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="74"/>
+      <c r="A92" s="92"/>
       <c r="B92" s="27">
         <v>41674</v>
       </c>
@@ -4071,7 +4079,7 @@
       <c r="J92" s="67"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="74"/>
+      <c r="A93" s="92"/>
       <c r="B93" s="27">
         <v>41675</v>
       </c>
@@ -4090,7 +4098,7 @@
       <c r="J93" s="67"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="74"/>
+      <c r="A94" s="92"/>
       <c r="B94" s="27">
         <v>41676</v>
       </c>
@@ -4109,7 +4117,7 @@
       <c r="J94" s="67"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="75"/>
+      <c r="A95" s="93"/>
       <c r="B95" s="27">
         <v>41677</v>
       </c>
@@ -4128,7 +4136,7 @@
       <c r="J95" s="67"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="76">
+      <c r="A96" s="94">
         <v>15</v>
       </c>
       <c r="B96" s="26">
@@ -4147,7 +4155,7 @@
       <c r="J96" s="29"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="77"/>
+      <c r="A97" s="95"/>
       <c r="B97" s="26">
         <v>41681</v>
       </c>
@@ -4164,7 +4172,7 @@
       <c r="J97" s="29"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="77"/>
+      <c r="A98" s="95"/>
       <c r="B98" s="26">
         <v>41682</v>
       </c>
@@ -4181,7 +4189,7 @@
       <c r="J98" s="29"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="77"/>
+      <c r="A99" s="95"/>
       <c r="B99" s="26">
         <v>41683</v>
       </c>
@@ -4198,7 +4206,7 @@
       <c r="J99" s="29"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="78"/>
+      <c r="A100" s="90"/>
       <c r="B100" s="26">
         <v>41684</v>
       </c>
@@ -4215,7 +4223,7 @@
       <c r="J100" s="29"/>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="73">
+      <c r="A101" s="91">
         <v>16</v>
       </c>
       <c r="B101" s="27">
@@ -4234,7 +4242,7 @@
       <c r="J101" s="67"/>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="74"/>
+      <c r="A102" s="92"/>
       <c r="B102" s="27">
         <v>41688</v>
       </c>
@@ -4251,7 +4259,7 @@
       <c r="J102" s="67"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="74"/>
+      <c r="A103" s="92"/>
       <c r="B103" s="27">
         <v>41689</v>
       </c>
@@ -4268,7 +4276,7 @@
       <c r="J103" s="67"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="74"/>
+      <c r="A104" s="92"/>
       <c r="B104" s="27">
         <v>41690</v>
       </c>
@@ -4285,7 +4293,7 @@
       <c r="J104" s="67"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="75"/>
+      <c r="A105" s="93"/>
       <c r="B105" s="27">
         <v>41691</v>
       </c>
@@ -4302,7 +4310,7 @@
       <c r="J105" s="67"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="76">
+      <c r="A106" s="94">
         <v>17</v>
       </c>
       <c r="B106" s="26">
@@ -4321,7 +4329,7 @@
       <c r="J106" s="29"/>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="77"/>
+      <c r="A107" s="95"/>
       <c r="B107" s="26">
         <v>41695</v>
       </c>
@@ -4338,7 +4346,7 @@
       <c r="J107" s="29"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="77"/>
+      <c r="A108" s="95"/>
       <c r="B108" s="26">
         <v>41696</v>
       </c>
@@ -4355,7 +4363,7 @@
       <c r="J108" s="29"/>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="77"/>
+      <c r="A109" s="95"/>
       <c r="B109" s="26">
         <v>41697</v>
       </c>
@@ -4372,7 +4380,7 @@
       <c r="J109" s="29"/>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="78"/>
+      <c r="A110" s="90"/>
       <c r="B110" s="26">
         <v>41698</v>
       </c>
@@ -4389,7 +4397,7 @@
       <c r="J110" s="29"/>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="73">
+      <c r="A111" s="91">
         <v>18</v>
       </c>
       <c r="B111" s="27">
@@ -4408,7 +4416,7 @@
       <c r="J111" s="67"/>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="74"/>
+      <c r="A112" s="92"/>
       <c r="B112" s="27">
         <v>41702</v>
       </c>
@@ -4425,7 +4433,7 @@
       <c r="J112" s="67"/>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="74"/>
+      <c r="A113" s="92"/>
       <c r="B113" s="27">
         <v>41703</v>
       </c>
@@ -4442,7 +4450,7 @@
       <c r="J113" s="67"/>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="74"/>
+      <c r="A114" s="92"/>
       <c r="B114" s="27">
         <v>41704</v>
       </c>
@@ -4459,7 +4467,7 @@
       <c r="J114" s="67"/>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="75"/>
+      <c r="A115" s="93"/>
       <c r="B115" s="27">
         <v>41705</v>
       </c>
@@ -4476,7 +4484,7 @@
       <c r="J115" s="67"/>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="76">
+      <c r="A116" s="94">
         <v>19</v>
       </c>
       <c r="B116" s="26">
@@ -4495,7 +4503,7 @@
       <c r="J116" s="29"/>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="77"/>
+      <c r="A117" s="95"/>
       <c r="B117" s="26">
         <v>41709</v>
       </c>
@@ -4512,7 +4520,7 @@
       <c r="J117" s="29"/>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="77"/>
+      <c r="A118" s="95"/>
       <c r="B118" s="26">
         <v>41710</v>
       </c>
@@ -4529,7 +4537,7 @@
       <c r="J118" s="29"/>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="77"/>
+      <c r="A119" s="95"/>
       <c r="B119" s="26">
         <v>41711</v>
       </c>
@@ -4546,7 +4554,7 @@
       <c r="J119" s="29"/>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="78"/>
+      <c r="A120" s="90"/>
       <c r="B120" s="26">
         <v>41712</v>
       </c>
@@ -4563,7 +4571,7 @@
       <c r="J120" s="29"/>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="73">
+      <c r="A121" s="91">
         <v>20</v>
       </c>
       <c r="B121" s="27">
@@ -4582,7 +4590,7 @@
       <c r="J121" s="67"/>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="74"/>
+      <c r="A122" s="92"/>
       <c r="B122" s="27">
         <v>41716</v>
       </c>
@@ -4599,7 +4607,7 @@
       <c r="J122" s="67"/>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="74"/>
+      <c r="A123" s="92"/>
       <c r="B123" s="27">
         <v>41717</v>
       </c>
@@ -4616,7 +4624,7 @@
       <c r="J123" s="67"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="74"/>
+      <c r="A124" s="92"/>
       <c r="B124" s="27">
         <v>41718</v>
       </c>
@@ -4633,7 +4641,7 @@
       <c r="J124" s="67"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="75"/>
+      <c r="A125" s="93"/>
       <c r="B125" s="27">
         <v>41719</v>
       </c>
@@ -4650,7 +4658,7 @@
       <c r="J125" s="67"/>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="76">
+      <c r="A126" s="94">
         <v>21</v>
       </c>
       <c r="B126" s="26">
@@ -4669,7 +4677,7 @@
       <c r="J126" s="29"/>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="77"/>
+      <c r="A127" s="95"/>
       <c r="B127" s="26">
         <v>41723</v>
       </c>
@@ -4686,7 +4694,7 @@
       <c r="J127" s="29"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="77"/>
+      <c r="A128" s="95"/>
       <c r="B128" s="26">
         <v>41724</v>
       </c>
@@ -4703,7 +4711,7 @@
       <c r="J128" s="29"/>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="77"/>
+      <c r="A129" s="95"/>
       <c r="B129" s="26">
         <v>41725</v>
       </c>
@@ -4720,7 +4728,7 @@
       <c r="J129" s="29"/>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="78"/>
+      <c r="A130" s="90"/>
       <c r="B130" s="26">
         <v>41726</v>
       </c>
@@ -4737,7 +4745,7 @@
       <c r="J130" s="29"/>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="73">
+      <c r="A131" s="91">
         <v>22</v>
       </c>
       <c r="B131" s="27">
@@ -4756,7 +4764,7 @@
       <c r="J131" s="67"/>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="74"/>
+      <c r="A132" s="92"/>
       <c r="B132" s="27">
         <v>41730</v>
       </c>
@@ -4773,7 +4781,7 @@
       <c r="J132" s="67"/>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="74"/>
+      <c r="A133" s="92"/>
       <c r="B133" s="27">
         <v>41731</v>
       </c>
@@ -4790,7 +4798,7 @@
       <c r="J133" s="67"/>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="74"/>
+      <c r="A134" s="92"/>
       <c r="B134" s="27">
         <v>41732</v>
       </c>
@@ -4807,7 +4815,7 @@
       <c r="J134" s="67"/>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="75"/>
+      <c r="A135" s="93"/>
       <c r="B135" s="27">
         <v>41733</v>
       </c>
@@ -4824,7 +4832,7 @@
       <c r="J135" s="67"/>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="76">
+      <c r="A136" s="94">
         <v>23</v>
       </c>
       <c r="B136" s="26">
@@ -4843,7 +4851,7 @@
       <c r="J136" s="29"/>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="77"/>
+      <c r="A137" s="95"/>
       <c r="B137" s="26">
         <v>41737</v>
       </c>
@@ -4860,7 +4868,7 @@
       <c r="J137" s="29"/>
     </row>
     <row r="138" spans="1:10">
-      <c r="A138" s="77"/>
+      <c r="A138" s="95"/>
       <c r="B138" s="26">
         <v>41738</v>
       </c>
@@ -4877,7 +4885,7 @@
       <c r="J138" s="29"/>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="77"/>
+      <c r="A139" s="95"/>
       <c r="B139" s="26">
         <v>41739</v>
       </c>
@@ -4894,7 +4902,7 @@
       <c r="J139" s="29"/>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="78"/>
+      <c r="A140" s="90"/>
       <c r="B140" s="26">
         <v>41740</v>
       </c>
@@ -4911,7 +4919,7 @@
       <c r="J140" s="29"/>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="73">
+      <c r="A141" s="91">
         <v>24</v>
       </c>
       <c r="B141" s="27">
@@ -4930,7 +4938,7 @@
       <c r="J141" s="67"/>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="74"/>
+      <c r="A142" s="92"/>
       <c r="B142" s="27">
         <v>41744</v>
       </c>
@@ -4947,7 +4955,7 @@
       <c r="J142" s="67"/>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="74"/>
+      <c r="A143" s="92"/>
       <c r="B143" s="27">
         <v>41745</v>
       </c>
@@ -4964,7 +4972,7 @@
       <c r="J143" s="67"/>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="74"/>
+      <c r="A144" s="92"/>
       <c r="B144" s="27">
         <v>41746</v>
       </c>
@@ -4981,7 +4989,7 @@
       <c r="J144" s="67"/>
     </row>
     <row r="145" spans="1:10">
-      <c r="A145" s="75"/>
+      <c r="A145" s="93"/>
       <c r="B145" s="27">
         <v>41747</v>
       </c>
@@ -4998,7 +5006,7 @@
       <c r="J145" s="67"/>
     </row>
     <row r="146" spans="1:10">
-      <c r="A146" s="76">
+      <c r="A146" s="94">
         <v>25</v>
       </c>
       <c r="B146" s="26">
@@ -5017,7 +5025,7 @@
       <c r="J146" s="29"/>
     </row>
     <row r="147" spans="1:10">
-      <c r="A147" s="77"/>
+      <c r="A147" s="95"/>
       <c r="B147" s="26">
         <v>41751</v>
       </c>
@@ -5034,7 +5042,7 @@
       <c r="J147" s="29"/>
     </row>
     <row r="148" spans="1:10">
-      <c r="A148" s="77"/>
+      <c r="A148" s="95"/>
       <c r="B148" s="26">
         <v>41752</v>
       </c>
@@ -5051,7 +5059,7 @@
       <c r="J148" s="29"/>
     </row>
     <row r="149" spans="1:10">
-      <c r="A149" s="77"/>
+      <c r="A149" s="95"/>
       <c r="B149" s="26">
         <v>41753</v>
       </c>
@@ -5068,7 +5076,7 @@
       <c r="J149" s="29"/>
     </row>
     <row r="150" spans="1:10">
-      <c r="A150" s="78"/>
+      <c r="A150" s="90"/>
       <c r="B150" s="26">
         <v>41754</v>
       </c>
@@ -5085,7 +5093,7 @@
       <c r="J150" s="29"/>
     </row>
     <row r="151" spans="1:10">
-      <c r="A151" s="73">
+      <c r="A151" s="91">
         <v>26</v>
       </c>
       <c r="B151" s="27">
@@ -5104,7 +5112,7 @@
       <c r="J151" s="67"/>
     </row>
     <row r="152" spans="1:10">
-      <c r="A152" s="74"/>
+      <c r="A152" s="92"/>
       <c r="B152" s="27">
         <v>41758</v>
       </c>
@@ -5121,7 +5129,7 @@
       <c r="J152" s="67"/>
     </row>
     <row r="153" spans="1:10">
-      <c r="A153" s="74"/>
+      <c r="A153" s="92"/>
       <c r="B153" s="27">
         <v>41759</v>
       </c>
@@ -5138,7 +5146,7 @@
       <c r="J153" s="67"/>
     </row>
     <row r="154" spans="1:10">
-      <c r="A154" s="74"/>
+      <c r="A154" s="92"/>
       <c r="B154" s="27">
         <v>41760</v>
       </c>
@@ -5155,7 +5163,7 @@
       <c r="J154" s="67"/>
     </row>
     <row r="155" spans="1:10">
-      <c r="A155" s="75"/>
+      <c r="A155" s="93"/>
       <c r="B155" s="27">
         <v>41761</v>
       </c>
@@ -5172,7 +5180,7 @@
       <c r="J155" s="67"/>
     </row>
     <row r="156" spans="1:10">
-      <c r="A156" s="76">
+      <c r="A156" s="94">
         <v>27</v>
       </c>
       <c r="B156" s="26">
@@ -5191,7 +5199,7 @@
       <c r="J156" s="29"/>
     </row>
     <row r="157" spans="1:10">
-      <c r="A157" s="77"/>
+      <c r="A157" s="95"/>
       <c r="B157" s="26">
         <v>41765</v>
       </c>
@@ -5208,7 +5216,7 @@
       <c r="J157" s="29"/>
     </row>
     <row r="158" spans="1:10">
-      <c r="A158" s="77"/>
+      <c r="A158" s="95"/>
       <c r="B158" s="26">
         <v>41766</v>
       </c>
@@ -5225,7 +5233,7 @@
       <c r="J158" s="29"/>
     </row>
     <row r="159" spans="1:10">
-      <c r="A159" s="77"/>
+      <c r="A159" s="95"/>
       <c r="B159" s="26">
         <v>41767</v>
       </c>
@@ -5242,7 +5250,7 @@
       <c r="J159" s="29"/>
     </row>
     <row r="160" spans="1:10">
-      <c r="A160" s="78"/>
+      <c r="A160" s="90"/>
       <c r="B160" s="26">
         <v>41768</v>
       </c>
@@ -5259,7 +5267,7 @@
       <c r="J160" s="29"/>
     </row>
     <row r="161" spans="1:10">
-      <c r="A161" s="73">
+      <c r="A161" s="91">
         <v>28</v>
       </c>
       <c r="B161" s="27">
@@ -5278,7 +5286,7 @@
       <c r="J161" s="67"/>
     </row>
     <row r="162" spans="1:10">
-      <c r="A162" s="74"/>
+      <c r="A162" s="92"/>
       <c r="B162" s="27">
         <v>41772</v>
       </c>
@@ -5295,7 +5303,7 @@
       <c r="J162" s="67"/>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="74"/>
+      <c r="A163" s="92"/>
       <c r="B163" s="27">
         <v>41773</v>
       </c>
@@ -5312,7 +5320,7 @@
       <c r="J163" s="67"/>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="74"/>
+      <c r="A164" s="92"/>
       <c r="B164" s="27">
         <v>41774</v>
       </c>
@@ -5329,7 +5337,7 @@
       <c r="J164" s="67"/>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="75"/>
+      <c r="A165" s="93"/>
       <c r="B165" s="27">
         <v>41775</v>
       </c>
@@ -5346,7 +5354,7 @@
       <c r="J165" s="67"/>
     </row>
     <row r="166" spans="1:10">
-      <c r="A166" s="76">
+      <c r="A166" s="94">
         <v>29</v>
       </c>
       <c r="B166" s="26">
@@ -5365,7 +5373,7 @@
       <c r="J166" s="29"/>
     </row>
     <row r="167" spans="1:10">
-      <c r="A167" s="77"/>
+      <c r="A167" s="95"/>
       <c r="B167" s="26">
         <v>41779</v>
       </c>
@@ -5382,7 +5390,7 @@
       <c r="J167" s="29"/>
     </row>
     <row r="168" spans="1:10">
-      <c r="A168" s="77"/>
+      <c r="A168" s="95"/>
       <c r="B168" s="26">
         <v>41780</v>
       </c>
@@ -5399,7 +5407,7 @@
       <c r="J168" s="29"/>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="77"/>
+      <c r="A169" s="95"/>
       <c r="B169" s="26">
         <v>41781</v>
       </c>
@@ -5416,7 +5424,7 @@
       <c r="J169" s="29"/>
     </row>
     <row r="170" spans="1:10">
-      <c r="A170" s="78"/>
+      <c r="A170" s="90"/>
       <c r="B170" s="26">
         <v>41782</v>
       </c>
@@ -5433,7 +5441,7 @@
       <c r="J170" s="29"/>
     </row>
     <row r="171" spans="1:10">
-      <c r="A171" s="79">
+      <c r="A171" s="136">
         <v>30</v>
       </c>
       <c r="B171" s="27">
@@ -5452,7 +5460,7 @@
       <c r="J171" s="37"/>
     </row>
     <row r="172" spans="1:10">
-      <c r="A172" s="80"/>
+      <c r="A172" s="137"/>
       <c r="B172" s="27">
         <v>41786</v>
       </c>
@@ -5469,7 +5477,7 @@
       <c r="J172" s="37"/>
     </row>
     <row r="173" spans="1:10">
-      <c r="A173" s="80"/>
+      <c r="A173" s="137"/>
       <c r="B173" s="27">
         <v>41787</v>
       </c>
@@ -5486,7 +5494,7 @@
       <c r="J173" s="37"/>
     </row>
     <row r="174" spans="1:10">
-      <c r="A174" s="80"/>
+      <c r="A174" s="137"/>
       <c r="B174" s="27">
         <v>41788</v>
       </c>
@@ -5503,7 +5511,7 @@
       <c r="J174" s="37"/>
     </row>
     <row r="175" spans="1:10">
-      <c r="A175" s="81"/>
+      <c r="A175" s="138"/>
       <c r="B175" s="27">
         <v>41789</v>
       </c>
@@ -5629,11 +5637,31 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A95"/>
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A46:A50"/>
@@ -5645,6 +5673,15 @@
     <mergeCell ref="F40:F42"/>
     <mergeCell ref="A33:A45"/>
     <mergeCell ref="F44:F45"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A19:A32"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F31:F32"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="B8:B9"/>
@@ -5653,38 +5690,9 @@
     <mergeCell ref="A10:A18"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A19:A32"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A161:A165"/>
-    <mergeCell ref="A166:A170"/>
-    <mergeCell ref="A171:A175"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A95"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="156">
   <si>
     <t>Week</t>
   </si>
@@ -515,6 +515,16 @@
   </si>
   <si>
     <t>các thành viên chưa hoàn thành đầy đủ những yêu cầu đặt ra</t>
+  </si>
+  <si>
+    <t>6:00PM</t>
+  </si>
+  <si>
+    <t>Create Operation requirement viet version
+Update Operation requirement
+Systhesis task works devided for team members:
++ Entities
++ Functional &amp; Quality Attribute</t>
   </si>
 </sst>
 </file>
@@ -1032,6 +1042,78 @@
     <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,36 +1162,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1179,56 +1231,14 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1540,7 +1550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1669,7 +1679,7 @@
       <pane xSplit="6" ySplit="6" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1690,81 +1700,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="75"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="99"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="76" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="78"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="81"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="84"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="128"/>
       <c r="F5" s="15"/>
       <c r="H5" s="41" t="s">
         <v>64</v>
@@ -1809,13 +1819,13 @@
       <c r="J6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
     </row>
     <row r="7" spans="1:15" ht="38.25">
-      <c r="A7" s="85">
+      <c r="A7" s="109">
         <v>1</v>
       </c>
       <c r="B7" s="16">
@@ -1841,21 +1851,21 @@
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="127" t="s">
+      <c r="K7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="127"/>
+      <c r="L7" s="136"/>
       <c r="M7" s="32">
         <f>SUM(M8:M58)</f>
-        <v>66.649999999999991</v>
+        <v>70.649999999999991</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="108">
+      <c r="A8" s="110"/>
+      <c r="B8" s="122">
         <v>41586</v>
       </c>
       <c r="C8" s="17">
@@ -1867,7 +1877,7 @@
       <c r="E8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="110">
+      <c r="F8" s="124">
         <v>1.67</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -1891,8 +1901,8 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="87"/>
-      <c r="B9" s="109"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1902,7 +1912,7 @@
       <c r="E9" s="18">
         <v>0.5</v>
       </c>
-      <c r="F9" s="111"/>
+      <c r="F9" s="125"/>
       <c r="G9" s="29" t="s">
         <v>23</v>
       </c>
@@ -1913,10 +1923,10 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:15" s="63" customFormat="1">
-      <c r="A10" s="115">
+      <c r="A10" s="129">
         <v>2</v>
       </c>
-      <c r="B10" s="118">
+      <c r="B10" s="132">
         <v>41589</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -1928,7 +1938,7 @@
       <c r="E10" s="59">
         <v>2.5</v>
       </c>
-      <c r="F10" s="120">
+      <c r="F10" s="134">
         <f>SUM(E10:E11)</f>
         <v>5</v>
       </c>
@@ -1942,8 +1952,8 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="116"/>
-      <c r="B11" s="119"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="58" t="s">
         <v>76</v>
       </c>
@@ -1953,7 +1963,7 @@
       <c r="E11" s="59">
         <v>2.5</v>
       </c>
-      <c r="F11" s="121"/>
+      <c r="F11" s="135"/>
       <c r="G11" s="60" t="s">
         <v>22</v>
       </c>
@@ -1966,8 +1976,8 @@
       <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:15" ht="63.75">
-      <c r="A12" s="116"/>
-      <c r="B12" s="128">
+      <c r="A12" s="130"/>
+      <c r="B12" s="82">
         <v>41590</v>
       </c>
       <c r="C12" s="22">
@@ -1979,7 +1989,7 @@
       <c r="E12" s="23">
         <v>2.25</v>
       </c>
-      <c r="F12" s="130">
+      <c r="F12" s="137">
         <v>3.75</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -2006,8 +2016,8 @@
       <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A13" s="116"/>
-      <c r="B13" s="129"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="22">
         <v>0.91666666666666663</v>
       </c>
@@ -2017,7 +2027,7 @@
       <c r="E13" s="23">
         <v>1.5</v>
       </c>
-      <c r="F13" s="131"/>
+      <c r="F13" s="138"/>
       <c r="G13" s="45" t="s">
         <v>28</v>
       </c>
@@ -2033,8 +2043,8 @@
       <c r="O13" s="34"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A14" s="116"/>
-      <c r="B14" s="128">
+      <c r="A14" s="130"/>
+      <c r="B14" s="82">
         <v>41591</v>
       </c>
       <c r="C14" s="22">
@@ -2046,7 +2056,7 @@
       <c r="E14" s="23">
         <v>2</v>
       </c>
-      <c r="F14" s="133">
+      <c r="F14" s="85">
         <v>4.5</v>
       </c>
       <c r="G14" s="45" t="s">
@@ -2064,8 +2074,8 @@
       <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:15" ht="25.5">
-      <c r="A15" s="116"/>
-      <c r="B15" s="132"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="25">
         <v>0.5625</v>
       </c>
@@ -2075,7 +2085,7 @@
       <c r="E15" s="28">
         <v>2</v>
       </c>
-      <c r="F15" s="134"/>
+      <c r="F15" s="86"/>
       <c r="G15" s="30" t="s">
         <v>19</v>
       </c>
@@ -2092,8 +2102,8 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="116"/>
-      <c r="B16" s="129"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="25">
         <v>0.83333333333333337</v>
       </c>
@@ -2103,7 +2113,7 @@
       <c r="E16" s="28">
         <v>0.5</v>
       </c>
-      <c r="F16" s="135"/>
+      <c r="F16" s="87"/>
       <c r="G16" s="45" t="s">
         <v>28</v>
       </c>
@@ -2127,7 +2137,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A17" s="116"/>
+      <c r="A17" s="130"/>
       <c r="B17" s="47">
         <v>41592</v>
       </c>
@@ -2166,7 +2176,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5">
-      <c r="A18" s="117"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="42">
         <v>41593</v>
       </c>
@@ -2198,17 +2208,17 @@
       <c r="L18" s="5"/>
       <c r="M18" s="9">
         <f>SUM(E46:E50)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="124">
+      <c r="A19" s="94">
         <v>3</v>
       </c>
-      <c r="B19" s="122">
+      <c r="B19" s="92">
         <v>41596</v>
       </c>
       <c r="C19" s="53" t="s">
@@ -2220,7 +2230,7 @@
       <c r="E19" s="50">
         <v>0.5</v>
       </c>
-      <c r="F19" s="89">
+      <c r="F19" s="88">
         <f>SUM(E19:E20)</f>
         <v>3.5</v>
       </c>
@@ -2247,8 +2257,8 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="125"/>
-      <c r="B20" s="123"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="53" t="s">
         <v>81</v>
       </c>
@@ -2258,7 +2268,7 @@
       <c r="E20" s="50">
         <v>3</v>
       </c>
-      <c r="F20" s="90"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="49" t="s">
         <v>22</v>
       </c>
@@ -2275,8 +2285,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="125"/>
-      <c r="B21" s="122">
+      <c r="A21" s="95"/>
+      <c r="B21" s="92">
         <v>41597</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -2288,7 +2298,7 @@
       <c r="E21" s="50">
         <v>2</v>
       </c>
-      <c r="F21" s="89">
+      <c r="F21" s="88">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2308,8 +2318,8 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="125"/>
-      <c r="B22" s="123"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="53" t="s">
         <v>84</v>
       </c>
@@ -2319,7 +2329,7 @@
       <c r="E22" s="50">
         <v>0.5</v>
       </c>
-      <c r="F22" s="90"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="49" t="s">
         <v>22</v>
       </c>
@@ -2343,7 +2353,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="39">
-      <c r="A23" s="125"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="26">
         <v>41598</v>
       </c>
@@ -2383,7 +2393,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="26.25">
-      <c r="A24" s="125"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="26">
         <v>41599</v>
       </c>
@@ -2396,7 +2406,7 @@
       <c r="E24" s="50">
         <v>1</v>
       </c>
-      <c r="F24" s="89">
+      <c r="F24" s="88">
         <f>SUM(E24:E28)</f>
         <v>6.9</v>
       </c>
@@ -2414,7 +2424,7 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="125"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="26">
         <v>41599</v>
       </c>
@@ -2427,7 +2437,7 @@
       <c r="E25" s="50">
         <v>1.3</v>
       </c>
-      <c r="F25" s="96"/>
+      <c r="F25" s="89"/>
       <c r="G25" s="57" t="s">
         <v>19</v>
       </c>
@@ -2442,7 +2452,7 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="125"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="26">
         <v>41599</v>
       </c>
@@ -2455,7 +2465,7 @@
       <c r="E26" s="50">
         <v>1.5</v>
       </c>
-      <c r="F26" s="96"/>
+      <c r="F26" s="89"/>
       <c r="G26" s="57" t="s">
         <v>22</v>
       </c>
@@ -2472,7 +2482,7 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="125"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="26">
         <v>41599</v>
       </c>
@@ -2485,7 +2495,7 @@
       <c r="E27" s="50">
         <v>2.1</v>
       </c>
-      <c r="F27" s="96"/>
+      <c r="F27" s="89"/>
       <c r="G27" s="29" t="s">
         <v>19</v>
       </c>
@@ -2507,7 +2517,7 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="125"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="26">
         <v>41599</v>
       </c>
@@ -2520,7 +2530,7 @@
       <c r="E28" s="50">
         <v>1</v>
       </c>
-      <c r="F28" s="97"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="29" t="s">
         <v>22</v>
       </c>
@@ -2535,7 +2545,7 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="125"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="26">
         <v>41600</v>
       </c>
@@ -2548,7 +2558,7 @@
       <c r="E29" s="50">
         <v>1.2</v>
       </c>
-      <c r="F29" s="89">
+      <c r="F29" s="88">
         <f>SUM(E29:E30)</f>
         <v>3.2</v>
       </c>
@@ -2564,7 +2574,7 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="51">
-      <c r="A30" s="125"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="26">
         <v>41600</v>
       </c>
@@ -2577,7 +2587,7 @@
       <c r="E30" s="50">
         <v>2</v>
       </c>
-      <c r="F30" s="90"/>
+      <c r="F30" s="78"/>
       <c r="G30" s="57" t="s">
         <v>22</v>
       </c>
@@ -2599,7 +2609,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="25.5">
-      <c r="A31" s="125"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="26">
         <v>41601</v>
       </c>
@@ -2612,7 +2622,7 @@
       <c r="E31" s="50">
         <v>3.5</v>
       </c>
-      <c r="F31" s="89">
+      <c r="F31" s="88">
         <f>SUM(E31:E32)</f>
         <v>4.4000000000000004</v>
       </c>
@@ -2632,7 +2642,7 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="126"/>
+      <c r="A32" s="96"/>
       <c r="B32" s="26">
         <v>41601</v>
       </c>
@@ -2645,7 +2655,7 @@
       <c r="E32" s="50">
         <v>0.9</v>
       </c>
-      <c r="F32" s="90"/>
+      <c r="F32" s="78"/>
       <c r="G32" s="57" t="s">
         <v>22</v>
       </c>
@@ -2662,7 +2672,7 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" ht="38.25">
-      <c r="A33" s="91">
+      <c r="A33" s="73">
         <v>4</v>
       </c>
       <c r="B33" s="27">
@@ -2704,7 +2714,7 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="92"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="27">
         <v>41604</v>
       </c>
@@ -2717,7 +2727,7 @@
       <c r="E34" s="28">
         <v>1</v>
       </c>
-      <c r="F34" s="98">
+      <c r="F34" s="91">
         <f>SUM(E34:E37)</f>
         <v>5.75</v>
       </c>
@@ -2735,7 +2745,7 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="92"/>
+      <c r="A35" s="74"/>
       <c r="B35" s="27">
         <v>41604</v>
       </c>
@@ -2748,7 +2758,7 @@
       <c r="E35" s="28">
         <v>1.5</v>
       </c>
-      <c r="F35" s="92"/>
+      <c r="F35" s="74"/>
       <c r="G35" s="67" t="s">
         <v>23</v>
       </c>
@@ -2765,7 +2775,7 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="92"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="27">
         <v>41604</v>
       </c>
@@ -2778,7 +2788,7 @@
       <c r="E36" s="28">
         <v>1.25</v>
       </c>
-      <c r="F36" s="92"/>
+      <c r="F36" s="74"/>
       <c r="G36" s="67" t="s">
         <v>19</v>
       </c>
@@ -2795,7 +2805,7 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="51">
-      <c r="A37" s="92"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="27">
         <v>41604</v>
       </c>
@@ -2808,7 +2818,7 @@
       <c r="E37" s="69">
         <v>2</v>
       </c>
-      <c r="F37" s="93"/>
+      <c r="F37" s="75"/>
       <c r="G37" s="67" t="s">
         <v>22</v>
       </c>
@@ -2834,7 +2844,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="92"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="27">
         <v>41605</v>
       </c>
@@ -2847,7 +2857,7 @@
       <c r="E38" s="69">
         <v>2.33</v>
       </c>
-      <c r="F38" s="91">
+      <c r="F38" s="73">
         <f>SUM(E38:E39)</f>
         <v>2.83</v>
       </c>
@@ -2872,7 +2882,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="25.5">
-      <c r="A39" s="92"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="27">
         <v>41605</v>
       </c>
@@ -2885,7 +2895,7 @@
       <c r="E39" s="69">
         <v>0.5</v>
       </c>
-      <c r="F39" s="93"/>
+      <c r="F39" s="75"/>
       <c r="G39" s="67" t="s">
         <v>22</v>
       </c>
@@ -2902,7 +2912,7 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="92"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="27">
         <v>41606</v>
       </c>
@@ -2915,7 +2925,7 @@
       <c r="E40" s="69">
         <v>1.33</v>
       </c>
-      <c r="F40" s="91">
+      <c r="F40" s="73">
         <f>SUM(E40:E42)</f>
         <v>5.83</v>
       </c>
@@ -2933,7 +2943,7 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="92"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="27">
         <v>41606</v>
       </c>
@@ -2946,7 +2956,7 @@
       <c r="E41" s="69">
         <v>1.75</v>
       </c>
-      <c r="F41" s="92"/>
+      <c r="F41" s="74"/>
       <c r="G41" s="67" t="s">
         <v>25</v>
       </c>
@@ -2961,7 +2971,7 @@
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" ht="25.5">
-      <c r="A42" s="92"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="27">
         <v>41606</v>
       </c>
@@ -2974,7 +2984,7 @@
       <c r="E42" s="69">
         <v>2.75</v>
       </c>
-      <c r="F42" s="93"/>
+      <c r="F42" s="75"/>
       <c r="G42" s="67" t="s">
         <v>19</v>
       </c>
@@ -2998,7 +3008,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="51">
-      <c r="A43" s="92"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="27">
         <v>41607</v>
       </c>
@@ -3038,7 +3048,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="38.25">
-      <c r="A44" s="92"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="27">
         <v>41609</v>
       </c>
@@ -3051,7 +3061,7 @@
       <c r="E44" s="69">
         <v>2</v>
       </c>
-      <c r="F44" s="91">
+      <c r="F44" s="73">
         <f>SUM(E44:E45)</f>
         <v>4</v>
       </c>
@@ -3071,7 +3081,7 @@
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" ht="38.25">
-      <c r="A45" s="93"/>
+      <c r="A45" s="75"/>
       <c r="B45" s="27">
         <v>41609</v>
       </c>
@@ -3084,7 +3094,7 @@
       <c r="E45" s="69">
         <v>2</v>
       </c>
-      <c r="F45" s="93"/>
+      <c r="F45" s="75"/>
       <c r="G45" s="67" t="s">
         <v>22</v>
       </c>
@@ -3102,22 +3112,32 @@
       <c r="M45" s="9"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="94">
+    <row r="46" spans="1:14" ht="63.75">
+      <c r="A46" s="76">
         <v>5</v>
       </c>
       <c r="B46" s="26">
         <v>41610</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
+      <c r="C46" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="55">
+        <v>4</v>
+      </c>
       <c r="F46" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="65" t="s">
+        <v>155</v>
+      </c>
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
       <c r="K46" s="7" t="s">
@@ -3133,7 +3153,7 @@
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="95"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="26">
         <v>41611</v>
       </c>
@@ -3161,7 +3181,7 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="95"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="26">
         <v>41612</v>
       </c>
@@ -3189,7 +3209,7 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="95"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="26">
         <v>41613</v>
       </c>
@@ -3217,7 +3237,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="90"/>
+      <c r="A50" s="78"/>
       <c r="B50" s="26">
         <v>41614</v>
       </c>
@@ -3245,7 +3265,7 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="91">
+      <c r="A51" s="73">
         <v>6</v>
       </c>
       <c r="B51" s="27">
@@ -3275,7 +3295,7 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="92"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="27">
         <v>41618</v>
       </c>
@@ -3303,7 +3323,7 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="92"/>
+      <c r="A53" s="74"/>
       <c r="B53" s="27">
         <v>41619</v>
       </c>
@@ -3331,7 +3351,7 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="92"/>
+      <c r="A54" s="74"/>
       <c r="B54" s="27">
         <v>41620</v>
       </c>
@@ -3359,7 +3379,7 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="93"/>
+      <c r="A55" s="75"/>
       <c r="B55" s="27">
         <v>41621</v>
       </c>
@@ -3387,7 +3407,7 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="94">
+      <c r="A56" s="76">
         <v>7</v>
       </c>
       <c r="B56" s="26">
@@ -3417,7 +3437,7 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="95"/>
+      <c r="A57" s="77"/>
       <c r="B57" s="26">
         <v>41625</v>
       </c>
@@ -3445,7 +3465,7 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="95"/>
+      <c r="A58" s="77"/>
       <c r="B58" s="26">
         <v>41626</v>
       </c>
@@ -3473,7 +3493,7 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="95"/>
+      <c r="A59" s="77"/>
       <c r="B59" s="26">
         <v>41627</v>
       </c>
@@ -3490,7 +3510,7 @@
       <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="90"/>
+      <c r="A60" s="78"/>
       <c r="B60" s="26">
         <v>41628</v>
       </c>
@@ -3507,7 +3527,7 @@
       <c r="J60" s="29"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="91">
+      <c r="A61" s="73">
         <v>8</v>
       </c>
       <c r="B61" s="27">
@@ -3526,7 +3546,7 @@
       <c r="J61" s="67"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="92"/>
+      <c r="A62" s="74"/>
       <c r="B62" s="27">
         <v>41632</v>
       </c>
@@ -3543,7 +3563,7 @@
       <c r="J62" s="67"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="92"/>
+      <c r="A63" s="74"/>
       <c r="B63" s="27">
         <v>41633</v>
       </c>
@@ -3560,7 +3580,7 @@
       <c r="J63" s="67"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="92"/>
+      <c r="A64" s="74"/>
       <c r="B64" s="27">
         <v>41634</v>
       </c>
@@ -3577,7 +3597,7 @@
       <c r="J64" s="67"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="93"/>
+      <c r="A65" s="75"/>
       <c r="B65" s="27">
         <v>41635</v>
       </c>
@@ -3594,7 +3614,7 @@
       <c r="J65" s="67"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="94">
+      <c r="A66" s="76">
         <v>9</v>
       </c>
       <c r="B66" s="26">
@@ -3613,7 +3633,7 @@
       <c r="J66" s="29"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="95"/>
+      <c r="A67" s="77"/>
       <c r="B67" s="26">
         <v>41639</v>
       </c>
@@ -3630,7 +3650,7 @@
       <c r="J67" s="29"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="95"/>
+      <c r="A68" s="77"/>
       <c r="B68" s="26">
         <v>41640</v>
       </c>
@@ -3647,7 +3667,7 @@
       <c r="J68" s="29"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="95"/>
+      <c r="A69" s="77"/>
       <c r="B69" s="26">
         <v>41641</v>
       </c>
@@ -3664,7 +3684,7 @@
       <c r="J69" s="29"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="90"/>
+      <c r="A70" s="78"/>
       <c r="B70" s="26">
         <v>41642</v>
       </c>
@@ -3681,7 +3701,7 @@
       <c r="J70" s="29"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="91">
+      <c r="A71" s="73">
         <v>10</v>
       </c>
       <c r="B71" s="27">
@@ -3700,7 +3720,7 @@
       <c r="J71" s="67"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="92"/>
+      <c r="A72" s="74"/>
       <c r="B72" s="27">
         <v>41646</v>
       </c>
@@ -3717,7 +3737,7 @@
       <c r="J72" s="67"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="92"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="27">
         <v>41647</v>
       </c>
@@ -3734,7 +3754,7 @@
       <c r="J73" s="67"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="92"/>
+      <c r="A74" s="74"/>
       <c r="B74" s="27">
         <v>41648</v>
       </c>
@@ -3751,7 +3771,7 @@
       <c r="J74" s="67"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="93"/>
+      <c r="A75" s="75"/>
       <c r="B75" s="27">
         <v>41649</v>
       </c>
@@ -3768,7 +3788,7 @@
       <c r="J75" s="67"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="94">
+      <c r="A76" s="76">
         <v>11</v>
       </c>
       <c r="B76" s="26">
@@ -3787,7 +3807,7 @@
       <c r="J76" s="29"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="95"/>
+      <c r="A77" s="77"/>
       <c r="B77" s="26">
         <v>41653</v>
       </c>
@@ -3804,7 +3824,7 @@
       <c r="J77" s="29"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="95"/>
+      <c r="A78" s="77"/>
       <c r="B78" s="26">
         <v>41654</v>
       </c>
@@ -3821,7 +3841,7 @@
       <c r="J78" s="29"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="95"/>
+      <c r="A79" s="77"/>
       <c r="B79" s="26">
         <v>41655</v>
       </c>
@@ -3838,7 +3858,7 @@
       <c r="J79" s="29"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="90"/>
+      <c r="A80" s="78"/>
       <c r="B80" s="26">
         <v>41656</v>
       </c>
@@ -3855,7 +3875,7 @@
       <c r="J80" s="29"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="91">
+      <c r="A81" s="73">
         <v>12</v>
       </c>
       <c r="B81" s="27">
@@ -3874,7 +3894,7 @@
       <c r="J81" s="67"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="92"/>
+      <c r="A82" s="74"/>
       <c r="B82" s="27">
         <v>41660</v>
       </c>
@@ -3891,7 +3911,7 @@
       <c r="J82" s="67"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="92"/>
+      <c r="A83" s="74"/>
       <c r="B83" s="27">
         <v>41661</v>
       </c>
@@ -3908,7 +3928,7 @@
       <c r="J83" s="67"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="92"/>
+      <c r="A84" s="74"/>
       <c r="B84" s="27">
         <v>41662</v>
       </c>
@@ -3925,7 +3945,7 @@
       <c r="J84" s="67"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="93"/>
+      <c r="A85" s="75"/>
       <c r="B85" s="27">
         <v>41663</v>
       </c>
@@ -3942,7 +3962,7 @@
       <c r="J85" s="67"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="94">
+      <c r="A86" s="76">
         <v>13</v>
       </c>
       <c r="B86" s="26">
@@ -3963,7 +3983,7 @@
       <c r="J86" s="29"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="95"/>
+      <c r="A87" s="77"/>
       <c r="B87" s="26">
         <v>41667</v>
       </c>
@@ -3982,7 +4002,7 @@
       <c r="J87" s="29"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="95"/>
+      <c r="A88" s="77"/>
       <c r="B88" s="26">
         <v>41668</v>
       </c>
@@ -4001,7 +4021,7 @@
       <c r="J88" s="29"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="95"/>
+      <c r="A89" s="77"/>
       <c r="B89" s="26">
         <v>41669</v>
       </c>
@@ -4020,7 +4040,7 @@
       <c r="J89" s="29"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="90"/>
+      <c r="A90" s="78"/>
       <c r="B90" s="26">
         <v>41670</v>
       </c>
@@ -4039,7 +4059,7 @@
       <c r="J90" s="29"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="91">
+      <c r="A91" s="73">
         <v>14</v>
       </c>
       <c r="B91" s="27">
@@ -4060,7 +4080,7 @@
       <c r="J91" s="67"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="92"/>
+      <c r="A92" s="74"/>
       <c r="B92" s="27">
         <v>41674</v>
       </c>
@@ -4079,7 +4099,7 @@
       <c r="J92" s="67"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="92"/>
+      <c r="A93" s="74"/>
       <c r="B93" s="27">
         <v>41675</v>
       </c>
@@ -4098,7 +4118,7 @@
       <c r="J93" s="67"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="92"/>
+      <c r="A94" s="74"/>
       <c r="B94" s="27">
         <v>41676</v>
       </c>
@@ -4117,7 +4137,7 @@
       <c r="J94" s="67"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="93"/>
+      <c r="A95" s="75"/>
       <c r="B95" s="27">
         <v>41677</v>
       </c>
@@ -4136,7 +4156,7 @@
       <c r="J95" s="67"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="94">
+      <c r="A96" s="76">
         <v>15</v>
       </c>
       <c r="B96" s="26">
@@ -4155,7 +4175,7 @@
       <c r="J96" s="29"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="95"/>
+      <c r="A97" s="77"/>
       <c r="B97" s="26">
         <v>41681</v>
       </c>
@@ -4172,7 +4192,7 @@
       <c r="J97" s="29"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="95"/>
+      <c r="A98" s="77"/>
       <c r="B98" s="26">
         <v>41682</v>
       </c>
@@ -4189,7 +4209,7 @@
       <c r="J98" s="29"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="95"/>
+      <c r="A99" s="77"/>
       <c r="B99" s="26">
         <v>41683</v>
       </c>
@@ -4206,7 +4226,7 @@
       <c r="J99" s="29"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="90"/>
+      <c r="A100" s="78"/>
       <c r="B100" s="26">
         <v>41684</v>
       </c>
@@ -4223,7 +4243,7 @@
       <c r="J100" s="29"/>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="91">
+      <c r="A101" s="73">
         <v>16</v>
       </c>
       <c r="B101" s="27">
@@ -4242,7 +4262,7 @@
       <c r="J101" s="67"/>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="92"/>
+      <c r="A102" s="74"/>
       <c r="B102" s="27">
         <v>41688</v>
       </c>
@@ -4259,7 +4279,7 @@
       <c r="J102" s="67"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="92"/>
+      <c r="A103" s="74"/>
       <c r="B103" s="27">
         <v>41689</v>
       </c>
@@ -4276,7 +4296,7 @@
       <c r="J103" s="67"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="92"/>
+      <c r="A104" s="74"/>
       <c r="B104" s="27">
         <v>41690</v>
       </c>
@@ -4293,7 +4313,7 @@
       <c r="J104" s="67"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="93"/>
+      <c r="A105" s="75"/>
       <c r="B105" s="27">
         <v>41691</v>
       </c>
@@ -4310,7 +4330,7 @@
       <c r="J105" s="67"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="94">
+      <c r="A106" s="76">
         <v>17</v>
       </c>
       <c r="B106" s="26">
@@ -4329,7 +4349,7 @@
       <c r="J106" s="29"/>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="95"/>
+      <c r="A107" s="77"/>
       <c r="B107" s="26">
         <v>41695</v>
       </c>
@@ -4346,7 +4366,7 @@
       <c r="J107" s="29"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="95"/>
+      <c r="A108" s="77"/>
       <c r="B108" s="26">
         <v>41696</v>
       </c>
@@ -4363,7 +4383,7 @@
       <c r="J108" s="29"/>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="95"/>
+      <c r="A109" s="77"/>
       <c r="B109" s="26">
         <v>41697</v>
       </c>
@@ -4380,7 +4400,7 @@
       <c r="J109" s="29"/>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="90"/>
+      <c r="A110" s="78"/>
       <c r="B110" s="26">
         <v>41698</v>
       </c>
@@ -4397,7 +4417,7 @@
       <c r="J110" s="29"/>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="91">
+      <c r="A111" s="73">
         <v>18</v>
       </c>
       <c r="B111" s="27">
@@ -4416,7 +4436,7 @@
       <c r="J111" s="67"/>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="92"/>
+      <c r="A112" s="74"/>
       <c r="B112" s="27">
         <v>41702</v>
       </c>
@@ -4433,7 +4453,7 @@
       <c r="J112" s="67"/>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="92"/>
+      <c r="A113" s="74"/>
       <c r="B113" s="27">
         <v>41703</v>
       </c>
@@ -4450,7 +4470,7 @@
       <c r="J113" s="67"/>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="92"/>
+      <c r="A114" s="74"/>
       <c r="B114" s="27">
         <v>41704</v>
       </c>
@@ -4467,7 +4487,7 @@
       <c r="J114" s="67"/>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="93"/>
+      <c r="A115" s="75"/>
       <c r="B115" s="27">
         <v>41705</v>
       </c>
@@ -4484,7 +4504,7 @@
       <c r="J115" s="67"/>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="94">
+      <c r="A116" s="76">
         <v>19</v>
       </c>
       <c r="B116" s="26">
@@ -4503,7 +4523,7 @@
       <c r="J116" s="29"/>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="95"/>
+      <c r="A117" s="77"/>
       <c r="B117" s="26">
         <v>41709</v>
       </c>
@@ -4520,7 +4540,7 @@
       <c r="J117" s="29"/>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="95"/>
+      <c r="A118" s="77"/>
       <c r="B118" s="26">
         <v>41710</v>
       </c>
@@ -4537,7 +4557,7 @@
       <c r="J118" s="29"/>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="95"/>
+      <c r="A119" s="77"/>
       <c r="B119" s="26">
         <v>41711</v>
       </c>
@@ -4554,7 +4574,7 @@
       <c r="J119" s="29"/>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="90"/>
+      <c r="A120" s="78"/>
       <c r="B120" s="26">
         <v>41712</v>
       </c>
@@ -4571,7 +4591,7 @@
       <c r="J120" s="29"/>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="91">
+      <c r="A121" s="73">
         <v>20</v>
       </c>
       <c r="B121" s="27">
@@ -4590,7 +4610,7 @@
       <c r="J121" s="67"/>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="92"/>
+      <c r="A122" s="74"/>
       <c r="B122" s="27">
         <v>41716</v>
       </c>
@@ -4607,7 +4627,7 @@
       <c r="J122" s="67"/>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="92"/>
+      <c r="A123" s="74"/>
       <c r="B123" s="27">
         <v>41717</v>
       </c>
@@ -4624,7 +4644,7 @@
       <c r="J123" s="67"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="92"/>
+      <c r="A124" s="74"/>
       <c r="B124" s="27">
         <v>41718</v>
       </c>
@@ -4641,7 +4661,7 @@
       <c r="J124" s="67"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="93"/>
+      <c r="A125" s="75"/>
       <c r="B125" s="27">
         <v>41719</v>
       </c>
@@ -4658,7 +4678,7 @@
       <c r="J125" s="67"/>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="94">
+      <c r="A126" s="76">
         <v>21</v>
       </c>
       <c r="B126" s="26">
@@ -4677,7 +4697,7 @@
       <c r="J126" s="29"/>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="95"/>
+      <c r="A127" s="77"/>
       <c r="B127" s="26">
         <v>41723</v>
       </c>
@@ -4694,7 +4714,7 @@
       <c r="J127" s="29"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="95"/>
+      <c r="A128" s="77"/>
       <c r="B128" s="26">
         <v>41724</v>
       </c>
@@ -4711,7 +4731,7 @@
       <c r="J128" s="29"/>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="95"/>
+      <c r="A129" s="77"/>
       <c r="B129" s="26">
         <v>41725</v>
       </c>
@@ -4728,7 +4748,7 @@
       <c r="J129" s="29"/>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="90"/>
+      <c r="A130" s="78"/>
       <c r="B130" s="26">
         <v>41726</v>
       </c>
@@ -4745,7 +4765,7 @@
       <c r="J130" s="29"/>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="91">
+      <c r="A131" s="73">
         <v>22</v>
       </c>
       <c r="B131" s="27">
@@ -4764,7 +4784,7 @@
       <c r="J131" s="67"/>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="92"/>
+      <c r="A132" s="74"/>
       <c r="B132" s="27">
         <v>41730</v>
       </c>
@@ -4781,7 +4801,7 @@
       <c r="J132" s="67"/>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="92"/>
+      <c r="A133" s="74"/>
       <c r="B133" s="27">
         <v>41731</v>
       </c>
@@ -4798,7 +4818,7 @@
       <c r="J133" s="67"/>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="92"/>
+      <c r="A134" s="74"/>
       <c r="B134" s="27">
         <v>41732</v>
       </c>
@@ -4815,7 +4835,7 @@
       <c r="J134" s="67"/>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="93"/>
+      <c r="A135" s="75"/>
       <c r="B135" s="27">
         <v>41733</v>
       </c>
@@ -4832,7 +4852,7 @@
       <c r="J135" s="67"/>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="94">
+      <c r="A136" s="76">
         <v>23</v>
       </c>
       <c r="B136" s="26">
@@ -4851,7 +4871,7 @@
       <c r="J136" s="29"/>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="95"/>
+      <c r="A137" s="77"/>
       <c r="B137" s="26">
         <v>41737</v>
       </c>
@@ -4868,7 +4888,7 @@
       <c r="J137" s="29"/>
     </row>
     <row r="138" spans="1:10">
-      <c r="A138" s="95"/>
+      <c r="A138" s="77"/>
       <c r="B138" s="26">
         <v>41738</v>
       </c>
@@ -4885,7 +4905,7 @@
       <c r="J138" s="29"/>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="95"/>
+      <c r="A139" s="77"/>
       <c r="B139" s="26">
         <v>41739</v>
       </c>
@@ -4902,7 +4922,7 @@
       <c r="J139" s="29"/>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="90"/>
+      <c r="A140" s="78"/>
       <c r="B140" s="26">
         <v>41740</v>
       </c>
@@ -4919,7 +4939,7 @@
       <c r="J140" s="29"/>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="91">
+      <c r="A141" s="73">
         <v>24</v>
       </c>
       <c r="B141" s="27">
@@ -4938,7 +4958,7 @@
       <c r="J141" s="67"/>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="92"/>
+      <c r="A142" s="74"/>
       <c r="B142" s="27">
         <v>41744</v>
       </c>
@@ -4955,7 +4975,7 @@
       <c r="J142" s="67"/>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="92"/>
+      <c r="A143" s="74"/>
       <c r="B143" s="27">
         <v>41745</v>
       </c>
@@ -4972,7 +4992,7 @@
       <c r="J143" s="67"/>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="92"/>
+      <c r="A144" s="74"/>
       <c r="B144" s="27">
         <v>41746</v>
       </c>
@@ -4989,7 +5009,7 @@
       <c r="J144" s="67"/>
     </row>
     <row r="145" spans="1:10">
-      <c r="A145" s="93"/>
+      <c r="A145" s="75"/>
       <c r="B145" s="27">
         <v>41747</v>
       </c>
@@ -5006,7 +5026,7 @@
       <c r="J145" s="67"/>
     </row>
     <row r="146" spans="1:10">
-      <c r="A146" s="94">
+      <c r="A146" s="76">
         <v>25</v>
       </c>
       <c r="B146" s="26">
@@ -5025,7 +5045,7 @@
       <c r="J146" s="29"/>
     </row>
     <row r="147" spans="1:10">
-      <c r="A147" s="95"/>
+      <c r="A147" s="77"/>
       <c r="B147" s="26">
         <v>41751</v>
       </c>
@@ -5042,7 +5062,7 @@
       <c r="J147" s="29"/>
     </row>
     <row r="148" spans="1:10">
-      <c r="A148" s="95"/>
+      <c r="A148" s="77"/>
       <c r="B148" s="26">
         <v>41752</v>
       </c>
@@ -5059,7 +5079,7 @@
       <c r="J148" s="29"/>
     </row>
     <row r="149" spans="1:10">
-      <c r="A149" s="95"/>
+      <c r="A149" s="77"/>
       <c r="B149" s="26">
         <v>41753</v>
       </c>
@@ -5076,7 +5096,7 @@
       <c r="J149" s="29"/>
     </row>
     <row r="150" spans="1:10">
-      <c r="A150" s="90"/>
+      <c r="A150" s="78"/>
       <c r="B150" s="26">
         <v>41754</v>
       </c>
@@ -5093,7 +5113,7 @@
       <c r="J150" s="29"/>
     </row>
     <row r="151" spans="1:10">
-      <c r="A151" s="91">
+      <c r="A151" s="73">
         <v>26</v>
       </c>
       <c r="B151" s="27">
@@ -5112,7 +5132,7 @@
       <c r="J151" s="67"/>
     </row>
     <row r="152" spans="1:10">
-      <c r="A152" s="92"/>
+      <c r="A152" s="74"/>
       <c r="B152" s="27">
         <v>41758</v>
       </c>
@@ -5129,7 +5149,7 @@
       <c r="J152" s="67"/>
     </row>
     <row r="153" spans="1:10">
-      <c r="A153" s="92"/>
+      <c r="A153" s="74"/>
       <c r="B153" s="27">
         <v>41759</v>
       </c>
@@ -5146,7 +5166,7 @@
       <c r="J153" s="67"/>
     </row>
     <row r="154" spans="1:10">
-      <c r="A154" s="92"/>
+      <c r="A154" s="74"/>
       <c r="B154" s="27">
         <v>41760</v>
       </c>
@@ -5163,7 +5183,7 @@
       <c r="J154" s="67"/>
     </row>
     <row r="155" spans="1:10">
-      <c r="A155" s="93"/>
+      <c r="A155" s="75"/>
       <c r="B155" s="27">
         <v>41761</v>
       </c>
@@ -5180,7 +5200,7 @@
       <c r="J155" s="67"/>
     </row>
     <row r="156" spans="1:10">
-      <c r="A156" s="94">
+      <c r="A156" s="76">
         <v>27</v>
       </c>
       <c r="B156" s="26">
@@ -5199,7 +5219,7 @@
       <c r="J156" s="29"/>
     </row>
     <row r="157" spans="1:10">
-      <c r="A157" s="95"/>
+      <c r="A157" s="77"/>
       <c r="B157" s="26">
         <v>41765</v>
       </c>
@@ -5216,7 +5236,7 @@
       <c r="J157" s="29"/>
     </row>
     <row r="158" spans="1:10">
-      <c r="A158" s="95"/>
+      <c r="A158" s="77"/>
       <c r="B158" s="26">
         <v>41766</v>
       </c>
@@ -5233,7 +5253,7 @@
       <c r="J158" s="29"/>
     </row>
     <row r="159" spans="1:10">
-      <c r="A159" s="95"/>
+      <c r="A159" s="77"/>
       <c r="B159" s="26">
         <v>41767</v>
       </c>
@@ -5250,7 +5270,7 @@
       <c r="J159" s="29"/>
     </row>
     <row r="160" spans="1:10">
-      <c r="A160" s="90"/>
+      <c r="A160" s="78"/>
       <c r="B160" s="26">
         <v>41768</v>
       </c>
@@ -5267,7 +5287,7 @@
       <c r="J160" s="29"/>
     </row>
     <row r="161" spans="1:10">
-      <c r="A161" s="91">
+      <c r="A161" s="73">
         <v>28</v>
       </c>
       <c r="B161" s="27">
@@ -5286,7 +5306,7 @@
       <c r="J161" s="67"/>
     </row>
     <row r="162" spans="1:10">
-      <c r="A162" s="92"/>
+      <c r="A162" s="74"/>
       <c r="B162" s="27">
         <v>41772</v>
       </c>
@@ -5303,7 +5323,7 @@
       <c r="J162" s="67"/>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="92"/>
+      <c r="A163" s="74"/>
       <c r="B163" s="27">
         <v>41773</v>
       </c>
@@ -5320,7 +5340,7 @@
       <c r="J163" s="67"/>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="92"/>
+      <c r="A164" s="74"/>
       <c r="B164" s="27">
         <v>41774</v>
       </c>
@@ -5337,7 +5357,7 @@
       <c r="J164" s="67"/>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="93"/>
+      <c r="A165" s="75"/>
       <c r="B165" s="27">
         <v>41775</v>
       </c>
@@ -5354,7 +5374,7 @@
       <c r="J165" s="67"/>
     </row>
     <row r="166" spans="1:10">
-      <c r="A166" s="94">
+      <c r="A166" s="76">
         <v>29</v>
       </c>
       <c r="B166" s="26">
@@ -5373,7 +5393,7 @@
       <c r="J166" s="29"/>
     </row>
     <row r="167" spans="1:10">
-      <c r="A167" s="95"/>
+      <c r="A167" s="77"/>
       <c r="B167" s="26">
         <v>41779</v>
       </c>
@@ -5390,7 +5410,7 @@
       <c r="J167" s="29"/>
     </row>
     <row r="168" spans="1:10">
-      <c r="A168" s="95"/>
+      <c r="A168" s="77"/>
       <c r="B168" s="26">
         <v>41780</v>
       </c>
@@ -5407,7 +5427,7 @@
       <c r="J168" s="29"/>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="95"/>
+      <c r="A169" s="77"/>
       <c r="B169" s="26">
         <v>41781</v>
       </c>
@@ -5424,7 +5444,7 @@
       <c r="J169" s="29"/>
     </row>
     <row r="170" spans="1:10">
-      <c r="A170" s="90"/>
+      <c r="A170" s="78"/>
       <c r="B170" s="26">
         <v>41782</v>
       </c>
@@ -5441,7 +5461,7 @@
       <c r="J170" s="29"/>
     </row>
     <row r="171" spans="1:10">
-      <c r="A171" s="136">
+      <c r="A171" s="79">
         <v>30</v>
       </c>
       <c r="B171" s="27">
@@ -5460,7 +5480,7 @@
       <c r="J171" s="37"/>
     </row>
     <row r="172" spans="1:10">
-      <c r="A172" s="137"/>
+      <c r="A172" s="80"/>
       <c r="B172" s="27">
         <v>41786</v>
       </c>
@@ -5477,7 +5497,7 @@
       <c r="J172" s="37"/>
     </row>
     <row r="173" spans="1:10">
-      <c r="A173" s="137"/>
+      <c r="A173" s="80"/>
       <c r="B173" s="27">
         <v>41787</v>
       </c>
@@ -5494,7 +5514,7 @@
       <c r="J173" s="37"/>
     </row>
     <row r="174" spans="1:10">
-      <c r="A174" s="137"/>
+      <c r="A174" s="80"/>
       <c r="B174" s="27">
         <v>41788</v>
       </c>
@@ -5511,7 +5531,7 @@
       <c r="J174" s="37"/>
     </row>
     <row r="175" spans="1:10">
-      <c r="A175" s="138"/>
+      <c r="A175" s="81"/>
       <c r="B175" s="27">
         <v>41789</v>
       </c>
@@ -5637,19 +5657,33 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A161:A165"/>
-    <mergeCell ref="A166:A170"/>
-    <mergeCell ref="A171:A175"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A33:A45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A19:A32"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F42"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="A96:A100"/>
@@ -5666,33 +5700,19 @@
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A46:A50"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="A33:A45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A19:A32"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A156:A160"/>
   </mergeCells>
   <conditionalFormatting sqref="M7">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_KhangHuynh.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="161">
   <si>
     <t>Week</t>
   </si>
@@ -525,6 +525,26 @@
 Systhesis task works devided for team members:
 + Entities
 + Functional &amp; Quality Attribute</t>
+  </si>
+  <si>
+    <t>9.00AM</t>
+  </si>
+  <si>
+    <t>10.30AM</t>
+  </si>
+  <si>
+    <t>5:00PM</t>
+  </si>
+  <si>
+    <t>Discuss entities and collection document
++ Rework entities
++ Implement analysis document &lt;Archi Driver specification&gt;</t>
+  </si>
+  <si>
+    <t>First Training Java + Spring with Mr. Thanh
++ Setup nessecsary tools
++ Understand DI and AOP in Spring framework
++ Demo Hello world with Spring</t>
   </si>
 </sst>
 </file>
@@ -1042,6 +1062,144 @@
     <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1051,15 +1209,48 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1068,177 +1259,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1550,7 +1570,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1673,13 +1693,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O184"/>
+  <dimension ref="A1:O185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1700,81 +1720,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="97"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="99"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="100" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="102"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="78"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="105"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="81"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="119"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="108"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:15" ht="39" customHeight="1">
-      <c r="A5" s="126"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="128"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="15"/>
       <c r="H5" s="41" t="s">
         <v>64</v>
@@ -1819,13 +1839,13 @@
       <c r="J6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
     </row>
     <row r="7" spans="1:15" ht="38.25">
-      <c r="A7" s="109">
+      <c r="A7" s="85">
         <v>1</v>
       </c>
       <c r="B7" s="16">
@@ -1851,21 +1871,21 @@
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="136" t="s">
+      <c r="K7" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="136"/>
+      <c r="L7" s="114"/>
       <c r="M7" s="32">
-        <f>SUM(M8:M58)</f>
-        <v>70.649999999999991</v>
+        <f>SUM(M8:M59)</f>
+        <v>75.649999999999991</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="38.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="122">
+      <c r="A8" s="86"/>
+      <c r="B8" s="100">
         <v>41586</v>
       </c>
       <c r="C8" s="17">
@@ -1877,7 +1897,7 @@
       <c r="E8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="124">
+      <c r="F8" s="102">
         <v>1.67</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -1901,8 +1921,8 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="111"/>
-      <c r="B9" s="123"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="17">
         <v>0.63194444444444442</v>
       </c>
@@ -1912,7 +1932,7 @@
       <c r="E9" s="18">
         <v>0.5</v>
       </c>
-      <c r="F9" s="125"/>
+      <c r="F9" s="103"/>
       <c r="G9" s="29" t="s">
         <v>23</v>
       </c>
@@ -1923,10 +1943,10 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:15" s="63" customFormat="1">
-      <c r="A10" s="129">
+      <c r="A10" s="107">
         <v>2</v>
       </c>
-      <c r="B10" s="132">
+      <c r="B10" s="110">
         <v>41589</v>
       </c>
       <c r="C10" s="58" t="s">
@@ -1938,7 +1958,7 @@
       <c r="E10" s="59">
         <v>2.5</v>
       </c>
-      <c r="F10" s="134">
+      <c r="F10" s="112">
         <f>SUM(E10:E11)</f>
         <v>5</v>
       </c>
@@ -1952,8 +1972,8 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="130"/>
-      <c r="B11" s="133"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="58" t="s">
         <v>76</v>
       </c>
@@ -1963,7 +1983,7 @@
       <c r="E11" s="59">
         <v>2.5</v>
       </c>
-      <c r="F11" s="135"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="60" t="s">
         <v>22</v>
       </c>
@@ -1976,8 +1996,8 @@
       <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:15" ht="63.75">
-      <c r="A12" s="130"/>
-      <c r="B12" s="82">
+      <c r="A12" s="108"/>
+      <c r="B12" s="115">
         <v>41590</v>
       </c>
       <c r="C12" s="22">
@@ -1989,7 +2009,7 @@
       <c r="E12" s="23">
         <v>2.25</v>
       </c>
-      <c r="F12" s="137">
+      <c r="F12" s="117">
         <v>3.75</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -2016,8 +2036,8 @@
       <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A13" s="130"/>
-      <c r="B13" s="84"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="22">
         <v>0.91666666666666663</v>
       </c>
@@ -2027,7 +2047,7 @@
       <c r="E13" s="23">
         <v>1.5</v>
       </c>
-      <c r="F13" s="138"/>
+      <c r="F13" s="118"/>
       <c r="G13" s="45" t="s">
         <v>28</v>
       </c>
@@ -2043,8 +2063,8 @@
       <c r="O13" s="34"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A14" s="130"/>
-      <c r="B14" s="82">
+      <c r="A14" s="108"/>
+      <c r="B14" s="115">
         <v>41591</v>
       </c>
       <c r="C14" s="22">
@@ -2056,7 +2076,7 @@
       <c r="E14" s="23">
         <v>2</v>
       </c>
-      <c r="F14" s="85">
+      <c r="F14" s="131">
         <v>4.5</v>
       </c>
       <c r="G14" s="45" t="s">
@@ -2074,8 +2094,8 @@
       <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:15" ht="25.5">
-      <c r="A15" s="130"/>
-      <c r="B15" s="83"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="25">
         <v>0.5625</v>
       </c>
@@ -2085,7 +2105,7 @@
       <c r="E15" s="28">
         <v>2</v>
       </c>
-      <c r="F15" s="86"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="30" t="s">
         <v>19</v>
       </c>
@@ -2102,8 +2122,8 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="130"/>
-      <c r="B16" s="84"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="25">
         <v>0.83333333333333337</v>
       </c>
@@ -2113,7 +2133,7 @@
       <c r="E16" s="28">
         <v>0.5</v>
       </c>
-      <c r="F16" s="87"/>
+      <c r="F16" s="133"/>
       <c r="G16" s="45" t="s">
         <v>28</v>
       </c>
@@ -2137,7 +2157,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A17" s="130"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="47">
         <v>41592</v>
       </c>
@@ -2176,7 +2196,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="25.5">
-      <c r="A18" s="131"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="42">
         <v>41593</v>
       </c>
@@ -2207,18 +2227,18 @@
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="9">
-        <f>SUM(E46:E50)</f>
-        <v>4</v>
+        <f>SUM(E46:E51)</f>
+        <v>9</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="94">
+      <c r="A19" s="124">
         <v>3</v>
       </c>
-      <c r="B19" s="92">
+      <c r="B19" s="122">
         <v>41596</v>
       </c>
       <c r="C19" s="53" t="s">
@@ -2230,7 +2250,7 @@
       <c r="E19" s="50">
         <v>0.5</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="89">
         <f>SUM(E19:E20)</f>
         <v>3.5</v>
       </c>
@@ -2249,7 +2269,7 @@
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="9">
-        <f>SUM(E61:E65)</f>
+        <f>SUM(E62:E66)</f>
         <v>0</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -2257,8 +2277,8 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="95"/>
-      <c r="B20" s="93"/>
+      <c r="A20" s="125"/>
+      <c r="B20" s="123"/>
       <c r="C20" s="53" t="s">
         <v>81</v>
       </c>
@@ -2268,7 +2288,7 @@
       <c r="E20" s="50">
         <v>3</v>
       </c>
-      <c r="F20" s="78"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="49" t="s">
         <v>22</v>
       </c>
@@ -2285,8 +2305,8 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="95"/>
-      <c r="B21" s="92">
+      <c r="A21" s="125"/>
+      <c r="B21" s="122">
         <v>41597</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -2298,7 +2318,7 @@
       <c r="E21" s="50">
         <v>2</v>
       </c>
-      <c r="F21" s="88">
+      <c r="F21" s="89">
         <f>SUM(E21:E22)</f>
         <v>2.5</v>
       </c>
@@ -2318,8 +2338,8 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="95"/>
-      <c r="B22" s="93"/>
+      <c r="A22" s="125"/>
+      <c r="B22" s="123"/>
       <c r="C22" s="53" t="s">
         <v>84</v>
       </c>
@@ -2329,7 +2349,7 @@
       <c r="E22" s="50">
         <v>0.5</v>
       </c>
-      <c r="F22" s="78"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="49" t="s">
         <v>22</v>
       </c>
@@ -2345,7 +2365,7 @@
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="9">
-        <f>SUM(E66:E70)</f>
+        <f>SUM(E67:E71)</f>
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -2353,7 +2373,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="39">
-      <c r="A23" s="95"/>
+      <c r="A23" s="125"/>
       <c r="B23" s="26">
         <v>41598</v>
       </c>
@@ -2367,7 +2387,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="55">
-        <f t="shared" ref="F23:F67" si="0">E23</f>
+        <f t="shared" ref="F23:F68" si="0">E23</f>
         <v>4</v>
       </c>
       <c r="G23" s="57" t="s">
@@ -2385,7 +2405,7 @@
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="9">
-        <f>SUM(E71:E75)</f>
+        <f>SUM(E72:E76)</f>
         <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2393,7 +2413,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="26.25">
-      <c r="A24" s="95"/>
+      <c r="A24" s="125"/>
       <c r="B24" s="26">
         <v>41599</v>
       </c>
@@ -2406,7 +2426,7 @@
       <c r="E24" s="50">
         <v>1</v>
       </c>
-      <c r="F24" s="88">
+      <c r="F24" s="89">
         <f>SUM(E24:E28)</f>
         <v>6.9</v>
       </c>
@@ -2424,7 +2444,7 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="95"/>
+      <c r="A25" s="125"/>
       <c r="B25" s="26">
         <v>41599</v>
       </c>
@@ -2437,7 +2457,7 @@
       <c r="E25" s="50">
         <v>1.3</v>
       </c>
-      <c r="F25" s="89"/>
+      <c r="F25" s="127"/>
       <c r="G25" s="57" t="s">
         <v>19</v>
       </c>
@@ -2452,7 +2472,7 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="95"/>
+      <c r="A26" s="125"/>
       <c r="B26" s="26">
         <v>41599</v>
       </c>
@@ -2465,7 +2485,7 @@
       <c r="E26" s="50">
         <v>1.5</v>
       </c>
-      <c r="F26" s="89"/>
+      <c r="F26" s="127"/>
       <c r="G26" s="57" t="s">
         <v>22</v>
       </c>
@@ -2482,7 +2502,7 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="95"/>
+      <c r="A27" s="125"/>
       <c r="B27" s="26">
         <v>41599</v>
       </c>
@@ -2495,7 +2515,7 @@
       <c r="E27" s="50">
         <v>2.1</v>
       </c>
-      <c r="F27" s="89"/>
+      <c r="F27" s="127"/>
       <c r="G27" s="29" t="s">
         <v>19</v>
       </c>
@@ -2509,7 +2529,7 @@
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="9">
-        <f>SUM(E76:E80)</f>
+        <f>SUM(E77:E81)</f>
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -2517,7 +2537,7 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="95"/>
+      <c r="A28" s="125"/>
       <c r="B28" s="26">
         <v>41599</v>
       </c>
@@ -2530,7 +2550,7 @@
       <c r="E28" s="50">
         <v>1</v>
       </c>
-      <c r="F28" s="90"/>
+      <c r="F28" s="128"/>
       <c r="G28" s="29" t="s">
         <v>22</v>
       </c>
@@ -2545,7 +2565,7 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="95"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="26">
         <v>41600</v>
       </c>
@@ -2558,7 +2578,7 @@
       <c r="E29" s="50">
         <v>1.2</v>
       </c>
-      <c r="F29" s="88">
+      <c r="F29" s="89">
         <f>SUM(E29:E30)</f>
         <v>3.2</v>
       </c>
@@ -2574,7 +2594,7 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="51">
-      <c r="A30" s="95"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="26">
         <v>41600</v>
       </c>
@@ -2587,7 +2607,7 @@
       <c r="E30" s="50">
         <v>2</v>
       </c>
-      <c r="F30" s="78"/>
+      <c r="F30" s="90"/>
       <c r="G30" s="57" t="s">
         <v>22</v>
       </c>
@@ -2601,7 +2621,7 @@
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="9">
-        <f>SUM(E81:E85)</f>
+        <f>SUM(E82:E86)</f>
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
@@ -2609,7 +2629,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="25.5">
-      <c r="A31" s="95"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="26">
         <v>41601</v>
       </c>
@@ -2622,7 +2642,7 @@
       <c r="E31" s="50">
         <v>3.5</v>
       </c>
-      <c r="F31" s="88">
+      <c r="F31" s="89">
         <f>SUM(E31:E32)</f>
         <v>4.4000000000000004</v>
       </c>
@@ -2642,7 +2662,7 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="96"/>
+      <c r="A32" s="126"/>
       <c r="B32" s="26">
         <v>41601</v>
       </c>
@@ -2655,7 +2675,7 @@
       <c r="E32" s="50">
         <v>0.9</v>
       </c>
-      <c r="F32" s="78"/>
+      <c r="F32" s="90"/>
       <c r="G32" s="57" t="s">
         <v>22</v>
       </c>
@@ -2672,7 +2692,7 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" ht="38.25">
-      <c r="A33" s="73">
+      <c r="A33" s="119">
         <v>4</v>
       </c>
       <c r="B33" s="27">
@@ -2706,7 +2726,7 @@
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="9">
-        <f>SUM(E86:E90)</f>
+        <f>SUM(E87:E91)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
@@ -2714,7 +2734,7 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="74"/>
+      <c r="A34" s="120"/>
       <c r="B34" s="27">
         <v>41604</v>
       </c>
@@ -2727,7 +2747,7 @@
       <c r="E34" s="28">
         <v>1</v>
       </c>
-      <c r="F34" s="91">
+      <c r="F34" s="129">
         <f>SUM(E34:E37)</f>
         <v>5.75</v>
       </c>
@@ -2745,7 +2765,7 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="74"/>
+      <c r="A35" s="120"/>
       <c r="B35" s="27">
         <v>41604</v>
       </c>
@@ -2758,7 +2778,7 @@
       <c r="E35" s="28">
         <v>1.5</v>
       </c>
-      <c r="F35" s="74"/>
+      <c r="F35" s="120"/>
       <c r="G35" s="67" t="s">
         <v>23</v>
       </c>
@@ -2775,7 +2795,7 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="74"/>
+      <c r="A36" s="120"/>
       <c r="B36" s="27">
         <v>41604</v>
       </c>
@@ -2788,7 +2808,7 @@
       <c r="E36" s="28">
         <v>1.25</v>
       </c>
-      <c r="F36" s="74"/>
+      <c r="F36" s="120"/>
       <c r="G36" s="67" t="s">
         <v>19</v>
       </c>
@@ -2805,7 +2825,7 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="51">
-      <c r="A37" s="74"/>
+      <c r="A37" s="120"/>
       <c r="B37" s="27">
         <v>41604</v>
       </c>
@@ -2818,7 +2838,7 @@
       <c r="E37" s="69">
         <v>2</v>
       </c>
-      <c r="F37" s="75"/>
+      <c r="F37" s="121"/>
       <c r="G37" s="67" t="s">
         <v>22</v>
       </c>
@@ -2836,7 +2856,7 @@
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="9">
-        <f>SUM(E91:E95)</f>
+        <f>SUM(E92:E96)</f>
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
@@ -2844,7 +2864,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="74"/>
+      <c r="A38" s="120"/>
       <c r="B38" s="27">
         <v>41605</v>
       </c>
@@ -2857,7 +2877,7 @@
       <c r="E38" s="69">
         <v>2.33</v>
       </c>
-      <c r="F38" s="73">
+      <c r="F38" s="119">
         <f>SUM(E38:E39)</f>
         <v>2.83</v>
       </c>
@@ -2874,7 +2894,7 @@
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="9">
-        <f>SUM(E96:E100)</f>
+        <f>SUM(E97:E101)</f>
         <v>0</v>
       </c>
       <c r="N38" s="3" t="s">
@@ -2882,7 +2902,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="25.5">
-      <c r="A39" s="74"/>
+      <c r="A39" s="120"/>
       <c r="B39" s="27">
         <v>41605</v>
       </c>
@@ -2895,7 +2915,7 @@
       <c r="E39" s="69">
         <v>0.5</v>
       </c>
-      <c r="F39" s="75"/>
+      <c r="F39" s="121"/>
       <c r="G39" s="67" t="s">
         <v>22</v>
       </c>
@@ -2912,7 +2932,7 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="74"/>
+      <c r="A40" s="120"/>
       <c r="B40" s="27">
         <v>41606</v>
       </c>
@@ -2925,7 +2945,7 @@
       <c r="E40" s="69">
         <v>1.33</v>
       </c>
-      <c r="F40" s="73">
+      <c r="F40" s="119">
         <f>SUM(E40:E42)</f>
         <v>5.83</v>
       </c>
@@ -2943,7 +2963,7 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="74"/>
+      <c r="A41" s="120"/>
       <c r="B41" s="27">
         <v>41606</v>
       </c>
@@ -2956,7 +2976,7 @@
       <c r="E41" s="69">
         <v>1.75</v>
       </c>
-      <c r="F41" s="74"/>
+      <c r="F41" s="120"/>
       <c r="G41" s="67" t="s">
         <v>25</v>
       </c>
@@ -2971,7 +2991,7 @@
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" ht="25.5">
-      <c r="A42" s="74"/>
+      <c r="A42" s="120"/>
       <c r="B42" s="27">
         <v>41606</v>
       </c>
@@ -2984,7 +3004,7 @@
       <c r="E42" s="69">
         <v>2.75</v>
       </c>
-      <c r="F42" s="75"/>
+      <c r="F42" s="121"/>
       <c r="G42" s="67" t="s">
         <v>19</v>
       </c>
@@ -3000,7 +3020,7 @@
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="9">
-        <f>SUM(E101:E105)</f>
+        <f>SUM(E102:E106)</f>
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -3008,7 +3028,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="51">
-      <c r="A43" s="74"/>
+      <c r="A43" s="120"/>
       <c r="B43" s="27">
         <v>41607</v>
       </c>
@@ -3040,7 +3060,7 @@
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="9">
-        <f>SUM(E106:E110)</f>
+        <f>SUM(E107:E111)</f>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
@@ -3048,7 +3068,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="38.25">
-      <c r="A44" s="74"/>
+      <c r="A44" s="120"/>
       <c r="B44" s="27">
         <v>41609</v>
       </c>
@@ -3061,7 +3081,7 @@
       <c r="E44" s="69">
         <v>2</v>
       </c>
-      <c r="F44" s="73">
+      <c r="F44" s="119">
         <f>SUM(E44:E45)</f>
         <v>4</v>
       </c>
@@ -3081,7 +3101,7 @@
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" ht="38.25">
-      <c r="A45" s="75"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="27">
         <v>41609</v>
       </c>
@@ -3094,7 +3114,7 @@
       <c r="E45" s="69">
         <v>2</v>
       </c>
-      <c r="F45" s="75"/>
+      <c r="F45" s="121"/>
       <c r="G45" s="67" t="s">
         <v>22</v>
       </c>
@@ -3113,7 +3133,7 @@
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" ht="63.75">
-      <c r="A46" s="76">
+      <c r="A46" s="134">
         <v>5</v>
       </c>
       <c r="B46" s="26">
@@ -3145,63 +3165,73 @@
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="9">
-        <f>SUM(E111:E115)</f>
+        <f>SUM(E112:E116)</f>
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="77"/>
+    <row r="47" spans="1:14" ht="51">
+      <c r="A47" s="135"/>
       <c r="B47" s="26">
         <v>41611</v>
       </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
+      <c r="C47" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="55">
+        <v>1.5</v>
+      </c>
+      <c r="F47" s="134">
+        <f>SUM(E47:E48)</f>
+        <v>5</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="65" t="s">
+        <v>159</v>
+      </c>
       <c r="I47" s="29"/>
       <c r="J47" s="29"/>
-      <c r="K47" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="K47" s="7"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="9">
-        <f>SUM(E116:E120)</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="77"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="51">
+      <c r="A48" s="135"/>
       <c r="B48" s="26">
-        <v>41612</v>
-      </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
+        <v>41611</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="55">
+        <v>3.5</v>
+      </c>
+      <c r="F48" s="90"/>
+      <c r="G48" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="65" t="s">
+        <v>160</v>
+      </c>
       <c r="I48" s="29"/>
       <c r="J48" s="29"/>
       <c r="K48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="9">
-        <f>SUM(E121:E125)</f>
+        <f>SUM(E117:E121)</f>
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
@@ -3209,9 +3239,9 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="77"/>
+      <c r="A49" s="135"/>
       <c r="B49" s="26">
-        <v>41613</v>
+        <v>41612</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="55"/>
@@ -3225,11 +3255,11 @@
       <c r="I49" s="29"/>
       <c r="J49" s="29"/>
       <c r="K49" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="9">
-        <f>SUM(E126:E130)</f>
+        <f>SUM(E122:E126)</f>
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
@@ -3237,9 +3267,9 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="78"/>
+      <c r="A50" s="135"/>
       <c r="B50" s="26">
-        <v>41614</v>
+        <v>41613</v>
       </c>
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
@@ -3253,11 +3283,11 @@
       <c r="I50" s="29"/>
       <c r="J50" s="29"/>
       <c r="K50" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="9">
-        <f>SUM(E131:E135)</f>
+        <f>SUM(E127:E131)</f>
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
@@ -3265,29 +3295,27 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="73">
-        <v>6</v>
-      </c>
-      <c r="B51" s="27">
-        <v>41617</v>
-      </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69">
+      <c r="A51" s="90"/>
+      <c r="B51" s="26">
+        <v>41614</v>
+      </c>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
       <c r="K51" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="9">
-        <f>SUM(E136:E140)</f>
+        <f>SUM(E132:E136)</f>
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
@@ -3295,9 +3323,11 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="74"/>
+      <c r="A52" s="119">
+        <v>6</v>
+      </c>
       <c r="B52" s="27">
-        <v>41618</v>
+        <v>41617</v>
       </c>
       <c r="C52" s="69"/>
       <c r="D52" s="69"/>
@@ -3311,11 +3341,11 @@
       <c r="I52" s="67"/>
       <c r="J52" s="67"/>
       <c r="K52" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="9">
-        <f>SUM(E141:E145)</f>
+        <f>SUM(E137:E141)</f>
         <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
@@ -3323,9 +3353,9 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="74"/>
+      <c r="A53" s="120"/>
       <c r="B53" s="27">
-        <v>41619</v>
+        <v>41618</v>
       </c>
       <c r="C53" s="69"/>
       <c r="D53" s="69"/>
@@ -3339,11 +3369,11 @@
       <c r="I53" s="67"/>
       <c r="J53" s="67"/>
       <c r="K53" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="9">
-        <f>SUM(E146:E150)</f>
+        <f>SUM(E142:E146)</f>
         <v>0</v>
       </c>
       <c r="N53" s="3" t="s">
@@ -3351,9 +3381,9 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="74"/>
+      <c r="A54" s="120"/>
       <c r="B54" s="27">
-        <v>41620</v>
+        <v>41619</v>
       </c>
       <c r="C54" s="69"/>
       <c r="D54" s="69"/>
@@ -3367,11 +3397,11 @@
       <c r="I54" s="67"/>
       <c r="J54" s="67"/>
       <c r="K54" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="9">
-        <f>SUM(E151:E155)</f>
+        <f>SUM(E147:E151)</f>
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
@@ -3379,9 +3409,9 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="75"/>
+      <c r="A55" s="120"/>
       <c r="B55" s="27">
-        <v>41621</v>
+        <v>41620</v>
       </c>
       <c r="C55" s="69"/>
       <c r="D55" s="69"/>
@@ -3395,11 +3425,11 @@
       <c r="I55" s="67"/>
       <c r="J55" s="67"/>
       <c r="K55" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="9">
-        <f>SUM(E156:E160)</f>
+        <f>SUM(E152:E156)</f>
         <v>0</v>
       </c>
       <c r="N55" s="3" t="s">
@@ -3407,29 +3437,27 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="76">
-        <v>7</v>
-      </c>
-      <c r="B56" s="26">
-        <v>41624</v>
-      </c>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55">
+      <c r="A56" s="121"/>
+      <c r="B56" s="27">
+        <v>41621</v>
+      </c>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
       <c r="K56" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="9">
-        <f>SUM(E161:E165)</f>
+        <f>SUM(E157:E161)</f>
         <v>0</v>
       </c>
       <c r="N56" s="3" t="s">
@@ -3437,9 +3465,11 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="77"/>
+      <c r="A57" s="134">
+        <v>7</v>
+      </c>
       <c r="B57" s="26">
-        <v>41625</v>
+        <v>41624</v>
       </c>
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
@@ -3453,11 +3483,11 @@
       <c r="I57" s="29"/>
       <c r="J57" s="29"/>
       <c r="K57" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L57" s="5"/>
       <c r="M57" s="9">
-        <f>SUM(E166:E170)</f>
+        <f>SUM(E162:E166)</f>
         <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
@@ -3465,9 +3495,9 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="77"/>
+      <c r="A58" s="135"/>
       <c r="B58" s="26">
-        <v>41626</v>
+        <v>41625</v>
       </c>
       <c r="C58" s="55"/>
       <c r="D58" s="55"/>
@@ -3481,21 +3511,21 @@
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
       <c r="K58" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L58" s="5"/>
       <c r="M58" s="9">
-        <f>SUM(E171:E175)</f>
+        <f>SUM(E167:E171)</f>
         <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="77"/>
+    <row r="59" spans="1:14" ht="409.6">
+      <c r="A59" s="135"/>
       <c r="B59" s="26">
-        <v>41627</v>
+        <v>41626</v>
       </c>
       <c r="C59" s="55"/>
       <c r="D59" s="55"/>
@@ -3508,11 +3538,22 @@
       <c r="H59" s="29"/>
       <c r="I59" s="29"/>
       <c r="J59" s="29"/>
+      <c r="K59" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L59" s="5"/>
+      <c r="M59" s="9">
+        <f>SUM(E172:E176)</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="78"/>
+      <c r="A60" s="135"/>
       <c r="B60" s="26">
-        <v>41628</v>
+        <v>41627</v>
       </c>
       <c r="C60" s="55"/>
       <c r="D60" s="55"/>
@@ -3527,28 +3568,28 @@
       <c r="J60" s="29"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="73">
+      <c r="A61" s="90"/>
+      <c r="B61" s="26">
+        <v>41628</v>
+      </c>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="119">
         <v>8</v>
       </c>
-      <c r="B61" s="27">
+      <c r="B62" s="27">
         <v>41631</v>
-      </c>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="74"/>
-      <c r="B62" s="27">
-        <v>41632</v>
       </c>
       <c r="C62" s="69"/>
       <c r="D62" s="69"/>
@@ -3563,9 +3604,9 @@
       <c r="J62" s="67"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="74"/>
+      <c r="A63" s="120"/>
       <c r="B63" s="27">
-        <v>41633</v>
+        <v>41632</v>
       </c>
       <c r="C63" s="69"/>
       <c r="D63" s="69"/>
@@ -3580,9 +3621,9 @@
       <c r="J63" s="67"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="74"/>
+      <c r="A64" s="120"/>
       <c r="B64" s="27">
-        <v>41634</v>
+        <v>41633</v>
       </c>
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
@@ -3597,9 +3638,9 @@
       <c r="J64" s="67"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="75"/>
+      <c r="A65" s="120"/>
       <c r="B65" s="27">
-        <v>41635</v>
+        <v>41634</v>
       </c>
       <c r="C65" s="69"/>
       <c r="D65" s="69"/>
@@ -3614,28 +3655,28 @@
       <c r="J65" s="67"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="76">
+      <c r="A66" s="121"/>
+      <c r="B66" s="27">
+        <v>41635</v>
+      </c>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="67"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="134">
         <v>9</v>
       </c>
-      <c r="B66" s="26">
+      <c r="B67" s="26">
         <v>41638</v>
-      </c>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="77"/>
-      <c r="B67" s="26">
-        <v>41639</v>
       </c>
       <c r="C67" s="55"/>
       <c r="D67" s="55"/>
@@ -3650,15 +3691,15 @@
       <c r="J67" s="29"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="77"/>
+      <c r="A68" s="135"/>
       <c r="B68" s="26">
-        <v>41640</v>
+        <v>41639</v>
       </c>
       <c r="C68" s="55"/>
       <c r="D68" s="55"/>
       <c r="E68" s="55"/>
       <c r="F68" s="55">
-        <f t="shared" ref="F68:F99" si="1">E68</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G68" s="29"/>
@@ -3667,15 +3708,15 @@
       <c r="J68" s="29"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="77"/>
+      <c r="A69" s="135"/>
       <c r="B69" s="26">
-        <v>41641</v>
+        <v>41640</v>
       </c>
       <c r="C69" s="55"/>
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
       <c r="F69" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F69:F100" si="1">E69</f>
         <v>0</v>
       </c>
       <c r="G69" s="29"/>
@@ -3684,9 +3725,9 @@
       <c r="J69" s="29"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="78"/>
+      <c r="A70" s="135"/>
       <c r="B70" s="26">
-        <v>41642</v>
+        <v>41641</v>
       </c>
       <c r="C70" s="55"/>
       <c r="D70" s="55"/>
@@ -3701,28 +3742,28 @@
       <c r="J70" s="29"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="73">
+      <c r="A71" s="90"/>
+      <c r="B71" s="26">
+        <v>41642</v>
+      </c>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="119">
         <v>10</v>
       </c>
-      <c r="B71" s="27">
+      <c r="B72" s="27">
         <v>41645</v>
-      </c>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="67"/>
-      <c r="J71" s="67"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="74"/>
-      <c r="B72" s="27">
-        <v>41646</v>
       </c>
       <c r="C72" s="69"/>
       <c r="D72" s="69"/>
@@ -3737,9 +3778,9 @@
       <c r="J72" s="67"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="74"/>
+      <c r="A73" s="120"/>
       <c r="B73" s="27">
-        <v>41647</v>
+        <v>41646</v>
       </c>
       <c r="C73" s="69"/>
       <c r="D73" s="69"/>
@@ -3754,9 +3795,9 @@
       <c r="J73" s="67"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="74"/>
+      <c r="A74" s="120"/>
       <c r="B74" s="27">
-        <v>41648</v>
+        <v>41647</v>
       </c>
       <c r="C74" s="69"/>
       <c r="D74" s="69"/>
@@ -3771,9 +3812,9 @@
       <c r="J74" s="67"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="75"/>
+      <c r="A75" s="120"/>
       <c r="B75" s="27">
-        <v>41649</v>
+        <v>41648</v>
       </c>
       <c r="C75" s="69"/>
       <c r="D75" s="69"/>
@@ -3788,28 +3829,28 @@
       <c r="J75" s="67"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="76">
+      <c r="A76" s="121"/>
+      <c r="B76" s="27">
+        <v>41649</v>
+      </c>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="67"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="134">
         <v>11</v>
       </c>
-      <c r="B76" s="26">
+      <c r="B77" s="26">
         <v>41652</v>
-      </c>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="77"/>
-      <c r="B77" s="26">
-        <v>41653</v>
       </c>
       <c r="C77" s="55"/>
       <c r="D77" s="55"/>
@@ -3824,9 +3865,9 @@
       <c r="J77" s="29"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="77"/>
+      <c r="A78" s="135"/>
       <c r="B78" s="26">
-        <v>41654</v>
+        <v>41653</v>
       </c>
       <c r="C78" s="55"/>
       <c r="D78" s="55"/>
@@ -3841,9 +3882,9 @@
       <c r="J78" s="29"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="77"/>
+      <c r="A79" s="135"/>
       <c r="B79" s="26">
-        <v>41655</v>
+        <v>41654</v>
       </c>
       <c r="C79" s="55"/>
       <c r="D79" s="55"/>
@@ -3858,9 +3899,9 @@
       <c r="J79" s="29"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="78"/>
+      <c r="A80" s="135"/>
       <c r="B80" s="26">
-        <v>41656</v>
+        <v>41655</v>
       </c>
       <c r="C80" s="55"/>
       <c r="D80" s="55"/>
@@ -3875,28 +3916,28 @@
       <c r="J80" s="29"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="73">
+      <c r="A81" s="90"/>
+      <c r="B81" s="26">
+        <v>41656</v>
+      </c>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="119">
         <v>12</v>
       </c>
-      <c r="B81" s="27">
+      <c r="B82" s="27">
         <v>41659</v>
-      </c>
-      <c r="C81" s="69"/>
-      <c r="D81" s="69"/>
-      <c r="E81" s="69"/>
-      <c r="F81" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="67"/>
-      <c r="J81" s="67"/>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="74"/>
-      <c r="B82" s="27">
-        <v>41660</v>
       </c>
       <c r="C82" s="69"/>
       <c r="D82" s="69"/>
@@ -3911,9 +3952,9 @@
       <c r="J82" s="67"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="74"/>
+      <c r="A83" s="120"/>
       <c r="B83" s="27">
-        <v>41661</v>
+        <v>41660</v>
       </c>
       <c r="C83" s="69"/>
       <c r="D83" s="69"/>
@@ -3928,9 +3969,9 @@
       <c r="J83" s="67"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="74"/>
+      <c r="A84" s="120"/>
       <c r="B84" s="27">
-        <v>41662</v>
+        <v>41661</v>
       </c>
       <c r="C84" s="69"/>
       <c r="D84" s="69"/>
@@ -3945,9 +3986,9 @@
       <c r="J84" s="67"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="75"/>
+      <c r="A85" s="120"/>
       <c r="B85" s="27">
-        <v>41663</v>
+        <v>41662</v>
       </c>
       <c r="C85" s="69"/>
       <c r="D85" s="69"/>
@@ -3962,30 +4003,28 @@
       <c r="J85" s="67"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="76">
+      <c r="A86" s="121"/>
+      <c r="B86" s="27">
+        <v>41663</v>
+      </c>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="69"/>
+      <c r="F86" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="67"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="67"/>
+      <c r="J86" s="67"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="134">
         <v>13</v>
       </c>
-      <c r="B86" s="26">
+      <c r="B87" s="26">
         <v>41666</v>
-      </c>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="77"/>
-      <c r="B87" s="26">
-        <v>41667</v>
       </c>
       <c r="C87" s="55"/>
       <c r="D87" s="55"/>
@@ -4002,9 +4041,9 @@
       <c r="J87" s="29"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="77"/>
+      <c r="A88" s="135"/>
       <c r="B88" s="26">
-        <v>41668</v>
+        <v>41667</v>
       </c>
       <c r="C88" s="55"/>
       <c r="D88" s="55"/>
@@ -4021,9 +4060,9 @@
       <c r="J88" s="29"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="77"/>
+      <c r="A89" s="135"/>
       <c r="B89" s="26">
-        <v>41669</v>
+        <v>41668</v>
       </c>
       <c r="C89" s="55"/>
       <c r="D89" s="55"/>
@@ -4040,9 +4079,9 @@
       <c r="J89" s="29"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="78"/>
+      <c r="A90" s="135"/>
       <c r="B90" s="26">
-        <v>41670</v>
+        <v>41669</v>
       </c>
       <c r="C90" s="55"/>
       <c r="D90" s="55"/>
@@ -4059,30 +4098,30 @@
       <c r="J90" s="29"/>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="73">
+      <c r="A91" s="90"/>
+      <c r="B91" s="26">
+        <v>41670</v>
+      </c>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="119">
         <v>14</v>
       </c>
-      <c r="B91" s="27">
+      <c r="B92" s="27">
         <v>41673</v>
-      </c>
-      <c r="C91" s="69"/>
-      <c r="D91" s="69"/>
-      <c r="E91" s="69"/>
-      <c r="F91" s="69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H91" s="67"/>
-      <c r="I91" s="67"/>
-      <c r="J91" s="67"/>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="74"/>
-      <c r="B92" s="27">
-        <v>41674</v>
       </c>
       <c r="C92" s="69"/>
       <c r="D92" s="69"/>
@@ -4099,9 +4138,9 @@
       <c r="J92" s="67"/>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="74"/>
+      <c r="A93" s="120"/>
       <c r="B93" s="27">
-        <v>41675</v>
+        <v>41674</v>
       </c>
       <c r="C93" s="69"/>
       <c r="D93" s="69"/>
@@ -4118,9 +4157,9 @@
       <c r="J93" s="67"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="74"/>
+      <c r="A94" s="120"/>
       <c r="B94" s="27">
-        <v>41676</v>
+        <v>41675</v>
       </c>
       <c r="C94" s="69"/>
       <c r="D94" s="69"/>
@@ -4137,9 +4176,9 @@
       <c r="J94" s="67"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="75"/>
+      <c r="A95" s="120"/>
       <c r="B95" s="27">
-        <v>41677</v>
+        <v>41676</v>
       </c>
       <c r="C95" s="69"/>
       <c r="D95" s="69"/>
@@ -4156,28 +4195,30 @@
       <c r="J95" s="67"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="76">
+      <c r="A96" s="121"/>
+      <c r="B96" s="27">
+        <v>41677</v>
+      </c>
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
+      <c r="J96" s="67"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="134">
         <v>15</v>
       </c>
-      <c r="B96" s="26">
+      <c r="B97" s="26">
         <v>41680</v>
-      </c>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="29"/>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" s="77"/>
-      <c r="B97" s="26">
-        <v>41681</v>
       </c>
       <c r="C97" s="55"/>
       <c r="D97" s="55"/>
@@ -4192,9 +4233,9 @@
       <c r="J97" s="29"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="77"/>
+      <c r="A98" s="135"/>
       <c r="B98" s="26">
-        <v>41682</v>
+        <v>41681</v>
       </c>
       <c r="C98" s="55"/>
       <c r="D98" s="55"/>
@@ -4209,9 +4250,9 @@
       <c r="J98" s="29"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="77"/>
+      <c r="A99" s="135"/>
       <c r="B99" s="26">
-        <v>41683</v>
+        <v>41682</v>
       </c>
       <c r="C99" s="55"/>
       <c r="D99" s="55"/>
@@ -4226,15 +4267,15 @@
       <c r="J99" s="29"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="78"/>
+      <c r="A100" s="135"/>
       <c r="B100" s="26">
-        <v>41684</v>
+        <v>41683</v>
       </c>
       <c r="C100" s="55"/>
       <c r="D100" s="55"/>
       <c r="E100" s="55"/>
       <c r="F100" s="55">
-        <f t="shared" ref="F100:F131" si="2">E100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G100" s="29"/>
@@ -4243,28 +4284,28 @@
       <c r="J100" s="29"/>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="73">
+      <c r="A101" s="90"/>
+      <c r="B101" s="26">
+        <v>41684</v>
+      </c>
+      <c r="C101" s="55"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55">
+        <f t="shared" ref="F101:F132" si="2">E101</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="119">
         <v>16</v>
       </c>
-      <c r="B101" s="27">
+      <c r="B102" s="27">
         <v>41687</v>
-      </c>
-      <c r="C101" s="69"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="67"/>
-      <c r="H101" s="67"/>
-      <c r="I101" s="67"/>
-      <c r="J101" s="67"/>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="74"/>
-      <c r="B102" s="27">
-        <v>41688</v>
       </c>
       <c r="C102" s="69"/>
       <c r="D102" s="69"/>
@@ -4279,9 +4320,9 @@
       <c r="J102" s="67"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="74"/>
+      <c r="A103" s="120"/>
       <c r="B103" s="27">
-        <v>41689</v>
+        <v>41688</v>
       </c>
       <c r="C103" s="69"/>
       <c r="D103" s="69"/>
@@ -4296,9 +4337,9 @@
       <c r="J103" s="67"/>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="74"/>
+      <c r="A104" s="120"/>
       <c r="B104" s="27">
-        <v>41690</v>
+        <v>41689</v>
       </c>
       <c r="C104" s="69"/>
       <c r="D104" s="69"/>
@@ -4313,9 +4354,9 @@
       <c r="J104" s="67"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="75"/>
+      <c r="A105" s="120"/>
       <c r="B105" s="27">
-        <v>41691</v>
+        <v>41690</v>
       </c>
       <c r="C105" s="69"/>
       <c r="D105" s="69"/>
@@ -4330,28 +4371,28 @@
       <c r="J105" s="67"/>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="76">
+      <c r="A106" s="121"/>
+      <c r="B106" s="27">
+        <v>41691</v>
+      </c>
+      <c r="C106" s="69"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="69"/>
+      <c r="F106" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="67"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="67"/>
+      <c r="J106" s="67"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="134">
         <v>17</v>
       </c>
-      <c r="B106" s="26">
+      <c r="B107" s="26">
         <v>41694</v>
-      </c>
-      <c r="C106" s="55"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="55"/>
-      <c r="F106" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="29"/>
-      <c r="J106" s="29"/>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="A107" s="77"/>
-      <c r="B107" s="26">
-        <v>41695</v>
       </c>
       <c r="C107" s="55"/>
       <c r="D107" s="55"/>
@@ -4366,9 +4407,9 @@
       <c r="J107" s="29"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="77"/>
+      <c r="A108" s="135"/>
       <c r="B108" s="26">
-        <v>41696</v>
+        <v>41695</v>
       </c>
       <c r="C108" s="55"/>
       <c r="D108" s="55"/>
@@ -4383,9 +4424,9 @@
       <c r="J108" s="29"/>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="77"/>
+      <c r="A109" s="135"/>
       <c r="B109" s="26">
-        <v>41697</v>
+        <v>41696</v>
       </c>
       <c r="C109" s="55"/>
       <c r="D109" s="55"/>
@@ -4400,9 +4441,9 @@
       <c r="J109" s="29"/>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="78"/>
+      <c r="A110" s="135"/>
       <c r="B110" s="26">
-        <v>41698</v>
+        <v>41697</v>
       </c>
       <c r="C110" s="55"/>
       <c r="D110" s="55"/>
@@ -4417,28 +4458,28 @@
       <c r="J110" s="29"/>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="73">
+      <c r="A111" s="90"/>
+      <c r="B111" s="26">
+        <v>41698</v>
+      </c>
+      <c r="C111" s="55"/>
+      <c r="D111" s="55"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="119">
         <v>18</v>
       </c>
-      <c r="B111" s="27">
+      <c r="B112" s="27">
         <v>41701</v>
-      </c>
-      <c r="C111" s="69"/>
-      <c r="D111" s="69"/>
-      <c r="E111" s="69"/>
-      <c r="F111" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G111" s="67"/>
-      <c r="H111" s="67"/>
-      <c r="I111" s="67"/>
-      <c r="J111" s="67"/>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="74"/>
-      <c r="B112" s="27">
-        <v>41702</v>
       </c>
       <c r="C112" s="69"/>
       <c r="D112" s="69"/>
@@ -4453,9 +4494,9 @@
       <c r="J112" s="67"/>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="74"/>
+      <c r="A113" s="120"/>
       <c r="B113" s="27">
-        <v>41703</v>
+        <v>41702</v>
       </c>
       <c r="C113" s="69"/>
       <c r="D113" s="69"/>
@@ -4470,9 +4511,9 @@
       <c r="J113" s="67"/>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="74"/>
+      <c r="A114" s="120"/>
       <c r="B114" s="27">
-        <v>41704</v>
+        <v>41703</v>
       </c>
       <c r="C114" s="69"/>
       <c r="D114" s="69"/>
@@ -4487,9 +4528,9 @@
       <c r="J114" s="67"/>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="75"/>
+      <c r="A115" s="120"/>
       <c r="B115" s="27">
-        <v>41705</v>
+        <v>41704</v>
       </c>
       <c r="C115" s="69"/>
       <c r="D115" s="69"/>
@@ -4504,28 +4545,28 @@
       <c r="J115" s="67"/>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="76">
+      <c r="A116" s="121"/>
+      <c r="B116" s="27">
+        <v>41705</v>
+      </c>
+      <c r="C116" s="69"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="69"/>
+      <c r="F116" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="67"/>
+      <c r="H116" s="67"/>
+      <c r="I116" s="67"/>
+      <c r="J116" s="67"/>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="134">
         <v>19</v>
       </c>
-      <c r="B116" s="26">
+      <c r="B117" s="26">
         <v>41708</v>
-      </c>
-      <c r="C116" s="55"/>
-      <c r="D116" s="55"/>
-      <c r="E116" s="55"/>
-      <c r="F116" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G116" s="29"/>
-      <c r="H116" s="29"/>
-      <c r="I116" s="29"/>
-      <c r="J116" s="29"/>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="A117" s="77"/>
-      <c r="B117" s="26">
-        <v>41709</v>
       </c>
       <c r="C117" s="55"/>
       <c r="D117" s="55"/>
@@ -4540,9 +4581,9 @@
       <c r="J117" s="29"/>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="77"/>
+      <c r="A118" s="135"/>
       <c r="B118" s="26">
-        <v>41710</v>
+        <v>41709</v>
       </c>
       <c r="C118" s="55"/>
       <c r="D118" s="55"/>
@@ -4557,9 +4598,9 @@
       <c r="J118" s="29"/>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="77"/>
+      <c r="A119" s="135"/>
       <c r="B119" s="26">
-        <v>41711</v>
+        <v>41710</v>
       </c>
       <c r="C119" s="55"/>
       <c r="D119" s="55"/>
@@ -4574,9 +4615,9 @@
       <c r="J119" s="29"/>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="78"/>
+      <c r="A120" s="135"/>
       <c r="B120" s="26">
-        <v>41712</v>
+        <v>41711</v>
       </c>
       <c r="C120" s="55"/>
       <c r="D120" s="55"/>
@@ -4591,28 +4632,28 @@
       <c r="J120" s="29"/>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="73">
+      <c r="A121" s="90"/>
+      <c r="B121" s="26">
+        <v>41712</v>
+      </c>
+      <c r="C121" s="55"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="55"/>
+      <c r="F121" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="119">
         <v>20</v>
       </c>
-      <c r="B121" s="27">
+      <c r="B122" s="27">
         <v>41715</v>
-      </c>
-      <c r="C121" s="69"/>
-      <c r="D121" s="69"/>
-      <c r="E121" s="69"/>
-      <c r="F121" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G121" s="67"/>
-      <c r="H121" s="67"/>
-      <c r="I121" s="67"/>
-      <c r="J121" s="67"/>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="A122" s="74"/>
-      <c r="B122" s="27">
-        <v>41716</v>
       </c>
       <c r="C122" s="69"/>
       <c r="D122" s="69"/>
@@ -4627,9 +4668,9 @@
       <c r="J122" s="67"/>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="74"/>
+      <c r="A123" s="120"/>
       <c r="B123" s="27">
-        <v>41717</v>
+        <v>41716</v>
       </c>
       <c r="C123" s="69"/>
       <c r="D123" s="69"/>
@@ -4644,9 +4685,9 @@
       <c r="J123" s="67"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="74"/>
+      <c r="A124" s="120"/>
       <c r="B124" s="27">
-        <v>41718</v>
+        <v>41717</v>
       </c>
       <c r="C124" s="69"/>
       <c r="D124" s="69"/>
@@ -4661,9 +4702,9 @@
       <c r="J124" s="67"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="75"/>
+      <c r="A125" s="120"/>
       <c r="B125" s="27">
-        <v>41719</v>
+        <v>41718</v>
       </c>
       <c r="C125" s="69"/>
       <c r="D125" s="69"/>
@@ -4678,28 +4719,28 @@
       <c r="J125" s="67"/>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="76">
+      <c r="A126" s="121"/>
+      <c r="B126" s="27">
+        <v>41719</v>
+      </c>
+      <c r="C126" s="69"/>
+      <c r="D126" s="69"/>
+      <c r="E126" s="69"/>
+      <c r="F126" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="67"/>
+      <c r="J126" s="67"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="134">
         <v>21</v>
       </c>
-      <c r="B126" s="26">
+      <c r="B127" s="26">
         <v>41722</v>
-      </c>
-      <c r="C126" s="55"/>
-      <c r="D126" s="55"/>
-      <c r="E126" s="55"/>
-      <c r="F126" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G126" s="29"/>
-      <c r="H126" s="29"/>
-      <c r="I126" s="29"/>
-      <c r="J126" s="29"/>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127" s="77"/>
-      <c r="B127" s="26">
-        <v>41723</v>
       </c>
       <c r="C127" s="55"/>
       <c r="D127" s="55"/>
@@ -4714,9 +4755,9 @@
       <c r="J127" s="29"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="77"/>
+      <c r="A128" s="135"/>
       <c r="B128" s="26">
-        <v>41724</v>
+        <v>41723</v>
       </c>
       <c r="C128" s="55"/>
       <c r="D128" s="55"/>
@@ -4731,9 +4772,9 @@
       <c r="J128" s="29"/>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="77"/>
+      <c r="A129" s="135"/>
       <c r="B129" s="26">
-        <v>41725</v>
+        <v>41724</v>
       </c>
       <c r="C129" s="55"/>
       <c r="D129" s="55"/>
@@ -4748,9 +4789,9 @@
       <c r="J129" s="29"/>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="78"/>
+      <c r="A130" s="135"/>
       <c r="B130" s="26">
-        <v>41726</v>
+        <v>41725</v>
       </c>
       <c r="C130" s="55"/>
       <c r="D130" s="55"/>
@@ -4765,34 +4806,34 @@
       <c r="J130" s="29"/>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="73">
+      <c r="A131" s="90"/>
+      <c r="B131" s="26">
+        <v>41726</v>
+      </c>
+      <c r="C131" s="55"/>
+      <c r="D131" s="55"/>
+      <c r="E131" s="55"/>
+      <c r="F131" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
+      <c r="J131" s="29"/>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="119">
         <v>22</v>
       </c>
-      <c r="B131" s="27">
+      <c r="B132" s="27">
         <v>41729</v>
-      </c>
-      <c r="C131" s="69"/>
-      <c r="D131" s="69"/>
-      <c r="E131" s="69"/>
-      <c r="F131" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G131" s="67"/>
-      <c r="H131" s="67"/>
-      <c r="I131" s="67"/>
-      <c r="J131" s="67"/>
-    </row>
-    <row r="132" spans="1:10">
-      <c r="A132" s="74"/>
-      <c r="B132" s="27">
-        <v>41730</v>
       </c>
       <c r="C132" s="69"/>
       <c r="D132" s="69"/>
       <c r="E132" s="69"/>
       <c r="F132" s="69">
-        <f t="shared" ref="F132:F163" si="3">E132</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G132" s="67"/>
@@ -4801,15 +4842,15 @@
       <c r="J132" s="67"/>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="74"/>
+      <c r="A133" s="120"/>
       <c r="B133" s="27">
-        <v>41731</v>
+        <v>41730</v>
       </c>
       <c r="C133" s="69"/>
       <c r="D133" s="69"/>
       <c r="E133" s="69"/>
       <c r="F133" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F133:F164" si="3">E133</f>
         <v>0</v>
       </c>
       <c r="G133" s="67"/>
@@ -4818,9 +4859,9 @@
       <c r="J133" s="67"/>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="74"/>
+      <c r="A134" s="120"/>
       <c r="B134" s="27">
-        <v>41732</v>
+        <v>41731</v>
       </c>
       <c r="C134" s="69"/>
       <c r="D134" s="69"/>
@@ -4835,9 +4876,9 @@
       <c r="J134" s="67"/>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="75"/>
+      <c r="A135" s="120"/>
       <c r="B135" s="27">
-        <v>41733</v>
+        <v>41732</v>
       </c>
       <c r="C135" s="69"/>
       <c r="D135" s="69"/>
@@ -4852,28 +4893,28 @@
       <c r="J135" s="67"/>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="76">
+      <c r="A136" s="121"/>
+      <c r="B136" s="27">
+        <v>41733</v>
+      </c>
+      <c r="C136" s="69"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="69"/>
+      <c r="F136" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="67"/>
+      <c r="H136" s="67"/>
+      <c r="I136" s="67"/>
+      <c r="J136" s="67"/>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="134">
         <v>23</v>
       </c>
-      <c r="B136" s="26">
+      <c r="B137" s="26">
         <v>41736</v>
-      </c>
-      <c r="C136" s="55"/>
-      <c r="D136" s="55"/>
-      <c r="E136" s="55"/>
-      <c r="F136" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G136" s="29"/>
-      <c r="H136" s="29"/>
-      <c r="I136" s="29"/>
-      <c r="J136" s="29"/>
-    </row>
-    <row r="137" spans="1:10">
-      <c r="A137" s="77"/>
-      <c r="B137" s="26">
-        <v>41737</v>
       </c>
       <c r="C137" s="55"/>
       <c r="D137" s="55"/>
@@ -4888,9 +4929,9 @@
       <c r="J137" s="29"/>
     </row>
     <row r="138" spans="1:10">
-      <c r="A138" s="77"/>
+      <c r="A138" s="135"/>
       <c r="B138" s="26">
-        <v>41738</v>
+        <v>41737</v>
       </c>
       <c r="C138" s="55"/>
       <c r="D138" s="55"/>
@@ -4905,9 +4946,9 @@
       <c r="J138" s="29"/>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="77"/>
+      <c r="A139" s="135"/>
       <c r="B139" s="26">
-        <v>41739</v>
+        <v>41738</v>
       </c>
       <c r="C139" s="55"/>
       <c r="D139" s="55"/>
@@ -4922,9 +4963,9 @@
       <c r="J139" s="29"/>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="78"/>
+      <c r="A140" s="135"/>
       <c r="B140" s="26">
-        <v>41740</v>
+        <v>41739</v>
       </c>
       <c r="C140" s="55"/>
       <c r="D140" s="55"/>
@@ -4939,28 +4980,28 @@
       <c r="J140" s="29"/>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="73">
+      <c r="A141" s="90"/>
+      <c r="B141" s="26">
+        <v>41740</v>
+      </c>
+      <c r="C141" s="55"/>
+      <c r="D141" s="55"/>
+      <c r="E141" s="55"/>
+      <c r="F141" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G141" s="29"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="29"/>
+      <c r="J141" s="29"/>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="119">
         <v>24</v>
       </c>
-      <c r="B141" s="27">
+      <c r="B142" s="27">
         <v>41743</v>
-      </c>
-      <c r="C141" s="69"/>
-      <c r="D141" s="69"/>
-      <c r="E141" s="69"/>
-      <c r="F141" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G141" s="67"/>
-      <c r="H141" s="67"/>
-      <c r="I141" s="67"/>
-      <c r="J141" s="67"/>
-    </row>
-    <row r="142" spans="1:10">
-      <c r="A142" s="74"/>
-      <c r="B142" s="27">
-        <v>41744</v>
       </c>
       <c r="C142" s="69"/>
       <c r="D142" s="69"/>
@@ -4975,9 +5016,9 @@
       <c r="J142" s="67"/>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="74"/>
+      <c r="A143" s="120"/>
       <c r="B143" s="27">
-        <v>41745</v>
+        <v>41744</v>
       </c>
       <c r="C143" s="69"/>
       <c r="D143" s="69"/>
@@ -4992,9 +5033,9 @@
       <c r="J143" s="67"/>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="74"/>
+      <c r="A144" s="120"/>
       <c r="B144" s="27">
-        <v>41746</v>
+        <v>41745</v>
       </c>
       <c r="C144" s="69"/>
       <c r="D144" s="69"/>
@@ -5009,9 +5050,9 @@
       <c r="J144" s="67"/>
     </row>
     <row r="145" spans="1:10">
-      <c r="A145" s="75"/>
+      <c r="A145" s="120"/>
       <c r="B145" s="27">
-        <v>41747</v>
+        <v>41746</v>
       </c>
       <c r="C145" s="69"/>
       <c r="D145" s="69"/>
@@ -5026,28 +5067,28 @@
       <c r="J145" s="67"/>
     </row>
     <row r="146" spans="1:10">
-      <c r="A146" s="76">
+      <c r="A146" s="121"/>
+      <c r="B146" s="27">
+        <v>41747</v>
+      </c>
+      <c r="C146" s="69"/>
+      <c r="D146" s="69"/>
+      <c r="E146" s="69"/>
+      <c r="F146" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G146" s="67"/>
+      <c r="H146" s="67"/>
+      <c r="I146" s="67"/>
+      <c r="J146" s="67"/>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="134">
         <v>25</v>
       </c>
-      <c r="B146" s="26">
+      <c r="B147" s="26">
         <v>41750</v>
-      </c>
-      <c r="C146" s="55"/>
-      <c r="D146" s="55"/>
-      <c r="E146" s="55"/>
-      <c r="F146" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G146" s="29"/>
-      <c r="H146" s="29"/>
-      <c r="I146" s="29"/>
-      <c r="J146" s="29"/>
-    </row>
-    <row r="147" spans="1:10">
-      <c r="A147" s="77"/>
-      <c r="B147" s="26">
-        <v>41751</v>
       </c>
       <c r="C147" s="55"/>
       <c r="D147" s="55"/>
@@ -5062,9 +5103,9 @@
       <c r="J147" s="29"/>
     </row>
     <row r="148" spans="1:10">
-      <c r="A148" s="77"/>
+      <c r="A148" s="135"/>
       <c r="B148" s="26">
-        <v>41752</v>
+        <v>41751</v>
       </c>
       <c r="C148" s="55"/>
       <c r="D148" s="55"/>
@@ -5079,9 +5120,9 @@
       <c r="J148" s="29"/>
     </row>
     <row r="149" spans="1:10">
-      <c r="A149" s="77"/>
+      <c r="A149" s="135"/>
       <c r="B149" s="26">
-        <v>41753</v>
+        <v>41752</v>
       </c>
       <c r="C149" s="55"/>
       <c r="D149" s="55"/>
@@ -5096,9 +5137,9 @@
       <c r="J149" s="29"/>
     </row>
     <row r="150" spans="1:10">
-      <c r="A150" s="78"/>
+      <c r="A150" s="135"/>
       <c r="B150" s="26">
-        <v>41754</v>
+        <v>41753</v>
       </c>
       <c r="C150" s="55"/>
       <c r="D150" s="55"/>
@@ -5113,28 +5154,28 @@
       <c r="J150" s="29"/>
     </row>
     <row r="151" spans="1:10">
-      <c r="A151" s="73">
+      <c r="A151" s="90"/>
+      <c r="B151" s="26">
+        <v>41754</v>
+      </c>
+      <c r="C151" s="55"/>
+      <c r="D151" s="55"/>
+      <c r="E151" s="55"/>
+      <c r="F151" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G151" s="29"/>
+      <c r="H151" s="29"/>
+      <c r="I151" s="29"/>
+      <c r="J151" s="29"/>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="119">
         <v>26</v>
       </c>
-      <c r="B151" s="27">
+      <c r="B152" s="27">
         <v>41757</v>
-      </c>
-      <c r="C151" s="69"/>
-      <c r="D151" s="69"/>
-      <c r="E151" s="69"/>
-      <c r="F151" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G151" s="67"/>
-      <c r="H151" s="67"/>
-      <c r="I151" s="67"/>
-      <c r="J151" s="67"/>
-    </row>
-    <row r="152" spans="1:10">
-      <c r="A152" s="74"/>
-      <c r="B152" s="27">
-        <v>41758</v>
       </c>
       <c r="C152" s="69"/>
       <c r="D152" s="69"/>
@@ -5149,9 +5190,9 @@
       <c r="J152" s="67"/>
     </row>
     <row r="153" spans="1:10">
-      <c r="A153" s="74"/>
+      <c r="A153" s="120"/>
       <c r="B153" s="27">
-        <v>41759</v>
+        <v>41758</v>
       </c>
       <c r="C153" s="69"/>
       <c r="D153" s="69"/>
@@ -5166,9 +5207,9 @@
       <c r="J153" s="67"/>
     </row>
     <row r="154" spans="1:10">
-      <c r="A154" s="74"/>
+      <c r="A154" s="120"/>
       <c r="B154" s="27">
-        <v>41760</v>
+        <v>41759</v>
       </c>
       <c r="C154" s="69"/>
       <c r="D154" s="69"/>
@@ -5183,9 +5224,9 @@
       <c r="J154" s="67"/>
     </row>
     <row r="155" spans="1:10">
-      <c r="A155" s="75"/>
+      <c r="A155" s="120"/>
       <c r="B155" s="27">
-        <v>41761</v>
+        <v>41760</v>
       </c>
       <c r="C155" s="69"/>
       <c r="D155" s="69"/>
@@ -5200,28 +5241,28 @@
       <c r="J155" s="67"/>
     </row>
     <row r="156" spans="1:10">
-      <c r="A156" s="76">
+      <c r="A156" s="121"/>
+      <c r="B156" s="27">
+        <v>41761</v>
+      </c>
+      <c r="C156" s="69"/>
+      <c r="D156" s="69"/>
+      <c r="E156" s="69"/>
+      <c r="F156" s="69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="67"/>
+      <c r="H156" s="67"/>
+      <c r="I156" s="67"/>
+      <c r="J156" s="67"/>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="134">
         <v>27</v>
       </c>
-      <c r="B156" s="26">
+      <c r="B157" s="26">
         <v>41764</v>
-      </c>
-      <c r="C156" s="55"/>
-      <c r="D156" s="55"/>
-      <c r="E156" s="55"/>
-      <c r="F156" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G156" s="29"/>
-      <c r="H156" s="29"/>
-      <c r="I156" s="29"/>
-      <c r="J156" s="29"/>
-    </row>
-    <row r="157" spans="1:10">
-      <c r="A157" s="77"/>
-      <c r="B157" s="26">
-        <v>41765</v>
       </c>
       <c r="C157" s="55"/>
       <c r="D157" s="55"/>
@@ -5236,9 +5277,9 @@
       <c r="J157" s="29"/>
     </row>
     <row r="158" spans="1:10">
-      <c r="A158" s="77"/>
+      <c r="A158" s="135"/>
       <c r="B158" s="26">
-        <v>41766</v>
+        <v>41765</v>
       </c>
       <c r="C158" s="55"/>
       <c r="D158" s="55"/>
@@ -5253,9 +5294,9 @@
       <c r="J158" s="29"/>
     </row>
     <row r="159" spans="1:10">
-      <c r="A159" s="77"/>
+      <c r="A159" s="135"/>
       <c r="B159" s="26">
-        <v>41767</v>
+        <v>41766</v>
       </c>
       <c r="C159" s="55"/>
       <c r="D159" s="55"/>
@@ -5270,9 +5311,9 @@
       <c r="J159" s="29"/>
     </row>
     <row r="160" spans="1:10">
-      <c r="A160" s="78"/>
+      <c r="A160" s="135"/>
       <c r="B160" s="26">
-        <v>41768</v>
+        <v>41767</v>
       </c>
       <c r="C160" s="55"/>
       <c r="D160" s="55"/>
@@ -5287,28 +5328,28 @@
       <c r="J160" s="29"/>
     </row>
     <row r="161" spans="1:10">
-      <c r="A161" s="73">
+      <c r="A161" s="90"/>
+      <c r="B161" s="26">
+        <v>41768</v>
+      </c>
+      <c r="C161" s="55"/>
+      <c r="D161" s="55"/>
+      <c r="E161" s="55"/>
+      <c r="F161" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G161" s="29"/>
+      <c r="H161" s="29"/>
+      <c r="I161" s="29"/>
+      <c r="J161" s="29"/>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="119">
         <v>28</v>
       </c>
-      <c r="B161" s="27">
+      <c r="B162" s="27">
         <v>41771</v>
-      </c>
-      <c r="C161" s="69"/>
-      <c r="D161" s="69"/>
-      <c r="E161" s="69"/>
-      <c r="F161" s="69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G161" s="67"/>
-      <c r="H161" s="67"/>
-      <c r="I161" s="67"/>
-      <c r="J161" s="67"/>
-    </row>
-    <row r="162" spans="1:10">
-      <c r="A162" s="74"/>
-      <c r="B162" s="27">
-        <v>41772</v>
       </c>
       <c r="C162" s="69"/>
       <c r="D162" s="69"/>
@@ -5323,9 +5364,9 @@
       <c r="J162" s="67"/>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="74"/>
+      <c r="A163" s="120"/>
       <c r="B163" s="27">
-        <v>41773</v>
+        <v>41772</v>
       </c>
       <c r="C163" s="69"/>
       <c r="D163" s="69"/>
@@ -5340,15 +5381,15 @@
       <c r="J163" s="67"/>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="74"/>
+      <c r="A164" s="120"/>
       <c r="B164" s="27">
-        <v>41774</v>
+        <v>41773</v>
       </c>
       <c r="C164" s="69"/>
       <c r="D164" s="69"/>
       <c r="E164" s="69"/>
       <c r="F164" s="69">
-        <f t="shared" ref="F164:F175" si="4">E164</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G164" s="67"/>
@@ -5357,15 +5398,15 @@
       <c r="J164" s="67"/>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="75"/>
+      <c r="A165" s="120"/>
       <c r="B165" s="27">
-        <v>41775</v>
+        <v>41774</v>
       </c>
       <c r="C165" s="69"/>
       <c r="D165" s="69"/>
       <c r="E165" s="69"/>
       <c r="F165" s="69">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F165:F176" si="4">E165</f>
         <v>0</v>
       </c>
       <c r="G165" s="67"/>
@@ -5374,28 +5415,28 @@
       <c r="J165" s="67"/>
     </row>
     <row r="166" spans="1:10">
-      <c r="A166" s="76">
+      <c r="A166" s="121"/>
+      <c r="B166" s="27">
+        <v>41775</v>
+      </c>
+      <c r="C166" s="69"/>
+      <c r="D166" s="69"/>
+      <c r="E166" s="69"/>
+      <c r="F166" s="69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G166" s="67"/>
+      <c r="H166" s="67"/>
+      <c r="I166" s="67"/>
+      <c r="J166" s="67"/>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="134">
         <v>29</v>
       </c>
-      <c r="B166" s="26">
+      <c r="B167" s="26">
         <v>41778</v>
-      </c>
-      <c r="C166" s="55"/>
-      <c r="D166" s="55"/>
-      <c r="E166" s="55"/>
-      <c r="F166" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G166" s="29"/>
-      <c r="H166" s="29"/>
-      <c r="I166" s="29"/>
-      <c r="J166" s="29"/>
-    </row>
-    <row r="167" spans="1:10">
-      <c r="A167" s="77"/>
-      <c r="B167" s="26">
-        <v>41779</v>
       </c>
       <c r="C167" s="55"/>
       <c r="D167" s="55"/>
@@ -5410,9 +5451,9 @@
       <c r="J167" s="29"/>
     </row>
     <row r="168" spans="1:10">
-      <c r="A168" s="77"/>
+      <c r="A168" s="135"/>
       <c r="B168" s="26">
-        <v>41780</v>
+        <v>41779</v>
       </c>
       <c r="C168" s="55"/>
       <c r="D168" s="55"/>
@@ -5427,9 +5468,9 @@
       <c r="J168" s="29"/>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="77"/>
+      <c r="A169" s="135"/>
       <c r="B169" s="26">
-        <v>41781</v>
+        <v>41780</v>
       </c>
       <c r="C169" s="55"/>
       <c r="D169" s="55"/>
@@ -5444,9 +5485,9 @@
       <c r="J169" s="29"/>
     </row>
     <row r="170" spans="1:10">
-      <c r="A170" s="78"/>
+      <c r="A170" s="135"/>
       <c r="B170" s="26">
-        <v>41782</v>
+        <v>41781</v>
       </c>
       <c r="C170" s="55"/>
       <c r="D170" s="55"/>
@@ -5461,28 +5502,28 @@
       <c r="J170" s="29"/>
     </row>
     <row r="171" spans="1:10">
-      <c r="A171" s="79">
+      <c r="A171" s="90"/>
+      <c r="B171" s="26">
+        <v>41782</v>
+      </c>
+      <c r="C171" s="55"/>
+      <c r="D171" s="55"/>
+      <c r="E171" s="55"/>
+      <c r="F171" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G171" s="29"/>
+      <c r="H171" s="29"/>
+      <c r="I171" s="29"/>
+      <c r="J171" s="29"/>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="136">
         <v>30</v>
       </c>
-      <c r="B171" s="27">
+      <c r="B172" s="27">
         <v>41785</v>
-      </c>
-      <c r="C171" s="70"/>
-      <c r="D171" s="70"/>
-      <c r="E171" s="70"/>
-      <c r="F171" s="70">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G171" s="37"/>
-      <c r="H171" s="37"/>
-      <c r="I171" s="37"/>
-      <c r="J171" s="37"/>
-    </row>
-    <row r="172" spans="1:10">
-      <c r="A172" s="80"/>
-      <c r="B172" s="27">
-        <v>41786</v>
       </c>
       <c r="C172" s="70"/>
       <c r="D172" s="70"/>
@@ -5497,9 +5538,9 @@
       <c r="J172" s="37"/>
     </row>
     <row r="173" spans="1:10">
-      <c r="A173" s="80"/>
+      <c r="A173" s="137"/>
       <c r="B173" s="27">
-        <v>41787</v>
+        <v>41786</v>
       </c>
       <c r="C173" s="70"/>
       <c r="D173" s="70"/>
@@ -5514,9 +5555,9 @@
       <c r="J173" s="37"/>
     </row>
     <row r="174" spans="1:10">
-      <c r="A174" s="80"/>
+      <c r="A174" s="137"/>
       <c r="B174" s="27">
-        <v>41788</v>
+        <v>41787</v>
       </c>
       <c r="C174" s="70"/>
       <c r="D174" s="70"/>
@@ -5531,9 +5572,9 @@
       <c r="J174" s="37"/>
     </row>
     <row r="175" spans="1:10">
-      <c r="A175" s="81"/>
+      <c r="A175" s="137"/>
       <c r="B175" s="27">
-        <v>41789</v>
+        <v>41788</v>
       </c>
       <c r="C175" s="70"/>
       <c r="D175" s="70"/>
@@ -5548,16 +5589,21 @@
       <c r="J175" s="37"/>
     </row>
     <row r="176" spans="1:10">
-      <c r="A176" s="68"/>
-      <c r="B176" s="68"/>
-      <c r="C176" s="68"/>
-      <c r="D176" s="68"/>
-      <c r="E176" s="68"/>
-      <c r="F176" s="68"/>
-      <c r="G176" s="68"/>
-      <c r="H176" s="68"/>
-      <c r="I176" s="68"/>
-      <c r="J176" s="68"/>
+      <c r="A176" s="138"/>
+      <c r="B176" s="27">
+        <v>41789</v>
+      </c>
+      <c r="C176" s="70"/>
+      <c r="D176" s="70"/>
+      <c r="E176" s="70"/>
+      <c r="F176" s="70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G176" s="37"/>
+      <c r="H176" s="37"/>
+      <c r="I176" s="37"/>
+      <c r="J176" s="37"/>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="68"/>
@@ -5655,8 +5701,61 @@
       <c r="I184" s="68"/>
       <c r="J184" s="68"/>
     </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="68"/>
+      <c r="B185" s="68"/>
+      <c r="C185" s="68"/>
+      <c r="D185" s="68"/>
+      <c r="E185" s="68"/>
+      <c r="F185" s="68"/>
+      <c r="G185" s="68"/>
+      <c r="H185" s="68"/>
+      <c r="I185" s="68"/>
+      <c r="J185" s="68"/>
+    </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="57">
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A33:A45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A19:A32"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F42"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
  